--- a/拼装统计.xlsx
+++ b/拼装统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15264" activeTab="3"/>
+    <workbookView windowWidth="30720" windowHeight="13740" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="义乌奥晶办公室食堂（完成)" sheetId="22" r:id="rId1"/>
@@ -1278,15 +1278,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="9">
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.000_);[Red]\(0.000\)"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="0.000_);[Red]\(0.000\)"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="0.0_);[Red]\(0.0\)"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="179" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="180" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -1337,7 +1337,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1351,22 +1381,16 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1375,36 +1399,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1426,17 +1420,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1444,6 +1444,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1457,24 +1465,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1507,7 +1507,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1519,13 +1549,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1537,7 +1561,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1549,19 +1621,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1573,115 +1669,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1752,8 +1752,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1761,8 +1761,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1778,36 +1778,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1832,6 +1802,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1846,6 +1831,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1854,10 +1854,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1866,136 +1866,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2015,7 +2015,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2030,13 +2030,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2048,28 +2048,28 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2081,7 +2081,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2096,7 +2096,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2432,22 +2432,22 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.6271186440678" style="3" customWidth="1"/>
-    <col min="2" max="2" width="11.6271186440678" style="3" customWidth="1"/>
-    <col min="3" max="3" width="7.75423728813559" style="3" customWidth="1"/>
-    <col min="4" max="4" width="18.3728813559322" style="3"/>
-    <col min="5" max="5" width="5.75423728813559" style="3"/>
+    <col min="1" max="1" width="6.62962962962963" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11.6296296296296" style="3" customWidth="1"/>
+    <col min="3" max="3" width="7.75" style="3" customWidth="1"/>
+    <col min="4" max="4" width="18.3703703703704" style="3"/>
+    <col min="5" max="5" width="5.75" style="3"/>
     <col min="6" max="6" width="16.5" style="3" customWidth="1"/>
     <col min="7" max="8" width="16.5" style="4" customWidth="1"/>
-    <col min="9" max="9" width="12.2542372881356" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="12.25" style="4" customWidth="1" outlineLevel="1"/>
     <col min="10" max="10" width="10" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="9.6271186440678" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="13" width="8.75423728813559" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="6.6271186440678" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="9.62962962962963" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="13" width="8.75" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="6.62962962962963" style="4" customWidth="1" outlineLevel="1"/>
     <col min="15" max="15" width="12.5" style="4" customWidth="1"/>
-    <col min="16" max="16" width="9.6271186440678" style="4" customWidth="1"/>
+    <col min="16" max="16" width="9.62962962962963" style="4" customWidth="1"/>
     <col min="17" max="17" width="20" style="3" customWidth="1"/>
-    <col min="18" max="18" width="12.7542372881356" style="5" customWidth="1"/>
+    <col min="18" max="18" width="12.75" style="5" customWidth="1"/>
     <col min="19" max="16360" width="9" style="5"/>
   </cols>
   <sheetData>
@@ -4815,22 +4815,22 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.6271186440678" style="3" customWidth="1"/>
-    <col min="2" max="2" width="11.6271186440678" style="3" customWidth="1"/>
-    <col min="3" max="3" width="7.75423728813559" style="3" customWidth="1"/>
-    <col min="4" max="4" width="18.3728813559322" style="3"/>
-    <col min="5" max="5" width="5.75423728813559" style="3"/>
+    <col min="1" max="1" width="6.62962962962963" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11.6296296296296" style="3" customWidth="1"/>
+    <col min="3" max="3" width="7.75" style="3" customWidth="1"/>
+    <col min="4" max="4" width="18.3703703703704" style="3"/>
+    <col min="5" max="5" width="5.75" style="3"/>
     <col min="6" max="6" width="16.5" style="3" customWidth="1"/>
     <col min="7" max="8" width="16.5" style="4" customWidth="1"/>
-    <col min="9" max="9" width="12.2542372881356" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="12.25" style="4" customWidth="1" outlineLevel="1"/>
     <col min="10" max="10" width="10" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="9.6271186440678" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="13" width="8.75423728813559" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="6.6271186440678" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="9.62962962962963" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="13" width="8.75" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="6.62962962962963" style="4" customWidth="1" outlineLevel="1"/>
     <col min="15" max="15" width="12.5" style="4" customWidth="1"/>
-    <col min="16" max="16" width="9.6271186440678" style="4" customWidth="1"/>
+    <col min="16" max="16" width="9.62962962962963" style="4" customWidth="1"/>
     <col min="17" max="17" width="20" style="3" customWidth="1"/>
-    <col min="18" max="18" width="12.7542372881356" style="5" customWidth="1"/>
+    <col min="18" max="18" width="12.75" style="5" customWidth="1"/>
     <col min="19" max="16360" width="9" style="5"/>
   </cols>
   <sheetData>
@@ -6883,22 +6883,22 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.6271186440678" style="3" customWidth="1"/>
-    <col min="2" max="2" width="11.6271186440678" style="3" customWidth="1"/>
-    <col min="3" max="3" width="7.75423728813559" style="3" customWidth="1"/>
-    <col min="4" max="4" width="18.3728813559322" style="3"/>
-    <col min="5" max="5" width="5.75423728813559" style="3"/>
+    <col min="1" max="1" width="6.62962962962963" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11.6296296296296" style="3" customWidth="1"/>
+    <col min="3" max="3" width="7.75" style="3" customWidth="1"/>
+    <col min="4" max="4" width="18.3703703703704" style="3"/>
+    <col min="5" max="5" width="5.75" style="3"/>
     <col min="6" max="6" width="16.5" style="3" customWidth="1"/>
     <col min="7" max="8" width="16.5" style="4" customWidth="1"/>
-    <col min="9" max="9" width="12.2542372881356" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="12.25" style="4" customWidth="1" outlineLevel="1"/>
     <col min="10" max="10" width="10" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="9.6271186440678" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="13" width="8.75423728813559" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="6.6271186440678" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="9.62962962962963" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="13" width="8.75" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="6.62962962962963" style="4" customWidth="1" outlineLevel="1"/>
     <col min="15" max="15" width="12.5" style="4" customWidth="1"/>
-    <col min="16" max="16" width="9.6271186440678" style="4" customWidth="1"/>
+    <col min="16" max="16" width="9.62962962962963" style="4" customWidth="1"/>
     <col min="17" max="17" width="20" style="3" customWidth="1"/>
-    <col min="18" max="18" width="12.7542372881356" style="5" customWidth="1"/>
+    <col min="18" max="18" width="12.75" style="5" customWidth="1"/>
     <col min="19" max="16360" width="9" style="5"/>
   </cols>
   <sheetData>
@@ -8951,22 +8951,22 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.6271186440678" style="3" customWidth="1"/>
-    <col min="2" max="2" width="11.6271186440678" style="3" customWidth="1"/>
-    <col min="3" max="3" width="7.75423728813559" style="3" customWidth="1"/>
-    <col min="4" max="4" width="18.3728813559322" style="3"/>
-    <col min="5" max="5" width="5.75423728813559" style="3"/>
+    <col min="1" max="1" width="6.62962962962963" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11.6296296296296" style="3" customWidth="1"/>
+    <col min="3" max="3" width="7.75" style="3" customWidth="1"/>
+    <col min="4" max="4" width="18.3703703703704" style="3"/>
+    <col min="5" max="5" width="5.75" style="3"/>
     <col min="6" max="6" width="16.5" style="3" customWidth="1"/>
     <col min="7" max="8" width="16.5" style="4" customWidth="1"/>
-    <col min="9" max="9" width="12.2542372881356" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="12.25" style="4" customWidth="1" outlineLevel="1"/>
     <col min="10" max="10" width="10" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="9.6271186440678" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="13" width="8.75423728813559" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="6.6271186440678" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="9.62962962962963" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="13" width="8.75" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="6.62962962962963" style="4" customWidth="1" outlineLevel="1"/>
     <col min="15" max="15" width="12.5" style="4" customWidth="1"/>
-    <col min="16" max="16" width="9.6271186440678" style="4" customWidth="1"/>
+    <col min="16" max="16" width="9.62962962962963" style="4" customWidth="1"/>
     <col min="17" max="17" width="20" style="3" customWidth="1"/>
-    <col min="18" max="18" width="12.7542372881356" style="5" customWidth="1"/>
+    <col min="18" max="18" width="12.75" style="5" customWidth="1"/>
     <col min="19" max="16360" width="9" style="5"/>
   </cols>
   <sheetData>
@@ -11015,13 +11015,13 @@
       <selection pane="bottomLeft" activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88135593220339" defaultRowHeight="13.05" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="2" max="2" width="12.9745762711864" customWidth="1"/>
-    <col min="3" max="3" width="10.5338983050847" customWidth="1"/>
-    <col min="4" max="4" width="11.4237288135593" customWidth="1"/>
-    <col min="5" max="5" width="9.09322033898305" customWidth="1"/>
-    <col min="6" max="6" width="12.3135593220339" customWidth="1"/>
+    <col min="2" max="2" width="12.9722222222222" customWidth="1"/>
+    <col min="3" max="3" width="10.537037037037" customWidth="1"/>
+    <col min="4" max="4" width="11.4259259259259" customWidth="1"/>
+    <col min="5" max="5" width="9.09259259259259" customWidth="1"/>
+    <col min="6" max="6" width="12.3148148148148" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14" customHeight="1" spans="1:7">
@@ -11847,22 +11847,22 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.6271186440678" style="3" customWidth="1"/>
-    <col min="2" max="2" width="11.6271186440678" style="3" customWidth="1"/>
-    <col min="3" max="3" width="7.75423728813559" style="3" customWidth="1"/>
-    <col min="4" max="4" width="18.3728813559322" style="3"/>
-    <col min="5" max="5" width="5.75423728813559" style="3"/>
+    <col min="1" max="1" width="6.62962962962963" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11.6296296296296" style="3" customWidth="1"/>
+    <col min="3" max="3" width="7.75" style="3" customWidth="1"/>
+    <col min="4" max="4" width="18.3703703703704" style="3"/>
+    <col min="5" max="5" width="5.75" style="3"/>
     <col min="6" max="6" width="16.5" style="3" customWidth="1"/>
     <col min="7" max="8" width="16.5" style="4" customWidth="1"/>
-    <col min="9" max="9" width="12.2542372881356" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="12.25" style="4" customWidth="1" outlineLevel="1"/>
     <col min="10" max="10" width="10" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="9.6271186440678" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="13" width="8.75423728813559" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="6.6271186440678" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="9.62962962962963" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="13" width="8.75" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="6.62962962962963" style="4" customWidth="1" outlineLevel="1"/>
     <col min="15" max="15" width="12.5" style="4" customWidth="1"/>
-    <col min="16" max="16" width="9.6271186440678" style="4" customWidth="1"/>
+    <col min="16" max="16" width="9.62962962962963" style="4" customWidth="1"/>
     <col min="17" max="17" width="20" style="3" customWidth="1"/>
-    <col min="18" max="18" width="12.7542372881356" style="5" customWidth="1"/>
+    <col min="18" max="18" width="12.75" style="5" customWidth="1"/>
     <col min="19" max="16360" width="9" style="5"/>
   </cols>
   <sheetData>
@@ -14747,27 +14747,27 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
+      <selection pane="bottomRight" activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.6271186440678" style="3" customWidth="1"/>
-    <col min="2" max="2" width="11.6271186440678" style="3" customWidth="1"/>
-    <col min="3" max="3" width="7.75423728813559" style="3" customWidth="1"/>
-    <col min="4" max="4" width="23.6271186440678" style="3" customWidth="1"/>
-    <col min="5" max="5" width="5.75423728813559" style="3"/>
+    <col min="1" max="1" width="6.62962962962963" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11.6296296296296" style="3" customWidth="1"/>
+    <col min="3" max="3" width="7.75" style="3" customWidth="1"/>
+    <col min="4" max="4" width="23.6296296296296" style="3" customWidth="1"/>
+    <col min="5" max="5" width="5.75" style="3"/>
     <col min="6" max="6" width="16.5" style="3" customWidth="1"/>
     <col min="7" max="8" width="16.5" style="4" customWidth="1"/>
-    <col min="9" max="9" width="12.2542372881356" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="12.25" style="4" customWidth="1" outlineLevel="1"/>
     <col min="10" max="10" width="10" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="9.6271186440678" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="13" width="8.75423728813559" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="19" width="6.6271186440678" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="9.62962962962963" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="13" width="8.75" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="19" width="6.62962962962963" style="4" customWidth="1" outlineLevel="1"/>
     <col min="20" max="20" width="12.5" style="4" customWidth="1"/>
-    <col min="21" max="21" width="9.6271186440678" style="4" customWidth="1"/>
+    <col min="21" max="21" width="9.62962962962963" style="4" customWidth="1"/>
     <col min="22" max="22" width="20" style="3" customWidth="1"/>
-    <col min="23" max="23" width="12.7542372881356" style="5" customWidth="1"/>
+    <col min="23" max="23" width="12.75" style="5" customWidth="1"/>
     <col min="24" max="16365" width="9" style="5"/>
   </cols>
   <sheetData>
@@ -14893,7 +14893,9 @@
       <c r="N4" s="12">
         <v>1.23</v>
       </c>
-      <c r="O4" s="27"/>
+      <c r="O4" s="27">
+        <v>1.23</v>
+      </c>
       <c r="P4" s="27"/>
       <c r="Q4" s="27"/>
       <c r="R4" s="27"/>
@@ -14979,7 +14981,9 @@
       <c r="I6" s="17"/>
       <c r="J6" s="12"/>
       <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
+      <c r="L6" s="12">
+        <v>1</v>
+      </c>
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
@@ -14989,15 +14993,15 @@
       <c r="S6" s="12"/>
       <c r="T6" s="18">
         <f>SUM(I6:S6)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U6" s="18">
-        <f>C6-T6</f>
-        <v>1</v>
-      </c>
-      <c r="V6" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V6" s="20" t="str">
         <f>IF(SUM(I6:S6)=C6,"完成",SUM(I6:S6))</f>
-        <v>0</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:22">
@@ -15036,7 +15040,7 @@
       <c r="R7" s="12"/>
       <c r="S7" s="12"/>
       <c r="T7" s="18">
-        <f>SUM(I7:N7)</f>
+        <f t="shared" ref="T7:T16" si="2">SUM(I7:N7)</f>
         <v>1</v>
       </c>
       <c r="U7" s="18">
@@ -15044,7 +15048,7 @@
         <v>0</v>
       </c>
       <c r="V7" s="20" t="str">
-        <f>IF(SUM(I7:N7)=C7,"完成",SUM(I7:N7))</f>
+        <f t="shared" ref="V7:V16" si="3">IF(SUM(I7:N7)=C7,"完成",SUM(I7:N7))</f>
         <v>完成</v>
       </c>
     </row>
@@ -15084,7 +15088,7 @@
       <c r="R8" s="12"/>
       <c r="S8" s="12"/>
       <c r="T8" s="18">
-        <f>SUM(I8:N8)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="U8" s="18">
@@ -15092,7 +15096,7 @@
         <v>0</v>
       </c>
       <c r="V8" s="20" t="str">
-        <f>IF(SUM(I8:N8)=C8,"完成",SUM(I8:N8))</f>
+        <f t="shared" si="3"/>
         <v>完成</v>
       </c>
     </row>
@@ -15132,7 +15136,7 @@
       <c r="R9" s="12"/>
       <c r="S9" s="12"/>
       <c r="T9" s="18">
-        <f>SUM(I9:N9)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="U9" s="18">
@@ -15140,7 +15144,7 @@
         <v>0</v>
       </c>
       <c r="V9" s="20" t="str">
-        <f>IF(SUM(I9:N9)=C9,"完成",SUM(I9:N9))</f>
+        <f t="shared" si="3"/>
         <v>完成</v>
       </c>
     </row>
@@ -15180,7 +15184,7 @@
       <c r="R10" s="12"/>
       <c r="S10" s="12"/>
       <c r="T10" s="18">
-        <f>SUM(I10:N10)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="U10" s="18">
@@ -15188,7 +15192,7 @@
         <v>0</v>
       </c>
       <c r="V10" s="20" t="str">
-        <f>IF(SUM(I10:N10)=C10,"完成",SUM(I10:N10))</f>
+        <f t="shared" si="3"/>
         <v>完成</v>
       </c>
     </row>
@@ -15228,7 +15232,7 @@
       <c r="R11" s="12"/>
       <c r="S11" s="12"/>
       <c r="T11" s="18">
-        <f>SUM(I11:N11)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="U11" s="18">
@@ -15236,7 +15240,7 @@
         <v>0</v>
       </c>
       <c r="V11" s="20" t="str">
-        <f>IF(SUM(I11:N11)=C11,"完成",SUM(I11:N11))</f>
+        <f t="shared" si="3"/>
         <v>完成</v>
       </c>
     </row>
@@ -15276,7 +15280,7 @@
       <c r="R12" s="12"/>
       <c r="S12" s="12"/>
       <c r="T12" s="18">
-        <f>SUM(I12:N12)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="U12" s="18">
@@ -15284,7 +15288,7 @@
         <v>0</v>
       </c>
       <c r="V12" s="20" t="str">
-        <f>IF(SUM(I12:N12)=C12,"完成",SUM(I12:N12))</f>
+        <f t="shared" si="3"/>
         <v>完成</v>
       </c>
     </row>
@@ -15324,7 +15328,7 @@
       <c r="R13" s="12"/>
       <c r="S13" s="12"/>
       <c r="T13" s="18">
-        <f>SUM(I13:N13)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="U13" s="18">
@@ -15332,7 +15336,7 @@
         <v>0</v>
       </c>
       <c r="V13" s="20" t="str">
-        <f>IF(SUM(I13:N13)=C13,"完成",SUM(I13:N13))</f>
+        <f t="shared" si="3"/>
         <v>完成</v>
       </c>
     </row>
@@ -15372,7 +15376,7 @@
       <c r="R14" s="12"/>
       <c r="S14" s="12"/>
       <c r="T14" s="18">
-        <f>SUM(I14:N14)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="U14" s="18">
@@ -15380,7 +15384,7 @@
         <v>0</v>
       </c>
       <c r="V14" s="20" t="str">
-        <f>IF(SUM(I14:N14)=C14,"完成",SUM(I14:N14))</f>
+        <f t="shared" si="3"/>
         <v>完成</v>
       </c>
     </row>
@@ -15420,7 +15424,7 @@
       <c r="R15" s="12"/>
       <c r="S15" s="12"/>
       <c r="T15" s="18">
-        <f>SUM(I15:N15)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="U15" s="18">
@@ -15428,7 +15432,7 @@
         <v>0</v>
       </c>
       <c r="V15" s="20" t="str">
-        <f>IF(SUM(I15:N15)=C15,"完成",SUM(I15:N15))</f>
+        <f t="shared" si="3"/>
         <v>完成</v>
       </c>
     </row>
@@ -15468,7 +15472,7 @@
       <c r="R16" s="12"/>
       <c r="S16" s="12"/>
       <c r="T16" s="18">
-        <f>SUM(I16:N16)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="U16" s="18">
@@ -15476,7 +15480,7 @@
         <v>0</v>
       </c>
       <c r="V16" s="20" t="str">
-        <f>IF(SUM(I16:N16)=C16,"完成",SUM(I16:N16))</f>
+        <f t="shared" si="3"/>
         <v>完成</v>
       </c>
     </row>
@@ -15514,7 +15518,7 @@
       <c r="R17" s="12"/>
       <c r="S17" s="12"/>
       <c r="T17" s="18">
-        <f t="shared" ref="T17:T22" si="2">SUM(I17:S17)</f>
+        <f t="shared" ref="T17:T22" si="4">SUM(I17:S17)</f>
         <v>0</v>
       </c>
       <c r="U17" s="18">
@@ -15522,7 +15526,7 @@
         <v>3</v>
       </c>
       <c r="V17" s="20">
-        <f t="shared" ref="V17:V22" si="3">IF(SUM(I17:S17)=C17,"完成",SUM(I17:S17))</f>
+        <f t="shared" ref="V17:V22" si="5">IF(SUM(I17:S17)=C17,"完成",SUM(I17:S17))</f>
         <v>0</v>
       </c>
     </row>
@@ -15560,7 +15564,7 @@
       <c r="R18" s="12"/>
       <c r="S18" s="12"/>
       <c r="T18" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U18" s="18">
@@ -15568,7 +15572,7 @@
         <v>1</v>
       </c>
       <c r="V18" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -15600,22 +15604,24 @@
       <c r="L19" s="12"/>
       <c r="M19" s="12"/>
       <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
+      <c r="O19" s="25">
+        <v>1</v>
+      </c>
       <c r="P19" s="12"/>
       <c r="Q19" s="12"/>
       <c r="R19" s="12"/>
       <c r="S19" s="12"/>
       <c r="T19" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="U19" s="18">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="V19" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="V19" s="20" t="str">
+        <f t="shared" si="5"/>
+        <v>完成</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:22">
@@ -15646,22 +15652,24 @@
       <c r="L20" s="12"/>
       <c r="M20" s="12"/>
       <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
+      <c r="O20" s="25">
+        <v>1</v>
+      </c>
       <c r="P20" s="12"/>
       <c r="Q20" s="12"/>
       <c r="R20" s="12"/>
       <c r="S20" s="12"/>
       <c r="T20" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="U20" s="18">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="V20" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="V20" s="20" t="str">
+        <f t="shared" si="5"/>
+        <v>完成</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:22">
@@ -15692,22 +15700,24 @@
       <c r="L21" s="12"/>
       <c r="M21" s="12"/>
       <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
+      <c r="O21" s="25">
+        <v>1</v>
+      </c>
       <c r="P21" s="12"/>
       <c r="Q21" s="12"/>
       <c r="R21" s="12"/>
       <c r="S21" s="12"/>
       <c r="T21" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="U21" s="18">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="V21" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="V21" s="20" t="str">
+        <f t="shared" si="5"/>
+        <v>完成</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:23">
@@ -15738,22 +15748,24 @@
       <c r="L22" s="12"/>
       <c r="M22" s="12"/>
       <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
+      <c r="O22" s="25">
+        <v>1</v>
+      </c>
       <c r="P22" s="12"/>
       <c r="Q22" s="12"/>
       <c r="R22" s="12"/>
       <c r="S22" s="12"/>
       <c r="T22" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="U22" s="18">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="V22" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="V22" s="20" t="str">
+        <f t="shared" si="5"/>
+        <v>完成</v>
       </c>
       <c r="W22" s="21"/>
     </row>
@@ -15793,7 +15805,7 @@
       <c r="R23" s="12"/>
       <c r="S23" s="12"/>
       <c r="T23" s="18">
-        <f>SUM(I23:N23)</f>
+        <f t="shared" ref="T23:T29" si="6">SUM(I23:N23)</f>
         <v>2</v>
       </c>
       <c r="U23" s="18">
@@ -15801,7 +15813,7 @@
         <v>0</v>
       </c>
       <c r="V23" s="20" t="str">
-        <f>IF(SUM(I23:N23)=C23,"完成",SUM(I23:N23))</f>
+        <f t="shared" ref="V23:V29" si="7">IF(SUM(I23:N23)=C23,"完成",SUM(I23:N23))</f>
         <v>完成</v>
       </c>
     </row>
@@ -15841,7 +15853,7 @@
       <c r="R24" s="12"/>
       <c r="S24" s="12"/>
       <c r="T24" s="18">
-        <f>SUM(I24:N24)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="U24" s="18">
@@ -15849,7 +15861,7 @@
         <v>0</v>
       </c>
       <c r="V24" s="20" t="str">
-        <f>IF(SUM(I24:N24)=C24,"完成",SUM(I24:N24))</f>
+        <f t="shared" si="7"/>
         <v>完成</v>
       </c>
     </row>
@@ -15889,7 +15901,7 @@
       <c r="R25" s="12"/>
       <c r="S25" s="12"/>
       <c r="T25" s="18">
-        <f>SUM(I25:N25)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="U25" s="18">
@@ -15897,7 +15909,7 @@
         <v>0</v>
       </c>
       <c r="V25" s="20" t="str">
-        <f>IF(SUM(I25:N25)=C25,"完成",SUM(I25:N25))</f>
+        <f t="shared" si="7"/>
         <v>完成</v>
       </c>
     </row>
@@ -15937,7 +15949,7 @@
       <c r="R26" s="12"/>
       <c r="S26" s="12"/>
       <c r="T26" s="18">
-        <f>SUM(I26:N26)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="U26" s="18">
@@ -15945,7 +15957,7 @@
         <v>0</v>
       </c>
       <c r="V26" s="20" t="str">
-        <f>IF(SUM(I26:N26)=C26,"完成",SUM(I26:N26))</f>
+        <f t="shared" si="7"/>
         <v>完成</v>
       </c>
     </row>
@@ -15985,7 +15997,7 @@
       <c r="R27" s="12"/>
       <c r="S27" s="12"/>
       <c r="T27" s="18">
-        <f>SUM(I27:N27)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="U27" s="18">
@@ -15993,7 +16005,7 @@
         <v>0</v>
       </c>
       <c r="V27" s="20" t="str">
-        <f>IF(SUM(I27:N27)=C27,"完成",SUM(I27:N27))</f>
+        <f t="shared" si="7"/>
         <v>完成</v>
       </c>
     </row>
@@ -16033,7 +16045,7 @@
       <c r="R28" s="12"/>
       <c r="S28" s="12"/>
       <c r="T28" s="18">
-        <f>SUM(I28:N28)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="U28" s="18">
@@ -16041,7 +16053,7 @@
         <v>0</v>
       </c>
       <c r="V28" s="20" t="str">
-        <f>IF(SUM(I28:N28)=C28,"完成",SUM(I28:N28))</f>
+        <f t="shared" si="7"/>
         <v>完成</v>
       </c>
     </row>
@@ -16081,7 +16093,7 @@
       <c r="R29" s="12"/>
       <c r="S29" s="12"/>
       <c r="T29" s="18">
-        <f>SUM(I29:N29)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="U29" s="18">
@@ -16089,7 +16101,7 @@
         <v>0</v>
       </c>
       <c r="V29" s="20" t="str">
-        <f>IF(SUM(I29:N29)=C29,"完成",SUM(I29:N29))</f>
+        <f t="shared" si="7"/>
         <v>完成</v>
       </c>
     </row>
@@ -16129,7 +16141,7 @@
       <c r="R30" s="12"/>
       <c r="S30" s="12"/>
       <c r="T30" s="18">
-        <f t="shared" ref="T30:T43" si="4">SUM(I30:S30)</f>
+        <f t="shared" ref="T30:T43" si="8">SUM(I30:S30)</f>
         <v>2</v>
       </c>
       <c r="U30" s="18">
@@ -16137,7 +16149,7 @@
         <v>0</v>
       </c>
       <c r="V30" s="20" t="str">
-        <f t="shared" ref="V30:V43" si="5">IF(SUM(I30:S30)=C30,"完成",SUM(I30:S30))</f>
+        <f t="shared" ref="V30:V43" si="9">IF(SUM(I30:S30)=C30,"完成",SUM(I30:S30))</f>
         <v>完成</v>
       </c>
     </row>
@@ -16177,7 +16189,7 @@
       <c r="R31" s="12"/>
       <c r="S31" s="12"/>
       <c r="T31" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="U31" s="18">
@@ -16185,7 +16197,7 @@
         <v>0</v>
       </c>
       <c r="V31" s="20" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>完成</v>
       </c>
     </row>
@@ -16225,7 +16237,7 @@
       <c r="R32" s="12"/>
       <c r="S32" s="12"/>
       <c r="T32" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="U32" s="18">
@@ -16233,7 +16245,7 @@
         <v>0</v>
       </c>
       <c r="V32" s="20" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>完成</v>
       </c>
     </row>
@@ -16273,7 +16285,7 @@
       <c r="R33" s="12"/>
       <c r="S33" s="12"/>
       <c r="T33" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="U33" s="18">
@@ -16281,7 +16293,7 @@
         <v>0</v>
       </c>
       <c r="V33" s="20" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>完成</v>
       </c>
     </row>
@@ -16321,7 +16333,7 @@
       <c r="R34" s="12"/>
       <c r="S34" s="12"/>
       <c r="T34" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="U34" s="18">
@@ -16329,7 +16341,7 @@
         <v>0</v>
       </c>
       <c r="V34" s="20" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>完成</v>
       </c>
     </row>
@@ -16369,7 +16381,7 @@
       <c r="R35" s="12"/>
       <c r="S35" s="12"/>
       <c r="T35" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="U35" s="18">
@@ -16377,7 +16389,7 @@
         <v>0</v>
       </c>
       <c r="V35" s="20" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>完成</v>
       </c>
     </row>
@@ -16417,7 +16429,7 @@
       <c r="R36" s="12"/>
       <c r="S36" s="12"/>
       <c r="T36" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="U36" s="18">
@@ -16425,7 +16437,7 @@
         <v>0</v>
       </c>
       <c r="V36" s="20" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>完成</v>
       </c>
     </row>
@@ -16463,7 +16475,7 @@
       <c r="R37" s="12"/>
       <c r="S37" s="12"/>
       <c r="T37" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U37" s="18">
@@ -16471,7 +16483,7 @@
         <v>7</v>
       </c>
       <c r="V37" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -16509,7 +16521,7 @@
       <c r="R38" s="12"/>
       <c r="S38" s="12"/>
       <c r="T38" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U38" s="18">
@@ -16517,7 +16529,7 @@
         <v>1</v>
       </c>
       <c r="V38" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -16555,7 +16567,7 @@
       <c r="R39" s="12"/>
       <c r="S39" s="12"/>
       <c r="T39" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U39" s="18">
@@ -16563,7 +16575,7 @@
         <v>1</v>
       </c>
       <c r="V39" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -16601,7 +16613,7 @@
       <c r="R40" s="12"/>
       <c r="S40" s="12"/>
       <c r="T40" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U40" s="18">
@@ -16609,7 +16621,7 @@
         <v>1</v>
       </c>
       <c r="V40" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -16647,7 +16659,7 @@
       <c r="R41" s="12"/>
       <c r="S41" s="12"/>
       <c r="T41" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U41" s="18">
@@ -16655,7 +16667,7 @@
         <v>1</v>
       </c>
       <c r="V41" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -16693,7 +16705,7 @@
       <c r="R42" s="12"/>
       <c r="S42" s="12"/>
       <c r="T42" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U42" s="18">
@@ -16701,7 +16713,7 @@
         <v>1</v>
       </c>
       <c r="V42" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -16739,7 +16751,7 @@
       <c r="R43" s="12"/>
       <c r="S43" s="12"/>
       <c r="T43" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U43" s="18">
@@ -16747,7 +16759,7 @@
         <v>1</v>
       </c>
       <c r="V43" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -16977,7 +16989,7 @@
       <c r="R48" s="12"/>
       <c r="S48" s="12"/>
       <c r="T48" s="18">
-        <f t="shared" ref="T48:T58" si="6">SUM(I48:S48)</f>
+        <f t="shared" ref="T48:T58" si="10">SUM(I48:S48)</f>
         <v>0</v>
       </c>
       <c r="U48" s="18">
@@ -16985,7 +16997,7 @@
         <v>1</v>
       </c>
       <c r="V48" s="20">
-        <f t="shared" ref="V48:V58" si="7">IF(SUM(I48:S48)=C48,"完成",SUM(I48:S48))</f>
+        <f t="shared" ref="V48:V58" si="11">IF(SUM(I48:S48)=C48,"完成",SUM(I48:S48))</f>
         <v>0</v>
       </c>
     </row>
@@ -17023,7 +17035,7 @@
       <c r="R49" s="12"/>
       <c r="S49" s="12"/>
       <c r="T49" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U49" s="18">
@@ -17031,7 +17043,7 @@
         <v>4</v>
       </c>
       <c r="V49" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -17069,7 +17081,7 @@
       <c r="R50" s="12"/>
       <c r="S50" s="12"/>
       <c r="T50" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U50" s="18">
@@ -17077,7 +17089,7 @@
         <v>1</v>
       </c>
       <c r="V50" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -17115,7 +17127,7 @@
       <c r="R51" s="12"/>
       <c r="S51" s="12"/>
       <c r="T51" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U51" s="18">
@@ -17123,7 +17135,7 @@
         <v>1</v>
       </c>
       <c r="V51" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -17161,7 +17173,7 @@
       <c r="R52" s="12"/>
       <c r="S52" s="12"/>
       <c r="T52" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U52" s="18">
@@ -17169,7 +17181,7 @@
         <v>1</v>
       </c>
       <c r="V52" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -17207,7 +17219,7 @@
       <c r="R53" s="12"/>
       <c r="S53" s="12"/>
       <c r="T53" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U53" s="18">
@@ -17215,7 +17227,7 @@
         <v>1</v>
       </c>
       <c r="V53" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -17253,7 +17265,7 @@
       <c r="R54" s="12"/>
       <c r="S54" s="12"/>
       <c r="T54" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U54" s="18">
@@ -17261,7 +17273,7 @@
         <v>4</v>
       </c>
       <c r="V54" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -17299,7 +17311,7 @@
       <c r="R55" s="12"/>
       <c r="S55" s="12"/>
       <c r="T55" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U55" s="18">
@@ -17307,7 +17319,7 @@
         <v>1</v>
       </c>
       <c r="V55" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -17345,7 +17357,7 @@
       <c r="R56" s="12"/>
       <c r="S56" s="12"/>
       <c r="T56" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U56" s="18">
@@ -17353,7 +17365,7 @@
         <v>1</v>
       </c>
       <c r="V56" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -17391,7 +17403,7 @@
       <c r="R57" s="12"/>
       <c r="S57" s="12"/>
       <c r="T57" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U57" s="18">
@@ -17399,7 +17411,7 @@
         <v>1</v>
       </c>
       <c r="V57" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -17437,7 +17449,7 @@
       <c r="R58" s="12"/>
       <c r="S58" s="12"/>
       <c r="T58" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U58" s="18">
@@ -17445,7 +17457,7 @@
         <v>1</v>
       </c>
       <c r="V58" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -17723,7 +17735,7 @@
       <c r="R64" s="12"/>
       <c r="S64" s="12"/>
       <c r="T64" s="18">
-        <f t="shared" ref="T64:T73" si="8">SUM(I64:S64)</f>
+        <f t="shared" ref="T64:T73" si="12">SUM(I64:S64)</f>
         <v>0</v>
       </c>
       <c r="U64" s="18">
@@ -17731,7 +17743,7 @@
         <v>4</v>
       </c>
       <c r="V64" s="20">
-        <f t="shared" ref="V64:V73" si="9">IF(SUM(I64:S64)=C64,"完成",SUM(I64:S64))</f>
+        <f t="shared" ref="V64:V73" si="13">IF(SUM(I64:S64)=C64,"完成",SUM(I64:S64))</f>
         <v>0</v>
       </c>
     </row>
@@ -17769,7 +17781,7 @@
       <c r="R65" s="12"/>
       <c r="S65" s="12"/>
       <c r="T65" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U65" s="18">
@@ -17777,7 +17789,7 @@
         <v>1</v>
       </c>
       <c r="V65" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -17815,7 +17827,7 @@
       <c r="R66" s="12"/>
       <c r="S66" s="12"/>
       <c r="T66" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U66" s="18">
@@ -17823,7 +17835,7 @@
         <v>1</v>
       </c>
       <c r="V66" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -17861,7 +17873,7 @@
       <c r="R67" s="12"/>
       <c r="S67" s="12"/>
       <c r="T67" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U67" s="18">
@@ -17869,7 +17881,7 @@
         <v>1</v>
       </c>
       <c r="V67" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -17907,15 +17919,15 @@
       <c r="R68" s="12"/>
       <c r="S68" s="12"/>
       <c r="T68" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U68" s="18">
-        <f t="shared" ref="U68:U94" si="10">C68-T68</f>
+        <f t="shared" ref="U68:U94" si="14">C68-T68</f>
         <v>1</v>
       </c>
       <c r="V68" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -17938,7 +17950,7 @@
         <v>898.9</v>
       </c>
       <c r="H69" s="12">
-        <f t="shared" ref="H69:H132" si="11">G69*C69</f>
+        <f t="shared" ref="H69:H132" si="15">G69*C69</f>
         <v>3595.6</v>
       </c>
       <c r="I69" s="17"/>
@@ -17953,15 +17965,15 @@
       <c r="R69" s="12"/>
       <c r="S69" s="12"/>
       <c r="T69" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U69" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="V69" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -17984,7 +17996,7 @@
         <v>907.4</v>
       </c>
       <c r="H70" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>907.4</v>
       </c>
       <c r="I70" s="17"/>
@@ -17999,15 +18011,15 @@
       <c r="R70" s="12"/>
       <c r="S70" s="12"/>
       <c r="T70" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U70" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="V70" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -18030,7 +18042,7 @@
         <v>907.4</v>
       </c>
       <c r="H71" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>907.4</v>
       </c>
       <c r="I71" s="17"/>
@@ -18045,15 +18057,15 @@
       <c r="R71" s="12"/>
       <c r="S71" s="12"/>
       <c r="T71" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U71" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="V71" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -18076,7 +18088,7 @@
         <v>908.5</v>
       </c>
       <c r="H72" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>908.5</v>
       </c>
       <c r="I72" s="17"/>
@@ -18091,15 +18103,15 @@
       <c r="R72" s="12"/>
       <c r="S72" s="12"/>
       <c r="T72" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U72" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="V72" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -18122,7 +18134,7 @@
         <v>906.5</v>
       </c>
       <c r="H73" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>906.5</v>
       </c>
       <c r="I73" s="17"/>
@@ -18137,15 +18149,15 @@
       <c r="R73" s="12"/>
       <c r="S73" s="12"/>
       <c r="T73" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U73" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="V73" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -18168,7 +18180,7 @@
         <v>899.5</v>
       </c>
       <c r="H74" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1799</v>
       </c>
       <c r="I74" s="17"/>
@@ -18189,7 +18201,7 @@
         <v>2</v>
       </c>
       <c r="U74" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="V74" s="20" t="str">
@@ -18216,7 +18228,7 @@
         <v>908</v>
       </c>
       <c r="H75" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>908</v>
       </c>
       <c r="I75" s="17"/>
@@ -18237,7 +18249,7 @@
         <v>1</v>
       </c>
       <c r="U75" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="V75" s="20" t="str">
@@ -18264,7 +18276,7 @@
         <v>908</v>
       </c>
       <c r="H76" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>908</v>
       </c>
       <c r="I76" s="17"/>
@@ -18285,7 +18297,7 @@
         <v>1</v>
       </c>
       <c r="U76" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="V76" s="20" t="str">
@@ -18312,7 +18324,7 @@
         <v>909.1</v>
       </c>
       <c r="H77" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>909.1</v>
       </c>
       <c r="I77" s="17"/>
@@ -18327,15 +18339,15 @@
       <c r="R77" s="12"/>
       <c r="S77" s="12"/>
       <c r="T77" s="18">
-        <f t="shared" ref="T77:T108" si="12">SUM(I77:S77)</f>
+        <f t="shared" ref="T77:T108" si="16">SUM(I77:S77)</f>
         <v>0</v>
       </c>
       <c r="U77" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="V77" s="20">
-        <f t="shared" ref="V77:V108" si="13">IF(SUM(I77:S77)=C77,"完成",SUM(I77:S77))</f>
+        <f t="shared" ref="V77:V108" si="17">IF(SUM(I77:S77)=C77,"完成",SUM(I77:S77))</f>
         <v>0</v>
       </c>
     </row>
@@ -18358,7 +18370,7 @@
         <v>906.8</v>
       </c>
       <c r="H78" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>906.8</v>
       </c>
       <c r="I78" s="17"/>
@@ -18373,15 +18385,15 @@
       <c r="R78" s="12"/>
       <c r="S78" s="12"/>
       <c r="T78" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U78" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="V78" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -18404,7 +18416,7 @@
         <v>1099</v>
       </c>
       <c r="H79" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>2198</v>
       </c>
       <c r="I79" s="17"/>
@@ -18419,15 +18431,15 @@
       <c r="R79" s="12"/>
       <c r="S79" s="12"/>
       <c r="T79" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U79" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="V79" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -18450,7 +18462,7 @@
         <v>1103.7</v>
       </c>
       <c r="H80" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1103.7</v>
       </c>
       <c r="I80" s="17"/>
@@ -18465,15 +18477,15 @@
       <c r="R80" s="12"/>
       <c r="S80" s="12"/>
       <c r="T80" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U80" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="V80" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -18496,7 +18508,7 @@
         <v>1103.7</v>
       </c>
       <c r="H81" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1103.7</v>
       </c>
       <c r="I81" s="17"/>
@@ -18511,15 +18523,15 @@
       <c r="R81" s="12"/>
       <c r="S81" s="12"/>
       <c r="T81" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U81" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="V81" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -18542,7 +18554,7 @@
         <v>1102.8</v>
       </c>
       <c r="H82" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1102.8</v>
       </c>
       <c r="I82" s="17"/>
@@ -18557,15 +18569,15 @@
       <c r="R82" s="12"/>
       <c r="S82" s="12"/>
       <c r="T82" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U82" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="V82" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -18588,7 +18600,7 @@
         <v>1100.8</v>
       </c>
       <c r="H83" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1100.8</v>
       </c>
       <c r="I83" s="17"/>
@@ -18603,15 +18615,15 @@
       <c r="R83" s="12"/>
       <c r="S83" s="12"/>
       <c r="T83" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U83" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="V83" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -18634,7 +18646,7 @@
         <v>898.9</v>
       </c>
       <c r="H84" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1797.8</v>
       </c>
       <c r="I84" s="17"/>
@@ -18649,15 +18661,15 @@
       <c r="R84" s="12"/>
       <c r="S84" s="12"/>
       <c r="T84" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U84" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="V84" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -18680,7 +18692,7 @@
         <v>907.4</v>
       </c>
       <c r="H85" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>907.4</v>
       </c>
       <c r="I85" s="17"/>
@@ -18695,15 +18707,15 @@
       <c r="R85" s="12"/>
       <c r="S85" s="12"/>
       <c r="T85" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U85" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="V85" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -18726,7 +18738,7 @@
         <v>907.4</v>
       </c>
       <c r="H86" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>907.4</v>
       </c>
       <c r="I86" s="17"/>
@@ -18741,15 +18753,15 @@
       <c r="R86" s="12"/>
       <c r="S86" s="12"/>
       <c r="T86" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U86" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="V86" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -18772,7 +18784,7 @@
         <v>909</v>
       </c>
       <c r="H87" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>909</v>
       </c>
       <c r="I87" s="17"/>
@@ -18787,15 +18799,15 @@
       <c r="R87" s="12"/>
       <c r="S87" s="12"/>
       <c r="T87" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U87" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="V87" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -18818,7 +18830,7 @@
         <v>906.7</v>
       </c>
       <c r="H88" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>906.7</v>
       </c>
       <c r="I88" s="17"/>
@@ -18833,15 +18845,15 @@
       <c r="R88" s="12"/>
       <c r="S88" s="12"/>
       <c r="T88" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U88" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="V88" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -18864,7 +18876,7 @@
         <v>2027.1</v>
       </c>
       <c r="H89" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>2027.1</v>
       </c>
       <c r="I89" s="17"/>
@@ -18879,15 +18891,15 @@
       <c r="R89" s="12"/>
       <c r="S89" s="12"/>
       <c r="T89" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U89" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="V89" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -18910,7 +18922,7 @@
         <v>1651.1</v>
       </c>
       <c r="H90" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>33022</v>
       </c>
       <c r="I90" s="17"/>
@@ -18925,15 +18937,15 @@
       <c r="R90" s="12"/>
       <c r="S90" s="12"/>
       <c r="T90" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U90" s="18">
-        <f t="shared" ref="U90:U121" si="14">C90-T90</f>
+        <f t="shared" ref="U90:U121" si="18">C90-T90</f>
         <v>20</v>
       </c>
       <c r="V90" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -18956,7 +18968,7 @@
         <v>1651.1</v>
       </c>
       <c r="H91" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>11557.7</v>
       </c>
       <c r="I91" s="17"/>
@@ -18971,15 +18983,15 @@
       <c r="R91" s="12"/>
       <c r="S91" s="12"/>
       <c r="T91" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U91" s="18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>7</v>
       </c>
       <c r="V91" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -19002,7 +19014,7 @@
         <v>1673.2</v>
       </c>
       <c r="H92" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1673.2</v>
       </c>
       <c r="I92" s="17"/>
@@ -19017,15 +19029,15 @@
       <c r="R92" s="12"/>
       <c r="S92" s="12"/>
       <c r="T92" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U92" s="18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="V92" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -19048,7 +19060,7 @@
         <v>1141.6</v>
       </c>
       <c r="H93" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>2283.2</v>
       </c>
       <c r="I93" s="17"/>
@@ -19063,15 +19075,15 @@
       <c r="R93" s="12"/>
       <c r="S93" s="12"/>
       <c r="T93" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U93" s="18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="V93" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -19094,7 +19106,7 @@
         <v>1141.6</v>
       </c>
       <c r="H94" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>2283.2</v>
       </c>
       <c r="I94" s="17"/>
@@ -19109,15 +19121,15 @@
       <c r="R94" s="12"/>
       <c r="S94" s="12"/>
       <c r="T94" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U94" s="18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="V94" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -19140,7 +19152,7 @@
         <v>1607.9</v>
       </c>
       <c r="H95" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1607.9</v>
       </c>
       <c r="I95" s="17"/>
@@ -19155,15 +19167,15 @@
       <c r="R95" s="12"/>
       <c r="S95" s="12"/>
       <c r="T95" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U95" s="18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="V95" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -19186,7 +19198,7 @@
         <v>1607.9</v>
       </c>
       <c r="H96" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>3215.8</v>
       </c>
       <c r="I96" s="17"/>
@@ -19201,15 +19213,15 @@
       <c r="R96" s="12"/>
       <c r="S96" s="12"/>
       <c r="T96" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U96" s="18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="V96" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -19232,7 +19244,7 @@
         <v>1607.9</v>
       </c>
       <c r="H97" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1607.9</v>
       </c>
       <c r="I97" s="17"/>
@@ -19247,15 +19259,15 @@
       <c r="R97" s="12"/>
       <c r="S97" s="12"/>
       <c r="T97" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U97" s="18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="V97" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -19278,7 +19290,7 @@
         <v>1507.2</v>
       </c>
       <c r="H98" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1507.2</v>
       </c>
       <c r="I98" s="17"/>
@@ -19293,15 +19305,15 @@
       <c r="R98" s="12"/>
       <c r="S98" s="12"/>
       <c r="T98" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U98" s="18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="V98" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -19324,7 +19336,7 @@
         <v>238.2</v>
       </c>
       <c r="H99" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>3573</v>
       </c>
       <c r="I99" s="17"/>
@@ -19339,15 +19351,15 @@
       <c r="R99" s="12"/>
       <c r="S99" s="12"/>
       <c r="T99" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U99" s="18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>15</v>
       </c>
       <c r="V99" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -19370,7 +19382,7 @@
         <v>156</v>
       </c>
       <c r="H100" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>624</v>
       </c>
       <c r="I100" s="17"/>
@@ -19385,15 +19397,15 @@
       <c r="R100" s="12"/>
       <c r="S100" s="12"/>
       <c r="T100" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U100" s="18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
       <c r="V100" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -19416,7 +19428,7 @@
         <v>227.2</v>
       </c>
       <c r="H101" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>454.4</v>
       </c>
       <c r="I101" s="17"/>
@@ -19431,15 +19443,15 @@
       <c r="R101" s="12"/>
       <c r="S101" s="12"/>
       <c r="T101" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U101" s="18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="V101" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -19462,7 +19474,7 @@
         <v>229.1</v>
       </c>
       <c r="H102" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>916.4</v>
       </c>
       <c r="I102" s="17"/>
@@ -19477,15 +19489,15 @@
       <c r="R102" s="12"/>
       <c r="S102" s="12"/>
       <c r="T102" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U102" s="18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
       <c r="V102" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -19508,7 +19520,7 @@
         <v>204.5</v>
       </c>
       <c r="H103" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>204.5</v>
       </c>
       <c r="I103" s="17"/>
@@ -19523,15 +19535,15 @@
       <c r="R103" s="12"/>
       <c r="S103" s="12"/>
       <c r="T103" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U103" s="18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="V103" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -19554,7 +19566,7 @@
         <v>5.2</v>
       </c>
       <c r="H104" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1154.4</v>
       </c>
       <c r="I104" s="17"/>
@@ -19569,15 +19581,15 @@
       <c r="R104" s="12"/>
       <c r="S104" s="12"/>
       <c r="T104" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U104" s="18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>222</v>
       </c>
       <c r="V104" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -19600,7 +19612,7 @@
         <v>7.8</v>
       </c>
       <c r="H105" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>413.4</v>
       </c>
       <c r="I105" s="17"/>
@@ -19615,15 +19627,15 @@
       <c r="R105" s="12"/>
       <c r="S105" s="12"/>
       <c r="T105" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U105" s="18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>53</v>
       </c>
       <c r="V105" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -19646,7 +19658,7 @@
         <v>3.1</v>
       </c>
       <c r="H106" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>164.3</v>
       </c>
       <c r="I106" s="17"/>
@@ -19661,15 +19673,15 @@
       <c r="R106" s="12"/>
       <c r="S106" s="12"/>
       <c r="T106" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U106" s="18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>53</v>
       </c>
       <c r="V106" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -19692,7 +19704,7 @@
         <v>6.2</v>
       </c>
       <c r="H107" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1264.8</v>
       </c>
       <c r="I107" s="17"/>
@@ -19707,15 +19719,15 @@
       <c r="R107" s="12"/>
       <c r="S107" s="12"/>
       <c r="T107" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U107" s="18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>204</v>
       </c>
       <c r="V107" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -19738,7 +19750,7 @@
         <v>8.4</v>
       </c>
       <c r="H108" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>420</v>
       </c>
       <c r="I108" s="17"/>
@@ -19753,15 +19765,15 @@
       <c r="R108" s="12"/>
       <c r="S108" s="12"/>
       <c r="T108" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U108" s="18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>50</v>
       </c>
       <c r="V108" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -19784,7 +19796,7 @@
         <v>4.3</v>
       </c>
       <c r="H109" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>206.4</v>
       </c>
       <c r="I109" s="17"/>
@@ -19799,15 +19811,15 @@
       <c r="R109" s="12"/>
       <c r="S109" s="12"/>
       <c r="T109" s="18">
-        <f t="shared" ref="T109:T140" si="15">SUM(I109:S109)</f>
+        <f t="shared" ref="T109:T140" si="19">SUM(I109:S109)</f>
         <v>0</v>
       </c>
       <c r="U109" s="18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>48</v>
       </c>
       <c r="V109" s="20">
-        <f t="shared" ref="V109:V140" si="16">IF(SUM(I109:S109)=C109,"完成",SUM(I109:S109))</f>
+        <f t="shared" ref="V109:V140" si="20">IF(SUM(I109:S109)=C109,"完成",SUM(I109:S109))</f>
         <v>0</v>
       </c>
     </row>
@@ -19830,7 +19842,7 @@
         <v>125.1</v>
       </c>
       <c r="H110" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1626.3</v>
       </c>
       <c r="I110" s="17"/>
@@ -19845,15 +19857,15 @@
       <c r="R110" s="12"/>
       <c r="S110" s="12"/>
       <c r="T110" s="18">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="U110" s="18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>13</v>
       </c>
       <c r="V110" s="20">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -19876,7 +19888,7 @@
         <v>84.8</v>
       </c>
       <c r="H111" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>508.8</v>
       </c>
       <c r="I111" s="17"/>
@@ -19891,15 +19903,15 @@
       <c r="R111" s="12"/>
       <c r="S111" s="12"/>
       <c r="T111" s="18">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="U111" s="18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>6</v>
       </c>
       <c r="V111" s="20">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -19922,7 +19934,7 @@
         <v>119.7</v>
       </c>
       <c r="H112" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>718.2</v>
       </c>
       <c r="I112" s="17"/>
@@ -19937,15 +19949,15 @@
       <c r="R112" s="12"/>
       <c r="S112" s="12"/>
       <c r="T112" s="18">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="U112" s="18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>6</v>
       </c>
       <c r="V112" s="20">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -19968,7 +19980,7 @@
         <v>120.9</v>
       </c>
       <c r="H113" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>120.9</v>
       </c>
       <c r="I113" s="17"/>
@@ -19983,15 +19995,15 @@
       <c r="R113" s="12"/>
       <c r="S113" s="12"/>
       <c r="T113" s="18">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="U113" s="18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="V113" s="20">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -20014,7 +20026,7 @@
         <v>122.3</v>
       </c>
       <c r="H114" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>122.3</v>
       </c>
       <c r="I114" s="17"/>
@@ -20029,15 +20041,15 @@
       <c r="R114" s="12"/>
       <c r="S114" s="12"/>
       <c r="T114" s="18">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="U114" s="18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="V114" s="20">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -20060,7 +20072,7 @@
         <v>123.7</v>
       </c>
       <c r="H115" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>123.7</v>
       </c>
       <c r="I115" s="17"/>
@@ -20075,15 +20087,15 @@
       <c r="R115" s="12"/>
       <c r="S115" s="12"/>
       <c r="T115" s="18">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="U115" s="18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="V115" s="20">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -20106,7 +20118,7 @@
         <v>122</v>
       </c>
       <c r="H116" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>122</v>
       </c>
       <c r="I116" s="17"/>
@@ -20121,15 +20133,15 @@
       <c r="R116" s="12"/>
       <c r="S116" s="12"/>
       <c r="T116" s="18">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="U116" s="18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="V116" s="20">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -20152,7 +20164,7 @@
         <v>118.6</v>
       </c>
       <c r="H117" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>118.6</v>
       </c>
       <c r="I117" s="17"/>
@@ -20167,15 +20179,15 @@
       <c r="R117" s="12"/>
       <c r="S117" s="12"/>
       <c r="T117" s="18">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="U117" s="18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="V117" s="20">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -20198,7 +20210,7 @@
         <v>115.2</v>
       </c>
       <c r="H118" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>115.2</v>
       </c>
       <c r="I118" s="17"/>
@@ -20213,15 +20225,15 @@
       <c r="R118" s="12"/>
       <c r="S118" s="12"/>
       <c r="T118" s="18">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="U118" s="18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="V118" s="20">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -20244,7 +20256,7 @@
         <v>124</v>
       </c>
       <c r="H119" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>5580</v>
       </c>
       <c r="I119" s="17"/>
@@ -20259,15 +20271,15 @@
       <c r="R119" s="12"/>
       <c r="S119" s="12"/>
       <c r="T119" s="18">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="U119" s="18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>45</v>
       </c>
       <c r="V119" s="20">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -20290,7 +20302,7 @@
         <v>83.7</v>
       </c>
       <c r="H120" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>753.3</v>
       </c>
       <c r="I120" s="17"/>
@@ -20305,15 +20317,15 @@
       <c r="R120" s="12"/>
       <c r="S120" s="12"/>
       <c r="T120" s="18">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="U120" s="18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>9</v>
       </c>
       <c r="V120" s="20">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -20336,7 +20348,7 @@
         <v>118.6</v>
       </c>
       <c r="H121" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>711.6</v>
       </c>
       <c r="I121" s="17"/>
@@ -20351,15 +20363,15 @@
       <c r="R121" s="12"/>
       <c r="S121" s="12"/>
       <c r="T121" s="18">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="U121" s="18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>6</v>
       </c>
       <c r="V121" s="20">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -20382,7 +20394,7 @@
         <v>73.2</v>
       </c>
       <c r="H122" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>292.8</v>
       </c>
       <c r="I122" s="17"/>
@@ -20397,15 +20409,15 @@
       <c r="R122" s="12"/>
       <c r="S122" s="12"/>
       <c r="T122" s="18">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="U122" s="18">
-        <f t="shared" ref="U122:U164" si="17">C122-T122</f>
+        <f t="shared" ref="U122:U164" si="21">C122-T122</f>
         <v>4</v>
       </c>
       <c r="V122" s="20">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -20428,7 +20440,7 @@
         <v>75.8</v>
       </c>
       <c r="H123" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>606.4</v>
       </c>
       <c r="I123" s="17"/>
@@ -20443,15 +20455,15 @@
       <c r="R123" s="12"/>
       <c r="S123" s="12"/>
       <c r="T123" s="18">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="U123" s="18">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>8</v>
       </c>
       <c r="V123" s="20">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -20474,7 +20486,7 @@
         <v>73.1</v>
       </c>
       <c r="H124" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>292.4</v>
       </c>
       <c r="I124" s="17"/>
@@ -20489,15 +20501,15 @@
       <c r="R124" s="12"/>
       <c r="S124" s="12"/>
       <c r="T124" s="18">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="U124" s="18">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>4</v>
       </c>
       <c r="V124" s="20">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -20520,7 +20532,7 @@
         <v>89.2</v>
       </c>
       <c r="H125" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>356.8</v>
       </c>
       <c r="I125" s="17"/>
@@ -20535,15 +20547,15 @@
       <c r="R125" s="12"/>
       <c r="S125" s="12"/>
       <c r="T125" s="18">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="U125" s="18">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>4</v>
       </c>
       <c r="V125" s="20">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -20566,7 +20578,7 @@
         <v>91.3</v>
       </c>
       <c r="H126" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>730.4</v>
       </c>
       <c r="I126" s="17"/>
@@ -20581,15 +20593,15 @@
       <c r="R126" s="12"/>
       <c r="S126" s="12"/>
       <c r="T126" s="18">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="U126" s="18">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>8</v>
       </c>
       <c r="V126" s="20">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -20612,7 +20624,7 @@
         <v>89.1</v>
       </c>
       <c r="H127" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>356.4</v>
       </c>
       <c r="I127" s="17"/>
@@ -20627,15 +20639,15 @@
       <c r="R127" s="12"/>
       <c r="S127" s="12"/>
       <c r="T127" s="18">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="U127" s="18">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>4</v>
       </c>
       <c r="V127" s="20">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -20658,7 +20670,7 @@
         <v>88.9</v>
       </c>
       <c r="H128" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>88.9</v>
       </c>
       <c r="I128" s="17"/>
@@ -20673,15 +20685,15 @@
       <c r="R128" s="12"/>
       <c r="S128" s="12"/>
       <c r="T128" s="18">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="U128" s="18">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="V128" s="20">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -20704,7 +20716,7 @@
         <v>90.3</v>
       </c>
       <c r="H129" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>90.3</v>
       </c>
       <c r="I129" s="17"/>
@@ -20719,15 +20731,15 @@
       <c r="R129" s="12"/>
       <c r="S129" s="12"/>
       <c r="T129" s="18">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="U129" s="18">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="V129" s="20">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -20750,7 +20762,7 @@
         <v>90.9</v>
       </c>
       <c r="H130" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>90.9</v>
       </c>
       <c r="I130" s="17"/>
@@ -20765,15 +20777,15 @@
       <c r="R130" s="12"/>
       <c r="S130" s="12"/>
       <c r="T130" s="18">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="U130" s="18">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="V130" s="20">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -20796,7 +20808,7 @@
         <v>92.4</v>
       </c>
       <c r="H131" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>92.4</v>
       </c>
       <c r="I131" s="17"/>
@@ -20811,15 +20823,15 @@
       <c r="R131" s="12"/>
       <c r="S131" s="12"/>
       <c r="T131" s="18">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="U131" s="18">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="V131" s="20">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -20842,7 +20854,7 @@
         <v>89.2</v>
       </c>
       <c r="H132" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>89.2</v>
       </c>
       <c r="I132" s="17"/>
@@ -20857,15 +20869,15 @@
       <c r="R132" s="12"/>
       <c r="S132" s="12"/>
       <c r="T132" s="18">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="U132" s="18">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="V132" s="20">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -20888,7 +20900,7 @@
         <v>90.7</v>
       </c>
       <c r="H133" s="12">
-        <f t="shared" ref="H133:H164" si="18">G133*C133</f>
+        <f t="shared" ref="H133:H164" si="22">G133*C133</f>
         <v>90.7</v>
       </c>
       <c r="I133" s="17"/>
@@ -20903,15 +20915,15 @@
       <c r="R133" s="12"/>
       <c r="S133" s="12"/>
       <c r="T133" s="18">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="U133" s="18">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="V133" s="20">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -20934,7 +20946,7 @@
         <v>87.4</v>
       </c>
       <c r="H134" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>87.4</v>
       </c>
       <c r="I134" s="17"/>
@@ -20949,15 +20961,15 @@
       <c r="R134" s="12"/>
       <c r="S134" s="12"/>
       <c r="T134" s="18">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="U134" s="18">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="V134" s="20">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -20980,7 +20992,7 @@
         <v>88.8</v>
       </c>
       <c r="H135" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>88.8</v>
       </c>
       <c r="I135" s="17"/>
@@ -20995,15 +21007,15 @@
       <c r="R135" s="12"/>
       <c r="S135" s="12"/>
       <c r="T135" s="18">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="U135" s="18">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="V135" s="20">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -21026,7 +21038,7 @@
         <v>87.7</v>
       </c>
       <c r="H136" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>87.7</v>
       </c>
       <c r="I136" s="17"/>
@@ -21041,15 +21053,15 @@
       <c r="R136" s="12"/>
       <c r="S136" s="12"/>
       <c r="T136" s="18">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="U136" s="18">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="V136" s="20">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -21072,7 +21084,7 @@
         <v>88.3</v>
       </c>
       <c r="H137" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>88.3</v>
       </c>
       <c r="I137" s="17"/>
@@ -21087,15 +21099,15 @@
       <c r="R137" s="12"/>
       <c r="S137" s="12"/>
       <c r="T137" s="18">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="U137" s="18">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="V137" s="20">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -21118,7 +21130,7 @@
         <v>92</v>
       </c>
       <c r="H138" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>92</v>
       </c>
       <c r="I138" s="17"/>
@@ -21133,15 +21145,15 @@
       <c r="R138" s="12"/>
       <c r="S138" s="12"/>
       <c r="T138" s="18">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="U138" s="18">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="V138" s="20">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -21164,7 +21176,7 @@
         <v>92.6</v>
       </c>
       <c r="H139" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>92.6</v>
       </c>
       <c r="I139" s="17"/>
@@ -21179,15 +21191,15 @@
       <c r="R139" s="12"/>
       <c r="S139" s="12"/>
       <c r="T139" s="18">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="U139" s="18">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="V139" s="20">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -21210,7 +21222,7 @@
         <v>92.6</v>
       </c>
       <c r="H140" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>92.6</v>
       </c>
       <c r="I140" s="17"/>
@@ -21225,15 +21237,15 @@
       <c r="R140" s="12"/>
       <c r="S140" s="12"/>
       <c r="T140" s="18">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="U140" s="18">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="V140" s="20">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -21256,7 +21268,7 @@
         <v>93.3</v>
       </c>
       <c r="H141" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>93.3</v>
       </c>
       <c r="I141" s="17"/>
@@ -21271,15 +21283,15 @@
       <c r="R141" s="12"/>
       <c r="S141" s="12"/>
       <c r="T141" s="18">
-        <f t="shared" ref="T141:T164" si="19">SUM(I141:S141)</f>
+        <f t="shared" ref="T141:T164" si="23">SUM(I141:S141)</f>
         <v>0</v>
       </c>
       <c r="U141" s="18">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="V141" s="20">
-        <f t="shared" ref="V141:V164" si="20">IF(SUM(I141:S141)=C141,"完成",SUM(I141:S141))</f>
+        <f t="shared" ref="V141:V164" si="24">IF(SUM(I141:S141)=C141,"完成",SUM(I141:S141))</f>
         <v>0</v>
       </c>
     </row>
@@ -21302,7 +21314,7 @@
         <v>93</v>
       </c>
       <c r="H142" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>93</v>
       </c>
       <c r="I142" s="17"/>
@@ -21317,15 +21329,15 @@
       <c r="R142" s="12"/>
       <c r="S142" s="12"/>
       <c r="T142" s="18">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="U142" s="18">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="V142" s="20">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -21348,7 +21360,7 @@
         <v>93.6</v>
       </c>
       <c r="H143" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>93.6</v>
       </c>
       <c r="I143" s="17"/>
@@ -21363,15 +21375,15 @@
       <c r="R143" s="12"/>
       <c r="S143" s="12"/>
       <c r="T143" s="18">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="U143" s="18">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="V143" s="20">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -21394,7 +21406,7 @@
         <v>411.8</v>
       </c>
       <c r="H144" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>2470.8</v>
       </c>
       <c r="I144" s="17"/>
@@ -21409,15 +21421,15 @@
       <c r="R144" s="12"/>
       <c r="S144" s="12"/>
       <c r="T144" s="18">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="U144" s="18">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>6</v>
       </c>
       <c r="V144" s="20">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -21440,7 +21452,7 @@
         <v>187.3</v>
       </c>
       <c r="H145" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>2247.6</v>
       </c>
       <c r="I145" s="17"/>
@@ -21455,15 +21467,15 @@
       <c r="R145" s="12"/>
       <c r="S145" s="12"/>
       <c r="T145" s="18">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="U145" s="18">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>12</v>
       </c>
       <c r="V145" s="20">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -21486,7 +21498,7 @@
         <v>518</v>
       </c>
       <c r="H146" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>3108</v>
       </c>
       <c r="I146" s="17"/>
@@ -21501,15 +21513,15 @@
       <c r="R146" s="12"/>
       <c r="S146" s="12"/>
       <c r="T146" s="18">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="U146" s="18">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>6</v>
       </c>
       <c r="V146" s="20">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -21532,7 +21544,7 @@
         <v>235.6</v>
       </c>
       <c r="H147" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>2827.2</v>
       </c>
       <c r="I147" s="17"/>
@@ -21547,15 +21559,15 @@
       <c r="R147" s="12"/>
       <c r="S147" s="12"/>
       <c r="T147" s="18">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="U147" s="18">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>12</v>
       </c>
       <c r="V147" s="20">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -21578,7 +21590,7 @@
         <v>102.2</v>
       </c>
       <c r="H148" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>204.4</v>
       </c>
       <c r="I148" s="17"/>
@@ -21593,15 +21605,15 @@
       <c r="R148" s="12"/>
       <c r="S148" s="12"/>
       <c r="T148" s="18">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="U148" s="18">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="V148" s="20">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -21624,7 +21636,7 @@
         <v>120.3</v>
       </c>
       <c r="H149" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>240.6</v>
       </c>
       <c r="I149" s="17"/>
@@ -21639,15 +21651,15 @@
       <c r="R149" s="12"/>
       <c r="S149" s="12"/>
       <c r="T149" s="18">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="U149" s="18">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="V149" s="20">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -21670,7 +21682,7 @@
         <v>153.5</v>
       </c>
       <c r="H150" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>307</v>
       </c>
       <c r="I150" s="17"/>
@@ -21685,15 +21697,15 @@
       <c r="R150" s="12"/>
       <c r="S150" s="12"/>
       <c r="T150" s="18">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="U150" s="18">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="V150" s="20">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -21716,7 +21728,7 @@
         <v>143.6</v>
       </c>
       <c r="H151" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>287.2</v>
       </c>
       <c r="I151" s="17"/>
@@ -21731,15 +21743,15 @@
       <c r="R151" s="12"/>
       <c r="S151" s="12"/>
       <c r="T151" s="18">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="U151" s="18">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="V151" s="20">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -21762,7 +21774,7 @@
         <v>157.3</v>
       </c>
       <c r="H152" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>314.6</v>
       </c>
       <c r="I152" s="17"/>
@@ -21777,15 +21789,15 @@
       <c r="R152" s="12"/>
       <c r="S152" s="12"/>
       <c r="T152" s="18">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="U152" s="18">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="V152" s="20">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -21808,7 +21820,7 @@
         <v>184.5</v>
       </c>
       <c r="H153" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>369</v>
       </c>
       <c r="I153" s="17"/>
@@ -21823,15 +21835,15 @@
       <c r="R153" s="12"/>
       <c r="S153" s="12"/>
       <c r="T153" s="18">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="U153" s="18">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="V153" s="20">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -21854,7 +21866,7 @@
         <v>3.1</v>
       </c>
       <c r="H154" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>24.8</v>
       </c>
       <c r="I154" s="17"/>
@@ -21869,15 +21881,15 @@
       <c r="R154" s="12"/>
       <c r="S154" s="12"/>
       <c r="T154" s="18">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="U154" s="18">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>8</v>
       </c>
       <c r="V154" s="20">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -21900,7 +21912,7 @@
         <v>2.9</v>
       </c>
       <c r="H155" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>23.2</v>
       </c>
       <c r="I155" s="17"/>
@@ -21915,15 +21927,15 @@
       <c r="R155" s="12"/>
       <c r="S155" s="12"/>
       <c r="T155" s="18">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="U155" s="18">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>8</v>
       </c>
       <c r="V155" s="20">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -21946,7 +21958,7 @@
         <v>2.6</v>
       </c>
       <c r="H156" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>20.8</v>
       </c>
       <c r="I156" s="17"/>
@@ -21961,15 +21973,15 @@
       <c r="R156" s="12"/>
       <c r="S156" s="12"/>
       <c r="T156" s="18">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="U156" s="18">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>8</v>
       </c>
       <c r="V156" s="20">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -21992,7 +22004,7 @@
         <v>2.4</v>
       </c>
       <c r="H157" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>432</v>
       </c>
       <c r="I157" s="17"/>
@@ -22007,15 +22019,15 @@
       <c r="R157" s="12"/>
       <c r="S157" s="12"/>
       <c r="T157" s="18">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="U157" s="18">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>180</v>
       </c>
       <c r="V157" s="20">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -22038,7 +22050,7 @@
         <v>2.5</v>
       </c>
       <c r="H158" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>90</v>
       </c>
       <c r="I158" s="17"/>
@@ -22053,15 +22065,15 @@
       <c r="R158" s="12"/>
       <c r="S158" s="12"/>
       <c r="T158" s="18">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="U158" s="18">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>36</v>
       </c>
       <c r="V158" s="20">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -22084,7 +22096,7 @@
         <v>2.7</v>
       </c>
       <c r="H159" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>97.2</v>
       </c>
       <c r="I159" s="17"/>
@@ -22099,15 +22111,15 @@
       <c r="R159" s="12"/>
       <c r="S159" s="12"/>
       <c r="T159" s="18">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="U159" s="18">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>36</v>
       </c>
       <c r="V159" s="20">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -22130,7 +22142,7 @@
         <v>3</v>
       </c>
       <c r="H160" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>108</v>
       </c>
       <c r="I160" s="17"/>
@@ -22145,15 +22157,15 @@
       <c r="R160" s="12"/>
       <c r="S160" s="12"/>
       <c r="T160" s="18">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="U160" s="18">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>36</v>
       </c>
       <c r="V160" s="20">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -22176,7 +22188,7 @@
         <v>3.2</v>
       </c>
       <c r="H161" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>115.2</v>
       </c>
       <c r="I161" s="17"/>
@@ -22191,15 +22203,15 @@
       <c r="R161" s="12"/>
       <c r="S161" s="12"/>
       <c r="T161" s="18">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="U161" s="18">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>36</v>
       </c>
       <c r="V161" s="20">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -22222,7 +22234,7 @@
         <v>3.1</v>
       </c>
       <c r="H162" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>86.8</v>
       </c>
       <c r="I162" s="17"/>
@@ -22237,15 +22249,15 @@
       <c r="R162" s="12"/>
       <c r="S162" s="12"/>
       <c r="T162" s="18">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="U162" s="18">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>28</v>
       </c>
       <c r="V162" s="20">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -22268,7 +22280,7 @@
         <v>2.9</v>
       </c>
       <c r="H163" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>81.2</v>
       </c>
       <c r="I163" s="17"/>
@@ -22283,15 +22295,15 @@
       <c r="R163" s="12"/>
       <c r="S163" s="12"/>
       <c r="T163" s="18">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="U163" s="18">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>28</v>
       </c>
       <c r="V163" s="20">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -22314,7 +22326,7 @@
         <v>2.6</v>
       </c>
       <c r="H164" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>72.8</v>
       </c>
       <c r="I164" s="17"/>
@@ -22329,15 +22341,15 @@
       <c r="R164" s="12"/>
       <c r="S164" s="12"/>
       <c r="T164" s="18">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="U164" s="18">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>28</v>
       </c>
       <c r="V164" s="20">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -22374,31 +22386,31 @@
   <dimension ref="A1:R83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="8" ySplit="4" topLeftCell="I13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="4" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I25" sqref="I25"/>
+      <selection pane="bottomRight" activeCell="I57" sqref="I57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.6271186440678" style="3" customWidth="1"/>
-    <col min="2" max="2" width="11.6271186440678" style="3" customWidth="1"/>
-    <col min="3" max="3" width="7.75423728813559" style="3" customWidth="1"/>
-    <col min="4" max="4" width="25.9915254237288" style="3" customWidth="1"/>
-    <col min="5" max="5" width="5.75423728813559" style="3"/>
+    <col min="1" max="1" width="6.62962962962963" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11.6296296296296" style="3" customWidth="1"/>
+    <col min="3" max="3" width="7.75" style="3" customWidth="1"/>
+    <col min="4" max="4" width="25.9907407407407" style="3" customWidth="1"/>
+    <col min="5" max="5" width="5.75" style="3"/>
     <col min="6" max="6" width="16.5" style="3" customWidth="1"/>
     <col min="7" max="8" width="16.5" style="4" customWidth="1"/>
-    <col min="9" max="9" width="12.2542372881356" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="12.25" style="4" customWidth="1" outlineLevel="1"/>
     <col min="10" max="10" width="10" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="9.6271186440678" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="13" width="8.75423728813559" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="6.6271186440678" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="9.62962962962963" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="13" width="8.75" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="6.62962962962963" style="4" customWidth="1" outlineLevel="1"/>
     <col min="15" max="15" width="12.5" style="4" customWidth="1"/>
-    <col min="16" max="16" width="9.6271186440678" style="4" customWidth="1"/>
+    <col min="16" max="16" width="9.62962962962963" style="4" customWidth="1"/>
     <col min="17" max="17" width="20" style="3" customWidth="1"/>
-    <col min="18" max="18" width="12.7542372881356" style="5" customWidth="1"/>
+    <col min="18" max="18" width="12.75" style="5" customWidth="1"/>
     <col min="19" max="16360" width="9" style="5"/>
   </cols>
   <sheetData>
@@ -24771,7 +24783,7 @@
         <v>191145.6</v>
       </c>
       <c r="I57" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J57" s="12"/>
       <c r="K57" s="12"/>
@@ -24780,15 +24792,15 @@
       <c r="N57" s="12"/>
       <c r="O57" s="18">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P57" s="18">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q57" s="20">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="1:17">
@@ -25951,22 +25963,22 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.6271186440678" style="3" customWidth="1"/>
-    <col min="2" max="2" width="11.6271186440678" style="3" customWidth="1"/>
-    <col min="3" max="3" width="7.75423728813559" style="3" customWidth="1"/>
-    <col min="4" max="4" width="18.3728813559322" style="3"/>
-    <col min="5" max="5" width="5.75423728813559" style="3"/>
+    <col min="1" max="1" width="6.62962962962963" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11.6296296296296" style="3" customWidth="1"/>
+    <col min="3" max="3" width="7.75" style="3" customWidth="1"/>
+    <col min="4" max="4" width="18.3703703703704" style="3"/>
+    <col min="5" max="5" width="5.75" style="3"/>
     <col min="6" max="6" width="16.5" style="3" customWidth="1"/>
     <col min="7" max="8" width="16.5" style="4" customWidth="1"/>
-    <col min="9" max="9" width="12.2542372881356" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="12.25" style="4" customWidth="1" outlineLevel="1"/>
     <col min="10" max="10" width="10" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="9.6271186440678" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="13" width="8.75423728813559" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="6.6271186440678" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="9.62962962962963" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="13" width="8.75" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="6.62962962962963" style="4" customWidth="1" outlineLevel="1"/>
     <col min="15" max="15" width="12.5" style="4" customWidth="1"/>
-    <col min="16" max="16" width="9.6271186440678" style="4" customWidth="1"/>
+    <col min="16" max="16" width="9.62962962962963" style="4" customWidth="1"/>
     <col min="17" max="17" width="20" style="3" customWidth="1"/>
-    <col min="18" max="18" width="12.7542372881356" style="5" customWidth="1"/>
+    <col min="18" max="18" width="12.75" style="5" customWidth="1"/>
     <col min="19" max="16360" width="9" style="5"/>
   </cols>
   <sheetData>
@@ -28019,22 +28031,22 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.6271186440678" style="3" customWidth="1"/>
-    <col min="2" max="2" width="11.6271186440678" style="3" customWidth="1"/>
-    <col min="3" max="3" width="7.75423728813559" style="3" customWidth="1"/>
-    <col min="4" max="4" width="18.3728813559322" style="3"/>
-    <col min="5" max="5" width="5.75423728813559" style="3"/>
+    <col min="1" max="1" width="6.62962962962963" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11.6296296296296" style="3" customWidth="1"/>
+    <col min="3" max="3" width="7.75" style="3" customWidth="1"/>
+    <col min="4" max="4" width="18.3703703703704" style="3"/>
+    <col min="5" max="5" width="5.75" style="3"/>
     <col min="6" max="6" width="16.5" style="3" customWidth="1"/>
     <col min="7" max="8" width="16.5" style="4" customWidth="1"/>
-    <col min="9" max="9" width="12.2542372881356" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="12.25" style="4" customWidth="1" outlineLevel="1"/>
     <col min="10" max="10" width="10" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="9.6271186440678" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="13" width="8.75423728813559" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="6.6271186440678" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="9.62962962962963" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="13" width="8.75" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="6.62962962962963" style="4" customWidth="1" outlineLevel="1"/>
     <col min="15" max="15" width="12.5" style="4" customWidth="1"/>
-    <col min="16" max="16" width="9.6271186440678" style="4" customWidth="1"/>
+    <col min="16" max="16" width="9.62962962962963" style="4" customWidth="1"/>
     <col min="17" max="17" width="20" style="3" customWidth="1"/>
-    <col min="18" max="18" width="12.7542372881356" style="5" customWidth="1"/>
+    <col min="18" max="18" width="12.75" style="5" customWidth="1"/>
     <col min="19" max="16360" width="9" style="5"/>
   </cols>
   <sheetData>
@@ -30087,22 +30099,22 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.6271186440678" style="3" customWidth="1"/>
-    <col min="2" max="2" width="11.6271186440678" style="3" customWidth="1"/>
-    <col min="3" max="3" width="7.75423728813559" style="3" customWidth="1"/>
-    <col min="4" max="4" width="18.3728813559322" style="3"/>
-    <col min="5" max="5" width="5.75423728813559" style="3"/>
+    <col min="1" max="1" width="6.62962962962963" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11.6296296296296" style="3" customWidth="1"/>
+    <col min="3" max="3" width="7.75" style="3" customWidth="1"/>
+    <col min="4" max="4" width="18.3703703703704" style="3"/>
+    <col min="5" max="5" width="5.75" style="3"/>
     <col min="6" max="6" width="16.5" style="3" customWidth="1"/>
     <col min="7" max="8" width="16.5" style="4" customWidth="1"/>
-    <col min="9" max="9" width="12.2542372881356" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="12.25" style="4" customWidth="1" outlineLevel="1"/>
     <col min="10" max="10" width="10" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="9.6271186440678" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="13" width="8.75423728813559" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="6.6271186440678" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="9.62962962962963" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="13" width="8.75" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="6.62962962962963" style="4" customWidth="1" outlineLevel="1"/>
     <col min="15" max="15" width="12.5" style="4" customWidth="1"/>
-    <col min="16" max="16" width="9.6271186440678" style="4" customWidth="1"/>
+    <col min="16" max="16" width="9.62962962962963" style="4" customWidth="1"/>
     <col min="17" max="17" width="20" style="3" customWidth="1"/>
-    <col min="18" max="18" width="12.7542372881356" style="5" customWidth="1"/>
+    <col min="18" max="18" width="12.75" style="5" customWidth="1"/>
     <col min="19" max="16360" width="9" style="5"/>
   </cols>
   <sheetData>
@@ -32155,22 +32167,22 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.6271186440678" style="3" customWidth="1"/>
-    <col min="2" max="2" width="11.6271186440678" style="3" customWidth="1"/>
-    <col min="3" max="3" width="7.75423728813559" style="3" customWidth="1"/>
-    <col min="4" max="4" width="18.3728813559322" style="3"/>
-    <col min="5" max="5" width="5.75423728813559" style="3"/>
+    <col min="1" max="1" width="6.62962962962963" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11.6296296296296" style="3" customWidth="1"/>
+    <col min="3" max="3" width="7.75" style="3" customWidth="1"/>
+    <col min="4" max="4" width="18.3703703703704" style="3"/>
+    <col min="5" max="5" width="5.75" style="3"/>
     <col min="6" max="6" width="16.5" style="3" customWidth="1"/>
     <col min="7" max="8" width="16.5" style="4" customWidth="1"/>
-    <col min="9" max="9" width="12.2542372881356" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="12.25" style="4" customWidth="1" outlineLevel="1"/>
     <col min="10" max="10" width="10" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="9.6271186440678" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="13" width="8.75423728813559" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="6.6271186440678" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="9.62962962962963" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="13" width="8.75" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="6.62962962962963" style="4" customWidth="1" outlineLevel="1"/>
     <col min="15" max="15" width="12.5" style="4" customWidth="1"/>
-    <col min="16" max="16" width="9.6271186440678" style="4" customWidth="1"/>
+    <col min="16" max="16" width="9.62962962962963" style="4" customWidth="1"/>
     <col min="17" max="17" width="20" style="3" customWidth="1"/>
-    <col min="18" max="18" width="12.7542372881356" style="5" customWidth="1"/>
+    <col min="18" max="18" width="12.75" style="5" customWidth="1"/>
     <col min="19" max="16360" width="9" style="5"/>
   </cols>
   <sheetData>

--- a/拼装统计.xlsx
+++ b/拼装统计.xlsx
@@ -24,7 +24,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'义乌奥晶办公室食堂（完成)'!$A$4:$R$75</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">统计!$A$2:$G$38</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">福州地铁!$A$4:$R$75</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">广东华丰!$A$4:$W$164</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">广东华丰!$A$4:$Z$164</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">大东海!$A$4:$R$83</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'模板 (8)'!$A$4:$R$75</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'模板 (7)'!$A$4:$R$75</definedName>
@@ -1278,13 +1278,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="9">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.000_);[Red]\(0.000\)"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="178" formatCode="0.000_);[Red]\(0.000\)"/>
     <numFmt numFmtId="179" formatCode="0.0_);[Red]\(0.0\)"/>
     <numFmt numFmtId="180" formatCode="0.00_ "/>
   </numFmts>
@@ -1337,12 +1337,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1358,11 +1359,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1374,9 +1389,33 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1390,33 +1429,9 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1428,8 +1443,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1437,29 +1453,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1474,7 +1467,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1507,13 +1507,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1525,43 +1579,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1573,25 +1597,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1603,7 +1621,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1621,19 +1639,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1645,13 +1651,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1663,25 +1669,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1751,8 +1751,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1761,8 +1763,38 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1784,50 +1816,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1846,6 +1837,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1854,10 +1854,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1866,136 +1866,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2015,7 +2015,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2030,13 +2030,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2048,19 +2048,19 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -14739,15 +14739,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:W164"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:Z164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="8" ySplit="4" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J22" sqref="J22"/>
+      <selection pane="bottomRight" activeCell="Q114" sqref="Q114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>
@@ -14763,15 +14763,15 @@
     <col min="10" max="10" width="10" style="4" customWidth="1" outlineLevel="1"/>
     <col min="11" max="11" width="9.62962962962963" style="4" customWidth="1" outlineLevel="1"/>
     <col min="12" max="13" width="8.75" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="19" width="6.62962962962963" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="20" max="20" width="12.5" style="4" customWidth="1"/>
-    <col min="21" max="21" width="9.62962962962963" style="4" customWidth="1"/>
-    <col min="22" max="22" width="20" style="3" customWidth="1"/>
-    <col min="23" max="23" width="12.75" style="5" customWidth="1"/>
-    <col min="24" max="16365" width="9" style="5"/>
+    <col min="14" max="22" width="6.62962962962963" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="23" max="23" width="12.5" style="4" customWidth="1"/>
+    <col min="24" max="24" width="9.62962962962963" style="4" customWidth="1"/>
+    <col min="25" max="25" width="20" style="3" customWidth="1"/>
+    <col min="26" max="26" width="12.75" style="5" customWidth="1"/>
+    <col min="27" max="16368" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" ht="26.1" customHeight="1" spans="2:22">
+    <row r="1" ht="26.1" customHeight="1" spans="2:25">
       <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
@@ -14795,8 +14795,11 @@
       <c r="T1" s="6"/>
       <c r="U1" s="6"/>
       <c r="V1" s="6"/>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="24.75" customHeight="1" spans="1:22">
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="24.75" customHeight="1" spans="1:25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -14821,8 +14824,11 @@
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
       <c r="V2" s="3"/>
-    </row>
-    <row r="3" s="2" customFormat="1" ht="26.25" customHeight="1" spans="1:22">
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+    </row>
+    <row r="3" s="2" customFormat="1" ht="26.25" customHeight="1" spans="1:25">
       <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
@@ -14862,11 +14868,14 @@
       <c r="S3" s="15"/>
       <c r="T3" s="15"/>
       <c r="U3" s="15"/>
-      <c r="V3" s="8" t="s">
+      <c r="V3" s="15"/>
+      <c r="W3" s="15"/>
+      <c r="X3" s="15"/>
+      <c r="Y3" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" ht="26.25" customHeight="1" spans="1:22">
+    <row r="4" s="2" customFormat="1" ht="26.25" customHeight="1" spans="1:25">
       <c r="A4" s="10"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -14899,16 +14908,23 @@
       <c r="P4" s="27"/>
       <c r="Q4" s="27"/>
       <c r="R4" s="27"/>
-      <c r="S4" s="27"/>
-      <c r="T4" s="16" t="s">
+      <c r="S4" s="27">
+        <v>1.26</v>
+      </c>
+      <c r="T4" s="27">
+        <v>1.27</v>
+      </c>
+      <c r="U4" s="27"/>
+      <c r="V4" s="27"/>
+      <c r="W4" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="U4" s="16" t="s">
+      <c r="X4" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="V4" s="8"/>
-    </row>
-    <row r="5" customHeight="1" spans="1:22">
+      <c r="Y4" s="8"/>
+    </row>
+    <row r="5" hidden="1" customHeight="1" spans="1:25">
       <c r="A5" s="12">
         <v>1</v>
       </c>
@@ -14943,20 +14959,23 @@
       <c r="Q5" s="12"/>
       <c r="R5" s="12"/>
       <c r="S5" s="12"/>
-      <c r="T5" s="18">
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="18">
         <f>SUM(I5:N5)</f>
         <v>3</v>
       </c>
-      <c r="U5" s="18">
-        <f t="shared" ref="U5:U67" si="1">C5-T5</f>
-        <v>0</v>
-      </c>
-      <c r="V5" s="20" t="str">
+      <c r="X5" s="18">
+        <f t="shared" ref="X5:X67" si="1">C5-W5</f>
+        <v>0</v>
+      </c>
+      <c r="Y5" s="20" t="str">
         <f>IF(SUM(I5:N5)=C5,"完成",SUM(I5:N5))</f>
         <v>完成</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:22">
+    <row r="6" hidden="1" customHeight="1" spans="1:25">
       <c r="A6" s="12">
         <v>2</v>
       </c>
@@ -14991,20 +15010,23 @@
       <c r="Q6" s="12"/>
       <c r="R6" s="12"/>
       <c r="S6" s="12"/>
-      <c r="T6" s="18">
-        <f>SUM(I6:S6)</f>
-        <v>1</v>
-      </c>
-      <c r="U6" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V6" s="20" t="str">
-        <f>IF(SUM(I6:S6)=C6,"完成",SUM(I6:S6))</f>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="7" customHeight="1" spans="1:22">
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="18">
+        <f>SUM(I6:V6)</f>
+        <v>1</v>
+      </c>
+      <c r="X6" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y6" s="20" t="str">
+        <f>IF(SUM(I6:V6)=C6,"完成",SUM(I6:V6))</f>
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="7" hidden="1" customHeight="1" spans="1:25">
       <c r="A7" s="12">
         <v>3</v>
       </c>
@@ -15039,20 +15061,23 @@
       <c r="Q7" s="12"/>
       <c r="R7" s="12"/>
       <c r="S7" s="12"/>
-      <c r="T7" s="18">
-        <f t="shared" ref="T7:T16" si="2">SUM(I7:N7)</f>
-        <v>1</v>
-      </c>
-      <c r="U7" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V7" s="20" t="str">
-        <f t="shared" ref="V7:V16" si="3">IF(SUM(I7:N7)=C7,"完成",SUM(I7:N7))</f>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="8" customHeight="1" spans="1:22">
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="18">
+        <f t="shared" ref="W7:W16" si="2">SUM(I7:N7)</f>
+        <v>1</v>
+      </c>
+      <c r="X7" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y7" s="20" t="str">
+        <f t="shared" ref="Y7:Y16" si="3">IF(SUM(I7:N7)=C7,"完成",SUM(I7:N7))</f>
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="8" hidden="1" customHeight="1" spans="1:25">
       <c r="A8" s="12">
         <v>4</v>
       </c>
@@ -15087,20 +15112,23 @@
       <c r="Q8" s="12"/>
       <c r="R8" s="12"/>
       <c r="S8" s="12"/>
-      <c r="T8" s="18">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="U8" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V8" s="20" t="str">
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="18">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="X8" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y8" s="20" t="str">
         <f t="shared" si="3"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="1:22">
+    <row r="9" hidden="1" customHeight="1" spans="1:25">
       <c r="A9" s="12">
         <v>5</v>
       </c>
@@ -15135,20 +15163,23 @@
       <c r="Q9" s="12"/>
       <c r="R9" s="12"/>
       <c r="S9" s="12"/>
-      <c r="T9" s="18">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="U9" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V9" s="20" t="str">
+      <c r="T9" s="12"/>
+      <c r="U9" s="12"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="18">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="X9" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y9" s="20" t="str">
         <f t="shared" si="3"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="1:22">
+    <row r="10" hidden="1" customHeight="1" spans="1:25">
       <c r="A10" s="12">
         <v>6</v>
       </c>
@@ -15183,20 +15214,23 @@
       <c r="Q10" s="12"/>
       <c r="R10" s="12"/>
       <c r="S10" s="12"/>
-      <c r="T10" s="18">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="U10" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V10" s="20" t="str">
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="12"/>
+      <c r="W10" s="18">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="X10" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y10" s="20" t="str">
         <f t="shared" si="3"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="1:22">
+    <row r="11" hidden="1" customHeight="1" spans="1:25">
       <c r="A11" s="12">
         <v>7</v>
       </c>
@@ -15231,20 +15265,23 @@
       <c r="Q11" s="12"/>
       <c r="R11" s="12"/>
       <c r="S11" s="12"/>
-      <c r="T11" s="18">
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="12"/>
+      <c r="W11" s="18">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="U11" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V11" s="20" t="str">
+      <c r="X11" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y11" s="20" t="str">
         <f t="shared" si="3"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="1:22">
+    <row r="12" hidden="1" customHeight="1" spans="1:25">
       <c r="A12" s="12">
         <v>8</v>
       </c>
@@ -15279,20 +15316,23 @@
       <c r="Q12" s="12"/>
       <c r="R12" s="12"/>
       <c r="S12" s="12"/>
-      <c r="T12" s="18">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="U12" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V12" s="20" t="str">
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="18">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="X12" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y12" s="20" t="str">
         <f t="shared" si="3"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="1:22">
+    <row r="13" hidden="1" customHeight="1" spans="1:25">
       <c r="A13" s="12">
         <v>9</v>
       </c>
@@ -15327,20 +15367,23 @@
       <c r="Q13" s="12"/>
       <c r="R13" s="12"/>
       <c r="S13" s="12"/>
-      <c r="T13" s="18">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="U13" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V13" s="20" t="str">
+      <c r="T13" s="12"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="12"/>
+      <c r="W13" s="18">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="X13" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y13" s="20" t="str">
         <f t="shared" si="3"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="1:22">
+    <row r="14" hidden="1" customHeight="1" spans="1:25">
       <c r="A14" s="12">
         <v>10</v>
       </c>
@@ -15375,20 +15418,23 @@
       <c r="Q14" s="12"/>
       <c r="R14" s="12"/>
       <c r="S14" s="12"/>
-      <c r="T14" s="18">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="U14" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V14" s="20" t="str">
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="12"/>
+      <c r="W14" s="18">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="X14" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y14" s="20" t="str">
         <f t="shared" si="3"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="15" customHeight="1" spans="1:22">
+    <row r="15" hidden="1" customHeight="1" spans="1:25">
       <c r="A15" s="12">
         <v>11</v>
       </c>
@@ -15423,20 +15469,23 @@
       <c r="Q15" s="12"/>
       <c r="R15" s="12"/>
       <c r="S15" s="12"/>
-      <c r="T15" s="18">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="U15" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V15" s="20" t="str">
+      <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="12"/>
+      <c r="W15" s="18">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="X15" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y15" s="20" t="str">
         <f t="shared" si="3"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="16" customHeight="1" spans="1:22">
+    <row r="16" hidden="1" customHeight="1" spans="1:25">
       <c r="A16" s="12">
         <v>12</v>
       </c>
@@ -15471,20 +15520,23 @@
       <c r="Q16" s="12"/>
       <c r="R16" s="12"/>
       <c r="S16" s="12"/>
-      <c r="T16" s="18">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="U16" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V16" s="20" t="str">
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="18">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="X16" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y16" s="20" t="str">
         <f t="shared" si="3"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="17" customHeight="1" spans="1:22">
+    <row r="17" hidden="1" customHeight="1" spans="1:25">
       <c r="A17" s="12">
         <v>13</v>
       </c>
@@ -15517,20 +15569,23 @@
       <c r="Q17" s="12"/>
       <c r="R17" s="12"/>
       <c r="S17" s="12"/>
-      <c r="T17" s="18">
-        <f t="shared" ref="T17:T22" si="4">SUM(I17:S17)</f>
-        <v>0</v>
-      </c>
-      <c r="U17" s="18">
+      <c r="T17" s="12"/>
+      <c r="U17" s="12"/>
+      <c r="V17" s="12"/>
+      <c r="W17" s="18">
+        <f t="shared" ref="W17:W22" si="4">SUM(I17:V17)</f>
+        <v>0</v>
+      </c>
+      <c r="X17" s="18">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="V17" s="20">
-        <f t="shared" ref="V17:V22" si="5">IF(SUM(I17:S17)=C17,"完成",SUM(I17:S17))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" customHeight="1" spans="1:22">
+      <c r="Y17" s="20">
+        <f t="shared" ref="Y17:Y22" si="5">IF(SUM(I17:V17)=C17,"完成",SUM(I17:V17))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" hidden="1" customHeight="1" spans="1:25">
       <c r="A18" s="12">
         <v>14</v>
       </c>
@@ -15563,20 +15618,23 @@
       <c r="Q18" s="12"/>
       <c r="R18" s="12"/>
       <c r="S18" s="12"/>
-      <c r="T18" s="18">
+      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="12"/>
+      <c r="W18" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U18" s="18">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="V18" s="20">
+      <c r="X18" s="18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Y18" s="20">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" customHeight="1" spans="1:22">
+    <row r="19" hidden="1" customHeight="1" spans="1:25">
       <c r="A19" s="12">
         <v>15</v>
       </c>
@@ -15611,20 +15669,23 @@
       <c r="Q19" s="12"/>
       <c r="R19" s="12"/>
       <c r="S19" s="12"/>
-      <c r="T19" s="18">
+      <c r="T19" s="12"/>
+      <c r="U19" s="12"/>
+      <c r="V19" s="12"/>
+      <c r="W19" s="18">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="U19" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V19" s="20" t="str">
+      <c r="X19" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y19" s="20" t="str">
         <f t="shared" si="5"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="20" customHeight="1" spans="1:22">
+    <row r="20" hidden="1" customHeight="1" spans="1:25">
       <c r="A20" s="12">
         <v>16</v>
       </c>
@@ -15659,20 +15720,23 @@
       <c r="Q20" s="12"/>
       <c r="R20" s="12"/>
       <c r="S20" s="12"/>
-      <c r="T20" s="18">
+      <c r="T20" s="12"/>
+      <c r="U20" s="12"/>
+      <c r="V20" s="12"/>
+      <c r="W20" s="18">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="U20" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V20" s="20" t="str">
+      <c r="X20" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y20" s="20" t="str">
         <f t="shared" si="5"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="21" customHeight="1" spans="1:22">
+    <row r="21" hidden="1" customHeight="1" spans="1:25">
       <c r="A21" s="12">
         <v>17</v>
       </c>
@@ -15707,20 +15771,23 @@
       <c r="Q21" s="12"/>
       <c r="R21" s="12"/>
       <c r="S21" s="12"/>
-      <c r="T21" s="18">
+      <c r="T21" s="12"/>
+      <c r="U21" s="12"/>
+      <c r="V21" s="12"/>
+      <c r="W21" s="18">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="U21" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V21" s="20" t="str">
+      <c r="X21" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y21" s="20" t="str">
         <f t="shared" si="5"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="22" customHeight="1" spans="1:23">
+    <row r="22" hidden="1" customHeight="1" spans="1:26">
       <c r="A22" s="12">
         <v>18</v>
       </c>
@@ -15755,21 +15822,24 @@
       <c r="Q22" s="12"/>
       <c r="R22" s="12"/>
       <c r="S22" s="12"/>
-      <c r="T22" s="18">
+      <c r="T22" s="12"/>
+      <c r="U22" s="12"/>
+      <c r="V22" s="12"/>
+      <c r="W22" s="18">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="U22" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V22" s="20" t="str">
+      <c r="X22" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y22" s="20" t="str">
         <f t="shared" si="5"/>
         <v>完成</v>
       </c>
-      <c r="W22" s="21"/>
-    </row>
-    <row r="23" customHeight="1" spans="1:22">
+      <c r="Z22" s="21"/>
+    </row>
+    <row r="23" hidden="1" customHeight="1" spans="1:25">
       <c r="A23" s="12">
         <v>19</v>
       </c>
@@ -15804,20 +15874,23 @@
       <c r="Q23" s="12"/>
       <c r="R23" s="12"/>
       <c r="S23" s="12"/>
-      <c r="T23" s="18">
-        <f t="shared" ref="T23:T29" si="6">SUM(I23:N23)</f>
+      <c r="T23" s="12"/>
+      <c r="U23" s="12"/>
+      <c r="V23" s="12"/>
+      <c r="W23" s="18">
+        <f t="shared" ref="W23:W29" si="6">SUM(I23:N23)</f>
         <v>2</v>
       </c>
-      <c r="U23" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V23" s="20" t="str">
-        <f t="shared" ref="V23:V29" si="7">IF(SUM(I23:N23)=C23,"完成",SUM(I23:N23))</f>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="24" customHeight="1" spans="1:22">
+      <c r="X23" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y23" s="20" t="str">
+        <f t="shared" ref="Y23:Y29" si="7">IF(SUM(I23:N23)=C23,"完成",SUM(I23:N23))</f>
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="24" hidden="1" customHeight="1" spans="1:25">
       <c r="A24" s="12">
         <v>20</v>
       </c>
@@ -15852,20 +15925,23 @@
       <c r="Q24" s="12"/>
       <c r="R24" s="12"/>
       <c r="S24" s="12"/>
-      <c r="T24" s="18">
+      <c r="T24" s="12"/>
+      <c r="U24" s="12"/>
+      <c r="V24" s="12"/>
+      <c r="W24" s="18">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="U24" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V24" s="20" t="str">
+      <c r="X24" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y24" s="20" t="str">
         <f t="shared" si="7"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="25" customHeight="1" spans="1:22">
+    <row r="25" hidden="1" customHeight="1" spans="1:25">
       <c r="A25" s="12">
         <v>21</v>
       </c>
@@ -15900,20 +15976,23 @@
       <c r="Q25" s="12"/>
       <c r="R25" s="12"/>
       <c r="S25" s="12"/>
-      <c r="T25" s="18">
+      <c r="T25" s="12"/>
+      <c r="U25" s="12"/>
+      <c r="V25" s="12"/>
+      <c r="W25" s="18">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="U25" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V25" s="20" t="str">
+      <c r="X25" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y25" s="20" t="str">
         <f t="shared" si="7"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="26" customHeight="1" spans="1:22">
+    <row r="26" hidden="1" customHeight="1" spans="1:25">
       <c r="A26" s="12">
         <v>22</v>
       </c>
@@ -15948,20 +16027,23 @@
       <c r="Q26" s="12"/>
       <c r="R26" s="12"/>
       <c r="S26" s="12"/>
-      <c r="T26" s="18">
+      <c r="T26" s="12"/>
+      <c r="U26" s="12"/>
+      <c r="V26" s="12"/>
+      <c r="W26" s="18">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="U26" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V26" s="20" t="str">
+      <c r="X26" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y26" s="20" t="str">
         <f t="shared" si="7"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="27" customHeight="1" spans="1:22">
+    <row r="27" hidden="1" customHeight="1" spans="1:25">
       <c r="A27" s="12">
         <v>23</v>
       </c>
@@ -15996,20 +16078,23 @@
       <c r="Q27" s="12"/>
       <c r="R27" s="12"/>
       <c r="S27" s="12"/>
-      <c r="T27" s="18">
+      <c r="T27" s="12"/>
+      <c r="U27" s="12"/>
+      <c r="V27" s="12"/>
+      <c r="W27" s="18">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="U27" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V27" s="20" t="str">
+      <c r="X27" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y27" s="20" t="str">
         <f t="shared" si="7"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="28" customHeight="1" spans="1:22">
+    <row r="28" hidden="1" customHeight="1" spans="1:25">
       <c r="A28" s="12">
         <v>24</v>
       </c>
@@ -16044,20 +16129,23 @@
       <c r="Q28" s="12"/>
       <c r="R28" s="12"/>
       <c r="S28" s="12"/>
-      <c r="T28" s="18">
+      <c r="T28" s="12"/>
+      <c r="U28" s="12"/>
+      <c r="V28" s="12"/>
+      <c r="W28" s="18">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="U28" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V28" s="20" t="str">
+      <c r="X28" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y28" s="20" t="str">
         <f t="shared" si="7"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="29" customHeight="1" spans="1:22">
+    <row r="29" hidden="1" customHeight="1" spans="1:25">
       <c r="A29" s="12">
         <v>25</v>
       </c>
@@ -16092,20 +16180,23 @@
       <c r="Q29" s="12"/>
       <c r="R29" s="12"/>
       <c r="S29" s="12"/>
-      <c r="T29" s="18">
+      <c r="T29" s="12"/>
+      <c r="U29" s="12"/>
+      <c r="V29" s="12"/>
+      <c r="W29" s="18">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="U29" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V29" s="20" t="str">
+      <c r="X29" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y29" s="20" t="str">
         <f t="shared" si="7"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="30" customHeight="1" spans="1:22">
+    <row r="30" hidden="1" customHeight="1" spans="1:25">
       <c r="A30" s="12">
         <v>26</v>
       </c>
@@ -16140,20 +16231,23 @@
       <c r="Q30" s="12"/>
       <c r="R30" s="12"/>
       <c r="S30" s="12"/>
-      <c r="T30" s="18">
-        <f t="shared" ref="T30:T43" si="8">SUM(I30:S30)</f>
+      <c r="T30" s="12"/>
+      <c r="U30" s="12"/>
+      <c r="V30" s="12"/>
+      <c r="W30" s="18">
+        <f t="shared" ref="W30:W43" si="8">SUM(I30:V30)</f>
         <v>2</v>
       </c>
-      <c r="U30" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V30" s="20" t="str">
-        <f t="shared" ref="V30:V43" si="9">IF(SUM(I30:S30)=C30,"完成",SUM(I30:S30))</f>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="31" customHeight="1" spans="1:22">
+      <c r="X30" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y30" s="20" t="str">
+        <f t="shared" ref="Y30:Y43" si="9">IF(SUM(I30:V30)=C30,"完成",SUM(I30:V30))</f>
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="31" hidden="1" customHeight="1" spans="1:25">
       <c r="A31" s="12">
         <v>27</v>
       </c>
@@ -16188,20 +16282,23 @@
       <c r="Q31" s="12"/>
       <c r="R31" s="12"/>
       <c r="S31" s="12"/>
-      <c r="T31" s="18">
+      <c r="T31" s="12"/>
+      <c r="U31" s="12"/>
+      <c r="V31" s="12"/>
+      <c r="W31" s="18">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="U31" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V31" s="20" t="str">
+      <c r="X31" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y31" s="20" t="str">
         <f t="shared" si="9"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="32" customHeight="1" spans="1:22">
+    <row r="32" hidden="1" customHeight="1" spans="1:25">
       <c r="A32" s="12">
         <v>28</v>
       </c>
@@ -16236,20 +16333,23 @@
       <c r="Q32" s="12"/>
       <c r="R32" s="12"/>
       <c r="S32" s="12"/>
-      <c r="T32" s="18">
+      <c r="T32" s="12"/>
+      <c r="U32" s="12"/>
+      <c r="V32" s="12"/>
+      <c r="W32" s="18">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="U32" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V32" s="20" t="str">
+      <c r="X32" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y32" s="20" t="str">
         <f t="shared" si="9"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="33" customHeight="1" spans="1:22">
+    <row r="33" hidden="1" customHeight="1" spans="1:25">
       <c r="A33" s="12">
         <v>29</v>
       </c>
@@ -16284,20 +16384,23 @@
       <c r="Q33" s="12"/>
       <c r="R33" s="12"/>
       <c r="S33" s="12"/>
-      <c r="T33" s="18">
+      <c r="T33" s="12"/>
+      <c r="U33" s="12"/>
+      <c r="V33" s="12"/>
+      <c r="W33" s="18">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="U33" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V33" s="20" t="str">
+      <c r="X33" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y33" s="20" t="str">
         <f t="shared" si="9"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="34" customHeight="1" spans="1:22">
+    <row r="34" hidden="1" customHeight="1" spans="1:25">
       <c r="A34" s="12">
         <v>30</v>
       </c>
@@ -16332,20 +16435,23 @@
       <c r="Q34" s="12"/>
       <c r="R34" s="12"/>
       <c r="S34" s="12"/>
-      <c r="T34" s="18">
+      <c r="T34" s="12"/>
+      <c r="U34" s="12"/>
+      <c r="V34" s="12"/>
+      <c r="W34" s="18">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="U34" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V34" s="20" t="str">
+      <c r="X34" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y34" s="20" t="str">
         <f t="shared" si="9"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="35" customHeight="1" spans="1:22">
+    <row r="35" hidden="1" customHeight="1" spans="1:25">
       <c r="A35" s="12">
         <v>31</v>
       </c>
@@ -16380,20 +16486,23 @@
       <c r="Q35" s="12"/>
       <c r="R35" s="12"/>
       <c r="S35" s="12"/>
-      <c r="T35" s="18">
+      <c r="T35" s="12"/>
+      <c r="U35" s="12"/>
+      <c r="V35" s="12"/>
+      <c r="W35" s="18">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="U35" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V35" s="20" t="str">
+      <c r="X35" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y35" s="20" t="str">
         <f t="shared" si="9"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="36" customHeight="1" spans="1:22">
+    <row r="36" hidden="1" customHeight="1" spans="1:25">
       <c r="A36" s="12">
         <v>32</v>
       </c>
@@ -16428,20 +16537,23 @@
       <c r="Q36" s="12"/>
       <c r="R36" s="12"/>
       <c r="S36" s="12"/>
-      <c r="T36" s="18">
+      <c r="T36" s="12"/>
+      <c r="U36" s="12"/>
+      <c r="V36" s="12"/>
+      <c r="W36" s="18">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="U36" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V36" s="20" t="str">
+      <c r="X36" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y36" s="20" t="str">
         <f t="shared" si="9"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="37" customHeight="1" spans="1:22">
+    <row r="37" customHeight="1" spans="1:25">
       <c r="A37" s="12">
         <v>33</v>
       </c>
@@ -16474,20 +16586,25 @@
       <c r="Q37" s="12"/>
       <c r="R37" s="12"/>
       <c r="S37" s="12"/>
-      <c r="T37" s="18">
+      <c r="T37" s="12">
+        <v>4</v>
+      </c>
+      <c r="U37" s="12"/>
+      <c r="V37" s="12"/>
+      <c r="W37" s="18">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U37" s="18">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="V37" s="20">
+        <v>4</v>
+      </c>
+      <c r="X37" s="18">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="Y37" s="20">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" customHeight="1" spans="1:22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" hidden="1" customHeight="1" spans="1:25">
       <c r="A38" s="12">
         <v>34</v>
       </c>
@@ -16520,20 +16637,23 @@
       <c r="Q38" s="12"/>
       <c r="R38" s="12"/>
       <c r="S38" s="12"/>
-      <c r="T38" s="18">
+      <c r="T38" s="12"/>
+      <c r="U38" s="12"/>
+      <c r="V38" s="12"/>
+      <c r="W38" s="18">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U38" s="18">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="V38" s="20">
+      <c r="X38" s="18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Y38" s="20">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" customHeight="1" spans="1:22">
+    <row r="39" hidden="1" customHeight="1" spans="1:25">
       <c r="A39" s="12">
         <v>35</v>
       </c>
@@ -16566,20 +16686,23 @@
       <c r="Q39" s="12"/>
       <c r="R39" s="12"/>
       <c r="S39" s="12"/>
-      <c r="T39" s="18">
+      <c r="T39" s="12"/>
+      <c r="U39" s="12"/>
+      <c r="V39" s="12"/>
+      <c r="W39" s="18">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U39" s="18">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="V39" s="20">
+      <c r="X39" s="18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Y39" s="20">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" customHeight="1" spans="1:22">
+    <row r="40" hidden="1" customHeight="1" spans="1:25">
       <c r="A40" s="12">
         <v>36</v>
       </c>
@@ -16612,20 +16735,23 @@
       <c r="Q40" s="12"/>
       <c r="R40" s="12"/>
       <c r="S40" s="12"/>
-      <c r="T40" s="18">
+      <c r="T40" s="12"/>
+      <c r="U40" s="12"/>
+      <c r="V40" s="12"/>
+      <c r="W40" s="18">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U40" s="18">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="V40" s="20">
+      <c r="X40" s="18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Y40" s="20">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="41" customHeight="1" spans="1:22">
+    <row r="41" hidden="1" customHeight="1" spans="1:25">
       <c r="A41" s="12">
         <v>37</v>
       </c>
@@ -16658,20 +16784,23 @@
       <c r="Q41" s="12"/>
       <c r="R41" s="12"/>
       <c r="S41" s="12"/>
-      <c r="T41" s="18">
+      <c r="T41" s="12"/>
+      <c r="U41" s="12"/>
+      <c r="V41" s="12"/>
+      <c r="W41" s="18">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U41" s="18">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="V41" s="20">
+      <c r="X41" s="18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Y41" s="20">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" customHeight="1" spans="1:22">
+    <row r="42" hidden="1" customHeight="1" spans="1:25">
       <c r="A42" s="12">
         <v>38</v>
       </c>
@@ -16704,20 +16833,23 @@
       <c r="Q42" s="12"/>
       <c r="R42" s="12"/>
       <c r="S42" s="12"/>
-      <c r="T42" s="18">
+      <c r="T42" s="12"/>
+      <c r="U42" s="12"/>
+      <c r="V42" s="12"/>
+      <c r="W42" s="18">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U42" s="18">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="V42" s="20">
+      <c r="X42" s="18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Y42" s="20">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="43" customHeight="1" spans="1:22">
+    <row r="43" hidden="1" customHeight="1" spans="1:25">
       <c r="A43" s="12">
         <v>39</v>
       </c>
@@ -16750,20 +16882,23 @@
       <c r="Q43" s="12"/>
       <c r="R43" s="12"/>
       <c r="S43" s="12"/>
-      <c r="T43" s="18">
+      <c r="T43" s="12"/>
+      <c r="U43" s="12"/>
+      <c r="V43" s="12"/>
+      <c r="W43" s="18">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U43" s="18">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="V43" s="20">
+      <c r="X43" s="18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Y43" s="20">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="44" customHeight="1" spans="1:22">
+    <row r="44" hidden="1" customHeight="1" spans="1:25">
       <c r="A44" s="12">
         <v>40</v>
       </c>
@@ -16798,20 +16933,23 @@
       <c r="Q44" s="12"/>
       <c r="R44" s="12"/>
       <c r="S44" s="12"/>
-      <c r="T44" s="18">
+      <c r="T44" s="12"/>
+      <c r="U44" s="12"/>
+      <c r="V44" s="12"/>
+      <c r="W44" s="18">
         <f>SUM(I44:N44)</f>
         <v>4</v>
       </c>
-      <c r="U44" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V44" s="20" t="str">
+      <c r="X44" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y44" s="20" t="str">
         <f>IF(SUM(I44:N44)=C44,"完成",SUM(I44:N44))</f>
         <v>完成</v>
       </c>
     </row>
-    <row r="45" customHeight="1" spans="1:22">
+    <row r="45" hidden="1" customHeight="1" spans="1:25">
       <c r="A45" s="12">
         <v>41</v>
       </c>
@@ -16846,20 +16984,23 @@
       <c r="Q45" s="12"/>
       <c r="R45" s="12"/>
       <c r="S45" s="12"/>
-      <c r="T45" s="18">
+      <c r="T45" s="12"/>
+      <c r="U45" s="12"/>
+      <c r="V45" s="12"/>
+      <c r="W45" s="18">
         <f>SUM(I45:N45)</f>
         <v>1</v>
       </c>
-      <c r="U45" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V45" s="20" t="str">
+      <c r="X45" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y45" s="20" t="str">
         <f>IF(SUM(I45:N45)=C45,"完成",SUM(I45:N45))</f>
         <v>完成</v>
       </c>
     </row>
-    <row r="46" customHeight="1" spans="1:22">
+    <row r="46" hidden="1" customHeight="1" spans="1:25">
       <c r="A46" s="12">
         <v>42</v>
       </c>
@@ -16894,20 +17035,23 @@
       <c r="Q46" s="12"/>
       <c r="R46" s="12"/>
       <c r="S46" s="12"/>
-      <c r="T46" s="18">
+      <c r="T46" s="12"/>
+      <c r="U46" s="12"/>
+      <c r="V46" s="12"/>
+      <c r="W46" s="18">
         <f>SUM(I46:N46)</f>
         <v>1</v>
       </c>
-      <c r="U46" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V46" s="20" t="str">
+      <c r="X46" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y46" s="20" t="str">
         <f>IF(SUM(I46:N46)=C46,"完成",SUM(I46:N46))</f>
         <v>完成</v>
       </c>
     </row>
-    <row r="47" customHeight="1" spans="1:22">
+    <row r="47" hidden="1" customHeight="1" spans="1:25">
       <c r="A47" s="12">
         <v>43</v>
       </c>
@@ -16942,20 +17086,23 @@
       <c r="Q47" s="12"/>
       <c r="R47" s="12"/>
       <c r="S47" s="12"/>
-      <c r="T47" s="18">
+      <c r="T47" s="12"/>
+      <c r="U47" s="12"/>
+      <c r="V47" s="12"/>
+      <c r="W47" s="18">
         <f>SUM(I47:N47)</f>
         <v>1</v>
       </c>
-      <c r="U47" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V47" s="20" t="str">
+      <c r="X47" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y47" s="20" t="str">
         <f>IF(SUM(I47:N47)=C47,"完成",SUM(I47:N47))</f>
         <v>完成</v>
       </c>
     </row>
-    <row r="48" customHeight="1" spans="1:22">
+    <row r="48" hidden="1" customHeight="1" spans="1:25">
       <c r="A48" s="12">
         <v>44</v>
       </c>
@@ -16988,20 +17135,23 @@
       <c r="Q48" s="12"/>
       <c r="R48" s="12"/>
       <c r="S48" s="12"/>
-      <c r="T48" s="18">
-        <f t="shared" ref="T48:T58" si="10">SUM(I48:S48)</f>
-        <v>0</v>
-      </c>
-      <c r="U48" s="18">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="V48" s="20">
-        <f t="shared" ref="V48:V58" si="11">IF(SUM(I48:S48)=C48,"完成",SUM(I48:S48))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" customHeight="1" spans="1:22">
+      <c r="T48" s="12"/>
+      <c r="U48" s="12"/>
+      <c r="V48" s="12"/>
+      <c r="W48" s="18">
+        <f t="shared" ref="W48:W58" si="10">SUM(I48:V48)</f>
+        <v>0</v>
+      </c>
+      <c r="X48" s="18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Y48" s="20">
+        <f t="shared" ref="Y48:Y58" si="11">IF(SUM(I48:V48)=C48,"完成",SUM(I48:V48))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" hidden="1" customHeight="1" spans="1:25">
       <c r="A49" s="12">
         <v>45</v>
       </c>
@@ -17034,20 +17184,23 @@
       <c r="Q49" s="12"/>
       <c r="R49" s="12"/>
       <c r="S49" s="12"/>
-      <c r="T49" s="18">
+      <c r="T49" s="12"/>
+      <c r="U49" s="12"/>
+      <c r="V49" s="12"/>
+      <c r="W49" s="18">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="U49" s="18">
+      <c r="X49" s="18">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="V49" s="20">
+      <c r="Y49" s="20">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="50" customHeight="1" spans="1:22">
+    <row r="50" hidden="1" customHeight="1" spans="1:25">
       <c r="A50" s="12">
         <v>46</v>
       </c>
@@ -17080,20 +17233,23 @@
       <c r="Q50" s="12"/>
       <c r="R50" s="12"/>
       <c r="S50" s="12"/>
-      <c r="T50" s="18">
+      <c r="T50" s="12"/>
+      <c r="U50" s="12"/>
+      <c r="V50" s="12"/>
+      <c r="W50" s="18">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="U50" s="18">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="V50" s="20">
+      <c r="X50" s="18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Y50" s="20">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="51" customHeight="1" spans="1:22">
+    <row r="51" hidden="1" customHeight="1" spans="1:25">
       <c r="A51" s="12">
         <v>47</v>
       </c>
@@ -17126,20 +17282,23 @@
       <c r="Q51" s="12"/>
       <c r="R51" s="12"/>
       <c r="S51" s="12"/>
-      <c r="T51" s="18">
+      <c r="T51" s="12"/>
+      <c r="U51" s="12"/>
+      <c r="V51" s="12"/>
+      <c r="W51" s="18">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="U51" s="18">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="V51" s="20">
+      <c r="X51" s="18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Y51" s="20">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="52" customHeight="1" spans="1:22">
+    <row r="52" hidden="1" customHeight="1" spans="1:25">
       <c r="A52" s="12">
         <v>48</v>
       </c>
@@ -17172,20 +17331,23 @@
       <c r="Q52" s="12"/>
       <c r="R52" s="12"/>
       <c r="S52" s="12"/>
-      <c r="T52" s="18">
+      <c r="T52" s="12"/>
+      <c r="U52" s="12"/>
+      <c r="V52" s="12"/>
+      <c r="W52" s="18">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="U52" s="18">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="V52" s="20">
+      <c r="X52" s="18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Y52" s="20">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="53" customHeight="1" spans="1:22">
+    <row r="53" hidden="1" customHeight="1" spans="1:25">
       <c r="A53" s="12">
         <v>49</v>
       </c>
@@ -17218,20 +17380,23 @@
       <c r="Q53" s="12"/>
       <c r="R53" s="12"/>
       <c r="S53" s="12"/>
-      <c r="T53" s="18">
+      <c r="T53" s="12"/>
+      <c r="U53" s="12"/>
+      <c r="V53" s="12"/>
+      <c r="W53" s="18">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="U53" s="18">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="V53" s="20">
+      <c r="X53" s="18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Y53" s="20">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="54" customHeight="1" spans="1:22">
+    <row r="54" hidden="1" customHeight="1" spans="1:25">
       <c r="A54" s="12">
         <v>50</v>
       </c>
@@ -17264,20 +17429,23 @@
       <c r="Q54" s="12"/>
       <c r="R54" s="12"/>
       <c r="S54" s="12"/>
-      <c r="T54" s="18">
+      <c r="T54" s="12"/>
+      <c r="U54" s="12"/>
+      <c r="V54" s="12"/>
+      <c r="W54" s="18">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="U54" s="18">
+      <c r="X54" s="18">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="V54" s="20">
+      <c r="Y54" s="20">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="55" customHeight="1" spans="1:22">
+    <row r="55" hidden="1" customHeight="1" spans="1:25">
       <c r="A55" s="12">
         <v>51</v>
       </c>
@@ -17310,20 +17478,22 @@
       <c r="Q55" s="12"/>
       <c r="R55" s="12"/>
       <c r="S55" s="12"/>
-      <c r="T55" s="18">
+      <c r="U55" s="12"/>
+      <c r="V55" s="12"/>
+      <c r="W55" s="18">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="U55" s="18">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="V55" s="20">
+      <c r="X55" s="18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Y55" s="20">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="56" customHeight="1" spans="1:22">
+    <row r="56" hidden="1" customHeight="1" spans="1:25">
       <c r="A56" s="12">
         <v>52</v>
       </c>
@@ -17356,20 +17526,22 @@
       <c r="Q56" s="12"/>
       <c r="R56" s="12"/>
       <c r="S56" s="12"/>
-      <c r="T56" s="18">
+      <c r="U56" s="12"/>
+      <c r="V56" s="12"/>
+      <c r="W56" s="18">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="U56" s="18">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="V56" s="20">
+      <c r="X56" s="18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Y56" s="20">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="57" customHeight="1" spans="1:22">
+    <row r="57" hidden="1" customHeight="1" spans="1:25">
       <c r="A57" s="12">
         <v>53</v>
       </c>
@@ -17402,20 +17574,23 @@
       <c r="Q57" s="12"/>
       <c r="R57" s="12"/>
       <c r="S57" s="12"/>
-      <c r="T57" s="18">
+      <c r="T57" s="12"/>
+      <c r="U57" s="12"/>
+      <c r="V57" s="12"/>
+      <c r="W57" s="18">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="U57" s="18">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="V57" s="20">
+      <c r="X57" s="18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Y57" s="20">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="58" customHeight="1" spans="1:22">
+    <row r="58" hidden="1" customHeight="1" spans="1:25">
       <c r="A58" s="12">
         <v>54</v>
       </c>
@@ -17448,20 +17623,23 @@
       <c r="Q58" s="12"/>
       <c r="R58" s="12"/>
       <c r="S58" s="12"/>
-      <c r="T58" s="18">
+      <c r="T58" s="12"/>
+      <c r="U58" s="12"/>
+      <c r="V58" s="12"/>
+      <c r="W58" s="18">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="U58" s="18">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="V58" s="20">
+      <c r="X58" s="18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Y58" s="20">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="59" customHeight="1" spans="1:22">
+    <row r="59" hidden="1" customHeight="1" spans="1:25">
       <c r="A59" s="12">
         <v>55</v>
       </c>
@@ -17496,20 +17674,23 @@
       <c r="Q59" s="12"/>
       <c r="R59" s="12"/>
       <c r="S59" s="12"/>
-      <c r="T59" s="18">
+      <c r="T59" s="12"/>
+      <c r="U59" s="12"/>
+      <c r="V59" s="12"/>
+      <c r="W59" s="18">
         <f>SUM(I59:N59)</f>
         <v>4</v>
       </c>
-      <c r="U59" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V59" s="20" t="str">
+      <c r="X59" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y59" s="20" t="str">
         <f>IF(SUM(I59:N59)=C59,"完成",SUM(I59:N59))</f>
         <v>完成</v>
       </c>
     </row>
-    <row r="60" customHeight="1" spans="1:22">
+    <row r="60" hidden="1" customHeight="1" spans="1:25">
       <c r="A60" s="12">
         <v>56</v>
       </c>
@@ -17544,20 +17725,23 @@
       <c r="Q60" s="12"/>
       <c r="R60" s="12"/>
       <c r="S60" s="12"/>
-      <c r="T60" s="18">
+      <c r="T60" s="12"/>
+      <c r="U60" s="12"/>
+      <c r="V60" s="12"/>
+      <c r="W60" s="18">
         <f>SUM(I60:N60)</f>
         <v>1</v>
       </c>
-      <c r="U60" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V60" s="20" t="str">
+      <c r="X60" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y60" s="20" t="str">
         <f>IF(SUM(I60:N60)=C60,"完成",SUM(I60:N60))</f>
         <v>完成</v>
       </c>
     </row>
-    <row r="61" customHeight="1" spans="1:22">
+    <row r="61" hidden="1" customHeight="1" spans="1:25">
       <c r="A61" s="12">
         <v>57</v>
       </c>
@@ -17592,20 +17776,23 @@
       <c r="Q61" s="12"/>
       <c r="R61" s="12"/>
       <c r="S61" s="12"/>
-      <c r="T61" s="19">
+      <c r="T61" s="12"/>
+      <c r="U61" s="12"/>
+      <c r="V61" s="12"/>
+      <c r="W61" s="19">
         <f>SUM(I61:N61)</f>
         <v>1</v>
       </c>
-      <c r="U61" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V61" s="20" t="str">
+      <c r="X61" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y61" s="20" t="str">
         <f>IF(SUM(I61:N61)=C61,"完成",SUM(I61:N61))</f>
         <v>完成</v>
       </c>
     </row>
-    <row r="62" customHeight="1" spans="1:22">
+    <row r="62" hidden="1" customHeight="1" spans="1:25">
       <c r="A62" s="12">
         <v>58</v>
       </c>
@@ -17640,20 +17827,23 @@
       <c r="Q62" s="12"/>
       <c r="R62" s="12"/>
       <c r="S62" s="12"/>
-      <c r="T62" s="18">
+      <c r="T62" s="12"/>
+      <c r="U62" s="12"/>
+      <c r="V62" s="12"/>
+      <c r="W62" s="18">
         <f>SUM(I62:N62)</f>
         <v>1</v>
       </c>
-      <c r="U62" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V62" s="20" t="str">
+      <c r="X62" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y62" s="20" t="str">
         <f>IF(SUM(I62:N62)=C62,"完成",SUM(I62:N62))</f>
         <v>完成</v>
       </c>
     </row>
-    <row r="63" customHeight="1" spans="1:22">
+    <row r="63" hidden="1" customHeight="1" spans="1:25">
       <c r="A63" s="12">
         <v>59</v>
       </c>
@@ -17688,20 +17878,23 @@
       <c r="Q63" s="12"/>
       <c r="R63" s="12"/>
       <c r="S63" s="12"/>
-      <c r="T63" s="18">
+      <c r="T63" s="12"/>
+      <c r="U63" s="12"/>
+      <c r="V63" s="12"/>
+      <c r="W63" s="18">
         <f>SUM(I63:N63)</f>
         <v>1</v>
       </c>
-      <c r="U63" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V63" s="20" t="str">
+      <c r="X63" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y63" s="20" t="str">
         <f>IF(SUM(I63:N63)=C63,"完成",SUM(I63:N63))</f>
         <v>完成</v>
       </c>
     </row>
-    <row r="64" customHeight="1" spans="1:22">
+    <row r="64" hidden="1" customHeight="1" spans="1:25">
       <c r="A64" s="12">
         <v>60</v>
       </c>
@@ -17734,20 +17927,23 @@
       <c r="Q64" s="12"/>
       <c r="R64" s="12"/>
       <c r="S64" s="12"/>
-      <c r="T64" s="18">
-        <f t="shared" ref="T64:T73" si="12">SUM(I64:S64)</f>
-        <v>0</v>
-      </c>
-      <c r="U64" s="18">
+      <c r="T64" s="12"/>
+      <c r="U64" s="12"/>
+      <c r="V64" s="12"/>
+      <c r="W64" s="18">
+        <f t="shared" ref="W64:W73" si="12">SUM(I64:V64)</f>
+        <v>0</v>
+      </c>
+      <c r="X64" s="18">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="V64" s="20">
-        <f t="shared" ref="V64:V73" si="13">IF(SUM(I64:S64)=C64,"完成",SUM(I64:S64))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" customHeight="1" spans="1:22">
+      <c r="Y64" s="20">
+        <f t="shared" ref="Y64:Y73" si="13">IF(SUM(I64:V64)=C64,"完成",SUM(I64:V64))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" hidden="1" customHeight="1" spans="1:25">
       <c r="A65" s="12">
         <v>61</v>
       </c>
@@ -17780,20 +17976,23 @@
       <c r="Q65" s="12"/>
       <c r="R65" s="12"/>
       <c r="S65" s="12"/>
-      <c r="T65" s="18">
+      <c r="T65" s="12"/>
+      <c r="U65" s="12"/>
+      <c r="V65" s="12"/>
+      <c r="W65" s="18">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="U65" s="18">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="V65" s="20">
+      <c r="X65" s="18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Y65" s="20">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="66" customHeight="1" spans="1:22">
+    <row r="66" hidden="1" customHeight="1" spans="1:25">
       <c r="A66" s="12">
         <v>62</v>
       </c>
@@ -17826,20 +18025,23 @@
       <c r="Q66" s="12"/>
       <c r="R66" s="12"/>
       <c r="S66" s="12"/>
-      <c r="T66" s="18">
+      <c r="T66" s="12"/>
+      <c r="U66" s="12"/>
+      <c r="V66" s="12"/>
+      <c r="W66" s="18">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="U66" s="18">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="V66" s="20">
+      <c r="X66" s="18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Y66" s="20">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="67" customHeight="1" spans="1:22">
+    <row r="67" hidden="1" customHeight="1" spans="1:25">
       <c r="A67" s="12">
         <v>63</v>
       </c>
@@ -17872,20 +18074,23 @@
       <c r="Q67" s="12"/>
       <c r="R67" s="12"/>
       <c r="S67" s="12"/>
-      <c r="T67" s="18">
+      <c r="T67" s="12"/>
+      <c r="U67" s="12"/>
+      <c r="V67" s="12"/>
+      <c r="W67" s="18">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="U67" s="18">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="V67" s="20">
+      <c r="X67" s="18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Y67" s="20">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="68" customHeight="1" spans="1:22">
+    <row r="68" hidden="1" customHeight="1" spans="1:25">
       <c r="A68" s="12">
         <v>64</v>
       </c>
@@ -17918,20 +18123,23 @@
       <c r="Q68" s="12"/>
       <c r="R68" s="12"/>
       <c r="S68" s="12"/>
-      <c r="T68" s="18">
+      <c r="T68" s="12"/>
+      <c r="U68" s="12"/>
+      <c r="V68" s="12"/>
+      <c r="W68" s="18">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="U68" s="18">
-        <f t="shared" ref="U68:U94" si="14">C68-T68</f>
-        <v>1</v>
-      </c>
-      <c r="V68" s="20">
+      <c r="X68" s="18">
+        <f t="shared" ref="X68:X94" si="14">C68-W68</f>
+        <v>1</v>
+      </c>
+      <c r="Y68" s="20">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="69" customHeight="1" spans="1:22">
+    <row r="69" hidden="1" customHeight="1" spans="1:25">
       <c r="A69" s="12">
         <v>65</v>
       </c>
@@ -17964,20 +18172,23 @@
       <c r="Q69" s="12"/>
       <c r="R69" s="12"/>
       <c r="S69" s="12"/>
-      <c r="T69" s="18">
+      <c r="T69" s="12"/>
+      <c r="U69" s="12"/>
+      <c r="V69" s="12"/>
+      <c r="W69" s="18">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="U69" s="18">
+      <c r="X69" s="18">
         <f t="shared" si="14"/>
         <v>4</v>
       </c>
-      <c r="V69" s="20">
+      <c r="Y69" s="20">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="70" customHeight="1" spans="1:22">
+    <row r="70" hidden="1" customHeight="1" spans="1:25">
       <c r="A70" s="12">
         <v>66</v>
       </c>
@@ -18010,20 +18221,23 @@
       <c r="Q70" s="12"/>
       <c r="R70" s="12"/>
       <c r="S70" s="12"/>
-      <c r="T70" s="18">
+      <c r="T70" s="12"/>
+      <c r="U70" s="12"/>
+      <c r="V70" s="12"/>
+      <c r="W70" s="18">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="U70" s="18">
+      <c r="X70" s="18">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="V70" s="20">
+      <c r="Y70" s="20">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="71" customHeight="1" spans="1:22">
+    <row r="71" hidden="1" customHeight="1" spans="1:25">
       <c r="A71" s="12">
         <v>67</v>
       </c>
@@ -18056,20 +18270,23 @@
       <c r="Q71" s="12"/>
       <c r="R71" s="12"/>
       <c r="S71" s="12"/>
-      <c r="T71" s="18">
+      <c r="T71" s="12"/>
+      <c r="U71" s="12"/>
+      <c r="V71" s="12"/>
+      <c r="W71" s="18">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="U71" s="18">
+      <c r="X71" s="18">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="V71" s="20">
+      <c r="Y71" s="20">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="72" customHeight="1" spans="1:22">
+    <row r="72" hidden="1" customHeight="1" spans="1:25">
       <c r="A72" s="12">
         <v>68</v>
       </c>
@@ -18102,20 +18319,23 @@
       <c r="Q72" s="12"/>
       <c r="R72" s="12"/>
       <c r="S72" s="12"/>
-      <c r="T72" s="18">
+      <c r="T72" s="12"/>
+      <c r="U72" s="12"/>
+      <c r="V72" s="12"/>
+      <c r="W72" s="18">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="U72" s="18">
+      <c r="X72" s="18">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="V72" s="20">
+      <c r="Y72" s="20">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="73" customHeight="1" spans="1:22">
+    <row r="73" hidden="1" customHeight="1" spans="1:25">
       <c r="A73" s="12">
         <v>69</v>
       </c>
@@ -18148,20 +18368,23 @@
       <c r="Q73" s="12"/>
       <c r="R73" s="12"/>
       <c r="S73" s="12"/>
-      <c r="T73" s="18">
+      <c r="T73" s="12"/>
+      <c r="U73" s="12"/>
+      <c r="V73" s="12"/>
+      <c r="W73" s="18">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="U73" s="18">
+      <c r="X73" s="18">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="V73" s="20">
+      <c r="Y73" s="20">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="74" customHeight="1" spans="1:22">
+    <row r="74" hidden="1" customHeight="1" spans="1:25">
       <c r="A74" s="12">
         <v>70</v>
       </c>
@@ -18196,20 +18419,23 @@
       <c r="Q74" s="12"/>
       <c r="R74" s="12"/>
       <c r="S74" s="12"/>
-      <c r="T74" s="18">
+      <c r="T74" s="12"/>
+      <c r="U74" s="12"/>
+      <c r="V74" s="12"/>
+      <c r="W74" s="18">
         <f>SUM(I74:N74)</f>
         <v>2</v>
       </c>
-      <c r="U74" s="18">
+      <c r="X74" s="18">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="V74" s="20" t="str">
+      <c r="Y74" s="20" t="str">
         <f>IF(SUM(I74:N74)=C74,"完成",SUM(I74:N74))</f>
         <v>完成</v>
       </c>
     </row>
-    <row r="75" customHeight="1" spans="1:22">
+    <row r="75" hidden="1" customHeight="1" spans="1:25">
       <c r="A75" s="12">
         <v>71</v>
       </c>
@@ -18244,20 +18470,23 @@
       <c r="Q75" s="12"/>
       <c r="R75" s="12"/>
       <c r="S75" s="12"/>
-      <c r="T75" s="18">
+      <c r="T75" s="12"/>
+      <c r="U75" s="12"/>
+      <c r="V75" s="12"/>
+      <c r="W75" s="18">
         <f>SUM(I75:N75)</f>
         <v>1</v>
       </c>
-      <c r="U75" s="18">
+      <c r="X75" s="18">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="V75" s="20" t="str">
+      <c r="Y75" s="20" t="str">
         <f>IF(SUM(I75:N75)=C75,"完成",SUM(I75:N75))</f>
         <v>完成</v>
       </c>
     </row>
-    <row r="76" customHeight="1" spans="1:22">
+    <row r="76" hidden="1" customHeight="1" spans="1:25">
       <c r="A76" s="12">
         <v>72</v>
       </c>
@@ -18292,20 +18521,23 @@
       <c r="Q76" s="12"/>
       <c r="R76" s="12"/>
       <c r="S76" s="12"/>
-      <c r="T76" s="18">
+      <c r="T76" s="12"/>
+      <c r="U76" s="12"/>
+      <c r="V76" s="12"/>
+      <c r="W76" s="18">
         <f>SUM(I76:N76)</f>
         <v>1</v>
       </c>
-      <c r="U76" s="18">
+      <c r="X76" s="18">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="V76" s="20" t="str">
+      <c r="Y76" s="20" t="str">
         <f>IF(SUM(I76:N76)=C76,"完成",SUM(I76:N76))</f>
         <v>完成</v>
       </c>
     </row>
-    <row r="77" customHeight="1" spans="1:22">
+    <row r="77" hidden="1" customHeight="1" spans="1:25">
       <c r="A77" s="12">
         <v>73</v>
       </c>
@@ -18338,20 +18570,23 @@
       <c r="Q77" s="12"/>
       <c r="R77" s="12"/>
       <c r="S77" s="12"/>
-      <c r="T77" s="18">
-        <f t="shared" ref="T77:T108" si="16">SUM(I77:S77)</f>
-        <v>0</v>
-      </c>
-      <c r="U77" s="18">
+      <c r="T77" s="12"/>
+      <c r="U77" s="12"/>
+      <c r="V77" s="12"/>
+      <c r="W77" s="18">
+        <f t="shared" ref="W77:W108" si="16">SUM(I77:V77)</f>
+        <v>0</v>
+      </c>
+      <c r="X77" s="18">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="V77" s="20">
-        <f t="shared" ref="V77:V108" si="17">IF(SUM(I77:S77)=C77,"完成",SUM(I77:S77))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" customHeight="1" spans="1:22">
+      <c r="Y77" s="20">
+        <f t="shared" ref="Y77:Y108" si="17">IF(SUM(I77:V77)=C77,"完成",SUM(I77:V77))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" hidden="1" customHeight="1" spans="1:25">
       <c r="A78" s="12">
         <v>74</v>
       </c>
@@ -18384,20 +18619,23 @@
       <c r="Q78" s="12"/>
       <c r="R78" s="12"/>
       <c r="S78" s="12"/>
-      <c r="T78" s="18">
+      <c r="T78" s="12"/>
+      <c r="U78" s="12"/>
+      <c r="V78" s="12"/>
+      <c r="W78" s="18">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="U78" s="18">
+      <c r="X78" s="18">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="V78" s="20">
+      <c r="Y78" s="20">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="79" customHeight="1" spans="1:22">
+    <row r="79" hidden="1" customHeight="1" spans="1:25">
       <c r="A79" s="12">
         <v>75</v>
       </c>
@@ -18430,20 +18668,23 @@
       <c r="Q79" s="12"/>
       <c r="R79" s="12"/>
       <c r="S79" s="12"/>
-      <c r="T79" s="18">
+      <c r="T79" s="12"/>
+      <c r="U79" s="12"/>
+      <c r="V79" s="12"/>
+      <c r="W79" s="18">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="U79" s="18">
+      <c r="X79" s="18">
         <f t="shared" si="14"/>
         <v>2</v>
       </c>
-      <c r="V79" s="20">
+      <c r="Y79" s="20">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="80" customHeight="1" spans="1:22">
+    <row r="80" hidden="1" customHeight="1" spans="1:25">
       <c r="A80" s="12">
         <v>76</v>
       </c>
@@ -18476,20 +18717,23 @@
       <c r="Q80" s="12"/>
       <c r="R80" s="12"/>
       <c r="S80" s="12"/>
-      <c r="T80" s="18">
+      <c r="T80" s="12"/>
+      <c r="U80" s="12"/>
+      <c r="V80" s="12"/>
+      <c r="W80" s="18">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="U80" s="18">
+      <c r="X80" s="18">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="V80" s="20">
+      <c r="Y80" s="20">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="81" customHeight="1" spans="1:22">
+    <row r="81" hidden="1" customHeight="1" spans="1:25">
       <c r="A81" s="12">
         <v>77</v>
       </c>
@@ -18522,20 +18766,23 @@
       <c r="Q81" s="12"/>
       <c r="R81" s="12"/>
       <c r="S81" s="12"/>
-      <c r="T81" s="18">
+      <c r="T81" s="12"/>
+      <c r="U81" s="12"/>
+      <c r="V81" s="12"/>
+      <c r="W81" s="18">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="U81" s="18">
+      <c r="X81" s="18">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="V81" s="20">
+      <c r="Y81" s="20">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="82" customHeight="1" spans="1:22">
+    <row r="82" hidden="1" customHeight="1" spans="1:25">
       <c r="A82" s="12">
         <v>78</v>
       </c>
@@ -18568,20 +18815,23 @@
       <c r="Q82" s="12"/>
       <c r="R82" s="12"/>
       <c r="S82" s="12"/>
-      <c r="T82" s="18">
+      <c r="T82" s="12"/>
+      <c r="U82" s="12"/>
+      <c r="V82" s="12"/>
+      <c r="W82" s="18">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="U82" s="18">
+      <c r="X82" s="18">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="V82" s="20">
+      <c r="Y82" s="20">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="83" customHeight="1" spans="1:22">
+    <row r="83" hidden="1" customHeight="1" spans="1:25">
       <c r="A83" s="12">
         <v>79</v>
       </c>
@@ -18614,20 +18864,23 @@
       <c r="Q83" s="12"/>
       <c r="R83" s="12"/>
       <c r="S83" s="12"/>
-      <c r="T83" s="18">
+      <c r="T83" s="12"/>
+      <c r="U83" s="12"/>
+      <c r="V83" s="12"/>
+      <c r="W83" s="18">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="U83" s="18">
+      <c r="X83" s="18">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="V83" s="20">
+      <c r="Y83" s="20">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="84" customHeight="1" spans="1:22">
+    <row r="84" hidden="1" customHeight="1" spans="1:25">
       <c r="A84" s="12">
         <v>80</v>
       </c>
@@ -18660,20 +18913,23 @@
       <c r="Q84" s="12"/>
       <c r="R84" s="12"/>
       <c r="S84" s="12"/>
-      <c r="T84" s="18">
+      <c r="T84" s="12"/>
+      <c r="U84" s="12"/>
+      <c r="V84" s="12"/>
+      <c r="W84" s="18">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="U84" s="18">
+      <c r="X84" s="18">
         <f t="shared" si="14"/>
         <v>2</v>
       </c>
-      <c r="V84" s="20">
+      <c r="Y84" s="20">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="85" customHeight="1" spans="1:22">
+    <row r="85" hidden="1" customHeight="1" spans="1:25">
       <c r="A85" s="12">
         <v>81</v>
       </c>
@@ -18706,20 +18962,23 @@
       <c r="Q85" s="12"/>
       <c r="R85" s="12"/>
       <c r="S85" s="12"/>
-      <c r="T85" s="18">
+      <c r="T85" s="12"/>
+      <c r="U85" s="12"/>
+      <c r="V85" s="12"/>
+      <c r="W85" s="18">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="U85" s="18">
+      <c r="X85" s="18">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="V85" s="20">
+      <c r="Y85" s="20">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="86" customHeight="1" spans="1:22">
+    <row r="86" hidden="1" customHeight="1" spans="1:25">
       <c r="A86" s="12">
         <v>82</v>
       </c>
@@ -18752,20 +19011,23 @@
       <c r="Q86" s="12"/>
       <c r="R86" s="12"/>
       <c r="S86" s="12"/>
-      <c r="T86" s="18">
+      <c r="T86" s="12"/>
+      <c r="U86" s="12"/>
+      <c r="V86" s="12"/>
+      <c r="W86" s="18">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="U86" s="18">
+      <c r="X86" s="18">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="V86" s="20">
+      <c r="Y86" s="20">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="87" customHeight="1" spans="1:22">
+    <row r="87" hidden="1" customHeight="1" spans="1:25">
       <c r="A87" s="12">
         <v>83</v>
       </c>
@@ -18798,20 +19060,23 @@
       <c r="Q87" s="12"/>
       <c r="R87" s="12"/>
       <c r="S87" s="12"/>
-      <c r="T87" s="18">
+      <c r="T87" s="12"/>
+      <c r="U87" s="12"/>
+      <c r="V87" s="12"/>
+      <c r="W87" s="18">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="U87" s="18">
+      <c r="X87" s="18">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="V87" s="20">
+      <c r="Y87" s="20">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="88" customHeight="1" spans="1:22">
+    <row r="88" hidden="1" customHeight="1" spans="1:25">
       <c r="A88" s="12">
         <v>84</v>
       </c>
@@ -18844,20 +19109,23 @@
       <c r="Q88" s="12"/>
       <c r="R88" s="12"/>
       <c r="S88" s="12"/>
-      <c r="T88" s="18">
+      <c r="T88" s="12"/>
+      <c r="U88" s="12"/>
+      <c r="V88" s="12"/>
+      <c r="W88" s="18">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="U88" s="18">
+      <c r="X88" s="18">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="V88" s="20">
+      <c r="Y88" s="20">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="89" customHeight="1" spans="1:22">
+    <row r="89" hidden="1" customHeight="1" spans="1:25">
       <c r="A89" s="12">
         <v>85</v>
       </c>
@@ -18890,20 +19158,23 @@
       <c r="Q89" s="12"/>
       <c r="R89" s="12"/>
       <c r="S89" s="12"/>
-      <c r="T89" s="18">
+      <c r="T89" s="12"/>
+      <c r="U89" s="12"/>
+      <c r="V89" s="12"/>
+      <c r="W89" s="18">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="U89" s="18">
+      <c r="X89" s="18">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="V89" s="20">
+      <c r="Y89" s="20">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="90" customHeight="1" spans="1:22">
+    <row r="90" hidden="1" customHeight="1" spans="1:25">
       <c r="A90" s="12">
         <v>86</v>
       </c>
@@ -18935,21 +19206,26 @@
       <c r="P90" s="12"/>
       <c r="Q90" s="12"/>
       <c r="R90" s="12"/>
-      <c r="S90" s="12"/>
-      <c r="T90" s="18">
+      <c r="S90" s="12">
+        <v>20</v>
+      </c>
+      <c r="T90" s="12"/>
+      <c r="U90" s="12"/>
+      <c r="V90" s="12"/>
+      <c r="W90" s="18">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="U90" s="18">
-        <f t="shared" ref="U90:U121" si="18">C90-T90</f>
         <v>20</v>
       </c>
-      <c r="V90" s="20">
+      <c r="X90" s="18">
+        <f t="shared" ref="X90:X121" si="18">C90-W90</f>
+        <v>0</v>
+      </c>
+      <c r="Y90" s="20" t="str">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" customHeight="1" spans="1:22">
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="91" hidden="1" customHeight="1" spans="1:25">
       <c r="A91" s="12">
         <v>87</v>
       </c>
@@ -18981,21 +19257,26 @@
       <c r="P91" s="12"/>
       <c r="Q91" s="12"/>
       <c r="R91" s="12"/>
-      <c r="S91" s="12"/>
-      <c r="T91" s="18">
+      <c r="S91" s="12">
+        <v>3</v>
+      </c>
+      <c r="T91" s="12"/>
+      <c r="U91" s="12"/>
+      <c r="V91" s="12"/>
+      <c r="W91" s="18">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="U91" s="18">
+        <v>3</v>
+      </c>
+      <c r="X91" s="18">
         <f t="shared" si="18"/>
-        <v>7</v>
-      </c>
-      <c r="V91" s="20">
+        <v>4</v>
+      </c>
+      <c r="Y91" s="20">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" customHeight="1" spans="1:22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" customHeight="1" spans="1:25">
       <c r="A92" s="12">
         <v>88</v>
       </c>
@@ -19028,20 +19309,25 @@
       <c r="Q92" s="12"/>
       <c r="R92" s="12"/>
       <c r="S92" s="12"/>
-      <c r="T92" s="18">
+      <c r="T92" s="12">
+        <v>1</v>
+      </c>
+      <c r="U92" s="12"/>
+      <c r="V92" s="12"/>
+      <c r="W92" s="18">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="U92" s="18">
+        <v>1</v>
+      </c>
+      <c r="X92" s="18">
         <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="V92" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y92" s="20" t="str">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" customHeight="1" spans="1:22">
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="93" customHeight="1" spans="1:25">
       <c r="A93" s="12">
         <v>89</v>
       </c>
@@ -19073,21 +19359,28 @@
       <c r="P93" s="12"/>
       <c r="Q93" s="12"/>
       <c r="R93" s="12"/>
-      <c r="S93" s="12"/>
-      <c r="T93" s="18">
+      <c r="S93" s="12">
+        <v>1</v>
+      </c>
+      <c r="T93" s="12">
+        <v>1</v>
+      </c>
+      <c r="U93" s="12"/>
+      <c r="V93" s="12"/>
+      <c r="W93" s="18">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="U93" s="18">
+        <v>2</v>
+      </c>
+      <c r="X93" s="18">
         <f t="shared" si="18"/>
-        <v>2</v>
-      </c>
-      <c r="V93" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="20" t="str">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" customHeight="1" spans="1:22">
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="94" customHeight="1" spans="1:25">
       <c r="A94" s="12">
         <v>90</v>
       </c>
@@ -19120,20 +19413,25 @@
       <c r="Q94" s="12"/>
       <c r="R94" s="12"/>
       <c r="S94" s="12"/>
-      <c r="T94" s="18">
+      <c r="T94" s="12">
+        <v>2</v>
+      </c>
+      <c r="U94" s="12"/>
+      <c r="V94" s="12"/>
+      <c r="W94" s="18">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="U94" s="18">
+        <v>2</v>
+      </c>
+      <c r="X94" s="18">
         <f t="shared" si="18"/>
-        <v>2</v>
-      </c>
-      <c r="V94" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="20" t="str">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" customHeight="1" spans="1:22">
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="95" customHeight="1" spans="1:25">
       <c r="A95" s="12">
         <v>91</v>
       </c>
@@ -19166,20 +19464,25 @@
       <c r="Q95" s="12"/>
       <c r="R95" s="12"/>
       <c r="S95" s="12"/>
-      <c r="T95" s="18">
+      <c r="T95" s="12">
+        <v>1</v>
+      </c>
+      <c r="U95" s="12"/>
+      <c r="V95" s="12"/>
+      <c r="W95" s="18">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="U95" s="18">
+        <v>1</v>
+      </c>
+      <c r="X95" s="18">
         <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="V95" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y95" s="20" t="str">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" customHeight="1" spans="1:22">
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="96" customHeight="1" spans="1:25">
       <c r="A96" s="12">
         <v>92</v>
       </c>
@@ -19212,20 +19515,25 @@
       <c r="Q96" s="12"/>
       <c r="R96" s="12"/>
       <c r="S96" s="12"/>
-      <c r="T96" s="18">
+      <c r="T96" s="12">
+        <v>2</v>
+      </c>
+      <c r="U96" s="12"/>
+      <c r="V96" s="12"/>
+      <c r="W96" s="18">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="U96" s="18">
+        <v>2</v>
+      </c>
+      <c r="X96" s="18">
         <f t="shared" si="18"/>
-        <v>2</v>
-      </c>
-      <c r="V96" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="20" t="str">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" customHeight="1" spans="1:22">
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="97" customHeight="1" spans="1:25">
       <c r="A97" s="12">
         <v>93</v>
       </c>
@@ -19258,20 +19566,25 @@
       <c r="Q97" s="12"/>
       <c r="R97" s="12"/>
       <c r="S97" s="12"/>
-      <c r="T97" s="18">
+      <c r="T97" s="12">
+        <v>1</v>
+      </c>
+      <c r="U97" s="12"/>
+      <c r="V97" s="12"/>
+      <c r="W97" s="18">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="U97" s="18">
+        <v>1</v>
+      </c>
+      <c r="X97" s="18">
         <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="V97" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y97" s="20" t="str">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" customHeight="1" spans="1:22">
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="98" customHeight="1" spans="1:25">
       <c r="A98" s="12">
         <v>94</v>
       </c>
@@ -19304,20 +19617,25 @@
       <c r="Q98" s="12"/>
       <c r="R98" s="12"/>
       <c r="S98" s="12"/>
-      <c r="T98" s="18">
+      <c r="T98" s="12">
+        <v>1</v>
+      </c>
+      <c r="U98" s="12"/>
+      <c r="V98" s="12"/>
+      <c r="W98" s="18">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="U98" s="18">
+        <v>1</v>
+      </c>
+      <c r="X98" s="18">
         <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="V98" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y98" s="20" t="str">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" customHeight="1" spans="1:22">
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="99" hidden="1" customHeight="1" spans="1:25">
       <c r="A99" s="12">
         <v>95</v>
       </c>
@@ -19350,20 +19668,23 @@
       <c r="Q99" s="12"/>
       <c r="R99" s="12"/>
       <c r="S99" s="12"/>
-      <c r="T99" s="18">
+      <c r="T99" s="12"/>
+      <c r="U99" s="12"/>
+      <c r="V99" s="12"/>
+      <c r="W99" s="18">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="U99" s="18">
+      <c r="X99" s="18">
         <f t="shared" si="18"/>
         <v>15</v>
       </c>
-      <c r="V99" s="20">
+      <c r="Y99" s="20">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="100" customHeight="1" spans="1:22">
+    <row r="100" hidden="1" customHeight="1" spans="1:25">
       <c r="A100" s="12">
         <v>96</v>
       </c>
@@ -19396,20 +19717,23 @@
       <c r="Q100" s="12"/>
       <c r="R100" s="12"/>
       <c r="S100" s="12"/>
-      <c r="T100" s="18">
+      <c r="T100" s="12"/>
+      <c r="U100" s="12"/>
+      <c r="V100" s="12"/>
+      <c r="W100" s="18">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="U100" s="18">
+      <c r="X100" s="18">
         <f t="shared" si="18"/>
         <v>4</v>
       </c>
-      <c r="V100" s="20">
+      <c r="Y100" s="20">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="101" customHeight="1" spans="1:22">
+    <row r="101" hidden="1" customHeight="1" spans="1:25">
       <c r="A101" s="12">
         <v>97</v>
       </c>
@@ -19442,20 +19766,23 @@
       <c r="Q101" s="12"/>
       <c r="R101" s="12"/>
       <c r="S101" s="12"/>
-      <c r="T101" s="18">
+      <c r="T101" s="12"/>
+      <c r="U101" s="12"/>
+      <c r="V101" s="12"/>
+      <c r="W101" s="18">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="U101" s="18">
+      <c r="X101" s="18">
         <f t="shared" si="18"/>
         <v>2</v>
       </c>
-      <c r="V101" s="20">
+      <c r="Y101" s="20">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="102" customHeight="1" spans="1:22">
+    <row r="102" hidden="1" customHeight="1" spans="1:25">
       <c r="A102" s="12">
         <v>98</v>
       </c>
@@ -19488,20 +19815,23 @@
       <c r="Q102" s="12"/>
       <c r="R102" s="12"/>
       <c r="S102" s="12"/>
-      <c r="T102" s="18">
+      <c r="T102" s="12"/>
+      <c r="U102" s="12"/>
+      <c r="V102" s="12"/>
+      <c r="W102" s="18">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="U102" s="18">
+      <c r="X102" s="18">
         <f t="shared" si="18"/>
         <v>4</v>
       </c>
-      <c r="V102" s="20">
+      <c r="Y102" s="20">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="103" customHeight="1" spans="1:22">
+    <row r="103" hidden="1" customHeight="1" spans="1:25">
       <c r="A103" s="12">
         <v>99</v>
       </c>
@@ -19534,20 +19864,23 @@
       <c r="Q103" s="12"/>
       <c r="R103" s="12"/>
       <c r="S103" s="12"/>
-      <c r="T103" s="18">
+      <c r="T103" s="12"/>
+      <c r="U103" s="12"/>
+      <c r="V103" s="12"/>
+      <c r="W103" s="18">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="U103" s="18">
+      <c r="X103" s="18">
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="V103" s="20">
+      <c r="Y103" s="20">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="104" customHeight="1" spans="1:22">
+    <row r="104" hidden="1" customHeight="1" spans="1:25">
       <c r="A104" s="12">
         <v>100</v>
       </c>
@@ -19580,20 +19913,23 @@
       <c r="Q104" s="12"/>
       <c r="R104" s="12"/>
       <c r="S104" s="12"/>
-      <c r="T104" s="18">
+      <c r="T104" s="12"/>
+      <c r="U104" s="12"/>
+      <c r="V104" s="12"/>
+      <c r="W104" s="18">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="U104" s="18">
+      <c r="X104" s="18">
         <f t="shared" si="18"/>
         <v>222</v>
       </c>
-      <c r="V104" s="20">
+      <c r="Y104" s="20">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="105" customHeight="1" spans="1:22">
+    <row r="105" hidden="1" customHeight="1" spans="1:25">
       <c r="A105" s="12">
         <v>101</v>
       </c>
@@ -19626,20 +19962,23 @@
       <c r="Q105" s="12"/>
       <c r="R105" s="12"/>
       <c r="S105" s="12"/>
-      <c r="T105" s="18">
+      <c r="T105" s="12"/>
+      <c r="U105" s="12"/>
+      <c r="V105" s="12"/>
+      <c r="W105" s="18">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="U105" s="18">
+      <c r="X105" s="18">
         <f t="shared" si="18"/>
         <v>53</v>
       </c>
-      <c r="V105" s="20">
+      <c r="Y105" s="20">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="106" customHeight="1" spans="1:22">
+    <row r="106" hidden="1" customHeight="1" spans="1:25">
       <c r="A106" s="12">
         <v>102</v>
       </c>
@@ -19672,20 +20011,23 @@
       <c r="Q106" s="12"/>
       <c r="R106" s="12"/>
       <c r="S106" s="12"/>
-      <c r="T106" s="18">
+      <c r="T106" s="12"/>
+      <c r="U106" s="12"/>
+      <c r="V106" s="12"/>
+      <c r="W106" s="18">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="U106" s="18">
+      <c r="X106" s="18">
         <f t="shared" si="18"/>
         <v>53</v>
       </c>
-      <c r="V106" s="20">
+      <c r="Y106" s="20">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="107" customHeight="1" spans="1:22">
+    <row r="107" hidden="1" customHeight="1" spans="1:25">
       <c r="A107" s="12">
         <v>103</v>
       </c>
@@ -19718,20 +20060,23 @@
       <c r="Q107" s="12"/>
       <c r="R107" s="12"/>
       <c r="S107" s="12"/>
-      <c r="T107" s="18">
+      <c r="T107" s="12"/>
+      <c r="U107" s="12"/>
+      <c r="V107" s="12"/>
+      <c r="W107" s="18">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="U107" s="18">
+      <c r="X107" s="18">
         <f t="shared" si="18"/>
         <v>204</v>
       </c>
-      <c r="V107" s="20">
+      <c r="Y107" s="20">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="108" customHeight="1" spans="1:22">
+    <row r="108" hidden="1" customHeight="1" spans="1:25">
       <c r="A108" s="12">
         <v>104</v>
       </c>
@@ -19764,20 +20109,23 @@
       <c r="Q108" s="12"/>
       <c r="R108" s="12"/>
       <c r="S108" s="12"/>
-      <c r="T108" s="18">
+      <c r="T108" s="12"/>
+      <c r="U108" s="12"/>
+      <c r="V108" s="12"/>
+      <c r="W108" s="18">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="U108" s="18">
+      <c r="X108" s="18">
         <f t="shared" si="18"/>
         <v>50</v>
       </c>
-      <c r="V108" s="20">
+      <c r="Y108" s="20">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="109" customHeight="1" spans="1:22">
+    <row r="109" hidden="1" customHeight="1" spans="1:25">
       <c r="A109" s="12">
         <v>105</v>
       </c>
@@ -19810,20 +20158,23 @@
       <c r="Q109" s="12"/>
       <c r="R109" s="12"/>
       <c r="S109" s="12"/>
-      <c r="T109" s="18">
-        <f t="shared" ref="T109:T140" si="19">SUM(I109:S109)</f>
-        <v>0</v>
-      </c>
-      <c r="U109" s="18">
+      <c r="T109" s="12"/>
+      <c r="U109" s="12"/>
+      <c r="V109" s="12"/>
+      <c r="W109" s="18">
+        <f t="shared" ref="W109:W140" si="19">SUM(I109:V109)</f>
+        <v>0</v>
+      </c>
+      <c r="X109" s="18">
         <f t="shared" si="18"/>
         <v>48</v>
       </c>
-      <c r="V109" s="20">
-        <f t="shared" ref="V109:V140" si="20">IF(SUM(I109:S109)=C109,"完成",SUM(I109:S109))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" customHeight="1" spans="1:22">
+      <c r="Y109" s="20">
+        <f t="shared" ref="Y109:Y140" si="20">IF(SUM(I109:V109)=C109,"完成",SUM(I109:V109))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" customHeight="1" spans="1:25">
       <c r="A110" s="12">
         <v>106</v>
       </c>
@@ -19856,20 +20207,25 @@
       <c r="Q110" s="12"/>
       <c r="R110" s="12"/>
       <c r="S110" s="12"/>
-      <c r="T110" s="18">
+      <c r="T110" s="12">
+        <v>10</v>
+      </c>
+      <c r="U110" s="12"/>
+      <c r="V110" s="12"/>
+      <c r="W110" s="18">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="U110" s="18">
+        <v>10</v>
+      </c>
+      <c r="X110" s="18">
         <f t="shared" si="18"/>
-        <v>13</v>
-      </c>
-      <c r="V110" s="20">
+        <v>3</v>
+      </c>
+      <c r="Y110" s="20">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" customHeight="1" spans="1:22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" customHeight="1" spans="1:25">
       <c r="A111" s="12">
         <v>107</v>
       </c>
@@ -19902,20 +20258,25 @@
       <c r="Q111" s="12"/>
       <c r="R111" s="12"/>
       <c r="S111" s="12"/>
-      <c r="T111" s="18">
+      <c r="T111" s="12">
+        <v>6</v>
+      </c>
+      <c r="U111" s="12"/>
+      <c r="V111" s="12"/>
+      <c r="W111" s="18">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="U111" s="18">
+        <v>6</v>
+      </c>
+      <c r="X111" s="18">
         <f t="shared" si="18"/>
-        <v>6</v>
-      </c>
-      <c r="V111" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y111" s="20" t="str">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" customHeight="1" spans="1:22">
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="112" hidden="1" customHeight="1" spans="1:25">
       <c r="A112" s="12">
         <v>108</v>
       </c>
@@ -19948,20 +20309,23 @@
       <c r="Q112" s="12"/>
       <c r="R112" s="12"/>
       <c r="S112" s="12"/>
-      <c r="T112" s="18">
+      <c r="T112" s="12"/>
+      <c r="U112" s="12"/>
+      <c r="V112" s="12"/>
+      <c r="W112" s="18">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="U112" s="18">
+      <c r="X112" s="18">
         <f t="shared" si="18"/>
         <v>6</v>
       </c>
-      <c r="V112" s="20">
+      <c r="Y112" s="20">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
-    <row r="113" customHeight="1" spans="1:22">
+    <row r="113" customHeight="1" spans="1:25">
       <c r="A113" s="12">
         <v>109</v>
       </c>
@@ -19994,20 +20358,25 @@
       <c r="Q113" s="12"/>
       <c r="R113" s="12"/>
       <c r="S113" s="12"/>
-      <c r="T113" s="18">
+      <c r="T113" s="12">
+        <v>1</v>
+      </c>
+      <c r="U113" s="12"/>
+      <c r="V113" s="12"/>
+      <c r="W113" s="18">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="U113" s="18">
+        <v>1</v>
+      </c>
+      <c r="X113" s="18">
         <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="V113" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y113" s="20" t="str">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" customHeight="1" spans="1:22">
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="114" customHeight="1" spans="1:25">
       <c r="A114" s="12">
         <v>110</v>
       </c>
@@ -20040,20 +20409,25 @@
       <c r="Q114" s="12"/>
       <c r="R114" s="12"/>
       <c r="S114" s="12"/>
-      <c r="T114" s="18">
+      <c r="T114" s="12">
+        <v>1</v>
+      </c>
+      <c r="U114" s="12"/>
+      <c r="V114" s="12"/>
+      <c r="W114" s="18">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="U114" s="18">
+        <v>1</v>
+      </c>
+      <c r="X114" s="18">
         <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="V114" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y114" s="20" t="str">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" customHeight="1" spans="1:22">
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="115" customHeight="1" spans="1:25">
       <c r="A115" s="12">
         <v>111</v>
       </c>
@@ -20086,20 +20460,25 @@
       <c r="Q115" s="12"/>
       <c r="R115" s="12"/>
       <c r="S115" s="12"/>
-      <c r="T115" s="18">
+      <c r="T115" s="12">
+        <v>1</v>
+      </c>
+      <c r="U115" s="12"/>
+      <c r="V115" s="12"/>
+      <c r="W115" s="18">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="U115" s="18">
+        <v>1</v>
+      </c>
+      <c r="X115" s="18">
         <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="V115" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y115" s="20" t="str">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" customHeight="1" spans="1:22">
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="116" customHeight="1" spans="1:25">
       <c r="A116" s="12">
         <v>112</v>
       </c>
@@ -20132,20 +20511,25 @@
       <c r="Q116" s="12"/>
       <c r="R116" s="12"/>
       <c r="S116" s="12"/>
-      <c r="T116" s="18">
+      <c r="T116" s="12">
+        <v>1</v>
+      </c>
+      <c r="U116" s="12"/>
+      <c r="V116" s="12"/>
+      <c r="W116" s="18">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="U116" s="18">
+        <v>1</v>
+      </c>
+      <c r="X116" s="18">
         <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="V116" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y116" s="20" t="str">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" customHeight="1" spans="1:22">
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="117" hidden="1" customHeight="1" spans="1:25">
       <c r="A117" s="12">
         <v>113</v>
       </c>
@@ -20178,20 +20562,23 @@
       <c r="Q117" s="12"/>
       <c r="R117" s="12"/>
       <c r="S117" s="12"/>
-      <c r="T117" s="18">
+      <c r="T117" s="12"/>
+      <c r="U117" s="12"/>
+      <c r="V117" s="12"/>
+      <c r="W117" s="18">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="U117" s="18">
+      <c r="X117" s="18">
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="V117" s="20">
+      <c r="Y117" s="20">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
-    <row r="118" customHeight="1" spans="1:22">
+    <row r="118" hidden="1" customHeight="1" spans="1:25">
       <c r="A118" s="12">
         <v>114</v>
       </c>
@@ -20224,20 +20611,23 @@
       <c r="Q118" s="12"/>
       <c r="R118" s="12"/>
       <c r="S118" s="12"/>
-      <c r="T118" s="18">
+      <c r="T118" s="12"/>
+      <c r="U118" s="12"/>
+      <c r="V118" s="12"/>
+      <c r="W118" s="18">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="U118" s="18">
+      <c r="X118" s="18">
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="V118" s="20">
+      <c r="Y118" s="20">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
-    <row r="119" customHeight="1" spans="1:22">
+    <row r="119" customHeight="1" spans="1:25">
       <c r="A119" s="12">
         <v>115</v>
       </c>
@@ -20270,20 +20660,25 @@
       <c r="Q119" s="12"/>
       <c r="R119" s="12"/>
       <c r="S119" s="12"/>
-      <c r="T119" s="18">
+      <c r="T119" s="12">
+        <v>25</v>
+      </c>
+      <c r="U119" s="12"/>
+      <c r="V119" s="12"/>
+      <c r="W119" s="18">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="U119" s="18">
+        <v>25</v>
+      </c>
+      <c r="X119" s="18">
         <f t="shared" si="18"/>
-        <v>45</v>
-      </c>
-      <c r="V119" s="20">
+        <v>20</v>
+      </c>
+      <c r="Y119" s="20">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" customHeight="1" spans="1:22">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="120" customHeight="1" spans="1:25">
       <c r="A120" s="12">
         <v>116</v>
       </c>
@@ -20316,20 +20711,25 @@
       <c r="Q120" s="12"/>
       <c r="R120" s="12"/>
       <c r="S120" s="12"/>
-      <c r="T120" s="18">
+      <c r="T120" s="12">
+        <v>9</v>
+      </c>
+      <c r="U120" s="12"/>
+      <c r="V120" s="12"/>
+      <c r="W120" s="18">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="U120" s="18">
+        <v>9</v>
+      </c>
+      <c r="X120" s="18">
         <f t="shared" si="18"/>
-        <v>9</v>
-      </c>
-      <c r="V120" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y120" s="20" t="str">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" customHeight="1" spans="1:22">
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="121" hidden="1" customHeight="1" spans="1:25">
       <c r="A121" s="12">
         <v>117</v>
       </c>
@@ -20362,20 +20762,23 @@
       <c r="Q121" s="12"/>
       <c r="R121" s="12"/>
       <c r="S121" s="12"/>
-      <c r="T121" s="18">
+      <c r="T121" s="12"/>
+      <c r="U121" s="12"/>
+      <c r="V121" s="12"/>
+      <c r="W121" s="18">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="U121" s="18">
+      <c r="X121" s="18">
         <f t="shared" si="18"/>
         <v>6</v>
       </c>
-      <c r="V121" s="20">
+      <c r="Y121" s="20">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
-    <row r="122" customHeight="1" spans="1:22">
+    <row r="122" customHeight="1" spans="1:25">
       <c r="A122" s="12">
         <v>118</v>
       </c>
@@ -20408,20 +20811,25 @@
       <c r="Q122" s="12"/>
       <c r="R122" s="12"/>
       <c r="S122" s="12"/>
-      <c r="T122" s="18">
+      <c r="T122" s="12">
+        <v>4</v>
+      </c>
+      <c r="U122" s="12"/>
+      <c r="V122" s="12"/>
+      <c r="W122" s="18">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="U122" s="18">
-        <f t="shared" ref="U122:U164" si="21">C122-T122</f>
         <v>4</v>
       </c>
-      <c r="V122" s="20">
+      <c r="X122" s="18">
+        <f t="shared" ref="X122:X164" si="21">C122-W122</f>
+        <v>0</v>
+      </c>
+      <c r="Y122" s="20" t="str">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" customHeight="1" spans="1:22">
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="123" hidden="1" customHeight="1" spans="1:25">
       <c r="A123" s="12">
         <v>119</v>
       </c>
@@ -20454,20 +20862,23 @@
       <c r="Q123" s="12"/>
       <c r="R123" s="12"/>
       <c r="S123" s="12"/>
-      <c r="T123" s="18">
+      <c r="T123" s="12"/>
+      <c r="U123" s="12"/>
+      <c r="V123" s="12"/>
+      <c r="W123" s="18">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="U123" s="18">
+      <c r="X123" s="18">
         <f t="shared" si="21"/>
         <v>8</v>
       </c>
-      <c r="V123" s="20">
+      <c r="Y123" s="20">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
-    <row r="124" customHeight="1" spans="1:22">
+    <row r="124" customHeight="1" spans="1:25">
       <c r="A124" s="12">
         <v>120</v>
       </c>
@@ -20500,20 +20911,25 @@
       <c r="Q124" s="12"/>
       <c r="R124" s="12"/>
       <c r="S124" s="12"/>
-      <c r="T124" s="18">
+      <c r="T124" s="12">
+        <v>4</v>
+      </c>
+      <c r="U124" s="12"/>
+      <c r="V124" s="12"/>
+      <c r="W124" s="18">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="U124" s="18">
+        <v>4</v>
+      </c>
+      <c r="X124" s="18">
         <f t="shared" si="21"/>
-        <v>4</v>
-      </c>
-      <c r="V124" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y124" s="20" t="str">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" customHeight="1" spans="1:22">
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="125" hidden="1" customHeight="1" spans="1:25">
       <c r="A125" s="12">
         <v>121</v>
       </c>
@@ -20546,20 +20962,23 @@
       <c r="Q125" s="12"/>
       <c r="R125" s="12"/>
       <c r="S125" s="12"/>
-      <c r="T125" s="18">
+      <c r="T125" s="12"/>
+      <c r="U125" s="12"/>
+      <c r="V125" s="12"/>
+      <c r="W125" s="18">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="U125" s="18">
+      <c r="X125" s="18">
         <f t="shared" si="21"/>
         <v>4</v>
       </c>
-      <c r="V125" s="20">
+      <c r="Y125" s="20">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
-    <row r="126" customHeight="1" spans="1:22">
+    <row r="126" hidden="1" customHeight="1" spans="1:25">
       <c r="A126" s="12">
         <v>122</v>
       </c>
@@ -20592,20 +21011,23 @@
       <c r="Q126" s="12"/>
       <c r="R126" s="12"/>
       <c r="S126" s="12"/>
-      <c r="T126" s="18">
+      <c r="T126" s="12"/>
+      <c r="U126" s="12"/>
+      <c r="V126" s="12"/>
+      <c r="W126" s="18">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="U126" s="18">
+      <c r="X126" s="18">
         <f t="shared" si="21"/>
         <v>8</v>
       </c>
-      <c r="V126" s="20">
+      <c r="Y126" s="20">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
-    <row r="127" customHeight="1" spans="1:22">
+    <row r="127" hidden="1" customHeight="1" spans="1:25">
       <c r="A127" s="12">
         <v>123</v>
       </c>
@@ -20638,20 +21060,23 @@
       <c r="Q127" s="12"/>
       <c r="R127" s="12"/>
       <c r="S127" s="12"/>
-      <c r="T127" s="18">
+      <c r="T127" s="12"/>
+      <c r="U127" s="12"/>
+      <c r="V127" s="12"/>
+      <c r="W127" s="18">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="U127" s="18">
+      <c r="X127" s="18">
         <f t="shared" si="21"/>
         <v>4</v>
       </c>
-      <c r="V127" s="20">
+      <c r="Y127" s="20">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
-    <row r="128" customHeight="1" spans="1:22">
+    <row r="128" hidden="1" customHeight="1" spans="1:25">
       <c r="A128" s="12">
         <v>124</v>
       </c>
@@ -20684,20 +21109,23 @@
       <c r="Q128" s="12"/>
       <c r="R128" s="12"/>
       <c r="S128" s="12"/>
-      <c r="T128" s="18">
+      <c r="T128" s="12"/>
+      <c r="U128" s="12"/>
+      <c r="V128" s="12"/>
+      <c r="W128" s="18">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="U128" s="18">
+      <c r="X128" s="18">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="V128" s="20">
+      <c r="Y128" s="20">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
-    <row r="129" customHeight="1" spans="1:22">
+    <row r="129" hidden="1" customHeight="1" spans="1:25">
       <c r="A129" s="12">
         <v>125</v>
       </c>
@@ -20730,20 +21158,23 @@
       <c r="Q129" s="12"/>
       <c r="R129" s="12"/>
       <c r="S129" s="12"/>
-      <c r="T129" s="18">
+      <c r="T129" s="12"/>
+      <c r="U129" s="12"/>
+      <c r="V129" s="12"/>
+      <c r="W129" s="18">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="U129" s="18">
+      <c r="X129" s="18">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="V129" s="20">
+      <c r="Y129" s="20">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
-    <row r="130" customHeight="1" spans="1:22">
+    <row r="130" hidden="1" customHeight="1" spans="1:25">
       <c r="A130" s="12">
         <v>126</v>
       </c>
@@ -20776,20 +21207,23 @@
       <c r="Q130" s="12"/>
       <c r="R130" s="12"/>
       <c r="S130" s="12"/>
-      <c r="T130" s="18">
+      <c r="T130" s="12"/>
+      <c r="U130" s="12"/>
+      <c r="V130" s="12"/>
+      <c r="W130" s="18">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="U130" s="18">
+      <c r="X130" s="18">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="V130" s="20">
+      <c r="Y130" s="20">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
-    <row r="131" customHeight="1" spans="1:22">
+    <row r="131" hidden="1" customHeight="1" spans="1:25">
       <c r="A131" s="12">
         <v>127</v>
       </c>
@@ -20822,20 +21256,23 @@
       <c r="Q131" s="12"/>
       <c r="R131" s="12"/>
       <c r="S131" s="12"/>
-      <c r="T131" s="18">
+      <c r="T131" s="12"/>
+      <c r="U131" s="12"/>
+      <c r="V131" s="12"/>
+      <c r="W131" s="18">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="U131" s="18">
+      <c r="X131" s="18">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="V131" s="20">
+      <c r="Y131" s="20">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
-    <row r="132" customHeight="1" spans="1:22">
+    <row r="132" hidden="1" customHeight="1" spans="1:25">
       <c r="A132" s="12">
         <v>128</v>
       </c>
@@ -20868,20 +21305,23 @@
       <c r="Q132" s="12"/>
       <c r="R132" s="12"/>
       <c r="S132" s="12"/>
-      <c r="T132" s="18">
+      <c r="T132" s="12"/>
+      <c r="U132" s="12"/>
+      <c r="V132" s="12"/>
+      <c r="W132" s="18">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="U132" s="18">
+      <c r="X132" s="18">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="V132" s="20">
+      <c r="Y132" s="20">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
-    <row r="133" customHeight="1" spans="1:22">
+    <row r="133" hidden="1" customHeight="1" spans="1:25">
       <c r="A133" s="12">
         <v>129</v>
       </c>
@@ -20914,20 +21354,23 @@
       <c r="Q133" s="12"/>
       <c r="R133" s="12"/>
       <c r="S133" s="12"/>
-      <c r="T133" s="18">
+      <c r="T133" s="12"/>
+      <c r="U133" s="12"/>
+      <c r="V133" s="12"/>
+      <c r="W133" s="18">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="U133" s="18">
+      <c r="X133" s="18">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="V133" s="20">
+      <c r="Y133" s="20">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
-    <row r="134" customHeight="1" spans="1:22">
+    <row r="134" hidden="1" customHeight="1" spans="1:25">
       <c r="A134" s="12">
         <v>130</v>
       </c>
@@ -20960,20 +21403,23 @@
       <c r="Q134" s="12"/>
       <c r="R134" s="12"/>
       <c r="S134" s="12"/>
-      <c r="T134" s="18">
+      <c r="T134" s="12"/>
+      <c r="U134" s="12"/>
+      <c r="V134" s="12"/>
+      <c r="W134" s="18">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="U134" s="18">
+      <c r="X134" s="18">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="V134" s="20">
+      <c r="Y134" s="20">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
-    <row r="135" customHeight="1" spans="1:22">
+    <row r="135" hidden="1" customHeight="1" spans="1:25">
       <c r="A135" s="12">
         <v>131</v>
       </c>
@@ -21006,20 +21452,23 @@
       <c r="Q135" s="12"/>
       <c r="R135" s="12"/>
       <c r="S135" s="12"/>
-      <c r="T135" s="18">
+      <c r="T135" s="12"/>
+      <c r="U135" s="12"/>
+      <c r="V135" s="12"/>
+      <c r="W135" s="18">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="U135" s="18">
+      <c r="X135" s="18">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="V135" s="20">
+      <c r="Y135" s="20">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
-    <row r="136" customHeight="1" spans="1:22">
+    <row r="136" hidden="1" customHeight="1" spans="1:25">
       <c r="A136" s="12">
         <v>132</v>
       </c>
@@ -21052,20 +21501,23 @@
       <c r="Q136" s="12"/>
       <c r="R136" s="12"/>
       <c r="S136" s="12"/>
-      <c r="T136" s="18">
+      <c r="T136" s="12"/>
+      <c r="U136" s="12"/>
+      <c r="V136" s="12"/>
+      <c r="W136" s="18">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="U136" s="18">
+      <c r="X136" s="18">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="V136" s="20">
+      <c r="Y136" s="20">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
-    <row r="137" customHeight="1" spans="1:22">
+    <row r="137" hidden="1" customHeight="1" spans="1:25">
       <c r="A137" s="12">
         <v>133</v>
       </c>
@@ -21098,20 +21550,23 @@
       <c r="Q137" s="12"/>
       <c r="R137" s="12"/>
       <c r="S137" s="12"/>
-      <c r="T137" s="18">
+      <c r="T137" s="12"/>
+      <c r="U137" s="12"/>
+      <c r="V137" s="12"/>
+      <c r="W137" s="18">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="U137" s="18">
+      <c r="X137" s="18">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="V137" s="20">
+      <c r="Y137" s="20">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
-    <row r="138" customHeight="1" spans="1:22">
+    <row r="138" hidden="1" customHeight="1" spans="1:25">
       <c r="A138" s="12">
         <v>134</v>
       </c>
@@ -21144,20 +21599,23 @@
       <c r="Q138" s="12"/>
       <c r="R138" s="12"/>
       <c r="S138" s="12"/>
-      <c r="T138" s="18">
+      <c r="T138" s="12"/>
+      <c r="U138" s="12"/>
+      <c r="V138" s="12"/>
+      <c r="W138" s="18">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="U138" s="18">
+      <c r="X138" s="18">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="V138" s="20">
+      <c r="Y138" s="20">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
-    <row r="139" customHeight="1" spans="1:22">
+    <row r="139" hidden="1" customHeight="1" spans="1:25">
       <c r="A139" s="12">
         <v>135</v>
       </c>
@@ -21190,20 +21648,23 @@
       <c r="Q139" s="12"/>
       <c r="R139" s="12"/>
       <c r="S139" s="12"/>
-      <c r="T139" s="18">
+      <c r="T139" s="12"/>
+      <c r="U139" s="12"/>
+      <c r="V139" s="12"/>
+      <c r="W139" s="18">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="U139" s="18">
+      <c r="X139" s="18">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="V139" s="20">
+      <c r="Y139" s="20">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
-    <row r="140" customHeight="1" spans="1:22">
+    <row r="140" hidden="1" customHeight="1" spans="1:25">
       <c r="A140" s="12">
         <v>136</v>
       </c>
@@ -21236,20 +21697,23 @@
       <c r="Q140" s="12"/>
       <c r="R140" s="12"/>
       <c r="S140" s="12"/>
-      <c r="T140" s="18">
+      <c r="T140" s="12"/>
+      <c r="U140" s="12"/>
+      <c r="V140" s="12"/>
+      <c r="W140" s="18">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="U140" s="18">
+      <c r="X140" s="18">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="V140" s="20">
+      <c r="Y140" s="20">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
-    <row r="141" customHeight="1" spans="1:22">
+    <row r="141" hidden="1" customHeight="1" spans="1:25">
       <c r="A141" s="12">
         <v>137</v>
       </c>
@@ -21282,20 +21746,23 @@
       <c r="Q141" s="12"/>
       <c r="R141" s="12"/>
       <c r="S141" s="12"/>
-      <c r="T141" s="18">
-        <f t="shared" ref="T141:T164" si="23">SUM(I141:S141)</f>
-        <v>0</v>
-      </c>
-      <c r="U141" s="18">
+      <c r="T141" s="12"/>
+      <c r="U141" s="12"/>
+      <c r="V141" s="12"/>
+      <c r="W141" s="18">
+        <f t="shared" ref="W141:W164" si="23">SUM(I141:V141)</f>
+        <v>0</v>
+      </c>
+      <c r="X141" s="18">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="V141" s="20">
-        <f t="shared" ref="V141:V164" si="24">IF(SUM(I141:S141)=C141,"完成",SUM(I141:S141))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" customHeight="1" spans="1:22">
+      <c r="Y141" s="20">
+        <f t="shared" ref="Y141:Y164" si="24">IF(SUM(I141:V141)=C141,"完成",SUM(I141:V141))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" hidden="1" customHeight="1" spans="1:25">
       <c r="A142" s="12">
         <v>138</v>
       </c>
@@ -21328,20 +21795,23 @@
       <c r="Q142" s="12"/>
       <c r="R142" s="12"/>
       <c r="S142" s="12"/>
-      <c r="T142" s="18">
+      <c r="T142" s="12"/>
+      <c r="U142" s="12"/>
+      <c r="V142" s="12"/>
+      <c r="W142" s="18">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="U142" s="18">
+      <c r="X142" s="18">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="V142" s="20">
+      <c r="Y142" s="20">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
-    <row r="143" customHeight="1" spans="1:22">
+    <row r="143" hidden="1" customHeight="1" spans="1:25">
       <c r="A143" s="12">
         <v>139</v>
       </c>
@@ -21374,20 +21844,23 @@
       <c r="Q143" s="12"/>
       <c r="R143" s="12"/>
       <c r="S143" s="12"/>
-      <c r="T143" s="18">
+      <c r="T143" s="12"/>
+      <c r="U143" s="12"/>
+      <c r="V143" s="12"/>
+      <c r="W143" s="18">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="U143" s="18">
+      <c r="X143" s="18">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="V143" s="20">
+      <c r="Y143" s="20">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
-    <row r="144" customHeight="1" spans="1:22">
+    <row r="144" hidden="1" customHeight="1" spans="1:25">
       <c r="A144" s="12">
         <v>140</v>
       </c>
@@ -21420,20 +21893,23 @@
       <c r="Q144" s="12"/>
       <c r="R144" s="12"/>
       <c r="S144" s="12"/>
-      <c r="T144" s="18">
+      <c r="T144" s="12"/>
+      <c r="U144" s="12"/>
+      <c r="V144" s="12"/>
+      <c r="W144" s="18">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="U144" s="18">
+      <c r="X144" s="18">
         <f t="shared" si="21"/>
         <v>6</v>
       </c>
-      <c r="V144" s="20">
+      <c r="Y144" s="20">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
-    <row r="145" customHeight="1" spans="1:22">
+    <row r="145" hidden="1" customHeight="1" spans="1:25">
       <c r="A145" s="12">
         <v>141</v>
       </c>
@@ -21466,20 +21942,23 @@
       <c r="Q145" s="12"/>
       <c r="R145" s="12"/>
       <c r="S145" s="12"/>
-      <c r="T145" s="18">
+      <c r="T145" s="12"/>
+      <c r="U145" s="12"/>
+      <c r="V145" s="12"/>
+      <c r="W145" s="18">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="U145" s="18">
+      <c r="X145" s="18">
         <f t="shared" si="21"/>
         <v>12</v>
       </c>
-      <c r="V145" s="20">
+      <c r="Y145" s="20">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
-    <row r="146" customHeight="1" spans="1:22">
+    <row r="146" hidden="1" customHeight="1" spans="1:25">
       <c r="A146" s="12">
         <v>142</v>
       </c>
@@ -21512,20 +21991,23 @@
       <c r="Q146" s="12"/>
       <c r="R146" s="12"/>
       <c r="S146" s="12"/>
-      <c r="T146" s="18">
+      <c r="T146" s="12"/>
+      <c r="U146" s="12"/>
+      <c r="V146" s="12"/>
+      <c r="W146" s="18">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="U146" s="18">
+      <c r="X146" s="18">
         <f t="shared" si="21"/>
         <v>6</v>
       </c>
-      <c r="V146" s="20">
+      <c r="Y146" s="20">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
-    <row r="147" customHeight="1" spans="1:22">
+    <row r="147" hidden="1" customHeight="1" spans="1:25">
       <c r="A147" s="12">
         <v>143</v>
       </c>
@@ -21558,20 +22040,23 @@
       <c r="Q147" s="12"/>
       <c r="R147" s="12"/>
       <c r="S147" s="12"/>
-      <c r="T147" s="18">
+      <c r="T147" s="12"/>
+      <c r="U147" s="12"/>
+      <c r="V147" s="12"/>
+      <c r="W147" s="18">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="U147" s="18">
+      <c r="X147" s="18">
         <f t="shared" si="21"/>
         <v>12</v>
       </c>
-      <c r="V147" s="20">
+      <c r="Y147" s="20">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
-    <row r="148" customHeight="1" spans="1:22">
+    <row r="148" hidden="1" customHeight="1" spans="1:25">
       <c r="A148" s="12">
         <v>144</v>
       </c>
@@ -21604,20 +22089,23 @@
       <c r="Q148" s="12"/>
       <c r="R148" s="12"/>
       <c r="S148" s="12"/>
-      <c r="T148" s="18">
+      <c r="T148" s="12"/>
+      <c r="U148" s="12"/>
+      <c r="V148" s="12"/>
+      <c r="W148" s="18">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="U148" s="18">
+      <c r="X148" s="18">
         <f t="shared" si="21"/>
         <v>2</v>
       </c>
-      <c r="V148" s="20">
+      <c r="Y148" s="20">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
-    <row r="149" customHeight="1" spans="1:22">
+    <row r="149" hidden="1" customHeight="1" spans="1:25">
       <c r="A149" s="12">
         <v>145</v>
       </c>
@@ -21650,20 +22138,23 @@
       <c r="Q149" s="12"/>
       <c r="R149" s="12"/>
       <c r="S149" s="12"/>
-      <c r="T149" s="18">
+      <c r="T149" s="12"/>
+      <c r="U149" s="12"/>
+      <c r="V149" s="12"/>
+      <c r="W149" s="18">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="U149" s="18">
+      <c r="X149" s="18">
         <f t="shared" si="21"/>
         <v>2</v>
       </c>
-      <c r="V149" s="20">
+      <c r="Y149" s="20">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
-    <row r="150" customHeight="1" spans="1:22">
+    <row r="150" hidden="1" customHeight="1" spans="1:25">
       <c r="A150" s="12">
         <v>146</v>
       </c>
@@ -21696,20 +22187,23 @@
       <c r="Q150" s="12"/>
       <c r="R150" s="12"/>
       <c r="S150" s="12"/>
-      <c r="T150" s="18">
+      <c r="T150" s="12"/>
+      <c r="U150" s="12"/>
+      <c r="V150" s="12"/>
+      <c r="W150" s="18">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="U150" s="18">
+      <c r="X150" s="18">
         <f t="shared" si="21"/>
         <v>2</v>
       </c>
-      <c r="V150" s="20">
+      <c r="Y150" s="20">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
-    <row r="151" customHeight="1" spans="1:22">
+    <row r="151" hidden="1" customHeight="1" spans="1:25">
       <c r="A151" s="12">
         <v>147</v>
       </c>
@@ -21742,20 +22236,23 @@
       <c r="Q151" s="12"/>
       <c r="R151" s="12"/>
       <c r="S151" s="12"/>
-      <c r="T151" s="18">
+      <c r="T151" s="12"/>
+      <c r="U151" s="12"/>
+      <c r="V151" s="12"/>
+      <c r="W151" s="18">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="U151" s="18">
+      <c r="X151" s="18">
         <f t="shared" si="21"/>
         <v>2</v>
       </c>
-      <c r="V151" s="20">
+      <c r="Y151" s="20">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
-    <row r="152" customHeight="1" spans="1:22">
+    <row r="152" hidden="1" customHeight="1" spans="1:25">
       <c r="A152" s="12">
         <v>148</v>
       </c>
@@ -21788,20 +22285,23 @@
       <c r="Q152" s="12"/>
       <c r="R152" s="12"/>
       <c r="S152" s="12"/>
-      <c r="T152" s="18">
+      <c r="T152" s="12"/>
+      <c r="U152" s="12"/>
+      <c r="V152" s="12"/>
+      <c r="W152" s="18">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="U152" s="18">
+      <c r="X152" s="18">
         <f t="shared" si="21"/>
         <v>2</v>
       </c>
-      <c r="V152" s="20">
+      <c r="Y152" s="20">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
-    <row r="153" customHeight="1" spans="1:22">
+    <row r="153" hidden="1" customHeight="1" spans="1:25">
       <c r="A153" s="12">
         <v>149</v>
       </c>
@@ -21834,20 +22334,23 @@
       <c r="Q153" s="12"/>
       <c r="R153" s="12"/>
       <c r="S153" s="12"/>
-      <c r="T153" s="18">
+      <c r="T153" s="12"/>
+      <c r="U153" s="12"/>
+      <c r="V153" s="12"/>
+      <c r="W153" s="18">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="U153" s="18">
+      <c r="X153" s="18">
         <f t="shared" si="21"/>
         <v>2</v>
       </c>
-      <c r="V153" s="20">
+      <c r="Y153" s="20">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
-    <row r="154" customHeight="1" spans="1:22">
+    <row r="154" hidden="1" customHeight="1" spans="1:25">
       <c r="A154" s="12">
         <v>150</v>
       </c>
@@ -21880,20 +22383,23 @@
       <c r="Q154" s="12"/>
       <c r="R154" s="12"/>
       <c r="S154" s="12"/>
-      <c r="T154" s="18">
+      <c r="T154" s="12"/>
+      <c r="U154" s="12"/>
+      <c r="V154" s="12"/>
+      <c r="W154" s="18">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="U154" s="18">
+      <c r="X154" s="18">
         <f t="shared" si="21"/>
         <v>8</v>
       </c>
-      <c r="V154" s="20">
+      <c r="Y154" s="20">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
-    <row r="155" customHeight="1" spans="1:22">
+    <row r="155" hidden="1" customHeight="1" spans="1:25">
       <c r="A155" s="12">
         <v>151</v>
       </c>
@@ -21926,20 +22432,23 @@
       <c r="Q155" s="12"/>
       <c r="R155" s="12"/>
       <c r="S155" s="12"/>
-      <c r="T155" s="18">
+      <c r="T155" s="12"/>
+      <c r="U155" s="12"/>
+      <c r="V155" s="12"/>
+      <c r="W155" s="18">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="U155" s="18">
+      <c r="X155" s="18">
         <f t="shared" si="21"/>
         <v>8</v>
       </c>
-      <c r="V155" s="20">
+      <c r="Y155" s="20">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
-    <row r="156" customHeight="1" spans="1:22">
+    <row r="156" hidden="1" customHeight="1" spans="1:25">
       <c r="A156" s="12">
         <v>152</v>
       </c>
@@ -21972,20 +22481,23 @@
       <c r="Q156" s="12"/>
       <c r="R156" s="12"/>
       <c r="S156" s="12"/>
-      <c r="T156" s="18">
+      <c r="T156" s="12"/>
+      <c r="U156" s="12"/>
+      <c r="V156" s="12"/>
+      <c r="W156" s="18">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="U156" s="18">
+      <c r="X156" s="18">
         <f t="shared" si="21"/>
         <v>8</v>
       </c>
-      <c r="V156" s="20">
+      <c r="Y156" s="20">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
-    <row r="157" customHeight="1" spans="1:22">
+    <row r="157" hidden="1" customHeight="1" spans="1:25">
       <c r="A157" s="12">
         <v>153</v>
       </c>
@@ -22018,20 +22530,23 @@
       <c r="Q157" s="12"/>
       <c r="R157" s="12"/>
       <c r="S157" s="12"/>
-      <c r="T157" s="18">
+      <c r="T157" s="12"/>
+      <c r="U157" s="12"/>
+      <c r="V157" s="12"/>
+      <c r="W157" s="18">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="U157" s="18">
+      <c r="X157" s="18">
         <f t="shared" si="21"/>
         <v>180</v>
       </c>
-      <c r="V157" s="20">
+      <c r="Y157" s="20">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
-    <row r="158" customHeight="1" spans="1:22">
+    <row r="158" hidden="1" customHeight="1" spans="1:25">
       <c r="A158" s="12">
         <v>154</v>
       </c>
@@ -22064,20 +22579,23 @@
       <c r="Q158" s="12"/>
       <c r="R158" s="12"/>
       <c r="S158" s="12"/>
-      <c r="T158" s="18">
+      <c r="T158" s="12"/>
+      <c r="U158" s="12"/>
+      <c r="V158" s="12"/>
+      <c r="W158" s="18">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="U158" s="18">
+      <c r="X158" s="18">
         <f t="shared" si="21"/>
         <v>36</v>
       </c>
-      <c r="V158" s="20">
+      <c r="Y158" s="20">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
-    <row r="159" customHeight="1" spans="1:22">
+    <row r="159" hidden="1" customHeight="1" spans="1:25">
       <c r="A159" s="12">
         <v>155</v>
       </c>
@@ -22110,20 +22628,23 @@
       <c r="Q159" s="12"/>
       <c r="R159" s="12"/>
       <c r="S159" s="12"/>
-      <c r="T159" s="18">
+      <c r="T159" s="12"/>
+      <c r="U159" s="12"/>
+      <c r="V159" s="12"/>
+      <c r="W159" s="18">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="U159" s="18">
+      <c r="X159" s="18">
         <f t="shared" si="21"/>
         <v>36</v>
       </c>
-      <c r="V159" s="20">
+      <c r="Y159" s="20">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
-    <row r="160" customHeight="1" spans="1:22">
+    <row r="160" hidden="1" customHeight="1" spans="1:25">
       <c r="A160" s="12">
         <v>156</v>
       </c>
@@ -22156,20 +22677,23 @@
       <c r="Q160" s="12"/>
       <c r="R160" s="12"/>
       <c r="S160" s="12"/>
-      <c r="T160" s="18">
+      <c r="T160" s="12"/>
+      <c r="U160" s="12"/>
+      <c r="V160" s="12"/>
+      <c r="W160" s="18">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="U160" s="18">
+      <c r="X160" s="18">
         <f t="shared" si="21"/>
         <v>36</v>
       </c>
-      <c r="V160" s="20">
+      <c r="Y160" s="20">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
-    <row r="161" customHeight="1" spans="1:22">
+    <row r="161" hidden="1" customHeight="1" spans="1:25">
       <c r="A161" s="12">
         <v>157</v>
       </c>
@@ -22202,20 +22726,23 @@
       <c r="Q161" s="12"/>
       <c r="R161" s="12"/>
       <c r="S161" s="12"/>
-      <c r="T161" s="18">
+      <c r="T161" s="12"/>
+      <c r="U161" s="12"/>
+      <c r="V161" s="12"/>
+      <c r="W161" s="18">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="U161" s="18">
+      <c r="X161" s="18">
         <f t="shared" si="21"/>
         <v>36</v>
       </c>
-      <c r="V161" s="20">
+      <c r="Y161" s="20">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
-    <row r="162" customHeight="1" spans="1:22">
+    <row r="162" hidden="1" customHeight="1" spans="1:25">
       <c r="A162" s="12">
         <v>158</v>
       </c>
@@ -22248,20 +22775,23 @@
       <c r="Q162" s="12"/>
       <c r="R162" s="12"/>
       <c r="S162" s="12"/>
-      <c r="T162" s="18">
+      <c r="T162" s="12"/>
+      <c r="U162" s="12"/>
+      <c r="V162" s="12"/>
+      <c r="W162" s="18">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="U162" s="18">
+      <c r="X162" s="18">
         <f t="shared" si="21"/>
         <v>28</v>
       </c>
-      <c r="V162" s="20">
+      <c r="Y162" s="20">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
-    <row r="163" customHeight="1" spans="1:22">
+    <row r="163" hidden="1" customHeight="1" spans="1:25">
       <c r="A163" s="12">
         <v>159</v>
       </c>
@@ -22294,20 +22824,23 @@
       <c r="Q163" s="12"/>
       <c r="R163" s="12"/>
       <c r="S163" s="12"/>
-      <c r="T163" s="18">
+      <c r="T163" s="12"/>
+      <c r="U163" s="12"/>
+      <c r="V163" s="12"/>
+      <c r="W163" s="18">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="U163" s="18">
+      <c r="X163" s="18">
         <f t="shared" si="21"/>
         <v>28</v>
       </c>
-      <c r="V163" s="20">
+      <c r="Y163" s="20">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
-    <row r="164" customHeight="1" spans="1:22">
+    <row r="164" hidden="1" customHeight="1" spans="1:25">
       <c r="A164" s="12">
         <v>160</v>
       </c>
@@ -22340,30 +22873,44 @@
       <c r="Q164" s="12"/>
       <c r="R164" s="12"/>
       <c r="S164" s="12"/>
-      <c r="T164" s="18">
+      <c r="T164" s="12"/>
+      <c r="U164" s="12"/>
+      <c r="V164" s="12"/>
+      <c r="W164" s="18">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="U164" s="18">
+      <c r="X164" s="18">
         <f t="shared" si="21"/>
         <v>28</v>
       </c>
-      <c r="V164" s="20">
+      <c r="Y164" s="20">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:W164">
-    <sortState ref="A4:W164">
+  <autoFilter ref="A4:Z164">
+    <filterColumn colId="19">
+      <filters>
+        <filter val="10"/>
+        <filter val="1"/>
+        <filter val="2"/>
+        <filter val="4"/>
+        <filter val="25"/>
+        <filter val="6"/>
+        <filter val="9"/>
+      </filters>
+    </filterColumn>
+    <sortState ref="A4:Z164">
       <sortCondition ref="I4:I75"/>
     </sortState>
     <extLst/>
   </autoFilter>
   <mergeCells count="12">
-    <mergeCell ref="B1:V1"/>
+    <mergeCell ref="B1:Y1"/>
     <mergeCell ref="A2:D2"/>
-    <mergeCell ref="I3:U3"/>
+    <mergeCell ref="I3:X3"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
@@ -22372,7 +22919,7 @@
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="H3:H4"/>
-    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="Y3:Y4"/>
   </mergeCells>
   <pageMargins left="0.39" right="0.27" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="600" verticalDpi="600"/>

--- a/拼装统计.xlsx
+++ b/拼装统计.xlsx
@@ -1278,13 +1278,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="9">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="178" formatCode="0.000_);[Red]\(0.000\)"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="178" formatCode="0.000_);[Red]\(0.000\)"/>
     <numFmt numFmtId="179" formatCode="0.0_);[Red]\(0.0\)"/>
     <numFmt numFmtId="180" formatCode="0.00_ "/>
   </numFmts>
@@ -1337,7 +1337,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1345,22 +1345,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1381,6 +1366,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -1396,16 +1397,37 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1419,17 +1441,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1443,40 +1472,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1507,25 +1507,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1537,85 +1537,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1633,13 +1555,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1657,19 +1627,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1681,7 +1669,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1751,20 +1751,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1784,17 +1788,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1814,26 +1812,28 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1841,8 +1841,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1854,10 +1854,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1866,19 +1866,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1890,112 +1890,112 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2057,16 +2057,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -11838,7 +11838,7 @@
   <dimension ref="A1:R72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="8" ySplit="4" topLeftCell="I37" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="4" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -14747,7 +14747,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Q114" sqref="Q114"/>
+      <selection pane="bottomRight" activeCell="X37" sqref="X37:X88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>
@@ -14914,7 +14914,9 @@
       <c r="T4" s="27">
         <v>1.27</v>
       </c>
-      <c r="U4" s="27"/>
+      <c r="U4" s="27">
+        <v>1.28</v>
+      </c>
       <c r="V4" s="27"/>
       <c r="W4" s="16" t="s">
         <v>12</v>
@@ -15570,19 +15572,21 @@
       <c r="R17" s="12"/>
       <c r="S17" s="12"/>
       <c r="T17" s="12"/>
-      <c r="U17" s="12"/>
+      <c r="U17" s="12">
+        <v>3</v>
+      </c>
       <c r="V17" s="12"/>
       <c r="W17" s="18">
         <f t="shared" ref="W17:W22" si="4">SUM(I17:V17)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X17" s="18">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="Y17" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="20" t="str">
         <f t="shared" ref="Y17:Y22" si="5">IF(SUM(I17:V17)=C17,"完成",SUM(I17:V17))</f>
-        <v>0</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="18" hidden="1" customHeight="1" spans="1:25">
@@ -15619,19 +15623,21 @@
       <c r="R18" s="12"/>
       <c r="S18" s="12"/>
       <c r="T18" s="12"/>
-      <c r="U18" s="12"/>
+      <c r="U18" s="12">
+        <v>1</v>
+      </c>
       <c r="V18" s="12"/>
       <c r="W18" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X18" s="18">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="Y18" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="20" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="19" hidden="1" customHeight="1" spans="1:25">
@@ -16604,7 +16610,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" hidden="1" customHeight="1" spans="1:25">
+    <row r="38" customHeight="1" spans="1:25">
       <c r="A38" s="12">
         <v>34</v>
       </c>
@@ -16653,7 +16659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" hidden="1" customHeight="1" spans="1:25">
+    <row r="39" customHeight="1" spans="1:25">
       <c r="A39" s="12">
         <v>35</v>
       </c>
@@ -16702,7 +16708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" hidden="1" customHeight="1" spans="1:25">
+    <row r="40" customHeight="1" spans="1:25">
       <c r="A40" s="12">
         <v>36</v>
       </c>
@@ -16751,7 +16757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" hidden="1" customHeight="1" spans="1:25">
+    <row r="41" customHeight="1" spans="1:25">
       <c r="A41" s="12">
         <v>37</v>
       </c>
@@ -16800,7 +16806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" hidden="1" customHeight="1" spans="1:25">
+    <row r="42" customHeight="1" spans="1:25">
       <c r="A42" s="12">
         <v>38</v>
       </c>
@@ -16849,7 +16855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" hidden="1" customHeight="1" spans="1:25">
+    <row r="43" customHeight="1" spans="1:25">
       <c r="A43" s="12">
         <v>39</v>
       </c>
@@ -17102,7 +17108,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="48" hidden="1" customHeight="1" spans="1:25">
+    <row r="48" customHeight="1" spans="1:25">
       <c r="A48" s="12">
         <v>44</v>
       </c>
@@ -17151,7 +17157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" hidden="1" customHeight="1" spans="1:25">
+    <row r="49" customHeight="1" spans="1:25">
       <c r="A49" s="12">
         <v>45</v>
       </c>
@@ -17234,19 +17240,21 @@
       <c r="R50" s="12"/>
       <c r="S50" s="12"/>
       <c r="T50" s="12"/>
-      <c r="U50" s="12"/>
+      <c r="U50" s="12">
+        <v>1</v>
+      </c>
       <c r="V50" s="12"/>
       <c r="W50" s="18">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X50" s="18">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="Y50" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="20" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="51" hidden="1" customHeight="1" spans="1:25">
@@ -17283,19 +17291,21 @@
       <c r="R51" s="12"/>
       <c r="S51" s="12"/>
       <c r="T51" s="12"/>
-      <c r="U51" s="12"/>
+      <c r="U51" s="12">
+        <v>1</v>
+      </c>
       <c r="V51" s="12"/>
       <c r="W51" s="18">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X51" s="18">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="Y51" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="20" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="52" hidden="1" customHeight="1" spans="1:25">
@@ -17332,19 +17342,21 @@
       <c r="R52" s="12"/>
       <c r="S52" s="12"/>
       <c r="T52" s="12"/>
-      <c r="U52" s="12"/>
+      <c r="U52" s="12">
+        <v>1</v>
+      </c>
       <c r="V52" s="12"/>
       <c r="W52" s="18">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X52" s="18">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="Y52" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="20" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="53" hidden="1" customHeight="1" spans="1:25">
@@ -17381,22 +17393,24 @@
       <c r="R53" s="12"/>
       <c r="S53" s="12"/>
       <c r="T53" s="12"/>
-      <c r="U53" s="12"/>
+      <c r="U53" s="12">
+        <v>1</v>
+      </c>
       <c r="V53" s="12"/>
       <c r="W53" s="18">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X53" s="18">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="Y53" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="20" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" hidden="1" customHeight="1" spans="1:25">
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="54" customHeight="1" spans="1:25">
       <c r="A54" s="12">
         <v>50</v>
       </c>
@@ -17445,7 +17459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" hidden="1" customHeight="1" spans="1:25">
+    <row r="55" customHeight="1" spans="1:25">
       <c r="A55" s="12">
         <v>51</v>
       </c>
@@ -17493,7 +17507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" hidden="1" customHeight="1" spans="1:25">
+    <row r="56" customHeight="1" spans="1:25">
       <c r="A56" s="12">
         <v>52</v>
       </c>
@@ -17541,7 +17555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" hidden="1" customHeight="1" spans="1:25">
+    <row r="57" customHeight="1" spans="1:25">
       <c r="A57" s="12">
         <v>53</v>
       </c>
@@ -17590,7 +17604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" hidden="1" customHeight="1" spans="1:25">
+    <row r="58" customHeight="1" spans="1:25">
       <c r="A58" s="12">
         <v>54</v>
       </c>
@@ -17894,7 +17908,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="64" hidden="1" customHeight="1" spans="1:25">
+    <row r="64" customHeight="1" spans="1:25">
       <c r="A64" s="12">
         <v>60</v>
       </c>
@@ -17977,19 +17991,21 @@
       <c r="R65" s="12"/>
       <c r="S65" s="12"/>
       <c r="T65" s="12"/>
-      <c r="U65" s="12"/>
+      <c r="U65" s="12">
+        <v>1</v>
+      </c>
       <c r="V65" s="12"/>
       <c r="W65" s="18">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X65" s="18">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="Y65" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="20" t="str">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="66" hidden="1" customHeight="1" spans="1:25">
@@ -18026,22 +18042,24 @@
       <c r="R66" s="12"/>
       <c r="S66" s="12"/>
       <c r="T66" s="12"/>
-      <c r="U66" s="12"/>
+      <c r="U66" s="12">
+        <v>1</v>
+      </c>
       <c r="V66" s="12"/>
       <c r="W66" s="18">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X66" s="18">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="Y66" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y66" s="20" t="str">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" hidden="1" customHeight="1" spans="1:25">
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="67" customHeight="1" spans="1:25">
       <c r="A67" s="12">
         <v>63</v>
       </c>
@@ -18090,7 +18108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" hidden="1" customHeight="1" spans="1:25">
+    <row r="68" customHeight="1" spans="1:25">
       <c r="A68" s="12">
         <v>64</v>
       </c>
@@ -18139,7 +18157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" hidden="1" customHeight="1" spans="1:25">
+    <row r="69" customHeight="1" spans="1:25">
       <c r="A69" s="12">
         <v>65</v>
       </c>
@@ -18188,7 +18206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" hidden="1" customHeight="1" spans="1:25">
+    <row r="70" customHeight="1" spans="1:25">
       <c r="A70" s="12">
         <v>66</v>
       </c>
@@ -18237,7 +18255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" hidden="1" customHeight="1" spans="1:25">
+    <row r="71" customHeight="1" spans="1:25">
       <c r="A71" s="12">
         <v>67</v>
       </c>
@@ -18286,7 +18304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" hidden="1" customHeight="1" spans="1:25">
+    <row r="72" customHeight="1" spans="1:25">
       <c r="A72" s="12">
         <v>68</v>
       </c>
@@ -18335,7 +18353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" hidden="1" customHeight="1" spans="1:25">
+    <row r="73" customHeight="1" spans="1:25">
       <c r="A73" s="12">
         <v>69</v>
       </c>
@@ -18537,7 +18555,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="77" hidden="1" customHeight="1" spans="1:25">
+    <row r="77" customHeight="1" spans="1:25">
       <c r="A77" s="12">
         <v>73</v>
       </c>
@@ -18586,7 +18604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" hidden="1" customHeight="1" spans="1:25">
+    <row r="78" customHeight="1" spans="1:25">
       <c r="A78" s="12">
         <v>74</v>
       </c>
@@ -18635,7 +18653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" hidden="1" customHeight="1" spans="1:25">
+    <row r="79" customHeight="1" spans="1:25">
       <c r="A79" s="12">
         <v>75</v>
       </c>
@@ -18684,7 +18702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" hidden="1" customHeight="1" spans="1:25">
+    <row r="80" customHeight="1" spans="1:25">
       <c r="A80" s="12">
         <v>76</v>
       </c>
@@ -18733,7 +18751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" hidden="1" customHeight="1" spans="1:25">
+    <row r="81" customHeight="1" spans="1:25">
       <c r="A81" s="12">
         <v>77</v>
       </c>
@@ -18782,7 +18800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" hidden="1" customHeight="1" spans="1:25">
+    <row r="82" customHeight="1" spans="1:25">
       <c r="A82" s="12">
         <v>78</v>
       </c>
@@ -18831,7 +18849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" hidden="1" customHeight="1" spans="1:25">
+    <row r="83" customHeight="1" spans="1:25">
       <c r="A83" s="12">
         <v>79</v>
       </c>
@@ -18880,7 +18898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" hidden="1" customHeight="1" spans="1:25">
+    <row r="84" customHeight="1" spans="1:25">
       <c r="A84" s="12">
         <v>80</v>
       </c>
@@ -18929,7 +18947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" hidden="1" customHeight="1" spans="1:25">
+    <row r="85" customHeight="1" spans="1:25">
       <c r="A85" s="12">
         <v>81</v>
       </c>
@@ -18978,7 +18996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" hidden="1" customHeight="1" spans="1:25">
+    <row r="86" customHeight="1" spans="1:25">
       <c r="A86" s="12">
         <v>82</v>
       </c>
@@ -19027,7 +19045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" hidden="1" customHeight="1" spans="1:25">
+    <row r="87" customHeight="1" spans="1:25">
       <c r="A87" s="12">
         <v>83</v>
       </c>
@@ -19076,7 +19094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" hidden="1" customHeight="1" spans="1:25">
+    <row r="88" customHeight="1" spans="1:25">
       <c r="A88" s="12">
         <v>84</v>
       </c>
@@ -19125,7 +19143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" hidden="1" customHeight="1" spans="1:25">
+    <row r="89" customHeight="1" spans="1:25">
       <c r="A89" s="12">
         <v>85</v>
       </c>
@@ -19225,7 +19243,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="91" hidden="1" customHeight="1" spans="1:25">
+    <row r="91" customHeight="1" spans="1:25">
       <c r="A91" s="12">
         <v>87</v>
       </c>
@@ -19276,7 +19294,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" customHeight="1" spans="1:25">
+    <row r="92" hidden="1" customHeight="1" spans="1:25">
       <c r="A92" s="12">
         <v>88</v>
       </c>
@@ -19327,7 +19345,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="93" customHeight="1" spans="1:25">
+    <row r="93" hidden="1" customHeight="1" spans="1:25">
       <c r="A93" s="12">
         <v>89</v>
       </c>
@@ -19380,7 +19398,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="94" customHeight="1" spans="1:25">
+    <row r="94" hidden="1" customHeight="1" spans="1:25">
       <c r="A94" s="12">
         <v>90</v>
       </c>
@@ -19431,7 +19449,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="95" customHeight="1" spans="1:25">
+    <row r="95" hidden="1" customHeight="1" spans="1:25">
       <c r="A95" s="12">
         <v>91</v>
       </c>
@@ -19482,7 +19500,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="96" customHeight="1" spans="1:25">
+    <row r="96" hidden="1" customHeight="1" spans="1:25">
       <c r="A96" s="12">
         <v>92</v>
       </c>
@@ -19533,7 +19551,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="97" customHeight="1" spans="1:25">
+    <row r="97" hidden="1" customHeight="1" spans="1:25">
       <c r="A97" s="12">
         <v>93</v>
       </c>
@@ -19584,7 +19602,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="98" customHeight="1" spans="1:25">
+    <row r="98" hidden="1" customHeight="1" spans="1:25">
       <c r="A98" s="12">
         <v>94</v>
       </c>
@@ -19635,7 +19653,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="99" hidden="1" customHeight="1" spans="1:25">
+    <row r="99" customHeight="1" spans="1:25">
       <c r="A99" s="12">
         <v>95</v>
       </c>
@@ -19684,7 +19702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" hidden="1" customHeight="1" spans="1:25">
+    <row r="100" customHeight="1" spans="1:25">
       <c r="A100" s="12">
         <v>96</v>
       </c>
@@ -19733,7 +19751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" hidden="1" customHeight="1" spans="1:25">
+    <row r="101" customHeight="1" spans="1:25">
       <c r="A101" s="12">
         <v>97</v>
       </c>
@@ -19782,7 +19800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" hidden="1" customHeight="1" spans="1:25">
+    <row r="102" customHeight="1" spans="1:25">
       <c r="A102" s="12">
         <v>98</v>
       </c>
@@ -19831,7 +19849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" hidden="1" customHeight="1" spans="1:25">
+    <row r="103" customHeight="1" spans="1:25">
       <c r="A103" s="12">
         <v>99</v>
       </c>
@@ -19880,7 +19898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" hidden="1" customHeight="1" spans="1:25">
+    <row r="104" customHeight="1" spans="1:25">
       <c r="A104" s="12">
         <v>100</v>
       </c>
@@ -19929,7 +19947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" hidden="1" customHeight="1" spans="1:25">
+    <row r="105" customHeight="1" spans="1:25">
       <c r="A105" s="12">
         <v>101</v>
       </c>
@@ -19978,7 +19996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" hidden="1" customHeight="1" spans="1:25">
+    <row r="106" customHeight="1" spans="1:25">
       <c r="A106" s="12">
         <v>102</v>
       </c>
@@ -20027,7 +20045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" hidden="1" customHeight="1" spans="1:25">
+    <row r="107" customHeight="1" spans="1:25">
       <c r="A107" s="12">
         <v>103</v>
       </c>
@@ -20076,7 +20094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" hidden="1" customHeight="1" spans="1:25">
+    <row r="108" customHeight="1" spans="1:25">
       <c r="A108" s="12">
         <v>104</v>
       </c>
@@ -20125,7 +20143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" hidden="1" customHeight="1" spans="1:25">
+    <row r="109" customHeight="1" spans="1:25">
       <c r="A109" s="12">
         <v>105</v>
       </c>
@@ -20225,7 +20243,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="111" customHeight="1" spans="1:25">
+    <row r="111" hidden="1" customHeight="1" spans="1:25">
       <c r="A111" s="12">
         <v>107</v>
       </c>
@@ -20276,7 +20294,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="112" hidden="1" customHeight="1" spans="1:25">
+    <row r="112" customHeight="1" spans="1:25">
       <c r="A112" s="12">
         <v>108</v>
       </c>
@@ -20325,7 +20343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" customHeight="1" spans="1:25">
+    <row r="113" hidden="1" customHeight="1" spans="1:25">
       <c r="A113" s="12">
         <v>109</v>
       </c>
@@ -20376,7 +20394,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="114" customHeight="1" spans="1:25">
+    <row r="114" hidden="1" customHeight="1" spans="1:25">
       <c r="A114" s="12">
         <v>110</v>
       </c>
@@ -20427,7 +20445,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="115" customHeight="1" spans="1:25">
+    <row r="115" hidden="1" customHeight="1" spans="1:25">
       <c r="A115" s="12">
         <v>111</v>
       </c>
@@ -20478,7 +20496,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="116" customHeight="1" spans="1:25">
+    <row r="116" hidden="1" customHeight="1" spans="1:25">
       <c r="A116" s="12">
         <v>112</v>
       </c>
@@ -20529,7 +20547,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="117" hidden="1" customHeight="1" spans="1:25">
+    <row r="117" customHeight="1" spans="1:25">
       <c r="A117" s="12">
         <v>113</v>
       </c>
@@ -20578,7 +20596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" hidden="1" customHeight="1" spans="1:25">
+    <row r="118" customHeight="1" spans="1:25">
       <c r="A118" s="12">
         <v>114</v>
       </c>
@@ -20678,7 +20696,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="120" customHeight="1" spans="1:25">
+    <row r="120" hidden="1" customHeight="1" spans="1:25">
       <c r="A120" s="12">
         <v>116</v>
       </c>
@@ -20729,7 +20747,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="121" hidden="1" customHeight="1" spans="1:25">
+    <row r="121" customHeight="1" spans="1:25">
       <c r="A121" s="12">
         <v>117</v>
       </c>
@@ -20778,7 +20796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" customHeight="1" spans="1:25">
+    <row r="122" hidden="1" customHeight="1" spans="1:25">
       <c r="A122" s="12">
         <v>118</v>
       </c>
@@ -20829,7 +20847,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="123" hidden="1" customHeight="1" spans="1:25">
+    <row r="123" customHeight="1" spans="1:25">
       <c r="A123" s="12">
         <v>119</v>
       </c>
@@ -20878,7 +20896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" customHeight="1" spans="1:25">
+    <row r="124" hidden="1" customHeight="1" spans="1:25">
       <c r="A124" s="12">
         <v>120</v>
       </c>
@@ -20929,7 +20947,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="125" hidden="1" customHeight="1" spans="1:25">
+    <row r="125" customHeight="1" spans="1:25">
       <c r="A125" s="12">
         <v>121</v>
       </c>
@@ -20978,7 +20996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" hidden="1" customHeight="1" spans="1:25">
+    <row r="126" customHeight="1" spans="1:25">
       <c r="A126" s="12">
         <v>122</v>
       </c>
@@ -21027,7 +21045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" hidden="1" customHeight="1" spans="1:25">
+    <row r="127" customHeight="1" spans="1:25">
       <c r="A127" s="12">
         <v>123</v>
       </c>
@@ -21076,7 +21094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" hidden="1" customHeight="1" spans="1:25">
+    <row r="128" customHeight="1" spans="1:25">
       <c r="A128" s="12">
         <v>124</v>
       </c>
@@ -21125,7 +21143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" hidden="1" customHeight="1" spans="1:25">
+    <row r="129" customHeight="1" spans="1:25">
       <c r="A129" s="12">
         <v>125</v>
       </c>
@@ -21174,7 +21192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" hidden="1" customHeight="1" spans="1:25">
+    <row r="130" customHeight="1" spans="1:25">
       <c r="A130" s="12">
         <v>126</v>
       </c>
@@ -21223,7 +21241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" hidden="1" customHeight="1" spans="1:25">
+    <row r="131" customHeight="1" spans="1:25">
       <c r="A131" s="12">
         <v>127</v>
       </c>
@@ -21272,7 +21290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" hidden="1" customHeight="1" spans="1:25">
+    <row r="132" customHeight="1" spans="1:25">
       <c r="A132" s="12">
         <v>128</v>
       </c>
@@ -21321,7 +21339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" hidden="1" customHeight="1" spans="1:25">
+    <row r="133" customHeight="1" spans="1:25">
       <c r="A133" s="12">
         <v>129</v>
       </c>
@@ -21370,7 +21388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" hidden="1" customHeight="1" spans="1:25">
+    <row r="134" customHeight="1" spans="1:25">
       <c r="A134" s="12">
         <v>130</v>
       </c>
@@ -21419,7 +21437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" hidden="1" customHeight="1" spans="1:25">
+    <row r="135" customHeight="1" spans="1:25">
       <c r="A135" s="12">
         <v>131</v>
       </c>
@@ -21468,7 +21486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" hidden="1" customHeight="1" spans="1:25">
+    <row r="136" customHeight="1" spans="1:25">
       <c r="A136" s="12">
         <v>132</v>
       </c>
@@ -21517,7 +21535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" hidden="1" customHeight="1" spans="1:25">
+    <row r="137" customHeight="1" spans="1:25">
       <c r="A137" s="12">
         <v>133</v>
       </c>
@@ -21566,7 +21584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" hidden="1" customHeight="1" spans="1:25">
+    <row r="138" customHeight="1" spans="1:25">
       <c r="A138" s="12">
         <v>134</v>
       </c>
@@ -21615,7 +21633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" hidden="1" customHeight="1" spans="1:25">
+    <row r="139" customHeight="1" spans="1:25">
       <c r="A139" s="12">
         <v>135</v>
       </c>
@@ -21664,7 +21682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" hidden="1" customHeight="1" spans="1:25">
+    <row r="140" customHeight="1" spans="1:25">
       <c r="A140" s="12">
         <v>136</v>
       </c>
@@ -21713,7 +21731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" hidden="1" customHeight="1" spans="1:25">
+    <row r="141" customHeight="1" spans="1:25">
       <c r="A141" s="12">
         <v>137</v>
       </c>
@@ -21762,7 +21780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" hidden="1" customHeight="1" spans="1:25">
+    <row r="142" customHeight="1" spans="1:25">
       <c r="A142" s="12">
         <v>138</v>
       </c>
@@ -21811,7 +21829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" hidden="1" customHeight="1" spans="1:25">
+    <row r="143" customHeight="1" spans="1:25">
       <c r="A143" s="12">
         <v>139</v>
       </c>
@@ -21860,7 +21878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" hidden="1" customHeight="1" spans="1:25">
+    <row r="144" customHeight="1" spans="1:25">
       <c r="A144" s="12">
         <v>140</v>
       </c>
@@ -21909,7 +21927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" hidden="1" customHeight="1" spans="1:25">
+    <row r="145" customHeight="1" spans="1:25">
       <c r="A145" s="12">
         <v>141</v>
       </c>
@@ -21958,7 +21976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" hidden="1" customHeight="1" spans="1:25">
+    <row r="146" customHeight="1" spans="1:25">
       <c r="A146" s="12">
         <v>142</v>
       </c>
@@ -22007,7 +22025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" hidden="1" customHeight="1" spans="1:25">
+    <row r="147" customHeight="1" spans="1:25">
       <c r="A147" s="12">
         <v>143</v>
       </c>
@@ -22056,7 +22074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" hidden="1" customHeight="1" spans="1:25">
+    <row r="148" customHeight="1" spans="1:25">
       <c r="A148" s="12">
         <v>144</v>
       </c>
@@ -22105,7 +22123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" hidden="1" customHeight="1" spans="1:25">
+    <row r="149" customHeight="1" spans="1:25">
       <c r="A149" s="12">
         <v>145</v>
       </c>
@@ -22154,7 +22172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" hidden="1" customHeight="1" spans="1:25">
+    <row r="150" customHeight="1" spans="1:25">
       <c r="A150" s="12">
         <v>146</v>
       </c>
@@ -22203,7 +22221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" hidden="1" customHeight="1" spans="1:25">
+    <row r="151" customHeight="1" spans="1:25">
       <c r="A151" s="12">
         <v>147</v>
       </c>
@@ -22252,7 +22270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" hidden="1" customHeight="1" spans="1:25">
+    <row r="152" customHeight="1" spans="1:25">
       <c r="A152" s="12">
         <v>148</v>
       </c>
@@ -22301,7 +22319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" hidden="1" customHeight="1" spans="1:25">
+    <row r="153" customHeight="1" spans="1:25">
       <c r="A153" s="12">
         <v>149</v>
       </c>
@@ -22350,7 +22368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" hidden="1" customHeight="1" spans="1:25">
+    <row r="154" customHeight="1" spans="1:25">
       <c r="A154" s="12">
         <v>150</v>
       </c>
@@ -22399,7 +22417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" hidden="1" customHeight="1" spans="1:25">
+    <row r="155" customHeight="1" spans="1:25">
       <c r="A155" s="12">
         <v>151</v>
       </c>
@@ -22448,7 +22466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" hidden="1" customHeight="1" spans="1:25">
+    <row r="156" customHeight="1" spans="1:25">
       <c r="A156" s="12">
         <v>152</v>
       </c>
@@ -22497,7 +22515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" hidden="1" customHeight="1" spans="1:25">
+    <row r="157" customHeight="1" spans="1:25">
       <c r="A157" s="12">
         <v>153</v>
       </c>
@@ -22546,7 +22564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" hidden="1" customHeight="1" spans="1:25">
+    <row r="158" customHeight="1" spans="1:25">
       <c r="A158" s="12">
         <v>154</v>
       </c>
@@ -22595,7 +22613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" hidden="1" customHeight="1" spans="1:25">
+    <row r="159" customHeight="1" spans="1:25">
       <c r="A159" s="12">
         <v>155</v>
       </c>
@@ -22644,7 +22662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" hidden="1" customHeight="1" spans="1:25">
+    <row r="160" customHeight="1" spans="1:25">
       <c r="A160" s="12">
         <v>156</v>
       </c>
@@ -22693,7 +22711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" hidden="1" customHeight="1" spans="1:25">
+    <row r="161" customHeight="1" spans="1:25">
       <c r="A161" s="12">
         <v>157</v>
       </c>
@@ -22742,7 +22760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" hidden="1" customHeight="1" spans="1:25">
+    <row r="162" customHeight="1" spans="1:25">
       <c r="A162" s="12">
         <v>158</v>
       </c>
@@ -22791,7 +22809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" hidden="1" customHeight="1" spans="1:25">
+    <row r="163" customHeight="1" spans="1:25">
       <c r="A163" s="12">
         <v>159</v>
       </c>
@@ -22840,7 +22858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" hidden="1" customHeight="1" spans="1:25">
+    <row r="164" customHeight="1" spans="1:25">
       <c r="A164" s="12">
         <v>160</v>
       </c>
@@ -22891,15 +22909,13 @@
     </row>
   </sheetData>
   <autoFilter ref="A4:Z164">
-    <filterColumn colId="19">
+    <filterColumn colId="24">
       <filters>
+        <filter val="0"/>
         <filter val="10"/>
-        <filter val="1"/>
-        <filter val="2"/>
+        <filter val="3"/>
         <filter val="4"/>
         <filter val="25"/>
-        <filter val="6"/>
-        <filter val="9"/>
       </filters>
     </filterColumn>
     <sortState ref="A4:Z164">
@@ -22933,11 +22949,11 @@
   <dimension ref="A1:R83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="8" ySplit="4" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="4" topLeftCell="I35" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I57" sqref="I57"/>
+      <selection pane="bottomRight" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>
@@ -23053,7 +23069,9 @@
       <c r="I4" s="12">
         <v>1.23</v>
       </c>
-      <c r="J4" s="12"/>
+      <c r="J4" s="12">
+        <v>1.28</v>
+      </c>
       <c r="K4" s="12"/>
       <c r="L4" s="12"/>
       <c r="M4" s="12"/>
@@ -24040,22 +24058,24 @@
         <v>14203.6</v>
       </c>
       <c r="I27" s="17"/>
-      <c r="J27" s="12"/>
+      <c r="J27" s="12">
+        <v>1</v>
+      </c>
       <c r="K27" s="12"/>
       <c r="L27" s="12"/>
       <c r="M27" s="12"/>
       <c r="N27" s="12"/>
       <c r="O27" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P27" s="18">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q27" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="20" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:17">

--- a/拼装统计.xlsx
+++ b/拼装统计.xlsx
@@ -24,7 +24,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'义乌奥晶办公室食堂（完成)'!$A$4:$R$75</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">统计!$A$2:$G$38</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">福州地铁!$A$4:$R$75</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">广东华丰!$A$4:$Z$164</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">广东华丰!$A$4:$AE$164</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">大东海!$A$4:$R$83</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'模板 (8)'!$A$4:$R$75</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'模板 (7)'!$A$4:$R$75</definedName>
@@ -1279,14 +1279,14 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="9">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="178" formatCode="0.000_);[Red]\(0.000\)"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="0.0_);[Red]\(0.0\)"/>
-    <numFmt numFmtId="180" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="179" formatCode="0.000_);[Red]\(0.000\)"/>
+    <numFmt numFmtId="180" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -1337,15 +1337,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1358,9 +1365,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1368,6 +1374,43 @@
     <font>
       <b/>
       <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1382,15 +1425,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1398,36 +1443,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1441,16 +1457,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1458,25 +1467,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1507,13 +1507,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1525,13 +1549,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1543,31 +1591,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1585,31 +1609,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1621,67 +1675,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1752,45 +1752,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -1838,11 +1799,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1854,10 +1854,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1866,143 +1866,143 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2015,7 +2015,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2030,13 +2030,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2048,28 +2048,28 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2081,10 +2081,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2096,7 +2099,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2574,7 +2577,7 @@
       <c r="G5" s="13">
         <v>2493.1</v>
       </c>
-      <c r="H5" s="31">
+      <c r="H5" s="32">
         <f>G5*C5</f>
         <v>2493.1</v>
       </c>
@@ -2615,7 +2618,7 @@
       <c r="G6" s="13">
         <v>2496</v>
       </c>
-      <c r="H6" s="31">
+      <c r="H6" s="32">
         <f t="shared" ref="H6:H37" si="2">G6*C6</f>
         <v>2496</v>
       </c>
@@ -2656,7 +2659,7 @@
       <c r="G7" s="13">
         <v>2483.1</v>
       </c>
-      <c r="H7" s="31">
+      <c r="H7" s="32">
         <f t="shared" si="2"/>
         <v>9932.4</v>
       </c>
@@ -2699,7 +2702,7 @@
       <c r="G8" s="13">
         <v>2486</v>
       </c>
-      <c r="H8" s="31">
+      <c r="H8" s="32">
         <f t="shared" si="2"/>
         <v>9944</v>
       </c>
@@ -2740,7 +2743,7 @@
       <c r="G9" s="12">
         <v>2496</v>
       </c>
-      <c r="H9" s="31">
+      <c r="H9" s="32">
         <f t="shared" si="2"/>
         <v>2496</v>
       </c>
@@ -2781,7 +2784,7 @@
       <c r="G10" s="12">
         <v>2493.1</v>
       </c>
-      <c r="H10" s="31">
+      <c r="H10" s="32">
         <f t="shared" si="2"/>
         <v>2493.1</v>
       </c>
@@ -2822,7 +2825,7 @@
       <c r="G11" s="12">
         <v>1277.7</v>
       </c>
-      <c r="H11" s="31">
+      <c r="H11" s="32">
         <f t="shared" si="2"/>
         <v>1277.7</v>
       </c>
@@ -2863,7 +2866,7 @@
       <c r="G12" s="12">
         <v>1479.6</v>
       </c>
-      <c r="H12" s="31">
+      <c r="H12" s="32">
         <f t="shared" si="2"/>
         <v>1479.6</v>
       </c>
@@ -2904,7 +2907,7 @@
       <c r="G13" s="12">
         <v>1476.1</v>
       </c>
-      <c r="H13" s="31">
+      <c r="H13" s="32">
         <f t="shared" si="2"/>
         <v>1476.1</v>
       </c>
@@ -2945,7 +2948,7 @@
       <c r="G14" s="13">
         <v>113.1</v>
       </c>
-      <c r="H14" s="31">
+      <c r="H14" s="32">
         <f t="shared" si="2"/>
         <v>113.1</v>
       </c>
@@ -2986,7 +2989,7 @@
       <c r="G15" s="13">
         <v>113.1</v>
       </c>
-      <c r="H15" s="31">
+      <c r="H15" s="32">
         <f t="shared" si="2"/>
         <v>226.2</v>
       </c>
@@ -3027,7 +3030,7 @@
       <c r="G16" s="13">
         <v>89.5</v>
       </c>
-      <c r="H16" s="31">
+      <c r="H16" s="32">
         <f t="shared" si="2"/>
         <v>179</v>
       </c>
@@ -3068,7 +3071,7 @@
       <c r="G17" s="13">
         <v>61.5</v>
       </c>
-      <c r="H17" s="31">
+      <c r="H17" s="32">
         <f t="shared" si="2"/>
         <v>123</v>
       </c>
@@ -3109,7 +3112,7 @@
       <c r="G18" s="13">
         <v>105.4</v>
       </c>
-      <c r="H18" s="31">
+      <c r="H18" s="32">
         <f t="shared" si="2"/>
         <v>210.8</v>
       </c>
@@ -3150,7 +3153,7 @@
       <c r="G19" s="13">
         <v>113.1</v>
       </c>
-      <c r="H19" s="31">
+      <c r="H19" s="32">
         <f t="shared" si="2"/>
         <v>113.1</v>
       </c>
@@ -3185,7 +3188,7 @@
       <c r="E20" s="12"/>
       <c r="F20" s="13"/>
       <c r="G20" s="13"/>
-      <c r="H20" s="31">
+      <c r="H20" s="32">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3218,7 +3221,7 @@
       <c r="E21" s="12"/>
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
-      <c r="H21" s="31">
+      <c r="H21" s="32">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3251,7 +3254,7 @@
       <c r="E22" s="12"/>
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
-      <c r="H22" s="31">
+      <c r="H22" s="32">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3285,7 +3288,7 @@
       <c r="E23" s="12"/>
       <c r="F23" s="13"/>
       <c r="G23" s="13"/>
-      <c r="H23" s="31">
+      <c r="H23" s="32">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3318,7 +3321,7 @@
       <c r="E24" s="12"/>
       <c r="F24" s="13"/>
       <c r="G24" s="13"/>
-      <c r="H24" s="31">
+      <c r="H24" s="32">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3351,7 +3354,7 @@
       <c r="E25" s="12"/>
       <c r="F25" s="13"/>
       <c r="G25" s="13"/>
-      <c r="H25" s="31">
+      <c r="H25" s="32">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3384,7 +3387,7 @@
       <c r="E26" s="12"/>
       <c r="F26" s="13"/>
       <c r="G26" s="13"/>
-      <c r="H26" s="31">
+      <c r="H26" s="32">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3417,7 +3420,7 @@
       <c r="E27" s="12"/>
       <c r="F27" s="13"/>
       <c r="G27" s="13"/>
-      <c r="H27" s="31">
+      <c r="H27" s="32">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3450,7 +3453,7 @@
       <c r="E28" s="12"/>
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
-      <c r="H28" s="31">
+      <c r="H28" s="32">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3483,7 +3486,7 @@
       <c r="E29" s="12"/>
       <c r="F29" s="13"/>
       <c r="G29" s="13"/>
-      <c r="H29" s="31">
+      <c r="H29" s="32">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3516,7 +3519,7 @@
       <c r="E30" s="12"/>
       <c r="F30" s="13"/>
       <c r="G30" s="13"/>
-      <c r="H30" s="31">
+      <c r="H30" s="32">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3549,7 +3552,7 @@
       <c r="E31" s="12"/>
       <c r="F31" s="13"/>
       <c r="G31" s="13"/>
-      <c r="H31" s="31">
+      <c r="H31" s="32">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3582,7 +3585,7 @@
       <c r="E32" s="12"/>
       <c r="F32" s="13"/>
       <c r="G32" s="13"/>
-      <c r="H32" s="31">
+      <c r="H32" s="32">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3615,7 +3618,7 @@
       <c r="E33" s="12"/>
       <c r="F33" s="13"/>
       <c r="G33" s="13"/>
-      <c r="H33" s="31">
+      <c r="H33" s="32">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3648,7 +3651,7 @@
       <c r="E34" s="12"/>
       <c r="F34" s="13"/>
       <c r="G34" s="13"/>
-      <c r="H34" s="31">
+      <c r="H34" s="32">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3681,7 +3684,7 @@
       <c r="E35" s="12"/>
       <c r="F35" s="13"/>
       <c r="G35" s="13"/>
-      <c r="H35" s="31">
+      <c r="H35" s="32">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3714,7 +3717,7 @@
       <c r="E36" s="12"/>
       <c r="F36" s="13"/>
       <c r="G36" s="13"/>
-      <c r="H36" s="31">
+      <c r="H36" s="32">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3747,7 +3750,7 @@
       <c r="E37" s="12"/>
       <c r="F37" s="13"/>
       <c r="G37" s="13"/>
-      <c r="H37" s="31">
+      <c r="H37" s="32">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3780,7 +3783,7 @@
       <c r="E38" s="12"/>
       <c r="F38" s="13"/>
       <c r="G38" s="13"/>
-      <c r="H38" s="31">
+      <c r="H38" s="32">
         <f t="shared" ref="H38:H67" si="4">G38*C38</f>
         <v>0</v>
       </c>
@@ -3813,7 +3816,7 @@
       <c r="E39" s="12"/>
       <c r="F39" s="13"/>
       <c r="G39" s="13"/>
-      <c r="H39" s="31">
+      <c r="H39" s="32">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -3846,7 +3849,7 @@
       <c r="E40" s="12"/>
       <c r="F40" s="13"/>
       <c r="G40" s="13"/>
-      <c r="H40" s="31">
+      <c r="H40" s="32">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -3879,7 +3882,7 @@
       <c r="E41" s="12"/>
       <c r="F41" s="13"/>
       <c r="G41" s="13"/>
-      <c r="H41" s="31">
+      <c r="H41" s="32">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -3912,7 +3915,7 @@
       <c r="E42" s="12"/>
       <c r="F42" s="13"/>
       <c r="G42" s="13"/>
-      <c r="H42" s="31">
+      <c r="H42" s="32">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -3945,7 +3948,7 @@
       <c r="E43" s="12"/>
       <c r="F43" s="13"/>
       <c r="G43" s="13"/>
-      <c r="H43" s="31">
+      <c r="H43" s="32">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -3978,7 +3981,7 @@
       <c r="E44" s="12"/>
       <c r="F44" s="13"/>
       <c r="G44" s="13"/>
-      <c r="H44" s="31">
+      <c r="H44" s="32">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4011,7 +4014,7 @@
       <c r="E45" s="12"/>
       <c r="F45" s="13"/>
       <c r="G45" s="13"/>
-      <c r="H45" s="31">
+      <c r="H45" s="32">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4044,7 +4047,7 @@
       <c r="E46" s="12"/>
       <c r="F46" s="13"/>
       <c r="G46" s="13"/>
-      <c r="H46" s="31">
+      <c r="H46" s="32">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4077,7 +4080,7 @@
       <c r="E47" s="12"/>
       <c r="F47" s="13"/>
       <c r="G47" s="13"/>
-      <c r="H47" s="31">
+      <c r="H47" s="32">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4110,7 +4113,7 @@
       <c r="E48" s="12"/>
       <c r="F48" s="13"/>
       <c r="G48" s="13"/>
-      <c r="H48" s="31">
+      <c r="H48" s="32">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4143,7 +4146,7 @@
       <c r="E49" s="12"/>
       <c r="F49" s="13"/>
       <c r="G49" s="13"/>
-      <c r="H49" s="31">
+      <c r="H49" s="32">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4176,7 +4179,7 @@
       <c r="E50" s="12"/>
       <c r="F50" s="13"/>
       <c r="G50" s="13"/>
-      <c r="H50" s="31">
+      <c r="H50" s="32">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4209,7 +4212,7 @@
       <c r="E51" s="12"/>
       <c r="F51" s="13"/>
       <c r="G51" s="13"/>
-      <c r="H51" s="31">
+      <c r="H51" s="32">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4242,7 +4245,7 @@
       <c r="E52" s="12"/>
       <c r="F52" s="13"/>
       <c r="G52" s="13"/>
-      <c r="H52" s="31">
+      <c r="H52" s="32">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4275,7 +4278,7 @@
       <c r="E53" s="12"/>
       <c r="F53" s="13"/>
       <c r="G53" s="13"/>
-      <c r="H53" s="31">
+      <c r="H53" s="32">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4308,7 +4311,7 @@
       <c r="E54" s="12"/>
       <c r="F54" s="13"/>
       <c r="G54" s="13"/>
-      <c r="H54" s="31">
+      <c r="H54" s="32">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4341,7 +4344,7 @@
       <c r="E55" s="12"/>
       <c r="F55" s="13"/>
       <c r="G55" s="13"/>
-      <c r="H55" s="31">
+      <c r="H55" s="32">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4374,7 +4377,7 @@
       <c r="E56" s="12"/>
       <c r="F56" s="13"/>
       <c r="G56" s="13"/>
-      <c r="H56" s="31">
+      <c r="H56" s="32">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4407,7 +4410,7 @@
       <c r="E57" s="12"/>
       <c r="F57" s="13"/>
       <c r="G57" s="13"/>
-      <c r="H57" s="31">
+      <c r="H57" s="32">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4440,7 +4443,7 @@
       <c r="E58" s="12"/>
       <c r="F58" s="13"/>
       <c r="G58" s="13"/>
-      <c r="H58" s="31">
+      <c r="H58" s="32">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4473,7 +4476,7 @@
       <c r="E59" s="12"/>
       <c r="F59" s="13"/>
       <c r="G59" s="13"/>
-      <c r="H59" s="31">
+      <c r="H59" s="32">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4506,7 +4509,7 @@
       <c r="E60" s="12"/>
       <c r="F60" s="13"/>
       <c r="G60" s="13"/>
-      <c r="H60" s="31">
+      <c r="H60" s="32">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4539,7 +4542,7 @@
       <c r="E61" s="12"/>
       <c r="F61" s="13"/>
       <c r="G61" s="13"/>
-      <c r="H61" s="31">
+      <c r="H61" s="32">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4572,7 +4575,7 @@
       <c r="E62" s="12"/>
       <c r="F62" s="13"/>
       <c r="G62" s="13"/>
-      <c r="H62" s="31">
+      <c r="H62" s="32">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4605,7 +4608,7 @@
       <c r="E63" s="12"/>
       <c r="F63" s="13"/>
       <c r="G63" s="13"/>
-      <c r="H63" s="31">
+      <c r="H63" s="32">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4638,7 +4641,7 @@
       <c r="E64" s="12"/>
       <c r="F64" s="13"/>
       <c r="G64" s="13"/>
-      <c r="H64" s="31">
+      <c r="H64" s="32">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4671,7 +4674,7 @@
       <c r="E65" s="12"/>
       <c r="F65" s="13"/>
       <c r="G65" s="13"/>
-      <c r="H65" s="31">
+      <c r="H65" s="32">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4704,7 +4707,7 @@
       <c r="E66" s="12"/>
       <c r="F66" s="13"/>
       <c r="G66" s="13"/>
-      <c r="H66" s="31">
+      <c r="H66" s="32">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4737,7 +4740,7 @@
       <c r="E67" s="12"/>
       <c r="F67" s="13"/>
       <c r="G67" s="13"/>
-      <c r="H67" s="31">
+      <c r="H67" s="32">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -11025,799 +11028,799 @@
   </cols>
   <sheetData>
     <row r="1" ht="14" customHeight="1" spans="1:7">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
     </row>
     <row r="2" ht="14" customHeight="1" spans="1:7">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="29" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" ht="14" customHeight="1" spans="1:7">
-      <c r="A3" s="28">
-        <v>1</v>
-      </c>
-      <c r="B3" s="28" t="s">
+      <c r="A3" s="29">
+        <v>1</v>
+      </c>
+      <c r="B3" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="28">
+      <c r="D3" s="29">
         <v>12868.71</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="28"/>
+      <c r="G3" s="29"/>
     </row>
     <row r="4" ht="14" customHeight="1" spans="1:7">
-      <c r="A4" s="28">
+      <c r="A4" s="29">
         <v>2</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="28">
+      <c r="D4" s="29">
         <v>12017.64</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="28"/>
+      <c r="G4" s="29"/>
     </row>
     <row r="5" ht="14" customHeight="1" spans="1:7">
-      <c r="A5" s="28">
+      <c r="A5" s="29">
         <v>3</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="28">
+      <c r="D5" s="29">
         <v>396</v>
       </c>
-      <c r="E5" s="28" t="s">
+      <c r="E5" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="28" t="s">
+      <c r="F5" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="28"/>
+      <c r="G5" s="29"/>
     </row>
     <row r="6" ht="14" customHeight="1" spans="1:7">
-      <c r="A6" s="28">
+      <c r="A6" s="29">
         <v>4</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="28">
+      <c r="D6" s="29">
         <v>7374.54</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="E6" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="28" t="s">
+      <c r="F6" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="G6" s="28"/>
+      <c r="G6" s="29"/>
     </row>
     <row r="7" ht="14" customHeight="1" spans="1:7">
-      <c r="A7" s="28">
+      <c r="A7" s="29">
         <v>5</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="28">
+      <c r="D7" s="29">
         <v>3673.98</v>
       </c>
-      <c r="E7" s="28" t="s">
+      <c r="E7" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="28" t="s">
+      <c r="F7" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="G7" s="28"/>
+      <c r="G7" s="29"/>
     </row>
     <row r="8" ht="14" customHeight="1" spans="1:7">
-      <c r="A8" s="28">
+      <c r="A8" s="29">
         <v>6</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="28">
+      <c r="D8" s="29">
         <v>31158.1</v>
       </c>
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="28" t="s">
+      <c r="F8" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="28"/>
+      <c r="G8" s="29"/>
     </row>
     <row r="9" ht="14" customHeight="1" spans="1:7">
-      <c r="A9" s="28">
+      <c r="A9" s="29">
         <v>7</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="28">
+      <c r="D9" s="29">
         <v>12321</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="28" t="s">
+      <c r="F9" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="G9" s="28"/>
+      <c r="G9" s="29"/>
     </row>
     <row r="10" ht="14" customHeight="1" spans="1:7">
-      <c r="A10" s="28">
+      <c r="A10" s="29">
         <v>8</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="28">
+      <c r="D10" s="29">
         <v>17141.6</v>
       </c>
-      <c r="E10" s="28" t="s">
+      <c r="E10" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="28" t="s">
+      <c r="F10" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="G10" s="28"/>
+      <c r="G10" s="29"/>
     </row>
     <row r="11" ht="14" customHeight="1" spans="1:7">
-      <c r="A11" s="28">
+      <c r="A11" s="29">
         <v>9</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="28">
+      <c r="D11" s="29">
         <v>8925</v>
       </c>
-      <c r="E11" s="28" t="s">
+      <c r="E11" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="28" t="s">
+      <c r="F11" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="G11" s="28"/>
+      <c r="G11" s="29"/>
     </row>
     <row r="12" ht="14" customHeight="1" spans="1:7">
-      <c r="A12" s="28">
+      <c r="A12" s="29">
         <v>10</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="28">
+      <c r="D12" s="29">
         <v>15689</v>
       </c>
-      <c r="E12" s="28" t="s">
+      <c r="E12" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="28" t="s">
+      <c r="F12" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="G12" s="28"/>
+      <c r="G12" s="29"/>
     </row>
     <row r="13" ht="14" customHeight="1" spans="1:7">
-      <c r="A13" s="28">
+      <c r="A13" s="29">
         <v>11</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="28">
+      <c r="D13" s="29">
         <v>14961.3</v>
       </c>
-      <c r="E13" s="28" t="s">
+      <c r="E13" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="28" t="s">
+      <c r="F13" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="G13" s="28"/>
+      <c r="G13" s="29"/>
     </row>
     <row r="14" ht="14" customHeight="1" spans="1:7">
-      <c r="A14" s="28">
+      <c r="A14" s="29">
         <v>12</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="28">
+      <c r="D14" s="29">
         <v>24245.7</v>
       </c>
-      <c r="E14" s="28" t="s">
+      <c r="E14" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="28" t="s">
+      <c r="F14" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="G14" s="28"/>
+      <c r="G14" s="29"/>
     </row>
     <row r="15" ht="14" customHeight="1" spans="1:7">
-      <c r="A15" s="28">
+      <c r="A15" s="29">
         <v>13</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="28">
+      <c r="D15" s="29">
         <v>10067.1</v>
       </c>
-      <c r="E15" s="28" t="s">
+      <c r="E15" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="28" t="s">
+      <c r="F15" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="G15" s="28"/>
+      <c r="G15" s="29"/>
     </row>
     <row r="16" ht="14" customHeight="1" spans="1:7">
-      <c r="A16" s="28">
+      <c r="A16" s="29">
         <v>14</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="28">
+      <c r="D16" s="29">
         <v>15689.9</v>
       </c>
-      <c r="E16" s="28" t="s">
+      <c r="E16" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="28" t="s">
+      <c r="F16" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="G16" s="28"/>
+      <c r="G16" s="29"/>
     </row>
     <row r="17" ht="14" customHeight="1" spans="1:7">
-      <c r="A17" s="28">
+      <c r="A17" s="29">
         <v>15</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="28" t="s">
+      <c r="C17" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="28">
+      <c r="D17" s="29">
         <v>24041</v>
       </c>
-      <c r="E17" s="28" t="s">
+      <c r="E17" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="F17" s="28" t="s">
+      <c r="F17" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="G17" s="28"/>
+      <c r="G17" s="29"/>
     </row>
     <row r="18" ht="14" customHeight="1" spans="1:7">
-      <c r="A18" s="28">
+      <c r="A18" s="29">
         <v>16</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="28" t="s">
+      <c r="C18" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="28">
+      <c r="D18" s="29">
         <v>7137.49</v>
       </c>
-      <c r="E18" s="28" t="s">
+      <c r="E18" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="F18" s="28" t="s">
+      <c r="F18" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="G18" s="28"/>
+      <c r="G18" s="29"/>
     </row>
     <row r="19" ht="14" customHeight="1" spans="1:7">
-      <c r="A19" s="28">
+      <c r="A19" s="29">
         <v>17</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="28">
+      <c r="D19" s="29">
         <v>10685.5</v>
       </c>
-      <c r="E19" s="28" t="s">
+      <c r="E19" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="F19" s="28" t="s">
+      <c r="F19" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="G19" s="28"/>
+      <c r="G19" s="29"/>
     </row>
     <row r="20" ht="14" customHeight="1" spans="1:7">
-      <c r="A20" s="28">
+      <c r="A20" s="29">
         <v>18</v>
       </c>
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="28" t="s">
+      <c r="C20" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="28">
+      <c r="D20" s="29">
         <v>7078.8</v>
       </c>
-      <c r="E20" s="28" t="s">
+      <c r="E20" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="F20" s="28" t="s">
+      <c r="F20" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="G20" s="28"/>
+      <c r="G20" s="29"/>
     </row>
     <row r="21" ht="14" customHeight="1" spans="1:7">
-      <c r="A21" s="28">
+      <c r="A21" s="29">
         <v>19</v>
       </c>
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="28" t="s">
+      <c r="C21" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="28">
+      <c r="D21" s="29">
         <v>17382</v>
       </c>
-      <c r="E21" s="28" t="s">
+      <c r="E21" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="F21" s="28" t="s">
+      <c r="F21" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="G21" s="28"/>
+      <c r="G21" s="29"/>
     </row>
     <row r="22" ht="14" customHeight="1" spans="1:7">
-      <c r="A22" s="28">
+      <c r="A22" s="29">
         <v>20</v>
       </c>
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="28" t="s">
+      <c r="C22" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="28">
+      <c r="D22" s="29">
         <v>15673.7</v>
       </c>
-      <c r="E22" s="28" t="s">
+      <c r="E22" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="F22" s="28" t="s">
+      <c r="F22" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="G22" s="28"/>
+      <c r="G22" s="29"/>
     </row>
     <row r="23" ht="14" customHeight="1" spans="1:7">
-      <c r="A23" s="28">
+      <c r="A23" s="29">
         <v>21</v>
       </c>
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="28" t="s">
+      <c r="C23" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="28">
+      <c r="D23" s="29">
         <v>7814</v>
       </c>
-      <c r="E23" s="28" t="s">
+      <c r="E23" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="F23" s="28" t="s">
+      <c r="F23" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="G23" s="28"/>
+      <c r="G23" s="29"/>
     </row>
     <row r="24" ht="14" customHeight="1" spans="1:7">
-      <c r="A24" s="28">
+      <c r="A24" s="29">
         <v>22</v>
       </c>
-      <c r="B24" s="28" t="s">
+      <c r="B24" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="28" t="s">
+      <c r="C24" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="D24" s="28">
+      <c r="D24" s="29">
         <v>7392</v>
       </c>
-      <c r="E24" s="28" t="s">
+      <c r="E24" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="F24" s="28" t="s">
+      <c r="F24" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="G24" s="28"/>
+      <c r="G24" s="29"/>
     </row>
     <row r="25" ht="14" customHeight="1" spans="1:7">
-      <c r="A25" s="28">
+      <c r="A25" s="29">
         <v>23</v>
       </c>
-      <c r="B25" s="28" t="s">
+      <c r="B25" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="28" t="s">
+      <c r="C25" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="28">
+      <c r="D25" s="29">
         <v>91853</v>
       </c>
-      <c r="E25" s="28" t="s">
+      <c r="E25" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="F25" s="28" t="s">
+      <c r="F25" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="G25" s="28"/>
+      <c r="G25" s="29"/>
     </row>
     <row r="26" ht="14" customHeight="1" spans="1:7">
-      <c r="A26" s="28">
+      <c r="A26" s="29">
         <v>24</v>
       </c>
-      <c r="B26" s="28" t="s">
+      <c r="B26" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="28" t="s">
+      <c r="C26" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="D26" s="28">
-        <v>1</v>
-      </c>
-      <c r="E26" s="28" t="s">
+      <c r="D26" s="29">
+        <v>1</v>
+      </c>
+      <c r="E26" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="F26" s="28" t="s">
+      <c r="F26" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="G26" s="28"/>
+      <c r="G26" s="29"/>
     </row>
     <row r="27" ht="14" customHeight="1" spans="1:7">
-      <c r="A27" s="28">
+      <c r="A27" s="29">
         <v>25</v>
       </c>
-      <c r="B27" s="28" t="s">
+      <c r="B27" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="28" t="s">
+      <c r="C27" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="D27" s="28">
+      <c r="D27" s="29">
         <v>9797.5</v>
       </c>
-      <c r="E27" s="28" t="s">
+      <c r="E27" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="F27" s="28" t="s">
+      <c r="F27" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="G27" s="28"/>
+      <c r="G27" s="29"/>
     </row>
     <row r="28" ht="14" customHeight="1" spans="1:7">
-      <c r="A28" s="28">
+      <c r="A28" s="29">
         <v>26</v>
       </c>
-      <c r="B28" s="28" t="s">
+      <c r="B28" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="28" t="s">
+      <c r="C28" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="D28" s="28">
+      <c r="D28" s="29">
         <v>9932.5</v>
       </c>
-      <c r="E28" s="28" t="s">
+      <c r="E28" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="F28" s="28" t="s">
+      <c r="F28" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="G28" s="28"/>
+      <c r="G28" s="29"/>
     </row>
     <row r="29" ht="14" customHeight="1" spans="1:7">
-      <c r="A29" s="28">
+      <c r="A29" s="29">
         <v>27</v>
       </c>
-      <c r="B29" s="28" t="s">
+      <c r="B29" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="28" t="s">
+      <c r="C29" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="D29" s="28">
-        <v>1</v>
-      </c>
-      <c r="E29" s="28" t="s">
+      <c r="D29" s="29">
+        <v>1</v>
+      </c>
+      <c r="E29" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="F29" s="28" t="s">
+      <c r="F29" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="G29" s="28"/>
+      <c r="G29" s="29"/>
     </row>
     <row r="30" ht="14" customHeight="1" spans="1:7">
-      <c r="A30" s="28">
+      <c r="A30" s="29">
         <v>28</v>
       </c>
-      <c r="B30" s="28" t="s">
+      <c r="B30" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="28" t="s">
+      <c r="C30" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="D30" s="28">
+      <c r="D30" s="29">
         <v>9209.6</v>
       </c>
-      <c r="E30" s="28" t="s">
+      <c r="E30" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="F30" s="28" t="s">
+      <c r="F30" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="G30" s="28"/>
+      <c r="G30" s="29"/>
     </row>
     <row r="31" ht="14" customHeight="1" spans="1:7">
-      <c r="A31" s="28">
+      <c r="A31" s="29">
         <v>29</v>
       </c>
-      <c r="B31" s="28" t="s">
+      <c r="B31" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="28" t="s">
+      <c r="C31" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="D31" s="28">
+      <c r="D31" s="29">
         <v>965.2</v>
       </c>
-      <c r="E31" s="28" t="s">
+      <c r="E31" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="F31" s="29" t="s">
+      <c r="F31" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="G31" s="28"/>
+      <c r="G31" s="29"/>
     </row>
     <row r="32" ht="14" customHeight="1" spans="1:7">
-      <c r="A32" s="28">
+      <c r="A32" s="29">
         <v>30</v>
       </c>
-      <c r="B32" s="28" t="s">
+      <c r="B32" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="C32" s="28" t="s">
+      <c r="C32" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="D32" s="28">
+      <c r="D32" s="29">
         <v>26686.9</v>
       </c>
-      <c r="E32" s="28" t="s">
+      <c r="E32" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="F32" s="30"/>
-      <c r="G32" s="28"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="29"/>
     </row>
     <row r="33" ht="14" customHeight="1" spans="1:7">
-      <c r="A33" s="28">
+      <c r="A33" s="29">
         <v>31</v>
       </c>
-      <c r="B33" s="28" t="s">
+      <c r="B33" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="C33" s="28" t="s">
+      <c r="C33" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="D33" s="28">
+      <c r="D33" s="29">
         <v>17829</v>
       </c>
-      <c r="E33" s="28" t="s">
+      <c r="E33" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="F33" s="28" t="s">
+      <c r="F33" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="G33" s="28"/>
+      <c r="G33" s="29"/>
     </row>
     <row r="34" ht="14" customHeight="1" spans="1:7">
-      <c r="A34" s="28">
+      <c r="A34" s="29">
         <v>32</v>
       </c>
-      <c r="B34" s="28" t="s">
+      <c r="B34" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28">
+      <c r="C34" s="29"/>
+      <c r="D34" s="29">
         <v>10110.294</v>
       </c>
-      <c r="E34" s="28" t="s">
+      <c r="E34" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="F34" s="28" t="s">
+      <c r="F34" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="G34" s="28"/>
+      <c r="G34" s="29"/>
     </row>
     <row r="35" ht="14" customHeight="1" spans="1:7">
-      <c r="A35" s="28">
+      <c r="A35" s="29">
         <v>33</v>
       </c>
-      <c r="B35" s="28" t="s">
+      <c r="B35" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="C35" s="28" t="s">
+      <c r="C35" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="D35" s="28">
+      <c r="D35" s="29">
         <v>4781.4</v>
       </c>
-      <c r="E35" s="28" t="s">
+      <c r="E35" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="F35" s="28" t="s">
+      <c r="F35" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="G35" s="28"/>
+      <c r="G35" s="29"/>
     </row>
     <row r="36" ht="14" customHeight="1" spans="1:7">
-      <c r="A36" s="28">
+      <c r="A36" s="29">
         <v>34</v>
       </c>
-      <c r="B36" s="28" t="s">
+      <c r="B36" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="C36" s="28" t="s">
+      <c r="C36" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="D36" s="28">
+      <c r="D36" s="29">
         <v>19422</v>
       </c>
-      <c r="E36" s="28" t="s">
+      <c r="E36" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="F36" s="28" t="s">
+      <c r="F36" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="G36" s="28"/>
+      <c r="G36" s="29"/>
     </row>
     <row r="37" ht="14" customHeight="1" spans="1:7">
-      <c r="A37" s="28">
+      <c r="A37" s="29">
         <v>35</v>
       </c>
-      <c r="B37" s="28" t="s">
+      <c r="B37" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="C37" s="28" t="s">
+      <c r="C37" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="D37" s="28">
+      <c r="D37" s="29">
         <v>8976.6</v>
       </c>
-      <c r="E37" s="28" t="s">
+      <c r="E37" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="F37" s="28" t="s">
+      <c r="F37" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="G37" s="28"/>
+      <c r="G37" s="29"/>
     </row>
     <row r="38" ht="14" customHeight="1" spans="1:7">
-      <c r="A38" s="28">
+      <c r="A38" s="29">
         <v>36</v>
       </c>
-      <c r="B38" s="28" t="s">
+      <c r="B38" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="C38" s="28" t="s">
+      <c r="C38" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="D38" s="28">
+      <c r="D38" s="29">
         <v>12691.9</v>
       </c>
-      <c r="E38" s="28" t="s">
+      <c r="E38" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="F38" s="28" t="s">
+      <c r="F38" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="G38" s="28"/>
+      <c r="G38" s="29"/>
     </row>
     <row r="39" ht="14" customHeight="1" spans="1:7">
-      <c r="A39" s="28"/>
-      <c r="B39" s="28"/>
-      <c r="C39" s="28"/>
-      <c r="D39" s="28"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="28"/>
-      <c r="G39" s="28"/>
+      <c r="A39" s="29"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="29"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:G38">
@@ -14740,14 +14743,14 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:Z164"/>
+  <dimension ref="A1:AE164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="4" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="4" topLeftCell="M5" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="X37" sqref="X37:X88"/>
+      <selection pane="bottomRight" activeCell="V54" sqref="V54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>
@@ -14763,15 +14766,15 @@
     <col min="10" max="10" width="10" style="4" customWidth="1" outlineLevel="1"/>
     <col min="11" max="11" width="9.62962962962963" style="4" customWidth="1" outlineLevel="1"/>
     <col min="12" max="13" width="8.75" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="22" width="6.62962962962963" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="23" max="23" width="12.5" style="4" customWidth="1"/>
-    <col min="24" max="24" width="9.62962962962963" style="4" customWidth="1"/>
-    <col min="25" max="25" width="20" style="3" customWidth="1"/>
-    <col min="26" max="26" width="12.75" style="5" customWidth="1"/>
-    <col min="27" max="16368" width="9" style="5"/>
+    <col min="14" max="27" width="6.62962962962963" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="28" max="28" width="12.5" style="4" customWidth="1"/>
+    <col min="29" max="29" width="9.62962962962963" style="4" customWidth="1"/>
+    <col min="30" max="30" width="20" style="3" customWidth="1"/>
+    <col min="31" max="31" width="12.75" style="5" customWidth="1"/>
+    <col min="32" max="16373" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" ht="26.1" customHeight="1" spans="2:25">
+    <row r="1" ht="26.1" customHeight="1" spans="2:30">
       <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
@@ -14798,8 +14801,13 @@
       <c r="W1" s="6"/>
       <c r="X1" s="6"/>
       <c r="Y1" s="6"/>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="24.75" customHeight="1" spans="1:25">
+      <c r="Z1" s="6"/>
+      <c r="AA1" s="6"/>
+      <c r="AB1" s="6"/>
+      <c r="AC1" s="6"/>
+      <c r="AD1" s="6"/>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="24.75" customHeight="1" spans="1:30">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -14827,8 +14835,13 @@
       <c r="W2" s="3"/>
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
-    </row>
-    <row r="3" s="2" customFormat="1" ht="26.25" customHeight="1" spans="1:25">
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3"/>
+    </row>
+    <row r="3" s="2" customFormat="1" ht="26.25" customHeight="1" spans="1:30">
       <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
@@ -14871,11 +14884,16 @@
       <c r="V3" s="15"/>
       <c r="W3" s="15"/>
       <c r="X3" s="15"/>
-      <c r="Y3" s="8" t="s">
+      <c r="Y3" s="15"/>
+      <c r="Z3" s="15"/>
+      <c r="AA3" s="15"/>
+      <c r="AB3" s="15"/>
+      <c r="AC3" s="15"/>
+      <c r="AD3" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" ht="26.25" customHeight="1" spans="1:25">
+    <row r="4" s="2" customFormat="1" ht="26.25" customHeight="1" spans="1:30">
       <c r="A4" s="10"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -14917,16 +14935,23 @@
       <c r="U4" s="27">
         <v>1.28</v>
       </c>
-      <c r="V4" s="27"/>
-      <c r="W4" s="16" t="s">
+      <c r="V4" s="27">
+        <v>1.29</v>
+      </c>
+      <c r="W4" s="27"/>
+      <c r="X4" s="27"/>
+      <c r="Y4" s="27"/>
+      <c r="Z4" s="27"/>
+      <c r="AA4" s="27"/>
+      <c r="AB4" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="X4" s="16" t="s">
+      <c r="AC4" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="Y4" s="8"/>
-    </row>
-    <row r="5" hidden="1" customHeight="1" spans="1:25">
+      <c r="AD4" s="8"/>
+    </row>
+    <row r="5" hidden="1" customHeight="1" spans="1:30">
       <c r="A5" s="12">
         <v>1</v>
       </c>
@@ -14964,20 +14989,25 @@
       <c r="T5" s="12"/>
       <c r="U5" s="12"/>
       <c r="V5" s="12"/>
-      <c r="W5" s="18">
+      <c r="W5" s="12"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="12"/>
+      <c r="Z5" s="12"/>
+      <c r="AA5" s="12"/>
+      <c r="AB5" s="18">
         <f>SUM(I5:N5)</f>
         <v>3</v>
       </c>
-      <c r="X5" s="18">
-        <f t="shared" ref="X5:X67" si="1">C5-W5</f>
-        <v>0</v>
-      </c>
-      <c r="Y5" s="20" t="str">
+      <c r="AC5" s="18">
+        <f t="shared" ref="AC5:AC67" si="1">C5-AB5</f>
+        <v>0</v>
+      </c>
+      <c r="AD5" s="20" t="str">
         <f>IF(SUM(I5:N5)=C5,"完成",SUM(I5:N5))</f>
         <v>完成</v>
       </c>
     </row>
-    <row r="6" hidden="1" customHeight="1" spans="1:25">
+    <row r="6" hidden="1" customHeight="1" spans="1:30">
       <c r="A6" s="12">
         <v>2</v>
       </c>
@@ -15015,20 +15045,25 @@
       <c r="T6" s="12"/>
       <c r="U6" s="12"/>
       <c r="V6" s="12"/>
-      <c r="W6" s="18">
-        <f>SUM(I6:V6)</f>
-        <v>1</v>
-      </c>
-      <c r="X6" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Y6" s="20" t="str">
-        <f>IF(SUM(I6:V6)=C6,"完成",SUM(I6:V6))</f>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="7" hidden="1" customHeight="1" spans="1:25">
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="12"/>
+      <c r="AB6" s="18">
+        <f>SUM(I6:AA6)</f>
+        <v>1</v>
+      </c>
+      <c r="AC6" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD6" s="20" t="str">
+        <f>IF(SUM(I6:AA6)=C6,"完成",SUM(I6:AA6))</f>
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="7" hidden="1" customHeight="1" spans="1:30">
       <c r="A7" s="12">
         <v>3</v>
       </c>
@@ -15066,20 +15101,25 @@
       <c r="T7" s="12"/>
       <c r="U7" s="12"/>
       <c r="V7" s="12"/>
-      <c r="W7" s="18">
-        <f t="shared" ref="W7:W16" si="2">SUM(I7:N7)</f>
-        <v>1</v>
-      </c>
-      <c r="X7" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Y7" s="20" t="str">
-        <f t="shared" ref="Y7:Y16" si="3">IF(SUM(I7:N7)=C7,"完成",SUM(I7:N7))</f>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="8" hidden="1" customHeight="1" spans="1:25">
+      <c r="W7" s="12"/>
+      <c r="X7" s="12"/>
+      <c r="Y7" s="12"/>
+      <c r="Z7" s="12"/>
+      <c r="AA7" s="12"/>
+      <c r="AB7" s="18">
+        <f t="shared" ref="AB7:AB16" si="2">SUM(I7:N7)</f>
+        <v>1</v>
+      </c>
+      <c r="AC7" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD7" s="20" t="str">
+        <f t="shared" ref="AD7:AD16" si="3">IF(SUM(I7:N7)=C7,"完成",SUM(I7:N7))</f>
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="8" hidden="1" customHeight="1" spans="1:30">
       <c r="A8" s="12">
         <v>4</v>
       </c>
@@ -15117,20 +15157,25 @@
       <c r="T8" s="12"/>
       <c r="U8" s="12"/>
       <c r="V8" s="12"/>
-      <c r="W8" s="18">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="X8" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Y8" s="20" t="str">
+      <c r="W8" s="12"/>
+      <c r="X8" s="12"/>
+      <c r="Y8" s="12"/>
+      <c r="Z8" s="12"/>
+      <c r="AA8" s="12"/>
+      <c r="AB8" s="18">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AC8" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD8" s="20" t="str">
         <f t="shared" si="3"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="9" hidden="1" customHeight="1" spans="1:25">
+    <row r="9" hidden="1" customHeight="1" spans="1:30">
       <c r="A9" s="12">
         <v>5</v>
       </c>
@@ -15168,20 +15213,25 @@
       <c r="T9" s="12"/>
       <c r="U9" s="12"/>
       <c r="V9" s="12"/>
-      <c r="W9" s="18">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="X9" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Y9" s="20" t="str">
+      <c r="W9" s="12"/>
+      <c r="X9" s="12"/>
+      <c r="Y9" s="12"/>
+      <c r="Z9" s="12"/>
+      <c r="AA9" s="12"/>
+      <c r="AB9" s="18">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AC9" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD9" s="20" t="str">
         <f t="shared" si="3"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="10" hidden="1" customHeight="1" spans="1:25">
+    <row r="10" hidden="1" customHeight="1" spans="1:30">
       <c r="A10" s="12">
         <v>6</v>
       </c>
@@ -15219,20 +15269,25 @@
       <c r="T10" s="12"/>
       <c r="U10" s="12"/>
       <c r="V10" s="12"/>
-      <c r="W10" s="18">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="X10" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Y10" s="20" t="str">
+      <c r="W10" s="12"/>
+      <c r="X10" s="12"/>
+      <c r="Y10" s="12"/>
+      <c r="Z10" s="12"/>
+      <c r="AA10" s="12"/>
+      <c r="AB10" s="18">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AC10" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD10" s="20" t="str">
         <f t="shared" si="3"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="11" hidden="1" customHeight="1" spans="1:25">
+    <row r="11" hidden="1" customHeight="1" spans="1:30">
       <c r="A11" s="12">
         <v>7</v>
       </c>
@@ -15270,20 +15325,25 @@
       <c r="T11" s="12"/>
       <c r="U11" s="12"/>
       <c r="V11" s="12"/>
-      <c r="W11" s="18">
+      <c r="W11" s="12"/>
+      <c r="X11" s="12"/>
+      <c r="Y11" s="12"/>
+      <c r="Z11" s="12"/>
+      <c r="AA11" s="12"/>
+      <c r="AB11" s="18">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="X11" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Y11" s="20" t="str">
+      <c r="AC11" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD11" s="20" t="str">
         <f t="shared" si="3"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="12" hidden="1" customHeight="1" spans="1:25">
+    <row r="12" hidden="1" customHeight="1" spans="1:30">
       <c r="A12" s="12">
         <v>8</v>
       </c>
@@ -15321,20 +15381,25 @@
       <c r="T12" s="12"/>
       <c r="U12" s="12"/>
       <c r="V12" s="12"/>
-      <c r="W12" s="18">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="X12" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Y12" s="20" t="str">
+      <c r="W12" s="12"/>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="12"/>
+      <c r="Z12" s="12"/>
+      <c r="AA12" s="12"/>
+      <c r="AB12" s="18">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AC12" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD12" s="20" t="str">
         <f t="shared" si="3"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="13" hidden="1" customHeight="1" spans="1:25">
+    <row r="13" hidden="1" customHeight="1" spans="1:30">
       <c r="A13" s="12">
         <v>9</v>
       </c>
@@ -15372,20 +15437,25 @@
       <c r="T13" s="12"/>
       <c r="U13" s="12"/>
       <c r="V13" s="12"/>
-      <c r="W13" s="18">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="X13" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Y13" s="20" t="str">
+      <c r="W13" s="12"/>
+      <c r="X13" s="12"/>
+      <c r="Y13" s="12"/>
+      <c r="Z13" s="12"/>
+      <c r="AA13" s="12"/>
+      <c r="AB13" s="18">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AC13" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD13" s="20" t="str">
         <f t="shared" si="3"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="14" hidden="1" customHeight="1" spans="1:25">
+    <row r="14" hidden="1" customHeight="1" spans="1:30">
       <c r="A14" s="12">
         <v>10</v>
       </c>
@@ -15423,20 +15493,25 @@
       <c r="T14" s="12"/>
       <c r="U14" s="12"/>
       <c r="V14" s="12"/>
-      <c r="W14" s="18">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="X14" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Y14" s="20" t="str">
+      <c r="W14" s="12"/>
+      <c r="X14" s="12"/>
+      <c r="Y14" s="12"/>
+      <c r="Z14" s="12"/>
+      <c r="AA14" s="12"/>
+      <c r="AB14" s="18">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AC14" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD14" s="20" t="str">
         <f t="shared" si="3"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="15" hidden="1" customHeight="1" spans="1:25">
+    <row r="15" hidden="1" customHeight="1" spans="1:30">
       <c r="A15" s="12">
         <v>11</v>
       </c>
@@ -15474,20 +15549,25 @@
       <c r="T15" s="12"/>
       <c r="U15" s="12"/>
       <c r="V15" s="12"/>
-      <c r="W15" s="18">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="X15" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Y15" s="20" t="str">
+      <c r="W15" s="12"/>
+      <c r="X15" s="12"/>
+      <c r="Y15" s="12"/>
+      <c r="Z15" s="12"/>
+      <c r="AA15" s="12"/>
+      <c r="AB15" s="18">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AC15" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD15" s="20" t="str">
         <f t="shared" si="3"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="16" hidden="1" customHeight="1" spans="1:25">
+    <row r="16" hidden="1" customHeight="1" spans="1:30">
       <c r="A16" s="12">
         <v>12</v>
       </c>
@@ -15525,20 +15605,25 @@
       <c r="T16" s="12"/>
       <c r="U16" s="12"/>
       <c r="V16" s="12"/>
-      <c r="W16" s="18">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="X16" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Y16" s="20" t="str">
+      <c r="W16" s="12"/>
+      <c r="X16" s="12"/>
+      <c r="Y16" s="12"/>
+      <c r="Z16" s="12"/>
+      <c r="AA16" s="12"/>
+      <c r="AB16" s="18">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AC16" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD16" s="20" t="str">
         <f t="shared" si="3"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="17" hidden="1" customHeight="1" spans="1:25">
+    <row r="17" hidden="1" customHeight="1" spans="1:30">
       <c r="A17" s="12">
         <v>13</v>
       </c>
@@ -15576,20 +15661,25 @@
         <v>3</v>
       </c>
       <c r="V17" s="12"/>
-      <c r="W17" s="18">
-        <f t="shared" ref="W17:W22" si="4">SUM(I17:V17)</f>
+      <c r="W17" s="12"/>
+      <c r="X17" s="12"/>
+      <c r="Y17" s="12"/>
+      <c r="Z17" s="12"/>
+      <c r="AA17" s="12"/>
+      <c r="AB17" s="18">
+        <f t="shared" ref="AB17:AB22" si="4">SUM(I17:AA17)</f>
         <v>3</v>
       </c>
-      <c r="X17" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Y17" s="20" t="str">
-        <f t="shared" ref="Y17:Y22" si="5">IF(SUM(I17:V17)=C17,"完成",SUM(I17:V17))</f>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="18" hidden="1" customHeight="1" spans="1:25">
+      <c r="AC17" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD17" s="20" t="str">
+        <f t="shared" ref="AD17:AD22" si="5">IF(SUM(I17:AA17)=C17,"完成",SUM(I17:AA17))</f>
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="18" hidden="1" customHeight="1" spans="1:30">
       <c r="A18" s="12">
         <v>14</v>
       </c>
@@ -15627,20 +15717,25 @@
         <v>1</v>
       </c>
       <c r="V18" s="12"/>
-      <c r="W18" s="18">
+      <c r="W18" s="12"/>
+      <c r="X18" s="12"/>
+      <c r="Y18" s="12"/>
+      <c r="Z18" s="12"/>
+      <c r="AA18" s="12"/>
+      <c r="AB18" s="18">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="X18" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Y18" s="20" t="str">
+      <c r="AC18" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD18" s="20" t="str">
         <f t="shared" si="5"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="19" hidden="1" customHeight="1" spans="1:25">
+    <row r="19" hidden="1" customHeight="1" spans="1:30">
       <c r="A19" s="12">
         <v>15</v>
       </c>
@@ -15678,20 +15773,25 @@
       <c r="T19" s="12"/>
       <c r="U19" s="12"/>
       <c r="V19" s="12"/>
-      <c r="W19" s="18">
+      <c r="W19" s="12"/>
+      <c r="X19" s="12"/>
+      <c r="Y19" s="12"/>
+      <c r="Z19" s="12"/>
+      <c r="AA19" s="12"/>
+      <c r="AB19" s="18">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="X19" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Y19" s="20" t="str">
+      <c r="AC19" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD19" s="20" t="str">
         <f t="shared" si="5"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="20" hidden="1" customHeight="1" spans="1:25">
+    <row r="20" hidden="1" customHeight="1" spans="1:30">
       <c r="A20" s="12">
         <v>16</v>
       </c>
@@ -15729,20 +15829,25 @@
       <c r="T20" s="12"/>
       <c r="U20" s="12"/>
       <c r="V20" s="12"/>
-      <c r="W20" s="18">
+      <c r="W20" s="12"/>
+      <c r="X20" s="12"/>
+      <c r="Y20" s="12"/>
+      <c r="Z20" s="12"/>
+      <c r="AA20" s="12"/>
+      <c r="AB20" s="18">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="X20" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Y20" s="20" t="str">
+      <c r="AC20" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD20" s="20" t="str">
         <f t="shared" si="5"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="21" hidden="1" customHeight="1" spans="1:25">
+    <row r="21" hidden="1" customHeight="1" spans="1:30">
       <c r="A21" s="12">
         <v>17</v>
       </c>
@@ -15780,20 +15885,25 @@
       <c r="T21" s="12"/>
       <c r="U21" s="12"/>
       <c r="V21" s="12"/>
-      <c r="W21" s="18">
+      <c r="W21" s="12"/>
+      <c r="X21" s="12"/>
+      <c r="Y21" s="12"/>
+      <c r="Z21" s="12"/>
+      <c r="AA21" s="12"/>
+      <c r="AB21" s="18">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="X21" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Y21" s="20" t="str">
+      <c r="AC21" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD21" s="20" t="str">
         <f t="shared" si="5"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="22" hidden="1" customHeight="1" spans="1:26">
+    <row r="22" hidden="1" customHeight="1" spans="1:31">
       <c r="A22" s="12">
         <v>18</v>
       </c>
@@ -15831,21 +15941,26 @@
       <c r="T22" s="12"/>
       <c r="U22" s="12"/>
       <c r="V22" s="12"/>
-      <c r="W22" s="18">
+      <c r="W22" s="12"/>
+      <c r="X22" s="12"/>
+      <c r="Y22" s="12"/>
+      <c r="Z22" s="12"/>
+      <c r="AA22" s="12"/>
+      <c r="AB22" s="18">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="X22" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Y22" s="20" t="str">
+      <c r="AC22" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD22" s="20" t="str">
         <f t="shared" si="5"/>
         <v>完成</v>
       </c>
-      <c r="Z22" s="21"/>
-    </row>
-    <row r="23" hidden="1" customHeight="1" spans="1:25">
+      <c r="AE22" s="21"/>
+    </row>
+    <row r="23" hidden="1" customHeight="1" spans="1:30">
       <c r="A23" s="12">
         <v>19</v>
       </c>
@@ -15883,20 +15998,25 @@
       <c r="T23" s="12"/>
       <c r="U23" s="12"/>
       <c r="V23" s="12"/>
-      <c r="W23" s="18">
-        <f t="shared" ref="W23:W29" si="6">SUM(I23:N23)</f>
+      <c r="W23" s="12"/>
+      <c r="X23" s="12"/>
+      <c r="Y23" s="12"/>
+      <c r="Z23" s="12"/>
+      <c r="AA23" s="12"/>
+      <c r="AB23" s="18">
+        <f t="shared" ref="AB23:AB29" si="6">SUM(I23:N23)</f>
         <v>2</v>
       </c>
-      <c r="X23" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Y23" s="20" t="str">
-        <f t="shared" ref="Y23:Y29" si="7">IF(SUM(I23:N23)=C23,"完成",SUM(I23:N23))</f>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="24" hidden="1" customHeight="1" spans="1:25">
+      <c r="AC23" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD23" s="20" t="str">
+        <f t="shared" ref="AD23:AD29" si="7">IF(SUM(I23:N23)=C23,"完成",SUM(I23:N23))</f>
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="24" hidden="1" customHeight="1" spans="1:30">
       <c r="A24" s="12">
         <v>20</v>
       </c>
@@ -15934,20 +16054,25 @@
       <c r="T24" s="12"/>
       <c r="U24" s="12"/>
       <c r="V24" s="12"/>
-      <c r="W24" s="18">
+      <c r="W24" s="12"/>
+      <c r="X24" s="12"/>
+      <c r="Y24" s="12"/>
+      <c r="Z24" s="12"/>
+      <c r="AA24" s="12"/>
+      <c r="AB24" s="18">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="X24" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Y24" s="20" t="str">
+      <c r="AC24" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD24" s="20" t="str">
         <f t="shared" si="7"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="25" hidden="1" customHeight="1" spans="1:25">
+    <row r="25" hidden="1" customHeight="1" spans="1:30">
       <c r="A25" s="12">
         <v>21</v>
       </c>
@@ -15985,20 +16110,25 @@
       <c r="T25" s="12"/>
       <c r="U25" s="12"/>
       <c r="V25" s="12"/>
-      <c r="W25" s="18">
+      <c r="W25" s="12"/>
+      <c r="X25" s="12"/>
+      <c r="Y25" s="12"/>
+      <c r="Z25" s="12"/>
+      <c r="AA25" s="12"/>
+      <c r="AB25" s="18">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="X25" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Y25" s="20" t="str">
+      <c r="AC25" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD25" s="20" t="str">
         <f t="shared" si="7"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="26" hidden="1" customHeight="1" spans="1:25">
+    <row r="26" hidden="1" customHeight="1" spans="1:30">
       <c r="A26" s="12">
         <v>22</v>
       </c>
@@ -16036,20 +16166,25 @@
       <c r="T26" s="12"/>
       <c r="U26" s="12"/>
       <c r="V26" s="12"/>
-      <c r="W26" s="18">
+      <c r="W26" s="12"/>
+      <c r="X26" s="12"/>
+      <c r="Y26" s="12"/>
+      <c r="Z26" s="12"/>
+      <c r="AA26" s="12"/>
+      <c r="AB26" s="18">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="X26" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Y26" s="20" t="str">
+      <c r="AC26" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD26" s="20" t="str">
         <f t="shared" si="7"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="27" hidden="1" customHeight="1" spans="1:25">
+    <row r="27" hidden="1" customHeight="1" spans="1:30">
       <c r="A27" s="12">
         <v>23</v>
       </c>
@@ -16087,20 +16222,25 @@
       <c r="T27" s="12"/>
       <c r="U27" s="12"/>
       <c r="V27" s="12"/>
-      <c r="W27" s="18">
+      <c r="W27" s="12"/>
+      <c r="X27" s="12"/>
+      <c r="Y27" s="12"/>
+      <c r="Z27" s="12"/>
+      <c r="AA27" s="12"/>
+      <c r="AB27" s="18">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="X27" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Y27" s="20" t="str">
+      <c r="AC27" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD27" s="20" t="str">
         <f t="shared" si="7"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="28" hidden="1" customHeight="1" spans="1:25">
+    <row r="28" hidden="1" customHeight="1" spans="1:30">
       <c r="A28" s="12">
         <v>24</v>
       </c>
@@ -16138,20 +16278,25 @@
       <c r="T28" s="12"/>
       <c r="U28" s="12"/>
       <c r="V28" s="12"/>
-      <c r="W28" s="18">
+      <c r="W28" s="12"/>
+      <c r="X28" s="12"/>
+      <c r="Y28" s="12"/>
+      <c r="Z28" s="12"/>
+      <c r="AA28" s="12"/>
+      <c r="AB28" s="18">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="X28" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Y28" s="20" t="str">
+      <c r="AC28" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD28" s="20" t="str">
         <f t="shared" si="7"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="29" hidden="1" customHeight="1" spans="1:25">
+    <row r="29" hidden="1" customHeight="1" spans="1:30">
       <c r="A29" s="12">
         <v>25</v>
       </c>
@@ -16189,20 +16334,25 @@
       <c r="T29" s="12"/>
       <c r="U29" s="12"/>
       <c r="V29" s="12"/>
-      <c r="W29" s="18">
+      <c r="W29" s="12"/>
+      <c r="X29" s="12"/>
+      <c r="Y29" s="12"/>
+      <c r="Z29" s="12"/>
+      <c r="AA29" s="12"/>
+      <c r="AB29" s="18">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="X29" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Y29" s="20" t="str">
+      <c r="AC29" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD29" s="20" t="str">
         <f t="shared" si="7"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="30" hidden="1" customHeight="1" spans="1:25">
+    <row r="30" hidden="1" customHeight="1" spans="1:30">
       <c r="A30" s="12">
         <v>26</v>
       </c>
@@ -16240,20 +16390,25 @@
       <c r="T30" s="12"/>
       <c r="U30" s="12"/>
       <c r="V30" s="12"/>
-      <c r="W30" s="18">
-        <f t="shared" ref="W30:W43" si="8">SUM(I30:V30)</f>
+      <c r="W30" s="12"/>
+      <c r="X30" s="12"/>
+      <c r="Y30" s="12"/>
+      <c r="Z30" s="12"/>
+      <c r="AA30" s="12"/>
+      <c r="AB30" s="18">
+        <f t="shared" ref="AB30:AB43" si="8">SUM(I30:AA30)</f>
         <v>2</v>
       </c>
-      <c r="X30" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Y30" s="20" t="str">
-        <f t="shared" ref="Y30:Y43" si="9">IF(SUM(I30:V30)=C30,"完成",SUM(I30:V30))</f>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="31" hidden="1" customHeight="1" spans="1:25">
+      <c r="AC30" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD30" s="20" t="str">
+        <f t="shared" ref="AD30:AD43" si="9">IF(SUM(I30:AA30)=C30,"完成",SUM(I30:AA30))</f>
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="31" hidden="1" customHeight="1" spans="1:30">
       <c r="A31" s="12">
         <v>27</v>
       </c>
@@ -16291,20 +16446,25 @@
       <c r="T31" s="12"/>
       <c r="U31" s="12"/>
       <c r="V31" s="12"/>
-      <c r="W31" s="18">
+      <c r="W31" s="12"/>
+      <c r="X31" s="12"/>
+      <c r="Y31" s="12"/>
+      <c r="Z31" s="12"/>
+      <c r="AA31" s="12"/>
+      <c r="AB31" s="18">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="X31" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Y31" s="20" t="str">
+      <c r="AC31" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD31" s="20" t="str">
         <f t="shared" si="9"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="32" hidden="1" customHeight="1" spans="1:25">
+    <row r="32" hidden="1" customHeight="1" spans="1:30">
       <c r="A32" s="12">
         <v>28</v>
       </c>
@@ -16342,20 +16502,25 @@
       <c r="T32" s="12"/>
       <c r="U32" s="12"/>
       <c r="V32" s="12"/>
-      <c r="W32" s="18">
+      <c r="W32" s="12"/>
+      <c r="X32" s="12"/>
+      <c r="Y32" s="12"/>
+      <c r="Z32" s="12"/>
+      <c r="AA32" s="12"/>
+      <c r="AB32" s="18">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="X32" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Y32" s="20" t="str">
+      <c r="AC32" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD32" s="20" t="str">
         <f t="shared" si="9"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="33" hidden="1" customHeight="1" spans="1:25">
+    <row r="33" hidden="1" customHeight="1" spans="1:30">
       <c r="A33" s="12">
         <v>29</v>
       </c>
@@ -16393,20 +16558,25 @@
       <c r="T33" s="12"/>
       <c r="U33" s="12"/>
       <c r="V33" s="12"/>
-      <c r="W33" s="18">
+      <c r="W33" s="12"/>
+      <c r="X33" s="12"/>
+      <c r="Y33" s="12"/>
+      <c r="Z33" s="12"/>
+      <c r="AA33" s="12"/>
+      <c r="AB33" s="18">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="X33" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Y33" s="20" t="str">
+      <c r="AC33" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD33" s="20" t="str">
         <f t="shared" si="9"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="34" hidden="1" customHeight="1" spans="1:25">
+    <row r="34" hidden="1" customHeight="1" spans="1:30">
       <c r="A34" s="12">
         <v>30</v>
       </c>
@@ -16444,20 +16614,25 @@
       <c r="T34" s="12"/>
       <c r="U34" s="12"/>
       <c r="V34" s="12"/>
-      <c r="W34" s="18">
+      <c r="W34" s="12"/>
+      <c r="X34" s="12"/>
+      <c r="Y34" s="12"/>
+      <c r="Z34" s="12"/>
+      <c r="AA34" s="12"/>
+      <c r="AB34" s="18">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="X34" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Y34" s="20" t="str">
+      <c r="AC34" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD34" s="20" t="str">
         <f t="shared" si="9"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="35" hidden="1" customHeight="1" spans="1:25">
+    <row r="35" hidden="1" customHeight="1" spans="1:30">
       <c r="A35" s="12">
         <v>31</v>
       </c>
@@ -16495,20 +16670,25 @@
       <c r="T35" s="12"/>
       <c r="U35" s="12"/>
       <c r="V35" s="12"/>
-      <c r="W35" s="18">
+      <c r="W35" s="12"/>
+      <c r="X35" s="12"/>
+      <c r="Y35" s="12"/>
+      <c r="Z35" s="12"/>
+      <c r="AA35" s="12"/>
+      <c r="AB35" s="18">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="X35" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Y35" s="20" t="str">
+      <c r="AC35" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD35" s="20" t="str">
         <f t="shared" si="9"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="36" hidden="1" customHeight="1" spans="1:25">
+    <row r="36" hidden="1" customHeight="1" spans="1:30">
       <c r="A36" s="12">
         <v>32</v>
       </c>
@@ -16546,20 +16726,25 @@
       <c r="T36" s="12"/>
       <c r="U36" s="12"/>
       <c r="V36" s="12"/>
-      <c r="W36" s="18">
+      <c r="W36" s="12"/>
+      <c r="X36" s="12"/>
+      <c r="Y36" s="12"/>
+      <c r="Z36" s="12"/>
+      <c r="AA36" s="12"/>
+      <c r="AB36" s="18">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="X36" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Y36" s="20" t="str">
+      <c r="AC36" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD36" s="20" t="str">
         <f t="shared" si="9"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="37" customHeight="1" spans="1:25">
+    <row r="37" customHeight="1" spans="1:30">
       <c r="A37" s="12">
         <v>33</v>
       </c>
@@ -16597,20 +16782,25 @@
       </c>
       <c r="U37" s="12"/>
       <c r="V37" s="12"/>
-      <c r="W37" s="18">
+      <c r="W37" s="12"/>
+      <c r="X37" s="12"/>
+      <c r="Y37" s="12"/>
+      <c r="Z37" s="12"/>
+      <c r="AA37" s="12"/>
+      <c r="AB37" s="18">
         <f t="shared" si="8"/>
         <v>4</v>
       </c>
-      <c r="X37" s="18">
+      <c r="AC37" s="18">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="Y37" s="20">
+      <c r="AD37" s="20">
         <f t="shared" si="9"/>
         <v>4</v>
       </c>
     </row>
-    <row r="38" customHeight="1" spans="1:25">
+    <row r="38" customHeight="1" spans="1:30">
       <c r="A38" s="12">
         <v>34</v>
       </c>
@@ -16646,20 +16836,25 @@
       <c r="T38" s="12"/>
       <c r="U38" s="12"/>
       <c r="V38" s="12"/>
-      <c r="W38" s="18">
+      <c r="W38" s="12"/>
+      <c r="X38" s="12"/>
+      <c r="Y38" s="12"/>
+      <c r="Z38" s="12"/>
+      <c r="AA38" s="12"/>
+      <c r="AB38" s="18">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X38" s="18">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="Y38" s="20">
+      <c r="AC38" s="18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AD38" s="20">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" customHeight="1" spans="1:25">
+    <row r="39" customHeight="1" spans="1:30">
       <c r="A39" s="12">
         <v>35</v>
       </c>
@@ -16695,20 +16890,25 @@
       <c r="T39" s="12"/>
       <c r="U39" s="12"/>
       <c r="V39" s="12"/>
-      <c r="W39" s="18">
+      <c r="W39" s="12"/>
+      <c r="X39" s="12"/>
+      <c r="Y39" s="12"/>
+      <c r="Z39" s="12"/>
+      <c r="AA39" s="12"/>
+      <c r="AB39" s="18">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X39" s="18">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="Y39" s="20">
+      <c r="AC39" s="18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AD39" s="20">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" customHeight="1" spans="1:25">
+    <row r="40" customHeight="1" spans="1:30">
       <c r="A40" s="12">
         <v>36</v>
       </c>
@@ -16744,20 +16944,25 @@
       <c r="T40" s="12"/>
       <c r="U40" s="12"/>
       <c r="V40" s="12"/>
-      <c r="W40" s="18">
+      <c r="W40" s="12"/>
+      <c r="X40" s="12"/>
+      <c r="Y40" s="12"/>
+      <c r="Z40" s="12"/>
+      <c r="AA40" s="12"/>
+      <c r="AB40" s="18">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X40" s="18">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="Y40" s="20">
+      <c r="AC40" s="18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AD40" s="20">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="41" customHeight="1" spans="1:25">
+    <row r="41" customHeight="1" spans="1:30">
       <c r="A41" s="12">
         <v>37</v>
       </c>
@@ -16793,20 +16998,25 @@
       <c r="T41" s="12"/>
       <c r="U41" s="12"/>
       <c r="V41" s="12"/>
-      <c r="W41" s="18">
+      <c r="W41" s="12"/>
+      <c r="X41" s="12"/>
+      <c r="Y41" s="12"/>
+      <c r="Z41" s="12"/>
+      <c r="AA41" s="12"/>
+      <c r="AB41" s="18">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X41" s="18">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="Y41" s="20">
+      <c r="AC41" s="18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AD41" s="20">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" customHeight="1" spans="1:25">
+    <row r="42" customHeight="1" spans="1:30">
       <c r="A42" s="12">
         <v>38</v>
       </c>
@@ -16842,20 +17052,25 @@
       <c r="T42" s="12"/>
       <c r="U42" s="12"/>
       <c r="V42" s="12"/>
-      <c r="W42" s="18">
+      <c r="W42" s="12"/>
+      <c r="X42" s="12"/>
+      <c r="Y42" s="12"/>
+      <c r="Z42" s="12"/>
+      <c r="AA42" s="12"/>
+      <c r="AB42" s="18">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X42" s="18">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="Y42" s="20">
+      <c r="AC42" s="18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AD42" s="20">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="43" customHeight="1" spans="1:25">
+    <row r="43" customHeight="1" spans="1:30">
       <c r="A43" s="12">
         <v>39</v>
       </c>
@@ -16891,20 +17106,25 @@
       <c r="T43" s="12"/>
       <c r="U43" s="12"/>
       <c r="V43" s="12"/>
-      <c r="W43" s="18">
+      <c r="W43" s="12"/>
+      <c r="X43" s="12"/>
+      <c r="Y43" s="12"/>
+      <c r="Z43" s="12"/>
+      <c r="AA43" s="12"/>
+      <c r="AB43" s="18">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X43" s="18">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="Y43" s="20">
+      <c r="AC43" s="18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AD43" s="20">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="44" hidden="1" customHeight="1" spans="1:25">
+    <row r="44" hidden="1" customHeight="1" spans="1:30">
       <c r="A44" s="12">
         <v>40</v>
       </c>
@@ -16942,20 +17162,25 @@
       <c r="T44" s="12"/>
       <c r="U44" s="12"/>
       <c r="V44" s="12"/>
-      <c r="W44" s="18">
+      <c r="W44" s="12"/>
+      <c r="X44" s="12"/>
+      <c r="Y44" s="12"/>
+      <c r="Z44" s="12"/>
+      <c r="AA44" s="12"/>
+      <c r="AB44" s="18">
         <f>SUM(I44:N44)</f>
         <v>4</v>
       </c>
-      <c r="X44" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Y44" s="20" t="str">
+      <c r="AC44" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD44" s="20" t="str">
         <f>IF(SUM(I44:N44)=C44,"完成",SUM(I44:N44))</f>
         <v>完成</v>
       </c>
     </row>
-    <row r="45" hidden="1" customHeight="1" spans="1:25">
+    <row r="45" hidden="1" customHeight="1" spans="1:30">
       <c r="A45" s="12">
         <v>41</v>
       </c>
@@ -16993,20 +17218,25 @@
       <c r="T45" s="12"/>
       <c r="U45" s="12"/>
       <c r="V45" s="12"/>
-      <c r="W45" s="18">
+      <c r="W45" s="12"/>
+      <c r="X45" s="12"/>
+      <c r="Y45" s="12"/>
+      <c r="Z45" s="12"/>
+      <c r="AA45" s="12"/>
+      <c r="AB45" s="18">
         <f>SUM(I45:N45)</f>
         <v>1</v>
       </c>
-      <c r="X45" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Y45" s="20" t="str">
+      <c r="AC45" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD45" s="20" t="str">
         <f>IF(SUM(I45:N45)=C45,"完成",SUM(I45:N45))</f>
         <v>完成</v>
       </c>
     </row>
-    <row r="46" hidden="1" customHeight="1" spans="1:25">
+    <row r="46" hidden="1" customHeight="1" spans="1:30">
       <c r="A46" s="12">
         <v>42</v>
       </c>
@@ -17044,20 +17274,25 @@
       <c r="T46" s="12"/>
       <c r="U46" s="12"/>
       <c r="V46" s="12"/>
-      <c r="W46" s="18">
+      <c r="W46" s="12"/>
+      <c r="X46" s="12"/>
+      <c r="Y46" s="12"/>
+      <c r="Z46" s="12"/>
+      <c r="AA46" s="12"/>
+      <c r="AB46" s="18">
         <f>SUM(I46:N46)</f>
         <v>1</v>
       </c>
-      <c r="X46" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Y46" s="20" t="str">
+      <c r="AC46" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD46" s="20" t="str">
         <f>IF(SUM(I46:N46)=C46,"完成",SUM(I46:N46))</f>
         <v>完成</v>
       </c>
     </row>
-    <row r="47" hidden="1" customHeight="1" spans="1:25">
+    <row r="47" hidden="1" customHeight="1" spans="1:30">
       <c r="A47" s="12">
         <v>43</v>
       </c>
@@ -17095,20 +17330,25 @@
       <c r="T47" s="12"/>
       <c r="U47" s="12"/>
       <c r="V47" s="12"/>
-      <c r="W47" s="18">
+      <c r="W47" s="12"/>
+      <c r="X47" s="12"/>
+      <c r="Y47" s="12"/>
+      <c r="Z47" s="12"/>
+      <c r="AA47" s="12"/>
+      <c r="AB47" s="18">
         <f>SUM(I47:N47)</f>
         <v>1</v>
       </c>
-      <c r="X47" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Y47" s="20" t="str">
+      <c r="AC47" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD47" s="20" t="str">
         <f>IF(SUM(I47:N47)=C47,"完成",SUM(I47:N47))</f>
         <v>完成</v>
       </c>
     </row>
-    <row r="48" customHeight="1" spans="1:25">
+    <row r="48" customHeight="1" spans="1:30">
       <c r="A48" s="12">
         <v>44</v>
       </c>
@@ -17144,20 +17384,25 @@
       <c r="T48" s="12"/>
       <c r="U48" s="12"/>
       <c r="V48" s="12"/>
-      <c r="W48" s="18">
-        <f t="shared" ref="W48:W58" si="10">SUM(I48:V48)</f>
-        <v>0</v>
-      </c>
-      <c r="X48" s="18">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="Y48" s="20">
-        <f t="shared" ref="Y48:Y58" si="11">IF(SUM(I48:V48)=C48,"完成",SUM(I48:V48))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" customHeight="1" spans="1:25">
+      <c r="W48" s="12"/>
+      <c r="X48" s="12"/>
+      <c r="Y48" s="12"/>
+      <c r="Z48" s="12"/>
+      <c r="AA48" s="12"/>
+      <c r="AB48" s="18">
+        <f t="shared" ref="AB48:AB58" si="10">SUM(I48:AA48)</f>
+        <v>0</v>
+      </c>
+      <c r="AC48" s="18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AD48" s="20">
+        <f t="shared" ref="AD48:AD58" si="11">IF(SUM(I48:AA48)=C48,"完成",SUM(I48:AA48))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" spans="1:30">
       <c r="A49" s="12">
         <v>45</v>
       </c>
@@ -17192,21 +17437,28 @@
       <c r="S49" s="12"/>
       <c r="T49" s="12"/>
       <c r="U49" s="12"/>
-      <c r="V49" s="12"/>
-      <c r="W49" s="18">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="X49" s="18">
-        <f t="shared" si="1"/>
+      <c r="V49" s="12">
         <v>4</v>
       </c>
-      <c r="Y49" s="20">
+      <c r="W49" s="12"/>
+      <c r="X49" s="12"/>
+      <c r="Y49" s="12"/>
+      <c r="Z49" s="12"/>
+      <c r="AA49" s="12"/>
+      <c r="AB49" s="18">
+        <f>SUM(I49:AA49)</f>
+        <v>4</v>
+      </c>
+      <c r="AC49" s="18">
+        <f>C49-AB49</f>
+        <v>0</v>
+      </c>
+      <c r="AD49" s="20" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" hidden="1" customHeight="1" spans="1:25">
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="50" hidden="1" customHeight="1" spans="1:30">
       <c r="A50" s="12">
         <v>46</v>
       </c>
@@ -17244,20 +17496,25 @@
         <v>1</v>
       </c>
       <c r="V50" s="12"/>
-      <c r="W50" s="18">
+      <c r="W50" s="12"/>
+      <c r="X50" s="12"/>
+      <c r="Y50" s="12"/>
+      <c r="Z50" s="12"/>
+      <c r="AA50" s="12"/>
+      <c r="AB50" s="18">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="X50" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Y50" s="20" t="str">
+      <c r="AC50" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD50" s="20" t="str">
         <f t="shared" si="11"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="51" hidden="1" customHeight="1" spans="1:25">
+    <row r="51" hidden="1" customHeight="1" spans="1:30">
       <c r="A51" s="12">
         <v>47</v>
       </c>
@@ -17295,20 +17552,25 @@
         <v>1</v>
       </c>
       <c r="V51" s="12"/>
-      <c r="W51" s="18">
+      <c r="W51" s="12"/>
+      <c r="X51" s="12"/>
+      <c r="Y51" s="12"/>
+      <c r="Z51" s="12"/>
+      <c r="AA51" s="12"/>
+      <c r="AB51" s="18">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="X51" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Y51" s="20" t="str">
+      <c r="AC51" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD51" s="20" t="str">
         <f t="shared" si="11"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="52" hidden="1" customHeight="1" spans="1:25">
+    <row r="52" hidden="1" customHeight="1" spans="1:30">
       <c r="A52" s="12">
         <v>48</v>
       </c>
@@ -17346,20 +17608,25 @@
         <v>1</v>
       </c>
       <c r="V52" s="12"/>
-      <c r="W52" s="18">
+      <c r="W52" s="12"/>
+      <c r="X52" s="12"/>
+      <c r="Y52" s="12"/>
+      <c r="Z52" s="12"/>
+      <c r="AA52" s="12"/>
+      <c r="AB52" s="18">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="X52" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Y52" s="20" t="str">
+      <c r="AC52" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD52" s="20" t="str">
         <f t="shared" si="11"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="53" hidden="1" customHeight="1" spans="1:25">
+    <row r="53" hidden="1" customHeight="1" spans="1:30">
       <c r="A53" s="12">
         <v>49</v>
       </c>
@@ -17397,20 +17664,25 @@
         <v>1</v>
       </c>
       <c r="V53" s="12"/>
-      <c r="W53" s="18">
+      <c r="W53" s="12"/>
+      <c r="X53" s="12"/>
+      <c r="Y53" s="12"/>
+      <c r="Z53" s="12"/>
+      <c r="AA53" s="12"/>
+      <c r="AB53" s="18">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="X53" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Y53" s="20" t="str">
+      <c r="AC53" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD53" s="20" t="str">
         <f t="shared" si="11"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="54" customHeight="1" spans="1:25">
+    <row r="54" customHeight="1" spans="1:30">
       <c r="A54" s="12">
         <v>50</v>
       </c>
@@ -17446,20 +17718,25 @@
       <c r="T54" s="12"/>
       <c r="U54" s="12"/>
       <c r="V54" s="12"/>
-      <c r="W54" s="18">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="X54" s="18">
+      <c r="W54" s="12"/>
+      <c r="X54" s="12"/>
+      <c r="Y54" s="12"/>
+      <c r="Z54" s="12"/>
+      <c r="AA54" s="12"/>
+      <c r="AB54" s="18">
+        <f>SUM(I54:AA54)</f>
+        <v>0</v>
+      </c>
+      <c r="AC54" s="18">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="Y54" s="20">
+      <c r="AD54" s="20">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="55" customHeight="1" spans="1:25">
+    <row r="55" customHeight="1" spans="1:30">
       <c r="A55" s="12">
         <v>51</v>
       </c>
@@ -17492,22 +17769,28 @@
       <c r="Q55" s="12"/>
       <c r="R55" s="12"/>
       <c r="S55" s="12"/>
+      <c r="T55" s="28"/>
       <c r="U55" s="12"/>
       <c r="V55" s="12"/>
-      <c r="W55" s="18">
+      <c r="W55" s="12"/>
+      <c r="X55" s="12"/>
+      <c r="Y55" s="12"/>
+      <c r="Z55" s="12"/>
+      <c r="AA55" s="12"/>
+      <c r="AB55" s="18">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="X55" s="18">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="Y55" s="20">
+      <c r="AC55" s="18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AD55" s="20">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="56" customHeight="1" spans="1:25">
+    <row r="56" customHeight="1" spans="1:30">
       <c r="A56" s="12">
         <v>52</v>
       </c>
@@ -17540,22 +17823,28 @@
       <c r="Q56" s="12"/>
       <c r="R56" s="12"/>
       <c r="S56" s="12"/>
+      <c r="T56" s="28"/>
       <c r="U56" s="12"/>
       <c r="V56" s="12"/>
-      <c r="W56" s="18">
+      <c r="W56" s="12"/>
+      <c r="X56" s="12"/>
+      <c r="Y56" s="12"/>
+      <c r="Z56" s="12"/>
+      <c r="AA56" s="12"/>
+      <c r="AB56" s="18">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="X56" s="18">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="Y56" s="20">
+      <c r="AC56" s="18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AD56" s="20">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="57" customHeight="1" spans="1:25">
+    <row r="57" customHeight="1" spans="1:30">
       <c r="A57" s="12">
         <v>53</v>
       </c>
@@ -17591,20 +17880,25 @@
       <c r="T57" s="12"/>
       <c r="U57" s="12"/>
       <c r="V57" s="12"/>
-      <c r="W57" s="18">
+      <c r="W57" s="12"/>
+      <c r="X57" s="12"/>
+      <c r="Y57" s="12"/>
+      <c r="Z57" s="12"/>
+      <c r="AA57" s="12"/>
+      <c r="AB57" s="18">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="X57" s="18">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="Y57" s="20">
+      <c r="AC57" s="18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AD57" s="20">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="58" customHeight="1" spans="1:25">
+    <row r="58" customHeight="1" spans="1:30">
       <c r="A58" s="12">
         <v>54</v>
       </c>
@@ -17640,20 +17934,25 @@
       <c r="T58" s="12"/>
       <c r="U58" s="12"/>
       <c r="V58" s="12"/>
-      <c r="W58" s="18">
+      <c r="W58" s="12"/>
+      <c r="X58" s="12"/>
+      <c r="Y58" s="12"/>
+      <c r="Z58" s="12"/>
+      <c r="AA58" s="12"/>
+      <c r="AB58" s="18">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="X58" s="18">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="Y58" s="20">
+      <c r="AC58" s="18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AD58" s="20">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="59" hidden="1" customHeight="1" spans="1:25">
+    <row r="59" hidden="1" customHeight="1" spans="1:30">
       <c r="A59" s="12">
         <v>55</v>
       </c>
@@ -17691,20 +17990,25 @@
       <c r="T59" s="12"/>
       <c r="U59" s="12"/>
       <c r="V59" s="12"/>
-      <c r="W59" s="18">
+      <c r="W59" s="12"/>
+      <c r="X59" s="12"/>
+      <c r="Y59" s="12"/>
+      <c r="Z59" s="12"/>
+      <c r="AA59" s="12"/>
+      <c r="AB59" s="18">
         <f>SUM(I59:N59)</f>
         <v>4</v>
       </c>
-      <c r="X59" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Y59" s="20" t="str">
+      <c r="AC59" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD59" s="20" t="str">
         <f>IF(SUM(I59:N59)=C59,"完成",SUM(I59:N59))</f>
         <v>完成</v>
       </c>
     </row>
-    <row r="60" hidden="1" customHeight="1" spans="1:25">
+    <row r="60" hidden="1" customHeight="1" spans="1:30">
       <c r="A60" s="12">
         <v>56</v>
       </c>
@@ -17742,20 +18046,25 @@
       <c r="T60" s="12"/>
       <c r="U60" s="12"/>
       <c r="V60" s="12"/>
-      <c r="W60" s="18">
+      <c r="W60" s="12"/>
+      <c r="X60" s="12"/>
+      <c r="Y60" s="12"/>
+      <c r="Z60" s="12"/>
+      <c r="AA60" s="12"/>
+      <c r="AB60" s="18">
         <f>SUM(I60:N60)</f>
         <v>1</v>
       </c>
-      <c r="X60" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Y60" s="20" t="str">
+      <c r="AC60" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD60" s="20" t="str">
         <f>IF(SUM(I60:N60)=C60,"完成",SUM(I60:N60))</f>
         <v>完成</v>
       </c>
     </row>
-    <row r="61" hidden="1" customHeight="1" spans="1:25">
+    <row r="61" hidden="1" customHeight="1" spans="1:30">
       <c r="A61" s="12">
         <v>57</v>
       </c>
@@ -17793,20 +18102,25 @@
       <c r="T61" s="12"/>
       <c r="U61" s="12"/>
       <c r="V61" s="12"/>
-      <c r="W61" s="19">
+      <c r="W61" s="12"/>
+      <c r="X61" s="12"/>
+      <c r="Y61" s="12"/>
+      <c r="Z61" s="12"/>
+      <c r="AA61" s="12"/>
+      <c r="AB61" s="19">
         <f>SUM(I61:N61)</f>
         <v>1</v>
       </c>
-      <c r="X61" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Y61" s="20" t="str">
+      <c r="AC61" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD61" s="20" t="str">
         <f>IF(SUM(I61:N61)=C61,"完成",SUM(I61:N61))</f>
         <v>完成</v>
       </c>
     </row>
-    <row r="62" hidden="1" customHeight="1" spans="1:25">
+    <row r="62" hidden="1" customHeight="1" spans="1:30">
       <c r="A62" s="12">
         <v>58</v>
       </c>
@@ -17844,20 +18158,25 @@
       <c r="T62" s="12"/>
       <c r="U62" s="12"/>
       <c r="V62" s="12"/>
-      <c r="W62" s="18">
+      <c r="W62" s="12"/>
+      <c r="X62" s="12"/>
+      <c r="Y62" s="12"/>
+      <c r="Z62" s="12"/>
+      <c r="AA62" s="12"/>
+      <c r="AB62" s="18">
         <f>SUM(I62:N62)</f>
         <v>1</v>
       </c>
-      <c r="X62" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Y62" s="20" t="str">
+      <c r="AC62" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD62" s="20" t="str">
         <f>IF(SUM(I62:N62)=C62,"完成",SUM(I62:N62))</f>
         <v>完成</v>
       </c>
     </row>
-    <row r="63" hidden="1" customHeight="1" spans="1:25">
+    <row r="63" hidden="1" customHeight="1" spans="1:30">
       <c r="A63" s="12">
         <v>59</v>
       </c>
@@ -17895,20 +18214,25 @@
       <c r="T63" s="12"/>
       <c r="U63" s="12"/>
       <c r="V63" s="12"/>
-      <c r="W63" s="18">
+      <c r="W63" s="12"/>
+      <c r="X63" s="12"/>
+      <c r="Y63" s="12"/>
+      <c r="Z63" s="12"/>
+      <c r="AA63" s="12"/>
+      <c r="AB63" s="18">
         <f>SUM(I63:N63)</f>
         <v>1</v>
       </c>
-      <c r="X63" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Y63" s="20" t="str">
+      <c r="AC63" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD63" s="20" t="str">
         <f>IF(SUM(I63:N63)=C63,"完成",SUM(I63:N63))</f>
         <v>完成</v>
       </c>
     </row>
-    <row r="64" customHeight="1" spans="1:25">
+    <row r="64" customHeight="1" spans="1:30">
       <c r="A64" s="12">
         <v>60</v>
       </c>
@@ -17944,20 +18268,25 @@
       <c r="T64" s="12"/>
       <c r="U64" s="12"/>
       <c r="V64" s="12"/>
-      <c r="W64" s="18">
-        <f t="shared" ref="W64:W73" si="12">SUM(I64:V64)</f>
-        <v>0</v>
-      </c>
-      <c r="X64" s="18">
+      <c r="W64" s="12"/>
+      <c r="X64" s="12"/>
+      <c r="Y64" s="12"/>
+      <c r="Z64" s="12"/>
+      <c r="AA64" s="12"/>
+      <c r="AB64" s="18">
+        <f t="shared" ref="AB64:AB73" si="12">SUM(I64:AA64)</f>
+        <v>0</v>
+      </c>
+      <c r="AC64" s="18">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="Y64" s="20">
-        <f t="shared" ref="Y64:Y73" si="13">IF(SUM(I64:V64)=C64,"完成",SUM(I64:V64))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" hidden="1" customHeight="1" spans="1:25">
+      <c r="AD64" s="20">
+        <f t="shared" ref="AD64:AD73" si="13">IF(SUM(I64:AA64)=C64,"完成",SUM(I64:AA64))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" hidden="1" customHeight="1" spans="1:30">
       <c r="A65" s="12">
         <v>61</v>
       </c>
@@ -17995,20 +18324,25 @@
         <v>1</v>
       </c>
       <c r="V65" s="12"/>
-      <c r="W65" s="18">
+      <c r="W65" s="12"/>
+      <c r="X65" s="12"/>
+      <c r="Y65" s="12"/>
+      <c r="Z65" s="12"/>
+      <c r="AA65" s="12"/>
+      <c r="AB65" s="18">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="X65" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Y65" s="20" t="str">
+      <c r="AC65" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD65" s="20" t="str">
         <f t="shared" si="13"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="66" hidden="1" customHeight="1" spans="1:25">
+    <row r="66" hidden="1" customHeight="1" spans="1:30">
       <c r="A66" s="12">
         <v>62</v>
       </c>
@@ -18046,20 +18380,25 @@
         <v>1</v>
       </c>
       <c r="V66" s="12"/>
-      <c r="W66" s="18">
+      <c r="W66" s="12"/>
+      <c r="X66" s="12"/>
+      <c r="Y66" s="12"/>
+      <c r="Z66" s="12"/>
+      <c r="AA66" s="12"/>
+      <c r="AB66" s="18">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="X66" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Y66" s="20" t="str">
+      <c r="AC66" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD66" s="20" t="str">
         <f t="shared" si="13"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="67" customHeight="1" spans="1:25">
+    <row r="67" customHeight="1" spans="1:30">
       <c r="A67" s="12">
         <v>63</v>
       </c>
@@ -18095,20 +18434,25 @@
       <c r="T67" s="12"/>
       <c r="U67" s="12"/>
       <c r="V67" s="12"/>
-      <c r="W67" s="18">
+      <c r="W67" s="12"/>
+      <c r="X67" s="12"/>
+      <c r="Y67" s="12"/>
+      <c r="Z67" s="12"/>
+      <c r="AA67" s="12"/>
+      <c r="AB67" s="18">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="X67" s="18">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="Y67" s="20">
+      <c r="AC67" s="18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AD67" s="20">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="68" customHeight="1" spans="1:25">
+    <row r="68" customHeight="1" spans="1:30">
       <c r="A68" s="12">
         <v>64</v>
       </c>
@@ -18144,20 +18488,25 @@
       <c r="T68" s="12"/>
       <c r="U68" s="12"/>
       <c r="V68" s="12"/>
-      <c r="W68" s="18">
+      <c r="W68" s="12"/>
+      <c r="X68" s="12"/>
+      <c r="Y68" s="12"/>
+      <c r="Z68" s="12"/>
+      <c r="AA68" s="12"/>
+      <c r="AB68" s="18">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="X68" s="18">
-        <f t="shared" ref="X68:X94" si="14">C68-W68</f>
-        <v>1</v>
-      </c>
-      <c r="Y68" s="20">
+      <c r="AC68" s="18">
+        <f t="shared" ref="AC68:AC94" si="14">C68-AB68</f>
+        <v>1</v>
+      </c>
+      <c r="AD68" s="20">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="69" customHeight="1" spans="1:25">
+    <row r="69" customHeight="1" spans="1:30">
       <c r="A69" s="12">
         <v>65</v>
       </c>
@@ -18193,20 +18542,25 @@
       <c r="T69" s="12"/>
       <c r="U69" s="12"/>
       <c r="V69" s="12"/>
-      <c r="W69" s="18">
+      <c r="W69" s="12"/>
+      <c r="X69" s="12"/>
+      <c r="Y69" s="12"/>
+      <c r="Z69" s="12"/>
+      <c r="AA69" s="12"/>
+      <c r="AB69" s="18">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="X69" s="18">
+      <c r="AC69" s="18">
         <f t="shared" si="14"/>
         <v>4</v>
       </c>
-      <c r="Y69" s="20">
+      <c r="AD69" s="20">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="70" customHeight="1" spans="1:25">
+    <row r="70" customHeight="1" spans="1:30">
       <c r="A70" s="12">
         <v>66</v>
       </c>
@@ -18242,20 +18596,25 @@
       <c r="T70" s="12"/>
       <c r="U70" s="12"/>
       <c r="V70" s="12"/>
-      <c r="W70" s="18">
+      <c r="W70" s="12"/>
+      <c r="X70" s="12"/>
+      <c r="Y70" s="12"/>
+      <c r="Z70" s="12"/>
+      <c r="AA70" s="12"/>
+      <c r="AB70" s="18">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="X70" s="18">
+      <c r="AC70" s="18">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="Y70" s="20">
+      <c r="AD70" s="20">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="71" customHeight="1" spans="1:25">
+    <row r="71" customHeight="1" spans="1:30">
       <c r="A71" s="12">
         <v>67</v>
       </c>
@@ -18291,20 +18650,25 @@
       <c r="T71" s="12"/>
       <c r="U71" s="12"/>
       <c r="V71" s="12"/>
-      <c r="W71" s="18">
+      <c r="W71" s="12"/>
+      <c r="X71" s="12"/>
+      <c r="Y71" s="12"/>
+      <c r="Z71" s="12"/>
+      <c r="AA71" s="12"/>
+      <c r="AB71" s="18">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="X71" s="18">
+      <c r="AC71" s="18">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="Y71" s="20">
+      <c r="AD71" s="20">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="72" customHeight="1" spans="1:25">
+    <row r="72" customHeight="1" spans="1:30">
       <c r="A72" s="12">
         <v>68</v>
       </c>
@@ -18340,20 +18704,25 @@
       <c r="T72" s="12"/>
       <c r="U72" s="12"/>
       <c r="V72" s="12"/>
-      <c r="W72" s="18">
+      <c r="W72" s="12"/>
+      <c r="X72" s="12"/>
+      <c r="Y72" s="12"/>
+      <c r="Z72" s="12"/>
+      <c r="AA72" s="12"/>
+      <c r="AB72" s="18">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="X72" s="18">
+      <c r="AC72" s="18">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="Y72" s="20">
+      <c r="AD72" s="20">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="73" customHeight="1" spans="1:25">
+    <row r="73" customHeight="1" spans="1:30">
       <c r="A73" s="12">
         <v>69</v>
       </c>
@@ -18389,20 +18758,25 @@
       <c r="T73" s="12"/>
       <c r="U73" s="12"/>
       <c r="V73" s="12"/>
-      <c r="W73" s="18">
+      <c r="W73" s="12"/>
+      <c r="X73" s="12"/>
+      <c r="Y73" s="12"/>
+      <c r="Z73" s="12"/>
+      <c r="AA73" s="12"/>
+      <c r="AB73" s="18">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="X73" s="18">
+      <c r="AC73" s="18">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="Y73" s="20">
+      <c r="AD73" s="20">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="74" hidden="1" customHeight="1" spans="1:25">
+    <row r="74" hidden="1" customHeight="1" spans="1:30">
       <c r="A74" s="12">
         <v>70</v>
       </c>
@@ -18440,20 +18814,25 @@
       <c r="T74" s="12"/>
       <c r="U74" s="12"/>
       <c r="V74" s="12"/>
-      <c r="W74" s="18">
+      <c r="W74" s="12"/>
+      <c r="X74" s="12"/>
+      <c r="Y74" s="12"/>
+      <c r="Z74" s="12"/>
+      <c r="AA74" s="12"/>
+      <c r="AB74" s="18">
         <f>SUM(I74:N74)</f>
         <v>2</v>
       </c>
-      <c r="X74" s="18">
+      <c r="AC74" s="18">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Y74" s="20" t="str">
+      <c r="AD74" s="20" t="str">
         <f>IF(SUM(I74:N74)=C74,"完成",SUM(I74:N74))</f>
         <v>完成</v>
       </c>
     </row>
-    <row r="75" hidden="1" customHeight="1" spans="1:25">
+    <row r="75" hidden="1" customHeight="1" spans="1:30">
       <c r="A75" s="12">
         <v>71</v>
       </c>
@@ -18491,20 +18870,25 @@
       <c r="T75" s="12"/>
       <c r="U75" s="12"/>
       <c r="V75" s="12"/>
-      <c r="W75" s="18">
+      <c r="W75" s="12"/>
+      <c r="X75" s="12"/>
+      <c r="Y75" s="12"/>
+      <c r="Z75" s="12"/>
+      <c r="AA75" s="12"/>
+      <c r="AB75" s="18">
         <f>SUM(I75:N75)</f>
         <v>1</v>
       </c>
-      <c r="X75" s="18">
+      <c r="AC75" s="18">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Y75" s="20" t="str">
+      <c r="AD75" s="20" t="str">
         <f>IF(SUM(I75:N75)=C75,"完成",SUM(I75:N75))</f>
         <v>完成</v>
       </c>
     </row>
-    <row r="76" hidden="1" customHeight="1" spans="1:25">
+    <row r="76" hidden="1" customHeight="1" spans="1:30">
       <c r="A76" s="12">
         <v>72</v>
       </c>
@@ -18542,20 +18926,25 @@
       <c r="T76" s="12"/>
       <c r="U76" s="12"/>
       <c r="V76" s="12"/>
-      <c r="W76" s="18">
+      <c r="W76" s="12"/>
+      <c r="X76" s="12"/>
+      <c r="Y76" s="12"/>
+      <c r="Z76" s="12"/>
+      <c r="AA76" s="12"/>
+      <c r="AB76" s="18">
         <f>SUM(I76:N76)</f>
         <v>1</v>
       </c>
-      <c r="X76" s="18">
+      <c r="AC76" s="18">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Y76" s="20" t="str">
+      <c r="AD76" s="20" t="str">
         <f>IF(SUM(I76:N76)=C76,"完成",SUM(I76:N76))</f>
         <v>完成</v>
       </c>
     </row>
-    <row r="77" customHeight="1" spans="1:25">
+    <row r="77" customHeight="1" spans="1:30">
       <c r="A77" s="12">
         <v>73</v>
       </c>
@@ -18591,20 +18980,25 @@
       <c r="T77" s="12"/>
       <c r="U77" s="12"/>
       <c r="V77" s="12"/>
-      <c r="W77" s="18">
-        <f t="shared" ref="W77:W108" si="16">SUM(I77:V77)</f>
-        <v>0</v>
-      </c>
-      <c r="X77" s="18">
+      <c r="W77" s="12"/>
+      <c r="X77" s="12"/>
+      <c r="Y77" s="12"/>
+      <c r="Z77" s="12"/>
+      <c r="AA77" s="12"/>
+      <c r="AB77" s="18">
+        <f t="shared" ref="AB77:AB108" si="16">SUM(I77:AA77)</f>
+        <v>0</v>
+      </c>
+      <c r="AC77" s="18">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="Y77" s="20">
-        <f t="shared" ref="Y77:Y108" si="17">IF(SUM(I77:V77)=C77,"完成",SUM(I77:V77))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" customHeight="1" spans="1:25">
+      <c r="AD77" s="20">
+        <f t="shared" ref="AD77:AD108" si="17">IF(SUM(I77:AA77)=C77,"完成",SUM(I77:AA77))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" customHeight="1" spans="1:30">
       <c r="A78" s="12">
         <v>74</v>
       </c>
@@ -18640,20 +19034,25 @@
       <c r="T78" s="12"/>
       <c r="U78" s="12"/>
       <c r="V78" s="12"/>
-      <c r="W78" s="18">
+      <c r="W78" s="12"/>
+      <c r="X78" s="12"/>
+      <c r="Y78" s="12"/>
+      <c r="Z78" s="12"/>
+      <c r="AA78" s="12"/>
+      <c r="AB78" s="18">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="X78" s="18">
+      <c r="AC78" s="18">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="Y78" s="20">
+      <c r="AD78" s="20">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="79" customHeight="1" spans="1:25">
+    <row r="79" customHeight="1" spans="1:30">
       <c r="A79" s="12">
         <v>75</v>
       </c>
@@ -18689,20 +19088,25 @@
       <c r="T79" s="12"/>
       <c r="U79" s="12"/>
       <c r="V79" s="12"/>
-      <c r="W79" s="18">
+      <c r="W79" s="12"/>
+      <c r="X79" s="12"/>
+      <c r="Y79" s="12"/>
+      <c r="Z79" s="12"/>
+      <c r="AA79" s="12"/>
+      <c r="AB79" s="18">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="X79" s="18">
+      <c r="AC79" s="18">
         <f t="shared" si="14"/>
         <v>2</v>
       </c>
-      <c r="Y79" s="20">
+      <c r="AD79" s="20">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="80" customHeight="1" spans="1:25">
+    <row r="80" customHeight="1" spans="1:30">
       <c r="A80" s="12">
         <v>76</v>
       </c>
@@ -18738,20 +19142,25 @@
       <c r="T80" s="12"/>
       <c r="U80" s="12"/>
       <c r="V80" s="12"/>
-      <c r="W80" s="18">
+      <c r="W80" s="12"/>
+      <c r="X80" s="12"/>
+      <c r="Y80" s="12"/>
+      <c r="Z80" s="12"/>
+      <c r="AA80" s="12"/>
+      <c r="AB80" s="18">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="X80" s="18">
+      <c r="AC80" s="18">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="Y80" s="20">
+      <c r="AD80" s="20">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="81" customHeight="1" spans="1:25">
+    <row r="81" customHeight="1" spans="1:30">
       <c r="A81" s="12">
         <v>77</v>
       </c>
@@ -18787,20 +19196,25 @@
       <c r="T81" s="12"/>
       <c r="U81" s="12"/>
       <c r="V81" s="12"/>
-      <c r="W81" s="18">
+      <c r="W81" s="12"/>
+      <c r="X81" s="12"/>
+      <c r="Y81" s="12"/>
+      <c r="Z81" s="12"/>
+      <c r="AA81" s="12"/>
+      <c r="AB81" s="18">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="X81" s="18">
+      <c r="AC81" s="18">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="Y81" s="20">
+      <c r="AD81" s="20">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="82" customHeight="1" spans="1:25">
+    <row r="82" customHeight="1" spans="1:30">
       <c r="A82" s="12">
         <v>78</v>
       </c>
@@ -18836,20 +19250,25 @@
       <c r="T82" s="12"/>
       <c r="U82" s="12"/>
       <c r="V82" s="12"/>
-      <c r="W82" s="18">
+      <c r="W82" s="12"/>
+      <c r="X82" s="12"/>
+      <c r="Y82" s="12"/>
+      <c r="Z82" s="12"/>
+      <c r="AA82" s="12"/>
+      <c r="AB82" s="18">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="X82" s="18">
+      <c r="AC82" s="18">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="Y82" s="20">
+      <c r="AD82" s="20">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="83" customHeight="1" spans="1:25">
+    <row r="83" customHeight="1" spans="1:30">
       <c r="A83" s="12">
         <v>79</v>
       </c>
@@ -18885,20 +19304,25 @@
       <c r="T83" s="12"/>
       <c r="U83" s="12"/>
       <c r="V83" s="12"/>
-      <c r="W83" s="18">
+      <c r="W83" s="12"/>
+      <c r="X83" s="12"/>
+      <c r="Y83" s="12"/>
+      <c r="Z83" s="12"/>
+      <c r="AA83" s="12"/>
+      <c r="AB83" s="18">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="X83" s="18">
+      <c r="AC83" s="18">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="Y83" s="20">
+      <c r="AD83" s="20">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="84" customHeight="1" spans="1:25">
+    <row r="84" customHeight="1" spans="1:30">
       <c r="A84" s="12">
         <v>80</v>
       </c>
@@ -18934,20 +19358,25 @@
       <c r="T84" s="12"/>
       <c r="U84" s="12"/>
       <c r="V84" s="12"/>
-      <c r="W84" s="18">
+      <c r="W84" s="12"/>
+      <c r="X84" s="12"/>
+      <c r="Y84" s="12"/>
+      <c r="Z84" s="12"/>
+      <c r="AA84" s="12"/>
+      <c r="AB84" s="18">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="X84" s="18">
+      <c r="AC84" s="18">
         <f t="shared" si="14"/>
         <v>2</v>
       </c>
-      <c r="Y84" s="20">
+      <c r="AD84" s="20">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="85" customHeight="1" spans="1:25">
+    <row r="85" customHeight="1" spans="1:30">
       <c r="A85" s="12">
         <v>81</v>
       </c>
@@ -18983,20 +19412,25 @@
       <c r="T85" s="12"/>
       <c r="U85" s="12"/>
       <c r="V85" s="12"/>
-      <c r="W85" s="18">
+      <c r="W85" s="12"/>
+      <c r="X85" s="12"/>
+      <c r="Y85" s="12"/>
+      <c r="Z85" s="12"/>
+      <c r="AA85" s="12"/>
+      <c r="AB85" s="18">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="X85" s="18">
+      <c r="AC85" s="18">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="Y85" s="20">
+      <c r="AD85" s="20">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="86" customHeight="1" spans="1:25">
+    <row r="86" customHeight="1" spans="1:30">
       <c r="A86" s="12">
         <v>82</v>
       </c>
@@ -19032,20 +19466,25 @@
       <c r="T86" s="12"/>
       <c r="U86" s="12"/>
       <c r="V86" s="12"/>
-      <c r="W86" s="18">
+      <c r="W86" s="12"/>
+      <c r="X86" s="12"/>
+      <c r="Y86" s="12"/>
+      <c r="Z86" s="12"/>
+      <c r="AA86" s="12"/>
+      <c r="AB86" s="18">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="X86" s="18">
+      <c r="AC86" s="18">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="Y86" s="20">
+      <c r="AD86" s="20">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="87" customHeight="1" spans="1:25">
+    <row r="87" customHeight="1" spans="1:30">
       <c r="A87" s="12">
         <v>83</v>
       </c>
@@ -19081,20 +19520,25 @@
       <c r="T87" s="12"/>
       <c r="U87" s="12"/>
       <c r="V87" s="12"/>
-      <c r="W87" s="18">
+      <c r="W87" s="12"/>
+      <c r="X87" s="12"/>
+      <c r="Y87" s="12"/>
+      <c r="Z87" s="12"/>
+      <c r="AA87" s="12"/>
+      <c r="AB87" s="18">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="X87" s="18">
+      <c r="AC87" s="18">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="Y87" s="20">
+      <c r="AD87" s="20">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="88" customHeight="1" spans="1:25">
+    <row r="88" customHeight="1" spans="1:30">
       <c r="A88" s="12">
         <v>84</v>
       </c>
@@ -19130,20 +19574,25 @@
       <c r="T88" s="12"/>
       <c r="U88" s="12"/>
       <c r="V88" s="12"/>
-      <c r="W88" s="18">
+      <c r="W88" s="12"/>
+      <c r="X88" s="12"/>
+      <c r="Y88" s="12"/>
+      <c r="Z88" s="12"/>
+      <c r="AA88" s="12"/>
+      <c r="AB88" s="18">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="X88" s="18">
+      <c r="AC88" s="18">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="Y88" s="20">
+      <c r="AD88" s="20">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="89" customHeight="1" spans="1:25">
+    <row r="89" customHeight="1" spans="1:30">
       <c r="A89" s="12">
         <v>85</v>
       </c>
@@ -19179,20 +19628,25 @@
       <c r="T89" s="12"/>
       <c r="U89" s="12"/>
       <c r="V89" s="12"/>
-      <c r="W89" s="18">
+      <c r="W89" s="12"/>
+      <c r="X89" s="12"/>
+      <c r="Y89" s="12"/>
+      <c r="Z89" s="12"/>
+      <c r="AA89" s="12"/>
+      <c r="AB89" s="18">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="X89" s="18">
+      <c r="AC89" s="18">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="Y89" s="20">
+      <c r="AD89" s="20">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="90" hidden="1" customHeight="1" spans="1:25">
+    <row r="90" hidden="1" customHeight="1" spans="1:30">
       <c r="A90" s="12">
         <v>86</v>
       </c>
@@ -19230,20 +19684,25 @@
       <c r="T90" s="12"/>
       <c r="U90" s="12"/>
       <c r="V90" s="12"/>
-      <c r="W90" s="18">
+      <c r="W90" s="12"/>
+      <c r="X90" s="12"/>
+      <c r="Y90" s="12"/>
+      <c r="Z90" s="12"/>
+      <c r="AA90" s="12"/>
+      <c r="AB90" s="18">
         <f t="shared" si="16"/>
         <v>20</v>
       </c>
-      <c r="X90" s="18">
-        <f t="shared" ref="X90:X121" si="18">C90-W90</f>
-        <v>0</v>
-      </c>
-      <c r="Y90" s="20" t="str">
+      <c r="AC90" s="18">
+        <f t="shared" ref="AC90:AC121" si="18">C90-AB90</f>
+        <v>0</v>
+      </c>
+      <c r="AD90" s="20" t="str">
         <f t="shared" si="17"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="91" customHeight="1" spans="1:25">
+    <row r="91" customHeight="1" spans="1:30">
       <c r="A91" s="12">
         <v>87</v>
       </c>
@@ -19281,20 +19740,25 @@
       <c r="T91" s="12"/>
       <c r="U91" s="12"/>
       <c r="V91" s="12"/>
-      <c r="W91" s="18">
+      <c r="W91" s="12"/>
+      <c r="X91" s="12"/>
+      <c r="Y91" s="12"/>
+      <c r="Z91" s="12"/>
+      <c r="AA91" s="12"/>
+      <c r="AB91" s="18">
         <f t="shared" si="16"/>
         <v>3</v>
       </c>
-      <c r="X91" s="18">
+      <c r="AC91" s="18">
         <f t="shared" si="18"/>
         <v>4</v>
       </c>
-      <c r="Y91" s="20">
+      <c r="AD91" s="20">
         <f t="shared" si="17"/>
         <v>3</v>
       </c>
     </row>
-    <row r="92" hidden="1" customHeight="1" spans="1:25">
+    <row r="92" hidden="1" customHeight="1" spans="1:30">
       <c r="A92" s="12">
         <v>88</v>
       </c>
@@ -19332,20 +19796,25 @@
       </c>
       <c r="U92" s="12"/>
       <c r="V92" s="12"/>
-      <c r="W92" s="18">
+      <c r="W92" s="12"/>
+      <c r="X92" s="12"/>
+      <c r="Y92" s="12"/>
+      <c r="Z92" s="12"/>
+      <c r="AA92" s="12"/>
+      <c r="AB92" s="18">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="X92" s="18">
+      <c r="AC92" s="18">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="Y92" s="20" t="str">
+      <c r="AD92" s="20" t="str">
         <f t="shared" si="17"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="93" hidden="1" customHeight="1" spans="1:25">
+    <row r="93" hidden="1" customHeight="1" spans="1:30">
       <c r="A93" s="12">
         <v>89</v>
       </c>
@@ -19385,20 +19854,25 @@
       </c>
       <c r="U93" s="12"/>
       <c r="V93" s="12"/>
-      <c r="W93" s="18">
+      <c r="W93" s="12"/>
+      <c r="X93" s="12"/>
+      <c r="Y93" s="12"/>
+      <c r="Z93" s="12"/>
+      <c r="AA93" s="12"/>
+      <c r="AB93" s="18">
         <f t="shared" si="16"/>
         <v>2</v>
       </c>
-      <c r="X93" s="18">
+      <c r="AC93" s="18">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="Y93" s="20" t="str">
+      <c r="AD93" s="20" t="str">
         <f t="shared" si="17"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="94" hidden="1" customHeight="1" spans="1:25">
+    <row r="94" hidden="1" customHeight="1" spans="1:30">
       <c r="A94" s="12">
         <v>90</v>
       </c>
@@ -19436,20 +19910,25 @@
       </c>
       <c r="U94" s="12"/>
       <c r="V94" s="12"/>
-      <c r="W94" s="18">
+      <c r="W94" s="12"/>
+      <c r="X94" s="12"/>
+      <c r="Y94" s="12"/>
+      <c r="Z94" s="12"/>
+      <c r="AA94" s="12"/>
+      <c r="AB94" s="18">
         <f t="shared" si="16"/>
         <v>2</v>
       </c>
-      <c r="X94" s="18">
+      <c r="AC94" s="18">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="Y94" s="20" t="str">
+      <c r="AD94" s="20" t="str">
         <f t="shared" si="17"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="95" hidden="1" customHeight="1" spans="1:25">
+    <row r="95" hidden="1" customHeight="1" spans="1:30">
       <c r="A95" s="12">
         <v>91</v>
       </c>
@@ -19487,20 +19966,25 @@
       </c>
       <c r="U95" s="12"/>
       <c r="V95" s="12"/>
-      <c r="W95" s="18">
+      <c r="W95" s="12"/>
+      <c r="X95" s="12"/>
+      <c r="Y95" s="12"/>
+      <c r="Z95" s="12"/>
+      <c r="AA95" s="12"/>
+      <c r="AB95" s="18">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="X95" s="18">
+      <c r="AC95" s="18">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="Y95" s="20" t="str">
+      <c r="AD95" s="20" t="str">
         <f t="shared" si="17"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="96" hidden="1" customHeight="1" spans="1:25">
+    <row r="96" hidden="1" customHeight="1" spans="1:30">
       <c r="A96" s="12">
         <v>92</v>
       </c>
@@ -19538,20 +20022,25 @@
       </c>
       <c r="U96" s="12"/>
       <c r="V96" s="12"/>
-      <c r="W96" s="18">
+      <c r="W96" s="12"/>
+      <c r="X96" s="12"/>
+      <c r="Y96" s="12"/>
+      <c r="Z96" s="12"/>
+      <c r="AA96" s="12"/>
+      <c r="AB96" s="18">
         <f t="shared" si="16"/>
         <v>2</v>
       </c>
-      <c r="X96" s="18">
+      <c r="AC96" s="18">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="Y96" s="20" t="str">
+      <c r="AD96" s="20" t="str">
         <f t="shared" si="17"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="97" hidden="1" customHeight="1" spans="1:25">
+    <row r="97" hidden="1" customHeight="1" spans="1:30">
       <c r="A97" s="12">
         <v>93</v>
       </c>
@@ -19589,20 +20078,25 @@
       </c>
       <c r="U97" s="12"/>
       <c r="V97" s="12"/>
-      <c r="W97" s="18">
+      <c r="W97" s="12"/>
+      <c r="X97" s="12"/>
+      <c r="Y97" s="12"/>
+      <c r="Z97" s="12"/>
+      <c r="AA97" s="12"/>
+      <c r="AB97" s="18">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="X97" s="18">
+      <c r="AC97" s="18">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="Y97" s="20" t="str">
+      <c r="AD97" s="20" t="str">
         <f t="shared" si="17"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="98" hidden="1" customHeight="1" spans="1:25">
+    <row r="98" hidden="1" customHeight="1" spans="1:30">
       <c r="A98" s="12">
         <v>94</v>
       </c>
@@ -19640,20 +20134,25 @@
       </c>
       <c r="U98" s="12"/>
       <c r="V98" s="12"/>
-      <c r="W98" s="18">
+      <c r="W98" s="12"/>
+      <c r="X98" s="12"/>
+      <c r="Y98" s="12"/>
+      <c r="Z98" s="12"/>
+      <c r="AA98" s="12"/>
+      <c r="AB98" s="18">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="X98" s="18">
+      <c r="AC98" s="18">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="Y98" s="20" t="str">
+      <c r="AD98" s="20" t="str">
         <f t="shared" si="17"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="99" customHeight="1" spans="1:25">
+    <row r="99" customHeight="1" spans="1:30">
       <c r="A99" s="12">
         <v>95</v>
       </c>
@@ -19689,20 +20188,25 @@
       <c r="T99" s="12"/>
       <c r="U99" s="12"/>
       <c r="V99" s="12"/>
-      <c r="W99" s="18">
+      <c r="W99" s="12"/>
+      <c r="X99" s="12"/>
+      <c r="Y99" s="12"/>
+      <c r="Z99" s="12"/>
+      <c r="AA99" s="12"/>
+      <c r="AB99" s="18">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="X99" s="18">
+      <c r="AC99" s="18">
         <f t="shared" si="18"/>
         <v>15</v>
       </c>
-      <c r="Y99" s="20">
+      <c r="AD99" s="20">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="100" customHeight="1" spans="1:25">
+    <row r="100" customHeight="1" spans="1:30">
       <c r="A100" s="12">
         <v>96</v>
       </c>
@@ -19738,20 +20242,25 @@
       <c r="T100" s="12"/>
       <c r="U100" s="12"/>
       <c r="V100" s="12"/>
-      <c r="W100" s="18">
+      <c r="W100" s="12"/>
+      <c r="X100" s="12"/>
+      <c r="Y100" s="12"/>
+      <c r="Z100" s="12"/>
+      <c r="AA100" s="12"/>
+      <c r="AB100" s="18">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="X100" s="18">
+      <c r="AC100" s="18">
         <f t="shared" si="18"/>
         <v>4</v>
       </c>
-      <c r="Y100" s="20">
+      <c r="AD100" s="20">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="101" customHeight="1" spans="1:25">
+    <row r="101" customHeight="1" spans="1:30">
       <c r="A101" s="12">
         <v>97</v>
       </c>
@@ -19787,20 +20296,25 @@
       <c r="T101" s="12"/>
       <c r="U101" s="12"/>
       <c r="V101" s="12"/>
-      <c r="W101" s="18">
+      <c r="W101" s="12"/>
+      <c r="X101" s="12"/>
+      <c r="Y101" s="12"/>
+      <c r="Z101" s="12"/>
+      <c r="AA101" s="12"/>
+      <c r="AB101" s="18">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="X101" s="18">
+      <c r="AC101" s="18">
         <f t="shared" si="18"/>
         <v>2</v>
       </c>
-      <c r="Y101" s="20">
+      <c r="AD101" s="20">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="102" customHeight="1" spans="1:25">
+    <row r="102" customHeight="1" spans="1:30">
       <c r="A102" s="12">
         <v>98</v>
       </c>
@@ -19836,20 +20350,25 @@
       <c r="T102" s="12"/>
       <c r="U102" s="12"/>
       <c r="V102" s="12"/>
-      <c r="W102" s="18">
+      <c r="W102" s="12"/>
+      <c r="X102" s="12"/>
+      <c r="Y102" s="12"/>
+      <c r="Z102" s="12"/>
+      <c r="AA102" s="12"/>
+      <c r="AB102" s="18">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="X102" s="18">
+      <c r="AC102" s="18">
         <f t="shared" si="18"/>
         <v>4</v>
       </c>
-      <c r="Y102" s="20">
+      <c r="AD102" s="20">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="103" customHeight="1" spans="1:25">
+    <row r="103" customHeight="1" spans="1:30">
       <c r="A103" s="12">
         <v>99</v>
       </c>
@@ -19885,20 +20404,25 @@
       <c r="T103" s="12"/>
       <c r="U103" s="12"/>
       <c r="V103" s="12"/>
-      <c r="W103" s="18">
+      <c r="W103" s="12"/>
+      <c r="X103" s="12"/>
+      <c r="Y103" s="12"/>
+      <c r="Z103" s="12"/>
+      <c r="AA103" s="12"/>
+      <c r="AB103" s="18">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="X103" s="18">
+      <c r="AC103" s="18">
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="Y103" s="20">
+      <c r="AD103" s="20">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="104" customHeight="1" spans="1:25">
+    <row r="104" customHeight="1" spans="1:30">
       <c r="A104" s="12">
         <v>100</v>
       </c>
@@ -19934,20 +20458,25 @@
       <c r="T104" s="12"/>
       <c r="U104" s="12"/>
       <c r="V104" s="12"/>
-      <c r="W104" s="18">
+      <c r="W104" s="12"/>
+      <c r="X104" s="12"/>
+      <c r="Y104" s="12"/>
+      <c r="Z104" s="12"/>
+      <c r="AA104" s="12"/>
+      <c r="AB104" s="18">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="X104" s="18">
+      <c r="AC104" s="18">
         <f t="shared" si="18"/>
         <v>222</v>
       </c>
-      <c r="Y104" s="20">
+      <c r="AD104" s="20">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="105" customHeight="1" spans="1:25">
+    <row r="105" customHeight="1" spans="1:30">
       <c r="A105" s="12">
         <v>101</v>
       </c>
@@ -19983,20 +20512,25 @@
       <c r="T105" s="12"/>
       <c r="U105" s="12"/>
       <c r="V105" s="12"/>
-      <c r="W105" s="18">
+      <c r="W105" s="12"/>
+      <c r="X105" s="12"/>
+      <c r="Y105" s="12"/>
+      <c r="Z105" s="12"/>
+      <c r="AA105" s="12"/>
+      <c r="AB105" s="18">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="X105" s="18">
+      <c r="AC105" s="18">
         <f t="shared" si="18"/>
         <v>53</v>
       </c>
-      <c r="Y105" s="20">
+      <c r="AD105" s="20">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="106" customHeight="1" spans="1:25">
+    <row r="106" customHeight="1" spans="1:30">
       <c r="A106" s="12">
         <v>102</v>
       </c>
@@ -20032,20 +20566,25 @@
       <c r="T106" s="12"/>
       <c r="U106" s="12"/>
       <c r="V106" s="12"/>
-      <c r="W106" s="18">
+      <c r="W106" s="12"/>
+      <c r="X106" s="12"/>
+      <c r="Y106" s="12"/>
+      <c r="Z106" s="12"/>
+      <c r="AA106" s="12"/>
+      <c r="AB106" s="18">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="X106" s="18">
+      <c r="AC106" s="18">
         <f t="shared" si="18"/>
         <v>53</v>
       </c>
-      <c r="Y106" s="20">
+      <c r="AD106" s="20">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="107" customHeight="1" spans="1:25">
+    <row r="107" customHeight="1" spans="1:30">
       <c r="A107" s="12">
         <v>103</v>
       </c>
@@ -20081,20 +20620,25 @@
       <c r="T107" s="12"/>
       <c r="U107" s="12"/>
       <c r="V107" s="12"/>
-      <c r="W107" s="18">
+      <c r="W107" s="12"/>
+      <c r="X107" s="12"/>
+      <c r="Y107" s="12"/>
+      <c r="Z107" s="12"/>
+      <c r="AA107" s="12"/>
+      <c r="AB107" s="18">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="X107" s="18">
+      <c r="AC107" s="18">
         <f t="shared" si="18"/>
         <v>204</v>
       </c>
-      <c r="Y107" s="20">
+      <c r="AD107" s="20">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="108" customHeight="1" spans="1:25">
+    <row r="108" customHeight="1" spans="1:30">
       <c r="A108" s="12">
         <v>104</v>
       </c>
@@ -20130,20 +20674,25 @@
       <c r="T108" s="12"/>
       <c r="U108" s="12"/>
       <c r="V108" s="12"/>
-      <c r="W108" s="18">
+      <c r="W108" s="12"/>
+      <c r="X108" s="12"/>
+      <c r="Y108" s="12"/>
+      <c r="Z108" s="12"/>
+      <c r="AA108" s="12"/>
+      <c r="AB108" s="18">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="X108" s="18">
+      <c r="AC108" s="18">
         <f t="shared" si="18"/>
         <v>50</v>
       </c>
-      <c r="Y108" s="20">
+      <c r="AD108" s="20">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="109" customHeight="1" spans="1:25">
+    <row r="109" customHeight="1" spans="1:30">
       <c r="A109" s="12">
         <v>105</v>
       </c>
@@ -20179,20 +20728,25 @@
       <c r="T109" s="12"/>
       <c r="U109" s="12"/>
       <c r="V109" s="12"/>
-      <c r="W109" s="18">
-        <f t="shared" ref="W109:W140" si="19">SUM(I109:V109)</f>
-        <v>0</v>
-      </c>
-      <c r="X109" s="18">
+      <c r="W109" s="12"/>
+      <c r="X109" s="12"/>
+      <c r="Y109" s="12"/>
+      <c r="Z109" s="12"/>
+      <c r="AA109" s="12"/>
+      <c r="AB109" s="18">
+        <f t="shared" ref="AB109:AB140" si="19">SUM(I109:AA109)</f>
+        <v>0</v>
+      </c>
+      <c r="AC109" s="18">
         <f t="shared" si="18"/>
         <v>48</v>
       </c>
-      <c r="Y109" s="20">
-        <f t="shared" ref="Y109:Y140" si="20">IF(SUM(I109:V109)=C109,"完成",SUM(I109:V109))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" customHeight="1" spans="1:25">
+      <c r="AD109" s="20">
+        <f t="shared" ref="AD109:AD140" si="20">IF(SUM(I109:AA109)=C109,"完成",SUM(I109:AA109))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" customHeight="1" spans="1:30">
       <c r="A110" s="12">
         <v>106</v>
       </c>
@@ -20230,20 +20784,25 @@
       </c>
       <c r="U110" s="12"/>
       <c r="V110" s="12"/>
-      <c r="W110" s="18">
+      <c r="W110" s="12"/>
+      <c r="X110" s="12"/>
+      <c r="Y110" s="12"/>
+      <c r="Z110" s="12"/>
+      <c r="AA110" s="12"/>
+      <c r="AB110" s="18">
         <f t="shared" si="19"/>
         <v>10</v>
       </c>
-      <c r="X110" s="18">
+      <c r="AC110" s="18">
         <f t="shared" si="18"/>
         <v>3</v>
       </c>
-      <c r="Y110" s="20">
+      <c r="AD110" s="20">
         <f t="shared" si="20"/>
         <v>10</v>
       </c>
     </row>
-    <row r="111" hidden="1" customHeight="1" spans="1:25">
+    <row r="111" hidden="1" customHeight="1" spans="1:30">
       <c r="A111" s="12">
         <v>107</v>
       </c>
@@ -20281,20 +20840,25 @@
       </c>
       <c r="U111" s="12"/>
       <c r="V111" s="12"/>
-      <c r="W111" s="18">
+      <c r="W111" s="12"/>
+      <c r="X111" s="12"/>
+      <c r="Y111" s="12"/>
+      <c r="Z111" s="12"/>
+      <c r="AA111" s="12"/>
+      <c r="AB111" s="18">
         <f t="shared" si="19"/>
         <v>6</v>
       </c>
-      <c r="X111" s="18">
+      <c r="AC111" s="18">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="Y111" s="20" t="str">
+      <c r="AD111" s="20" t="str">
         <f t="shared" si="20"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="112" customHeight="1" spans="1:25">
+    <row r="112" customHeight="1" spans="1:30">
       <c r="A112" s="12">
         <v>108</v>
       </c>
@@ -20330,20 +20894,25 @@
       <c r="T112" s="12"/>
       <c r="U112" s="12"/>
       <c r="V112" s="12"/>
-      <c r="W112" s="18">
+      <c r="W112" s="12"/>
+      <c r="X112" s="12"/>
+      <c r="Y112" s="12"/>
+      <c r="Z112" s="12"/>
+      <c r="AA112" s="12"/>
+      <c r="AB112" s="18">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="X112" s="18">
+      <c r="AC112" s="18">
         <f t="shared" si="18"/>
         <v>6</v>
       </c>
-      <c r="Y112" s="20">
+      <c r="AD112" s="20">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
-    <row r="113" hidden="1" customHeight="1" spans="1:25">
+    <row r="113" hidden="1" customHeight="1" spans="1:30">
       <c r="A113" s="12">
         <v>109</v>
       </c>
@@ -20381,20 +20950,25 @@
       </c>
       <c r="U113" s="12"/>
       <c r="V113" s="12"/>
-      <c r="W113" s="18">
+      <c r="W113" s="12"/>
+      <c r="X113" s="12"/>
+      <c r="Y113" s="12"/>
+      <c r="Z113" s="12"/>
+      <c r="AA113" s="12"/>
+      <c r="AB113" s="18">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="X113" s="18">
+      <c r="AC113" s="18">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="Y113" s="20" t="str">
+      <c r="AD113" s="20" t="str">
         <f t="shared" si="20"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="114" hidden="1" customHeight="1" spans="1:25">
+    <row r="114" hidden="1" customHeight="1" spans="1:30">
       <c r="A114" s="12">
         <v>110</v>
       </c>
@@ -20432,20 +21006,25 @@
       </c>
       <c r="U114" s="12"/>
       <c r="V114" s="12"/>
-      <c r="W114" s="18">
+      <c r="W114" s="12"/>
+      <c r="X114" s="12"/>
+      <c r="Y114" s="12"/>
+      <c r="Z114" s="12"/>
+      <c r="AA114" s="12"/>
+      <c r="AB114" s="18">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="X114" s="18">
+      <c r="AC114" s="18">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="Y114" s="20" t="str">
+      <c r="AD114" s="20" t="str">
         <f t="shared" si="20"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="115" hidden="1" customHeight="1" spans="1:25">
+    <row r="115" hidden="1" customHeight="1" spans="1:30">
       <c r="A115" s="12">
         <v>111</v>
       </c>
@@ -20483,20 +21062,25 @@
       </c>
       <c r="U115" s="12"/>
       <c r="V115" s="12"/>
-      <c r="W115" s="18">
+      <c r="W115" s="12"/>
+      <c r="X115" s="12"/>
+      <c r="Y115" s="12"/>
+      <c r="Z115" s="12"/>
+      <c r="AA115" s="12"/>
+      <c r="AB115" s="18">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="X115" s="18">
+      <c r="AC115" s="18">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="Y115" s="20" t="str">
+      <c r="AD115" s="20" t="str">
         <f t="shared" si="20"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="116" hidden="1" customHeight="1" spans="1:25">
+    <row r="116" hidden="1" customHeight="1" spans="1:30">
       <c r="A116" s="12">
         <v>112</v>
       </c>
@@ -20534,20 +21118,25 @@
       </c>
       <c r="U116" s="12"/>
       <c r="V116" s="12"/>
-      <c r="W116" s="18">
+      <c r="W116" s="12"/>
+      <c r="X116" s="12"/>
+      <c r="Y116" s="12"/>
+      <c r="Z116" s="12"/>
+      <c r="AA116" s="12"/>
+      <c r="AB116" s="18">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="X116" s="18">
+      <c r="AC116" s="18">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="Y116" s="20" t="str">
+      <c r="AD116" s="20" t="str">
         <f t="shared" si="20"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="117" customHeight="1" spans="1:25">
+    <row r="117" customHeight="1" spans="1:30">
       <c r="A117" s="12">
         <v>113</v>
       </c>
@@ -20583,20 +21172,25 @@
       <c r="T117" s="12"/>
       <c r="U117" s="12"/>
       <c r="V117" s="12"/>
-      <c r="W117" s="18">
+      <c r="W117" s="12"/>
+      <c r="X117" s="12"/>
+      <c r="Y117" s="12"/>
+      <c r="Z117" s="12"/>
+      <c r="AA117" s="12"/>
+      <c r="AB117" s="18">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="X117" s="18">
+      <c r="AC117" s="18">
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="Y117" s="20">
+      <c r="AD117" s="20">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
-    <row r="118" customHeight="1" spans="1:25">
+    <row r="118" customHeight="1" spans="1:30">
       <c r="A118" s="12">
         <v>114</v>
       </c>
@@ -20632,20 +21226,25 @@
       <c r="T118" s="12"/>
       <c r="U118" s="12"/>
       <c r="V118" s="12"/>
-      <c r="W118" s="18">
+      <c r="W118" s="12"/>
+      <c r="X118" s="12"/>
+      <c r="Y118" s="12"/>
+      <c r="Z118" s="12"/>
+      <c r="AA118" s="12"/>
+      <c r="AB118" s="18">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="X118" s="18">
+      <c r="AC118" s="18">
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="Y118" s="20">
+      <c r="AD118" s="20">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
-    <row r="119" customHeight="1" spans="1:25">
+    <row r="119" customHeight="1" spans="1:30">
       <c r="A119" s="12">
         <v>115</v>
       </c>
@@ -20683,20 +21282,25 @@
       </c>
       <c r="U119" s="12"/>
       <c r="V119" s="12"/>
-      <c r="W119" s="18">
+      <c r="W119" s="12"/>
+      <c r="X119" s="12"/>
+      <c r="Y119" s="12"/>
+      <c r="Z119" s="12"/>
+      <c r="AA119" s="12"/>
+      <c r="AB119" s="18">
         <f t="shared" si="19"/>
         <v>25</v>
       </c>
-      <c r="X119" s="18">
+      <c r="AC119" s="18">
         <f t="shared" si="18"/>
         <v>20</v>
       </c>
-      <c r="Y119" s="20">
+      <c r="AD119" s="20">
         <f t="shared" si="20"/>
         <v>25</v>
       </c>
     </row>
-    <row r="120" hidden="1" customHeight="1" spans="1:25">
+    <row r="120" hidden="1" customHeight="1" spans="1:30">
       <c r="A120" s="12">
         <v>116</v>
       </c>
@@ -20734,20 +21338,25 @@
       </c>
       <c r="U120" s="12"/>
       <c r="V120" s="12"/>
-      <c r="W120" s="18">
+      <c r="W120" s="12"/>
+      <c r="X120" s="12"/>
+      <c r="Y120" s="12"/>
+      <c r="Z120" s="12"/>
+      <c r="AA120" s="12"/>
+      <c r="AB120" s="18">
         <f t="shared" si="19"/>
         <v>9</v>
       </c>
-      <c r="X120" s="18">
+      <c r="AC120" s="18">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="Y120" s="20" t="str">
+      <c r="AD120" s="20" t="str">
         <f t="shared" si="20"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="121" customHeight="1" spans="1:25">
+    <row r="121" customHeight="1" spans="1:30">
       <c r="A121" s="12">
         <v>117</v>
       </c>
@@ -20783,20 +21392,25 @@
       <c r="T121" s="12"/>
       <c r="U121" s="12"/>
       <c r="V121" s="12"/>
-      <c r="W121" s="18">
+      <c r="W121" s="12"/>
+      <c r="X121" s="12"/>
+      <c r="Y121" s="12"/>
+      <c r="Z121" s="12"/>
+      <c r="AA121" s="12"/>
+      <c r="AB121" s="18">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="X121" s="18">
+      <c r="AC121" s="18">
         <f t="shared" si="18"/>
         <v>6</v>
       </c>
-      <c r="Y121" s="20">
+      <c r="AD121" s="20">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
-    <row r="122" hidden="1" customHeight="1" spans="1:25">
+    <row r="122" hidden="1" customHeight="1" spans="1:30">
       <c r="A122" s="12">
         <v>118</v>
       </c>
@@ -20834,20 +21448,25 @@
       </c>
       <c r="U122" s="12"/>
       <c r="V122" s="12"/>
-      <c r="W122" s="18">
+      <c r="W122" s="12"/>
+      <c r="X122" s="12"/>
+      <c r="Y122" s="12"/>
+      <c r="Z122" s="12"/>
+      <c r="AA122" s="12"/>
+      <c r="AB122" s="18">
         <f t="shared" si="19"/>
         <v>4</v>
       </c>
-      <c r="X122" s="18">
-        <f t="shared" ref="X122:X164" si="21">C122-W122</f>
-        <v>0</v>
-      </c>
-      <c r="Y122" s="20" t="str">
+      <c r="AC122" s="18">
+        <f t="shared" ref="AC122:AC164" si="21">C122-AB122</f>
+        <v>0</v>
+      </c>
+      <c r="AD122" s="20" t="str">
         <f t="shared" si="20"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="123" customHeight="1" spans="1:25">
+    <row r="123" customHeight="1" spans="1:30">
       <c r="A123" s="12">
         <v>119</v>
       </c>
@@ -20883,20 +21502,25 @@
       <c r="T123" s="12"/>
       <c r="U123" s="12"/>
       <c r="V123" s="12"/>
-      <c r="W123" s="18">
+      <c r="W123" s="12"/>
+      <c r="X123" s="12"/>
+      <c r="Y123" s="12"/>
+      <c r="Z123" s="12"/>
+      <c r="AA123" s="12"/>
+      <c r="AB123" s="18">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="X123" s="18">
+      <c r="AC123" s="18">
         <f t="shared" si="21"/>
         <v>8</v>
       </c>
-      <c r="Y123" s="20">
+      <c r="AD123" s="20">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
-    <row r="124" hidden="1" customHeight="1" spans="1:25">
+    <row r="124" hidden="1" customHeight="1" spans="1:30">
       <c r="A124" s="12">
         <v>120</v>
       </c>
@@ -20934,20 +21558,25 @@
       </c>
       <c r="U124" s="12"/>
       <c r="V124" s="12"/>
-      <c r="W124" s="18">
+      <c r="W124" s="12"/>
+      <c r="X124" s="12"/>
+      <c r="Y124" s="12"/>
+      <c r="Z124" s="12"/>
+      <c r="AA124" s="12"/>
+      <c r="AB124" s="18">
         <f t="shared" si="19"/>
         <v>4</v>
       </c>
-      <c r="X124" s="18">
+      <c r="AC124" s="18">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="Y124" s="20" t="str">
+      <c r="AD124" s="20" t="str">
         <f t="shared" si="20"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="125" customHeight="1" spans="1:25">
+    <row r="125" customHeight="1" spans="1:30">
       <c r="A125" s="12">
         <v>121</v>
       </c>
@@ -20983,20 +21612,25 @@
       <c r="T125" s="12"/>
       <c r="U125" s="12"/>
       <c r="V125" s="12"/>
-      <c r="W125" s="18">
+      <c r="W125" s="12"/>
+      <c r="X125" s="12"/>
+      <c r="Y125" s="12"/>
+      <c r="Z125" s="12"/>
+      <c r="AA125" s="12"/>
+      <c r="AB125" s="18">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="X125" s="18">
+      <c r="AC125" s="18">
         <f t="shared" si="21"/>
         <v>4</v>
       </c>
-      <c r="Y125" s="20">
+      <c r="AD125" s="20">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
-    <row r="126" customHeight="1" spans="1:25">
+    <row r="126" customHeight="1" spans="1:30">
       <c r="A126" s="12">
         <v>122</v>
       </c>
@@ -21032,20 +21666,25 @@
       <c r="T126" s="12"/>
       <c r="U126" s="12"/>
       <c r="V126" s="12"/>
-      <c r="W126" s="18">
+      <c r="W126" s="12"/>
+      <c r="X126" s="12"/>
+      <c r="Y126" s="12"/>
+      <c r="Z126" s="12"/>
+      <c r="AA126" s="12"/>
+      <c r="AB126" s="18">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="X126" s="18">
+      <c r="AC126" s="18">
         <f t="shared" si="21"/>
         <v>8</v>
       </c>
-      <c r="Y126" s="20">
+      <c r="AD126" s="20">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
-    <row r="127" customHeight="1" spans="1:25">
+    <row r="127" customHeight="1" spans="1:30">
       <c r="A127" s="12">
         <v>123</v>
       </c>
@@ -21081,20 +21720,25 @@
       <c r="T127" s="12"/>
       <c r="U127" s="12"/>
       <c r="V127" s="12"/>
-      <c r="W127" s="18">
+      <c r="W127" s="12"/>
+      <c r="X127" s="12"/>
+      <c r="Y127" s="12"/>
+      <c r="Z127" s="12"/>
+      <c r="AA127" s="12"/>
+      <c r="AB127" s="18">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="X127" s="18">
+      <c r="AC127" s="18">
         <f t="shared" si="21"/>
         <v>4</v>
       </c>
-      <c r="Y127" s="20">
+      <c r="AD127" s="20">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
-    <row r="128" customHeight="1" spans="1:25">
+    <row r="128" customHeight="1" spans="1:30">
       <c r="A128" s="12">
         <v>124</v>
       </c>
@@ -21130,20 +21774,25 @@
       <c r="T128" s="12"/>
       <c r="U128" s="12"/>
       <c r="V128" s="12"/>
-      <c r="W128" s="18">
+      <c r="W128" s="12"/>
+      <c r="X128" s="12"/>
+      <c r="Y128" s="12"/>
+      <c r="Z128" s="12"/>
+      <c r="AA128" s="12"/>
+      <c r="AB128" s="18">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="X128" s="18">
+      <c r="AC128" s="18">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="Y128" s="20">
+      <c r="AD128" s="20">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
-    <row r="129" customHeight="1" spans="1:25">
+    <row r="129" customHeight="1" spans="1:30">
       <c r="A129" s="12">
         <v>125</v>
       </c>
@@ -21179,20 +21828,25 @@
       <c r="T129" s="12"/>
       <c r="U129" s="12"/>
       <c r="V129" s="12"/>
-      <c r="W129" s="18">
+      <c r="W129" s="12"/>
+      <c r="X129" s="12"/>
+      <c r="Y129" s="12"/>
+      <c r="Z129" s="12"/>
+      <c r="AA129" s="12"/>
+      <c r="AB129" s="18">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="X129" s="18">
+      <c r="AC129" s="18">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="Y129" s="20">
+      <c r="AD129" s="20">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
-    <row r="130" customHeight="1" spans="1:25">
+    <row r="130" customHeight="1" spans="1:30">
       <c r="A130" s="12">
         <v>126</v>
       </c>
@@ -21228,20 +21882,25 @@
       <c r="T130" s="12"/>
       <c r="U130" s="12"/>
       <c r="V130" s="12"/>
-      <c r="W130" s="18">
+      <c r="W130" s="12"/>
+      <c r="X130" s="12"/>
+      <c r="Y130" s="12"/>
+      <c r="Z130" s="12"/>
+      <c r="AA130" s="12"/>
+      <c r="AB130" s="18">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="X130" s="18">
+      <c r="AC130" s="18">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="Y130" s="20">
+      <c r="AD130" s="20">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
-    <row r="131" customHeight="1" spans="1:25">
+    <row r="131" customHeight="1" spans="1:30">
       <c r="A131" s="12">
         <v>127</v>
       </c>
@@ -21277,20 +21936,25 @@
       <c r="T131" s="12"/>
       <c r="U131" s="12"/>
       <c r="V131" s="12"/>
-      <c r="W131" s="18">
+      <c r="W131" s="12"/>
+      <c r="X131" s="12"/>
+      <c r="Y131" s="12"/>
+      <c r="Z131" s="12"/>
+      <c r="AA131" s="12"/>
+      <c r="AB131" s="18">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="X131" s="18">
+      <c r="AC131" s="18">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="Y131" s="20">
+      <c r="AD131" s="20">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
-    <row r="132" customHeight="1" spans="1:25">
+    <row r="132" customHeight="1" spans="1:30">
       <c r="A132" s="12">
         <v>128</v>
       </c>
@@ -21326,20 +21990,25 @@
       <c r="T132" s="12"/>
       <c r="U132" s="12"/>
       <c r="V132" s="12"/>
-      <c r="W132" s="18">
+      <c r="W132" s="12"/>
+      <c r="X132" s="12"/>
+      <c r="Y132" s="12"/>
+      <c r="Z132" s="12"/>
+      <c r="AA132" s="12"/>
+      <c r="AB132" s="18">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="X132" s="18">
+      <c r="AC132" s="18">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="Y132" s="20">
+      <c r="AD132" s="20">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
-    <row r="133" customHeight="1" spans="1:25">
+    <row r="133" customHeight="1" spans="1:30">
       <c r="A133" s="12">
         <v>129</v>
       </c>
@@ -21375,20 +22044,25 @@
       <c r="T133" s="12"/>
       <c r="U133" s="12"/>
       <c r="V133" s="12"/>
-      <c r="W133" s="18">
+      <c r="W133" s="12"/>
+      <c r="X133" s="12"/>
+      <c r="Y133" s="12"/>
+      <c r="Z133" s="12"/>
+      <c r="AA133" s="12"/>
+      <c r="AB133" s="18">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="X133" s="18">
+      <c r="AC133" s="18">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="Y133" s="20">
+      <c r="AD133" s="20">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
-    <row r="134" customHeight="1" spans="1:25">
+    <row r="134" customHeight="1" spans="1:30">
       <c r="A134" s="12">
         <v>130</v>
       </c>
@@ -21424,20 +22098,25 @@
       <c r="T134" s="12"/>
       <c r="U134" s="12"/>
       <c r="V134" s="12"/>
-      <c r="W134" s="18">
+      <c r="W134" s="12"/>
+      <c r="X134" s="12"/>
+      <c r="Y134" s="12"/>
+      <c r="Z134" s="12"/>
+      <c r="AA134" s="12"/>
+      <c r="AB134" s="18">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="X134" s="18">
+      <c r="AC134" s="18">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="Y134" s="20">
+      <c r="AD134" s="20">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
-    <row r="135" customHeight="1" spans="1:25">
+    <row r="135" customHeight="1" spans="1:30">
       <c r="A135" s="12">
         <v>131</v>
       </c>
@@ -21473,20 +22152,25 @@
       <c r="T135" s="12"/>
       <c r="U135" s="12"/>
       <c r="V135" s="12"/>
-      <c r="W135" s="18">
+      <c r="W135" s="12"/>
+      <c r="X135" s="12"/>
+      <c r="Y135" s="12"/>
+      <c r="Z135" s="12"/>
+      <c r="AA135" s="12"/>
+      <c r="AB135" s="18">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="X135" s="18">
+      <c r="AC135" s="18">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="Y135" s="20">
+      <c r="AD135" s="20">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
-    <row r="136" customHeight="1" spans="1:25">
+    <row r="136" customHeight="1" spans="1:30">
       <c r="A136" s="12">
         <v>132</v>
       </c>
@@ -21522,20 +22206,25 @@
       <c r="T136" s="12"/>
       <c r="U136" s="12"/>
       <c r="V136" s="12"/>
-      <c r="W136" s="18">
+      <c r="W136" s="12"/>
+      <c r="X136" s="12"/>
+      <c r="Y136" s="12"/>
+      <c r="Z136" s="12"/>
+      <c r="AA136" s="12"/>
+      <c r="AB136" s="18">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="X136" s="18">
+      <c r="AC136" s="18">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="Y136" s="20">
+      <c r="AD136" s="20">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
-    <row r="137" customHeight="1" spans="1:25">
+    <row r="137" customHeight="1" spans="1:30">
       <c r="A137" s="12">
         <v>133</v>
       </c>
@@ -21571,20 +22260,25 @@
       <c r="T137" s="12"/>
       <c r="U137" s="12"/>
       <c r="V137" s="12"/>
-      <c r="W137" s="18">
+      <c r="W137" s="12"/>
+      <c r="X137" s="12"/>
+      <c r="Y137" s="12"/>
+      <c r="Z137" s="12"/>
+      <c r="AA137" s="12"/>
+      <c r="AB137" s="18">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="X137" s="18">
+      <c r="AC137" s="18">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="Y137" s="20">
+      <c r="AD137" s="20">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
-    <row r="138" customHeight="1" spans="1:25">
+    <row r="138" customHeight="1" spans="1:30">
       <c r="A138" s="12">
         <v>134</v>
       </c>
@@ -21620,20 +22314,25 @@
       <c r="T138" s="12"/>
       <c r="U138" s="12"/>
       <c r="V138" s="12"/>
-      <c r="W138" s="18">
+      <c r="W138" s="12"/>
+      <c r="X138" s="12"/>
+      <c r="Y138" s="12"/>
+      <c r="Z138" s="12"/>
+      <c r="AA138" s="12"/>
+      <c r="AB138" s="18">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="X138" s="18">
+      <c r="AC138" s="18">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="Y138" s="20">
+      <c r="AD138" s="20">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
-    <row r="139" customHeight="1" spans="1:25">
+    <row r="139" customHeight="1" spans="1:30">
       <c r="A139" s="12">
         <v>135</v>
       </c>
@@ -21669,20 +22368,25 @@
       <c r="T139" s="12"/>
       <c r="U139" s="12"/>
       <c r="V139" s="12"/>
-      <c r="W139" s="18">
+      <c r="W139" s="12"/>
+      <c r="X139" s="12"/>
+      <c r="Y139" s="12"/>
+      <c r="Z139" s="12"/>
+      <c r="AA139" s="12"/>
+      <c r="AB139" s="18">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="X139" s="18">
+      <c r="AC139" s="18">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="Y139" s="20">
+      <c r="AD139" s="20">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
-    <row r="140" customHeight="1" spans="1:25">
+    <row r="140" customHeight="1" spans="1:30">
       <c r="A140" s="12">
         <v>136</v>
       </c>
@@ -21718,20 +22422,25 @@
       <c r="T140" s="12"/>
       <c r="U140" s="12"/>
       <c r="V140" s="12"/>
-      <c r="W140" s="18">
+      <c r="W140" s="12"/>
+      <c r="X140" s="12"/>
+      <c r="Y140" s="12"/>
+      <c r="Z140" s="12"/>
+      <c r="AA140" s="12"/>
+      <c r="AB140" s="18">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="X140" s="18">
+      <c r="AC140" s="18">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="Y140" s="20">
+      <c r="AD140" s="20">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
-    <row r="141" customHeight="1" spans="1:25">
+    <row r="141" customHeight="1" spans="1:30">
       <c r="A141" s="12">
         <v>137</v>
       </c>
@@ -21767,20 +22476,25 @@
       <c r="T141" s="12"/>
       <c r="U141" s="12"/>
       <c r="V141" s="12"/>
-      <c r="W141" s="18">
-        <f t="shared" ref="W141:W164" si="23">SUM(I141:V141)</f>
-        <v>0</v>
-      </c>
-      <c r="X141" s="18">
+      <c r="W141" s="12"/>
+      <c r="X141" s="12"/>
+      <c r="Y141" s="12"/>
+      <c r="Z141" s="12"/>
+      <c r="AA141" s="12"/>
+      <c r="AB141" s="18">
+        <f t="shared" ref="AB141:AB164" si="23">SUM(I141:AA141)</f>
+        <v>0</v>
+      </c>
+      <c r="AC141" s="18">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="Y141" s="20">
-        <f t="shared" ref="Y141:Y164" si="24">IF(SUM(I141:V141)=C141,"完成",SUM(I141:V141))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" customHeight="1" spans="1:25">
+      <c r="AD141" s="20">
+        <f t="shared" ref="AD141:AD164" si="24">IF(SUM(I141:AA141)=C141,"完成",SUM(I141:AA141))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" customHeight="1" spans="1:30">
       <c r="A142" s="12">
         <v>138</v>
       </c>
@@ -21816,20 +22530,25 @@
       <c r="T142" s="12"/>
       <c r="U142" s="12"/>
       <c r="V142" s="12"/>
-      <c r="W142" s="18">
+      <c r="W142" s="12"/>
+      <c r="X142" s="12"/>
+      <c r="Y142" s="12"/>
+      <c r="Z142" s="12"/>
+      <c r="AA142" s="12"/>
+      <c r="AB142" s="18">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="X142" s="18">
+      <c r="AC142" s="18">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="Y142" s="20">
+      <c r="AD142" s="20">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
-    <row r="143" customHeight="1" spans="1:25">
+    <row r="143" customHeight="1" spans="1:30">
       <c r="A143" s="12">
         <v>139</v>
       </c>
@@ -21865,20 +22584,25 @@
       <c r="T143" s="12"/>
       <c r="U143" s="12"/>
       <c r="V143" s="12"/>
-      <c r="W143" s="18">
+      <c r="W143" s="12"/>
+      <c r="X143" s="12"/>
+      <c r="Y143" s="12"/>
+      <c r="Z143" s="12"/>
+      <c r="AA143" s="12"/>
+      <c r="AB143" s="18">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="X143" s="18">
+      <c r="AC143" s="18">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="Y143" s="20">
+      <c r="AD143" s="20">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
-    <row r="144" customHeight="1" spans="1:25">
+    <row r="144" customHeight="1" spans="1:30">
       <c r="A144" s="12">
         <v>140</v>
       </c>
@@ -21914,20 +22638,25 @@
       <c r="T144" s="12"/>
       <c r="U144" s="12"/>
       <c r="V144" s="12"/>
-      <c r="W144" s="18">
+      <c r="W144" s="12"/>
+      <c r="X144" s="12"/>
+      <c r="Y144" s="12"/>
+      <c r="Z144" s="12"/>
+      <c r="AA144" s="12"/>
+      <c r="AB144" s="18">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="X144" s="18">
+      <c r="AC144" s="18">
         <f t="shared" si="21"/>
         <v>6</v>
       </c>
-      <c r="Y144" s="20">
+      <c r="AD144" s="20">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
-    <row r="145" customHeight="1" spans="1:25">
+    <row r="145" customHeight="1" spans="1:30">
       <c r="A145" s="12">
         <v>141</v>
       </c>
@@ -21963,20 +22692,25 @@
       <c r="T145" s="12"/>
       <c r="U145" s="12"/>
       <c r="V145" s="12"/>
-      <c r="W145" s="18">
+      <c r="W145" s="12"/>
+      <c r="X145" s="12"/>
+      <c r="Y145" s="12"/>
+      <c r="Z145" s="12"/>
+      <c r="AA145" s="12"/>
+      <c r="AB145" s="18">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="X145" s="18">
+      <c r="AC145" s="18">
         <f t="shared" si="21"/>
         <v>12</v>
       </c>
-      <c r="Y145" s="20">
+      <c r="AD145" s="20">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
-    <row r="146" customHeight="1" spans="1:25">
+    <row r="146" customHeight="1" spans="1:30">
       <c r="A146" s="12">
         <v>142</v>
       </c>
@@ -22012,20 +22746,25 @@
       <c r="T146" s="12"/>
       <c r="U146" s="12"/>
       <c r="V146" s="12"/>
-      <c r="W146" s="18">
+      <c r="W146" s="12"/>
+      <c r="X146" s="12"/>
+      <c r="Y146" s="12"/>
+      <c r="Z146" s="12"/>
+      <c r="AA146" s="12"/>
+      <c r="AB146" s="18">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="X146" s="18">
+      <c r="AC146" s="18">
         <f t="shared" si="21"/>
         <v>6</v>
       </c>
-      <c r="Y146" s="20">
+      <c r="AD146" s="20">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
-    <row r="147" customHeight="1" spans="1:25">
+    <row r="147" customHeight="1" spans="1:30">
       <c r="A147" s="12">
         <v>143</v>
       </c>
@@ -22061,20 +22800,25 @@
       <c r="T147" s="12"/>
       <c r="U147" s="12"/>
       <c r="V147" s="12"/>
-      <c r="W147" s="18">
+      <c r="W147" s="12"/>
+      <c r="X147" s="12"/>
+      <c r="Y147" s="12"/>
+      <c r="Z147" s="12"/>
+      <c r="AA147" s="12"/>
+      <c r="AB147" s="18">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="X147" s="18">
+      <c r="AC147" s="18">
         <f t="shared" si="21"/>
         <v>12</v>
       </c>
-      <c r="Y147" s="20">
+      <c r="AD147" s="20">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
-    <row r="148" customHeight="1" spans="1:25">
+    <row r="148" customHeight="1" spans="1:30">
       <c r="A148" s="12">
         <v>144</v>
       </c>
@@ -22110,20 +22854,25 @@
       <c r="T148" s="12"/>
       <c r="U148" s="12"/>
       <c r="V148" s="12"/>
-      <c r="W148" s="18">
+      <c r="W148" s="12"/>
+      <c r="X148" s="12"/>
+      <c r="Y148" s="12"/>
+      <c r="Z148" s="12"/>
+      <c r="AA148" s="12"/>
+      <c r="AB148" s="18">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="X148" s="18">
+      <c r="AC148" s="18">
         <f t="shared" si="21"/>
         <v>2</v>
       </c>
-      <c r="Y148" s="20">
+      <c r="AD148" s="20">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
-    <row r="149" customHeight="1" spans="1:25">
+    <row r="149" customHeight="1" spans="1:30">
       <c r="A149" s="12">
         <v>145</v>
       </c>
@@ -22159,20 +22908,25 @@
       <c r="T149" s="12"/>
       <c r="U149" s="12"/>
       <c r="V149" s="12"/>
-      <c r="W149" s="18">
+      <c r="W149" s="12"/>
+      <c r="X149" s="12"/>
+      <c r="Y149" s="12"/>
+      <c r="Z149" s="12"/>
+      <c r="AA149" s="12"/>
+      <c r="AB149" s="18">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="X149" s="18">
+      <c r="AC149" s="18">
         <f t="shared" si="21"/>
         <v>2</v>
       </c>
-      <c r="Y149" s="20">
+      <c r="AD149" s="20">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
-    <row r="150" customHeight="1" spans="1:25">
+    <row r="150" customHeight="1" spans="1:30">
       <c r="A150" s="12">
         <v>146</v>
       </c>
@@ -22208,20 +22962,25 @@
       <c r="T150" s="12"/>
       <c r="U150" s="12"/>
       <c r="V150" s="12"/>
-      <c r="W150" s="18">
+      <c r="W150" s="12"/>
+      <c r="X150" s="12"/>
+      <c r="Y150" s="12"/>
+      <c r="Z150" s="12"/>
+      <c r="AA150" s="12"/>
+      <c r="AB150" s="18">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="X150" s="18">
+      <c r="AC150" s="18">
         <f t="shared" si="21"/>
         <v>2</v>
       </c>
-      <c r="Y150" s="20">
+      <c r="AD150" s="20">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
-    <row r="151" customHeight="1" spans="1:25">
+    <row r="151" customHeight="1" spans="1:30">
       <c r="A151" s="12">
         <v>147</v>
       </c>
@@ -22257,20 +23016,25 @@
       <c r="T151" s="12"/>
       <c r="U151" s="12"/>
       <c r="V151" s="12"/>
-      <c r="W151" s="18">
+      <c r="W151" s="12"/>
+      <c r="X151" s="12"/>
+      <c r="Y151" s="12"/>
+      <c r="Z151" s="12"/>
+      <c r="AA151" s="12"/>
+      <c r="AB151" s="18">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="X151" s="18">
+      <c r="AC151" s="18">
         <f t="shared" si="21"/>
         <v>2</v>
       </c>
-      <c r="Y151" s="20">
+      <c r="AD151" s="20">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
-    <row r="152" customHeight="1" spans="1:25">
+    <row r="152" customHeight="1" spans="1:30">
       <c r="A152" s="12">
         <v>148</v>
       </c>
@@ -22306,20 +23070,25 @@
       <c r="T152" s="12"/>
       <c r="U152" s="12"/>
       <c r="V152" s="12"/>
-      <c r="W152" s="18">
+      <c r="W152" s="12"/>
+      <c r="X152" s="12"/>
+      <c r="Y152" s="12"/>
+      <c r="Z152" s="12"/>
+      <c r="AA152" s="12"/>
+      <c r="AB152" s="18">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="X152" s="18">
+      <c r="AC152" s="18">
         <f t="shared" si="21"/>
         <v>2</v>
       </c>
-      <c r="Y152" s="20">
+      <c r="AD152" s="20">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
-    <row r="153" customHeight="1" spans="1:25">
+    <row r="153" customHeight="1" spans="1:30">
       <c r="A153" s="12">
         <v>149</v>
       </c>
@@ -22355,20 +23124,25 @@
       <c r="T153" s="12"/>
       <c r="U153" s="12"/>
       <c r="V153" s="12"/>
-      <c r="W153" s="18">
+      <c r="W153" s="12"/>
+      <c r="X153" s="12"/>
+      <c r="Y153" s="12"/>
+      <c r="Z153" s="12"/>
+      <c r="AA153" s="12"/>
+      <c r="AB153" s="18">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="X153" s="18">
+      <c r="AC153" s="18">
         <f t="shared" si="21"/>
         <v>2</v>
       </c>
-      <c r="Y153" s="20">
+      <c r="AD153" s="20">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
-    <row r="154" customHeight="1" spans="1:25">
+    <row r="154" customHeight="1" spans="1:30">
       <c r="A154" s="12">
         <v>150</v>
       </c>
@@ -22404,20 +23178,25 @@
       <c r="T154" s="12"/>
       <c r="U154" s="12"/>
       <c r="V154" s="12"/>
-      <c r="W154" s="18">
+      <c r="W154" s="12"/>
+      <c r="X154" s="12"/>
+      <c r="Y154" s="12"/>
+      <c r="Z154" s="12"/>
+      <c r="AA154" s="12"/>
+      <c r="AB154" s="18">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="X154" s="18">
+      <c r="AC154" s="18">
         <f t="shared" si="21"/>
         <v>8</v>
       </c>
-      <c r="Y154" s="20">
+      <c r="AD154" s="20">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
-    <row r="155" customHeight="1" spans="1:25">
+    <row r="155" customHeight="1" spans="1:30">
       <c r="A155" s="12">
         <v>151</v>
       </c>
@@ -22453,20 +23232,25 @@
       <c r="T155" s="12"/>
       <c r="U155" s="12"/>
       <c r="V155" s="12"/>
-      <c r="W155" s="18">
+      <c r="W155" s="12"/>
+      <c r="X155" s="12"/>
+      <c r="Y155" s="12"/>
+      <c r="Z155" s="12"/>
+      <c r="AA155" s="12"/>
+      <c r="AB155" s="18">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="X155" s="18">
+      <c r="AC155" s="18">
         <f t="shared" si="21"/>
         <v>8</v>
       </c>
-      <c r="Y155" s="20">
+      <c r="AD155" s="20">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
-    <row r="156" customHeight="1" spans="1:25">
+    <row r="156" customHeight="1" spans="1:30">
       <c r="A156" s="12">
         <v>152</v>
       </c>
@@ -22502,20 +23286,25 @@
       <c r="T156" s="12"/>
       <c r="U156" s="12"/>
       <c r="V156" s="12"/>
-      <c r="W156" s="18">
+      <c r="W156" s="12"/>
+      <c r="X156" s="12"/>
+      <c r="Y156" s="12"/>
+      <c r="Z156" s="12"/>
+      <c r="AA156" s="12"/>
+      <c r="AB156" s="18">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="X156" s="18">
+      <c r="AC156" s="18">
         <f t="shared" si="21"/>
         <v>8</v>
       </c>
-      <c r="Y156" s="20">
+      <c r="AD156" s="20">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
-    <row r="157" customHeight="1" spans="1:25">
+    <row r="157" customHeight="1" spans="1:30">
       <c r="A157" s="12">
         <v>153</v>
       </c>
@@ -22551,20 +23340,25 @@
       <c r="T157" s="12"/>
       <c r="U157" s="12"/>
       <c r="V157" s="12"/>
-      <c r="W157" s="18">
+      <c r="W157" s="12"/>
+      <c r="X157" s="12"/>
+      <c r="Y157" s="12"/>
+      <c r="Z157" s="12"/>
+      <c r="AA157" s="12"/>
+      <c r="AB157" s="18">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="X157" s="18">
+      <c r="AC157" s="18">
         <f t="shared" si="21"/>
         <v>180</v>
       </c>
-      <c r="Y157" s="20">
+      <c r="AD157" s="20">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
-    <row r="158" customHeight="1" spans="1:25">
+    <row r="158" customHeight="1" spans="1:30">
       <c r="A158" s="12">
         <v>154</v>
       </c>
@@ -22600,20 +23394,25 @@
       <c r="T158" s="12"/>
       <c r="U158" s="12"/>
       <c r="V158" s="12"/>
-      <c r="W158" s="18">
+      <c r="W158" s="12"/>
+      <c r="X158" s="12"/>
+      <c r="Y158" s="12"/>
+      <c r="Z158" s="12"/>
+      <c r="AA158" s="12"/>
+      <c r="AB158" s="18">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="X158" s="18">
+      <c r="AC158" s="18">
         <f t="shared" si="21"/>
         <v>36</v>
       </c>
-      <c r="Y158" s="20">
+      <c r="AD158" s="20">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
-    <row r="159" customHeight="1" spans="1:25">
+    <row r="159" customHeight="1" spans="1:30">
       <c r="A159" s="12">
         <v>155</v>
       </c>
@@ -22649,20 +23448,25 @@
       <c r="T159" s="12"/>
       <c r="U159" s="12"/>
       <c r="V159" s="12"/>
-      <c r="W159" s="18">
+      <c r="W159" s="12"/>
+      <c r="X159" s="12"/>
+      <c r="Y159" s="12"/>
+      <c r="Z159" s="12"/>
+      <c r="AA159" s="12"/>
+      <c r="AB159" s="18">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="X159" s="18">
+      <c r="AC159" s="18">
         <f t="shared" si="21"/>
         <v>36</v>
       </c>
-      <c r="Y159" s="20">
+      <c r="AD159" s="20">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
-    <row r="160" customHeight="1" spans="1:25">
+    <row r="160" customHeight="1" spans="1:30">
       <c r="A160" s="12">
         <v>156</v>
       </c>
@@ -22698,20 +23502,25 @@
       <c r="T160" s="12"/>
       <c r="U160" s="12"/>
       <c r="V160" s="12"/>
-      <c r="W160" s="18">
+      <c r="W160" s="12"/>
+      <c r="X160" s="12"/>
+      <c r="Y160" s="12"/>
+      <c r="Z160" s="12"/>
+      <c r="AA160" s="12"/>
+      <c r="AB160" s="18">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="X160" s="18">
+      <c r="AC160" s="18">
         <f t="shared" si="21"/>
         <v>36</v>
       </c>
-      <c r="Y160" s="20">
+      <c r="AD160" s="20">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
-    <row r="161" customHeight="1" spans="1:25">
+    <row r="161" customHeight="1" spans="1:30">
       <c r="A161" s="12">
         <v>157</v>
       </c>
@@ -22747,20 +23556,25 @@
       <c r="T161" s="12"/>
       <c r="U161" s="12"/>
       <c r="V161" s="12"/>
-      <c r="W161" s="18">
+      <c r="W161" s="12"/>
+      <c r="X161" s="12"/>
+      <c r="Y161" s="12"/>
+      <c r="Z161" s="12"/>
+      <c r="AA161" s="12"/>
+      <c r="AB161" s="18">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="X161" s="18">
+      <c r="AC161" s="18">
         <f t="shared" si="21"/>
         <v>36</v>
       </c>
-      <c r="Y161" s="20">
+      <c r="AD161" s="20">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
-    <row r="162" customHeight="1" spans="1:25">
+    <row r="162" customHeight="1" spans="1:30">
       <c r="A162" s="12">
         <v>158</v>
       </c>
@@ -22796,20 +23610,25 @@
       <c r="T162" s="12"/>
       <c r="U162" s="12"/>
       <c r="V162" s="12"/>
-      <c r="W162" s="18">
+      <c r="W162" s="12"/>
+      <c r="X162" s="12"/>
+      <c r="Y162" s="12"/>
+      <c r="Z162" s="12"/>
+      <c r="AA162" s="12"/>
+      <c r="AB162" s="18">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="X162" s="18">
+      <c r="AC162" s="18">
         <f t="shared" si="21"/>
         <v>28</v>
       </c>
-      <c r="Y162" s="20">
+      <c r="AD162" s="20">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
-    <row r="163" customHeight="1" spans="1:25">
+    <row r="163" customHeight="1" spans="1:30">
       <c r="A163" s="12">
         <v>159</v>
       </c>
@@ -22845,20 +23664,25 @@
       <c r="T163" s="12"/>
       <c r="U163" s="12"/>
       <c r="V163" s="12"/>
-      <c r="W163" s="18">
+      <c r="W163" s="12"/>
+      <c r="X163" s="12"/>
+      <c r="Y163" s="12"/>
+      <c r="Z163" s="12"/>
+      <c r="AA163" s="12"/>
+      <c r="AB163" s="18">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="X163" s="18">
+      <c r="AC163" s="18">
         <f t="shared" si="21"/>
         <v>28</v>
       </c>
-      <c r="Y163" s="20">
+      <c r="AD163" s="20">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
-    <row r="164" customHeight="1" spans="1:25">
+    <row r="164" customHeight="1" spans="1:30">
       <c r="A164" s="12">
         <v>160</v>
       </c>
@@ -22894,22 +23718,27 @@
       <c r="T164" s="12"/>
       <c r="U164" s="12"/>
       <c r="V164" s="12"/>
-      <c r="W164" s="18">
+      <c r="W164" s="12"/>
+      <c r="X164" s="12"/>
+      <c r="Y164" s="12"/>
+      <c r="Z164" s="12"/>
+      <c r="AA164" s="12"/>
+      <c r="AB164" s="18">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="X164" s="18">
+      <c r="AC164" s="18">
         <f t="shared" si="21"/>
         <v>28</v>
       </c>
-      <c r="Y164" s="20">
+      <c r="AD164" s="20">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:Z164">
-    <filterColumn colId="24">
+  <autoFilter ref="A4:AE164">
+    <filterColumn colId="29">
       <filters>
         <filter val="0"/>
         <filter val="10"/>
@@ -22918,15 +23747,15 @@
         <filter val="25"/>
       </filters>
     </filterColumn>
-    <sortState ref="A4:Z164">
+    <sortState ref="A4:AE164">
       <sortCondition ref="I4:I75"/>
     </sortState>
     <extLst/>
   </autoFilter>
   <mergeCells count="12">
-    <mergeCell ref="B1:Y1"/>
+    <mergeCell ref="B1:AD1"/>
     <mergeCell ref="A2:D2"/>
-    <mergeCell ref="I3:X3"/>
+    <mergeCell ref="I3:AC3"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
@@ -22935,7 +23764,7 @@
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="H3:H4"/>
-    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="AD3:AD4"/>
   </mergeCells>
   <pageMargins left="0.39" right="0.27" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="600" verticalDpi="600"/>
@@ -22949,11 +23778,11 @@
   <dimension ref="A1:R83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="8" ySplit="4" topLeftCell="I35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="4" topLeftCell="I17" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J5" sqref="J5"/>
+      <selection pane="bottomRight" activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>
@@ -23072,7 +23901,9 @@
       <c r="J4" s="12">
         <v>1.28</v>
       </c>
-      <c r="K4" s="12"/>
+      <c r="K4" s="12">
+        <v>1.29</v>
+      </c>
       <c r="L4" s="12"/>
       <c r="M4" s="12"/>
       <c r="N4" s="12"/>
@@ -24190,21 +25021,23 @@
       </c>
       <c r="I30" s="17"/>
       <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
+      <c r="K30" s="12">
+        <v>1</v>
+      </c>
       <c r="L30" s="12"/>
       <c r="M30" s="12"/>
       <c r="N30" s="12"/>
       <c r="O30" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P30" s="18">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q30" s="20">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:17">
@@ -25136,21 +25969,23 @@
       </c>
       <c r="I52" s="12"/>
       <c r="J52" s="12"/>
-      <c r="K52" s="12"/>
+      <c r="K52" s="12">
+        <v>1</v>
+      </c>
       <c r="L52" s="12"/>
       <c r="M52" s="12"/>
       <c r="N52" s="12"/>
       <c r="O52" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P52" s="18">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="Q52" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="20" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="1:17">
@@ -25179,21 +26014,23 @@
       </c>
       <c r="I53" s="12"/>
       <c r="J53" s="12"/>
-      <c r="K53" s="12"/>
+      <c r="K53" s="12">
+        <v>1</v>
+      </c>
       <c r="L53" s="12"/>
       <c r="M53" s="12"/>
       <c r="N53" s="12"/>
       <c r="O53" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P53" s="18">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="Q53" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="20" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="1:17">

--- a/拼装统计.xlsx
+++ b/拼装统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13740" activeTab="3"/>
+    <workbookView windowWidth="30720" windowHeight="13740" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="义乌奥晶办公室食堂（完成)" sheetId="22" r:id="rId1"/>
@@ -1282,11 +1282,11 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="178" formatCode="0.0_);[Red]\(0.0\)"/>
     <numFmt numFmtId="179" formatCode="0.000_);[Red]\(0.000\)"/>
-    <numFmt numFmtId="180" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="180" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -1344,36 +1344,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1389,37 +1367,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1443,14 +1406,28 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1458,8 +1435,15 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1473,8 +1457,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1507,7 +1507,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1519,37 +1633,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1561,61 +1645,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1645,43 +1681,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1753,22 +1753,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1800,25 +1794,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1846,6 +1831,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1854,10 +1854,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1866,25 +1866,25 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1893,109 +1893,109 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2057,19 +2057,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2081,7 +2081,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2099,7 +2099,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2430,7 +2430,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>
@@ -11841,7 +11841,7 @@
   <dimension ref="A1:R72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="8" ySplit="4" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="4" topLeftCell="I21" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -14745,8 +14745,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AE164"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="4" topLeftCell="M5" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="8" ySplit="4" topLeftCell="M49" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -17446,11 +17446,11 @@
       <c r="Z49" s="12"/>
       <c r="AA49" s="12"/>
       <c r="AB49" s="18">
-        <f>SUM(I49:AA49)</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="AC49" s="18">
-        <f>C49-AB49</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AD49" s="20" t="str">
@@ -17724,7 +17724,7 @@
       <c r="Z54" s="12"/>
       <c r="AA54" s="12"/>
       <c r="AB54" s="18">
-        <f>SUM(I54:AA54)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AC54" s="18">
@@ -23777,12 +23777,12 @@
   <sheetPr/>
   <dimension ref="A1:R83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="8" ySplit="4" topLeftCell="I17" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="8" ySplit="4" topLeftCell="I47" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M28" sqref="M28"/>
+      <selection pane="bottomRight" activeCell="L58" sqref="L58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>
@@ -25969,23 +25969,21 @@
       </c>
       <c r="I52" s="12"/>
       <c r="J52" s="12"/>
-      <c r="K52" s="12">
-        <v>1</v>
-      </c>
+      <c r="K52" s="12"/>
       <c r="L52" s="12"/>
       <c r="M52" s="12"/>
       <c r="N52" s="12"/>
       <c r="O52" s="18">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P52" s="18">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q52" s="20" t="str">
+        <v>1</v>
+      </c>
+      <c r="Q52" s="20">
         <f t="shared" si="7"/>
-        <v>完成</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="1:17">
@@ -26014,23 +26012,21 @@
       </c>
       <c r="I53" s="12"/>
       <c r="J53" s="12"/>
-      <c r="K53" s="12">
-        <v>1</v>
-      </c>
+      <c r="K53" s="12"/>
       <c r="L53" s="12"/>
       <c r="M53" s="12"/>
       <c r="N53" s="12"/>
       <c r="O53" s="18">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P53" s="18">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q53" s="20" t="str">
+        <v>1</v>
+      </c>
+      <c r="Q53" s="20">
         <f t="shared" si="7"/>
-        <v>完成</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="1:17">
@@ -26059,21 +26055,23 @@
       </c>
       <c r="I54" s="12"/>
       <c r="J54" s="12"/>
-      <c r="K54" s="12"/>
+      <c r="K54" s="12">
+        <v>2</v>
+      </c>
       <c r="L54" s="12"/>
       <c r="M54" s="12"/>
       <c r="N54" s="12"/>
       <c r="O54" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P54" s="18">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q54" s="20">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="1:17">

--- a/拼装统计.xlsx
+++ b/拼装统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13740" activeTab="4"/>
+    <workbookView windowWidth="30720" windowHeight="13740" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="义乌奥晶办公室食堂（完成)" sheetId="22" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'义乌奥晶办公室食堂（完成)'!$A$4:$R$75</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">统计!$A$2:$G$38</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">福州地铁!$A$4:$R$75</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">广东华丰!$A$4:$AE$164</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">广东华丰!$A$4:$AE$166</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">大东海!$A$4:$R$83</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'模板 (8)'!$A$4:$R$75</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'模板 (7)'!$A$4:$R$75</definedName>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="409">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -596,6 +596,12 @@
   </si>
   <si>
     <t>KFZ7</t>
+  </si>
+  <si>
+    <t>KFZ8</t>
+  </si>
+  <si>
+    <t>KFZ9</t>
   </si>
   <si>
     <t>GL1</t>
@@ -1278,14 +1284,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="9">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="178" formatCode="0.0_);[Red]\(0.0\)"/>
-    <numFmt numFmtId="179" formatCode="0.000_);[Red]\(0.000\)"/>
+    <numFmt numFmtId="177" formatCode="0.000_);[Red]\(0.000\)"/>
+    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="179" formatCode="0.0_);[Red]\(0.0\)"/>
     <numFmt numFmtId="180" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="27">
@@ -1343,51 +1349,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -1396,38 +1357,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1443,15 +1374,44 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1466,6 +1426,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1477,6 +1453,36 @@
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1507,7 +1513,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1519,169 +1687,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1751,9 +1757,29 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1778,17 +1804,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1823,15 +1838,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1854,10 +1860,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1866,136 +1872,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2015,7 +2021,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2030,13 +2036,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2048,19 +2054,19 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2069,7 +2075,7 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2087,7 +2093,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2099,7 +2105,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -11841,11 +11847,11 @@
   <dimension ref="A1:R72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="8" ySplit="4" topLeftCell="I21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="4" topLeftCell="I25" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomRight" activeCell="J27" sqref="J27:J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>
@@ -14742,15 +14748,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:AE164"/>
+  <sheetPr/>
+  <dimension ref="A1:AE166"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="8" ySplit="4" topLeftCell="M49" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="8" ySplit="4" topLeftCell="L31" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="V54" sqref="V54"/>
+      <selection pane="bottomRight" activeCell="AD43" sqref="AD43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>
@@ -14951,7 +14957,7 @@
       </c>
       <c r="AD4" s="8"/>
     </row>
-    <row r="5" hidden="1" customHeight="1" spans="1:30">
+    <row r="5" customHeight="1" spans="1:30">
       <c r="A5" s="12">
         <v>1</v>
       </c>
@@ -15007,7 +15013,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="6" hidden="1" customHeight="1" spans="1:30">
+    <row r="6" customHeight="1" spans="1:30">
       <c r="A6" s="12">
         <v>2</v>
       </c>
@@ -15063,7 +15069,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="7" hidden="1" customHeight="1" spans="1:30">
+    <row r="7" customHeight="1" spans="1:30">
       <c r="A7" s="12">
         <v>3</v>
       </c>
@@ -15119,7 +15125,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="8" hidden="1" customHeight="1" spans="1:30">
+    <row r="8" customHeight="1" spans="1:30">
       <c r="A8" s="12">
         <v>4</v>
       </c>
@@ -15175,7 +15181,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="9" hidden="1" customHeight="1" spans="1:30">
+    <row r="9" customHeight="1" spans="1:30">
       <c r="A9" s="12">
         <v>5</v>
       </c>
@@ -15231,7 +15237,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="10" hidden="1" customHeight="1" spans="1:30">
+    <row r="10" customHeight="1" spans="1:30">
       <c r="A10" s="12">
         <v>6</v>
       </c>
@@ -15287,7 +15293,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="11" hidden="1" customHeight="1" spans="1:30">
+    <row r="11" customHeight="1" spans="1:30">
       <c r="A11" s="12">
         <v>7</v>
       </c>
@@ -15343,7 +15349,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="12" hidden="1" customHeight="1" spans="1:30">
+    <row r="12" customHeight="1" spans="1:30">
       <c r="A12" s="12">
         <v>8</v>
       </c>
@@ -15399,7 +15405,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="13" hidden="1" customHeight="1" spans="1:30">
+    <row r="13" customHeight="1" spans="1:30">
       <c r="A13" s="12">
         <v>9</v>
       </c>
@@ -15455,7 +15461,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="14" hidden="1" customHeight="1" spans="1:30">
+    <row r="14" customHeight="1" spans="1:30">
       <c r="A14" s="12">
         <v>10</v>
       </c>
@@ -15511,7 +15517,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="15" hidden="1" customHeight="1" spans="1:30">
+    <row r="15" customHeight="1" spans="1:30">
       <c r="A15" s="12">
         <v>11</v>
       </c>
@@ -15567,7 +15573,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="16" hidden="1" customHeight="1" spans="1:30">
+    <row r="16" customHeight="1" spans="1:30">
       <c r="A16" s="12">
         <v>12</v>
       </c>
@@ -15623,7 +15629,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="17" hidden="1" customHeight="1" spans="1:30">
+    <row r="17" customHeight="1" spans="1:30">
       <c r="A17" s="12">
         <v>13</v>
       </c>
@@ -15679,7 +15685,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="18" hidden="1" customHeight="1" spans="1:30">
+    <row r="18" customHeight="1" spans="1:30">
       <c r="A18" s="12">
         <v>14</v>
       </c>
@@ -15735,7 +15741,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="19" hidden="1" customHeight="1" spans="1:30">
+    <row r="19" customHeight="1" spans="1:30">
       <c r="A19" s="12">
         <v>15</v>
       </c>
@@ -15791,7 +15797,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="20" hidden="1" customHeight="1" spans="1:30">
+    <row r="20" customHeight="1" spans="1:30">
       <c r="A20" s="12">
         <v>16</v>
       </c>
@@ -15847,7 +15853,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="21" hidden="1" customHeight="1" spans="1:30">
+    <row r="21" customHeight="1" spans="1:30">
       <c r="A21" s="12">
         <v>17</v>
       </c>
@@ -15903,7 +15909,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="22" hidden="1" customHeight="1" spans="1:31">
+    <row r="22" customHeight="1" spans="1:31">
       <c r="A22" s="12">
         <v>18</v>
       </c>
@@ -15960,7 +15966,7 @@
       </c>
       <c r="AE22" s="21"/>
     </row>
-    <row r="23" hidden="1" customHeight="1" spans="1:30">
+    <row r="23" customHeight="1" spans="1:30">
       <c r="A23" s="12">
         <v>19</v>
       </c>
@@ -16016,7 +16022,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="24" hidden="1" customHeight="1" spans="1:30">
+    <row r="24" customHeight="1" spans="1:30">
       <c r="A24" s="12">
         <v>20</v>
       </c>
@@ -16072,7 +16078,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="25" hidden="1" customHeight="1" spans="1:30">
+    <row r="25" customHeight="1" spans="1:30">
       <c r="A25" s="12">
         <v>21</v>
       </c>
@@ -16128,7 +16134,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="26" hidden="1" customHeight="1" spans="1:30">
+    <row r="26" customHeight="1" spans="1:30">
       <c r="A26" s="12">
         <v>22</v>
       </c>
@@ -16184,7 +16190,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="27" hidden="1" customHeight="1" spans="1:30">
+    <row r="27" customHeight="1" spans="1:30">
       <c r="A27" s="12">
         <v>23</v>
       </c>
@@ -16240,7 +16246,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="28" hidden="1" customHeight="1" spans="1:30">
+    <row r="28" customHeight="1" spans="1:30">
       <c r="A28" s="12">
         <v>24</v>
       </c>
@@ -16296,7 +16302,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="29" hidden="1" customHeight="1" spans="1:30">
+    <row r="29" customHeight="1" spans="1:30">
       <c r="A29" s="12">
         <v>25</v>
       </c>
@@ -16352,7 +16358,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="30" hidden="1" customHeight="1" spans="1:30">
+    <row r="30" customHeight="1" spans="1:30">
       <c r="A30" s="12">
         <v>26</v>
       </c>
@@ -16408,7 +16414,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="31" hidden="1" customHeight="1" spans="1:30">
+    <row r="31" customHeight="1" spans="1:30">
       <c r="A31" s="12">
         <v>27</v>
       </c>
@@ -16464,7 +16470,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="32" hidden="1" customHeight="1" spans="1:30">
+    <row r="32" customHeight="1" spans="1:30">
       <c r="A32" s="12">
         <v>28</v>
       </c>
@@ -16520,7 +16526,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="33" hidden="1" customHeight="1" spans="1:30">
+    <row r="33" customHeight="1" spans="1:30">
       <c r="A33" s="12">
         <v>29</v>
       </c>
@@ -16576,7 +16582,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="34" hidden="1" customHeight="1" spans="1:30">
+    <row r="34" customHeight="1" spans="1:30">
       <c r="A34" s="12">
         <v>30</v>
       </c>
@@ -16632,7 +16638,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="35" hidden="1" customHeight="1" spans="1:30">
+    <row r="35" customHeight="1" spans="1:30">
       <c r="A35" s="12">
         <v>31</v>
       </c>
@@ -16688,7 +16694,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="36" hidden="1" customHeight="1" spans="1:30">
+    <row r="36" customHeight="1" spans="1:30">
       <c r="A36" s="12">
         <v>32</v>
       </c>
@@ -16816,11 +16822,11 @@
       <c r="E38" s="12"/>
       <c r="F38" s="25"/>
       <c r="G38" s="25">
-        <v>454.8</v>
+        <v>392.5</v>
       </c>
       <c r="H38" s="12">
-        <f t="shared" si="0"/>
-        <v>454.8</v>
+        <f>G38*C38</f>
+        <v>392.5</v>
       </c>
       <c r="I38" s="17"/>
       <c r="J38" s="12"/>
@@ -16870,11 +16876,11 @@
       <c r="E39" s="12"/>
       <c r="F39" s="25"/>
       <c r="G39" s="25">
-        <v>514.8</v>
+        <v>454.8</v>
       </c>
       <c r="H39" s="12">
-        <f t="shared" si="0"/>
-        <v>514.8</v>
+        <f>G39*C39</f>
+        <v>454.8</v>
       </c>
       <c r="I39" s="17"/>
       <c r="J39" s="12"/>
@@ -16924,11 +16930,11 @@
       <c r="E40" s="12"/>
       <c r="F40" s="25"/>
       <c r="G40" s="25">
-        <v>630.1</v>
+        <v>514.8</v>
       </c>
       <c r="H40" s="12">
-        <f t="shared" si="0"/>
-        <v>630.1</v>
+        <f>G40*C40</f>
+        <v>514.8</v>
       </c>
       <c r="I40" s="17"/>
       <c r="J40" s="12"/>
@@ -16978,11 +16984,11 @@
       <c r="E41" s="12"/>
       <c r="F41" s="25"/>
       <c r="G41" s="25">
-        <v>699.2</v>
+        <v>630.1</v>
       </c>
       <c r="H41" s="12">
-        <f t="shared" si="0"/>
-        <v>699.2</v>
+        <f>G41*C41</f>
+        <v>630.1</v>
       </c>
       <c r="I41" s="17"/>
       <c r="J41" s="12"/>
@@ -17032,11 +17038,11 @@
       <c r="E42" s="12"/>
       <c r="F42" s="25"/>
       <c r="G42" s="25">
-        <v>752.4</v>
+        <v>699.2</v>
       </c>
       <c r="H42" s="12">
-        <f t="shared" si="0"/>
-        <v>752.4</v>
+        <f>G42*C42</f>
+        <v>699.2</v>
       </c>
       <c r="I42" s="17"/>
       <c r="J42" s="12"/>
@@ -17086,11 +17092,11 @@
       <c r="E43" s="12"/>
       <c r="F43" s="25"/>
       <c r="G43" s="25">
-        <v>866.2</v>
+        <v>752.4</v>
       </c>
       <c r="H43" s="12">
-        <f t="shared" si="0"/>
-        <v>866.2</v>
+        <f t="shared" ref="H43:H74" si="10">G43*C43</f>
+        <v>752.4</v>
       </c>
       <c r="I43" s="17"/>
       <c r="J43" s="12"/>
@@ -17124,7 +17130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" hidden="1" customHeight="1" spans="1:30">
+    <row r="44" customHeight="1" spans="1:30">
       <c r="A44" s="12">
         <v>40</v>
       </c>
@@ -17132,24 +17138,22 @@
         <v>182</v>
       </c>
       <c r="C44" s="25">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D44" s="25" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="E44" s="12"/>
       <c r="F44" s="25"/>
       <c r="G44" s="25">
-        <v>899.5</v>
+        <v>866.2</v>
       </c>
       <c r="H44" s="12">
-        <f t="shared" si="0"/>
-        <v>3598</v>
+        <f t="shared" si="10"/>
+        <v>866.2</v>
       </c>
       <c r="I44" s="17"/>
-      <c r="J44" s="12">
-        <v>4</v>
-      </c>
+      <c r="J44" s="12"/>
       <c r="K44" s="12"/>
       <c r="L44" s="12"/>
       <c r="M44" s="12"/>
@@ -17168,44 +17172,42 @@
       <c r="Z44" s="12"/>
       <c r="AA44" s="12"/>
       <c r="AB44" s="18">
-        <f>SUM(I44:N44)</f>
-        <v>4</v>
+        <f>SUM(I44:AA44)</f>
+        <v>0</v>
       </c>
       <c r="AC44" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD44" s="20" t="str">
-        <f>IF(SUM(I44:N44)=C44,"完成",SUM(I44:N44))</f>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="45" hidden="1" customHeight="1" spans="1:30">
+        <f>C44-AB44</f>
+        <v>1</v>
+      </c>
+      <c r="AD44" s="20">
+        <f>IF(SUM(I44:AA44)=C44,"完成",SUM(I44:AA44))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="1:30">
       <c r="A45" s="12">
         <v>41</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C45" s="25">
         <v>1</v>
       </c>
       <c r="D45" s="25" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="E45" s="12"/>
       <c r="F45" s="25"/>
       <c r="G45" s="25">
-        <v>908</v>
+        <v>850.5</v>
       </c>
       <c r="H45" s="12">
-        <f t="shared" si="0"/>
-        <v>908</v>
+        <f t="shared" si="10"/>
+        <v>850.5</v>
       </c>
       <c r="I45" s="17"/>
-      <c r="J45" s="12">
-        <v>1</v>
-      </c>
+      <c r="J45" s="12"/>
       <c r="K45" s="12"/>
       <c r="L45" s="12"/>
       <c r="M45" s="12"/>
@@ -17224,43 +17226,43 @@
       <c r="Z45" s="12"/>
       <c r="AA45" s="12"/>
       <c r="AB45" s="18">
-        <f>SUM(I45:N45)</f>
-        <v>1</v>
+        <f>SUM(I45:AA45)</f>
+        <v>0</v>
       </c>
       <c r="AC45" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD45" s="20" t="str">
-        <f>IF(SUM(I45:N45)=C45,"完成",SUM(I45:N45))</f>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="46" hidden="1" customHeight="1" spans="1:30">
+        <f>C45-AB45</f>
+        <v>1</v>
+      </c>
+      <c r="AD45" s="20">
+        <f>IF(SUM(I45:AA45)=C45,"完成",SUM(I45:AA45))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="1:30">
       <c r="A46" s="12">
         <v>42</v>
       </c>
       <c r="B46" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="C46" s="25">
+        <v>4</v>
+      </c>
+      <c r="D46" s="25" t="s">
         <v>185</v>
-      </c>
-      <c r="C46" s="25">
-        <v>1</v>
-      </c>
-      <c r="D46" s="25" t="s">
-        <v>183</v>
       </c>
       <c r="E46" s="12"/>
       <c r="F46" s="25"/>
       <c r="G46" s="25">
-        <v>908</v>
+        <v>899.5</v>
       </c>
       <c r="H46" s="12">
-        <f t="shared" si="0"/>
-        <v>908</v>
+        <f t="shared" si="10"/>
+        <v>3598</v>
       </c>
       <c r="I46" s="17"/>
       <c r="J46" s="12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K46" s="12"/>
       <c r="L46" s="12"/>
@@ -17281,10 +17283,10 @@
       <c r="AA46" s="12"/>
       <c r="AB46" s="18">
         <f>SUM(I46:N46)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AC46" s="18">
-        <f t="shared" si="1"/>
+        <f>C46-AB46</f>
         <v>0</v>
       </c>
       <c r="AD46" s="20" t="str">
@@ -17292,7 +17294,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="47" hidden="1" customHeight="1" spans="1:30">
+    <row r="47" customHeight="1" spans="1:30">
       <c r="A47" s="12">
         <v>43</v>
       </c>
@@ -17303,16 +17305,16 @@
         <v>1</v>
       </c>
       <c r="D47" s="25" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E47" s="12"/>
       <c r="F47" s="25"/>
       <c r="G47" s="25">
-        <v>908.8</v>
+        <v>908</v>
       </c>
       <c r="H47" s="12">
-        <f t="shared" si="0"/>
-        <v>908.8</v>
+        <f t="shared" si="10"/>
+        <v>908</v>
       </c>
       <c r="I47" s="17"/>
       <c r="J47" s="12">
@@ -17340,7 +17342,7 @@
         <v>1</v>
       </c>
       <c r="AC47" s="18">
-        <f t="shared" si="1"/>
+        <f>C47-AB47</f>
         <v>0</v>
       </c>
       <c r="AD47" s="20" t="str">
@@ -17359,19 +17361,21 @@
         <v>1</v>
       </c>
       <c r="D48" s="25" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E48" s="12"/>
       <c r="F48" s="25"/>
       <c r="G48" s="25">
-        <v>876.4</v>
+        <v>908</v>
       </c>
       <c r="H48" s="12">
-        <f t="shared" si="0"/>
-        <v>876.4</v>
+        <f t="shared" si="10"/>
+        <v>908</v>
       </c>
       <c r="I48" s="17"/>
-      <c r="J48" s="12"/>
+      <c r="J48" s="12">
+        <v>1</v>
+      </c>
       <c r="K48" s="12"/>
       <c r="L48" s="12"/>
       <c r="M48" s="12"/>
@@ -17390,16 +17394,16 @@
       <c r="Z48" s="12"/>
       <c r="AA48" s="12"/>
       <c r="AB48" s="18">
-        <f t="shared" ref="AB48:AB58" si="10">SUM(I48:AA48)</f>
-        <v>0</v>
+        <f>SUM(I48:N48)</f>
+        <v>1</v>
       </c>
       <c r="AC48" s="18">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AD48" s="20">
-        <f t="shared" ref="AD48:AD58" si="11">IF(SUM(I48:AA48)=C48,"完成",SUM(I48:AA48))</f>
-        <v>0</v>
+        <f>C48-AB48</f>
+        <v>0</v>
+      </c>
+      <c r="AD48" s="20" t="str">
+        <f>IF(SUM(I48:N48)=C48,"完成",SUM(I48:N48))</f>
+        <v>完成</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="1:30">
@@ -17410,22 +17414,24 @@
         <v>188</v>
       </c>
       <c r="C49" s="25">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D49" s="25" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E49" s="12"/>
       <c r="F49" s="25"/>
       <c r="G49" s="25">
-        <v>1092.1</v>
+        <v>908.8</v>
       </c>
       <c r="H49" s="12">
-        <f t="shared" si="0"/>
-        <v>4368.4</v>
+        <f t="shared" si="10"/>
+        <v>908.8</v>
       </c>
       <c r="I49" s="17"/>
-      <c r="J49" s="12"/>
+      <c r="J49" s="12">
+        <v>1</v>
+      </c>
       <c r="K49" s="12"/>
       <c r="L49" s="12"/>
       <c r="M49" s="12"/>
@@ -17437,48 +17443,46 @@
       <c r="S49" s="12"/>
       <c r="T49" s="12"/>
       <c r="U49" s="12"/>
-      <c r="V49" s="12">
-        <v>4</v>
-      </c>
+      <c r="V49" s="12"/>
       <c r="W49" s="12"/>
       <c r="X49" s="12"/>
       <c r="Y49" s="12"/>
       <c r="Z49" s="12"/>
       <c r="AA49" s="12"/>
       <c r="AB49" s="18">
-        <f t="shared" si="10"/>
-        <v>4</v>
+        <f>SUM(I49:N49)</f>
+        <v>1</v>
       </c>
       <c r="AC49" s="18">
-        <f t="shared" si="1"/>
+        <f>C49-AB49</f>
         <v>0</v>
       </c>
       <c r="AD49" s="20" t="str">
-        <f t="shared" si="11"/>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="50" hidden="1" customHeight="1" spans="1:30">
+        <f>IF(SUM(I49:N49)=C49,"完成",SUM(I49:N49))</f>
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="1:30">
       <c r="A50" s="12">
         <v>46</v>
       </c>
       <c r="B50" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C50" s="25">
         <v>1</v>
       </c>
       <c r="D50" s="25" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E50" s="12"/>
       <c r="F50" s="25"/>
       <c r="G50" s="25">
-        <v>1096.8</v>
+        <v>876.4</v>
       </c>
       <c r="H50" s="12">
-        <f t="shared" si="0"/>
-        <v>1096.8</v>
+        <f t="shared" si="10"/>
+        <v>876.4</v>
       </c>
       <c r="I50" s="17"/>
       <c r="J50" s="12"/>
@@ -17492,9 +17496,7 @@
       <c r="R50" s="12"/>
       <c r="S50" s="12"/>
       <c r="T50" s="12"/>
-      <c r="U50" s="12">
-        <v>1</v>
-      </c>
+      <c r="U50" s="12"/>
       <c r="V50" s="12"/>
       <c r="W50" s="12"/>
       <c r="X50" s="12"/>
@@ -17502,39 +17504,39 @@
       <c r="Z50" s="12"/>
       <c r="AA50" s="12"/>
       <c r="AB50" s="18">
-        <f t="shared" si="10"/>
-        <v>1</v>
+        <f t="shared" ref="AB50:AB60" si="11">SUM(I50:AA50)</f>
+        <v>0</v>
       </c>
       <c r="AC50" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD50" s="20" t="str">
-        <f t="shared" si="11"/>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="51" hidden="1" customHeight="1" spans="1:30">
+        <f>C50-AB50</f>
+        <v>1</v>
+      </c>
+      <c r="AD50" s="20">
+        <f t="shared" ref="AD50:AD60" si="12">IF(SUM(I50:AA50)=C50,"完成",SUM(I50:AA50))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="1:30">
       <c r="A51" s="12">
         <v>47</v>
       </c>
       <c r="B51" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="C51" s="25">
+        <v>4</v>
+      </c>
+      <c r="D51" s="25" t="s">
         <v>191</v>
-      </c>
-      <c r="C51" s="25">
-        <v>1</v>
-      </c>
-      <c r="D51" s="25" t="s">
-        <v>189</v>
       </c>
       <c r="E51" s="12"/>
       <c r="F51" s="25"/>
       <c r="G51" s="25">
-        <v>1096.8</v>
+        <v>1092.1</v>
       </c>
       <c r="H51" s="12">
-        <f t="shared" si="0"/>
-        <v>1096.8</v>
+        <f t="shared" si="10"/>
+        <v>4368.4</v>
       </c>
       <c r="I51" s="17"/>
       <c r="J51" s="12"/>
@@ -17548,29 +17550,29 @@
       <c r="R51" s="12"/>
       <c r="S51" s="12"/>
       <c r="T51" s="12"/>
-      <c r="U51" s="12">
-        <v>1</v>
-      </c>
-      <c r="V51" s="12"/>
+      <c r="U51" s="12"/>
+      <c r="V51" s="12">
+        <v>4</v>
+      </c>
       <c r="W51" s="12"/>
       <c r="X51" s="12"/>
       <c r="Y51" s="12"/>
       <c r="Z51" s="12"/>
       <c r="AA51" s="12"/>
       <c r="AB51" s="18">
-        <f t="shared" si="10"/>
-        <v>1</v>
+        <f t="shared" si="11"/>
+        <v>4</v>
       </c>
       <c r="AC51" s="18">
-        <f t="shared" si="1"/>
+        <f>C51-AB51</f>
         <v>0</v>
       </c>
       <c r="AD51" s="20" t="str">
-        <f t="shared" si="11"/>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="52" hidden="1" customHeight="1" spans="1:30">
+        <f t="shared" si="12"/>
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="1:30">
       <c r="A52" s="12">
         <v>48</v>
       </c>
@@ -17581,16 +17583,16 @@
         <v>1</v>
       </c>
       <c r="D52" s="25" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E52" s="12"/>
       <c r="F52" s="25"/>
       <c r="G52" s="25">
-        <v>1097.4</v>
+        <v>1096.8</v>
       </c>
       <c r="H52" s="12">
-        <f t="shared" si="0"/>
-        <v>1097.4</v>
+        <f t="shared" si="10"/>
+        <v>1096.8</v>
       </c>
       <c r="I52" s="17"/>
       <c r="J52" s="12"/>
@@ -17614,19 +17616,19 @@
       <c r="Z52" s="12"/>
       <c r="AA52" s="12"/>
       <c r="AB52" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AC52" s="18">
-        <f t="shared" si="1"/>
+        <f>C52-AB52</f>
         <v>0</v>
       </c>
       <c r="AD52" s="20" t="str">
-        <f t="shared" si="11"/>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="53" hidden="1" customHeight="1" spans="1:30">
+        <f t="shared" si="12"/>
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" spans="1:30">
       <c r="A53" s="12">
         <v>49</v>
       </c>
@@ -17637,16 +17639,16 @@
         <v>1</v>
       </c>
       <c r="D53" s="25" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E53" s="12"/>
       <c r="F53" s="25"/>
       <c r="G53" s="25">
-        <v>1095.3</v>
+        <v>1096.8</v>
       </c>
       <c r="H53" s="12">
-        <f t="shared" si="0"/>
-        <v>1095.3</v>
+        <f t="shared" si="10"/>
+        <v>1096.8</v>
       </c>
       <c r="I53" s="17"/>
       <c r="J53" s="12"/>
@@ -17670,15 +17672,15 @@
       <c r="Z53" s="12"/>
       <c r="AA53" s="12"/>
       <c r="AB53" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AC53" s="18">
-        <f t="shared" si="1"/>
+        <f>C53-AB53</f>
         <v>0</v>
       </c>
       <c r="AD53" s="20" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>完成</v>
       </c>
     </row>
@@ -17690,19 +17692,19 @@
         <v>194</v>
       </c>
       <c r="C54" s="25">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D54" s="25" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="E54" s="12"/>
       <c r="F54" s="25"/>
       <c r="G54" s="25">
-        <v>898.9</v>
+        <v>1097.4</v>
       </c>
       <c r="H54" s="12">
-        <f t="shared" si="0"/>
-        <v>3595.6</v>
+        <f t="shared" si="10"/>
+        <v>1097.4</v>
       </c>
       <c r="I54" s="17"/>
       <c r="J54" s="12"/>
@@ -17716,7 +17718,9 @@
       <c r="R54" s="12"/>
       <c r="S54" s="12"/>
       <c r="T54" s="12"/>
-      <c r="U54" s="12"/>
+      <c r="U54" s="12">
+        <v>1</v>
+      </c>
       <c r="V54" s="12"/>
       <c r="W54" s="12"/>
       <c r="X54" s="12"/>
@@ -17724,16 +17728,16 @@
       <c r="Z54" s="12"/>
       <c r="AA54" s="12"/>
       <c r="AB54" s="18">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="AC54" s="18">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="AD54" s="20">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f>C54-AB54</f>
+        <v>0</v>
+      </c>
+      <c r="AD54" s="20" t="str">
+        <f t="shared" si="12"/>
+        <v>完成</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="1:30">
@@ -17747,16 +17751,16 @@
         <v>1</v>
       </c>
       <c r="D55" s="25" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="E55" s="12"/>
       <c r="F55" s="25"/>
       <c r="G55" s="25">
-        <v>907.4</v>
+        <v>1095.3</v>
       </c>
       <c r="H55" s="12">
-        <f t="shared" si="0"/>
-        <v>907.4</v>
+        <f t="shared" si="10"/>
+        <v>1095.3</v>
       </c>
       <c r="I55" s="17"/>
       <c r="J55" s="12"/>
@@ -17769,8 +17773,10 @@
       <c r="Q55" s="12"/>
       <c r="R55" s="12"/>
       <c r="S55" s="12"/>
-      <c r="T55" s="28"/>
-      <c r="U55" s="12"/>
+      <c r="T55" s="12"/>
+      <c r="U55" s="12">
+        <v>1</v>
+      </c>
       <c r="V55" s="12"/>
       <c r="W55" s="12"/>
       <c r="X55" s="12"/>
@@ -17778,16 +17784,16 @@
       <c r="Z55" s="12"/>
       <c r="AA55" s="12"/>
       <c r="AB55" s="18">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="AC55" s="18">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AD55" s="20">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f>C55-AB55</f>
+        <v>0</v>
+      </c>
+      <c r="AD55" s="20" t="str">
+        <f t="shared" si="12"/>
+        <v>完成</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="1:30">
@@ -17798,19 +17804,19 @@
         <v>196</v>
       </c>
       <c r="C56" s="25">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D56" s="25" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E56" s="12"/>
       <c r="F56" s="25"/>
       <c r="G56" s="25">
-        <v>907.4</v>
+        <v>898.9</v>
       </c>
       <c r="H56" s="12">
-        <f t="shared" si="0"/>
-        <v>907.4</v>
+        <f t="shared" si="10"/>
+        <v>3595.6</v>
       </c>
       <c r="I56" s="17"/>
       <c r="J56" s="12"/>
@@ -17823,7 +17829,7 @@
       <c r="Q56" s="12"/>
       <c r="R56" s="12"/>
       <c r="S56" s="12"/>
-      <c r="T56" s="28"/>
+      <c r="T56" s="12"/>
       <c r="U56" s="12"/>
       <c r="V56" s="12"/>
       <c r="W56" s="12"/>
@@ -17832,15 +17838,15 @@
       <c r="Z56" s="12"/>
       <c r="AA56" s="12"/>
       <c r="AB56" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AC56" s="18">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>C56-AB56</f>
+        <v>4</v>
       </c>
       <c r="AD56" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -17855,16 +17861,16 @@
         <v>1</v>
       </c>
       <c r="D57" s="25" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E57" s="12"/>
       <c r="F57" s="25"/>
       <c r="G57" s="25">
-        <v>908.5</v>
+        <v>907.4</v>
       </c>
       <c r="H57" s="12">
-        <f t="shared" si="0"/>
-        <v>908.5</v>
+        <f t="shared" si="10"/>
+        <v>907.4</v>
       </c>
       <c r="I57" s="17"/>
       <c r="J57" s="12"/>
@@ -17877,7 +17883,7 @@
       <c r="Q57" s="12"/>
       <c r="R57" s="12"/>
       <c r="S57" s="12"/>
-      <c r="T57" s="12"/>
+      <c r="T57" s="28"/>
       <c r="U57" s="12"/>
       <c r="V57" s="12"/>
       <c r="W57" s="12"/>
@@ -17886,15 +17892,15 @@
       <c r="Z57" s="12"/>
       <c r="AA57" s="12"/>
       <c r="AB57" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AC57" s="18">
-        <f t="shared" si="1"/>
+        <f>C57-AB57</f>
         <v>1</v>
       </c>
       <c r="AD57" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -17909,16 +17915,16 @@
         <v>1</v>
       </c>
       <c r="D58" s="25" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E58" s="12"/>
       <c r="F58" s="25"/>
       <c r="G58" s="25">
-        <v>906.5</v>
+        <v>907.4</v>
       </c>
       <c r="H58" s="12">
-        <f t="shared" si="0"/>
-        <v>906.5</v>
+        <f t="shared" si="10"/>
+        <v>907.4</v>
       </c>
       <c r="I58" s="17"/>
       <c r="J58" s="12"/>
@@ -17931,7 +17937,7 @@
       <c r="Q58" s="12"/>
       <c r="R58" s="12"/>
       <c r="S58" s="12"/>
-      <c r="T58" s="12"/>
+      <c r="T58" s="28"/>
       <c r="U58" s="12"/>
       <c r="V58" s="12"/>
       <c r="W58" s="12"/>
@@ -17940,19 +17946,19 @@
       <c r="Z58" s="12"/>
       <c r="AA58" s="12"/>
       <c r="AB58" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AC58" s="18">
-        <f t="shared" si="1"/>
+        <f>C58-AB58</f>
         <v>1</v>
       </c>
       <c r="AD58" s="20">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" hidden="1" customHeight="1" spans="1:30">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" customHeight="1" spans="1:30">
       <c r="A59" s="12">
         <v>55</v>
       </c>
@@ -17960,26 +17966,24 @@
         <v>199</v>
       </c>
       <c r="C59" s="25">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D59" s="25" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E59" s="12"/>
       <c r="F59" s="25"/>
       <c r="G59" s="25">
-        <v>899.5</v>
+        <v>908.5</v>
       </c>
       <c r="H59" s="12">
-        <f t="shared" si="0"/>
-        <v>3598</v>
+        <f t="shared" si="10"/>
+        <v>908.5</v>
       </c>
       <c r="I59" s="17"/>
       <c r="J59" s="12"/>
       <c r="K59" s="12"/>
-      <c r="L59" s="13">
-        <v>4</v>
-      </c>
+      <c r="L59" s="12"/>
       <c r="M59" s="12"/>
       <c r="N59" s="12"/>
       <c r="O59" s="12"/>
@@ -17996,19 +18000,19 @@
       <c r="Z59" s="12"/>
       <c r="AA59" s="12"/>
       <c r="AB59" s="18">
-        <f>SUM(I59:N59)</f>
-        <v>4</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
       <c r="AC59" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD59" s="20" t="str">
-        <f>IF(SUM(I59:N59)=C59,"完成",SUM(I59:N59))</f>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="60" hidden="1" customHeight="1" spans="1:30">
+        <f>C59-AB59</f>
+        <v>1</v>
+      </c>
+      <c r="AD59" s="20">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" customHeight="1" spans="1:30">
       <c r="A60" s="12">
         <v>56</v>
       </c>
@@ -18019,23 +18023,21 @@
         <v>1</v>
       </c>
       <c r="D60" s="25" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E60" s="12"/>
       <c r="F60" s="25"/>
       <c r="G60" s="25">
-        <v>908</v>
+        <v>906.5</v>
       </c>
       <c r="H60" s="12">
-        <f t="shared" si="0"/>
-        <v>908</v>
+        <f t="shared" si="10"/>
+        <v>906.5</v>
       </c>
       <c r="I60" s="17"/>
       <c r="J60" s="12"/>
       <c r="K60" s="12"/>
-      <c r="L60" s="13">
-        <v>1</v>
-      </c>
+      <c r="L60" s="12"/>
       <c r="M60" s="12"/>
       <c r="N60" s="12"/>
       <c r="O60" s="12"/>
@@ -18052,19 +18054,19 @@
       <c r="Z60" s="12"/>
       <c r="AA60" s="12"/>
       <c r="AB60" s="18">
-        <f>SUM(I60:N60)</f>
-        <v>1</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
       <c r="AC60" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD60" s="20" t="str">
-        <f>IF(SUM(I60:N60)=C60,"完成",SUM(I60:N60))</f>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="61" hidden="1" customHeight="1" spans="1:30">
+        <f>C60-AB60</f>
+        <v>1</v>
+      </c>
+      <c r="AD60" s="20">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" customHeight="1" spans="1:30">
       <c r="A61" s="12">
         <v>57</v>
       </c>
@@ -18072,25 +18074,25 @@
         <v>201</v>
       </c>
       <c r="C61" s="25">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D61" s="25" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E61" s="12"/>
       <c r="F61" s="25"/>
       <c r="G61" s="25">
-        <v>908</v>
+        <v>899.5</v>
       </c>
       <c r="H61" s="12">
-        <f t="shared" si="0"/>
-        <v>908</v>
+        <f t="shared" si="10"/>
+        <v>3598</v>
       </c>
       <c r="I61" s="17"/>
       <c r="J61" s="12"/>
       <c r="K61" s="12"/>
       <c r="L61" s="13">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M61" s="12"/>
       <c r="N61" s="12"/>
@@ -18107,12 +18109,12 @@
       <c r="Y61" s="12"/>
       <c r="Z61" s="12"/>
       <c r="AA61" s="12"/>
-      <c r="AB61" s="19">
+      <c r="AB61" s="18">
         <f>SUM(I61:N61)</f>
-        <v>1</v>
-      </c>
-      <c r="AC61" s="19">
-        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="AC61" s="18">
+        <f>C61-AB61</f>
         <v>0</v>
       </c>
       <c r="AD61" s="20" t="str">
@@ -18120,7 +18122,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="62" hidden="1" customHeight="1" spans="1:30">
+    <row r="62" customHeight="1" spans="1:30">
       <c r="A62" s="12">
         <v>58</v>
       </c>
@@ -18131,16 +18133,16 @@
         <v>1</v>
       </c>
       <c r="D62" s="25" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E62" s="12"/>
       <c r="F62" s="25"/>
       <c r="G62" s="25">
-        <v>908.8</v>
+        <v>908</v>
       </c>
       <c r="H62" s="12">
-        <f t="shared" si="0"/>
-        <v>908.8</v>
+        <f t="shared" si="10"/>
+        <v>908</v>
       </c>
       <c r="I62" s="17"/>
       <c r="J62" s="12"/>
@@ -18168,7 +18170,7 @@
         <v>1</v>
       </c>
       <c r="AC62" s="18">
-        <f t="shared" si="1"/>
+        <f>C62-AB62</f>
         <v>0</v>
       </c>
       <c r="AD62" s="20" t="str">
@@ -18176,7 +18178,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="63" hidden="1" customHeight="1" spans="1:30">
+    <row r="63" customHeight="1" spans="1:30">
       <c r="A63" s="12">
         <v>59</v>
       </c>
@@ -18187,16 +18189,16 @@
         <v>1</v>
       </c>
       <c r="D63" s="25" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E63" s="12"/>
       <c r="F63" s="25"/>
       <c r="G63" s="25">
-        <v>906.8</v>
+        <v>908</v>
       </c>
       <c r="H63" s="12">
-        <f t="shared" si="0"/>
-        <v>906.8</v>
+        <f t="shared" si="10"/>
+        <v>908</v>
       </c>
       <c r="I63" s="17"/>
       <c r="J63" s="12"/>
@@ -18219,12 +18221,12 @@
       <c r="Y63" s="12"/>
       <c r="Z63" s="12"/>
       <c r="AA63" s="12"/>
-      <c r="AB63" s="18">
+      <c r="AB63" s="19">
         <f>SUM(I63:N63)</f>
         <v>1</v>
       </c>
-      <c r="AC63" s="18">
-        <f t="shared" si="1"/>
+      <c r="AC63" s="19">
+        <f>C63-AB63</f>
         <v>0</v>
       </c>
       <c r="AD63" s="20" t="str">
@@ -18240,24 +18242,26 @@
         <v>204</v>
       </c>
       <c r="C64" s="25">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D64" s="25" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E64" s="12"/>
       <c r="F64" s="25"/>
       <c r="G64" s="25">
-        <v>1092.1</v>
+        <v>908.8</v>
       </c>
       <c r="H64" s="12">
-        <f t="shared" si="0"/>
-        <v>4368.4</v>
+        <f t="shared" si="10"/>
+        <v>908.8</v>
       </c>
       <c r="I64" s="17"/>
       <c r="J64" s="12"/>
       <c r="K64" s="12"/>
-      <c r="L64" s="12"/>
+      <c r="L64" s="13">
+        <v>1</v>
+      </c>
       <c r="M64" s="12"/>
       <c r="N64" s="12"/>
       <c r="O64" s="12"/>
@@ -18274,19 +18278,19 @@
       <c r="Z64" s="12"/>
       <c r="AA64" s="12"/>
       <c r="AB64" s="18">
-        <f t="shared" ref="AB64:AB73" si="12">SUM(I64:AA64)</f>
-        <v>0</v>
+        <f>SUM(I64:N64)</f>
+        <v>1</v>
       </c>
       <c r="AC64" s="18">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="AD64" s="20">
-        <f t="shared" ref="AD64:AD73" si="13">IF(SUM(I64:AA64)=C64,"完成",SUM(I64:AA64))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" hidden="1" customHeight="1" spans="1:30">
+        <f>C64-AB64</f>
+        <v>0</v>
+      </c>
+      <c r="AD64" s="20" t="str">
+        <f>IF(SUM(I64:N64)=C64,"完成",SUM(I64:N64))</f>
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="65" customHeight="1" spans="1:30">
       <c r="A65" s="12">
         <v>61</v>
       </c>
@@ -18297,21 +18301,23 @@
         <v>1</v>
       </c>
       <c r="D65" s="25" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E65" s="12"/>
       <c r="F65" s="25"/>
       <c r="G65" s="25">
-        <v>1096.8</v>
+        <v>906.8</v>
       </c>
       <c r="H65" s="12">
-        <f t="shared" si="0"/>
-        <v>1096.8</v>
+        <f t="shared" si="10"/>
+        <v>906.8</v>
       </c>
       <c r="I65" s="17"/>
       <c r="J65" s="12"/>
       <c r="K65" s="12"/>
-      <c r="L65" s="12"/>
+      <c r="L65" s="13">
+        <v>1</v>
+      </c>
       <c r="M65" s="12"/>
       <c r="N65" s="12"/>
       <c r="O65" s="12"/>
@@ -18320,9 +18326,7 @@
       <c r="R65" s="12"/>
       <c r="S65" s="12"/>
       <c r="T65" s="12"/>
-      <c r="U65" s="12">
-        <v>1</v>
-      </c>
+      <c r="U65" s="12"/>
       <c r="V65" s="12"/>
       <c r="W65" s="12"/>
       <c r="X65" s="12"/>
@@ -18330,19 +18334,19 @@
       <c r="Z65" s="12"/>
       <c r="AA65" s="12"/>
       <c r="AB65" s="18">
-        <f t="shared" si="12"/>
+        <f>SUM(I65:N65)</f>
         <v>1</v>
       </c>
       <c r="AC65" s="18">
-        <f t="shared" si="1"/>
+        <f>C65-AB65</f>
         <v>0</v>
       </c>
       <c r="AD65" s="20" t="str">
-        <f t="shared" si="13"/>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="66" hidden="1" customHeight="1" spans="1:30">
+        <f>IF(SUM(I65:N65)=C65,"完成",SUM(I65:N65))</f>
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="66" customHeight="1" spans="1:30">
       <c r="A66" s="12">
         <v>62</v>
       </c>
@@ -18350,19 +18354,19 @@
         <v>206</v>
       </c>
       <c r="C66" s="25">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D66" s="25" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E66" s="12"/>
       <c r="F66" s="25"/>
       <c r="G66" s="25">
-        <v>1096.8</v>
+        <v>1092.1</v>
       </c>
       <c r="H66" s="12">
-        <f t="shared" si="0"/>
-        <v>1096.8</v>
+        <f t="shared" si="10"/>
+        <v>4368.4</v>
       </c>
       <c r="I66" s="17"/>
       <c r="J66" s="12"/>
@@ -18376,9 +18380,7 @@
       <c r="R66" s="12"/>
       <c r="S66" s="12"/>
       <c r="T66" s="12"/>
-      <c r="U66" s="12">
-        <v>1</v>
-      </c>
+      <c r="U66" s="12"/>
       <c r="V66" s="12"/>
       <c r="W66" s="12"/>
       <c r="X66" s="12"/>
@@ -18386,16 +18388,16 @@
       <c r="Z66" s="12"/>
       <c r="AA66" s="12"/>
       <c r="AB66" s="18">
-        <f t="shared" si="12"/>
-        <v>1</v>
+        <f t="shared" ref="AB66:AB75" si="13">SUM(I66:AA66)</f>
+        <v>0</v>
       </c>
       <c r="AC66" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD66" s="20" t="str">
-        <f t="shared" si="13"/>
-        <v>完成</v>
+        <f>C66-AB66</f>
+        <v>4</v>
+      </c>
+      <c r="AD66" s="20">
+        <f t="shared" ref="AD66:AD75" si="14">IF(SUM(I66:AA66)=C66,"完成",SUM(I66:AA66))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="67" customHeight="1" spans="1:30">
@@ -18409,16 +18411,16 @@
         <v>1</v>
       </c>
       <c r="D67" s="25" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E67" s="12"/>
       <c r="F67" s="25"/>
       <c r="G67" s="25">
-        <v>1097.4</v>
+        <v>1096.8</v>
       </c>
       <c r="H67" s="12">
-        <f t="shared" si="0"/>
-        <v>1097.4</v>
+        <f t="shared" si="10"/>
+        <v>1096.8</v>
       </c>
       <c r="I67" s="17"/>
       <c r="J67" s="12"/>
@@ -18432,7 +18434,9 @@
       <c r="R67" s="12"/>
       <c r="S67" s="12"/>
       <c r="T67" s="12"/>
-      <c r="U67" s="12"/>
+      <c r="U67" s="12">
+        <v>1</v>
+      </c>
       <c r="V67" s="12"/>
       <c r="W67" s="12"/>
       <c r="X67" s="12"/>
@@ -18440,16 +18444,16 @@
       <c r="Z67" s="12"/>
       <c r="AA67" s="12"/>
       <c r="AB67" s="18">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="AC67" s="18">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AD67" s="20">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f>C67-AB67</f>
+        <v>0</v>
+      </c>
+      <c r="AD67" s="20" t="str">
+        <f t="shared" si="14"/>
+        <v>完成</v>
       </c>
     </row>
     <row r="68" customHeight="1" spans="1:30">
@@ -18463,16 +18467,16 @@
         <v>1</v>
       </c>
       <c r="D68" s="25" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E68" s="12"/>
       <c r="F68" s="25"/>
       <c r="G68" s="25">
-        <v>1095.3</v>
+        <v>1096.8</v>
       </c>
       <c r="H68" s="12">
-        <f t="shared" si="0"/>
-        <v>1095.3</v>
+        <f t="shared" si="10"/>
+        <v>1096.8</v>
       </c>
       <c r="I68" s="17"/>
       <c r="J68" s="12"/>
@@ -18486,7 +18490,9 @@
       <c r="R68" s="12"/>
       <c r="S68" s="12"/>
       <c r="T68" s="12"/>
-      <c r="U68" s="12"/>
+      <c r="U68" s="12">
+        <v>1</v>
+      </c>
       <c r="V68" s="12"/>
       <c r="W68" s="12"/>
       <c r="X68" s="12"/>
@@ -18494,16 +18500,16 @@
       <c r="Z68" s="12"/>
       <c r="AA68" s="12"/>
       <c r="AB68" s="18">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="AC68" s="18">
-        <f t="shared" ref="AC68:AC94" si="14">C68-AB68</f>
-        <v>1</v>
-      </c>
-      <c r="AD68" s="20">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f>C68-AB68</f>
+        <v>0</v>
+      </c>
+      <c r="AD68" s="20" t="str">
+        <f t="shared" si="14"/>
+        <v>完成</v>
       </c>
     </row>
     <row r="69" customHeight="1" spans="1:30">
@@ -18514,19 +18520,19 @@
         <v>209</v>
       </c>
       <c r="C69" s="25">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D69" s="25" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="E69" s="12"/>
       <c r="F69" s="25"/>
       <c r="G69" s="25">
-        <v>898.9</v>
+        <v>1097.4</v>
       </c>
       <c r="H69" s="12">
-        <f t="shared" ref="H69:H132" si="15">G69*C69</f>
-        <v>3595.6</v>
+        <f t="shared" si="10"/>
+        <v>1097.4</v>
       </c>
       <c r="I69" s="17"/>
       <c r="J69" s="12"/>
@@ -18548,15 +18554,15 @@
       <c r="Z69" s="12"/>
       <c r="AA69" s="12"/>
       <c r="AB69" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AC69" s="18">
+        <f>C69-AB69</f>
+        <v>1</v>
+      </c>
+      <c r="AD69" s="20">
         <f t="shared" si="14"/>
-        <v>4</v>
-      </c>
-      <c r="AD69" s="20">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -18571,16 +18577,16 @@
         <v>1</v>
       </c>
       <c r="D70" s="25" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="E70" s="12"/>
       <c r="F70" s="25"/>
       <c r="G70" s="25">
-        <v>907.4</v>
+        <v>1095.3</v>
       </c>
       <c r="H70" s="12">
-        <f t="shared" si="15"/>
-        <v>907.4</v>
+        <f t="shared" si="10"/>
+        <v>1095.3</v>
       </c>
       <c r="I70" s="17"/>
       <c r="J70" s="12"/>
@@ -18602,15 +18608,15 @@
       <c r="Z70" s="12"/>
       <c r="AA70" s="12"/>
       <c r="AB70" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AC70" s="18">
+        <f t="shared" ref="AC70:AC96" si="15">C70-AB70</f>
+        <v>1</v>
+      </c>
+      <c r="AD70" s="20">
         <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="AD70" s="20">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -18622,19 +18628,19 @@
         <v>211</v>
       </c>
       <c r="C71" s="25">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D71" s="25" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E71" s="12"/>
       <c r="F71" s="25"/>
       <c r="G71" s="25">
-        <v>907.4</v>
+        <v>898.9</v>
       </c>
       <c r="H71" s="12">
-        <f t="shared" si="15"/>
-        <v>907.4</v>
+        <f t="shared" si="10"/>
+        <v>3595.6</v>
       </c>
       <c r="I71" s="17"/>
       <c r="J71" s="12"/>
@@ -18656,15 +18662,15 @@
       <c r="Z71" s="12"/>
       <c r="AA71" s="12"/>
       <c r="AB71" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AC71" s="18">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+      <c r="AD71" s="20">
         <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="AD71" s="20">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -18679,16 +18685,16 @@
         <v>1</v>
       </c>
       <c r="D72" s="25" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E72" s="12"/>
       <c r="F72" s="25"/>
       <c r="G72" s="25">
-        <v>908.5</v>
+        <v>907.4</v>
       </c>
       <c r="H72" s="12">
-        <f t="shared" si="15"/>
-        <v>908.5</v>
+        <f t="shared" si="10"/>
+        <v>907.4</v>
       </c>
       <c r="I72" s="17"/>
       <c r="J72" s="12"/>
@@ -18710,15 +18716,15 @@
       <c r="Z72" s="12"/>
       <c r="AA72" s="12"/>
       <c r="AB72" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AC72" s="18">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AD72" s="20">
         <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="AD72" s="20">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -18733,16 +18739,16 @@
         <v>1</v>
       </c>
       <c r="D73" s="25" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E73" s="12"/>
       <c r="F73" s="25"/>
       <c r="G73" s="25">
-        <v>906.5</v>
+        <v>907.4</v>
       </c>
       <c r="H73" s="12">
-        <f t="shared" si="15"/>
-        <v>906.5</v>
+        <f t="shared" si="10"/>
+        <v>907.4</v>
       </c>
       <c r="I73" s="17"/>
       <c r="J73" s="12"/>
@@ -18764,19 +18770,19 @@
       <c r="Z73" s="12"/>
       <c r="AA73" s="12"/>
       <c r="AB73" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AC73" s="18">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AD73" s="20">
         <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="AD73" s="20">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" hidden="1" customHeight="1" spans="1:30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" customHeight="1" spans="1:30">
       <c r="A74" s="12">
         <v>70</v>
       </c>
@@ -18784,24 +18790,22 @@
         <v>214</v>
       </c>
       <c r="C74" s="25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D74" s="25" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E74" s="12"/>
       <c r="F74" s="25"/>
       <c r="G74" s="25">
-        <v>899.5</v>
+        <v>908.5</v>
       </c>
       <c r="H74" s="12">
-        <f t="shared" si="15"/>
-        <v>1799</v>
+        <f t="shared" si="10"/>
+        <v>908.5</v>
       </c>
       <c r="I74" s="17"/>
-      <c r="J74" s="13">
-        <v>2</v>
-      </c>
+      <c r="J74" s="12"/>
       <c r="K74" s="12"/>
       <c r="L74" s="12"/>
       <c r="M74" s="12"/>
@@ -18820,19 +18824,19 @@
       <c r="Z74" s="12"/>
       <c r="AA74" s="12"/>
       <c r="AB74" s="18">
-        <f>SUM(I74:N74)</f>
-        <v>2</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="AC74" s="18">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AD74" s="20">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AD74" s="20" t="str">
-        <f>IF(SUM(I74:N74)=C74,"完成",SUM(I74:N74))</f>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="75" hidden="1" customHeight="1" spans="1:30">
+    </row>
+    <row r="75" customHeight="1" spans="1:30">
       <c r="A75" s="12">
         <v>71</v>
       </c>
@@ -18843,21 +18847,19 @@
         <v>1</v>
       </c>
       <c r="D75" s="25" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E75" s="12"/>
       <c r="F75" s="25"/>
       <c r="G75" s="25">
-        <v>908</v>
+        <v>906.5</v>
       </c>
       <c r="H75" s="12">
-        <f t="shared" si="15"/>
-        <v>908</v>
+        <f t="shared" ref="H75:H106" si="16">G75*C75</f>
+        <v>906.5</v>
       </c>
       <c r="I75" s="17"/>
-      <c r="J75" s="13">
-        <v>1</v>
-      </c>
+      <c r="J75" s="12"/>
       <c r="K75" s="12"/>
       <c r="L75" s="12"/>
       <c r="M75" s="12"/>
@@ -18876,19 +18878,19 @@
       <c r="Z75" s="12"/>
       <c r="AA75" s="12"/>
       <c r="AB75" s="18">
-        <f>SUM(I75:N75)</f>
-        <v>1</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="AC75" s="18">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AD75" s="20">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AD75" s="20" t="str">
-        <f>IF(SUM(I75:N75)=C75,"完成",SUM(I75:N75))</f>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="76" hidden="1" customHeight="1" spans="1:30">
+    </row>
+    <row r="76" customHeight="1" spans="1:30">
       <c r="A76" s="12">
         <v>72</v>
       </c>
@@ -18896,23 +18898,23 @@
         <v>216</v>
       </c>
       <c r="C76" s="25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D76" s="25" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E76" s="12"/>
       <c r="F76" s="25"/>
       <c r="G76" s="25">
-        <v>908</v>
+        <v>899.5</v>
       </c>
       <c r="H76" s="12">
-        <f t="shared" si="15"/>
-        <v>908</v>
+        <f t="shared" si="16"/>
+        <v>1799</v>
       </c>
       <c r="I76" s="17"/>
       <c r="J76" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K76" s="12"/>
       <c r="L76" s="12"/>
@@ -18933,10 +18935,10 @@
       <c r="AA76" s="12"/>
       <c r="AB76" s="18">
         <f>SUM(I76:N76)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC76" s="18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AD76" s="20" t="str">
@@ -18955,19 +18957,21 @@
         <v>1</v>
       </c>
       <c r="D77" s="25" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E77" s="12"/>
       <c r="F77" s="25"/>
       <c r="G77" s="25">
-        <v>909.1</v>
+        <v>908</v>
       </c>
       <c r="H77" s="12">
-        <f t="shared" si="15"/>
-        <v>909.1</v>
+        <f t="shared" si="16"/>
+        <v>908</v>
       </c>
       <c r="I77" s="17"/>
-      <c r="J77" s="12"/>
+      <c r="J77" s="13">
+        <v>1</v>
+      </c>
       <c r="K77" s="12"/>
       <c r="L77" s="12"/>
       <c r="M77" s="12"/>
@@ -18986,16 +18990,16 @@
       <c r="Z77" s="12"/>
       <c r="AA77" s="12"/>
       <c r="AB77" s="18">
-        <f t="shared" ref="AB77:AB108" si="16">SUM(I77:AA77)</f>
-        <v>0</v>
+        <f>SUM(I77:N77)</f>
+        <v>1</v>
       </c>
       <c r="AC77" s="18">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="AD77" s="20">
-        <f t="shared" ref="AD77:AD108" si="17">IF(SUM(I77:AA77)=C77,"完成",SUM(I77:AA77))</f>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AD77" s="20" t="str">
+        <f>IF(SUM(I77:N77)=C77,"完成",SUM(I77:N77))</f>
+        <v>完成</v>
       </c>
     </row>
     <row r="78" customHeight="1" spans="1:30">
@@ -19009,19 +19013,21 @@
         <v>1</v>
       </c>
       <c r="D78" s="25" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E78" s="12"/>
       <c r="F78" s="25"/>
       <c r="G78" s="25">
-        <v>906.8</v>
+        <v>908</v>
       </c>
       <c r="H78" s="12">
-        <f t="shared" si="15"/>
-        <v>906.8</v>
+        <f t="shared" si="16"/>
+        <v>908</v>
       </c>
       <c r="I78" s="17"/>
-      <c r="J78" s="12"/>
+      <c r="J78" s="13">
+        <v>1</v>
+      </c>
       <c r="K78" s="12"/>
       <c r="L78" s="12"/>
       <c r="M78" s="12"/>
@@ -19040,16 +19046,16 @@
       <c r="Z78" s="12"/>
       <c r="AA78" s="12"/>
       <c r="AB78" s="18">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f>SUM(I78:N78)</f>
+        <v>1</v>
       </c>
       <c r="AC78" s="18">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="AD78" s="20">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AD78" s="20" t="str">
+        <f>IF(SUM(I78:N78)=C78,"完成",SUM(I78:N78))</f>
+        <v>完成</v>
       </c>
     </row>
     <row r="79" customHeight="1" spans="1:30">
@@ -19060,19 +19066,19 @@
         <v>219</v>
       </c>
       <c r="C79" s="25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D79" s="25" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E79" s="12"/>
       <c r="F79" s="25"/>
       <c r="G79" s="25">
-        <v>1099</v>
+        <v>909.1</v>
       </c>
       <c r="H79" s="12">
-        <f t="shared" si="15"/>
-        <v>2198</v>
+        <f t="shared" si="16"/>
+        <v>909.1</v>
       </c>
       <c r="I79" s="17"/>
       <c r="J79" s="12"/>
@@ -19094,15 +19100,15 @@
       <c r="Z79" s="12"/>
       <c r="AA79" s="12"/>
       <c r="AB79" s="18">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="AB79:AB110" si="17">SUM(I79:AA79)</f>
         <v>0</v>
       </c>
       <c r="AC79" s="18">
-        <f t="shared" si="14"/>
-        <v>2</v>
+        <f t="shared" si="15"/>
+        <v>1</v>
       </c>
       <c r="AD79" s="20">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="AD79:AD110" si="18">IF(SUM(I79:AA79)=C79,"完成",SUM(I79:AA79))</f>
         <v>0</v>
       </c>
     </row>
@@ -19117,16 +19123,16 @@
         <v>1</v>
       </c>
       <c r="D80" s="25" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E80" s="12"/>
       <c r="F80" s="25"/>
       <c r="G80" s="25">
-        <v>1103.7</v>
+        <v>906.8</v>
       </c>
       <c r="H80" s="12">
-        <f t="shared" si="15"/>
-        <v>1103.7</v>
+        <f t="shared" si="16"/>
+        <v>906.8</v>
       </c>
       <c r="I80" s="17"/>
       <c r="J80" s="12"/>
@@ -19148,15 +19154,15 @@
       <c r="Z80" s="12"/>
       <c r="AA80" s="12"/>
       <c r="AB80" s="18">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AC80" s="18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="AD80" s="20">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -19168,19 +19174,19 @@
         <v>221</v>
       </c>
       <c r="C81" s="25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D81" s="25" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E81" s="12"/>
       <c r="F81" s="25"/>
       <c r="G81" s="25">
-        <v>1103.7</v>
+        <v>1099</v>
       </c>
       <c r="H81" s="12">
-        <f t="shared" si="15"/>
-        <v>1103.7</v>
+        <f t="shared" si="16"/>
+        <v>2198</v>
       </c>
       <c r="I81" s="17"/>
       <c r="J81" s="12"/>
@@ -19202,15 +19208,15 @@
       <c r="Z81" s="12"/>
       <c r="AA81" s="12"/>
       <c r="AB81" s="18">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AC81" s="18">
-        <f t="shared" si="14"/>
-        <v>1</v>
+        <f t="shared" si="15"/>
+        <v>2</v>
       </c>
       <c r="AD81" s="20">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -19225,16 +19231,16 @@
         <v>1</v>
       </c>
       <c r="D82" s="25" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E82" s="12"/>
       <c r="F82" s="25"/>
       <c r="G82" s="25">
-        <v>1102.8</v>
+        <v>1103.7</v>
       </c>
       <c r="H82" s="12">
-        <f t="shared" si="15"/>
-        <v>1102.8</v>
+        <f t="shared" si="16"/>
+        <v>1103.7</v>
       </c>
       <c r="I82" s="17"/>
       <c r="J82" s="12"/>
@@ -19256,15 +19262,15 @@
       <c r="Z82" s="12"/>
       <c r="AA82" s="12"/>
       <c r="AB82" s="18">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AC82" s="18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="AD82" s="20">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -19279,16 +19285,16 @@
         <v>1</v>
       </c>
       <c r="D83" s="25" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E83" s="12"/>
       <c r="F83" s="25"/>
       <c r="G83" s="25">
-        <v>1100.8</v>
+        <v>1103.7</v>
       </c>
       <c r="H83" s="12">
-        <f t="shared" si="15"/>
-        <v>1100.8</v>
+        <f t="shared" si="16"/>
+        <v>1103.7</v>
       </c>
       <c r="I83" s="17"/>
       <c r="J83" s="12"/>
@@ -19310,15 +19316,15 @@
       <c r="Z83" s="12"/>
       <c r="AA83" s="12"/>
       <c r="AB83" s="18">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AC83" s="18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="AD83" s="20">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -19330,19 +19336,19 @@
         <v>224</v>
       </c>
       <c r="C84" s="25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D84" s="25" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="E84" s="12"/>
       <c r="F84" s="25"/>
       <c r="G84" s="25">
-        <v>898.9</v>
+        <v>1102.8</v>
       </c>
       <c r="H84" s="12">
-        <f t="shared" si="15"/>
-        <v>1797.8</v>
+        <f t="shared" si="16"/>
+        <v>1102.8</v>
       </c>
       <c r="I84" s="17"/>
       <c r="J84" s="12"/>
@@ -19364,15 +19370,15 @@
       <c r="Z84" s="12"/>
       <c r="AA84" s="12"/>
       <c r="AB84" s="18">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AC84" s="18">
-        <f t="shared" si="14"/>
-        <v>2</v>
+        <f t="shared" si="15"/>
+        <v>1</v>
       </c>
       <c r="AD84" s="20">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -19387,16 +19393,16 @@
         <v>1</v>
       </c>
       <c r="D85" s="25" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="E85" s="12"/>
       <c r="F85" s="25"/>
       <c r="G85" s="25">
-        <v>907.4</v>
+        <v>1100.8</v>
       </c>
       <c r="H85" s="12">
-        <f t="shared" si="15"/>
-        <v>907.4</v>
+        <f t="shared" si="16"/>
+        <v>1100.8</v>
       </c>
       <c r="I85" s="17"/>
       <c r="J85" s="12"/>
@@ -19418,15 +19424,15 @@
       <c r="Z85" s="12"/>
       <c r="AA85" s="12"/>
       <c r="AB85" s="18">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AC85" s="18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="AD85" s="20">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -19438,19 +19444,19 @@
         <v>226</v>
       </c>
       <c r="C86" s="25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D86" s="25" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E86" s="12"/>
       <c r="F86" s="25"/>
       <c r="G86" s="25">
-        <v>907.4</v>
+        <v>898.9</v>
       </c>
       <c r="H86" s="12">
-        <f t="shared" si="15"/>
-        <v>907.4</v>
+        <f t="shared" si="16"/>
+        <v>1797.8</v>
       </c>
       <c r="I86" s="17"/>
       <c r="J86" s="12"/>
@@ -19472,15 +19478,15 @@
       <c r="Z86" s="12"/>
       <c r="AA86" s="12"/>
       <c r="AB86" s="18">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AC86" s="18">
-        <f t="shared" si="14"/>
-        <v>1</v>
+        <f t="shared" si="15"/>
+        <v>2</v>
       </c>
       <c r="AD86" s="20">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -19495,16 +19501,16 @@
         <v>1</v>
       </c>
       <c r="D87" s="25" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E87" s="12"/>
       <c r="F87" s="25"/>
       <c r="G87" s="25">
-        <v>909</v>
+        <v>907.4</v>
       </c>
       <c r="H87" s="12">
-        <f t="shared" si="15"/>
-        <v>909</v>
+        <f t="shared" si="16"/>
+        <v>907.4</v>
       </c>
       <c r="I87" s="17"/>
       <c r="J87" s="12"/>
@@ -19526,15 +19532,15 @@
       <c r="Z87" s="12"/>
       <c r="AA87" s="12"/>
       <c r="AB87" s="18">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AC87" s="18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="AD87" s="20">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -19549,16 +19555,16 @@
         <v>1</v>
       </c>
       <c r="D88" s="25" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E88" s="12"/>
       <c r="F88" s="25"/>
       <c r="G88" s="25">
-        <v>906.7</v>
+        <v>907.4</v>
       </c>
       <c r="H88" s="12">
-        <f t="shared" si="15"/>
-        <v>906.7</v>
+        <f t="shared" si="16"/>
+        <v>907.4</v>
       </c>
       <c r="I88" s="17"/>
       <c r="J88" s="12"/>
@@ -19580,15 +19586,15 @@
       <c r="Z88" s="12"/>
       <c r="AA88" s="12"/>
       <c r="AB88" s="18">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AC88" s="18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="AD88" s="20">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -19596,23 +19602,23 @@
       <c r="A89" s="12">
         <v>85</v>
       </c>
-      <c r="B89" s="12" t="s">
+      <c r="B89" s="25" t="s">
         <v>229</v>
       </c>
-      <c r="C89" s="12">
+      <c r="C89" s="25">
         <v>1</v>
       </c>
       <c r="D89" s="25" t="s">
-        <v>230</v>
+        <v>185</v>
       </c>
       <c r="E89" s="12"/>
       <c r="F89" s="25"/>
       <c r="G89" s="25">
-        <v>2027.1</v>
+        <v>909</v>
       </c>
       <c r="H89" s="12">
-        <f t="shared" si="15"/>
-        <v>2027.1</v>
+        <f t="shared" si="16"/>
+        <v>909</v>
       </c>
       <c r="I89" s="17"/>
       <c r="J89" s="12"/>
@@ -19634,39 +19640,39 @@
       <c r="Z89" s="12"/>
       <c r="AA89" s="12"/>
       <c r="AB89" s="18">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AC89" s="18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="AD89" s="20">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" hidden="1" customHeight="1" spans="1:30">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" customHeight="1" spans="1:30">
       <c r="A90" s="12">
         <v>86</v>
       </c>
-      <c r="B90" s="12" t="s">
-        <v>231</v>
-      </c>
-      <c r="C90" s="12">
-        <v>20</v>
+      <c r="B90" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="C90" s="25">
+        <v>1</v>
       </c>
       <c r="D90" s="25" t="s">
-        <v>232</v>
+        <v>185</v>
       </c>
       <c r="E90" s="12"/>
-      <c r="F90" s="12"/>
-      <c r="G90" s="12">
-        <v>1651.1</v>
+      <c r="F90" s="25"/>
+      <c r="G90" s="25">
+        <v>906.7</v>
       </c>
       <c r="H90" s="12">
-        <f t="shared" si="15"/>
-        <v>33022</v>
+        <f t="shared" si="16"/>
+        <v>906.7</v>
       </c>
       <c r="I90" s="17"/>
       <c r="J90" s="12"/>
@@ -19678,9 +19684,7 @@
       <c r="P90" s="12"/>
       <c r="Q90" s="12"/>
       <c r="R90" s="12"/>
-      <c r="S90" s="12">
-        <v>20</v>
-      </c>
+      <c r="S90" s="12"/>
       <c r="T90" s="12"/>
       <c r="U90" s="12"/>
       <c r="V90" s="12"/>
@@ -19690,16 +19694,16 @@
       <c r="Z90" s="12"/>
       <c r="AA90" s="12"/>
       <c r="AB90" s="18">
-        <f t="shared" si="16"/>
-        <v>20</v>
+        <f t="shared" si="17"/>
+        <v>0</v>
       </c>
       <c r="AC90" s="18">
-        <f t="shared" ref="AC90:AC121" si="18">C90-AB90</f>
-        <v>0</v>
-      </c>
-      <c r="AD90" s="20" t="str">
-        <f t="shared" si="17"/>
-        <v>完成</v>
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AD90" s="20">
+        <f t="shared" si="18"/>
+        <v>0</v>
       </c>
     </row>
     <row r="91" customHeight="1" spans="1:30">
@@ -19707,22 +19711,22 @@
         <v>87</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C91" s="12">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D91" s="25" t="s">
         <v>232</v>
       </c>
       <c r="E91" s="12"/>
-      <c r="F91" s="12"/>
-      <c r="G91" s="12">
-        <v>1651.1</v>
+      <c r="F91" s="25"/>
+      <c r="G91" s="25">
+        <v>2027.1</v>
       </c>
       <c r="H91" s="12">
-        <f t="shared" si="15"/>
-        <v>11557.7</v>
+        <f t="shared" si="16"/>
+        <v>2027.1</v>
       </c>
       <c r="I91" s="17"/>
       <c r="J91" s="12"/>
@@ -19734,9 +19738,7 @@
       <c r="P91" s="12"/>
       <c r="Q91" s="12"/>
       <c r="R91" s="12"/>
-      <c r="S91" s="12">
-        <v>3</v>
-      </c>
+      <c r="S91" s="12"/>
       <c r="T91" s="12"/>
       <c r="U91" s="12"/>
       <c r="V91" s="12"/>
@@ -19746,39 +19748,39 @@
       <c r="Z91" s="12"/>
       <c r="AA91" s="12"/>
       <c r="AB91" s="18">
-        <f t="shared" si="16"/>
-        <v>3</v>
+        <f t="shared" si="17"/>
+        <v>0</v>
       </c>
       <c r="AC91" s="18">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AD91" s="20">
         <f t="shared" si="18"/>
-        <v>4</v>
-      </c>
-      <c r="AD91" s="20">
-        <f t="shared" si="17"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" hidden="1" customHeight="1" spans="1:30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" customHeight="1" spans="1:30">
       <c r="A92" s="12">
         <v>88</v>
       </c>
       <c r="B92" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="C92" s="12">
+        <v>20</v>
+      </c>
+      <c r="D92" s="25" t="s">
         <v>234</v>
-      </c>
-      <c r="C92" s="12">
-        <v>1</v>
-      </c>
-      <c r="D92" s="25" t="s">
-        <v>232</v>
       </c>
       <c r="E92" s="12"/>
       <c r="F92" s="12"/>
       <c r="G92" s="12">
-        <v>1673.2</v>
+        <v>1651.1</v>
       </c>
       <c r="H92" s="12">
-        <f t="shared" si="15"/>
-        <v>1673.2</v>
+        <f t="shared" si="16"/>
+        <v>33022</v>
       </c>
       <c r="I92" s="17"/>
       <c r="J92" s="12"/>
@@ -19790,10 +19792,10 @@
       <c r="P92" s="12"/>
       <c r="Q92" s="12"/>
       <c r="R92" s="12"/>
-      <c r="S92" s="12"/>
-      <c r="T92" s="12">
-        <v>1</v>
-      </c>
+      <c r="S92" s="12">
+        <v>20</v>
+      </c>
+      <c r="T92" s="12"/>
       <c r="U92" s="12"/>
       <c r="V92" s="12"/>
       <c r="W92" s="12"/>
@@ -19802,19 +19804,19 @@
       <c r="Z92" s="12"/>
       <c r="AA92" s="12"/>
       <c r="AB92" s="18">
-        <f t="shared" si="16"/>
-        <v>1</v>
+        <f t="shared" si="17"/>
+        <v>20</v>
       </c>
       <c r="AC92" s="18">
+        <f t="shared" ref="AC92:AC123" si="19">C92-AB92</f>
+        <v>0</v>
+      </c>
+      <c r="AD92" s="20" t="str">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AD92" s="20" t="str">
-        <f t="shared" si="17"/>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="93" hidden="1" customHeight="1" spans="1:30">
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="93" customHeight="1" spans="1:30">
       <c r="A93" s="12">
         <v>89</v>
       </c>
@@ -19822,19 +19824,19 @@
         <v>235</v>
       </c>
       <c r="C93" s="12">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D93" s="25" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E93" s="12"/>
       <c r="F93" s="12"/>
       <c r="G93" s="12">
-        <v>1141.6</v>
+        <v>1651.1</v>
       </c>
       <c r="H93" s="12">
-        <f t="shared" si="15"/>
-        <v>2283.2</v>
+        <f t="shared" si="16"/>
+        <v>11557.7</v>
       </c>
       <c r="I93" s="17"/>
       <c r="J93" s="12"/>
@@ -19847,11 +19849,9 @@
       <c r="Q93" s="12"/>
       <c r="R93" s="12"/>
       <c r="S93" s="12">
-        <v>1</v>
-      </c>
-      <c r="T93" s="12">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="T93" s="12"/>
       <c r="U93" s="12"/>
       <c r="V93" s="12"/>
       <c r="W93" s="12"/>
@@ -19860,19 +19860,19 @@
       <c r="Z93" s="12"/>
       <c r="AA93" s="12"/>
       <c r="AB93" s="18">
-        <f t="shared" si="16"/>
-        <v>2</v>
+        <f t="shared" si="17"/>
+        <v>3</v>
       </c>
       <c r="AC93" s="18">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+      <c r="AD93" s="20">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AD93" s="20" t="str">
-        <f t="shared" si="17"/>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="94" hidden="1" customHeight="1" spans="1:30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" customHeight="1" spans="1:30">
       <c r="A94" s="12">
         <v>90</v>
       </c>
@@ -19880,19 +19880,19 @@
         <v>236</v>
       </c>
       <c r="C94" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D94" s="25" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E94" s="12"/>
       <c r="F94" s="12"/>
       <c r="G94" s="12">
-        <v>1141.6</v>
+        <v>1673.2</v>
       </c>
       <c r="H94" s="12">
-        <f t="shared" si="15"/>
-        <v>2283.2</v>
+        <f t="shared" si="16"/>
+        <v>1673.2</v>
       </c>
       <c r="I94" s="17"/>
       <c r="J94" s="12"/>
@@ -19906,7 +19906,7 @@
       <c r="R94" s="12"/>
       <c r="S94" s="12"/>
       <c r="T94" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U94" s="12"/>
       <c r="V94" s="12"/>
@@ -19916,19 +19916,19 @@
       <c r="Z94" s="12"/>
       <c r="AA94" s="12"/>
       <c r="AB94" s="18">
-        <f t="shared" si="16"/>
-        <v>2</v>
+        <f t="shared" si="17"/>
+        <v>1</v>
       </c>
       <c r="AC94" s="18">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AD94" s="20" t="str">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AD94" s="20" t="str">
-        <f t="shared" si="17"/>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="95" hidden="1" customHeight="1" spans="1:30">
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="95" customHeight="1" spans="1:30">
       <c r="A95" s="12">
         <v>91</v>
       </c>
@@ -19936,19 +19936,19 @@
         <v>237</v>
       </c>
       <c r="C95" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D95" s="25" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E95" s="12"/>
       <c r="F95" s="12"/>
       <c r="G95" s="12">
-        <v>1607.9</v>
+        <v>1141.6</v>
       </c>
       <c r="H95" s="12">
-        <f t="shared" si="15"/>
-        <v>1607.9</v>
+        <f t="shared" si="16"/>
+        <v>2283.2</v>
       </c>
       <c r="I95" s="17"/>
       <c r="J95" s="12"/>
@@ -19960,7 +19960,9 @@
       <c r="P95" s="12"/>
       <c r="Q95" s="12"/>
       <c r="R95" s="12"/>
-      <c r="S95" s="12"/>
+      <c r="S95" s="12">
+        <v>1</v>
+      </c>
       <c r="T95" s="12">
         <v>1</v>
       </c>
@@ -19972,19 +19974,19 @@
       <c r="Z95" s="12"/>
       <c r="AA95" s="12"/>
       <c r="AB95" s="18">
-        <f t="shared" si="16"/>
-        <v>1</v>
+        <f t="shared" si="17"/>
+        <v>2</v>
       </c>
       <c r="AC95" s="18">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AD95" s="20" t="str">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AD95" s="20" t="str">
-        <f t="shared" si="17"/>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="96" hidden="1" customHeight="1" spans="1:30">
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="96" customHeight="1" spans="1:30">
       <c r="A96" s="12">
         <v>92</v>
       </c>
@@ -19995,16 +19997,16 @@
         <v>2</v>
       </c>
       <c r="D96" s="25" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E96" s="12"/>
       <c r="F96" s="12"/>
       <c r="G96" s="12">
-        <v>1607.9</v>
+        <v>1141.6</v>
       </c>
       <c r="H96" s="12">
-        <f t="shared" si="15"/>
-        <v>3215.8</v>
+        <f t="shared" si="16"/>
+        <v>2283.2</v>
       </c>
       <c r="I96" s="17"/>
       <c r="J96" s="12"/>
@@ -20028,19 +20030,19 @@
       <c r="Z96" s="12"/>
       <c r="AA96" s="12"/>
       <c r="AB96" s="18">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="AC96" s="18">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AD96" s="20" t="str">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AD96" s="20" t="str">
-        <f t="shared" si="17"/>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="97" hidden="1" customHeight="1" spans="1:30">
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="97" customHeight="1" spans="1:30">
       <c r="A97" s="12">
         <v>93</v>
       </c>
@@ -20051,7 +20053,7 @@
         <v>1</v>
       </c>
       <c r="D97" s="25" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E97" s="12"/>
       <c r="F97" s="12"/>
@@ -20059,7 +20061,7 @@
         <v>1607.9</v>
       </c>
       <c r="H97" s="12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1607.9</v>
       </c>
       <c r="I97" s="17"/>
@@ -20084,19 +20086,19 @@
       <c r="Z97" s="12"/>
       <c r="AA97" s="12"/>
       <c r="AB97" s="18">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="AC97" s="18">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AD97" s="20" t="str">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AD97" s="20" t="str">
-        <f t="shared" si="17"/>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="98" hidden="1" customHeight="1" spans="1:30">
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="98" customHeight="1" spans="1:30">
       <c r="A98" s="12">
         <v>94</v>
       </c>
@@ -20104,19 +20106,19 @@
         <v>240</v>
       </c>
       <c r="C98" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D98" s="25" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E98" s="12"/>
       <c r="F98" s="12"/>
       <c r="G98" s="12">
-        <v>1507.2</v>
+        <v>1607.9</v>
       </c>
       <c r="H98" s="12">
-        <f t="shared" si="15"/>
-        <v>1507.2</v>
+        <f t="shared" si="16"/>
+        <v>3215.8</v>
       </c>
       <c r="I98" s="17"/>
       <c r="J98" s="12"/>
@@ -20130,7 +20132,7 @@
       <c r="R98" s="12"/>
       <c r="S98" s="12"/>
       <c r="T98" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U98" s="12"/>
       <c r="V98" s="12"/>
@@ -20140,15 +20142,15 @@
       <c r="Z98" s="12"/>
       <c r="AA98" s="12"/>
       <c r="AB98" s="18">
-        <f t="shared" si="16"/>
-        <v>1</v>
+        <f t="shared" si="17"/>
+        <v>2</v>
       </c>
       <c r="AC98" s="18">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AD98" s="20" t="str">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AD98" s="20" t="str">
-        <f t="shared" si="17"/>
         <v>完成</v>
       </c>
     </row>
@@ -20160,19 +20162,19 @@
         <v>241</v>
       </c>
       <c r="C99" s="12">
-        <v>15</v>
-      </c>
-      <c r="D99" s="12" t="s">
-        <v>242</v>
+        <v>1</v>
+      </c>
+      <c r="D99" s="25" t="s">
+        <v>234</v>
       </c>
       <c r="E99" s="12"/>
       <c r="F99" s="12"/>
       <c r="G99" s="12">
-        <v>238.2</v>
+        <v>1607.9</v>
       </c>
       <c r="H99" s="12">
-        <f t="shared" si="15"/>
-        <v>3573</v>
+        <f t="shared" si="16"/>
+        <v>1607.9</v>
       </c>
       <c r="I99" s="17"/>
       <c r="J99" s="12"/>
@@ -20185,7 +20187,9 @@
       <c r="Q99" s="12"/>
       <c r="R99" s="12"/>
       <c r="S99" s="12"/>
-      <c r="T99" s="12"/>
+      <c r="T99" s="12">
+        <v>1</v>
+      </c>
       <c r="U99" s="12"/>
       <c r="V99" s="12"/>
       <c r="W99" s="12"/>
@@ -20194,16 +20198,16 @@
       <c r="Z99" s="12"/>
       <c r="AA99" s="12"/>
       <c r="AB99" s="18">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>1</v>
       </c>
       <c r="AC99" s="18">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AD99" s="20" t="str">
         <f t="shared" si="18"/>
-        <v>15</v>
-      </c>
-      <c r="AD99" s="20">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="100" customHeight="1" spans="1:30">
@@ -20211,22 +20215,22 @@
         <v>96</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C100" s="12">
-        <v>4</v>
-      </c>
-      <c r="D100" s="12" t="s">
-        <v>242</v>
+        <v>1</v>
+      </c>
+      <c r="D100" s="25" t="s">
+        <v>234</v>
       </c>
       <c r="E100" s="12"/>
       <c r="F100" s="12"/>
       <c r="G100" s="12">
-        <v>156</v>
+        <v>1507.2</v>
       </c>
       <c r="H100" s="12">
-        <f t="shared" si="15"/>
-        <v>624</v>
+        <f t="shared" si="16"/>
+        <v>1507.2</v>
       </c>
       <c r="I100" s="17"/>
       <c r="J100" s="12"/>
@@ -20239,7 +20243,9 @@
       <c r="Q100" s="12"/>
       <c r="R100" s="12"/>
       <c r="S100" s="12"/>
-      <c r="T100" s="12"/>
+      <c r="T100" s="12">
+        <v>1</v>
+      </c>
       <c r="U100" s="12"/>
       <c r="V100" s="12"/>
       <c r="W100" s="12"/>
@@ -20248,16 +20254,16 @@
       <c r="Z100" s="12"/>
       <c r="AA100" s="12"/>
       <c r="AB100" s="18">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>1</v>
       </c>
       <c r="AC100" s="18">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AD100" s="20" t="str">
         <f t="shared" si="18"/>
-        <v>4</v>
-      </c>
-      <c r="AD100" s="20">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="101" customHeight="1" spans="1:30">
@@ -20265,22 +20271,22 @@
         <v>97</v>
       </c>
       <c r="B101" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="C101" s="12">
+        <v>15</v>
+      </c>
+      <c r="D101" s="12" t="s">
         <v>244</v>
-      </c>
-      <c r="C101" s="12">
-        <v>2</v>
-      </c>
-      <c r="D101" s="12" t="s">
-        <v>242</v>
       </c>
       <c r="E101" s="12"/>
       <c r="F101" s="12"/>
       <c r="G101" s="12">
-        <v>227.2</v>
+        <v>238.2</v>
       </c>
       <c r="H101" s="12">
-        <f t="shared" si="15"/>
-        <v>454.4</v>
+        <f t="shared" si="16"/>
+        <v>3573</v>
       </c>
       <c r="I101" s="17"/>
       <c r="J101" s="12"/>
@@ -20302,15 +20308,15 @@
       <c r="Z101" s="12"/>
       <c r="AA101" s="12"/>
       <c r="AB101" s="18">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AC101" s="18">
+        <f t="shared" si="19"/>
+        <v>15</v>
+      </c>
+      <c r="AD101" s="20">
         <f t="shared" si="18"/>
-        <v>2</v>
-      </c>
-      <c r="AD101" s="20">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -20325,16 +20331,16 @@
         <v>4</v>
       </c>
       <c r="D102" s="12" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E102" s="12"/>
       <c r="F102" s="12"/>
       <c r="G102" s="12">
-        <v>229.1</v>
+        <v>156</v>
       </c>
       <c r="H102" s="12">
-        <f t="shared" si="15"/>
-        <v>916.4</v>
+        <f t="shared" si="16"/>
+        <v>624</v>
       </c>
       <c r="I102" s="17"/>
       <c r="J102" s="12"/>
@@ -20356,15 +20362,15 @@
       <c r="Z102" s="12"/>
       <c r="AA102" s="12"/>
       <c r="AB102" s="18">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AC102" s="18">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+      <c r="AD102" s="20">
         <f t="shared" si="18"/>
-        <v>4</v>
-      </c>
-      <c r="AD102" s="20">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -20376,19 +20382,19 @@
         <v>246</v>
       </c>
       <c r="C103" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D103" s="12" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E103" s="12"/>
       <c r="F103" s="12"/>
       <c r="G103" s="12">
-        <v>204.5</v>
+        <v>227.2</v>
       </c>
       <c r="H103" s="12">
-        <f t="shared" si="15"/>
-        <v>204.5</v>
+        <f t="shared" si="16"/>
+        <v>454.4</v>
       </c>
       <c r="I103" s="17"/>
       <c r="J103" s="12"/>
@@ -20410,15 +20416,15 @@
       <c r="Z103" s="12"/>
       <c r="AA103" s="12"/>
       <c r="AB103" s="18">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AC103" s="18">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="AD103" s="20">
         <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="AD103" s="20">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -20430,19 +20436,19 @@
         <v>247</v>
       </c>
       <c r="C104" s="12">
-        <v>222</v>
+        <v>4</v>
       </c>
       <c r="D104" s="12" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E104" s="12"/>
       <c r="F104" s="12"/>
       <c r="G104" s="12">
-        <v>5.2</v>
+        <v>229.1</v>
       </c>
       <c r="H104" s="12">
-        <f t="shared" si="15"/>
-        <v>1154.4</v>
+        <f t="shared" si="16"/>
+        <v>916.4</v>
       </c>
       <c r="I104" s="17"/>
       <c r="J104" s="12"/>
@@ -20464,15 +20470,15 @@
       <c r="Z104" s="12"/>
       <c r="AA104" s="12"/>
       <c r="AB104" s="18">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AC104" s="18">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+      <c r="AD104" s="20">
         <f t="shared" si="18"/>
-        <v>222</v>
-      </c>
-      <c r="AD104" s="20">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -20481,22 +20487,22 @@
         <v>101</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C105" s="12">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="D105" s="12" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E105" s="12"/>
       <c r="F105" s="12"/>
       <c r="G105" s="12">
-        <v>7.8</v>
+        <v>204.5</v>
       </c>
       <c r="H105" s="12">
-        <f t="shared" si="15"/>
-        <v>413.4</v>
+        <f t="shared" si="16"/>
+        <v>204.5</v>
       </c>
       <c r="I105" s="17"/>
       <c r="J105" s="12"/>
@@ -20518,15 +20524,15 @@
       <c r="Z105" s="12"/>
       <c r="AA105" s="12"/>
       <c r="AB105" s="18">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AC105" s="18">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="AD105" s="20">
         <f t="shared" si="18"/>
-        <v>53</v>
-      </c>
-      <c r="AD105" s="20">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -20535,22 +20541,22 @@
         <v>102</v>
       </c>
       <c r="B106" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="C106" s="12">
+        <v>222</v>
+      </c>
+      <c r="D106" s="12" t="s">
         <v>250</v>
-      </c>
-      <c r="C106" s="12">
-        <v>53</v>
-      </c>
-      <c r="D106" s="12" t="s">
-        <v>248</v>
       </c>
       <c r="E106" s="12"/>
       <c r="F106" s="12"/>
       <c r="G106" s="12">
-        <v>3.1</v>
+        <v>5.2</v>
       </c>
       <c r="H106" s="12">
-        <f t="shared" si="15"/>
-        <v>164.3</v>
+        <f t="shared" si="16"/>
+        <v>1154.4</v>
       </c>
       <c r="I106" s="17"/>
       <c r="J106" s="12"/>
@@ -20572,15 +20578,15 @@
       <c r="Z106" s="12"/>
       <c r="AA106" s="12"/>
       <c r="AB106" s="18">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AC106" s="18">
+        <f t="shared" si="19"/>
+        <v>222</v>
+      </c>
+      <c r="AD106" s="20">
         <f t="shared" si="18"/>
-        <v>53</v>
-      </c>
-      <c r="AD106" s="20">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -20592,19 +20598,19 @@
         <v>251</v>
       </c>
       <c r="C107" s="12">
-        <v>204</v>
+        <v>53</v>
       </c>
       <c r="D107" s="12" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E107" s="12"/>
       <c r="F107" s="12"/>
       <c r="G107" s="12">
-        <v>6.2</v>
+        <v>7.8</v>
       </c>
       <c r="H107" s="12">
-        <f t="shared" si="15"/>
-        <v>1264.8</v>
+        <f t="shared" ref="H107:H138" si="20">G107*C107</f>
+        <v>413.4</v>
       </c>
       <c r="I107" s="17"/>
       <c r="J107" s="12"/>
@@ -20626,15 +20632,15 @@
       <c r="Z107" s="12"/>
       <c r="AA107" s="12"/>
       <c r="AB107" s="18">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AC107" s="18">
+        <f t="shared" si="19"/>
+        <v>53</v>
+      </c>
+      <c r="AD107" s="20">
         <f t="shared" si="18"/>
-        <v>204</v>
-      </c>
-      <c r="AD107" s="20">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -20646,19 +20652,19 @@
         <v>252</v>
       </c>
       <c r="C108" s="12">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D108" s="12" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E108" s="12"/>
       <c r="F108" s="12"/>
       <c r="G108" s="12">
-        <v>8.4</v>
+        <v>3.1</v>
       </c>
       <c r="H108" s="12">
-        <f t="shared" si="15"/>
-        <v>420</v>
+        <f t="shared" si="20"/>
+        <v>164.3</v>
       </c>
       <c r="I108" s="17"/>
       <c r="J108" s="12"/>
@@ -20680,15 +20686,15 @@
       <c r="Z108" s="12"/>
       <c r="AA108" s="12"/>
       <c r="AB108" s="18">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AC108" s="18">
+        <f t="shared" si="19"/>
+        <v>53</v>
+      </c>
+      <c r="AD108" s="20">
         <f t="shared" si="18"/>
-        <v>50</v>
-      </c>
-      <c r="AD108" s="20">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -20700,19 +20706,19 @@
         <v>253</v>
       </c>
       <c r="C109" s="12">
-        <v>48</v>
+        <v>204</v>
       </c>
       <c r="D109" s="12" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E109" s="12"/>
       <c r="F109" s="12"/>
       <c r="G109" s="12">
-        <v>4.3</v>
+        <v>6.2</v>
       </c>
       <c r="H109" s="12">
-        <f t="shared" si="15"/>
-        <v>206.4</v>
+        <f t="shared" si="20"/>
+        <v>1264.8</v>
       </c>
       <c r="I109" s="17"/>
       <c r="J109" s="12"/>
@@ -20734,15 +20740,15 @@
       <c r="Z109" s="12"/>
       <c r="AA109" s="12"/>
       <c r="AB109" s="18">
-        <f t="shared" ref="AB109:AB140" si="19">SUM(I109:AA109)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AC109" s="18">
+        <f t="shared" si="19"/>
+        <v>204</v>
+      </c>
+      <c r="AD109" s="20">
         <f t="shared" si="18"/>
-        <v>48</v>
-      </c>
-      <c r="AD109" s="20">
-        <f t="shared" ref="AD109:AD140" si="20">IF(SUM(I109:AA109)=C109,"完成",SUM(I109:AA109))</f>
         <v>0</v>
       </c>
     </row>
@@ -20754,19 +20760,19 @@
         <v>254</v>
       </c>
       <c r="C110" s="12">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="D110" s="12" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="E110" s="12"/>
       <c r="F110" s="12"/>
       <c r="G110" s="12">
-        <v>125.1</v>
+        <v>8.4</v>
       </c>
       <c r="H110" s="12">
-        <f t="shared" si="15"/>
-        <v>1626.3</v>
+        <f t="shared" si="20"/>
+        <v>420</v>
       </c>
       <c r="I110" s="17"/>
       <c r="J110" s="12"/>
@@ -20779,9 +20785,7 @@
       <c r="Q110" s="12"/>
       <c r="R110" s="12"/>
       <c r="S110" s="12"/>
-      <c r="T110" s="12">
-        <v>10</v>
-      </c>
+      <c r="T110" s="12"/>
       <c r="U110" s="12"/>
       <c r="V110" s="12"/>
       <c r="W110" s="12"/>
@@ -20790,39 +20794,39 @@
       <c r="Z110" s="12"/>
       <c r="AA110" s="12"/>
       <c r="AB110" s="18">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AC110" s="18">
         <f t="shared" si="19"/>
-        <v>10</v>
-      </c>
-      <c r="AC110" s="18">
+        <v>50</v>
+      </c>
+      <c r="AD110" s="20">
         <f t="shared" si="18"/>
-        <v>3</v>
-      </c>
-      <c r="AD110" s="20">
-        <f t="shared" si="20"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="111" hidden="1" customHeight="1" spans="1:30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" customHeight="1" spans="1:30">
       <c r="A111" s="12">
         <v>107</v>
       </c>
       <c r="B111" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C111" s="12">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="D111" s="12" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="E111" s="12"/>
       <c r="F111" s="12"/>
       <c r="G111" s="12">
-        <v>84.8</v>
+        <v>4.3</v>
       </c>
       <c r="H111" s="12">
-        <f t="shared" si="15"/>
-        <v>508.8</v>
+        <f t="shared" si="20"/>
+        <v>206.4</v>
       </c>
       <c r="I111" s="17"/>
       <c r="J111" s="12"/>
@@ -20835,9 +20839,7 @@
       <c r="Q111" s="12"/>
       <c r="R111" s="12"/>
       <c r="S111" s="12"/>
-      <c r="T111" s="12">
-        <v>6</v>
-      </c>
+      <c r="T111" s="12"/>
       <c r="U111" s="12"/>
       <c r="V111" s="12"/>
       <c r="W111" s="12"/>
@@ -20846,16 +20848,16 @@
       <c r="Z111" s="12"/>
       <c r="AA111" s="12"/>
       <c r="AB111" s="18">
+        <f t="shared" ref="AB111:AB142" si="21">SUM(I111:AA111)</f>
+        <v>0</v>
+      </c>
+      <c r="AC111" s="18">
         <f t="shared" si="19"/>
-        <v>6</v>
-      </c>
-      <c r="AC111" s="18">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AD111" s="20" t="str">
-        <f t="shared" si="20"/>
-        <v>完成</v>
+        <v>48</v>
+      </c>
+      <c r="AD111" s="20">
+        <f t="shared" ref="AD111:AD142" si="22">IF(SUM(I111:AA111)=C111,"完成",SUM(I111:AA111))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="112" customHeight="1" spans="1:30">
@@ -20863,22 +20865,22 @@
         <v>108</v>
       </c>
       <c r="B112" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="C112" s="12">
+        <v>13</v>
+      </c>
+      <c r="D112" s="12" t="s">
         <v>257</v>
-      </c>
-      <c r="C112" s="12">
-        <v>6</v>
-      </c>
-      <c r="D112" s="12" t="s">
-        <v>255</v>
       </c>
       <c r="E112" s="12"/>
       <c r="F112" s="12"/>
       <c r="G112" s="12">
-        <v>119.7</v>
+        <v>125.1</v>
       </c>
       <c r="H112" s="12">
-        <f t="shared" si="15"/>
-        <v>718.2</v>
+        <f t="shared" si="20"/>
+        <v>1626.3</v>
       </c>
       <c r="I112" s="17"/>
       <c r="J112" s="12"/>
@@ -20891,7 +20893,9 @@
       <c r="Q112" s="12"/>
       <c r="R112" s="12"/>
       <c r="S112" s="12"/>
-      <c r="T112" s="12"/>
+      <c r="T112" s="12">
+        <v>10</v>
+      </c>
       <c r="U112" s="12"/>
       <c r="V112" s="12"/>
       <c r="W112" s="12"/>
@@ -20900,19 +20904,19 @@
       <c r="Z112" s="12"/>
       <c r="AA112" s="12"/>
       <c r="AB112" s="18">
+        <f t="shared" si="21"/>
+        <v>10</v>
+      </c>
+      <c r="AC112" s="18">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AC112" s="18">
-        <f t="shared" si="18"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AD112" s="20">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" hidden="1" customHeight="1" spans="1:30">
+        <f t="shared" si="22"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" customHeight="1" spans="1:30">
       <c r="A113" s="12">
         <v>109</v>
       </c>
@@ -20920,19 +20924,19 @@
         <v>258</v>
       </c>
       <c r="C113" s="12">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D113" s="12" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E113" s="12"/>
       <c r="F113" s="12"/>
       <c r="G113" s="12">
-        <v>120.9</v>
+        <v>84.8</v>
       </c>
       <c r="H113" s="12">
-        <f t="shared" si="15"/>
-        <v>120.9</v>
+        <f t="shared" si="20"/>
+        <v>508.8</v>
       </c>
       <c r="I113" s="17"/>
       <c r="J113" s="12"/>
@@ -20946,7 +20950,7 @@
       <c r="R113" s="12"/>
       <c r="S113" s="12"/>
       <c r="T113" s="12">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="U113" s="12"/>
       <c r="V113" s="12"/>
@@ -20956,19 +20960,19 @@
       <c r="Z113" s="12"/>
       <c r="AA113" s="12"/>
       <c r="AB113" s="18">
+        <f t="shared" si="21"/>
+        <v>6</v>
+      </c>
+      <c r="AC113" s="18">
         <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="AC113" s="18">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AD113" s="20" t="str">
-        <f t="shared" si="20"/>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="114" hidden="1" customHeight="1" spans="1:30">
+        <f t="shared" si="22"/>
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="114" customHeight="1" spans="1:30">
       <c r="A114" s="12">
         <v>110</v>
       </c>
@@ -20976,19 +20980,19 @@
         <v>259</v>
       </c>
       <c r="C114" s="12">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D114" s="12" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E114" s="12"/>
       <c r="F114" s="12"/>
       <c r="G114" s="12">
-        <v>122.3</v>
+        <v>119.7</v>
       </c>
       <c r="H114" s="12">
-        <f t="shared" si="15"/>
-        <v>122.3</v>
+        <f t="shared" si="20"/>
+        <v>718.2</v>
       </c>
       <c r="I114" s="17"/>
       <c r="J114" s="12"/>
@@ -21001,9 +21005,7 @@
       <c r="Q114" s="12"/>
       <c r="R114" s="12"/>
       <c r="S114" s="12"/>
-      <c r="T114" s="12">
-        <v>1</v>
-      </c>
+      <c r="T114" s="12"/>
       <c r="U114" s="12"/>
       <c r="V114" s="12"/>
       <c r="W114" s="12"/>
@@ -21012,19 +21014,19 @@
       <c r="Z114" s="12"/>
       <c r="AA114" s="12"/>
       <c r="AB114" s="18">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AC114" s="18">
         <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="AC114" s="18">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AD114" s="20" t="str">
-        <f t="shared" si="20"/>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="115" hidden="1" customHeight="1" spans="1:30">
+        <v>6</v>
+      </c>
+      <c r="AD114" s="20">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" customHeight="1" spans="1:30">
       <c r="A115" s="12">
         <v>111</v>
       </c>
@@ -21035,16 +21037,16 @@
         <v>1</v>
       </c>
       <c r="D115" s="12" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E115" s="12"/>
       <c r="F115" s="12"/>
       <c r="G115" s="12">
-        <v>123.7</v>
+        <v>120.9</v>
       </c>
       <c r="H115" s="12">
-        <f t="shared" si="15"/>
-        <v>123.7</v>
+        <f t="shared" si="20"/>
+        <v>120.9</v>
       </c>
       <c r="I115" s="17"/>
       <c r="J115" s="12"/>
@@ -21068,19 +21070,19 @@
       <c r="Z115" s="12"/>
       <c r="AA115" s="12"/>
       <c r="AB115" s="18">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="AC115" s="18">
         <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="AC115" s="18">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AD115" s="20" t="str">
-        <f t="shared" si="20"/>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="116" hidden="1" customHeight="1" spans="1:30">
+        <f t="shared" si="22"/>
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="116" customHeight="1" spans="1:30">
       <c r="A116" s="12">
         <v>112</v>
       </c>
@@ -21091,16 +21093,16 @@
         <v>1</v>
       </c>
       <c r="D116" s="12" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E116" s="12"/>
       <c r="F116" s="12"/>
       <c r="G116" s="12">
-        <v>122</v>
+        <v>122.3</v>
       </c>
       <c r="H116" s="12">
-        <f t="shared" si="15"/>
-        <v>122</v>
+        <f t="shared" si="20"/>
+        <v>122.3</v>
       </c>
       <c r="I116" s="17"/>
       <c r="J116" s="12"/>
@@ -21124,15 +21126,15 @@
       <c r="Z116" s="12"/>
       <c r="AA116" s="12"/>
       <c r="AB116" s="18">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="AC116" s="18">
         <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="AC116" s="18">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AD116" s="20" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>完成</v>
       </c>
     </row>
@@ -21147,16 +21149,16 @@
         <v>1</v>
       </c>
       <c r="D117" s="12" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E117" s="12"/>
       <c r="F117" s="12"/>
       <c r="G117" s="12">
-        <v>118.6</v>
+        <v>123.7</v>
       </c>
       <c r="H117" s="12">
-        <f t="shared" si="15"/>
-        <v>118.6</v>
+        <f t="shared" si="20"/>
+        <v>123.7</v>
       </c>
       <c r="I117" s="17"/>
       <c r="J117" s="12"/>
@@ -21169,7 +21171,9 @@
       <c r="Q117" s="12"/>
       <c r="R117" s="12"/>
       <c r="S117" s="12"/>
-      <c r="T117" s="12"/>
+      <c r="T117" s="12">
+        <v>1</v>
+      </c>
       <c r="U117" s="12"/>
       <c r="V117" s="12"/>
       <c r="W117" s="12"/>
@@ -21178,16 +21182,16 @@
       <c r="Z117" s="12"/>
       <c r="AA117" s="12"/>
       <c r="AB117" s="18">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="AC117" s="18">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AC117" s="18">
-        <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="AD117" s="20">
-        <f t="shared" si="20"/>
-        <v>0</v>
+      <c r="AD117" s="20" t="str">
+        <f t="shared" si="22"/>
+        <v>完成</v>
       </c>
     </row>
     <row r="118" customHeight="1" spans="1:30">
@@ -21201,16 +21205,16 @@
         <v>1</v>
       </c>
       <c r="D118" s="12" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E118" s="12"/>
       <c r="F118" s="12"/>
       <c r="G118" s="12">
-        <v>115.2</v>
+        <v>122</v>
       </c>
       <c r="H118" s="12">
-        <f t="shared" si="15"/>
-        <v>115.2</v>
+        <f t="shared" si="20"/>
+        <v>122</v>
       </c>
       <c r="I118" s="17"/>
       <c r="J118" s="12"/>
@@ -21223,7 +21227,9 @@
       <c r="Q118" s="12"/>
       <c r="R118" s="12"/>
       <c r="S118" s="12"/>
-      <c r="T118" s="12"/>
+      <c r="T118" s="12">
+        <v>1</v>
+      </c>
       <c r="U118" s="12"/>
       <c r="V118" s="12"/>
       <c r="W118" s="12"/>
@@ -21232,16 +21238,16 @@
       <c r="Z118" s="12"/>
       <c r="AA118" s="12"/>
       <c r="AB118" s="18">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="AC118" s="18">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AC118" s="18">
-        <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="AD118" s="20">
-        <f t="shared" si="20"/>
-        <v>0</v>
+      <c r="AD118" s="20" t="str">
+        <f t="shared" si="22"/>
+        <v>完成</v>
       </c>
     </row>
     <row r="119" customHeight="1" spans="1:30">
@@ -21252,19 +21258,19 @@
         <v>264</v>
       </c>
       <c r="C119" s="12">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="D119" s="12" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E119" s="12"/>
       <c r="F119" s="12"/>
       <c r="G119" s="12">
-        <v>124</v>
+        <v>118.6</v>
       </c>
       <c r="H119" s="12">
-        <f t="shared" si="15"/>
-        <v>5580</v>
+        <f t="shared" si="20"/>
+        <v>118.6</v>
       </c>
       <c r="I119" s="17"/>
       <c r="J119" s="12"/>
@@ -21277,9 +21283,7 @@
       <c r="Q119" s="12"/>
       <c r="R119" s="12"/>
       <c r="S119" s="12"/>
-      <c r="T119" s="12">
-        <v>25</v>
-      </c>
+      <c r="T119" s="12"/>
       <c r="U119" s="12"/>
       <c r="V119" s="12"/>
       <c r="W119" s="12"/>
@@ -21288,19 +21292,19 @@
       <c r="Z119" s="12"/>
       <c r="AA119" s="12"/>
       <c r="AB119" s="18">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AC119" s="18">
         <f t="shared" si="19"/>
-        <v>25</v>
-      </c>
-      <c r="AC119" s="18">
-        <f t="shared" si="18"/>
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="AD119" s="20">
-        <f t="shared" si="20"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="120" hidden="1" customHeight="1" spans="1:30">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" customHeight="1" spans="1:30">
       <c r="A120" s="12">
         <v>116</v>
       </c>
@@ -21308,19 +21312,19 @@
         <v>265</v>
       </c>
       <c r="C120" s="12">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D120" s="12" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E120" s="12"/>
       <c r="F120" s="12"/>
       <c r="G120" s="12">
-        <v>83.7</v>
+        <v>115.2</v>
       </c>
       <c r="H120" s="12">
-        <f t="shared" si="15"/>
-        <v>753.3</v>
+        <f t="shared" si="20"/>
+        <v>115.2</v>
       </c>
       <c r="I120" s="17"/>
       <c r="J120" s="12"/>
@@ -21333,9 +21337,7 @@
       <c r="Q120" s="12"/>
       <c r="R120" s="12"/>
       <c r="S120" s="12"/>
-      <c r="T120" s="12">
-        <v>9</v>
-      </c>
+      <c r="T120" s="12"/>
       <c r="U120" s="12"/>
       <c r="V120" s="12"/>
       <c r="W120" s="12"/>
@@ -21344,16 +21346,16 @@
       <c r="Z120" s="12"/>
       <c r="AA120" s="12"/>
       <c r="AB120" s="18">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AC120" s="18">
         <f t="shared" si="19"/>
-        <v>9</v>
-      </c>
-      <c r="AC120" s="18">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AD120" s="20" t="str">
-        <f t="shared" si="20"/>
-        <v>完成</v>
+        <v>1</v>
+      </c>
+      <c r="AD120" s="20">
+        <f t="shared" si="22"/>
+        <v>0</v>
       </c>
     </row>
     <row r="121" customHeight="1" spans="1:30">
@@ -21364,19 +21366,19 @@
         <v>266</v>
       </c>
       <c r="C121" s="12">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="D121" s="12" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E121" s="12"/>
       <c r="F121" s="12"/>
       <c r="G121" s="12">
-        <v>118.6</v>
+        <v>124</v>
       </c>
       <c r="H121" s="12">
-        <f t="shared" si="15"/>
-        <v>711.6</v>
+        <f t="shared" si="20"/>
+        <v>5580</v>
       </c>
       <c r="I121" s="17"/>
       <c r="J121" s="12"/>
@@ -21389,7 +21391,9 @@
       <c r="Q121" s="12"/>
       <c r="R121" s="12"/>
       <c r="S121" s="12"/>
-      <c r="T121" s="12"/>
+      <c r="T121" s="12">
+        <v>25</v>
+      </c>
       <c r="U121" s="12"/>
       <c r="V121" s="12"/>
       <c r="W121" s="12"/>
@@ -21398,19 +21402,19 @@
       <c r="Z121" s="12"/>
       <c r="AA121" s="12"/>
       <c r="AB121" s="18">
+        <f t="shared" si="21"/>
+        <v>25</v>
+      </c>
+      <c r="AC121" s="18">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AC121" s="18">
-        <f t="shared" si="18"/>
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="AD121" s="20">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" hidden="1" customHeight="1" spans="1:30">
+        <f t="shared" si="22"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="122" customHeight="1" spans="1:30">
       <c r="A122" s="12">
         <v>118</v>
       </c>
@@ -21418,19 +21422,19 @@
         <v>267</v>
       </c>
       <c r="C122" s="12">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D122" s="12" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="E122" s="12"/>
       <c r="F122" s="12"/>
       <c r="G122" s="12">
-        <v>73.2</v>
+        <v>83.7</v>
       </c>
       <c r="H122" s="12">
-        <f t="shared" si="15"/>
-        <v>292.8</v>
+        <f t="shared" si="20"/>
+        <v>753.3</v>
       </c>
       <c r="I122" s="17"/>
       <c r="J122" s="12"/>
@@ -21444,7 +21448,7 @@
       <c r="R122" s="12"/>
       <c r="S122" s="12"/>
       <c r="T122" s="12">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="U122" s="12"/>
       <c r="V122" s="12"/>
@@ -21454,15 +21458,15 @@
       <c r="Z122" s="12"/>
       <c r="AA122" s="12"/>
       <c r="AB122" s="18">
+        <f t="shared" si="21"/>
+        <v>9</v>
+      </c>
+      <c r="AC122" s="18">
         <f t="shared" si="19"/>
-        <v>4</v>
-      </c>
-      <c r="AC122" s="18">
-        <f t="shared" ref="AC122:AC164" si="21">C122-AB122</f>
         <v>0</v>
       </c>
       <c r="AD122" s="20" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>完成</v>
       </c>
     </row>
@@ -21471,22 +21475,22 @@
         <v>119</v>
       </c>
       <c r="B123" s="12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C123" s="12">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D123" s="12" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="E123" s="12"/>
       <c r="F123" s="12"/>
       <c r="G123" s="12">
-        <v>75.8</v>
+        <v>118.6</v>
       </c>
       <c r="H123" s="12">
-        <f t="shared" si="15"/>
-        <v>606.4</v>
+        <f t="shared" si="20"/>
+        <v>711.6</v>
       </c>
       <c r="I123" s="17"/>
       <c r="J123" s="12"/>
@@ -21508,39 +21512,39 @@
       <c r="Z123" s="12"/>
       <c r="AA123" s="12"/>
       <c r="AB123" s="18">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AC123" s="18">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AC123" s="18">
-        <f t="shared" si="21"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AD123" s="20">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" hidden="1" customHeight="1" spans="1:30">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" customHeight="1" spans="1:30">
       <c r="A124" s="12">
         <v>120</v>
       </c>
       <c r="B124" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C124" s="12">
         <v>4</v>
       </c>
       <c r="D124" s="12" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E124" s="12"/>
       <c r="F124" s="12"/>
       <c r="G124" s="12">
-        <v>73.1</v>
+        <v>73.2</v>
       </c>
       <c r="H124" s="12">
-        <f t="shared" si="15"/>
-        <v>292.4</v>
+        <f t="shared" si="20"/>
+        <v>292.8</v>
       </c>
       <c r="I124" s="17"/>
       <c r="J124" s="12"/>
@@ -21564,15 +21568,15 @@
       <c r="Z124" s="12"/>
       <c r="AA124" s="12"/>
       <c r="AB124" s="18">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>4</v>
       </c>
       <c r="AC124" s="18">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="AC124:AC166" si="23">C124-AB124</f>
         <v>0</v>
       </c>
       <c r="AD124" s="20" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>完成</v>
       </c>
     </row>
@@ -21584,19 +21588,19 @@
         <v>271</v>
       </c>
       <c r="C125" s="12">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D125" s="12" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E125" s="12"/>
       <c r="F125" s="12"/>
       <c r="G125" s="12">
-        <v>89.2</v>
+        <v>75.8</v>
       </c>
       <c r="H125" s="12">
-        <f t="shared" si="15"/>
-        <v>356.8</v>
+        <f t="shared" si="20"/>
+        <v>606.4</v>
       </c>
       <c r="I125" s="17"/>
       <c r="J125" s="12"/>
@@ -21618,15 +21622,15 @@
       <c r="Z125" s="12"/>
       <c r="AA125" s="12"/>
       <c r="AB125" s="18">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AC125" s="18">
-        <f t="shared" si="21"/>
-        <v>4</v>
+        <f t="shared" si="23"/>
+        <v>8</v>
       </c>
       <c r="AD125" s="20">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -21638,19 +21642,19 @@
         <v>272</v>
       </c>
       <c r="C126" s="12">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D126" s="12" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E126" s="12"/>
       <c r="F126" s="12"/>
       <c r="G126" s="12">
-        <v>91.3</v>
+        <v>73.1</v>
       </c>
       <c r="H126" s="12">
-        <f t="shared" si="15"/>
-        <v>730.4</v>
+        <f t="shared" si="20"/>
+        <v>292.4</v>
       </c>
       <c r="I126" s="17"/>
       <c r="J126" s="12"/>
@@ -21663,7 +21667,9 @@
       <c r="Q126" s="12"/>
       <c r="R126" s="12"/>
       <c r="S126" s="12"/>
-      <c r="T126" s="12"/>
+      <c r="T126" s="12">
+        <v>4</v>
+      </c>
       <c r="U126" s="12"/>
       <c r="V126" s="12"/>
       <c r="W126" s="12"/>
@@ -21672,16 +21678,16 @@
       <c r="Z126" s="12"/>
       <c r="AA126" s="12"/>
       <c r="AB126" s="18">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>4</v>
       </c>
       <c r="AC126" s="18">
-        <f t="shared" si="21"/>
-        <v>8</v>
-      </c>
-      <c r="AD126" s="20">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AD126" s="20" t="str">
+        <f t="shared" si="22"/>
+        <v>完成</v>
       </c>
     </row>
     <row r="127" customHeight="1" spans="1:30">
@@ -21695,16 +21701,16 @@
         <v>4</v>
       </c>
       <c r="D127" s="12" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E127" s="12"/>
       <c r="F127" s="12"/>
       <c r="G127" s="12">
-        <v>89.1</v>
+        <v>89.2</v>
       </c>
       <c r="H127" s="12">
-        <f t="shared" si="15"/>
-        <v>356.4</v>
+        <f t="shared" si="20"/>
+        <v>356.8</v>
       </c>
       <c r="I127" s="17"/>
       <c r="J127" s="12"/>
@@ -21726,15 +21732,15 @@
       <c r="Z127" s="12"/>
       <c r="AA127" s="12"/>
       <c r="AB127" s="18">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AC127" s="18">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
       <c r="AD127" s="20">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -21746,19 +21752,19 @@
         <v>274</v>
       </c>
       <c r="C128" s="12">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D128" s="12" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E128" s="12"/>
       <c r="F128" s="12"/>
       <c r="G128" s="12">
-        <v>88.9</v>
+        <v>91.3</v>
       </c>
       <c r="H128" s="12">
-        <f t="shared" si="15"/>
-        <v>88.9</v>
+        <f t="shared" si="20"/>
+        <v>730.4</v>
       </c>
       <c r="I128" s="17"/>
       <c r="J128" s="12"/>
@@ -21780,15 +21786,15 @@
       <c r="Z128" s="12"/>
       <c r="AA128" s="12"/>
       <c r="AB128" s="18">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AC128" s="18">
-        <f t="shared" si="21"/>
-        <v>1</v>
+        <f t="shared" si="23"/>
+        <v>8</v>
       </c>
       <c r="AD128" s="20">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -21800,19 +21806,19 @@
         <v>275</v>
       </c>
       <c r="C129" s="12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D129" s="12" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E129" s="12"/>
       <c r="F129" s="12"/>
       <c r="G129" s="12">
-        <v>90.3</v>
+        <v>89.1</v>
       </c>
       <c r="H129" s="12">
-        <f t="shared" si="15"/>
-        <v>90.3</v>
+        <f t="shared" si="20"/>
+        <v>356.4</v>
       </c>
       <c r="I129" s="17"/>
       <c r="J129" s="12"/>
@@ -21834,15 +21840,15 @@
       <c r="Z129" s="12"/>
       <c r="AA129" s="12"/>
       <c r="AB129" s="18">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AC129" s="18">
-        <f t="shared" si="21"/>
-        <v>1</v>
+        <f t="shared" si="23"/>
+        <v>4</v>
       </c>
       <c r="AD129" s="20">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -21857,16 +21863,16 @@
         <v>1</v>
       </c>
       <c r="D130" s="12" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E130" s="12"/>
       <c r="F130" s="12"/>
       <c r="G130" s="12">
-        <v>90.9</v>
+        <v>88.9</v>
       </c>
       <c r="H130" s="12">
-        <f t="shared" si="15"/>
-        <v>90.9</v>
+        <f t="shared" si="20"/>
+        <v>88.9</v>
       </c>
       <c r="I130" s="17"/>
       <c r="J130" s="12"/>
@@ -21888,15 +21894,15 @@
       <c r="Z130" s="12"/>
       <c r="AA130" s="12"/>
       <c r="AB130" s="18">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AC130" s="18">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="AD130" s="20">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -21911,16 +21917,16 @@
         <v>1</v>
       </c>
       <c r="D131" s="12" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E131" s="12"/>
       <c r="F131" s="12"/>
       <c r="G131" s="12">
-        <v>92.4</v>
+        <v>90.3</v>
       </c>
       <c r="H131" s="12">
-        <f t="shared" si="15"/>
-        <v>92.4</v>
+        <f t="shared" si="20"/>
+        <v>90.3</v>
       </c>
       <c r="I131" s="17"/>
       <c r="J131" s="12"/>
@@ -21942,15 +21948,15 @@
       <c r="Z131" s="12"/>
       <c r="AA131" s="12"/>
       <c r="AB131" s="18">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AC131" s="18">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="AD131" s="20">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -21965,16 +21971,16 @@
         <v>1</v>
       </c>
       <c r="D132" s="12" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E132" s="12"/>
       <c r="F132" s="12"/>
       <c r="G132" s="12">
-        <v>89.2</v>
+        <v>90.9</v>
       </c>
       <c r="H132" s="12">
-        <f t="shared" si="15"/>
-        <v>89.2</v>
+        <f t="shared" si="20"/>
+        <v>90.9</v>
       </c>
       <c r="I132" s="17"/>
       <c r="J132" s="12"/>
@@ -21996,15 +22002,15 @@
       <c r="Z132" s="12"/>
       <c r="AA132" s="12"/>
       <c r="AB132" s="18">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AC132" s="18">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="AD132" s="20">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -22019,16 +22025,16 @@
         <v>1</v>
       </c>
       <c r="D133" s="12" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E133" s="12"/>
       <c r="F133" s="12"/>
       <c r="G133" s="12">
-        <v>90.7</v>
+        <v>92.4</v>
       </c>
       <c r="H133" s="12">
-        <f t="shared" ref="H133:H164" si="22">G133*C133</f>
-        <v>90.7</v>
+        <f t="shared" si="20"/>
+        <v>92.4</v>
       </c>
       <c r="I133" s="17"/>
       <c r="J133" s="12"/>
@@ -22050,15 +22056,15 @@
       <c r="Z133" s="12"/>
       <c r="AA133" s="12"/>
       <c r="AB133" s="18">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AC133" s="18">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="AD133" s="20">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -22073,16 +22079,16 @@
         <v>1</v>
       </c>
       <c r="D134" s="12" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E134" s="12"/>
       <c r="F134" s="12"/>
       <c r="G134" s="12">
-        <v>87.4</v>
+        <v>89.2</v>
       </c>
       <c r="H134" s="12">
-        <f t="shared" si="22"/>
-        <v>87.4</v>
+        <f t="shared" si="20"/>
+        <v>89.2</v>
       </c>
       <c r="I134" s="17"/>
       <c r="J134" s="12"/>
@@ -22104,15 +22110,15 @@
       <c r="Z134" s="12"/>
       <c r="AA134" s="12"/>
       <c r="AB134" s="18">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AC134" s="18">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="AD134" s="20">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -22127,16 +22133,16 @@
         <v>1</v>
       </c>
       <c r="D135" s="12" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E135" s="12"/>
       <c r="F135" s="12"/>
       <c r="G135" s="12">
-        <v>88.8</v>
+        <v>90.7</v>
       </c>
       <c r="H135" s="12">
-        <f t="shared" si="22"/>
-        <v>88.8</v>
+        <f t="shared" si="20"/>
+        <v>90.7</v>
       </c>
       <c r="I135" s="17"/>
       <c r="J135" s="12"/>
@@ -22158,15 +22164,15 @@
       <c r="Z135" s="12"/>
       <c r="AA135" s="12"/>
       <c r="AB135" s="18">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AC135" s="18">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="AD135" s="20">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -22181,16 +22187,16 @@
         <v>1</v>
       </c>
       <c r="D136" s="12" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E136" s="12"/>
       <c r="F136" s="12"/>
       <c r="G136" s="12">
-        <v>87.7</v>
+        <v>87.4</v>
       </c>
       <c r="H136" s="12">
-        <f t="shared" si="22"/>
-        <v>87.7</v>
+        <f t="shared" si="20"/>
+        <v>87.4</v>
       </c>
       <c r="I136" s="17"/>
       <c r="J136" s="12"/>
@@ -22212,15 +22218,15 @@
       <c r="Z136" s="12"/>
       <c r="AA136" s="12"/>
       <c r="AB136" s="18">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AC136" s="18">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="AD136" s="20">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -22235,16 +22241,16 @@
         <v>1</v>
       </c>
       <c r="D137" s="12" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E137" s="12"/>
       <c r="F137" s="12"/>
       <c r="G137" s="12">
-        <v>88.3</v>
+        <v>88.8</v>
       </c>
       <c r="H137" s="12">
-        <f t="shared" si="22"/>
-        <v>88.3</v>
+        <f t="shared" si="20"/>
+        <v>88.8</v>
       </c>
       <c r="I137" s="17"/>
       <c r="J137" s="12"/>
@@ -22266,15 +22272,15 @@
       <c r="Z137" s="12"/>
       <c r="AA137" s="12"/>
       <c r="AB137" s="18">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AC137" s="18">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="AD137" s="20">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -22289,16 +22295,16 @@
         <v>1</v>
       </c>
       <c r="D138" s="12" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E138" s="12"/>
       <c r="F138" s="12"/>
       <c r="G138" s="12">
-        <v>92</v>
+        <v>87.7</v>
       </c>
       <c r="H138" s="12">
-        <f t="shared" si="22"/>
-        <v>92</v>
+        <f t="shared" si="20"/>
+        <v>87.7</v>
       </c>
       <c r="I138" s="17"/>
       <c r="J138" s="12"/>
@@ -22320,15 +22326,15 @@
       <c r="Z138" s="12"/>
       <c r="AA138" s="12"/>
       <c r="AB138" s="18">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AC138" s="18">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="AD138" s="20">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -22343,16 +22349,16 @@
         <v>1</v>
       </c>
       <c r="D139" s="12" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E139" s="12"/>
       <c r="F139" s="12"/>
       <c r="G139" s="12">
-        <v>92.6</v>
+        <v>88.3</v>
       </c>
       <c r="H139" s="12">
-        <f t="shared" si="22"/>
-        <v>92.6</v>
+        <f t="shared" ref="H139:H166" si="24">G139*C139</f>
+        <v>88.3</v>
       </c>
       <c r="I139" s="17"/>
       <c r="J139" s="12"/>
@@ -22374,15 +22380,15 @@
       <c r="Z139" s="12"/>
       <c r="AA139" s="12"/>
       <c r="AB139" s="18">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AC139" s="18">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="AD139" s="20">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -22397,16 +22403,16 @@
         <v>1</v>
       </c>
       <c r="D140" s="12" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E140" s="12"/>
       <c r="F140" s="12"/>
       <c r="G140" s="12">
-        <v>92.6</v>
+        <v>92</v>
       </c>
       <c r="H140" s="12">
-        <f t="shared" si="22"/>
-        <v>92.6</v>
+        <f t="shared" si="24"/>
+        <v>92</v>
       </c>
       <c r="I140" s="17"/>
       <c r="J140" s="12"/>
@@ -22428,15 +22434,15 @@
       <c r="Z140" s="12"/>
       <c r="AA140" s="12"/>
       <c r="AB140" s="18">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AC140" s="18">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="AD140" s="20">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -22451,16 +22457,16 @@
         <v>1</v>
       </c>
       <c r="D141" s="12" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E141" s="12"/>
       <c r="F141" s="12"/>
       <c r="G141" s="12">
-        <v>93.3</v>
+        <v>92.6</v>
       </c>
       <c r="H141" s="12">
-        <f t="shared" si="22"/>
-        <v>93.3</v>
+        <f t="shared" si="24"/>
+        <v>92.6</v>
       </c>
       <c r="I141" s="17"/>
       <c r="J141" s="12"/>
@@ -22482,15 +22488,15 @@
       <c r="Z141" s="12"/>
       <c r="AA141" s="12"/>
       <c r="AB141" s="18">
-        <f t="shared" ref="AB141:AB164" si="23">SUM(I141:AA141)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AC141" s="18">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="AD141" s="20">
-        <f t="shared" ref="AD141:AD164" si="24">IF(SUM(I141:AA141)=C141,"完成",SUM(I141:AA141))</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -22505,16 +22511,16 @@
         <v>1</v>
       </c>
       <c r="D142" s="12" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E142" s="12"/>
       <c r="F142" s="12"/>
       <c r="G142" s="12">
-        <v>93</v>
+        <v>92.6</v>
       </c>
       <c r="H142" s="12">
-        <f t="shared" si="22"/>
-        <v>93</v>
+        <f t="shared" si="24"/>
+        <v>92.6</v>
       </c>
       <c r="I142" s="17"/>
       <c r="J142" s="12"/>
@@ -22536,15 +22542,15 @@
       <c r="Z142" s="12"/>
       <c r="AA142" s="12"/>
       <c r="AB142" s="18">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AC142" s="18">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AC142" s="18">
-        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="AD142" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -22559,16 +22565,16 @@
         <v>1</v>
       </c>
       <c r="D143" s="12" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E143" s="12"/>
       <c r="F143" s="12"/>
       <c r="G143" s="12">
-        <v>93.6</v>
+        <v>93.3</v>
       </c>
       <c r="H143" s="12">
-        <f t="shared" si="22"/>
-        <v>93.6</v>
+        <f t="shared" si="24"/>
+        <v>93.3</v>
       </c>
       <c r="I143" s="17"/>
       <c r="J143" s="12"/>
@@ -22590,15 +22596,15 @@
       <c r="Z143" s="12"/>
       <c r="AA143" s="12"/>
       <c r="AB143" s="18">
+        <f t="shared" ref="AB143:AB166" si="25">SUM(I143:AA143)</f>
+        <v>0</v>
+      </c>
+      <c r="AC143" s="18">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AC143" s="18">
-        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="AD143" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" ref="AD143:AD166" si="26">IF(SUM(I143:AA143)=C143,"完成",SUM(I143:AA143))</f>
         <v>0</v>
       </c>
     </row>
@@ -22610,19 +22616,19 @@
         <v>290</v>
       </c>
       <c r="C144" s="12">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D144" s="12" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="E144" s="12"/>
       <c r="F144" s="12"/>
       <c r="G144" s="12">
-        <v>411.8</v>
+        <v>93</v>
       </c>
       <c r="H144" s="12">
-        <f t="shared" si="22"/>
-        <v>2470.8</v>
+        <f t="shared" si="24"/>
+        <v>93</v>
       </c>
       <c r="I144" s="17"/>
       <c r="J144" s="12"/>
@@ -22644,15 +22650,15 @@
       <c r="Z144" s="12"/>
       <c r="AA144" s="12"/>
       <c r="AB144" s="18">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AC144" s="18">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AC144" s="18">
-        <f t="shared" si="21"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AD144" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
@@ -22661,22 +22667,22 @@
         <v>141</v>
       </c>
       <c r="B145" s="12" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C145" s="12">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D145" s="12" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="E145" s="12"/>
       <c r="F145" s="12"/>
       <c r="G145" s="12">
-        <v>187.3</v>
+        <v>93.6</v>
       </c>
       <c r="H145" s="12">
-        <f t="shared" si="22"/>
-        <v>2247.6</v>
+        <f t="shared" si="24"/>
+        <v>93.6</v>
       </c>
       <c r="I145" s="17"/>
       <c r="J145" s="12"/>
@@ -22698,15 +22704,15 @@
       <c r="Z145" s="12"/>
       <c r="AA145" s="12"/>
       <c r="AB145" s="18">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AC145" s="18">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AC145" s="18">
-        <f t="shared" si="21"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="AD145" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
@@ -22715,22 +22721,22 @@
         <v>142</v>
       </c>
       <c r="B146" s="12" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C146" s="12">
         <v>6</v>
       </c>
       <c r="D146" s="12" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E146" s="12"/>
       <c r="F146" s="12"/>
       <c r="G146" s="12">
-        <v>518</v>
+        <v>411.8</v>
       </c>
       <c r="H146" s="12">
-        <f t="shared" si="22"/>
-        <v>3108</v>
+        <f t="shared" si="24"/>
+        <v>2470.8</v>
       </c>
       <c r="I146" s="17"/>
       <c r="J146" s="12"/>
@@ -22752,15 +22758,15 @@
       <c r="Z146" s="12"/>
       <c r="AA146" s="12"/>
       <c r="AB146" s="18">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AC146" s="18">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AC146" s="18">
-        <f t="shared" si="21"/>
         <v>6</v>
       </c>
       <c r="AD146" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
@@ -22775,16 +22781,16 @@
         <v>12</v>
       </c>
       <c r="D147" s="12" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E147" s="12"/>
       <c r="F147" s="12"/>
       <c r="G147" s="12">
-        <v>235.6</v>
+        <v>187.3</v>
       </c>
       <c r="H147" s="12">
-        <f t="shared" si="22"/>
-        <v>2827.2</v>
+        <f t="shared" si="24"/>
+        <v>2247.6</v>
       </c>
       <c r="I147" s="17"/>
       <c r="J147" s="12"/>
@@ -22806,15 +22812,15 @@
       <c r="Z147" s="12"/>
       <c r="AA147" s="12"/>
       <c r="AB147" s="18">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AC147" s="18">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AC147" s="18">
-        <f t="shared" si="21"/>
         <v>12</v>
       </c>
       <c r="AD147" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
@@ -22826,19 +22832,19 @@
         <v>295</v>
       </c>
       <c r="C148" s="12">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D148" s="12" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E148" s="12"/>
       <c r="F148" s="12"/>
       <c r="G148" s="12">
-        <v>102.2</v>
+        <v>518</v>
       </c>
       <c r="H148" s="12">
-        <f t="shared" si="22"/>
-        <v>204.4</v>
+        <f t="shared" si="24"/>
+        <v>3108</v>
       </c>
       <c r="I148" s="17"/>
       <c r="J148" s="12"/>
@@ -22860,15 +22866,15 @@
       <c r="Z148" s="12"/>
       <c r="AA148" s="12"/>
       <c r="AB148" s="18">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AC148" s="18">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AC148" s="18">
-        <f t="shared" si="21"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AD148" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
@@ -22877,22 +22883,22 @@
         <v>145</v>
       </c>
       <c r="B149" s="12" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C149" s="12">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D149" s="12" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E149" s="12"/>
       <c r="F149" s="12"/>
       <c r="G149" s="12">
-        <v>120.3</v>
+        <v>235.6</v>
       </c>
       <c r="H149" s="12">
-        <f t="shared" si="22"/>
-        <v>240.6</v>
+        <f t="shared" si="24"/>
+        <v>2827.2</v>
       </c>
       <c r="I149" s="17"/>
       <c r="J149" s="12"/>
@@ -22914,15 +22920,15 @@
       <c r="Z149" s="12"/>
       <c r="AA149" s="12"/>
       <c r="AB149" s="18">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AC149" s="18">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AC149" s="18">
-        <f t="shared" si="21"/>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="AD149" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
@@ -22931,22 +22937,22 @@
         <v>146</v>
       </c>
       <c r="B150" s="12" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C150" s="12">
         <v>2</v>
       </c>
       <c r="D150" s="12" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E150" s="12"/>
       <c r="F150" s="12"/>
       <c r="G150" s="12">
-        <v>153.5</v>
+        <v>102.2</v>
       </c>
       <c r="H150" s="12">
-        <f t="shared" si="22"/>
-        <v>307</v>
+        <f t="shared" si="24"/>
+        <v>204.4</v>
       </c>
       <c r="I150" s="17"/>
       <c r="J150" s="12"/>
@@ -22968,15 +22974,15 @@
       <c r="Z150" s="12"/>
       <c r="AA150" s="12"/>
       <c r="AB150" s="18">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AC150" s="18">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AC150" s="18">
-        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="AD150" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
@@ -22991,16 +22997,16 @@
         <v>2</v>
       </c>
       <c r="D151" s="12" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E151" s="12"/>
       <c r="F151" s="12"/>
       <c r="G151" s="12">
-        <v>143.6</v>
+        <v>120.3</v>
       </c>
       <c r="H151" s="12">
-        <f t="shared" si="22"/>
-        <v>287.2</v>
+        <f t="shared" si="24"/>
+        <v>240.6</v>
       </c>
       <c r="I151" s="17"/>
       <c r="J151" s="12"/>
@@ -23022,15 +23028,15 @@
       <c r="Z151" s="12"/>
       <c r="AA151" s="12"/>
       <c r="AB151" s="18">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AC151" s="18">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AC151" s="18">
-        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="AD151" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
@@ -23045,16 +23051,16 @@
         <v>2</v>
       </c>
       <c r="D152" s="12" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E152" s="12"/>
       <c r="F152" s="12"/>
       <c r="G152" s="12">
-        <v>157.3</v>
+        <v>153.5</v>
       </c>
       <c r="H152" s="12">
-        <f t="shared" si="22"/>
-        <v>314.6</v>
+        <f t="shared" si="24"/>
+        <v>307</v>
       </c>
       <c r="I152" s="17"/>
       <c r="J152" s="12"/>
@@ -23076,15 +23082,15 @@
       <c r="Z152" s="12"/>
       <c r="AA152" s="12"/>
       <c r="AB152" s="18">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AC152" s="18">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AC152" s="18">
-        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="AD152" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
@@ -23099,16 +23105,16 @@
         <v>2</v>
       </c>
       <c r="D153" s="12" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E153" s="12"/>
       <c r="F153" s="12"/>
       <c r="G153" s="12">
-        <v>184.5</v>
+        <v>143.6</v>
       </c>
       <c r="H153" s="12">
-        <f t="shared" si="22"/>
-        <v>369</v>
+        <f t="shared" si="24"/>
+        <v>287.2</v>
       </c>
       <c r="I153" s="17"/>
       <c r="J153" s="12"/>
@@ -23130,15 +23136,15 @@
       <c r="Z153" s="12"/>
       <c r="AA153" s="12"/>
       <c r="AB153" s="18">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AC153" s="18">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AC153" s="18">
-        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="AD153" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
@@ -23150,19 +23156,19 @@
         <v>302</v>
       </c>
       <c r="C154" s="12">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D154" s="12" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E154" s="12"/>
       <c r="F154" s="12"/>
       <c r="G154" s="12">
-        <v>3.1</v>
+        <v>157.3</v>
       </c>
       <c r="H154" s="12">
-        <f t="shared" si="22"/>
-        <v>24.8</v>
+        <f t="shared" si="24"/>
+        <v>314.6</v>
       </c>
       <c r="I154" s="17"/>
       <c r="J154" s="12"/>
@@ -23184,15 +23190,15 @@
       <c r="Z154" s="12"/>
       <c r="AA154" s="12"/>
       <c r="AB154" s="18">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AC154" s="18">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AC154" s="18">
-        <f t="shared" si="21"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AD154" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
@@ -23201,22 +23207,22 @@
         <v>151</v>
       </c>
       <c r="B155" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C155" s="12">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D155" s="12" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E155" s="12"/>
       <c r="F155" s="12"/>
       <c r="G155" s="12">
-        <v>2.9</v>
+        <v>184.5</v>
       </c>
       <c r="H155" s="12">
-        <f t="shared" si="22"/>
-        <v>23.2</v>
+        <f t="shared" si="24"/>
+        <v>369</v>
       </c>
       <c r="I155" s="17"/>
       <c r="J155" s="12"/>
@@ -23238,15 +23244,15 @@
       <c r="Z155" s="12"/>
       <c r="AA155" s="12"/>
       <c r="AB155" s="18">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AC155" s="18">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AC155" s="18">
-        <f t="shared" si="21"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AD155" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
@@ -23255,22 +23261,22 @@
         <v>152</v>
       </c>
       <c r="B156" s="12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C156" s="12">
         <v>8</v>
       </c>
       <c r="D156" s="12" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E156" s="12"/>
       <c r="F156" s="12"/>
       <c r="G156" s="12">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="H156" s="12">
-        <f t="shared" si="22"/>
-        <v>20.8</v>
+        <f t="shared" si="24"/>
+        <v>24.8</v>
       </c>
       <c r="I156" s="17"/>
       <c r="J156" s="12"/>
@@ -23292,15 +23298,15 @@
       <c r="Z156" s="12"/>
       <c r="AA156" s="12"/>
       <c r="AB156" s="18">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AC156" s="18">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AC156" s="18">
-        <f t="shared" si="21"/>
         <v>8</v>
       </c>
       <c r="AD156" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
@@ -23312,19 +23318,19 @@
         <v>306</v>
       </c>
       <c r="C157" s="12">
-        <v>180</v>
+        <v>8</v>
       </c>
       <c r="D157" s="12" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E157" s="12"/>
       <c r="F157" s="12"/>
       <c r="G157" s="12">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="H157" s="12">
-        <f t="shared" si="22"/>
-        <v>432</v>
+        <f t="shared" si="24"/>
+        <v>23.2</v>
       </c>
       <c r="I157" s="17"/>
       <c r="J157" s="12"/>
@@ -23346,15 +23352,15 @@
       <c r="Z157" s="12"/>
       <c r="AA157" s="12"/>
       <c r="AB157" s="18">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AC157" s="18">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AC157" s="18">
-        <f t="shared" si="21"/>
-        <v>180</v>
+        <v>8</v>
       </c>
       <c r="AD157" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
@@ -23366,19 +23372,19 @@
         <v>307</v>
       </c>
       <c r="C158" s="12">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="D158" s="12" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E158" s="12"/>
       <c r="F158" s="12"/>
       <c r="G158" s="12">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="H158" s="12">
-        <f t="shared" si="22"/>
-        <v>90</v>
+        <f t="shared" si="24"/>
+        <v>20.8</v>
       </c>
       <c r="I158" s="17"/>
       <c r="J158" s="12"/>
@@ -23400,15 +23406,15 @@
       <c r="Z158" s="12"/>
       <c r="AA158" s="12"/>
       <c r="AB158" s="18">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AC158" s="18">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AC158" s="18">
-        <f t="shared" si="21"/>
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="AD158" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
@@ -23420,19 +23426,19 @@
         <v>308</v>
       </c>
       <c r="C159" s="12">
-        <v>36</v>
+        <v>180</v>
       </c>
       <c r="D159" s="12" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E159" s="12"/>
       <c r="F159" s="12"/>
       <c r="G159" s="12">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="H159" s="12">
-        <f t="shared" si="22"/>
-        <v>97.2</v>
+        <f t="shared" si="24"/>
+        <v>432</v>
       </c>
       <c r="I159" s="17"/>
       <c r="J159" s="12"/>
@@ -23454,15 +23460,15 @@
       <c r="Z159" s="12"/>
       <c r="AA159" s="12"/>
       <c r="AB159" s="18">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AC159" s="18">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AC159" s="18">
-        <f t="shared" si="21"/>
-        <v>36</v>
+        <v>180</v>
       </c>
       <c r="AD159" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
@@ -23477,16 +23483,16 @@
         <v>36</v>
       </c>
       <c r="D160" s="12" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E160" s="12"/>
       <c r="F160" s="12"/>
       <c r="G160" s="12">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="H160" s="12">
-        <f t="shared" si="22"/>
-        <v>108</v>
+        <f t="shared" si="24"/>
+        <v>90</v>
       </c>
       <c r="I160" s="17"/>
       <c r="J160" s="12"/>
@@ -23508,15 +23514,15 @@
       <c r="Z160" s="12"/>
       <c r="AA160" s="12"/>
       <c r="AB160" s="18">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AC160" s="18">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AC160" s="18">
-        <f t="shared" si="21"/>
         <v>36</v>
       </c>
       <c r="AD160" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
@@ -23531,16 +23537,16 @@
         <v>36</v>
       </c>
       <c r="D161" s="12" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E161" s="12"/>
       <c r="F161" s="12"/>
       <c r="G161" s="12">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="H161" s="12">
-        <f t="shared" si="22"/>
-        <v>115.2</v>
+        <f t="shared" si="24"/>
+        <v>97.2</v>
       </c>
       <c r="I161" s="17"/>
       <c r="J161" s="12"/>
@@ -23562,15 +23568,15 @@
       <c r="Z161" s="12"/>
       <c r="AA161" s="12"/>
       <c r="AB161" s="18">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AC161" s="18">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AC161" s="18">
-        <f t="shared" si="21"/>
         <v>36</v>
       </c>
       <c r="AD161" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
@@ -23582,19 +23588,19 @@
         <v>311</v>
       </c>
       <c r="C162" s="12">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D162" s="12" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E162" s="12"/>
       <c r="F162" s="12"/>
       <c r="G162" s="12">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H162" s="12">
-        <f t="shared" si="22"/>
-        <v>86.8</v>
+        <f t="shared" si="24"/>
+        <v>108</v>
       </c>
       <c r="I162" s="17"/>
       <c r="J162" s="12"/>
@@ -23616,15 +23622,15 @@
       <c r="Z162" s="12"/>
       <c r="AA162" s="12"/>
       <c r="AB162" s="18">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AC162" s="18">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AC162" s="18">
-        <f t="shared" si="21"/>
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="AD162" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
@@ -23636,19 +23642,19 @@
         <v>312</v>
       </c>
       <c r="C163" s="12">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D163" s="12" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E163" s="12"/>
       <c r="F163" s="12"/>
       <c r="G163" s="12">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="H163" s="12">
-        <f t="shared" si="22"/>
-        <v>81.2</v>
+        <f t="shared" si="24"/>
+        <v>115.2</v>
       </c>
       <c r="I163" s="17"/>
       <c r="J163" s="12"/>
@@ -23670,15 +23676,15 @@
       <c r="Z163" s="12"/>
       <c r="AA163" s="12"/>
       <c r="AB163" s="18">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AC163" s="18">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AC163" s="18">
-        <f t="shared" si="21"/>
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="AD163" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
@@ -23693,16 +23699,16 @@
         <v>28</v>
       </c>
       <c r="D164" s="12" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E164" s="12"/>
       <c r="F164" s="12"/>
       <c r="G164" s="12">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="H164" s="12">
-        <f t="shared" si="22"/>
-        <v>72.8</v>
+        <f t="shared" si="24"/>
+        <v>86.8</v>
       </c>
       <c r="I164" s="17"/>
       <c r="J164" s="12"/>
@@ -23724,30 +23730,129 @@
       <c r="Z164" s="12"/>
       <c r="AA164" s="12"/>
       <c r="AB164" s="18">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AC164" s="18">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AC164" s="18">
-        <f t="shared" si="21"/>
         <v>28</v>
       </c>
       <c r="AD164" s="20">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" customHeight="1" spans="1:30">
+      <c r="A165" s="12">
+        <v>161</v>
+      </c>
+      <c r="B165" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="C165" s="12">
+        <v>28</v>
+      </c>
+      <c r="D165" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="E165" s="12"/>
+      <c r="F165" s="12"/>
+      <c r="G165" s="12">
+        <v>2.9</v>
+      </c>
+      <c r="H165" s="12">
         <f t="shared" si="24"/>
+        <v>81.2</v>
+      </c>
+      <c r="I165" s="17"/>
+      <c r="J165" s="12"/>
+      <c r="K165" s="12"/>
+      <c r="L165" s="12"/>
+      <c r="M165" s="12"/>
+      <c r="N165" s="12"/>
+      <c r="O165" s="12"/>
+      <c r="P165" s="12"/>
+      <c r="Q165" s="12"/>
+      <c r="R165" s="12"/>
+      <c r="S165" s="12"/>
+      <c r="T165" s="12"/>
+      <c r="U165" s="12"/>
+      <c r="V165" s="12"/>
+      <c r="W165" s="12"/>
+      <c r="X165" s="12"/>
+      <c r="Y165" s="12"/>
+      <c r="Z165" s="12"/>
+      <c r="AA165" s="12"/>
+      <c r="AB165" s="18">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AC165" s="18">
+        <f t="shared" si="23"/>
+        <v>28</v>
+      </c>
+      <c r="AD165" s="20">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" customHeight="1" spans="1:30">
+      <c r="A166" s="12">
+        <v>162</v>
+      </c>
+      <c r="B166" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="C166" s="12">
+        <v>28</v>
+      </c>
+      <c r="D166" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="E166" s="12"/>
+      <c r="F166" s="12"/>
+      <c r="G166" s="12">
+        <v>2.6</v>
+      </c>
+      <c r="H166" s="12">
+        <f t="shared" si="24"/>
+        <v>72.8</v>
+      </c>
+      <c r="I166" s="17"/>
+      <c r="J166" s="12"/>
+      <c r="K166" s="12"/>
+      <c r="L166" s="12"/>
+      <c r="M166" s="12"/>
+      <c r="N166" s="12"/>
+      <c r="O166" s="12"/>
+      <c r="P166" s="12"/>
+      <c r="Q166" s="12"/>
+      <c r="R166" s="12"/>
+      <c r="S166" s="12"/>
+      <c r="T166" s="12"/>
+      <c r="U166" s="12"/>
+      <c r="V166" s="12"/>
+      <c r="W166" s="12"/>
+      <c r="X166" s="12"/>
+      <c r="Y166" s="12"/>
+      <c r="Z166" s="12"/>
+      <c r="AA166" s="12"/>
+      <c r="AB166" s="18">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AC166" s="18">
+        <f t="shared" si="23"/>
+        <v>28</v>
+      </c>
+      <c r="AD166" s="20">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:AE164">
-    <filterColumn colId="29">
-      <filters>
-        <filter val="0"/>
-        <filter val="10"/>
-        <filter val="3"/>
-        <filter val="4"/>
-        <filter val="25"/>
-      </filters>
-    </filterColumn>
-    <sortState ref="A4:AE164">
+  <autoFilter ref="A4:AE166">
+    <sortState ref="A4:AE166">
       <sortCondition ref="I4:I75"/>
     </sortState>
     <extLst/>
@@ -23777,12 +23882,12 @@
   <sheetPr/>
   <dimension ref="A1:R83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="4" topLeftCell="I47" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="8" ySplit="4" topLeftCell="I35" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L58" sqref="L58"/>
+      <selection pane="bottomRight" activeCell="A54" sqref="$A54:$XFD54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>
@@ -23920,13 +24025,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C5" s="23">
         <v>1</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E5" s="23"/>
       <c r="F5" s="23">
@@ -23963,13 +24068,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C6" s="23">
         <v>1</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E6" s="23"/>
       <c r="F6" s="23">
@@ -24006,13 +24111,13 @@
         <v>3</v>
       </c>
       <c r="B7" s="23" t="s">
+        <v>319</v>
+      </c>
+      <c r="C7" s="23">
+        <v>1</v>
+      </c>
+      <c r="D7" s="23" t="s">
         <v>317</v>
-      </c>
-      <c r="C7" s="23">
-        <v>1</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>315</v>
       </c>
       <c r="E7" s="23"/>
       <c r="F7" s="23">
@@ -24049,13 +24154,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C8" s="23">
         <v>1</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E8" s="23"/>
       <c r="F8" s="23">
@@ -24092,13 +24197,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C9" s="23">
         <v>1</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="E9" s="23"/>
       <c r="F9" s="23">
@@ -24135,13 +24240,13 @@
         <v>6</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C10" s="23">
         <v>1</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="E10" s="23"/>
       <c r="F10" s="23">
@@ -24178,13 +24283,13 @@
         <v>7</v>
       </c>
       <c r="B11" s="23" t="s">
+        <v>324</v>
+      </c>
+      <c r="C11" s="23">
+        <v>1</v>
+      </c>
+      <c r="D11" s="23" t="s">
         <v>322</v>
-      </c>
-      <c r="C11" s="23">
-        <v>1</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>320</v>
       </c>
       <c r="E11" s="23"/>
       <c r="F11" s="23">
@@ -24221,13 +24326,13 @@
         <v>8</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C12" s="23">
         <v>1</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="E12" s="23"/>
       <c r="F12" s="23">
@@ -24264,13 +24369,13 @@
         <v>9</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C13" s="23">
         <v>1</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="E13" s="23"/>
       <c r="F13" s="23">
@@ -24307,13 +24412,13 @@
         <v>10</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C14" s="23">
         <v>1</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="E14" s="23"/>
       <c r="F14" s="23">
@@ -24350,13 +24455,13 @@
         <v>11</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C15" s="23">
         <v>1</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E15" s="23"/>
       <c r="F15" s="23">
@@ -24393,13 +24498,13 @@
         <v>12</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C16" s="23">
         <v>1</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E16" s="23"/>
       <c r="F16" s="23">
@@ -24436,13 +24541,13 @@
         <v>13</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C17" s="23">
         <v>1</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E17" s="23"/>
       <c r="F17" s="23">
@@ -24479,13 +24584,13 @@
         <v>14</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C18" s="23">
         <v>1</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E18" s="23"/>
       <c r="F18" s="23">
@@ -24522,13 +24627,13 @@
         <v>15</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C19" s="23">
         <v>1</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E19" s="23"/>
       <c r="F19" s="23">
@@ -24565,13 +24670,13 @@
         <v>16</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C20" s="23">
         <v>1</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E20" s="23"/>
       <c r="F20" s="23">
@@ -24608,13 +24713,13 @@
         <v>17</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C21" s="23">
         <v>1</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E21" s="23"/>
       <c r="F21" s="23">
@@ -24651,13 +24756,13 @@
         <v>18</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C22" s="23">
         <v>1</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E22" s="23"/>
       <c r="F22" s="23">
@@ -24695,13 +24800,13 @@
         <v>19</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C23" s="23">
         <v>1</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E23" s="23"/>
       <c r="F23" s="23">
@@ -24738,13 +24843,13 @@
         <v>20</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C24" s="23">
         <v>1</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E24" s="23"/>
       <c r="F24" s="23">
@@ -24781,13 +24886,13 @@
         <v>21</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C25" s="23">
         <v>1</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E25" s="23"/>
       <c r="F25" s="23">
@@ -24826,13 +24931,13 @@
         <v>22</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C26" s="23">
         <v>1</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E26" s="23"/>
       <c r="F26" s="23">
@@ -24869,13 +24974,13 @@
         <v>23</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C27" s="23">
         <v>1</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="E27" s="23"/>
       <c r="F27" s="23">
@@ -24914,13 +25019,13 @@
         <v>24</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C28" s="23">
         <v>1</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="E28" s="23"/>
       <c r="F28" s="23">
@@ -24957,13 +25062,13 @@
         <v>25</v>
       </c>
       <c r="B29" s="23" t="s">
+        <v>343</v>
+      </c>
+      <c r="C29" s="23">
+        <v>1</v>
+      </c>
+      <c r="D29" s="23" t="s">
         <v>341</v>
-      </c>
-      <c r="C29" s="23">
-        <v>1</v>
-      </c>
-      <c r="D29" s="23" t="s">
-        <v>339</v>
       </c>
       <c r="E29" s="23"/>
       <c r="F29" s="23">
@@ -25000,13 +25105,13 @@
         <v>26</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C30" s="23">
         <v>2</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="E30" s="23"/>
       <c r="F30" s="23">
@@ -25045,13 +25150,13 @@
         <v>27</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C31" s="23">
         <v>1</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="E31" s="23"/>
       <c r="F31" s="23">
@@ -25088,13 +25193,13 @@
         <v>28</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C32" s="23">
         <v>1</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="E32" s="23"/>
       <c r="F32" s="23">
@@ -25131,13 +25236,13 @@
         <v>29</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C33" s="23">
         <v>2</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="E33" s="23"/>
       <c r="F33" s="23">
@@ -25174,13 +25279,13 @@
         <v>30</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C34" s="23">
         <v>1</v>
       </c>
       <c r="D34" s="23" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="E34" s="23"/>
       <c r="F34" s="23">
@@ -25217,13 +25322,13 @@
         <v>31</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C35" s="23">
         <v>1</v>
       </c>
       <c r="D35" s="23" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="E35" s="23"/>
       <c r="F35" s="23">
@@ -25260,13 +25365,13 @@
         <v>32</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C36" s="23">
         <v>1</v>
       </c>
       <c r="D36" s="23" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="E36" s="23"/>
       <c r="F36" s="23">
@@ -25303,13 +25408,13 @@
         <v>33</v>
       </c>
       <c r="B37" s="23" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C37" s="23">
         <v>1</v>
       </c>
       <c r="D37" s="23" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="E37" s="23"/>
       <c r="F37" s="23">
@@ -25346,13 +25451,13 @@
         <v>34</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C38" s="23">
         <v>1</v>
       </c>
       <c r="D38" s="23" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="E38" s="23"/>
       <c r="F38" s="23">
@@ -25389,13 +25494,13 @@
         <v>35</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C39" s="23">
         <v>1</v>
       </c>
       <c r="D39" s="23" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E39" s="23"/>
       <c r="F39" s="23">
@@ -25432,13 +25537,13 @@
         <v>36</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C40" s="23">
         <v>1</v>
       </c>
       <c r="D40" s="23" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E40" s="23"/>
       <c r="F40" s="23">
@@ -25475,13 +25580,13 @@
         <v>37</v>
       </c>
       <c r="B41" s="23" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C41" s="23">
         <v>3</v>
       </c>
       <c r="D41" s="23" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E41" s="23"/>
       <c r="F41" s="23">
@@ -25518,13 +25623,13 @@
         <v>38</v>
       </c>
       <c r="B42" s="23" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C42" s="23">
         <v>1</v>
       </c>
       <c r="D42" s="23" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E42" s="23"/>
       <c r="F42" s="23">
@@ -25561,13 +25666,13 @@
         <v>39</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C43" s="23">
         <v>1</v>
       </c>
       <c r="D43" s="23" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E43" s="23"/>
       <c r="F43" s="23">
@@ -25604,13 +25709,13 @@
         <v>40</v>
       </c>
       <c r="B44" s="23" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C44" s="23">
         <v>3</v>
       </c>
       <c r="D44" s="23" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E44" s="23"/>
       <c r="F44" s="23">
@@ -25647,13 +25752,13 @@
         <v>41</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C45" s="23">
         <v>1</v>
       </c>
       <c r="D45" s="23" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="E45" s="23"/>
       <c r="F45" s="23">
@@ -25690,13 +25795,13 @@
         <v>42</v>
       </c>
       <c r="B46" s="23" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C46" s="23">
         <v>1</v>
       </c>
       <c r="D46" s="23" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="E46" s="23"/>
       <c r="F46" s="23">
@@ -25733,13 +25838,13 @@
         <v>43</v>
       </c>
       <c r="B47" s="23" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C47" s="23">
         <v>1</v>
       </c>
       <c r="D47" s="23" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="E47" s="23"/>
       <c r="F47" s="23">
@@ -25776,13 +25881,13 @@
         <v>44</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C48" s="23">
         <v>1</v>
       </c>
       <c r="D48" s="23" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="E48" s="23"/>
       <c r="F48" s="23">
@@ -25819,13 +25924,13 @@
         <v>45</v>
       </c>
       <c r="B49" s="24" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C49" s="24">
         <v>2</v>
       </c>
       <c r="D49" s="24" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="E49" s="12"/>
       <c r="F49" s="24">
@@ -25862,13 +25967,13 @@
         <v>46</v>
       </c>
       <c r="B50" s="24" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C50" s="24">
         <v>2</v>
       </c>
       <c r="D50" s="24" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="E50" s="12"/>
       <c r="F50" s="24">
@@ -25905,13 +26010,13 @@
         <v>47</v>
       </c>
       <c r="B51" s="24" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C51" s="24">
         <v>4</v>
       </c>
       <c r="D51" s="24" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="E51" s="12"/>
       <c r="F51" s="24">
@@ -25948,13 +26053,13 @@
         <v>48</v>
       </c>
       <c r="B52" s="24" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C52" s="24">
         <v>1</v>
       </c>
       <c r="D52" s="24" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="E52" s="12"/>
       <c r="F52" s="24">
@@ -25991,13 +26096,13 @@
         <v>49</v>
       </c>
       <c r="B53" s="24" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C53" s="24">
         <v>1</v>
       </c>
       <c r="D53" s="24" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="E53" s="12"/>
       <c r="F53" s="24">
@@ -26034,13 +26139,13 @@
         <v>50</v>
       </c>
       <c r="B54" s="24" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C54" s="24">
         <v>4</v>
       </c>
       <c r="D54" s="24" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="E54" s="12"/>
       <c r="F54" s="24">
@@ -26079,13 +26184,13 @@
         <v>51</v>
       </c>
       <c r="B55" s="24" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C55" s="24">
         <v>1</v>
       </c>
       <c r="D55" s="24" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="E55" s="12"/>
       <c r="F55" s="24">
@@ -26122,13 +26227,13 @@
         <v>52</v>
       </c>
       <c r="B56" s="24" t="s">
+        <v>374</v>
+      </c>
+      <c r="C56" s="24">
+        <v>1</v>
+      </c>
+      <c r="D56" s="24" t="s">
         <v>372</v>
-      </c>
-      <c r="C56" s="24">
-        <v>1</v>
-      </c>
-      <c r="D56" s="24" t="s">
-        <v>370</v>
       </c>
       <c r="E56" s="12"/>
       <c r="F56" s="24">
@@ -26165,13 +26270,13 @@
         <v>53</v>
       </c>
       <c r="B57" s="24" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C57" s="24">
         <v>8</v>
       </c>
       <c r="D57" s="24" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="E57" s="12"/>
       <c r="F57" s="24">
@@ -26210,13 +26315,13 @@
         <v>54</v>
       </c>
       <c r="B58" s="24" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C58" s="24">
         <v>1</v>
       </c>
       <c r="D58" s="24" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="E58" s="12"/>
       <c r="F58" s="24">
@@ -26253,13 +26358,13 @@
         <v>55</v>
       </c>
       <c r="B59" s="24" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C59" s="24">
         <v>1</v>
       </c>
       <c r="D59" s="24" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="E59" s="12"/>
       <c r="F59" s="24">
@@ -26296,13 +26401,13 @@
         <v>56</v>
       </c>
       <c r="B60" s="24" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C60" s="24">
         <v>1</v>
       </c>
       <c r="D60" s="24" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="E60" s="12"/>
       <c r="F60" s="24">
@@ -26339,13 +26444,13 @@
         <v>57</v>
       </c>
       <c r="B61" s="24" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C61" s="24">
         <v>1</v>
       </c>
       <c r="D61" s="24" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="E61" s="12"/>
       <c r="F61" s="24">
@@ -26382,13 +26487,13 @@
         <v>58</v>
       </c>
       <c r="B62" s="24" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C62" s="24">
         <v>10</v>
       </c>
       <c r="D62" s="24" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="E62" s="12"/>
       <c r="F62" s="24">
@@ -26425,13 +26530,13 @@
         <v>59</v>
       </c>
       <c r="B63" s="24" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C63" s="24">
         <v>1</v>
       </c>
       <c r="D63" s="24" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="E63" s="12"/>
       <c r="F63" s="24">
@@ -26468,13 +26573,13 @@
         <v>60</v>
       </c>
       <c r="B64" s="24" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C64" s="24">
         <v>1</v>
       </c>
       <c r="D64" s="24" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="E64" s="12"/>
       <c r="F64" s="24">
@@ -26511,13 +26616,13 @@
         <v>61</v>
       </c>
       <c r="B65" s="24" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C65" s="24">
         <v>1</v>
       </c>
       <c r="D65" s="24" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="E65" s="12"/>
       <c r="F65" s="24">
@@ -26554,13 +26659,13 @@
         <v>62</v>
       </c>
       <c r="B66" s="24" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C66" s="24">
         <v>1</v>
       </c>
       <c r="D66" s="24" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="E66" s="12"/>
       <c r="F66" s="24">
@@ -26597,13 +26702,13 @@
         <v>63</v>
       </c>
       <c r="B67" s="24" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C67" s="24">
         <v>1</v>
       </c>
       <c r="D67" s="24" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="E67" s="12"/>
       <c r="F67" s="24">
@@ -26640,13 +26745,13 @@
         <v>64</v>
       </c>
       <c r="B68" s="24" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C68" s="24">
         <v>1</v>
       </c>
       <c r="D68" s="24" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="E68" s="12"/>
       <c r="F68" s="24">
@@ -26683,13 +26788,13 @@
         <v>65</v>
       </c>
       <c r="B69" s="24" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C69" s="24">
         <v>1</v>
       </c>
       <c r="D69" s="24" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="E69" s="12"/>
       <c r="F69" s="24">
@@ -26726,13 +26831,13 @@
         <v>66</v>
       </c>
       <c r="B70" s="24" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C70" s="24">
         <v>1</v>
       </c>
       <c r="D70" s="24" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="E70" s="12"/>
       <c r="F70" s="24">
@@ -26769,13 +26874,13 @@
         <v>67</v>
       </c>
       <c r="B71" s="24" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C71" s="24">
         <v>1</v>
       </c>
       <c r="D71" s="24" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="E71" s="12"/>
       <c r="F71" s="24">
@@ -26812,13 +26917,13 @@
         <v>68</v>
       </c>
       <c r="B72" s="24" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C72" s="24">
         <v>1</v>
       </c>
       <c r="D72" s="24" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="E72" s="12"/>
       <c r="F72" s="24">
@@ -26855,13 +26960,13 @@
         <v>69</v>
       </c>
       <c r="B73" s="24" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C73" s="24">
         <v>1</v>
       </c>
       <c r="D73" s="24" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="E73" s="12"/>
       <c r="F73" s="24">
@@ -26898,13 +27003,13 @@
         <v>70</v>
       </c>
       <c r="B74" s="24" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C74" s="24">
         <v>1</v>
       </c>
       <c r="D74" s="24" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="E74" s="12"/>
       <c r="F74" s="24">
@@ -26941,13 +27046,13 @@
         <v>71</v>
       </c>
       <c r="B75" s="24" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C75" s="24">
         <v>1</v>
       </c>
       <c r="D75" s="24" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="E75" s="12"/>
       <c r="F75" s="24">
@@ -26984,13 +27089,13 @@
         <v>72</v>
       </c>
       <c r="B76" s="24" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C76" s="24">
         <v>1</v>
       </c>
       <c r="D76" s="24" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="E76" s="12"/>
       <c r="F76" s="24">
@@ -27027,13 +27132,13 @@
         <v>73</v>
       </c>
       <c r="B77" s="24" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C77" s="24">
         <v>24</v>
       </c>
       <c r="D77" s="24" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E77" s="12"/>
       <c r="F77" s="24">
@@ -27070,13 +27175,13 @@
         <v>74</v>
       </c>
       <c r="B78" s="24" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C78" s="24">
         <v>14</v>
       </c>
       <c r="D78" s="24" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="E78" s="12"/>
       <c r="F78" s="24">
@@ -27113,13 +27218,13 @@
         <v>75</v>
       </c>
       <c r="B79" s="24" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C79" s="24">
         <v>28</v>
       </c>
       <c r="D79" s="24" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="E79" s="12"/>
       <c r="F79" s="24">
@@ -27156,13 +27261,13 @@
         <v>76</v>
       </c>
       <c r="B80" s="24" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C80" s="24">
         <v>28</v>
       </c>
       <c r="D80" s="24" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="E80" s="12"/>
       <c r="F80" s="24">
@@ -27199,13 +27304,13 @@
         <v>77</v>
       </c>
       <c r="B81" s="24" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C81" s="24">
         <v>52</v>
       </c>
       <c r="D81" s="24" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="E81" s="12"/>
       <c r="F81" s="24">
@@ -27242,13 +27347,13 @@
         <v>78</v>
       </c>
       <c r="B82" s="24" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C82" s="24">
         <v>8</v>
       </c>
       <c r="D82" s="24" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="E82" s="12"/>
       <c r="F82" s="24">
@@ -27285,13 +27390,13 @@
         <v>79</v>
       </c>
       <c r="B83" s="24" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C83" s="24">
         <v>8</v>
       </c>
       <c r="D83" s="24" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="E83" s="12"/>
       <c r="F83" s="24">

--- a/拼装统计.xlsx
+++ b/拼装统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13740" activeTab="3"/>
+    <workbookView windowWidth="30048" windowHeight="13740" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="义乌奥晶办公室食堂（完成)" sheetId="22" r:id="rId1"/>
@@ -1284,15 +1284,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="9">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="177" formatCode="0.000_);[Red]\(0.000\)"/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
     <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="179" formatCode="0.0_);[Red]\(0.0\)"/>
-    <numFmt numFmtId="180" formatCode="0.00_ "/>
+    <numFmt numFmtId="179" formatCode="0.000_);[Red]\(0.000\)"/>
+    <numFmt numFmtId="180" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -1349,30 +1349,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1381,7 +1357,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1394,8 +1370,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1417,16 +1424,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1434,7 +1433,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1450,9 +1456,25 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1461,28 +1483,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1519,7 +1519,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1531,25 +1555,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1567,25 +1573,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1603,13 +1597,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1621,49 +1669,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1675,19 +1681,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1751,26 +1751,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1852,6 +1832,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1860,10 +1860,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1872,136 +1872,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2021,7 +2021,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2036,13 +2036,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2054,10 +2054,10 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2075,7 +2075,7 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2087,13 +2087,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2105,7 +2105,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -14752,11 +14752,11 @@
   <dimension ref="A1:AE166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="4" topLeftCell="L31" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="4" topLeftCell="L115" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AD43" sqref="AD43"/>
+      <selection pane="bottomRight" activeCell="D126" sqref="D126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>
@@ -15005,7 +15005,7 @@
         <v>3</v>
       </c>
       <c r="AC5" s="18">
-        <f t="shared" ref="AC5:AC67" si="1">C5-AB5</f>
+        <f t="shared" ref="AC5:AC68" si="1">C5-AB5</f>
         <v>0</v>
       </c>
       <c r="AD5" s="20" t="str">
@@ -16402,7 +16402,7 @@
       <c r="Z30" s="12"/>
       <c r="AA30" s="12"/>
       <c r="AB30" s="18">
-        <f t="shared" ref="AB30:AB43" si="8">SUM(I30:AA30)</f>
+        <f t="shared" ref="AB30:AB45" si="8">SUM(I30:AA30)</f>
         <v>2</v>
       </c>
       <c r="AC30" s="18">
@@ -16410,7 +16410,7 @@
         <v>0</v>
       </c>
       <c r="AD30" s="20" t="str">
-        <f t="shared" ref="AD30:AD43" si="9">IF(SUM(I30:AA30)=C30,"完成",SUM(I30:AA30))</f>
+        <f t="shared" ref="AD30:AD45" si="9">IF(SUM(I30:AA30)=C30,"完成",SUM(I30:AA30))</f>
         <v>完成</v>
       </c>
     </row>
@@ -16825,7 +16825,7 @@
         <v>392.5</v>
       </c>
       <c r="H38" s="12">
-        <f>G38*C38</f>
+        <f t="shared" si="0"/>
         <v>392.5</v>
       </c>
       <c r="I38" s="17"/>
@@ -16879,7 +16879,7 @@
         <v>454.8</v>
       </c>
       <c r="H39" s="12">
-        <f>G39*C39</f>
+        <f t="shared" si="0"/>
         <v>454.8</v>
       </c>
       <c r="I39" s="17"/>
@@ -16933,7 +16933,7 @@
         <v>514.8</v>
       </c>
       <c r="H40" s="12">
-        <f>G40*C40</f>
+        <f t="shared" si="0"/>
         <v>514.8</v>
       </c>
       <c r="I40" s="17"/>
@@ -16987,7 +16987,7 @@
         <v>630.1</v>
       </c>
       <c r="H41" s="12">
-        <f>G41*C41</f>
+        <f t="shared" si="0"/>
         <v>630.1</v>
       </c>
       <c r="I41" s="17"/>
@@ -17041,7 +17041,7 @@
         <v>699.2</v>
       </c>
       <c r="H42" s="12">
-        <f>G42*C42</f>
+        <f t="shared" si="0"/>
         <v>699.2</v>
       </c>
       <c r="I42" s="17"/>
@@ -17172,15 +17172,15 @@
       <c r="Z44" s="12"/>
       <c r="AA44" s="12"/>
       <c r="AB44" s="18">
-        <f>SUM(I44:AA44)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AC44" s="18">
-        <f>C44-AB44</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AD44" s="20">
-        <f>IF(SUM(I44:AA44)=C44,"完成",SUM(I44:AA44))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -17226,15 +17226,15 @@
       <c r="Z45" s="12"/>
       <c r="AA45" s="12"/>
       <c r="AB45" s="18">
-        <f>SUM(I45:AA45)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AC45" s="18">
-        <f>C45-AB45</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AD45" s="20">
-        <f>IF(SUM(I45:AA45)=C45,"完成",SUM(I45:AA45))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -17286,7 +17286,7 @@
         <v>4</v>
       </c>
       <c r="AC46" s="18">
-        <f>C46-AB46</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AD46" s="20" t="str">
@@ -17342,7 +17342,7 @@
         <v>1</v>
       </c>
       <c r="AC47" s="18">
-        <f>C47-AB47</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AD47" s="20" t="str">
@@ -17398,7 +17398,7 @@
         <v>1</v>
       </c>
       <c r="AC48" s="18">
-        <f>C48-AB48</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AD48" s="20" t="str">
@@ -17454,7 +17454,7 @@
         <v>1</v>
       </c>
       <c r="AC49" s="18">
-        <f>C49-AB49</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AD49" s="20" t="str">
@@ -17508,7 +17508,7 @@
         <v>0</v>
       </c>
       <c r="AC50" s="18">
-        <f>C50-AB50</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AD50" s="20">
@@ -17564,7 +17564,7 @@
         <v>4</v>
       </c>
       <c r="AC51" s="18">
-        <f>C51-AB51</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AD51" s="20" t="str">
@@ -17620,7 +17620,7 @@
         <v>1</v>
       </c>
       <c r="AC52" s="18">
-        <f>C52-AB52</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AD52" s="20" t="str">
@@ -17676,7 +17676,7 @@
         <v>1</v>
       </c>
       <c r="AC53" s="18">
-        <f>C53-AB53</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AD53" s="20" t="str">
@@ -17732,7 +17732,7 @@
         <v>1</v>
       </c>
       <c r="AC54" s="18">
-        <f>C54-AB54</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AD54" s="20" t="str">
@@ -17788,7 +17788,7 @@
         <v>1</v>
       </c>
       <c r="AC55" s="18">
-        <f>C55-AB55</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AD55" s="20" t="str">
@@ -17842,7 +17842,7 @@
         <v>0</v>
       </c>
       <c r="AC56" s="18">
-        <f>C56-AB56</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="AD56" s="20">
@@ -17896,7 +17896,7 @@
         <v>0</v>
       </c>
       <c r="AC57" s="18">
-        <f>C57-AB57</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AD57" s="20">
@@ -17950,7 +17950,7 @@
         <v>0</v>
       </c>
       <c r="AC58" s="18">
-        <f>C58-AB58</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AD58" s="20">
@@ -18004,7 +18004,7 @@
         <v>0</v>
       </c>
       <c r="AC59" s="18">
-        <f>C59-AB59</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AD59" s="20">
@@ -18058,7 +18058,7 @@
         <v>0</v>
       </c>
       <c r="AC60" s="18">
-        <f>C60-AB60</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AD60" s="20">
@@ -18114,7 +18114,7 @@
         <v>4</v>
       </c>
       <c r="AC61" s="18">
-        <f>C61-AB61</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AD61" s="20" t="str">
@@ -18170,7 +18170,7 @@
         <v>1</v>
       </c>
       <c r="AC62" s="18">
-        <f>C62-AB62</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AD62" s="20" t="str">
@@ -18226,7 +18226,7 @@
         <v>1</v>
       </c>
       <c r="AC63" s="19">
-        <f>C63-AB63</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AD63" s="20" t="str">
@@ -18282,7 +18282,7 @@
         <v>1</v>
       </c>
       <c r="AC64" s="18">
-        <f>C64-AB64</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AD64" s="20" t="str">
@@ -18338,7 +18338,7 @@
         <v>1</v>
       </c>
       <c r="AC65" s="18">
-        <f>C65-AB65</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AD65" s="20" t="str">
@@ -18392,7 +18392,7 @@
         <v>0</v>
       </c>
       <c r="AC66" s="18">
-        <f>C66-AB66</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="AD66" s="20">
@@ -18448,7 +18448,7 @@
         <v>1</v>
       </c>
       <c r="AC67" s="18">
-        <f>C67-AB67</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AD67" s="20" t="str">
@@ -18504,7 +18504,7 @@
         <v>1</v>
       </c>
       <c r="AC68" s="18">
-        <f>C68-AB68</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AD68" s="20" t="str">

--- a/拼装统计.xlsx
+++ b/拼装统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30048" windowHeight="13740" activeTab="3"/>
+    <workbookView windowWidth="30048" windowHeight="13740" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="义乌奥晶办公室食堂（完成)" sheetId="22" r:id="rId1"/>
@@ -1284,15 +1284,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="9">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
-    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="179" formatCode="0.000_);[Red]\(0.000\)"/>
-    <numFmt numFmtId="180" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="178" formatCode="0.000_);[Red]\(0.000\)"/>
+    <numFmt numFmtId="179" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="180" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -1343,14 +1343,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1363,40 +1371,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1416,9 +1395,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1431,9 +1424,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1448,23 +1457,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1478,11 +1471,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1513,7 +1513,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1525,7 +1573,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1537,67 +1615,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1615,7 +1633,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1633,61 +1687,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1755,39 +1755,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1818,6 +1785,50 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1836,19 +1847,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1860,10 +1860,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1872,143 +1872,143 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2021,7 +2021,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2036,13 +2036,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2054,19 +2054,19 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2075,7 +2075,7 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2087,13 +2087,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2105,7 +2108,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2583,7 +2586,7 @@
       <c r="G5" s="13">
         <v>2493.1</v>
       </c>
-      <c r="H5" s="32">
+      <c r="H5" s="33">
         <f>G5*C5</f>
         <v>2493.1</v>
       </c>
@@ -2624,7 +2627,7 @@
       <c r="G6" s="13">
         <v>2496</v>
       </c>
-      <c r="H6" s="32">
+      <c r="H6" s="33">
         <f t="shared" ref="H6:H37" si="2">G6*C6</f>
         <v>2496</v>
       </c>
@@ -2665,7 +2668,7 @@
       <c r="G7" s="13">
         <v>2483.1</v>
       </c>
-      <c r="H7" s="32">
+      <c r="H7" s="33">
         <f t="shared" si="2"/>
         <v>9932.4</v>
       </c>
@@ -2708,7 +2711,7 @@
       <c r="G8" s="13">
         <v>2486</v>
       </c>
-      <c r="H8" s="32">
+      <c r="H8" s="33">
         <f t="shared" si="2"/>
         <v>9944</v>
       </c>
@@ -2749,7 +2752,7 @@
       <c r="G9" s="12">
         <v>2496</v>
       </c>
-      <c r="H9" s="32">
+      <c r="H9" s="33">
         <f t="shared" si="2"/>
         <v>2496</v>
       </c>
@@ -2790,7 +2793,7 @@
       <c r="G10" s="12">
         <v>2493.1</v>
       </c>
-      <c r="H10" s="32">
+      <c r="H10" s="33">
         <f t="shared" si="2"/>
         <v>2493.1</v>
       </c>
@@ -2831,7 +2834,7 @@
       <c r="G11" s="12">
         <v>1277.7</v>
       </c>
-      <c r="H11" s="32">
+      <c r="H11" s="33">
         <f t="shared" si="2"/>
         <v>1277.7</v>
       </c>
@@ -2872,7 +2875,7 @@
       <c r="G12" s="12">
         <v>1479.6</v>
       </c>
-      <c r="H12" s="32">
+      <c r="H12" s="33">
         <f t="shared" si="2"/>
         <v>1479.6</v>
       </c>
@@ -2913,7 +2916,7 @@
       <c r="G13" s="12">
         <v>1476.1</v>
       </c>
-      <c r="H13" s="32">
+      <c r="H13" s="33">
         <f t="shared" si="2"/>
         <v>1476.1</v>
       </c>
@@ -2954,7 +2957,7 @@
       <c r="G14" s="13">
         <v>113.1</v>
       </c>
-      <c r="H14" s="32">
+      <c r="H14" s="33">
         <f t="shared" si="2"/>
         <v>113.1</v>
       </c>
@@ -2995,7 +2998,7 @@
       <c r="G15" s="13">
         <v>113.1</v>
       </c>
-      <c r="H15" s="32">
+      <c r="H15" s="33">
         <f t="shared" si="2"/>
         <v>226.2</v>
       </c>
@@ -3036,7 +3039,7 @@
       <c r="G16" s="13">
         <v>89.5</v>
       </c>
-      <c r="H16" s="32">
+      <c r="H16" s="33">
         <f t="shared" si="2"/>
         <v>179</v>
       </c>
@@ -3077,7 +3080,7 @@
       <c r="G17" s="13">
         <v>61.5</v>
       </c>
-      <c r="H17" s="32">
+      <c r="H17" s="33">
         <f t="shared" si="2"/>
         <v>123</v>
       </c>
@@ -3118,7 +3121,7 @@
       <c r="G18" s="13">
         <v>105.4</v>
       </c>
-      <c r="H18" s="32">
+      <c r="H18" s="33">
         <f t="shared" si="2"/>
         <v>210.8</v>
       </c>
@@ -3159,7 +3162,7 @@
       <c r="G19" s="13">
         <v>113.1</v>
       </c>
-      <c r="H19" s="32">
+      <c r="H19" s="33">
         <f t="shared" si="2"/>
         <v>113.1</v>
       </c>
@@ -3194,7 +3197,7 @@
       <c r="E20" s="12"/>
       <c r="F20" s="13"/>
       <c r="G20" s="13"/>
-      <c r="H20" s="32">
+      <c r="H20" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3227,7 +3230,7 @@
       <c r="E21" s="12"/>
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
-      <c r="H21" s="32">
+      <c r="H21" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3260,7 +3263,7 @@
       <c r="E22" s="12"/>
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
-      <c r="H22" s="32">
+      <c r="H22" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3294,7 +3297,7 @@
       <c r="E23" s="12"/>
       <c r="F23" s="13"/>
       <c r="G23" s="13"/>
-      <c r="H23" s="32">
+      <c r="H23" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3327,7 +3330,7 @@
       <c r="E24" s="12"/>
       <c r="F24" s="13"/>
       <c r="G24" s="13"/>
-      <c r="H24" s="32">
+      <c r="H24" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3360,7 +3363,7 @@
       <c r="E25" s="12"/>
       <c r="F25" s="13"/>
       <c r="G25" s="13"/>
-      <c r="H25" s="32">
+      <c r="H25" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3393,7 +3396,7 @@
       <c r="E26" s="12"/>
       <c r="F26" s="13"/>
       <c r="G26" s="13"/>
-      <c r="H26" s="32">
+      <c r="H26" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3426,7 +3429,7 @@
       <c r="E27" s="12"/>
       <c r="F27" s="13"/>
       <c r="G27" s="13"/>
-      <c r="H27" s="32">
+      <c r="H27" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3459,7 +3462,7 @@
       <c r="E28" s="12"/>
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
-      <c r="H28" s="32">
+      <c r="H28" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3492,7 +3495,7 @@
       <c r="E29" s="12"/>
       <c r="F29" s="13"/>
       <c r="G29" s="13"/>
-      <c r="H29" s="32">
+      <c r="H29" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3525,7 +3528,7 @@
       <c r="E30" s="12"/>
       <c r="F30" s="13"/>
       <c r="G30" s="13"/>
-      <c r="H30" s="32">
+      <c r="H30" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3558,7 +3561,7 @@
       <c r="E31" s="12"/>
       <c r="F31" s="13"/>
       <c r="G31" s="13"/>
-      <c r="H31" s="32">
+      <c r="H31" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3591,7 +3594,7 @@
       <c r="E32" s="12"/>
       <c r="F32" s="13"/>
       <c r="G32" s="13"/>
-      <c r="H32" s="32">
+      <c r="H32" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3624,7 +3627,7 @@
       <c r="E33" s="12"/>
       <c r="F33" s="13"/>
       <c r="G33" s="13"/>
-      <c r="H33" s="32">
+      <c r="H33" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3657,7 +3660,7 @@
       <c r="E34" s="12"/>
       <c r="F34" s="13"/>
       <c r="G34" s="13"/>
-      <c r="H34" s="32">
+      <c r="H34" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3690,7 +3693,7 @@
       <c r="E35" s="12"/>
       <c r="F35" s="13"/>
       <c r="G35" s="13"/>
-      <c r="H35" s="32">
+      <c r="H35" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3723,7 +3726,7 @@
       <c r="E36" s="12"/>
       <c r="F36" s="13"/>
       <c r="G36" s="13"/>
-      <c r="H36" s="32">
+      <c r="H36" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3756,7 +3759,7 @@
       <c r="E37" s="12"/>
       <c r="F37" s="13"/>
       <c r="G37" s="13"/>
-      <c r="H37" s="32">
+      <c r="H37" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3789,7 +3792,7 @@
       <c r="E38" s="12"/>
       <c r="F38" s="13"/>
       <c r="G38" s="13"/>
-      <c r="H38" s="32">
+      <c r="H38" s="33">
         <f t="shared" ref="H38:H67" si="4">G38*C38</f>
         <v>0</v>
       </c>
@@ -3822,7 +3825,7 @@
       <c r="E39" s="12"/>
       <c r="F39" s="13"/>
       <c r="G39" s="13"/>
-      <c r="H39" s="32">
+      <c r="H39" s="33">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -3855,7 +3858,7 @@
       <c r="E40" s="12"/>
       <c r="F40" s="13"/>
       <c r="G40" s="13"/>
-      <c r="H40" s="32">
+      <c r="H40" s="33">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -3888,7 +3891,7 @@
       <c r="E41" s="12"/>
       <c r="F41" s="13"/>
       <c r="G41" s="13"/>
-      <c r="H41" s="32">
+      <c r="H41" s="33">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -3921,7 +3924,7 @@
       <c r="E42" s="12"/>
       <c r="F42" s="13"/>
       <c r="G42" s="13"/>
-      <c r="H42" s="32">
+      <c r="H42" s="33">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -3954,7 +3957,7 @@
       <c r="E43" s="12"/>
       <c r="F43" s="13"/>
       <c r="G43" s="13"/>
-      <c r="H43" s="32">
+      <c r="H43" s="33">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -3987,7 +3990,7 @@
       <c r="E44" s="12"/>
       <c r="F44" s="13"/>
       <c r="G44" s="13"/>
-      <c r="H44" s="32">
+      <c r="H44" s="33">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4020,7 +4023,7 @@
       <c r="E45" s="12"/>
       <c r="F45" s="13"/>
       <c r="G45" s="13"/>
-      <c r="H45" s="32">
+      <c r="H45" s="33">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4053,7 +4056,7 @@
       <c r="E46" s="12"/>
       <c r="F46" s="13"/>
       <c r="G46" s="13"/>
-      <c r="H46" s="32">
+      <c r="H46" s="33">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4086,7 +4089,7 @@
       <c r="E47" s="12"/>
       <c r="F47" s="13"/>
       <c r="G47" s="13"/>
-      <c r="H47" s="32">
+      <c r="H47" s="33">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4119,7 +4122,7 @@
       <c r="E48" s="12"/>
       <c r="F48" s="13"/>
       <c r="G48" s="13"/>
-      <c r="H48" s="32">
+      <c r="H48" s="33">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4152,7 +4155,7 @@
       <c r="E49" s="12"/>
       <c r="F49" s="13"/>
       <c r="G49" s="13"/>
-      <c r="H49" s="32">
+      <c r="H49" s="33">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4185,7 +4188,7 @@
       <c r="E50" s="12"/>
       <c r="F50" s="13"/>
       <c r="G50" s="13"/>
-      <c r="H50" s="32">
+      <c r="H50" s="33">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4218,7 +4221,7 @@
       <c r="E51" s="12"/>
       <c r="F51" s="13"/>
       <c r="G51" s="13"/>
-      <c r="H51" s="32">
+      <c r="H51" s="33">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4251,7 +4254,7 @@
       <c r="E52" s="12"/>
       <c r="F52" s="13"/>
       <c r="G52" s="13"/>
-      <c r="H52" s="32">
+      <c r="H52" s="33">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4284,7 +4287,7 @@
       <c r="E53" s="12"/>
       <c r="F53" s="13"/>
       <c r="G53" s="13"/>
-      <c r="H53" s="32">
+      <c r="H53" s="33">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4317,7 +4320,7 @@
       <c r="E54" s="12"/>
       <c r="F54" s="13"/>
       <c r="G54" s="13"/>
-      <c r="H54" s="32">
+      <c r="H54" s="33">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4350,7 +4353,7 @@
       <c r="E55" s="12"/>
       <c r="F55" s="13"/>
       <c r="G55" s="13"/>
-      <c r="H55" s="32">
+      <c r="H55" s="33">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4383,7 +4386,7 @@
       <c r="E56" s="12"/>
       <c r="F56" s="13"/>
       <c r="G56" s="13"/>
-      <c r="H56" s="32">
+      <c r="H56" s="33">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4416,7 +4419,7 @@
       <c r="E57" s="12"/>
       <c r="F57" s="13"/>
       <c r="G57" s="13"/>
-      <c r="H57" s="32">
+      <c r="H57" s="33">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4449,7 +4452,7 @@
       <c r="E58" s="12"/>
       <c r="F58" s="13"/>
       <c r="G58" s="13"/>
-      <c r="H58" s="32">
+      <c r="H58" s="33">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4482,7 +4485,7 @@
       <c r="E59" s="12"/>
       <c r="F59" s="13"/>
       <c r="G59" s="13"/>
-      <c r="H59" s="32">
+      <c r="H59" s="33">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4515,7 +4518,7 @@
       <c r="E60" s="12"/>
       <c r="F60" s="13"/>
       <c r="G60" s="13"/>
-      <c r="H60" s="32">
+      <c r="H60" s="33">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4548,7 +4551,7 @@
       <c r="E61" s="12"/>
       <c r="F61" s="13"/>
       <c r="G61" s="13"/>
-      <c r="H61" s="32">
+      <c r="H61" s="33">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4581,7 +4584,7 @@
       <c r="E62" s="12"/>
       <c r="F62" s="13"/>
       <c r="G62" s="13"/>
-      <c r="H62" s="32">
+      <c r="H62" s="33">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4614,7 +4617,7 @@
       <c r="E63" s="12"/>
       <c r="F63" s="13"/>
       <c r="G63" s="13"/>
-      <c r="H63" s="32">
+      <c r="H63" s="33">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4647,7 +4650,7 @@
       <c r="E64" s="12"/>
       <c r="F64" s="13"/>
       <c r="G64" s="13"/>
-      <c r="H64" s="32">
+      <c r="H64" s="33">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4680,7 +4683,7 @@
       <c r="E65" s="12"/>
       <c r="F65" s="13"/>
       <c r="G65" s="13"/>
-      <c r="H65" s="32">
+      <c r="H65" s="33">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4713,7 +4716,7 @@
       <c r="E66" s="12"/>
       <c r="F66" s="13"/>
       <c r="G66" s="13"/>
-      <c r="H66" s="32">
+      <c r="H66" s="33">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4746,7 +4749,7 @@
       <c r="E67" s="12"/>
       <c r="F67" s="13"/>
       <c r="G67" s="13"/>
-      <c r="H67" s="32">
+      <c r="H67" s="33">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -11034,799 +11037,799 @@
   </cols>
   <sheetData>
     <row r="1" ht="14" customHeight="1" spans="1:7">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
     </row>
     <row r="2" ht="14" customHeight="1" spans="1:7">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="G2" s="30" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" ht="14" customHeight="1" spans="1:7">
-      <c r="A3" s="29">
-        <v>1</v>
-      </c>
-      <c r="B3" s="29" t="s">
+      <c r="A3" s="30">
+        <v>1</v>
+      </c>
+      <c r="B3" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="29">
+      <c r="D3" s="30">
         <v>12868.71</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="29"/>
+      <c r="G3" s="30"/>
     </row>
     <row r="4" ht="14" customHeight="1" spans="1:7">
-      <c r="A4" s="29">
+      <c r="A4" s="30">
         <v>2</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="29">
+      <c r="D4" s="30">
         <v>12017.64</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="F4" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="29"/>
+      <c r="G4" s="30"/>
     </row>
     <row r="5" ht="14" customHeight="1" spans="1:7">
-      <c r="A5" s="29">
+      <c r="A5" s="30">
         <v>3</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="29">
+      <c r="D5" s="30">
         <v>396</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="F5" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="29"/>
+      <c r="G5" s="30"/>
     </row>
     <row r="6" ht="14" customHeight="1" spans="1:7">
-      <c r="A6" s="29">
+      <c r="A6" s="30">
         <v>4</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="29">
+      <c r="D6" s="30">
         <v>7374.54</v>
       </c>
-      <c r="E6" s="29" t="s">
+      <c r="E6" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="29" t="s">
+      <c r="F6" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="G6" s="29"/>
+      <c r="G6" s="30"/>
     </row>
     <row r="7" ht="14" customHeight="1" spans="1:7">
-      <c r="A7" s="29">
+      <c r="A7" s="30">
         <v>5</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="29">
+      <c r="D7" s="30">
         <v>3673.98</v>
       </c>
-      <c r="E7" s="29" t="s">
+      <c r="E7" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="29" t="s">
+      <c r="F7" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="G7" s="29"/>
+      <c r="G7" s="30"/>
     </row>
     <row r="8" ht="14" customHeight="1" spans="1:7">
-      <c r="A8" s="29">
+      <c r="A8" s="30">
         <v>6</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="29">
+      <c r="D8" s="30">
         <v>31158.1</v>
       </c>
-      <c r="E8" s="29" t="s">
+      <c r="E8" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="29" t="s">
+      <c r="F8" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="29"/>
+      <c r="G8" s="30"/>
     </row>
     <row r="9" ht="14" customHeight="1" spans="1:7">
-      <c r="A9" s="29">
+      <c r="A9" s="30">
         <v>7</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="29">
+      <c r="D9" s="30">
         <v>12321</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="29" t="s">
+      <c r="F9" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="G9" s="29"/>
+      <c r="G9" s="30"/>
     </row>
     <row r="10" ht="14" customHeight="1" spans="1:7">
-      <c r="A10" s="29">
+      <c r="A10" s="30">
         <v>8</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="29">
+      <c r="D10" s="30">
         <v>17141.6</v>
       </c>
-      <c r="E10" s="29" t="s">
+      <c r="E10" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="29" t="s">
+      <c r="F10" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="G10" s="29"/>
+      <c r="G10" s="30"/>
     </row>
     <row r="11" ht="14" customHeight="1" spans="1:7">
-      <c r="A11" s="29">
+      <c r="A11" s="30">
         <v>9</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="29">
+      <c r="D11" s="30">
         <v>8925</v>
       </c>
-      <c r="E11" s="29" t="s">
+      <c r="E11" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="29" t="s">
+      <c r="F11" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="G11" s="29"/>
+      <c r="G11" s="30"/>
     </row>
     <row r="12" ht="14" customHeight="1" spans="1:7">
-      <c r="A12" s="29">
+      <c r="A12" s="30">
         <v>10</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="29">
+      <c r="D12" s="30">
         <v>15689</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="E12" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="29" t="s">
+      <c r="F12" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="G12" s="29"/>
+      <c r="G12" s="30"/>
     </row>
     <row r="13" ht="14" customHeight="1" spans="1:7">
-      <c r="A13" s="29">
+      <c r="A13" s="30">
         <v>11</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="29">
+      <c r="D13" s="30">
         <v>14961.3</v>
       </c>
-      <c r="E13" s="29" t="s">
+      <c r="E13" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="29" t="s">
+      <c r="F13" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="G13" s="29"/>
+      <c r="G13" s="30"/>
     </row>
     <row r="14" ht="14" customHeight="1" spans="1:7">
-      <c r="A14" s="29">
+      <c r="A14" s="30">
         <v>12</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="29">
+      <c r="D14" s="30">
         <v>24245.7</v>
       </c>
-      <c r="E14" s="29" t="s">
+      <c r="E14" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="29" t="s">
+      <c r="F14" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="G14" s="29"/>
+      <c r="G14" s="30"/>
     </row>
     <row r="15" ht="14" customHeight="1" spans="1:7">
-      <c r="A15" s="29">
+      <c r="A15" s="30">
         <v>13</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="29">
+      <c r="D15" s="30">
         <v>10067.1</v>
       </c>
-      <c r="E15" s="29" t="s">
+      <c r="E15" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="29" t="s">
+      <c r="F15" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="G15" s="29"/>
+      <c r="G15" s="30"/>
     </row>
     <row r="16" ht="14" customHeight="1" spans="1:7">
-      <c r="A16" s="29">
+      <c r="A16" s="30">
         <v>14</v>
       </c>
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="29">
+      <c r="D16" s="30">
         <v>15689.9</v>
       </c>
-      <c r="E16" s="29" t="s">
+      <c r="E16" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="29" t="s">
+      <c r="F16" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="G16" s="29"/>
+      <c r="G16" s="30"/>
     </row>
     <row r="17" ht="14" customHeight="1" spans="1:7">
-      <c r="A17" s="29">
+      <c r="A17" s="30">
         <v>15</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="29">
+      <c r="D17" s="30">
         <v>24041</v>
       </c>
-      <c r="E17" s="29" t="s">
+      <c r="E17" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="F17" s="29" t="s">
+      <c r="F17" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="G17" s="29"/>
+      <c r="G17" s="30"/>
     </row>
     <row r="18" ht="14" customHeight="1" spans="1:7">
-      <c r="A18" s="29">
+      <c r="A18" s="30">
         <v>16</v>
       </c>
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="29">
+      <c r="D18" s="30">
         <v>7137.49</v>
       </c>
-      <c r="E18" s="29" t="s">
+      <c r="E18" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="F18" s="29" t="s">
+      <c r="F18" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="G18" s="29"/>
+      <c r="G18" s="30"/>
     </row>
     <row r="19" ht="14" customHeight="1" spans="1:7">
-      <c r="A19" s="29">
+      <c r="A19" s="30">
         <v>17</v>
       </c>
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="29">
+      <c r="D19" s="30">
         <v>10685.5</v>
       </c>
-      <c r="E19" s="29" t="s">
+      <c r="E19" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="F19" s="29" t="s">
+      <c r="F19" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="G19" s="29"/>
+      <c r="G19" s="30"/>
     </row>
     <row r="20" ht="14" customHeight="1" spans="1:7">
-      <c r="A20" s="29">
+      <c r="A20" s="30">
         <v>18</v>
       </c>
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="29" t="s">
+      <c r="C20" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="29">
+      <c r="D20" s="30">
         <v>7078.8</v>
       </c>
-      <c r="E20" s="29" t="s">
+      <c r="E20" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="F20" s="29" t="s">
+      <c r="F20" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="G20" s="29"/>
+      <c r="G20" s="30"/>
     </row>
     <row r="21" ht="14" customHeight="1" spans="1:7">
-      <c r="A21" s="29">
+      <c r="A21" s="30">
         <v>19</v>
       </c>
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="29">
+      <c r="D21" s="30">
         <v>17382</v>
       </c>
-      <c r="E21" s="29" t="s">
+      <c r="E21" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="F21" s="29" t="s">
+      <c r="F21" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="G21" s="29"/>
+      <c r="G21" s="30"/>
     </row>
     <row r="22" ht="14" customHeight="1" spans="1:7">
-      <c r="A22" s="29">
+      <c r="A22" s="30">
         <v>20</v>
       </c>
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="29" t="s">
+      <c r="C22" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="29">
+      <c r="D22" s="30">
         <v>15673.7</v>
       </c>
-      <c r="E22" s="29" t="s">
+      <c r="E22" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="F22" s="29" t="s">
+      <c r="F22" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="G22" s="29"/>
+      <c r="G22" s="30"/>
     </row>
     <row r="23" ht="14" customHeight="1" spans="1:7">
-      <c r="A23" s="29">
+      <c r="A23" s="30">
         <v>21</v>
       </c>
-      <c r="B23" s="29" t="s">
+      <c r="B23" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="29">
+      <c r="D23" s="30">
         <v>7814</v>
       </c>
-      <c r="E23" s="29" t="s">
+      <c r="E23" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="F23" s="29" t="s">
+      <c r="F23" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="G23" s="29"/>
+      <c r="G23" s="30"/>
     </row>
     <row r="24" ht="14" customHeight="1" spans="1:7">
-      <c r="A24" s="29">
+      <c r="A24" s="30">
         <v>22</v>
       </c>
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="29" t="s">
+      <c r="C24" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="D24" s="29">
+      <c r="D24" s="30">
         <v>7392</v>
       </c>
-      <c r="E24" s="29" t="s">
+      <c r="E24" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="F24" s="29" t="s">
+      <c r="F24" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="G24" s="29"/>
+      <c r="G24" s="30"/>
     </row>
     <row r="25" ht="14" customHeight="1" spans="1:7">
-      <c r="A25" s="29">
+      <c r="A25" s="30">
         <v>23</v>
       </c>
-      <c r="B25" s="29" t="s">
+      <c r="B25" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="29" t="s">
+      <c r="C25" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="29">
+      <c r="D25" s="30">
         <v>91853</v>
       </c>
-      <c r="E25" s="29" t="s">
+      <c r="E25" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="F25" s="29" t="s">
+      <c r="F25" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="G25" s="29"/>
+      <c r="G25" s="30"/>
     </row>
     <row r="26" ht="14" customHeight="1" spans="1:7">
-      <c r="A26" s="29">
+      <c r="A26" s="30">
         <v>24</v>
       </c>
-      <c r="B26" s="29" t="s">
+      <c r="B26" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="29" t="s">
+      <c r="C26" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="D26" s="29">
-        <v>1</v>
-      </c>
-      <c r="E26" s="29" t="s">
+      <c r="D26" s="30">
+        <v>1</v>
+      </c>
+      <c r="E26" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="F26" s="29" t="s">
+      <c r="F26" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="G26" s="29"/>
+      <c r="G26" s="30"/>
     </row>
     <row r="27" ht="14" customHeight="1" spans="1:7">
-      <c r="A27" s="29">
+      <c r="A27" s="30">
         <v>25</v>
       </c>
-      <c r="B27" s="29" t="s">
+      <c r="B27" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="29" t="s">
+      <c r="C27" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="D27" s="29">
+      <c r="D27" s="30">
         <v>9797.5</v>
       </c>
-      <c r="E27" s="29" t="s">
+      <c r="E27" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="F27" s="29" t="s">
+      <c r="F27" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="G27" s="29"/>
+      <c r="G27" s="30"/>
     </row>
     <row r="28" ht="14" customHeight="1" spans="1:7">
-      <c r="A28" s="29">
+      <c r="A28" s="30">
         <v>26</v>
       </c>
-      <c r="B28" s="29" t="s">
+      <c r="B28" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="29" t="s">
+      <c r="C28" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="D28" s="29">
+      <c r="D28" s="30">
         <v>9932.5</v>
       </c>
-      <c r="E28" s="29" t="s">
+      <c r="E28" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="F28" s="29" t="s">
+      <c r="F28" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="G28" s="29"/>
+      <c r="G28" s="30"/>
     </row>
     <row r="29" ht="14" customHeight="1" spans="1:7">
-      <c r="A29" s="29">
+      <c r="A29" s="30">
         <v>27</v>
       </c>
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="29" t="s">
+      <c r="C29" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="D29" s="29">
-        <v>1</v>
-      </c>
-      <c r="E29" s="29" t="s">
+      <c r="D29" s="30">
+        <v>1</v>
+      </c>
+      <c r="E29" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="F29" s="29" t="s">
+      <c r="F29" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="G29" s="29"/>
+      <c r="G29" s="30"/>
     </row>
     <row r="30" ht="14" customHeight="1" spans="1:7">
-      <c r="A30" s="29">
+      <c r="A30" s="30">
         <v>28</v>
       </c>
-      <c r="B30" s="29" t="s">
+      <c r="B30" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="29" t="s">
+      <c r="C30" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="D30" s="29">
+      <c r="D30" s="30">
         <v>9209.6</v>
       </c>
-      <c r="E30" s="29" t="s">
+      <c r="E30" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="F30" s="29" t="s">
+      <c r="F30" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="G30" s="29"/>
+      <c r="G30" s="30"/>
     </row>
     <row r="31" ht="14" customHeight="1" spans="1:7">
-      <c r="A31" s="29">
+      <c r="A31" s="30">
         <v>29</v>
       </c>
-      <c r="B31" s="29" t="s">
+      <c r="B31" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="29" t="s">
+      <c r="C31" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="D31" s="29">
+      <c r="D31" s="30">
         <v>965.2</v>
       </c>
-      <c r="E31" s="29" t="s">
+      <c r="E31" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="F31" s="30" t="s">
+      <c r="F31" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="G31" s="29"/>
+      <c r="G31" s="30"/>
     </row>
     <row r="32" ht="14" customHeight="1" spans="1:7">
-      <c r="A32" s="29">
+      <c r="A32" s="30">
         <v>30</v>
       </c>
-      <c r="B32" s="29" t="s">
+      <c r="B32" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="C32" s="29" t="s">
+      <c r="C32" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="D32" s="29">
+      <c r="D32" s="30">
         <v>26686.9</v>
       </c>
-      <c r="E32" s="29" t="s">
+      <c r="E32" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="F32" s="31"/>
-      <c r="G32" s="29"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="30"/>
     </row>
     <row r="33" ht="14" customHeight="1" spans="1:7">
-      <c r="A33" s="29">
+      <c r="A33" s="30">
         <v>31</v>
       </c>
-      <c r="B33" s="29" t="s">
+      <c r="B33" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="C33" s="29" t="s">
+      <c r="C33" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="D33" s="29">
+      <c r="D33" s="30">
         <v>17829</v>
       </c>
-      <c r="E33" s="29" t="s">
+      <c r="E33" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="F33" s="29" t="s">
+      <c r="F33" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="G33" s="29"/>
+      <c r="G33" s="30"/>
     </row>
     <row r="34" ht="14" customHeight="1" spans="1:7">
-      <c r="A34" s="29">
+      <c r="A34" s="30">
         <v>32</v>
       </c>
-      <c r="B34" s="29" t="s">
+      <c r="B34" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29">
+      <c r="C34" s="30"/>
+      <c r="D34" s="30">
         <v>10110.294</v>
       </c>
-      <c r="E34" s="29" t="s">
+      <c r="E34" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="F34" s="29" t="s">
+      <c r="F34" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="G34" s="29"/>
+      <c r="G34" s="30"/>
     </row>
     <row r="35" ht="14" customHeight="1" spans="1:7">
-      <c r="A35" s="29">
+      <c r="A35" s="30">
         <v>33</v>
       </c>
-      <c r="B35" s="29" t="s">
+      <c r="B35" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="C35" s="29" t="s">
+      <c r="C35" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="D35" s="29">
+      <c r="D35" s="30">
         <v>4781.4</v>
       </c>
-      <c r="E35" s="29" t="s">
+      <c r="E35" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="F35" s="29" t="s">
+      <c r="F35" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="G35" s="29"/>
+      <c r="G35" s="30"/>
     </row>
     <row r="36" ht="14" customHeight="1" spans="1:7">
-      <c r="A36" s="29">
+      <c r="A36" s="30">
         <v>34</v>
       </c>
-      <c r="B36" s="29" t="s">
+      <c r="B36" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="C36" s="29" t="s">
+      <c r="C36" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="D36" s="29">
+      <c r="D36" s="30">
         <v>19422</v>
       </c>
-      <c r="E36" s="29" t="s">
+      <c r="E36" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="F36" s="29" t="s">
+      <c r="F36" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="G36" s="29"/>
+      <c r="G36" s="30"/>
     </row>
     <row r="37" ht="14" customHeight="1" spans="1:7">
-      <c r="A37" s="29">
+      <c r="A37" s="30">
         <v>35</v>
       </c>
-      <c r="B37" s="29" t="s">
+      <c r="B37" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="C37" s="29" t="s">
+      <c r="C37" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="D37" s="29">
+      <c r="D37" s="30">
         <v>8976.6</v>
       </c>
-      <c r="E37" s="29" t="s">
+      <c r="E37" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="F37" s="29" t="s">
+      <c r="F37" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="G37" s="29"/>
+      <c r="G37" s="30"/>
     </row>
     <row r="38" ht="14" customHeight="1" spans="1:7">
-      <c r="A38" s="29">
+      <c r="A38" s="30">
         <v>36</v>
       </c>
-      <c r="B38" s="29" t="s">
+      <c r="B38" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="C38" s="29" t="s">
+      <c r="C38" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="D38" s="29">
+      <c r="D38" s="30">
         <v>12691.9</v>
       </c>
-      <c r="E38" s="29" t="s">
+      <c r="E38" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="F38" s="29" t="s">
+      <c r="F38" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="G38" s="29"/>
+      <c r="G38" s="30"/>
     </row>
     <row r="39" ht="14" customHeight="1" spans="1:7">
-      <c r="A39" s="29"/>
-      <c r="B39" s="29"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="29"/>
-      <c r="G39" s="29"/>
+      <c r="A39" s="30"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="30"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:G38">
@@ -11843,15 +11846,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:R72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="8" ySplit="4" topLeftCell="I25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="4" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J27" sqref="J27:J31"/>
+      <selection pane="bottomRight" activeCell="J50" sqref="J50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>
@@ -11978,7 +11981,7 @@
       </c>
       <c r="Q4" s="8"/>
     </row>
-    <row r="5" customHeight="1" spans="1:17">
+    <row r="5" hidden="1" customHeight="1" spans="1:17">
       <c r="A5" s="12">
         <v>1</v>
       </c>
@@ -12021,7 +12024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:17">
+    <row r="6" hidden="1" customHeight="1" spans="1:17">
       <c r="A6" s="12">
         <v>2</v>
       </c>
@@ -12064,7 +12067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:17">
+    <row r="7" hidden="1" customHeight="1" spans="1:17">
       <c r="A7" s="12">
         <v>3</v>
       </c>
@@ -12107,7 +12110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:17">
+    <row r="8" hidden="1" customHeight="1" spans="1:17">
       <c r="A8" s="12">
         <v>4</v>
       </c>
@@ -12195,7 +12198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="1:17">
+    <row r="10" hidden="1" customHeight="1" spans="1:17">
       <c r="A10" s="12">
         <v>6</v>
       </c>
@@ -12238,7 +12241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="1:17">
+    <row r="11" hidden="1" customHeight="1" spans="1:17">
       <c r="A11" s="12">
         <v>7</v>
       </c>
@@ -12281,7 +12284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="1:17">
+    <row r="12" hidden="1" customHeight="1" spans="1:17">
       <c r="A12" s="12">
         <v>8</v>
       </c>
@@ -12324,7 +12327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="1:17">
+    <row r="13" hidden="1" customHeight="1" spans="1:17">
       <c r="A13" s="12">
         <v>9</v>
       </c>
@@ -12367,7 +12370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="1:17">
+    <row r="14" hidden="1" customHeight="1" spans="1:17">
       <c r="A14" s="12">
         <v>10</v>
       </c>
@@ -12410,7 +12413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" customHeight="1" spans="1:17">
+    <row r="15" hidden="1" customHeight="1" spans="1:17">
       <c r="A15" s="12">
         <v>11</v>
       </c>
@@ -12453,7 +12456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" customHeight="1" spans="1:17">
+    <row r="16" hidden="1" customHeight="1" spans="1:17">
       <c r="A16" s="12">
         <v>12</v>
       </c>
@@ -12496,7 +12499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" customHeight="1" spans="1:17">
+    <row r="17" hidden="1" customHeight="1" spans="1:17">
       <c r="A17" s="12">
         <v>13</v>
       </c>
@@ -12539,7 +12542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" customHeight="1" spans="1:17">
+    <row r="18" hidden="1" customHeight="1" spans="1:17">
       <c r="A18" s="12">
         <v>14</v>
       </c>
@@ -12582,7 +12585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" customHeight="1" spans="1:17">
+    <row r="19" hidden="1" customHeight="1" spans="1:17">
       <c r="A19" s="12">
         <v>15</v>
       </c>
@@ -12625,7 +12628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" customHeight="1" spans="1:17">
+    <row r="20" hidden="1" customHeight="1" spans="1:17">
       <c r="A20" s="12">
         <v>16</v>
       </c>
@@ -12668,7 +12671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" customHeight="1" spans="1:17">
+    <row r="21" hidden="1" customHeight="1" spans="1:17">
       <c r="A21" s="12">
         <v>17</v>
       </c>
@@ -12711,7 +12714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" customHeight="1" spans="1:18">
+    <row r="22" hidden="1" customHeight="1" spans="1:18">
       <c r="A22" s="12">
         <v>18</v>
       </c>
@@ -12755,7 +12758,7 @@
       </c>
       <c r="R22" s="21"/>
     </row>
-    <row r="23" customHeight="1" spans="1:17">
+    <row r="23" hidden="1" customHeight="1" spans="1:17">
       <c r="A23" s="12">
         <v>19</v>
       </c>
@@ -12798,7 +12801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" customHeight="1" spans="1:17">
+    <row r="24" hidden="1" customHeight="1" spans="1:17">
       <c r="A24" s="12">
         <v>20</v>
       </c>
@@ -12841,7 +12844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" customHeight="1" spans="1:17">
+    <row r="25" hidden="1" customHeight="1" spans="1:17">
       <c r="A25" s="12">
         <v>21</v>
       </c>
@@ -12929,7 +12932,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="27" customHeight="1" spans="1:17">
+    <row r="27" hidden="1" customHeight="1" spans="1:17">
       <c r="A27" s="12">
         <v>23</v>
       </c>
@@ -12972,7 +12975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" customHeight="1" spans="1:17">
+    <row r="28" hidden="1" customHeight="1" spans="1:17">
       <c r="A28" s="12">
         <v>24</v>
       </c>
@@ -13015,7 +13018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" customHeight="1" spans="1:17">
+    <row r="29" hidden="1" customHeight="1" spans="1:17">
       <c r="A29" s="12">
         <v>25</v>
       </c>
@@ -13058,7 +13061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" customHeight="1" spans="1:17">
+    <row r="30" hidden="1" customHeight="1" spans="1:17">
       <c r="A30" s="12">
         <v>26</v>
       </c>
@@ -13146,7 +13149,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="32" customHeight="1" spans="1:17">
+    <row r="32" hidden="1" customHeight="1" spans="1:17">
       <c r="A32" s="12">
         <v>28</v>
       </c>
@@ -13189,7 +13192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" customHeight="1" spans="1:17">
+    <row r="33" hidden="1" customHeight="1" spans="1:17">
       <c r="A33" s="12">
         <v>29</v>
       </c>
@@ -13232,7 +13235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" customHeight="1" spans="1:17">
+    <row r="34" hidden="1" customHeight="1" spans="1:17">
       <c r="A34" s="12">
         <v>30</v>
       </c>
@@ -13275,7 +13278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" customHeight="1" spans="1:17">
+    <row r="35" hidden="1" customHeight="1" spans="1:17">
       <c r="A35" s="12">
         <v>31</v>
       </c>
@@ -13318,7 +13321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" customHeight="1" spans="1:17">
+    <row r="36" hidden="1" customHeight="1" spans="1:17">
       <c r="A36" s="12">
         <v>32</v>
       </c>
@@ -13361,7 +13364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" customHeight="1" spans="1:17">
+    <row r="37" hidden="1" customHeight="1" spans="1:17">
       <c r="A37" s="12">
         <v>33</v>
       </c>
@@ -13449,7 +13452,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="39" customHeight="1" spans="1:17">
+    <row r="39" hidden="1" customHeight="1" spans="1:17">
       <c r="A39" s="12">
         <v>35</v>
       </c>
@@ -13492,7 +13495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" customHeight="1" spans="1:17">
+    <row r="40" hidden="1" customHeight="1" spans="1:17">
       <c r="A40" s="12">
         <v>36</v>
       </c>
@@ -13580,7 +13583,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="42" customHeight="1" spans="1:17">
+    <row r="42" hidden="1" customHeight="1" spans="1:17">
       <c r="A42" s="12">
         <v>38</v>
       </c>
@@ -13623,7 +13626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" customHeight="1" spans="1:17">
+    <row r="43" hidden="1" customHeight="1" spans="1:17">
       <c r="A43" s="12">
         <v>39</v>
       </c>
@@ -13666,7 +13669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" customHeight="1" spans="1:17">
+    <row r="44" hidden="1" customHeight="1" spans="1:17">
       <c r="A44" s="12">
         <v>40</v>
       </c>
@@ -13709,7 +13712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" customHeight="1" spans="1:17">
+    <row r="45" hidden="1" customHeight="1" spans="1:17">
       <c r="A45" s="12">
         <v>41</v>
       </c>
@@ -13797,7 +13800,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" customHeight="1" spans="1:17">
+    <row r="47" hidden="1" customHeight="1" spans="1:17">
       <c r="A47" s="12">
         <v>43</v>
       </c>
@@ -13840,7 +13843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" customHeight="1" spans="1:17">
+    <row r="48" hidden="1" customHeight="1" spans="1:17">
       <c r="A48" s="12">
         <v>44</v>
       </c>
@@ -13883,7 +13886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" customHeight="1" spans="1:17">
+    <row r="49" hidden="1" customHeight="1" spans="1:17">
       <c r="A49" s="12">
         <v>45</v>
       </c>
@@ -13971,7 +13974,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="51" customHeight="1" spans="1:17">
+    <row r="51" hidden="1" customHeight="1" spans="1:17">
       <c r="A51" s="12">
         <v>47</v>
       </c>
@@ -14014,7 +14017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" customHeight="1" spans="1:17">
+    <row r="52" hidden="1" customHeight="1" spans="1:17">
       <c r="A52" s="12">
         <v>48</v>
       </c>
@@ -14057,7 +14060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" customHeight="1" spans="1:17">
+    <row r="53" hidden="1" customHeight="1" spans="1:17">
       <c r="A53" s="12">
         <v>49</v>
       </c>
@@ -14100,7 +14103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" customHeight="1" spans="1:17">
+    <row r="54" hidden="1" customHeight="1" spans="1:17">
       <c r="A54" s="12">
         <v>50</v>
       </c>
@@ -14188,7 +14191,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="56" customHeight="1" spans="1:17">
+    <row r="56" hidden="1" customHeight="1" spans="1:17">
       <c r="A56" s="12">
         <v>52</v>
       </c>
@@ -14231,7 +14234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" customHeight="1" spans="1:17">
+    <row r="57" hidden="1" customHeight="1" spans="1:17">
       <c r="A57" s="12">
         <v>53</v>
       </c>
@@ -14274,7 +14277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" customHeight="1" spans="1:17">
+    <row r="58" hidden="1" customHeight="1" spans="1:17">
       <c r="A58" s="12">
         <v>54</v>
       </c>
@@ -14317,7 +14320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" customHeight="1" spans="1:17">
+    <row r="59" hidden="1" customHeight="1" spans="1:17">
       <c r="A59" s="12">
         <v>55</v>
       </c>
@@ -14360,7 +14363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" customHeight="1" spans="1:17">
+    <row r="60" hidden="1" customHeight="1" spans="1:17">
       <c r="A60" s="12">
         <v>56</v>
       </c>
@@ -14403,7 +14406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" customHeight="1" spans="1:17">
+    <row r="61" hidden="1" customHeight="1" spans="1:17">
       <c r="A61" s="12">
         <v>57</v>
       </c>
@@ -14491,7 +14494,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="63" customHeight="1" spans="1:17">
+    <row r="63" hidden="1" customHeight="1" spans="1:17">
       <c r="A63" s="12">
         <v>59</v>
       </c>
@@ -14534,7 +14537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" customHeight="1" spans="1:17">
+    <row r="64" hidden="1" customHeight="1" spans="1:17">
       <c r="A64" s="12">
         <v>60</v>
       </c>
@@ -14577,7 +14580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" customHeight="1" spans="1:17">
+    <row r="65" hidden="1" customHeight="1" spans="1:17">
       <c r="A65" s="12">
         <v>61</v>
       </c>
@@ -14620,7 +14623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" customHeight="1" spans="1:17">
+    <row r="66" hidden="1" customHeight="1" spans="1:17">
       <c r="A66" s="12">
         <v>62</v>
       </c>
@@ -14663,7 +14666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" customHeight="1" spans="1:17">
+    <row r="67" hidden="1" customHeight="1" spans="1:17">
       <c r="A67" s="12">
         <v>63</v>
       </c>
@@ -14721,6 +14724,13 @@
     </row>
   </sheetData>
   <autoFilter ref="A4:R75">
+    <filterColumn colId="16">
+      <filters blank="1">
+        <filter val="完成"/>
+        <filter val="1"/>
+        <filter val="2"/>
+      </filters>
+    </filterColumn>
     <sortState ref="A4:R75">
       <sortCondition ref="I4:I75"/>
     </sortState>
@@ -14751,12 +14761,12 @@
   <sheetPr/>
   <dimension ref="A1:AE166"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="4" topLeftCell="L115" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="8" ySplit="4" topLeftCell="L107" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D126" sqref="D126"/>
+      <selection pane="bottomRight" activeCell="X58" sqref="X58:X60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>
@@ -14944,8 +14954,12 @@
       <c r="V4" s="27">
         <v>1.29</v>
       </c>
-      <c r="W4" s="27"/>
-      <c r="X4" s="27"/>
+      <c r="W4" s="28">
+        <v>1.3</v>
+      </c>
+      <c r="X4" s="27">
+        <v>1.31</v>
+      </c>
       <c r="Y4" s="27"/>
       <c r="Z4" s="27"/>
       <c r="AA4" s="27"/>
@@ -16788,22 +16802,24 @@
       </c>
       <c r="U37" s="12"/>
       <c r="V37" s="12"/>
-      <c r="W37" s="12"/>
+      <c r="W37" s="12">
+        <v>3</v>
+      </c>
       <c r="X37" s="12"/>
       <c r="Y37" s="12"/>
       <c r="Z37" s="12"/>
       <c r="AA37" s="12"/>
       <c r="AB37" s="18">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AC37" s="18">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="AD37" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD37" s="20" t="str">
         <f t="shared" si="9"/>
-        <v>4</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:30">
@@ -16843,21 +16859,23 @@
       <c r="U38" s="12"/>
       <c r="V38" s="12"/>
       <c r="W38" s="12"/>
-      <c r="X38" s="12"/>
+      <c r="X38" s="12">
+        <v>1</v>
+      </c>
       <c r="Y38" s="12"/>
       <c r="Z38" s="12"/>
       <c r="AA38" s="12"/>
       <c r="AB38" s="18">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC38" s="18">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AD38" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD38" s="20" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:30">
@@ -16896,22 +16914,24 @@
       <c r="T39" s="12"/>
       <c r="U39" s="12"/>
       <c r="V39" s="12"/>
-      <c r="W39" s="12"/>
+      <c r="W39" s="12">
+        <v>1</v>
+      </c>
       <c r="X39" s="12"/>
       <c r="Y39" s="12"/>
       <c r="Z39" s="12"/>
       <c r="AA39" s="12"/>
       <c r="AB39" s="18">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC39" s="18">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AD39" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD39" s="20" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:30">
@@ -16950,22 +16970,24 @@
       <c r="T40" s="12"/>
       <c r="U40" s="12"/>
       <c r="V40" s="12"/>
-      <c r="W40" s="12"/>
+      <c r="W40" s="12">
+        <v>1</v>
+      </c>
       <c r="X40" s="12"/>
       <c r="Y40" s="12"/>
       <c r="Z40" s="12"/>
       <c r="AA40" s="12"/>
       <c r="AB40" s="18">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC40" s="18">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AD40" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD40" s="20" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="1:30">
@@ -17004,22 +17026,24 @@
       <c r="T41" s="12"/>
       <c r="U41" s="12"/>
       <c r="V41" s="12"/>
-      <c r="W41" s="12"/>
+      <c r="W41" s="12">
+        <v>1</v>
+      </c>
       <c r="X41" s="12"/>
       <c r="Y41" s="12"/>
       <c r="Z41" s="12"/>
       <c r="AA41" s="12"/>
       <c r="AB41" s="18">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC41" s="18">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AD41" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD41" s="20" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:30">
@@ -17058,22 +17082,24 @@
       <c r="T42" s="12"/>
       <c r="U42" s="12"/>
       <c r="V42" s="12"/>
-      <c r="W42" s="12"/>
+      <c r="W42" s="12">
+        <v>1</v>
+      </c>
       <c r="X42" s="12"/>
       <c r="Y42" s="12"/>
       <c r="Z42" s="12"/>
       <c r="AA42" s="12"/>
       <c r="AB42" s="18">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC42" s="18">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AD42" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="20" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="1:30">
@@ -17112,22 +17138,24 @@
       <c r="T43" s="12"/>
       <c r="U43" s="12"/>
       <c r="V43" s="12"/>
-      <c r="W43" s="12"/>
+      <c r="W43" s="12">
+        <v>1</v>
+      </c>
       <c r="X43" s="12"/>
       <c r="Y43" s="12"/>
       <c r="Z43" s="12"/>
       <c r="AA43" s="12"/>
       <c r="AB43" s="18">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC43" s="18">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AD43" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="20" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="1:30">
@@ -17167,21 +17195,23 @@
       <c r="U44" s="12"/>
       <c r="V44" s="12"/>
       <c r="W44" s="12"/>
-      <c r="X44" s="12"/>
+      <c r="X44" s="12">
+        <v>1</v>
+      </c>
       <c r="Y44" s="12"/>
       <c r="Z44" s="12"/>
       <c r="AA44" s="12"/>
       <c r="AB44" s="18">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC44" s="18">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AD44" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="20" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="1:30">
@@ -17220,22 +17250,24 @@
       <c r="T45" s="12"/>
       <c r="U45" s="12"/>
       <c r="V45" s="12"/>
-      <c r="W45" s="12"/>
+      <c r="W45" s="12">
+        <v>1</v>
+      </c>
       <c r="X45" s="12"/>
       <c r="Y45" s="12"/>
       <c r="Z45" s="12"/>
       <c r="AA45" s="12"/>
       <c r="AB45" s="18">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC45" s="18">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AD45" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="20" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="1:30">
@@ -17499,21 +17531,23 @@
       <c r="U50" s="12"/>
       <c r="V50" s="12"/>
       <c r="W50" s="12"/>
-      <c r="X50" s="12"/>
+      <c r="X50" s="12">
+        <v>1</v>
+      </c>
       <c r="Y50" s="12"/>
       <c r="Z50" s="12"/>
       <c r="AA50" s="12"/>
       <c r="AB50" s="18">
         <f t="shared" ref="AB50:AB60" si="11">SUM(I50:AA50)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC50" s="18">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AD50" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="20" t="str">
         <f t="shared" ref="AD50:AD60" si="12">IF(SUM(I50:AA50)=C50,"完成",SUM(I50:AA50))</f>
-        <v>0</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="1:30">
@@ -17883,25 +17917,27 @@
       <c r="Q57" s="12"/>
       <c r="R57" s="12"/>
       <c r="S57" s="12"/>
-      <c r="T57" s="28"/>
+      <c r="T57" s="29"/>
       <c r="U57" s="12"/>
       <c r="V57" s="12"/>
       <c r="W57" s="12"/>
-      <c r="X57" s="12"/>
+      <c r="X57" s="12">
+        <v>1</v>
+      </c>
       <c r="Y57" s="12"/>
       <c r="Z57" s="12"/>
       <c r="AA57" s="12"/>
       <c r="AB57" s="18">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC57" s="18">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AD57" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD57" s="20" t="str">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="1:30">
@@ -17937,7 +17973,7 @@
       <c r="Q58" s="12"/>
       <c r="R58" s="12"/>
       <c r="S58" s="12"/>
-      <c r="T58" s="28"/>
+      <c r="T58" s="29"/>
       <c r="U58" s="12"/>
       <c r="V58" s="12"/>
       <c r="W58" s="12"/>
@@ -18548,22 +18584,24 @@
       <c r="T69" s="12"/>
       <c r="U69" s="12"/>
       <c r="V69" s="12"/>
-      <c r="W69" s="12"/>
+      <c r="W69" s="12">
+        <v>1</v>
+      </c>
       <c r="X69" s="12"/>
       <c r="Y69" s="12"/>
       <c r="Z69" s="12"/>
       <c r="AA69" s="12"/>
       <c r="AB69" s="18">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC69" s="18">
         <f>C69-AB69</f>
-        <v>1</v>
-      </c>
-      <c r="AD69" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="20" t="str">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="70" customHeight="1" spans="1:30">
@@ -18602,22 +18640,24 @@
       <c r="T70" s="12"/>
       <c r="U70" s="12"/>
       <c r="V70" s="12"/>
-      <c r="W70" s="12"/>
+      <c r="W70" s="12">
+        <v>1</v>
+      </c>
       <c r="X70" s="12"/>
       <c r="Y70" s="12"/>
       <c r="Z70" s="12"/>
       <c r="AA70" s="12"/>
       <c r="AB70" s="18">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC70" s="18">
         <f t="shared" ref="AC70:AC96" si="15">C70-AB70</f>
-        <v>1</v>
-      </c>
-      <c r="AD70" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="20" t="str">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="71" customHeight="1" spans="1:30">
@@ -19095,21 +19135,23 @@
       <c r="U79" s="12"/>
       <c r="V79" s="12"/>
       <c r="W79" s="12"/>
-      <c r="X79" s="12"/>
+      <c r="X79" s="12">
+        <v>1</v>
+      </c>
       <c r="Y79" s="12"/>
       <c r="Z79" s="12"/>
       <c r="AA79" s="12"/>
       <c r="AB79" s="18">
         <f t="shared" ref="AB79:AB110" si="17">SUM(I79:AA79)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC79" s="18">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AD79" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD79" s="20" t="str">
         <f t="shared" ref="AD79:AD110" si="18">IF(SUM(I79:AA79)=C79,"完成",SUM(I79:AA79))</f>
-        <v>0</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="80" customHeight="1" spans="1:30">
@@ -19149,21 +19191,23 @@
       <c r="U80" s="12"/>
       <c r="V80" s="12"/>
       <c r="W80" s="12"/>
-      <c r="X80" s="12"/>
+      <c r="X80" s="12">
+        <v>1</v>
+      </c>
       <c r="Y80" s="12"/>
       <c r="Z80" s="12"/>
       <c r="AA80" s="12"/>
       <c r="AB80" s="18">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC80" s="18">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AD80" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD80" s="20" t="str">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="81" customHeight="1" spans="1:30">
@@ -23882,12 +23926,12 @@
   <sheetPr/>
   <dimension ref="A1:R83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="8" ySplit="4" topLeftCell="I35" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="8" ySplit="4" topLeftCell="I39" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A54" sqref="$A54:$XFD54"/>
+      <selection pane="bottomRight" activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>
@@ -24009,7 +24053,9 @@
       <c r="K4" s="12">
         <v>1.29</v>
       </c>
-      <c r="L4" s="12"/>
+      <c r="L4" s="12">
+        <v>1.31</v>
+      </c>
       <c r="M4" s="12"/>
       <c r="N4" s="12"/>
       <c r="O4" s="16" t="s">
@@ -25258,20 +25304,22 @@
       <c r="I33" s="17"/>
       <c r="J33" s="12"/>
       <c r="K33" s="12"/>
-      <c r="L33" s="12"/>
+      <c r="L33" s="12">
+        <v>1</v>
+      </c>
       <c r="M33" s="12"/>
       <c r="N33" s="12"/>
       <c r="O33" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P33" s="18">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q33" s="20">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:17">
@@ -26206,20 +26254,22 @@
       <c r="I55" s="12"/>
       <c r="J55" s="12"/>
       <c r="K55" s="12"/>
-      <c r="L55" s="12"/>
+      <c r="L55" s="12">
+        <v>1</v>
+      </c>
       <c r="M55" s="12"/>
       <c r="N55" s="12"/>
       <c r="O55" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P55" s="18">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="Q55" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="20" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="1:17">

--- a/拼装统计.xlsx
+++ b/拼装统计.xlsx
@@ -25,7 +25,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">统计!$A$2:$G$38</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">福州地铁!$A$4:$R$75</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">广东华丰!$A$4:$AE$166</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">大东海!$A$4:$R$83</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">大东海!$A$4:$AB$83</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'模板 (8)'!$A$4:$R$75</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'模板 (7)'!$A$4:$R$75</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'模板 (6)'!$A$4:$R$75</definedName>
@@ -1285,14 +1285,14 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="9">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="178" formatCode="0.000_);[Red]\(0.000\)"/>
-    <numFmt numFmtId="179" formatCode="0.0_);[Red]\(0.0\)"/>
-    <numFmt numFmtId="180" formatCode="0.00_ "/>
+    <numFmt numFmtId="179" formatCode="0.00_ "/>
+    <numFmt numFmtId="180" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -1343,7 +1343,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1358,40 +1396,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1402,31 +1409,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1449,15 +1441,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1471,18 +1455,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1513,7 +1513,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1525,19 +1537,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1555,19 +1597,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1579,13 +1615,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1597,49 +1639,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1657,37 +1687,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1755,32 +1755,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1796,11 +1775,39 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1822,33 +1829,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1860,10 +1860,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1872,143 +1872,143 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2075,7 +2075,7 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2084,16 +2084,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2108,7 +2111,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2586,7 +2589,7 @@
       <c r="G5" s="13">
         <v>2493.1</v>
       </c>
-      <c r="H5" s="33">
+      <c r="H5" s="34">
         <f>G5*C5</f>
         <v>2493.1</v>
       </c>
@@ -2627,7 +2630,7 @@
       <c r="G6" s="13">
         <v>2496</v>
       </c>
-      <c r="H6" s="33">
+      <c r="H6" s="34">
         <f t="shared" ref="H6:H37" si="2">G6*C6</f>
         <v>2496</v>
       </c>
@@ -2668,7 +2671,7 @@
       <c r="G7" s="13">
         <v>2483.1</v>
       </c>
-      <c r="H7" s="33">
+      <c r="H7" s="34">
         <f t="shared" si="2"/>
         <v>9932.4</v>
       </c>
@@ -2711,7 +2714,7 @@
       <c r="G8" s="13">
         <v>2486</v>
       </c>
-      <c r="H8" s="33">
+      <c r="H8" s="34">
         <f t="shared" si="2"/>
         <v>9944</v>
       </c>
@@ -2752,7 +2755,7 @@
       <c r="G9" s="12">
         <v>2496</v>
       </c>
-      <c r="H9" s="33">
+      <c r="H9" s="34">
         <f t="shared" si="2"/>
         <v>2496</v>
       </c>
@@ -2793,7 +2796,7 @@
       <c r="G10" s="12">
         <v>2493.1</v>
       </c>
-      <c r="H10" s="33">
+      <c r="H10" s="34">
         <f t="shared" si="2"/>
         <v>2493.1</v>
       </c>
@@ -2834,7 +2837,7 @@
       <c r="G11" s="12">
         <v>1277.7</v>
       </c>
-      <c r="H11" s="33">
+      <c r="H11" s="34">
         <f t="shared" si="2"/>
         <v>1277.7</v>
       </c>
@@ -2875,7 +2878,7 @@
       <c r="G12" s="12">
         <v>1479.6</v>
       </c>
-      <c r="H12" s="33">
+      <c r="H12" s="34">
         <f t="shared" si="2"/>
         <v>1479.6</v>
       </c>
@@ -2916,7 +2919,7 @@
       <c r="G13" s="12">
         <v>1476.1</v>
       </c>
-      <c r="H13" s="33">
+      <c r="H13" s="34">
         <f t="shared" si="2"/>
         <v>1476.1</v>
       </c>
@@ -2957,7 +2960,7 @@
       <c r="G14" s="13">
         <v>113.1</v>
       </c>
-      <c r="H14" s="33">
+      <c r="H14" s="34">
         <f t="shared" si="2"/>
         <v>113.1</v>
       </c>
@@ -2998,7 +3001,7 @@
       <c r="G15" s="13">
         <v>113.1</v>
       </c>
-      <c r="H15" s="33">
+      <c r="H15" s="34">
         <f t="shared" si="2"/>
         <v>226.2</v>
       </c>
@@ -3039,7 +3042,7 @@
       <c r="G16" s="13">
         <v>89.5</v>
       </c>
-      <c r="H16" s="33">
+      <c r="H16" s="34">
         <f t="shared" si="2"/>
         <v>179</v>
       </c>
@@ -3080,7 +3083,7 @@
       <c r="G17" s="13">
         <v>61.5</v>
       </c>
-      <c r="H17" s="33">
+      <c r="H17" s="34">
         <f t="shared" si="2"/>
         <v>123</v>
       </c>
@@ -3121,7 +3124,7 @@
       <c r="G18" s="13">
         <v>105.4</v>
       </c>
-      <c r="H18" s="33">
+      <c r="H18" s="34">
         <f t="shared" si="2"/>
         <v>210.8</v>
       </c>
@@ -3162,7 +3165,7 @@
       <c r="G19" s="13">
         <v>113.1</v>
       </c>
-      <c r="H19" s="33">
+      <c r="H19" s="34">
         <f t="shared" si="2"/>
         <v>113.1</v>
       </c>
@@ -3197,7 +3200,7 @@
       <c r="E20" s="12"/>
       <c r="F20" s="13"/>
       <c r="G20" s="13"/>
-      <c r="H20" s="33">
+      <c r="H20" s="34">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3230,7 +3233,7 @@
       <c r="E21" s="12"/>
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
-      <c r="H21" s="33">
+      <c r="H21" s="34">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3263,7 +3266,7 @@
       <c r="E22" s="12"/>
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
-      <c r="H22" s="33">
+      <c r="H22" s="34">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3297,7 +3300,7 @@
       <c r="E23" s="12"/>
       <c r="F23" s="13"/>
       <c r="G23" s="13"/>
-      <c r="H23" s="33">
+      <c r="H23" s="34">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3330,7 +3333,7 @@
       <c r="E24" s="12"/>
       <c r="F24" s="13"/>
       <c r="G24" s="13"/>
-      <c r="H24" s="33">
+      <c r="H24" s="34">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3363,7 +3366,7 @@
       <c r="E25" s="12"/>
       <c r="F25" s="13"/>
       <c r="G25" s="13"/>
-      <c r="H25" s="33">
+      <c r="H25" s="34">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3396,7 +3399,7 @@
       <c r="E26" s="12"/>
       <c r="F26" s="13"/>
       <c r="G26" s="13"/>
-      <c r="H26" s="33">
+      <c r="H26" s="34">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3429,7 +3432,7 @@
       <c r="E27" s="12"/>
       <c r="F27" s="13"/>
       <c r="G27" s="13"/>
-      <c r="H27" s="33">
+      <c r="H27" s="34">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3462,7 +3465,7 @@
       <c r="E28" s="12"/>
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
-      <c r="H28" s="33">
+      <c r="H28" s="34">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3495,7 +3498,7 @@
       <c r="E29" s="12"/>
       <c r="F29" s="13"/>
       <c r="G29" s="13"/>
-      <c r="H29" s="33">
+      <c r="H29" s="34">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3528,7 +3531,7 @@
       <c r="E30" s="12"/>
       <c r="F30" s="13"/>
       <c r="G30" s="13"/>
-      <c r="H30" s="33">
+      <c r="H30" s="34">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3561,7 +3564,7 @@
       <c r="E31" s="12"/>
       <c r="F31" s="13"/>
       <c r="G31" s="13"/>
-      <c r="H31" s="33">
+      <c r="H31" s="34">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3594,7 +3597,7 @@
       <c r="E32" s="12"/>
       <c r="F32" s="13"/>
       <c r="G32" s="13"/>
-      <c r="H32" s="33">
+      <c r="H32" s="34">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3627,7 +3630,7 @@
       <c r="E33" s="12"/>
       <c r="F33" s="13"/>
       <c r="G33" s="13"/>
-      <c r="H33" s="33">
+      <c r="H33" s="34">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3660,7 +3663,7 @@
       <c r="E34" s="12"/>
       <c r="F34" s="13"/>
       <c r="G34" s="13"/>
-      <c r="H34" s="33">
+      <c r="H34" s="34">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3693,7 +3696,7 @@
       <c r="E35" s="12"/>
       <c r="F35" s="13"/>
       <c r="G35" s="13"/>
-      <c r="H35" s="33">
+      <c r="H35" s="34">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3726,7 +3729,7 @@
       <c r="E36" s="12"/>
       <c r="F36" s="13"/>
       <c r="G36" s="13"/>
-      <c r="H36" s="33">
+      <c r="H36" s="34">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3759,7 +3762,7 @@
       <c r="E37" s="12"/>
       <c r="F37" s="13"/>
       <c r="G37" s="13"/>
-      <c r="H37" s="33">
+      <c r="H37" s="34">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3792,7 +3795,7 @@
       <c r="E38" s="12"/>
       <c r="F38" s="13"/>
       <c r="G38" s="13"/>
-      <c r="H38" s="33">
+      <c r="H38" s="34">
         <f t="shared" ref="H38:H67" si="4">G38*C38</f>
         <v>0</v>
       </c>
@@ -3825,7 +3828,7 @@
       <c r="E39" s="12"/>
       <c r="F39" s="13"/>
       <c r="G39" s="13"/>
-      <c r="H39" s="33">
+      <c r="H39" s="34">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -3858,7 +3861,7 @@
       <c r="E40" s="12"/>
       <c r="F40" s="13"/>
       <c r="G40" s="13"/>
-      <c r="H40" s="33">
+      <c r="H40" s="34">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -3891,7 +3894,7 @@
       <c r="E41" s="12"/>
       <c r="F41" s="13"/>
       <c r="G41" s="13"/>
-      <c r="H41" s="33">
+      <c r="H41" s="34">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -3924,7 +3927,7 @@
       <c r="E42" s="12"/>
       <c r="F42" s="13"/>
       <c r="G42" s="13"/>
-      <c r="H42" s="33">
+      <c r="H42" s="34">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -3957,7 +3960,7 @@
       <c r="E43" s="12"/>
       <c r="F43" s="13"/>
       <c r="G43" s="13"/>
-      <c r="H43" s="33">
+      <c r="H43" s="34">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -3990,7 +3993,7 @@
       <c r="E44" s="12"/>
       <c r="F44" s="13"/>
       <c r="G44" s="13"/>
-      <c r="H44" s="33">
+      <c r="H44" s="34">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4023,7 +4026,7 @@
       <c r="E45" s="12"/>
       <c r="F45" s="13"/>
       <c r="G45" s="13"/>
-      <c r="H45" s="33">
+      <c r="H45" s="34">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4056,7 +4059,7 @@
       <c r="E46" s="12"/>
       <c r="F46" s="13"/>
       <c r="G46" s="13"/>
-      <c r="H46" s="33">
+      <c r="H46" s="34">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4089,7 +4092,7 @@
       <c r="E47" s="12"/>
       <c r="F47" s="13"/>
       <c r="G47" s="13"/>
-      <c r="H47" s="33">
+      <c r="H47" s="34">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4122,7 +4125,7 @@
       <c r="E48" s="12"/>
       <c r="F48" s="13"/>
       <c r="G48" s="13"/>
-      <c r="H48" s="33">
+      <c r="H48" s="34">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4155,7 +4158,7 @@
       <c r="E49" s="12"/>
       <c r="F49" s="13"/>
       <c r="G49" s="13"/>
-      <c r="H49" s="33">
+      <c r="H49" s="34">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4188,7 +4191,7 @@
       <c r="E50" s="12"/>
       <c r="F50" s="13"/>
       <c r="G50" s="13"/>
-      <c r="H50" s="33">
+      <c r="H50" s="34">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4221,7 +4224,7 @@
       <c r="E51" s="12"/>
       <c r="F51" s="13"/>
       <c r="G51" s="13"/>
-      <c r="H51" s="33">
+      <c r="H51" s="34">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4254,7 +4257,7 @@
       <c r="E52" s="12"/>
       <c r="F52" s="13"/>
       <c r="G52" s="13"/>
-      <c r="H52" s="33">
+      <c r="H52" s="34">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4287,7 +4290,7 @@
       <c r="E53" s="12"/>
       <c r="F53" s="13"/>
       <c r="G53" s="13"/>
-      <c r="H53" s="33">
+      <c r="H53" s="34">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4320,7 +4323,7 @@
       <c r="E54" s="12"/>
       <c r="F54" s="13"/>
       <c r="G54" s="13"/>
-      <c r="H54" s="33">
+      <c r="H54" s="34">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4353,7 +4356,7 @@
       <c r="E55" s="12"/>
       <c r="F55" s="13"/>
       <c r="G55" s="13"/>
-      <c r="H55" s="33">
+      <c r="H55" s="34">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4386,7 +4389,7 @@
       <c r="E56" s="12"/>
       <c r="F56" s="13"/>
       <c r="G56" s="13"/>
-      <c r="H56" s="33">
+      <c r="H56" s="34">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4419,7 +4422,7 @@
       <c r="E57" s="12"/>
       <c r="F57" s="13"/>
       <c r="G57" s="13"/>
-      <c r="H57" s="33">
+      <c r="H57" s="34">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4452,7 +4455,7 @@
       <c r="E58" s="12"/>
       <c r="F58" s="13"/>
       <c r="G58" s="13"/>
-      <c r="H58" s="33">
+      <c r="H58" s="34">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4485,7 +4488,7 @@
       <c r="E59" s="12"/>
       <c r="F59" s="13"/>
       <c r="G59" s="13"/>
-      <c r="H59" s="33">
+      <c r="H59" s="34">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4518,7 +4521,7 @@
       <c r="E60" s="12"/>
       <c r="F60" s="13"/>
       <c r="G60" s="13"/>
-      <c r="H60" s="33">
+      <c r="H60" s="34">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4551,7 +4554,7 @@
       <c r="E61" s="12"/>
       <c r="F61" s="13"/>
       <c r="G61" s="13"/>
-      <c r="H61" s="33">
+      <c r="H61" s="34">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4584,7 +4587,7 @@
       <c r="E62" s="12"/>
       <c r="F62" s="13"/>
       <c r="G62" s="13"/>
-      <c r="H62" s="33">
+      <c r="H62" s="34">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4617,7 +4620,7 @@
       <c r="E63" s="12"/>
       <c r="F63" s="13"/>
       <c r="G63" s="13"/>
-      <c r="H63" s="33">
+      <c r="H63" s="34">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4650,7 +4653,7 @@
       <c r="E64" s="12"/>
       <c r="F64" s="13"/>
       <c r="G64" s="13"/>
-      <c r="H64" s="33">
+      <c r="H64" s="34">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4683,7 +4686,7 @@
       <c r="E65" s="12"/>
       <c r="F65" s="13"/>
       <c r="G65" s="13"/>
-      <c r="H65" s="33">
+      <c r="H65" s="34">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4716,7 +4719,7 @@
       <c r="E66" s="12"/>
       <c r="F66" s="13"/>
       <c r="G66" s="13"/>
-      <c r="H66" s="33">
+      <c r="H66" s="34">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4749,7 +4752,7 @@
       <c r="E67" s="12"/>
       <c r="F67" s="13"/>
       <c r="G67" s="13"/>
-      <c r="H67" s="33">
+      <c r="H67" s="34">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -11037,799 +11040,799 @@
   </cols>
   <sheetData>
     <row r="1" ht="14" customHeight="1" spans="1:7">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
     </row>
     <row r="2" ht="14" customHeight="1" spans="1:7">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="G2" s="31" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" ht="14" customHeight="1" spans="1:7">
-      <c r="A3" s="30">
-        <v>1</v>
-      </c>
-      <c r="B3" s="30" t="s">
+      <c r="A3" s="31">
+        <v>1</v>
+      </c>
+      <c r="B3" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="30">
+      <c r="D3" s="31">
         <v>12868.71</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="30"/>
+      <c r="G3" s="31"/>
     </row>
     <row r="4" ht="14" customHeight="1" spans="1:7">
-      <c r="A4" s="30">
+      <c r="A4" s="31">
         <v>2</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="30">
+      <c r="D4" s="31">
         <v>12017.64</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="30" t="s">
+      <c r="F4" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="30"/>
+      <c r="G4" s="31"/>
     </row>
     <row r="5" ht="14" customHeight="1" spans="1:7">
-      <c r="A5" s="30">
+      <c r="A5" s="31">
         <v>3</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="30">
+      <c r="D5" s="31">
         <v>396</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="E5" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="30" t="s">
+      <c r="F5" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="30"/>
+      <c r="G5" s="31"/>
     </row>
     <row r="6" ht="14" customHeight="1" spans="1:7">
-      <c r="A6" s="30">
+      <c r="A6" s="31">
         <v>4</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="30">
+      <c r="D6" s="31">
         <v>7374.54</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="30" t="s">
+      <c r="F6" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="G6" s="30"/>
+      <c r="G6" s="31"/>
     </row>
     <row r="7" ht="14" customHeight="1" spans="1:7">
-      <c r="A7" s="30">
+      <c r="A7" s="31">
         <v>5</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="30">
+      <c r="D7" s="31">
         <v>3673.98</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="E7" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="30" t="s">
+      <c r="F7" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="G7" s="30"/>
+      <c r="G7" s="31"/>
     </row>
     <row r="8" ht="14" customHeight="1" spans="1:7">
-      <c r="A8" s="30">
+      <c r="A8" s="31">
         <v>6</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="30">
+      <c r="D8" s="31">
         <v>31158.1</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="E8" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="30" t="s">
+      <c r="F8" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="30"/>
+      <c r="G8" s="31"/>
     </row>
     <row r="9" ht="14" customHeight="1" spans="1:7">
-      <c r="A9" s="30">
+      <c r="A9" s="31">
         <v>7</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="30">
+      <c r="D9" s="31">
         <v>12321</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="30" t="s">
+      <c r="F9" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="G9" s="30"/>
+      <c r="G9" s="31"/>
     </row>
     <row r="10" ht="14" customHeight="1" spans="1:7">
-      <c r="A10" s="30">
+      <c r="A10" s="31">
         <v>8</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="30">
+      <c r="D10" s="31">
         <v>17141.6</v>
       </c>
-      <c r="E10" s="30" t="s">
+      <c r="E10" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="30" t="s">
+      <c r="F10" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="G10" s="30"/>
+      <c r="G10" s="31"/>
     </row>
     <row r="11" ht="14" customHeight="1" spans="1:7">
-      <c r="A11" s="30">
+      <c r="A11" s="31">
         <v>9</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="30">
+      <c r="D11" s="31">
         <v>8925</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="E11" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="30" t="s">
+      <c r="F11" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="G11" s="30"/>
+      <c r="G11" s="31"/>
     </row>
     <row r="12" ht="14" customHeight="1" spans="1:7">
-      <c r="A12" s="30">
+      <c r="A12" s="31">
         <v>10</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="30">
+      <c r="D12" s="31">
         <v>15689</v>
       </c>
-      <c r="E12" s="30" t="s">
+      <c r="E12" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="30" t="s">
+      <c r="F12" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="G12" s="30"/>
+      <c r="G12" s="31"/>
     </row>
     <row r="13" ht="14" customHeight="1" spans="1:7">
-      <c r="A13" s="30">
+      <c r="A13" s="31">
         <v>11</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="30">
+      <c r="D13" s="31">
         <v>14961.3</v>
       </c>
-      <c r="E13" s="30" t="s">
+      <c r="E13" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="30" t="s">
+      <c r="F13" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="G13" s="30"/>
+      <c r="G13" s="31"/>
     </row>
     <row r="14" ht="14" customHeight="1" spans="1:7">
-      <c r="A14" s="30">
+      <c r="A14" s="31">
         <v>12</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="30">
+      <c r="D14" s="31">
         <v>24245.7</v>
       </c>
-      <c r="E14" s="30" t="s">
+      <c r="E14" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="30" t="s">
+      <c r="F14" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="G14" s="30"/>
+      <c r="G14" s="31"/>
     </row>
     <row r="15" ht="14" customHeight="1" spans="1:7">
-      <c r="A15" s="30">
+      <c r="A15" s="31">
         <v>13</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="30">
+      <c r="D15" s="31">
         <v>10067.1</v>
       </c>
-      <c r="E15" s="30" t="s">
+      <c r="E15" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="30" t="s">
+      <c r="F15" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="G15" s="30"/>
+      <c r="G15" s="31"/>
     </row>
     <row r="16" ht="14" customHeight="1" spans="1:7">
-      <c r="A16" s="30">
+      <c r="A16" s="31">
         <v>14</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="30">
+      <c r="D16" s="31">
         <v>15689.9</v>
       </c>
-      <c r="E16" s="30" t="s">
+      <c r="E16" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="30" t="s">
+      <c r="F16" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="G16" s="30"/>
+      <c r="G16" s="31"/>
     </row>
     <row r="17" ht="14" customHeight="1" spans="1:7">
-      <c r="A17" s="30">
+      <c r="A17" s="31">
         <v>15</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="30">
+      <c r="D17" s="31">
         <v>24041</v>
       </c>
-      <c r="E17" s="30" t="s">
+      <c r="E17" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="F17" s="30" t="s">
+      <c r="F17" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="G17" s="30"/>
+      <c r="G17" s="31"/>
     </row>
     <row r="18" ht="14" customHeight="1" spans="1:7">
-      <c r="A18" s="30">
+      <c r="A18" s="31">
         <v>16</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="30">
+      <c r="D18" s="31">
         <v>7137.49</v>
       </c>
-      <c r="E18" s="30" t="s">
+      <c r="E18" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="F18" s="30" t="s">
+      <c r="F18" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="G18" s="30"/>
+      <c r="G18" s="31"/>
     </row>
     <row r="19" ht="14" customHeight="1" spans="1:7">
-      <c r="A19" s="30">
+      <c r="A19" s="31">
         <v>17</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="30">
+      <c r="D19" s="31">
         <v>10685.5</v>
       </c>
-      <c r="E19" s="30" t="s">
+      <c r="E19" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="F19" s="30" t="s">
+      <c r="F19" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="G19" s="30"/>
+      <c r="G19" s="31"/>
     </row>
     <row r="20" ht="14" customHeight="1" spans="1:7">
-      <c r="A20" s="30">
+      <c r="A20" s="31">
         <v>18</v>
       </c>
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="30">
+      <c r="D20" s="31">
         <v>7078.8</v>
       </c>
-      <c r="E20" s="30" t="s">
+      <c r="E20" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="F20" s="30" t="s">
+      <c r="F20" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="G20" s="30"/>
+      <c r="G20" s="31"/>
     </row>
     <row r="21" ht="14" customHeight="1" spans="1:7">
-      <c r="A21" s="30">
+      <c r="A21" s="31">
         <v>19</v>
       </c>
-      <c r="B21" s="30" t="s">
+      <c r="B21" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="30" t="s">
+      <c r="C21" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="30">
+      <c r="D21" s="31">
         <v>17382</v>
       </c>
-      <c r="E21" s="30" t="s">
+      <c r="E21" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="F21" s="30" t="s">
+      <c r="F21" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="G21" s="30"/>
+      <c r="G21" s="31"/>
     </row>
     <row r="22" ht="14" customHeight="1" spans="1:7">
-      <c r="A22" s="30">
+      <c r="A22" s="31">
         <v>20</v>
       </c>
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="30" t="s">
+      <c r="C22" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="30">
+      <c r="D22" s="31">
         <v>15673.7</v>
       </c>
-      <c r="E22" s="30" t="s">
+      <c r="E22" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="F22" s="30" t="s">
+      <c r="F22" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="G22" s="30"/>
+      <c r="G22" s="31"/>
     </row>
     <row r="23" ht="14" customHeight="1" spans="1:7">
-      <c r="A23" s="30">
+      <c r="A23" s="31">
         <v>21</v>
       </c>
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="30" t="s">
+      <c r="C23" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="30">
+      <c r="D23" s="31">
         <v>7814</v>
       </c>
-      <c r="E23" s="30" t="s">
+      <c r="E23" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="F23" s="30" t="s">
+      <c r="F23" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="G23" s="30"/>
+      <c r="G23" s="31"/>
     </row>
     <row r="24" ht="14" customHeight="1" spans="1:7">
-      <c r="A24" s="30">
+      <c r="A24" s="31">
         <v>22</v>
       </c>
-      <c r="B24" s="30" t="s">
+      <c r="B24" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="30" t="s">
+      <c r="C24" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="D24" s="30">
+      <c r="D24" s="31">
         <v>7392</v>
       </c>
-      <c r="E24" s="30" t="s">
+      <c r="E24" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="F24" s="30" t="s">
+      <c r="F24" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="G24" s="30"/>
+      <c r="G24" s="31"/>
     </row>
     <row r="25" ht="14" customHeight="1" spans="1:7">
-      <c r="A25" s="30">
+      <c r="A25" s="31">
         <v>23</v>
       </c>
-      <c r="B25" s="30" t="s">
+      <c r="B25" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="30" t="s">
+      <c r="C25" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="30">
+      <c r="D25" s="31">
         <v>91853</v>
       </c>
-      <c r="E25" s="30" t="s">
+      <c r="E25" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="F25" s="30" t="s">
+      <c r="F25" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="G25" s="30"/>
+      <c r="G25" s="31"/>
     </row>
     <row r="26" ht="14" customHeight="1" spans="1:7">
-      <c r="A26" s="30">
+      <c r="A26" s="31">
         <v>24</v>
       </c>
-      <c r="B26" s="30" t="s">
+      <c r="B26" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="30" t="s">
+      <c r="C26" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="D26" s="30">
-        <v>1</v>
-      </c>
-      <c r="E26" s="30" t="s">
+      <c r="D26" s="31">
+        <v>1</v>
+      </c>
+      <c r="E26" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="F26" s="30" t="s">
+      <c r="F26" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="G26" s="30"/>
+      <c r="G26" s="31"/>
     </row>
     <row r="27" ht="14" customHeight="1" spans="1:7">
-      <c r="A27" s="30">
+      <c r="A27" s="31">
         <v>25</v>
       </c>
-      <c r="B27" s="30" t="s">
+      <c r="B27" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="30" t="s">
+      <c r="C27" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="D27" s="30">
+      <c r="D27" s="31">
         <v>9797.5</v>
       </c>
-      <c r="E27" s="30" t="s">
+      <c r="E27" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="F27" s="30" t="s">
+      <c r="F27" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="G27" s="30"/>
+      <c r="G27" s="31"/>
     </row>
     <row r="28" ht="14" customHeight="1" spans="1:7">
-      <c r="A28" s="30">
+      <c r="A28" s="31">
         <v>26</v>
       </c>
-      <c r="B28" s="30" t="s">
+      <c r="B28" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="30" t="s">
+      <c r="C28" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="D28" s="30">
+      <c r="D28" s="31">
         <v>9932.5</v>
       </c>
-      <c r="E28" s="30" t="s">
+      <c r="E28" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="F28" s="30" t="s">
+      <c r="F28" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="G28" s="30"/>
+      <c r="G28" s="31"/>
     </row>
     <row r="29" ht="14" customHeight="1" spans="1:7">
-      <c r="A29" s="30">
+      <c r="A29" s="31">
         <v>27</v>
       </c>
-      <c r="B29" s="30" t="s">
+      <c r="B29" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="30" t="s">
+      <c r="C29" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="D29" s="30">
-        <v>1</v>
-      </c>
-      <c r="E29" s="30" t="s">
+      <c r="D29" s="31">
+        <v>1</v>
+      </c>
+      <c r="E29" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="F29" s="30" t="s">
+      <c r="F29" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="G29" s="30"/>
+      <c r="G29" s="31"/>
     </row>
     <row r="30" ht="14" customHeight="1" spans="1:7">
-      <c r="A30" s="30">
+      <c r="A30" s="31">
         <v>28</v>
       </c>
-      <c r="B30" s="30" t="s">
+      <c r="B30" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="30" t="s">
+      <c r="C30" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="D30" s="30">
+      <c r="D30" s="31">
         <v>9209.6</v>
       </c>
-      <c r="E30" s="30" t="s">
+      <c r="E30" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="F30" s="30" t="s">
+      <c r="F30" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="G30" s="30"/>
+      <c r="G30" s="31"/>
     </row>
     <row r="31" ht="14" customHeight="1" spans="1:7">
-      <c r="A31" s="30">
+      <c r="A31" s="31">
         <v>29</v>
       </c>
-      <c r="B31" s="30" t="s">
+      <c r="B31" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="30" t="s">
+      <c r="C31" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="D31" s="30">
+      <c r="D31" s="31">
         <v>965.2</v>
       </c>
-      <c r="E31" s="30" t="s">
+      <c r="E31" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="F31" s="31" t="s">
+      <c r="F31" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="G31" s="30"/>
+      <c r="G31" s="31"/>
     </row>
     <row r="32" ht="14" customHeight="1" spans="1:7">
-      <c r="A32" s="30">
+      <c r="A32" s="31">
         <v>30</v>
       </c>
-      <c r="B32" s="30" t="s">
+      <c r="B32" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="C32" s="30" t="s">
+      <c r="C32" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="D32" s="30">
+      <c r="D32" s="31">
         <v>26686.9</v>
       </c>
-      <c r="E32" s="30" t="s">
+      <c r="E32" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="F32" s="32"/>
-      <c r="G32" s="30"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="31"/>
     </row>
     <row r="33" ht="14" customHeight="1" spans="1:7">
-      <c r="A33" s="30">
+      <c r="A33" s="31">
         <v>31</v>
       </c>
-      <c r="B33" s="30" t="s">
+      <c r="B33" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="C33" s="30" t="s">
+      <c r="C33" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="D33" s="30">
+      <c r="D33" s="31">
         <v>17829</v>
       </c>
-      <c r="E33" s="30" t="s">
+      <c r="E33" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="F33" s="30" t="s">
+      <c r="F33" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="G33" s="30"/>
+      <c r="G33" s="31"/>
     </row>
     <row r="34" ht="14" customHeight="1" spans="1:7">
-      <c r="A34" s="30">
+      <c r="A34" s="31">
         <v>32</v>
       </c>
-      <c r="B34" s="30" t="s">
+      <c r="B34" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30">
+      <c r="C34" s="31"/>
+      <c r="D34" s="31">
         <v>10110.294</v>
       </c>
-      <c r="E34" s="30" t="s">
+      <c r="E34" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="F34" s="30" t="s">
+      <c r="F34" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="G34" s="30"/>
+      <c r="G34" s="31"/>
     </row>
     <row r="35" ht="14" customHeight="1" spans="1:7">
-      <c r="A35" s="30">
+      <c r="A35" s="31">
         <v>33</v>
       </c>
-      <c r="B35" s="30" t="s">
+      <c r="B35" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="C35" s="30" t="s">
+      <c r="C35" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="D35" s="30">
+      <c r="D35" s="31">
         <v>4781.4</v>
       </c>
-      <c r="E35" s="30" t="s">
+      <c r="E35" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="F35" s="30" t="s">
+      <c r="F35" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="G35" s="30"/>
+      <c r="G35" s="31"/>
     </row>
     <row r="36" ht="14" customHeight="1" spans="1:7">
-      <c r="A36" s="30">
+      <c r="A36" s="31">
         <v>34</v>
       </c>
-      <c r="B36" s="30" t="s">
+      <c r="B36" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="C36" s="30" t="s">
+      <c r="C36" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="D36" s="30">
+      <c r="D36" s="31">
         <v>19422</v>
       </c>
-      <c r="E36" s="30" t="s">
+      <c r="E36" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="F36" s="30" t="s">
+      <c r="F36" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="G36" s="30"/>
+      <c r="G36" s="31"/>
     </row>
     <row r="37" ht="14" customHeight="1" spans="1:7">
-      <c r="A37" s="30">
+      <c r="A37" s="31">
         <v>35</v>
       </c>
-      <c r="B37" s="30" t="s">
+      <c r="B37" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="C37" s="30" t="s">
+      <c r="C37" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="D37" s="30">
+      <c r="D37" s="31">
         <v>8976.6</v>
       </c>
-      <c r="E37" s="30" t="s">
+      <c r="E37" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="F37" s="30" t="s">
+      <c r="F37" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="G37" s="30"/>
+      <c r="G37" s="31"/>
     </row>
     <row r="38" ht="14" customHeight="1" spans="1:7">
-      <c r="A38" s="30">
+      <c r="A38" s="31">
         <v>36</v>
       </c>
-      <c r="B38" s="30" t="s">
+      <c r="B38" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="C38" s="30" t="s">
+      <c r="C38" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="D38" s="30">
+      <c r="D38" s="31">
         <v>12691.9</v>
       </c>
-      <c r="E38" s="30" t="s">
+      <c r="E38" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="F38" s="30" t="s">
+      <c r="F38" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="G38" s="30"/>
+      <c r="G38" s="31"/>
     </row>
     <row r="39" ht="14" customHeight="1" spans="1:7">
-      <c r="A39" s="30"/>
-      <c r="B39" s="30"/>
-      <c r="C39" s="30"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="30"/>
-      <c r="F39" s="30"/>
-      <c r="G39" s="30"/>
+      <c r="A39" s="31"/>
+      <c r="B39" s="31"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:G38">
@@ -14762,11 +14765,11 @@
   <dimension ref="A1:AE166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="8" ySplit="4" topLeftCell="L107" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="4" topLeftCell="L79" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="X58" sqref="X58:X60"/>
+      <selection pane="bottomRight" activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>
@@ -14924,7 +14927,7 @@
       <c r="J4" s="12">
         <v>1.19</v>
       </c>
-      <c r="K4" s="26">
+      <c r="K4" s="27">
         <v>1.2</v>
       </c>
       <c r="L4" s="12">
@@ -14936,33 +14939,35 @@
       <c r="N4" s="12">
         <v>1.23</v>
       </c>
-      <c r="O4" s="27">
+      <c r="O4" s="28">
         <v>1.23</v>
       </c>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="27"/>
-      <c r="R4" s="27"/>
-      <c r="S4" s="27">
+      <c r="P4" s="28"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="28"/>
+      <c r="S4" s="28">
         <v>1.26</v>
       </c>
-      <c r="T4" s="27">
+      <c r="T4" s="28">
         <v>1.27</v>
       </c>
-      <c r="U4" s="27">
+      <c r="U4" s="28">
         <v>1.28</v>
       </c>
-      <c r="V4" s="27">
+      <c r="V4" s="28">
         <v>1.29</v>
       </c>
-      <c r="W4" s="28">
+      <c r="W4" s="29">
         <v>1.3</v>
       </c>
-      <c r="X4" s="27">
+      <c r="X4" s="28">
         <v>1.31</v>
       </c>
-      <c r="Y4" s="27"/>
-      <c r="Z4" s="27"/>
-      <c r="AA4" s="27"/>
+      <c r="Y4" s="28">
+        <v>2.1</v>
+      </c>
+      <c r="Z4" s="28"/>
+      <c r="AA4" s="28"/>
       <c r="AB4" s="16" t="s">
         <v>12</v>
       </c>
@@ -14975,18 +14980,18 @@
       <c r="A5" s="12">
         <v>1</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="26">
         <v>3</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="26" t="s">
         <v>142</v>
       </c>
       <c r="E5" s="14"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25">
+      <c r="F5" s="26"/>
+      <c r="G5" s="26">
         <v>2992.2</v>
       </c>
       <c r="H5" s="12">
@@ -15031,18 +15036,18 @@
       <c r="A6" s="12">
         <v>2</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="C6" s="25">
-        <v>1</v>
-      </c>
-      <c r="D6" s="25" t="s">
+      <c r="C6" s="26">
+        <v>1</v>
+      </c>
+      <c r="D6" s="26" t="s">
         <v>142</v>
       </c>
       <c r="E6" s="14"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25">
+      <c r="F6" s="26"/>
+      <c r="G6" s="26">
         <v>3056.5</v>
       </c>
       <c r="H6" s="12">
@@ -15087,18 +15092,18 @@
       <c r="A7" s="12">
         <v>3</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="C7" s="25">
-        <v>1</v>
-      </c>
-      <c r="D7" s="25" t="s">
+      <c r="C7" s="26">
+        <v>1</v>
+      </c>
+      <c r="D7" s="26" t="s">
         <v>142</v>
       </c>
       <c r="E7" s="14"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25">
+      <c r="F7" s="26"/>
+      <c r="G7" s="26">
         <v>3057.8</v>
       </c>
       <c r="H7" s="12">
@@ -15143,18 +15148,18 @@
       <c r="A8" s="12">
         <v>4</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="C8" s="25">
-        <v>1</v>
-      </c>
-      <c r="D8" s="25" t="s">
+      <c r="C8" s="26">
+        <v>1</v>
+      </c>
+      <c r="D8" s="26" t="s">
         <v>142</v>
       </c>
       <c r="E8" s="14"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25">
+      <c r="F8" s="26"/>
+      <c r="G8" s="26">
         <v>3081.3</v>
       </c>
       <c r="H8" s="12">
@@ -15199,18 +15204,18 @@
       <c r="A9" s="12">
         <v>5</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="C9" s="25">
-        <v>1</v>
-      </c>
-      <c r="D9" s="25" t="s">
+      <c r="C9" s="26">
+        <v>1</v>
+      </c>
+      <c r="D9" s="26" t="s">
         <v>142</v>
       </c>
       <c r="E9" s="12"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25">
+      <c r="F9" s="26"/>
+      <c r="G9" s="26">
         <v>3070.2</v>
       </c>
       <c r="H9" s="12">
@@ -15255,18 +15260,18 @@
       <c r="A10" s="12">
         <v>6</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="C10" s="25">
-        <v>1</v>
-      </c>
-      <c r="D10" s="25" t="s">
+      <c r="C10" s="26">
+        <v>1</v>
+      </c>
+      <c r="D10" s="26" t="s">
         <v>142</v>
       </c>
       <c r="E10" s="12"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25">
+      <c r="F10" s="26"/>
+      <c r="G10" s="26">
         <v>2983.1</v>
       </c>
       <c r="H10" s="12">
@@ -15311,18 +15316,18 @@
       <c r="A11" s="12">
         <v>7</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="C11" s="25">
+      <c r="C11" s="26">
         <v>3</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="26" t="s">
         <v>142</v>
       </c>
       <c r="E11" s="12"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25">
+      <c r="F11" s="26"/>
+      <c r="G11" s="26">
         <v>2417.9</v>
       </c>
       <c r="H11" s="12">
@@ -15367,18 +15372,18 @@
       <c r="A12" s="12">
         <v>8</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="C12" s="25">
-        <v>1</v>
-      </c>
-      <c r="D12" s="25" t="s">
+      <c r="C12" s="26">
+        <v>1</v>
+      </c>
+      <c r="D12" s="26" t="s">
         <v>142</v>
       </c>
       <c r="E12" s="12"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25">
+      <c r="F12" s="26"/>
+      <c r="G12" s="26">
         <v>2471.4</v>
       </c>
       <c r="H12" s="12">
@@ -15423,18 +15428,18 @@
       <c r="A13" s="12">
         <v>9</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="C13" s="25">
-        <v>1</v>
-      </c>
-      <c r="D13" s="25" t="s">
+      <c r="C13" s="26">
+        <v>1</v>
+      </c>
+      <c r="D13" s="26" t="s">
         <v>142</v>
       </c>
       <c r="E13" s="12"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25">
+      <c r="F13" s="26"/>
+      <c r="G13" s="26">
         <v>2473.3</v>
       </c>
       <c r="H13" s="12">
@@ -15479,18 +15484,18 @@
       <c r="A14" s="12">
         <v>10</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="26" t="s">
         <v>151</v>
       </c>
-      <c r="C14" s="25">
-        <v>1</v>
-      </c>
-      <c r="D14" s="25" t="s">
+      <c r="C14" s="26">
+        <v>1</v>
+      </c>
+      <c r="D14" s="26" t="s">
         <v>142</v>
       </c>
       <c r="E14" s="12"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25">
+      <c r="F14" s="26"/>
+      <c r="G14" s="26">
         <v>2461.8</v>
       </c>
       <c r="H14" s="12">
@@ -15535,18 +15540,18 @@
       <c r="A15" s="12">
         <v>11</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="C15" s="25">
-        <v>1</v>
-      </c>
-      <c r="D15" s="25" t="s">
+      <c r="C15" s="26">
+        <v>1</v>
+      </c>
+      <c r="D15" s="26" t="s">
         <v>142</v>
       </c>
       <c r="E15" s="12"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25">
+      <c r="F15" s="26"/>
+      <c r="G15" s="26">
         <v>2501.8</v>
       </c>
       <c r="H15" s="12">
@@ -15591,18 +15596,18 @@
       <c r="A16" s="12">
         <v>12</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="C16" s="25">
-        <v>1</v>
-      </c>
-      <c r="D16" s="25" t="s">
+      <c r="C16" s="26">
+        <v>1</v>
+      </c>
+      <c r="D16" s="26" t="s">
         <v>142</v>
       </c>
       <c r="E16" s="12"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25">
+      <c r="F16" s="26"/>
+      <c r="G16" s="26">
         <v>2408.2</v>
       </c>
       <c r="H16" s="12">
@@ -15647,18 +15652,18 @@
       <c r="A17" s="12">
         <v>13</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="C17" s="25">
+      <c r="C17" s="26">
         <v>3</v>
       </c>
-      <c r="D17" s="25" t="s">
+      <c r="D17" s="26" t="s">
         <v>142</v>
       </c>
       <c r="E17" s="12"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25">
+      <c r="F17" s="26"/>
+      <c r="G17" s="26">
         <v>1239.6</v>
       </c>
       <c r="H17" s="12">
@@ -15703,18 +15708,18 @@
       <c r="A18" s="12">
         <v>14</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="C18" s="25">
-        <v>1</v>
-      </c>
-      <c r="D18" s="25" t="s">
+      <c r="C18" s="26">
+        <v>1</v>
+      </c>
+      <c r="D18" s="26" t="s">
         <v>142</v>
       </c>
       <c r="E18" s="12"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25">
+      <c r="F18" s="26"/>
+      <c r="G18" s="26">
         <v>1253.9</v>
       </c>
       <c r="H18" s="12">
@@ -15759,18 +15764,18 @@
       <c r="A19" s="12">
         <v>15</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="C19" s="25">
-        <v>1</v>
-      </c>
-      <c r="D19" s="25" t="s">
+      <c r="C19" s="26">
+        <v>1</v>
+      </c>
+      <c r="D19" s="26" t="s">
         <v>142</v>
       </c>
       <c r="E19" s="12"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25">
+      <c r="F19" s="26"/>
+      <c r="G19" s="26">
         <v>1252</v>
       </c>
       <c r="H19" s="12">
@@ -15783,7 +15788,7 @@
       <c r="L19" s="12"/>
       <c r="M19" s="12"/>
       <c r="N19" s="12"/>
-      <c r="O19" s="25">
+      <c r="O19" s="26">
         <v>1</v>
       </c>
       <c r="P19" s="12"/>
@@ -15815,18 +15820,18 @@
       <c r="A20" s="12">
         <v>16</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="C20" s="25">
-        <v>1</v>
-      </c>
-      <c r="D20" s="25" t="s">
+      <c r="C20" s="26">
+        <v>1</v>
+      </c>
+      <c r="D20" s="26" t="s">
         <v>142</v>
       </c>
       <c r="E20" s="12"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25">
+      <c r="F20" s="26"/>
+      <c r="G20" s="26">
         <v>1252</v>
       </c>
       <c r="H20" s="12">
@@ -15839,7 +15844,7 @@
       <c r="L20" s="12"/>
       <c r="M20" s="12"/>
       <c r="N20" s="12"/>
-      <c r="O20" s="25">
+      <c r="O20" s="26">
         <v>1</v>
       </c>
       <c r="P20" s="12"/>
@@ -15871,18 +15876,18 @@
       <c r="A21" s="12">
         <v>17</v>
       </c>
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="C21" s="25">
-        <v>1</v>
-      </c>
-      <c r="D21" s="25" t="s">
+      <c r="C21" s="26">
+        <v>1</v>
+      </c>
+      <c r="D21" s="26" t="s">
         <v>142</v>
       </c>
       <c r="E21" s="12"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25">
+      <c r="F21" s="26"/>
+      <c r="G21" s="26">
         <v>1247.5</v>
       </c>
       <c r="H21" s="12">
@@ -15895,7 +15900,7 @@
       <c r="L21" s="12"/>
       <c r="M21" s="12"/>
       <c r="N21" s="12"/>
-      <c r="O21" s="25">
+      <c r="O21" s="26">
         <v>1</v>
       </c>
       <c r="P21" s="12"/>
@@ -15927,18 +15932,18 @@
       <c r="A22" s="12">
         <v>18</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="C22" s="25">
-        <v>1</v>
-      </c>
-      <c r="D22" s="25" t="s">
+      <c r="C22" s="26">
+        <v>1</v>
+      </c>
+      <c r="D22" s="26" t="s">
         <v>142</v>
       </c>
       <c r="E22" s="12"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25">
+      <c r="F22" s="26"/>
+      <c r="G22" s="26">
         <v>1214.4</v>
       </c>
       <c r="H22" s="12">
@@ -15951,7 +15956,7 @@
       <c r="L22" s="12"/>
       <c r="M22" s="12"/>
       <c r="N22" s="12"/>
-      <c r="O22" s="25">
+      <c r="O22" s="26">
         <v>1</v>
       </c>
       <c r="P22" s="12"/>
@@ -15984,18 +15989,18 @@
       <c r="A23" s="12">
         <v>19</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="C23" s="25">
+      <c r="C23" s="26">
         <v>2</v>
       </c>
-      <c r="D23" s="25" t="s">
+      <c r="D23" s="26" t="s">
         <v>142</v>
       </c>
       <c r="E23" s="12"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25">
+      <c r="F23" s="26"/>
+      <c r="G23" s="26">
         <v>2367.9</v>
       </c>
       <c r="H23" s="12">
@@ -16040,18 +16045,18 @@
       <c r="A24" s="12">
         <v>20</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="C24" s="25">
-        <v>1</v>
-      </c>
-      <c r="D24" s="25" t="s">
+      <c r="C24" s="26">
+        <v>1</v>
+      </c>
+      <c r="D24" s="26" t="s">
         <v>142</v>
       </c>
       <c r="E24" s="12"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25">
+      <c r="F24" s="26"/>
+      <c r="G24" s="26">
         <v>2380.9</v>
       </c>
       <c r="H24" s="12">
@@ -16096,18 +16101,18 @@
       <c r="A25" s="12">
         <v>21</v>
       </c>
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="C25" s="25">
-        <v>1</v>
-      </c>
-      <c r="D25" s="25" t="s">
+      <c r="C25" s="26">
+        <v>1</v>
+      </c>
+      <c r="D25" s="26" t="s">
         <v>142</v>
       </c>
       <c r="E25" s="12"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25">
+      <c r="F25" s="26"/>
+      <c r="G25" s="26">
         <v>2723.6</v>
       </c>
       <c r="H25" s="12">
@@ -16152,18 +16157,18 @@
       <c r="A26" s="12">
         <v>22</v>
       </c>
-      <c r="B26" s="25" t="s">
+      <c r="B26" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="C26" s="25">
-        <v>1</v>
-      </c>
-      <c r="D26" s="25" t="s">
+      <c r="C26" s="26">
+        <v>1</v>
+      </c>
+      <c r="D26" s="26" t="s">
         <v>142</v>
       </c>
       <c r="E26" s="12"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25">
+      <c r="F26" s="26"/>
+      <c r="G26" s="26">
         <v>2744.4</v>
       </c>
       <c r="H26" s="12">
@@ -16208,18 +16213,18 @@
       <c r="A27" s="12">
         <v>23</v>
       </c>
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="26" t="s">
         <v>164</v>
       </c>
-      <c r="C27" s="25">
-        <v>1</v>
-      </c>
-      <c r="D27" s="25" t="s">
+      <c r="C27" s="26">
+        <v>1</v>
+      </c>
+      <c r="D27" s="26" t="s">
         <v>142</v>
       </c>
       <c r="E27" s="12"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25">
+      <c r="F27" s="26"/>
+      <c r="G27" s="26">
         <v>2423.2</v>
       </c>
       <c r="H27" s="12">
@@ -16264,18 +16269,18 @@
       <c r="A28" s="12">
         <v>24</v>
       </c>
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="C28" s="25">
-        <v>1</v>
-      </c>
-      <c r="D28" s="25" t="s">
+      <c r="C28" s="26">
+        <v>1</v>
+      </c>
+      <c r="D28" s="26" t="s">
         <v>142</v>
       </c>
       <c r="E28" s="12"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25">
+      <c r="F28" s="26"/>
+      <c r="G28" s="26">
         <v>2423.2</v>
       </c>
       <c r="H28" s="12">
@@ -16320,18 +16325,18 @@
       <c r="A29" s="12">
         <v>25</v>
       </c>
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="26" t="s">
         <v>166</v>
       </c>
-      <c r="C29" s="25">
-        <v>1</v>
-      </c>
-      <c r="D29" s="25" t="s">
+      <c r="C29" s="26">
+        <v>1</v>
+      </c>
+      <c r="D29" s="26" t="s">
         <v>142</v>
       </c>
       <c r="E29" s="12"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25">
+      <c r="F29" s="26"/>
+      <c r="G29" s="26">
         <v>2358.2</v>
       </c>
       <c r="H29" s="12">
@@ -16376,18 +16381,18 @@
       <c r="A30" s="12">
         <v>26</v>
       </c>
-      <c r="B30" s="25" t="s">
+      <c r="B30" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="C30" s="25">
+      <c r="C30" s="26">
         <v>2</v>
       </c>
-      <c r="D30" s="25" t="s">
+      <c r="D30" s="26" t="s">
         <v>142</v>
       </c>
       <c r="E30" s="12"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25">
+      <c r="F30" s="26"/>
+      <c r="G30" s="26">
         <v>1588.3</v>
       </c>
       <c r="H30" s="12">
@@ -16432,18 +16437,18 @@
       <c r="A31" s="12">
         <v>27</v>
       </c>
-      <c r="B31" s="25" t="s">
+      <c r="B31" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="C31" s="25">
-        <v>1</v>
-      </c>
-      <c r="D31" s="25" t="s">
+      <c r="C31" s="26">
+        <v>1</v>
+      </c>
+      <c r="D31" s="26" t="s">
         <v>142</v>
       </c>
       <c r="E31" s="12"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25">
+      <c r="F31" s="26"/>
+      <c r="G31" s="26">
         <v>1599.9</v>
       </c>
       <c r="H31" s="12">
@@ -16488,18 +16493,18 @@
       <c r="A32" s="12">
         <v>28</v>
       </c>
-      <c r="B32" s="25" t="s">
+      <c r="B32" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="C32" s="25">
-        <v>1</v>
-      </c>
-      <c r="D32" s="25" t="s">
+      <c r="C32" s="26">
+        <v>1</v>
+      </c>
+      <c r="D32" s="26" t="s">
         <v>142</v>
       </c>
       <c r="E32" s="12"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25">
+      <c r="F32" s="26"/>
+      <c r="G32" s="26">
         <v>1559.9</v>
       </c>
       <c r="H32" s="12">
@@ -16544,18 +16549,18 @@
       <c r="A33" s="12">
         <v>29</v>
       </c>
-      <c r="B33" s="25" t="s">
+      <c r="B33" s="26" t="s">
         <v>170</v>
       </c>
-      <c r="C33" s="25">
-        <v>1</v>
-      </c>
-      <c r="D33" s="25" t="s">
+      <c r="C33" s="26">
+        <v>1</v>
+      </c>
+      <c r="D33" s="26" t="s">
         <v>142</v>
       </c>
       <c r="E33" s="12"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25">
+      <c r="F33" s="26"/>
+      <c r="G33" s="26">
         <v>1573.2</v>
       </c>
       <c r="H33" s="12">
@@ -16600,18 +16605,18 @@
       <c r="A34" s="12">
         <v>30</v>
       </c>
-      <c r="B34" s="25" t="s">
+      <c r="B34" s="26" t="s">
         <v>171</v>
       </c>
-      <c r="C34" s="25">
-        <v>1</v>
-      </c>
-      <c r="D34" s="25" t="s">
+      <c r="C34" s="26">
+        <v>1</v>
+      </c>
+      <c r="D34" s="26" t="s">
         <v>142</v>
       </c>
       <c r="E34" s="12"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25">
+      <c r="F34" s="26"/>
+      <c r="G34" s="26">
         <v>1602.8</v>
       </c>
       <c r="H34" s="12">
@@ -16656,18 +16661,18 @@
       <c r="A35" s="12">
         <v>31</v>
       </c>
-      <c r="B35" s="25" t="s">
+      <c r="B35" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="C35" s="25">
-        <v>1</v>
-      </c>
-      <c r="D35" s="25" t="s">
+      <c r="C35" s="26">
+        <v>1</v>
+      </c>
+      <c r="D35" s="26" t="s">
         <v>142</v>
       </c>
       <c r="E35" s="12"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25">
+      <c r="F35" s="26"/>
+      <c r="G35" s="26">
         <v>1602.8</v>
       </c>
       <c r="H35" s="12">
@@ -16712,18 +16717,18 @@
       <c r="A36" s="12">
         <v>32</v>
       </c>
-      <c r="B36" s="25" t="s">
+      <c r="B36" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="C36" s="25">
-        <v>1</v>
-      </c>
-      <c r="D36" s="25" t="s">
+      <c r="C36" s="26">
+        <v>1</v>
+      </c>
+      <c r="D36" s="26" t="s">
         <v>142</v>
       </c>
       <c r="E36" s="12"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25">
+      <c r="F36" s="26"/>
+      <c r="G36" s="26">
         <v>1576.7</v>
       </c>
       <c r="H36" s="12">
@@ -16768,18 +16773,18 @@
       <c r="A37" s="12">
         <v>33</v>
       </c>
-      <c r="B37" s="25" t="s">
+      <c r="B37" s="26" t="s">
         <v>174</v>
       </c>
-      <c r="C37" s="25">
+      <c r="C37" s="26">
         <v>7</v>
       </c>
-      <c r="D37" s="25" t="s">
+      <c r="D37" s="26" t="s">
         <v>175</v>
       </c>
       <c r="E37" s="12"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="25">
+      <c r="F37" s="26"/>
+      <c r="G37" s="26">
         <v>1368.7</v>
       </c>
       <c r="H37" s="12">
@@ -16826,18 +16831,18 @@
       <c r="A38" s="12">
         <v>34</v>
       </c>
-      <c r="B38" s="25" t="s">
+      <c r="B38" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="C38" s="25">
-        <v>1</v>
-      </c>
-      <c r="D38" s="25" t="s">
+      <c r="C38" s="26">
+        <v>1</v>
+      </c>
+      <c r="D38" s="26" t="s">
         <v>175</v>
       </c>
       <c r="E38" s="12"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="25">
+      <c r="F38" s="26"/>
+      <c r="G38" s="26">
         <v>392.5</v>
       </c>
       <c r="H38" s="12">
@@ -16882,18 +16887,18 @@
       <c r="A39" s="12">
         <v>35</v>
       </c>
-      <c r="B39" s="25" t="s">
+      <c r="B39" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="C39" s="25">
-        <v>1</v>
-      </c>
-      <c r="D39" s="25" t="s">
+      <c r="C39" s="26">
+        <v>1</v>
+      </c>
+      <c r="D39" s="26" t="s">
         <v>175</v>
       </c>
       <c r="E39" s="12"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25">
+      <c r="F39" s="26"/>
+      <c r="G39" s="26">
         <v>454.8</v>
       </c>
       <c r="H39" s="12">
@@ -16938,18 +16943,18 @@
       <c r="A40" s="12">
         <v>36</v>
       </c>
-      <c r="B40" s="25" t="s">
+      <c r="B40" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="C40" s="25">
-        <v>1</v>
-      </c>
-      <c r="D40" s="25" t="s">
+      <c r="C40" s="26">
+        <v>1</v>
+      </c>
+      <c r="D40" s="26" t="s">
         <v>175</v>
       </c>
       <c r="E40" s="12"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="25">
+      <c r="F40" s="26"/>
+      <c r="G40" s="26">
         <v>514.8</v>
       </c>
       <c r="H40" s="12">
@@ -16994,18 +16999,18 @@
       <c r="A41" s="12">
         <v>37</v>
       </c>
-      <c r="B41" s="25" t="s">
+      <c r="B41" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="C41" s="25">
-        <v>1</v>
-      </c>
-      <c r="D41" s="25" t="s">
+      <c r="C41" s="26">
+        <v>1</v>
+      </c>
+      <c r="D41" s="26" t="s">
         <v>175</v>
       </c>
       <c r="E41" s="12"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="25">
+      <c r="F41" s="26"/>
+      <c r="G41" s="26">
         <v>630.1</v>
       </c>
       <c r="H41" s="12">
@@ -17050,18 +17055,18 @@
       <c r="A42" s="12">
         <v>38</v>
       </c>
-      <c r="B42" s="25" t="s">
+      <c r="B42" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="C42" s="25">
-        <v>1</v>
-      </c>
-      <c r="D42" s="25" t="s">
+      <c r="C42" s="26">
+        <v>1</v>
+      </c>
+      <c r="D42" s="26" t="s">
         <v>175</v>
       </c>
       <c r="E42" s="12"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="25">
+      <c r="F42" s="26"/>
+      <c r="G42" s="26">
         <v>699.2</v>
       </c>
       <c r="H42" s="12">
@@ -17106,18 +17111,18 @@
       <c r="A43" s="12">
         <v>39</v>
       </c>
-      <c r="B43" s="25" t="s">
+      <c r="B43" s="26" t="s">
         <v>181</v>
       </c>
-      <c r="C43" s="25">
-        <v>1</v>
-      </c>
-      <c r="D43" s="25" t="s">
+      <c r="C43" s="26">
+        <v>1</v>
+      </c>
+      <c r="D43" s="26" t="s">
         <v>175</v>
       </c>
       <c r="E43" s="12"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="25">
+      <c r="F43" s="26"/>
+      <c r="G43" s="26">
         <v>752.4</v>
       </c>
       <c r="H43" s="12">
@@ -17162,18 +17167,18 @@
       <c r="A44" s="12">
         <v>40</v>
       </c>
-      <c r="B44" s="25" t="s">
+      <c r="B44" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="C44" s="25">
-        <v>1</v>
-      </c>
-      <c r="D44" s="25" t="s">
+      <c r="C44" s="26">
+        <v>1</v>
+      </c>
+      <c r="D44" s="26" t="s">
         <v>175</v>
       </c>
       <c r="E44" s="12"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="25">
+      <c r="F44" s="26"/>
+      <c r="G44" s="26">
         <v>866.2</v>
       </c>
       <c r="H44" s="12">
@@ -17218,18 +17223,18 @@
       <c r="A45" s="12">
         <v>41</v>
       </c>
-      <c r="B45" s="25" t="s">
+      <c r="B45" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="C45" s="25">
-        <v>1</v>
-      </c>
-      <c r="D45" s="25" t="s">
+      <c r="C45" s="26">
+        <v>1</v>
+      </c>
+      <c r="D45" s="26" t="s">
         <v>175</v>
       </c>
       <c r="E45" s="12"/>
-      <c r="F45" s="25"/>
-      <c r="G45" s="25">
+      <c r="F45" s="26"/>
+      <c r="G45" s="26">
         <v>850.5</v>
       </c>
       <c r="H45" s="12">
@@ -17274,18 +17279,18 @@
       <c r="A46" s="12">
         <v>42</v>
       </c>
-      <c r="B46" s="25" t="s">
+      <c r="B46" s="26" t="s">
         <v>184</v>
       </c>
-      <c r="C46" s="25">
+      <c r="C46" s="26">
         <v>4</v>
       </c>
-      <c r="D46" s="25" t="s">
+      <c r="D46" s="26" t="s">
         <v>185</v>
       </c>
       <c r="E46" s="12"/>
-      <c r="F46" s="25"/>
-      <c r="G46" s="25">
+      <c r="F46" s="26"/>
+      <c r="G46" s="26">
         <v>899.5</v>
       </c>
       <c r="H46" s="12">
@@ -17330,18 +17335,18 @@
       <c r="A47" s="12">
         <v>43</v>
       </c>
-      <c r="B47" s="25" t="s">
+      <c r="B47" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="C47" s="25">
-        <v>1</v>
-      </c>
-      <c r="D47" s="25" t="s">
+      <c r="C47" s="26">
+        <v>1</v>
+      </c>
+      <c r="D47" s="26" t="s">
         <v>185</v>
       </c>
       <c r="E47" s="12"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25">
+      <c r="F47" s="26"/>
+      <c r="G47" s="26">
         <v>908</v>
       </c>
       <c r="H47" s="12">
@@ -17386,18 +17391,18 @@
       <c r="A48" s="12">
         <v>44</v>
       </c>
-      <c r="B48" s="25" t="s">
+      <c r="B48" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="C48" s="25">
-        <v>1</v>
-      </c>
-      <c r="D48" s="25" t="s">
+      <c r="C48" s="26">
+        <v>1</v>
+      </c>
+      <c r="D48" s="26" t="s">
         <v>185</v>
       </c>
       <c r="E48" s="12"/>
-      <c r="F48" s="25"/>
-      <c r="G48" s="25">
+      <c r="F48" s="26"/>
+      <c r="G48" s="26">
         <v>908</v>
       </c>
       <c r="H48" s="12">
@@ -17442,18 +17447,18 @@
       <c r="A49" s="12">
         <v>45</v>
       </c>
-      <c r="B49" s="25" t="s">
+      <c r="B49" s="26" t="s">
         <v>188</v>
       </c>
-      <c r="C49" s="25">
-        <v>1</v>
-      </c>
-      <c r="D49" s="25" t="s">
+      <c r="C49" s="26">
+        <v>1</v>
+      </c>
+      <c r="D49" s="26" t="s">
         <v>185</v>
       </c>
       <c r="E49" s="12"/>
-      <c r="F49" s="25"/>
-      <c r="G49" s="25">
+      <c r="F49" s="26"/>
+      <c r="G49" s="26">
         <v>908.8</v>
       </c>
       <c r="H49" s="12">
@@ -17498,18 +17503,18 @@
       <c r="A50" s="12">
         <v>46</v>
       </c>
-      <c r="B50" s="25" t="s">
+      <c r="B50" s="26" t="s">
         <v>189</v>
       </c>
-      <c r="C50" s="25">
-        <v>1</v>
-      </c>
-      <c r="D50" s="25" t="s">
+      <c r="C50" s="26">
+        <v>1</v>
+      </c>
+      <c r="D50" s="26" t="s">
         <v>185</v>
       </c>
       <c r="E50" s="12"/>
-      <c r="F50" s="25"/>
-      <c r="G50" s="25">
+      <c r="F50" s="26"/>
+      <c r="G50" s="26">
         <v>876.4</v>
       </c>
       <c r="H50" s="12">
@@ -17554,18 +17559,18 @@
       <c r="A51" s="12">
         <v>47</v>
       </c>
-      <c r="B51" s="25" t="s">
+      <c r="B51" s="26" t="s">
         <v>190</v>
       </c>
-      <c r="C51" s="25">
+      <c r="C51" s="26">
         <v>4</v>
       </c>
-      <c r="D51" s="25" t="s">
+      <c r="D51" s="26" t="s">
         <v>191</v>
       </c>
       <c r="E51" s="12"/>
-      <c r="F51" s="25"/>
-      <c r="G51" s="25">
+      <c r="F51" s="26"/>
+      <c r="G51" s="26">
         <v>1092.1</v>
       </c>
       <c r="H51" s="12">
@@ -17610,18 +17615,18 @@
       <c r="A52" s="12">
         <v>48</v>
       </c>
-      <c r="B52" s="25" t="s">
+      <c r="B52" s="26" t="s">
         <v>192</v>
       </c>
-      <c r="C52" s="25">
-        <v>1</v>
-      </c>
-      <c r="D52" s="25" t="s">
+      <c r="C52" s="26">
+        <v>1</v>
+      </c>
+      <c r="D52" s="26" t="s">
         <v>191</v>
       </c>
       <c r="E52" s="12"/>
-      <c r="F52" s="25"/>
-      <c r="G52" s="25">
+      <c r="F52" s="26"/>
+      <c r="G52" s="26">
         <v>1096.8</v>
       </c>
       <c r="H52" s="12">
@@ -17666,18 +17671,18 @@
       <c r="A53" s="12">
         <v>49</v>
       </c>
-      <c r="B53" s="25" t="s">
+      <c r="B53" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="C53" s="25">
-        <v>1</v>
-      </c>
-      <c r="D53" s="25" t="s">
+      <c r="C53" s="26">
+        <v>1</v>
+      </c>
+      <c r="D53" s="26" t="s">
         <v>191</v>
       </c>
       <c r="E53" s="12"/>
-      <c r="F53" s="25"/>
-      <c r="G53" s="25">
+      <c r="F53" s="26"/>
+      <c r="G53" s="26">
         <v>1096.8</v>
       </c>
       <c r="H53" s="12">
@@ -17722,18 +17727,18 @@
       <c r="A54" s="12">
         <v>50</v>
       </c>
-      <c r="B54" s="25" t="s">
+      <c r="B54" s="26" t="s">
         <v>194</v>
       </c>
-      <c r="C54" s="25">
-        <v>1</v>
-      </c>
-      <c r="D54" s="25" t="s">
+      <c r="C54" s="26">
+        <v>1</v>
+      </c>
+      <c r="D54" s="26" t="s">
         <v>191</v>
       </c>
       <c r="E54" s="12"/>
-      <c r="F54" s="25"/>
-      <c r="G54" s="25">
+      <c r="F54" s="26"/>
+      <c r="G54" s="26">
         <v>1097.4</v>
       </c>
       <c r="H54" s="12">
@@ -17778,18 +17783,18 @@
       <c r="A55" s="12">
         <v>51</v>
       </c>
-      <c r="B55" s="25" t="s">
+      <c r="B55" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="C55" s="25">
-        <v>1</v>
-      </c>
-      <c r="D55" s="25" t="s">
+      <c r="C55" s="26">
+        <v>1</v>
+      </c>
+      <c r="D55" s="26" t="s">
         <v>191</v>
       </c>
       <c r="E55" s="12"/>
-      <c r="F55" s="25"/>
-      <c r="G55" s="25">
+      <c r="F55" s="26"/>
+      <c r="G55" s="26">
         <v>1095.3</v>
       </c>
       <c r="H55" s="12">
@@ -17834,18 +17839,18 @@
       <c r="A56" s="12">
         <v>52</v>
       </c>
-      <c r="B56" s="25" t="s">
+      <c r="B56" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="C56" s="25">
+      <c r="C56" s="26">
         <v>4</v>
       </c>
-      <c r="D56" s="25" t="s">
+      <c r="D56" s="26" t="s">
         <v>185</v>
       </c>
       <c r="E56" s="12"/>
-      <c r="F56" s="25"/>
-      <c r="G56" s="25">
+      <c r="F56" s="26"/>
+      <c r="G56" s="26">
         <v>898.9</v>
       </c>
       <c r="H56" s="12">
@@ -17888,18 +17893,18 @@
       <c r="A57" s="12">
         <v>53</v>
       </c>
-      <c r="B57" s="25" t="s">
+      <c r="B57" s="26" t="s">
         <v>197</v>
       </c>
-      <c r="C57" s="25">
-        <v>1</v>
-      </c>
-      <c r="D57" s="25" t="s">
+      <c r="C57" s="26">
+        <v>1</v>
+      </c>
+      <c r="D57" s="26" t="s">
         <v>185</v>
       </c>
       <c r="E57" s="12"/>
-      <c r="F57" s="25"/>
-      <c r="G57" s="25">
+      <c r="F57" s="26"/>
+      <c r="G57" s="26">
         <v>907.4</v>
       </c>
       <c r="H57" s="12">
@@ -17917,7 +17922,7 @@
       <c r="Q57" s="12"/>
       <c r="R57" s="12"/>
       <c r="S57" s="12"/>
-      <c r="T57" s="29"/>
+      <c r="T57" s="30"/>
       <c r="U57" s="12"/>
       <c r="V57" s="12"/>
       <c r="W57" s="12"/>
@@ -17944,18 +17949,18 @@
       <c r="A58" s="12">
         <v>54</v>
       </c>
-      <c r="B58" s="25" t="s">
+      <c r="B58" s="26" t="s">
         <v>198</v>
       </c>
-      <c r="C58" s="25">
-        <v>1</v>
-      </c>
-      <c r="D58" s="25" t="s">
+      <c r="C58" s="26">
+        <v>1</v>
+      </c>
+      <c r="D58" s="26" t="s">
         <v>185</v>
       </c>
       <c r="E58" s="12"/>
-      <c r="F58" s="25"/>
-      <c r="G58" s="25">
+      <c r="F58" s="26"/>
+      <c r="G58" s="26">
         <v>907.4</v>
       </c>
       <c r="H58" s="12">
@@ -17973,7 +17978,7 @@
       <c r="Q58" s="12"/>
       <c r="R58" s="12"/>
       <c r="S58" s="12"/>
-      <c r="T58" s="29"/>
+      <c r="T58" s="30"/>
       <c r="U58" s="12"/>
       <c r="V58" s="12"/>
       <c r="W58" s="12"/>
@@ -17998,18 +18003,18 @@
       <c r="A59" s="12">
         <v>55</v>
       </c>
-      <c r="B59" s="25" t="s">
+      <c r="B59" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="C59" s="25">
-        <v>1</v>
-      </c>
-      <c r="D59" s="25" t="s">
+      <c r="C59" s="26">
+        <v>1</v>
+      </c>
+      <c r="D59" s="26" t="s">
         <v>185</v>
       </c>
       <c r="E59" s="12"/>
-      <c r="F59" s="25"/>
-      <c r="G59" s="25">
+      <c r="F59" s="26"/>
+      <c r="G59" s="26">
         <v>908.5</v>
       </c>
       <c r="H59" s="12">
@@ -18052,18 +18057,18 @@
       <c r="A60" s="12">
         <v>56</v>
       </c>
-      <c r="B60" s="25" t="s">
+      <c r="B60" s="26" t="s">
         <v>200</v>
       </c>
-      <c r="C60" s="25">
-        <v>1</v>
-      </c>
-      <c r="D60" s="25" t="s">
+      <c r="C60" s="26">
+        <v>1</v>
+      </c>
+      <c r="D60" s="26" t="s">
         <v>185</v>
       </c>
       <c r="E60" s="12"/>
-      <c r="F60" s="25"/>
-      <c r="G60" s="25">
+      <c r="F60" s="26"/>
+      <c r="G60" s="26">
         <v>906.5</v>
       </c>
       <c r="H60" s="12">
@@ -18106,18 +18111,18 @@
       <c r="A61" s="12">
         <v>57</v>
       </c>
-      <c r="B61" s="25" t="s">
+      <c r="B61" s="26" t="s">
         <v>201</v>
       </c>
-      <c r="C61" s="25">
+      <c r="C61" s="26">
         <v>4</v>
       </c>
-      <c r="D61" s="25" t="s">
+      <c r="D61" s="26" t="s">
         <v>185</v>
       </c>
       <c r="E61" s="12"/>
-      <c r="F61" s="25"/>
-      <c r="G61" s="25">
+      <c r="F61" s="26"/>
+      <c r="G61" s="26">
         <v>899.5</v>
       </c>
       <c r="H61" s="12">
@@ -18162,18 +18167,18 @@
       <c r="A62" s="12">
         <v>58</v>
       </c>
-      <c r="B62" s="25" t="s">
+      <c r="B62" s="26" t="s">
         <v>202</v>
       </c>
-      <c r="C62" s="25">
-        <v>1</v>
-      </c>
-      <c r="D62" s="25" t="s">
+      <c r="C62" s="26">
+        <v>1</v>
+      </c>
+      <c r="D62" s="26" t="s">
         <v>185</v>
       </c>
       <c r="E62" s="12"/>
-      <c r="F62" s="25"/>
-      <c r="G62" s="25">
+      <c r="F62" s="26"/>
+      <c r="G62" s="26">
         <v>908</v>
       </c>
       <c r="H62" s="12">
@@ -18218,18 +18223,18 @@
       <c r="A63" s="12">
         <v>59</v>
       </c>
-      <c r="B63" s="25" t="s">
+      <c r="B63" s="26" t="s">
         <v>203</v>
       </c>
-      <c r="C63" s="25">
-        <v>1</v>
-      </c>
-      <c r="D63" s="25" t="s">
+      <c r="C63" s="26">
+        <v>1</v>
+      </c>
+      <c r="D63" s="26" t="s">
         <v>185</v>
       </c>
       <c r="E63" s="12"/>
-      <c r="F63" s="25"/>
-      <c r="G63" s="25">
+      <c r="F63" s="26"/>
+      <c r="G63" s="26">
         <v>908</v>
       </c>
       <c r="H63" s="12">
@@ -18274,18 +18279,18 @@
       <c r="A64" s="12">
         <v>60</v>
       </c>
-      <c r="B64" s="25" t="s">
+      <c r="B64" s="26" t="s">
         <v>204</v>
       </c>
-      <c r="C64" s="25">
-        <v>1</v>
-      </c>
-      <c r="D64" s="25" t="s">
+      <c r="C64" s="26">
+        <v>1</v>
+      </c>
+      <c r="D64" s="26" t="s">
         <v>185</v>
       </c>
       <c r="E64" s="12"/>
-      <c r="F64" s="25"/>
-      <c r="G64" s="25">
+      <c r="F64" s="26"/>
+      <c r="G64" s="26">
         <v>908.8</v>
       </c>
       <c r="H64" s="12">
@@ -18330,18 +18335,18 @@
       <c r="A65" s="12">
         <v>61</v>
       </c>
-      <c r="B65" s="25" t="s">
+      <c r="B65" s="26" t="s">
         <v>205</v>
       </c>
-      <c r="C65" s="25">
-        <v>1</v>
-      </c>
-      <c r="D65" s="25" t="s">
+      <c r="C65" s="26">
+        <v>1</v>
+      </c>
+      <c r="D65" s="26" t="s">
         <v>185</v>
       </c>
       <c r="E65" s="12"/>
-      <c r="F65" s="25"/>
-      <c r="G65" s="25">
+      <c r="F65" s="26"/>
+      <c r="G65" s="26">
         <v>906.8</v>
       </c>
       <c r="H65" s="12">
@@ -18386,18 +18391,18 @@
       <c r="A66" s="12">
         <v>62</v>
       </c>
-      <c r="B66" s="25" t="s">
+      <c r="B66" s="26" t="s">
         <v>206</v>
       </c>
-      <c r="C66" s="25">
+      <c r="C66" s="26">
         <v>4</v>
       </c>
-      <c r="D66" s="25" t="s">
+      <c r="D66" s="26" t="s">
         <v>191</v>
       </c>
       <c r="E66" s="12"/>
-      <c r="F66" s="25"/>
-      <c r="G66" s="25">
+      <c r="F66" s="26"/>
+      <c r="G66" s="26">
         <v>1092.1</v>
       </c>
       <c r="H66" s="12">
@@ -18440,18 +18445,18 @@
       <c r="A67" s="12">
         <v>63</v>
       </c>
-      <c r="B67" s="25" t="s">
+      <c r="B67" s="26" t="s">
         <v>207</v>
       </c>
-      <c r="C67" s="25">
-        <v>1</v>
-      </c>
-      <c r="D67" s="25" t="s">
+      <c r="C67" s="26">
+        <v>1</v>
+      </c>
+      <c r="D67" s="26" t="s">
         <v>191</v>
       </c>
       <c r="E67" s="12"/>
-      <c r="F67" s="25"/>
-      <c r="G67" s="25">
+      <c r="F67" s="26"/>
+      <c r="G67" s="26">
         <v>1096.8</v>
       </c>
       <c r="H67" s="12">
@@ -18496,18 +18501,18 @@
       <c r="A68" s="12">
         <v>64</v>
       </c>
-      <c r="B68" s="25" t="s">
+      <c r="B68" s="26" t="s">
         <v>208</v>
       </c>
-      <c r="C68" s="25">
-        <v>1</v>
-      </c>
-      <c r="D68" s="25" t="s">
+      <c r="C68" s="26">
+        <v>1</v>
+      </c>
+      <c r="D68" s="26" t="s">
         <v>191</v>
       </c>
       <c r="E68" s="12"/>
-      <c r="F68" s="25"/>
-      <c r="G68" s="25">
+      <c r="F68" s="26"/>
+      <c r="G68" s="26">
         <v>1096.8</v>
       </c>
       <c r="H68" s="12">
@@ -18552,18 +18557,18 @@
       <c r="A69" s="12">
         <v>65</v>
       </c>
-      <c r="B69" s="25" t="s">
+      <c r="B69" s="26" t="s">
         <v>209</v>
       </c>
-      <c r="C69" s="25">
-        <v>1</v>
-      </c>
-      <c r="D69" s="25" t="s">
+      <c r="C69" s="26">
+        <v>1</v>
+      </c>
+      <c r="D69" s="26" t="s">
         <v>191</v>
       </c>
       <c r="E69" s="12"/>
-      <c r="F69" s="25"/>
-      <c r="G69" s="25">
+      <c r="F69" s="26"/>
+      <c r="G69" s="26">
         <v>1097.4</v>
       </c>
       <c r="H69" s="12">
@@ -18608,18 +18613,18 @@
       <c r="A70" s="12">
         <v>66</v>
       </c>
-      <c r="B70" s="25" t="s">
+      <c r="B70" s="26" t="s">
         <v>210</v>
       </c>
-      <c r="C70" s="25">
-        <v>1</v>
-      </c>
-      <c r="D70" s="25" t="s">
+      <c r="C70" s="26">
+        <v>1</v>
+      </c>
+      <c r="D70" s="26" t="s">
         <v>191</v>
       </c>
       <c r="E70" s="12"/>
-      <c r="F70" s="25"/>
-      <c r="G70" s="25">
+      <c r="F70" s="26"/>
+      <c r="G70" s="26">
         <v>1095.3</v>
       </c>
       <c r="H70" s="12">
@@ -18664,18 +18669,18 @@
       <c r="A71" s="12">
         <v>67</v>
       </c>
-      <c r="B71" s="25" t="s">
+      <c r="B71" s="26" t="s">
         <v>211</v>
       </c>
-      <c r="C71" s="25">
+      <c r="C71" s="26">
         <v>4</v>
       </c>
-      <c r="D71" s="25" t="s">
+      <c r="D71" s="26" t="s">
         <v>185</v>
       </c>
       <c r="E71" s="12"/>
-      <c r="F71" s="25"/>
-      <c r="G71" s="25">
+      <c r="F71" s="26"/>
+      <c r="G71" s="26">
         <v>898.9</v>
       </c>
       <c r="H71" s="12">
@@ -18718,18 +18723,18 @@
       <c r="A72" s="12">
         <v>68</v>
       </c>
-      <c r="B72" s="25" t="s">
+      <c r="B72" s="26" t="s">
         <v>212</v>
       </c>
-      <c r="C72" s="25">
-        <v>1</v>
-      </c>
-      <c r="D72" s="25" t="s">
+      <c r="C72" s="26">
+        <v>1</v>
+      </c>
+      <c r="D72" s="26" t="s">
         <v>185</v>
       </c>
       <c r="E72" s="12"/>
-      <c r="F72" s="25"/>
-      <c r="G72" s="25">
+      <c r="F72" s="26"/>
+      <c r="G72" s="26">
         <v>907.4</v>
       </c>
       <c r="H72" s="12">
@@ -18772,18 +18777,18 @@
       <c r="A73" s="12">
         <v>69</v>
       </c>
-      <c r="B73" s="25" t="s">
+      <c r="B73" s="26" t="s">
         <v>213</v>
       </c>
-      <c r="C73" s="25">
-        <v>1</v>
-      </c>
-      <c r="D73" s="25" t="s">
+      <c r="C73" s="26">
+        <v>1</v>
+      </c>
+      <c r="D73" s="26" t="s">
         <v>185</v>
       </c>
       <c r="E73" s="12"/>
-      <c r="F73" s="25"/>
-      <c r="G73" s="25">
+      <c r="F73" s="26"/>
+      <c r="G73" s="26">
         <v>907.4</v>
       </c>
       <c r="H73" s="12">
@@ -18826,18 +18831,18 @@
       <c r="A74" s="12">
         <v>70</v>
       </c>
-      <c r="B74" s="25" t="s">
+      <c r="B74" s="26" t="s">
         <v>214</v>
       </c>
-      <c r="C74" s="25">
-        <v>1</v>
-      </c>
-      <c r="D74" s="25" t="s">
+      <c r="C74" s="26">
+        <v>1</v>
+      </c>
+      <c r="D74" s="26" t="s">
         <v>185</v>
       </c>
       <c r="E74" s="12"/>
-      <c r="F74" s="25"/>
-      <c r="G74" s="25">
+      <c r="F74" s="26"/>
+      <c r="G74" s="26">
         <v>908.5</v>
       </c>
       <c r="H74" s="12">
@@ -18880,18 +18885,18 @@
       <c r="A75" s="12">
         <v>71</v>
       </c>
-      <c r="B75" s="25" t="s">
+      <c r="B75" s="26" t="s">
         <v>215</v>
       </c>
-      <c r="C75" s="25">
-        <v>1</v>
-      </c>
-      <c r="D75" s="25" t="s">
+      <c r="C75" s="26">
+        <v>1</v>
+      </c>
+      <c r="D75" s="26" t="s">
         <v>185</v>
       </c>
       <c r="E75" s="12"/>
-      <c r="F75" s="25"/>
-      <c r="G75" s="25">
+      <c r="F75" s="26"/>
+      <c r="G75" s="26">
         <v>906.5</v>
       </c>
       <c r="H75" s="12">
@@ -18934,18 +18939,18 @@
       <c r="A76" s="12">
         <v>72</v>
       </c>
-      <c r="B76" s="25" t="s">
+      <c r="B76" s="26" t="s">
         <v>216</v>
       </c>
-      <c r="C76" s="25">
+      <c r="C76" s="26">
         <v>2</v>
       </c>
-      <c r="D76" s="25" t="s">
+      <c r="D76" s="26" t="s">
         <v>185</v>
       </c>
       <c r="E76" s="12"/>
-      <c r="F76" s="25"/>
-      <c r="G76" s="25">
+      <c r="F76" s="26"/>
+      <c r="G76" s="26">
         <v>899.5</v>
       </c>
       <c r="H76" s="12">
@@ -18990,18 +18995,18 @@
       <c r="A77" s="12">
         <v>73</v>
       </c>
-      <c r="B77" s="25" t="s">
+      <c r="B77" s="26" t="s">
         <v>217</v>
       </c>
-      <c r="C77" s="25">
-        <v>1</v>
-      </c>
-      <c r="D77" s="25" t="s">
+      <c r="C77" s="26">
+        <v>1</v>
+      </c>
+      <c r="D77" s="26" t="s">
         <v>185</v>
       </c>
       <c r="E77" s="12"/>
-      <c r="F77" s="25"/>
-      <c r="G77" s="25">
+      <c r="F77" s="26"/>
+      <c r="G77" s="26">
         <v>908</v>
       </c>
       <c r="H77" s="12">
@@ -19046,18 +19051,18 @@
       <c r="A78" s="12">
         <v>74</v>
       </c>
-      <c r="B78" s="25" t="s">
+      <c r="B78" s="26" t="s">
         <v>218</v>
       </c>
-      <c r="C78" s="25">
-        <v>1</v>
-      </c>
-      <c r="D78" s="25" t="s">
+      <c r="C78" s="26">
+        <v>1</v>
+      </c>
+      <c r="D78" s="26" t="s">
         <v>185</v>
       </c>
       <c r="E78" s="12"/>
-      <c r="F78" s="25"/>
-      <c r="G78" s="25">
+      <c r="F78" s="26"/>
+      <c r="G78" s="26">
         <v>908</v>
       </c>
       <c r="H78" s="12">
@@ -19102,18 +19107,18 @@
       <c r="A79" s="12">
         <v>75</v>
       </c>
-      <c r="B79" s="25" t="s">
+      <c r="B79" s="26" t="s">
         <v>219</v>
       </c>
-      <c r="C79" s="25">
-        <v>1</v>
-      </c>
-      <c r="D79" s="25" t="s">
+      <c r="C79" s="26">
+        <v>1</v>
+      </c>
+      <c r="D79" s="26" t="s">
         <v>185</v>
       </c>
       <c r="E79" s="12"/>
-      <c r="F79" s="25"/>
-      <c r="G79" s="25">
+      <c r="F79" s="26"/>
+      <c r="G79" s="26">
         <v>909.1</v>
       </c>
       <c r="H79" s="12">
@@ -19158,18 +19163,18 @@
       <c r="A80" s="12">
         <v>76</v>
       </c>
-      <c r="B80" s="25" t="s">
+      <c r="B80" s="26" t="s">
         <v>220</v>
       </c>
-      <c r="C80" s="25">
-        <v>1</v>
-      </c>
-      <c r="D80" s="25" t="s">
+      <c r="C80" s="26">
+        <v>1</v>
+      </c>
+      <c r="D80" s="26" t="s">
         <v>185</v>
       </c>
       <c r="E80" s="12"/>
-      <c r="F80" s="25"/>
-      <c r="G80" s="25">
+      <c r="F80" s="26"/>
+      <c r="G80" s="26">
         <v>906.8</v>
       </c>
       <c r="H80" s="12">
@@ -19214,18 +19219,18 @@
       <c r="A81" s="12">
         <v>77</v>
       </c>
-      <c r="B81" s="25" t="s">
+      <c r="B81" s="26" t="s">
         <v>221</v>
       </c>
-      <c r="C81" s="25">
+      <c r="C81" s="26">
         <v>2</v>
       </c>
-      <c r="D81" s="25" t="s">
+      <c r="D81" s="26" t="s">
         <v>191</v>
       </c>
       <c r="E81" s="12"/>
-      <c r="F81" s="25"/>
-      <c r="G81" s="25">
+      <c r="F81" s="26"/>
+      <c r="G81" s="26">
         <v>1099</v>
       </c>
       <c r="H81" s="12">
@@ -19248,38 +19253,40 @@
       <c r="V81" s="12"/>
       <c r="W81" s="12"/>
       <c r="X81" s="12"/>
-      <c r="Y81" s="12"/>
+      <c r="Y81" s="12">
+        <v>2</v>
+      </c>
       <c r="Z81" s="12"/>
       <c r="AA81" s="12"/>
       <c r="AB81" s="18">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC81" s="18">
         <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="AD81" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD81" s="20" t="str">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="82" customHeight="1" spans="1:30">
       <c r="A82" s="12">
         <v>78</v>
       </c>
-      <c r="B82" s="25" t="s">
+      <c r="B82" s="26" t="s">
         <v>222</v>
       </c>
-      <c r="C82" s="25">
-        <v>1</v>
-      </c>
-      <c r="D82" s="25" t="s">
+      <c r="C82" s="26">
+        <v>1</v>
+      </c>
+      <c r="D82" s="26" t="s">
         <v>191</v>
       </c>
       <c r="E82" s="12"/>
-      <c r="F82" s="25"/>
-      <c r="G82" s="25">
+      <c r="F82" s="26"/>
+      <c r="G82" s="26">
         <v>1103.7</v>
       </c>
       <c r="H82" s="12">
@@ -19302,38 +19309,40 @@
       <c r="V82" s="12"/>
       <c r="W82" s="12"/>
       <c r="X82" s="12"/>
-      <c r="Y82" s="12"/>
+      <c r="Y82" s="12">
+        <v>1</v>
+      </c>
       <c r="Z82" s="12"/>
       <c r="AA82" s="12"/>
       <c r="AB82" s="18">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC82" s="18">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AD82" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD82" s="20" t="str">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="83" customHeight="1" spans="1:30">
       <c r="A83" s="12">
         <v>79</v>
       </c>
-      <c r="B83" s="25" t="s">
+      <c r="B83" s="26" t="s">
         <v>223</v>
       </c>
-      <c r="C83" s="25">
-        <v>1</v>
-      </c>
-      <c r="D83" s="25" t="s">
+      <c r="C83" s="26">
+        <v>1</v>
+      </c>
+      <c r="D83" s="26" t="s">
         <v>191</v>
       </c>
       <c r="E83" s="12"/>
-      <c r="F83" s="25"/>
-      <c r="G83" s="25">
+      <c r="F83" s="26"/>
+      <c r="G83" s="26">
         <v>1103.7</v>
       </c>
       <c r="H83" s="12">
@@ -19356,38 +19365,40 @@
       <c r="V83" s="12"/>
       <c r="W83" s="12"/>
       <c r="X83" s="12"/>
-      <c r="Y83" s="12"/>
+      <c r="Y83" s="12">
+        <v>1</v>
+      </c>
       <c r="Z83" s="12"/>
       <c r="AA83" s="12"/>
       <c r="AB83" s="18">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC83" s="18">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AD83" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD83" s="20" t="str">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="84" customHeight="1" spans="1:30">
       <c r="A84" s="12">
         <v>80</v>
       </c>
-      <c r="B84" s="25" t="s">
+      <c r="B84" s="26" t="s">
         <v>224</v>
       </c>
-      <c r="C84" s="25">
-        <v>1</v>
-      </c>
-      <c r="D84" s="25" t="s">
+      <c r="C84" s="26">
+        <v>1</v>
+      </c>
+      <c r="D84" s="26" t="s">
         <v>191</v>
       </c>
       <c r="E84" s="12"/>
-      <c r="F84" s="25"/>
-      <c r="G84" s="25">
+      <c r="F84" s="26"/>
+      <c r="G84" s="26">
         <v>1102.8</v>
       </c>
       <c r="H84" s="12">
@@ -19410,38 +19421,40 @@
       <c r="V84" s="12"/>
       <c r="W84" s="12"/>
       <c r="X84" s="12"/>
-      <c r="Y84" s="12"/>
+      <c r="Y84" s="12">
+        <v>1</v>
+      </c>
       <c r="Z84" s="12"/>
       <c r="AA84" s="12"/>
       <c r="AB84" s="18">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC84" s="18">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AD84" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD84" s="20" t="str">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="85" customHeight="1" spans="1:30">
       <c r="A85" s="12">
         <v>81</v>
       </c>
-      <c r="B85" s="25" t="s">
+      <c r="B85" s="26" t="s">
         <v>225</v>
       </c>
-      <c r="C85" s="25">
-        <v>1</v>
-      </c>
-      <c r="D85" s="25" t="s">
+      <c r="C85" s="26">
+        <v>1</v>
+      </c>
+      <c r="D85" s="26" t="s">
         <v>191</v>
       </c>
       <c r="E85" s="12"/>
-      <c r="F85" s="25"/>
-      <c r="G85" s="25">
+      <c r="F85" s="26"/>
+      <c r="G85" s="26">
         <v>1100.8</v>
       </c>
       <c r="H85" s="12">
@@ -19464,38 +19477,40 @@
       <c r="V85" s="12"/>
       <c r="W85" s="12"/>
       <c r="X85" s="12"/>
-      <c r="Y85" s="12"/>
+      <c r="Y85" s="12">
+        <v>1</v>
+      </c>
       <c r="Z85" s="12"/>
       <c r="AA85" s="12"/>
       <c r="AB85" s="18">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC85" s="18">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AD85" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="20" t="str">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="86" customHeight="1" spans="1:30">
       <c r="A86" s="12">
         <v>82</v>
       </c>
-      <c r="B86" s="25" t="s">
+      <c r="B86" s="26" t="s">
         <v>226</v>
       </c>
-      <c r="C86" s="25">
+      <c r="C86" s="26">
         <v>2</v>
       </c>
-      <c r="D86" s="25" t="s">
+      <c r="D86" s="26" t="s">
         <v>185</v>
       </c>
       <c r="E86" s="12"/>
-      <c r="F86" s="25"/>
-      <c r="G86" s="25">
+      <c r="F86" s="26"/>
+      <c r="G86" s="26">
         <v>898.9</v>
       </c>
       <c r="H86" s="12">
@@ -19538,18 +19553,18 @@
       <c r="A87" s="12">
         <v>83</v>
       </c>
-      <c r="B87" s="25" t="s">
+      <c r="B87" s="26" t="s">
         <v>227</v>
       </c>
-      <c r="C87" s="25">
-        <v>1</v>
-      </c>
-      <c r="D87" s="25" t="s">
+      <c r="C87" s="26">
+        <v>1</v>
+      </c>
+      <c r="D87" s="26" t="s">
         <v>185</v>
       </c>
       <c r="E87" s="12"/>
-      <c r="F87" s="25"/>
-      <c r="G87" s="25">
+      <c r="F87" s="26"/>
+      <c r="G87" s="26">
         <v>907.4</v>
       </c>
       <c r="H87" s="12">
@@ -19592,18 +19607,18 @@
       <c r="A88" s="12">
         <v>84</v>
       </c>
-      <c r="B88" s="25" t="s">
+      <c r="B88" s="26" t="s">
         <v>228</v>
       </c>
-      <c r="C88" s="25">
-        <v>1</v>
-      </c>
-      <c r="D88" s="25" t="s">
+      <c r="C88" s="26">
+        <v>1</v>
+      </c>
+      <c r="D88" s="26" t="s">
         <v>185</v>
       </c>
       <c r="E88" s="12"/>
-      <c r="F88" s="25"/>
-      <c r="G88" s="25">
+      <c r="F88" s="26"/>
+      <c r="G88" s="26">
         <v>907.4</v>
       </c>
       <c r="H88" s="12">
@@ -19646,18 +19661,18 @@
       <c r="A89" s="12">
         <v>85</v>
       </c>
-      <c r="B89" s="25" t="s">
+      <c r="B89" s="26" t="s">
         <v>229</v>
       </c>
-      <c r="C89" s="25">
-        <v>1</v>
-      </c>
-      <c r="D89" s="25" t="s">
+      <c r="C89" s="26">
+        <v>1</v>
+      </c>
+      <c r="D89" s="26" t="s">
         <v>185</v>
       </c>
       <c r="E89" s="12"/>
-      <c r="F89" s="25"/>
-      <c r="G89" s="25">
+      <c r="F89" s="26"/>
+      <c r="G89" s="26">
         <v>909</v>
       </c>
       <c r="H89" s="12">
@@ -19700,18 +19715,18 @@
       <c r="A90" s="12">
         <v>86</v>
       </c>
-      <c r="B90" s="25" t="s">
+      <c r="B90" s="26" t="s">
         <v>230</v>
       </c>
-      <c r="C90" s="25">
-        <v>1</v>
-      </c>
-      <c r="D90" s="25" t="s">
+      <c r="C90" s="26">
+        <v>1</v>
+      </c>
+      <c r="D90" s="26" t="s">
         <v>185</v>
       </c>
       <c r="E90" s="12"/>
-      <c r="F90" s="25"/>
-      <c r="G90" s="25">
+      <c r="F90" s="26"/>
+      <c r="G90" s="26">
         <v>906.7</v>
       </c>
       <c r="H90" s="12">
@@ -19760,12 +19775,12 @@
       <c r="C91" s="12">
         <v>1</v>
       </c>
-      <c r="D91" s="25" t="s">
+      <c r="D91" s="26" t="s">
         <v>232</v>
       </c>
       <c r="E91" s="12"/>
-      <c r="F91" s="25"/>
-      <c r="G91" s="25">
+      <c r="F91" s="26"/>
+      <c r="G91" s="26">
         <v>2027.1</v>
       </c>
       <c r="H91" s="12">
@@ -19814,7 +19829,7 @@
       <c r="C92" s="12">
         <v>20</v>
       </c>
-      <c r="D92" s="25" t="s">
+      <c r="D92" s="26" t="s">
         <v>234</v>
       </c>
       <c r="E92" s="12"/>
@@ -19870,7 +19885,7 @@
       <c r="C93" s="12">
         <v>7</v>
       </c>
-      <c r="D93" s="25" t="s">
+      <c r="D93" s="26" t="s">
         <v>234</v>
       </c>
       <c r="E93" s="12"/>
@@ -19926,7 +19941,7 @@
       <c r="C94" s="12">
         <v>1</v>
       </c>
-      <c r="D94" s="25" t="s">
+      <c r="D94" s="26" t="s">
         <v>234</v>
       </c>
       <c r="E94" s="12"/>
@@ -19982,7 +19997,7 @@
       <c r="C95" s="12">
         <v>2</v>
       </c>
-      <c r="D95" s="25" t="s">
+      <c r="D95" s="26" t="s">
         <v>234</v>
       </c>
       <c r="E95" s="12"/>
@@ -20040,7 +20055,7 @@
       <c r="C96" s="12">
         <v>2</v>
       </c>
-      <c r="D96" s="25" t="s">
+      <c r="D96" s="26" t="s">
         <v>234</v>
       </c>
       <c r="E96" s="12"/>
@@ -20096,7 +20111,7 @@
       <c r="C97" s="12">
         <v>1</v>
       </c>
-      <c r="D97" s="25" t="s">
+      <c r="D97" s="26" t="s">
         <v>234</v>
       </c>
       <c r="E97" s="12"/>
@@ -20152,7 +20167,7 @@
       <c r="C98" s="12">
         <v>2</v>
       </c>
-      <c r="D98" s="25" t="s">
+      <c r="D98" s="26" t="s">
         <v>234</v>
       </c>
       <c r="E98" s="12"/>
@@ -20208,7 +20223,7 @@
       <c r="C99" s="12">
         <v>1</v>
       </c>
-      <c r="D99" s="25" t="s">
+      <c r="D99" s="26" t="s">
         <v>234</v>
       </c>
       <c r="E99" s="12"/>
@@ -20264,7 +20279,7 @@
       <c r="C100" s="12">
         <v>1</v>
       </c>
-      <c r="D100" s="25" t="s">
+      <c r="D100" s="26" t="s">
         <v>234</v>
       </c>
       <c r="E100" s="12"/>
@@ -23924,14 +23939,14 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R83"/>
+  <dimension ref="A1:AB83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="4" topLeftCell="I39" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="4" topLeftCell="J5" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L34" sqref="L34"/>
+      <selection pane="bottomRight" activeCell="Y6" sqref="Y6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>
@@ -23947,15 +23962,15 @@
     <col min="10" max="10" width="10" style="4" customWidth="1" outlineLevel="1"/>
     <col min="11" max="11" width="9.62962962962963" style="4" customWidth="1" outlineLevel="1"/>
     <col min="12" max="13" width="8.75" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="6.62962962962963" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="12.5" style="4" customWidth="1"/>
-    <col min="16" max="16" width="9.62962962962963" style="4" customWidth="1"/>
-    <col min="17" max="17" width="20" style="3" customWidth="1"/>
-    <col min="18" max="18" width="12.75" style="5" customWidth="1"/>
-    <col min="19" max="16360" width="9" style="5"/>
+    <col min="14" max="24" width="6.62962962962963" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="25" max="25" width="12.5" style="4" customWidth="1"/>
+    <col min="26" max="26" width="9.62962962962963" style="4" customWidth="1"/>
+    <col min="27" max="27" width="20" style="3" customWidth="1"/>
+    <col min="28" max="28" width="12.75" style="5" customWidth="1"/>
+    <col min="29" max="16370" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" ht="26.1" customHeight="1" spans="2:17">
+    <row r="1" ht="26.1" customHeight="1" spans="2:27">
       <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
@@ -23974,8 +23989,18 @@
       <c r="O1" s="6"/>
       <c r="P1" s="6"/>
       <c r="Q1" s="6"/>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="24.75" customHeight="1" spans="1:17">
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
+      <c r="AA1" s="6"/>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="24.75" customHeight="1" spans="1:27">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -23995,8 +24020,18 @@
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
-    </row>
-    <row r="3" s="2" customFormat="1" ht="26.25" customHeight="1" spans="1:17">
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+    </row>
+    <row r="3" s="2" customFormat="1" ht="26.25" customHeight="1" spans="1:27">
       <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
@@ -24031,11 +24066,21 @@
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
       <c r="P3" s="15"/>
-      <c r="Q3" s="8" t="s">
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="15"/>
+      <c r="W3" s="15"/>
+      <c r="X3" s="15"/>
+      <c r="Y3" s="15"/>
+      <c r="Z3" s="15"/>
+      <c r="AA3" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" ht="26.25" customHeight="1" spans="1:17">
+    <row r="4" s="2" customFormat="1" ht="26.25" customHeight="1" spans="1:27">
       <c r="A4" s="10"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -24056,17 +24101,29 @@
       <c r="L4" s="12">
         <v>1.31</v>
       </c>
-      <c r="M4" s="12"/>
+      <c r="M4" s="12">
+        <v>2.1</v>
+      </c>
       <c r="N4" s="12"/>
-      <c r="O4" s="16" t="s">
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="25"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="25"/>
+      <c r="V4" s="25"/>
+      <c r="W4" s="25"/>
+      <c r="X4" s="25"/>
+      <c r="Y4" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="P4" s="16" t="s">
+      <c r="Z4" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="Q4" s="8"/>
-    </row>
-    <row r="5" customHeight="1" spans="1:17">
+      <c r="AA4" s="8"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:27">
       <c r="A5" s="12">
         <v>1</v>
       </c>
@@ -24096,20 +24153,30 @@
       <c r="L5" s="12"/>
       <c r="M5" s="12"/>
       <c r="N5" s="12"/>
-      <c r="O5" s="18">
-        <f t="shared" ref="O5:O68" si="1">SUM(I5:N5)</f>
-        <v>0</v>
-      </c>
-      <c r="P5" s="18">
-        <f t="shared" ref="P5:P68" si="2">C5-O5</f>
-        <v>1</v>
-      </c>
-      <c r="Q5" s="20">
-        <f t="shared" ref="Q5:Q68" si="3">IF(SUM(I5:N5)=C5,"完成",SUM(I5:N5))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" customHeight="1" spans="1:17">
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="18">
+        <f>SUM(I5:X5)</f>
+        <v>0</v>
+      </c>
+      <c r="Z5" s="18">
+        <f t="shared" ref="Z5:Z68" si="1">C5-Y5</f>
+        <v>1</v>
+      </c>
+      <c r="AA5" s="20">
+        <f t="shared" ref="AA5:AA68" si="2">IF(SUM(I5:N5)=C5,"完成",SUM(I5:N5))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:27">
       <c r="A6" s="12">
         <v>2</v>
       </c>
@@ -24139,20 +24206,30 @@
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
-      <c r="O6" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P6" s="18">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q6" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" customHeight="1" spans="1:17">
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="18">
+        <f t="shared" ref="Y6:Y37" si="3">SUM(I6:X6)</f>
+        <v>0</v>
+      </c>
+      <c r="Z6" s="18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AA6" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:27">
       <c r="A7" s="12">
         <v>3</v>
       </c>
@@ -24182,20 +24259,30 @@
       <c r="L7" s="12"/>
       <c r="M7" s="12"/>
       <c r="N7" s="12"/>
-      <c r="O7" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P7" s="18">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q7" s="20">
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="12"/>
+      <c r="Y7" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" customHeight="1" spans="1:17">
+      <c r="Z7" s="18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AA7" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:27">
       <c r="A8" s="12">
         <v>4</v>
       </c>
@@ -24225,20 +24312,30 @@
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
       <c r="N8" s="12"/>
-      <c r="O8" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P8" s="18">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q8" s="20">
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="12"/>
+      <c r="X8" s="12"/>
+      <c r="Y8" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" customHeight="1" spans="1:17">
+      <c r="Z8" s="18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AA8" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:27">
       <c r="A9" s="12">
         <v>5</v>
       </c>
@@ -24268,20 +24365,30 @@
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
       <c r="N9" s="12"/>
-      <c r="O9" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P9" s="18">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q9" s="20">
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="12"/>
+      <c r="X9" s="12"/>
+      <c r="Y9" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" customHeight="1" spans="1:17">
+      <c r="Z9" s="18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AA9" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:27">
       <c r="A10" s="12">
         <v>6</v>
       </c>
@@ -24311,20 +24418,30 @@
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
       <c r="N10" s="12"/>
-      <c r="O10" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P10" s="18">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q10" s="20">
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="12"/>
+      <c r="W10" s="12"/>
+      <c r="X10" s="12"/>
+      <c r="Y10" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" customHeight="1" spans="1:17">
+      <c r="Z10" s="18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AA10" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:27">
       <c r="A11" s="12">
         <v>7</v>
       </c>
@@ -24354,20 +24471,30 @@
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
       <c r="N11" s="12"/>
-      <c r="O11" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P11" s="18">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q11" s="20">
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="12"/>
+      <c r="W11" s="12"/>
+      <c r="X11" s="12"/>
+      <c r="Y11" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" customHeight="1" spans="1:17">
+      <c r="Z11" s="18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AA11" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:27">
       <c r="A12" s="12">
         <v>8</v>
       </c>
@@ -24397,20 +24524,30 @@
       <c r="L12" s="12"/>
       <c r="M12" s="12"/>
       <c r="N12" s="12"/>
-      <c r="O12" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P12" s="18">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q12" s="20">
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" customHeight="1" spans="1:17">
+      <c r="Z12" s="18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AA12" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:27">
       <c r="A13" s="12">
         <v>9</v>
       </c>
@@ -24440,20 +24577,30 @@
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
       <c r="N13" s="12"/>
-      <c r="O13" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P13" s="18">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q13" s="20">
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="12"/>
+      <c r="W13" s="12"/>
+      <c r="X13" s="12"/>
+      <c r="Y13" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" customHeight="1" spans="1:17">
+      <c r="Z13" s="18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AA13" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:27">
       <c r="A14" s="12">
         <v>10</v>
       </c>
@@ -24483,20 +24630,30 @@
       <c r="L14" s="12"/>
       <c r="M14" s="12"/>
       <c r="N14" s="12"/>
-      <c r="O14" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P14" s="18">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q14" s="20">
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="12"/>
+      <c r="W14" s="12"/>
+      <c r="X14" s="12"/>
+      <c r="Y14" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" customHeight="1" spans="1:17">
+      <c r="Z14" s="18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AA14" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:27">
       <c r="A15" s="12">
         <v>11</v>
       </c>
@@ -24526,20 +24683,30 @@
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
       <c r="N15" s="12"/>
-      <c r="O15" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P15" s="18">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q15" s="20">
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="12"/>
+      <c r="W15" s="12"/>
+      <c r="X15" s="12"/>
+      <c r="Y15" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" customHeight="1" spans="1:17">
+      <c r="Z15" s="18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AA15" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:27">
       <c r="A16" s="12">
         <v>12</v>
       </c>
@@ -24569,20 +24736,30 @@
       <c r="L16" s="12"/>
       <c r="M16" s="12"/>
       <c r="N16" s="12"/>
-      <c r="O16" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P16" s="18">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q16" s="20">
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="12"/>
+      <c r="Y16" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" customHeight="1" spans="1:17">
+      <c r="Z16" s="18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AA16" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="1:27">
       <c r="A17" s="12">
         <v>13</v>
       </c>
@@ -24612,20 +24789,30 @@
       <c r="L17" s="12"/>
       <c r="M17" s="12"/>
       <c r="N17" s="12"/>
-      <c r="O17" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P17" s="18">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q17" s="20">
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="12"/>
+      <c r="V17" s="12"/>
+      <c r="W17" s="12"/>
+      <c r="X17" s="12"/>
+      <c r="Y17" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" customHeight="1" spans="1:17">
+      <c r="Z17" s="18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AA17" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="1:27">
       <c r="A18" s="12">
         <v>14</v>
       </c>
@@ -24655,20 +24842,30 @@
       <c r="L18" s="12"/>
       <c r="M18" s="12"/>
       <c r="N18" s="12"/>
-      <c r="O18" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P18" s="18">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q18" s="20">
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="12"/>
+      <c r="W18" s="12"/>
+      <c r="X18" s="12"/>
+      <c r="Y18" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" customHeight="1" spans="1:17">
+      <c r="Z18" s="18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AA18" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="1:27">
       <c r="A19" s="12">
         <v>15</v>
       </c>
@@ -24696,22 +24893,34 @@
       <c r="J19" s="12"/>
       <c r="K19" s="12"/>
       <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
+      <c r="M19" s="12">
+        <v>1</v>
+      </c>
       <c r="N19" s="12"/>
-      <c r="O19" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P19" s="18">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q19" s="20">
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="12"/>
+      <c r="U19" s="12"/>
+      <c r="V19" s="12"/>
+      <c r="W19" s="12"/>
+      <c r="X19" s="12"/>
+      <c r="Y19" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" customHeight="1" spans="1:17">
+        <v>1</v>
+      </c>
+      <c r="Z19" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA19" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="1:27">
       <c r="A20" s="12">
         <v>16</v>
       </c>
@@ -24741,20 +24950,30 @@
       <c r="L20" s="12"/>
       <c r="M20" s="12"/>
       <c r="N20" s="12"/>
-      <c r="O20" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P20" s="18">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q20" s="20">
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="12"/>
+      <c r="V20" s="12"/>
+      <c r="W20" s="12"/>
+      <c r="X20" s="12"/>
+      <c r="Y20" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" customHeight="1" spans="1:17">
+      <c r="Z20" s="18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AA20" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="1:27">
       <c r="A21" s="12">
         <v>17</v>
       </c>
@@ -24784,20 +25003,30 @@
       <c r="L21" s="12"/>
       <c r="M21" s="12"/>
       <c r="N21" s="12"/>
-      <c r="O21" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P21" s="18">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q21" s="20">
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="12"/>
+      <c r="U21" s="12"/>
+      <c r="V21" s="12"/>
+      <c r="W21" s="12"/>
+      <c r="X21" s="12"/>
+      <c r="Y21" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" customHeight="1" spans="1:18">
+      <c r="Z21" s="18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AA21" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="1:28">
       <c r="A22" s="12">
         <v>18</v>
       </c>
@@ -24827,21 +25056,31 @@
       <c r="L22" s="12"/>
       <c r="M22" s="12"/>
       <c r="N22" s="12"/>
-      <c r="O22" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P22" s="18">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q22" s="20">
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="12"/>
+      <c r="U22" s="12"/>
+      <c r="V22" s="12"/>
+      <c r="W22" s="12"/>
+      <c r="X22" s="12"/>
+      <c r="Y22" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R22" s="21"/>
-    </row>
-    <row r="23" customHeight="1" spans="1:17">
+      <c r="Z22" s="18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AA22" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB22" s="21"/>
+    </row>
+    <row r="23" customHeight="1" spans="1:27">
       <c r="A23" s="12">
         <v>19</v>
       </c>
@@ -24871,20 +25110,30 @@
       <c r="L23" s="12"/>
       <c r="M23" s="12"/>
       <c r="N23" s="12"/>
-      <c r="O23" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P23" s="18">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q23" s="20">
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="12"/>
+      <c r="S23" s="12"/>
+      <c r="T23" s="12"/>
+      <c r="U23" s="12"/>
+      <c r="V23" s="12"/>
+      <c r="W23" s="12"/>
+      <c r="X23" s="12"/>
+      <c r="Y23" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" customHeight="1" spans="1:17">
+      <c r="Z23" s="18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AA23" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="1:27">
       <c r="A24" s="12">
         <v>20</v>
       </c>
@@ -24914,20 +25163,30 @@
       <c r="L24" s="12"/>
       <c r="M24" s="12"/>
       <c r="N24" s="12"/>
-      <c r="O24" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P24" s="18">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q24" s="20">
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12"/>
+      <c r="S24" s="12"/>
+      <c r="T24" s="12"/>
+      <c r="U24" s="12"/>
+      <c r="V24" s="12"/>
+      <c r="W24" s="12"/>
+      <c r="X24" s="12"/>
+      <c r="Y24" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" customHeight="1" spans="1:17">
+      <c r="Z24" s="18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AA24" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="1:27">
       <c r="A25" s="12">
         <v>21</v>
       </c>
@@ -24959,20 +25218,30 @@
       <c r="L25" s="12"/>
       <c r="M25" s="12"/>
       <c r="N25" s="12"/>
-      <c r="O25" s="18">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P25" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q25" s="20" t="str">
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
+      <c r="S25" s="12"/>
+      <c r="T25" s="12"/>
+      <c r="U25" s="12"/>
+      <c r="V25" s="12"/>
+      <c r="W25" s="12"/>
+      <c r="X25" s="12"/>
+      <c r="Y25" s="18">
         <f t="shared" si="3"/>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="26" customHeight="1" spans="1:17">
+        <v>1</v>
+      </c>
+      <c r="Z25" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA25" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="1:27">
       <c r="A26" s="12">
         <v>22</v>
       </c>
@@ -25002,20 +25271,30 @@
       <c r="L26" s="12"/>
       <c r="M26" s="12"/>
       <c r="N26" s="12"/>
-      <c r="O26" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P26" s="18">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q26" s="20">
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="12"/>
+      <c r="S26" s="12"/>
+      <c r="T26" s="12"/>
+      <c r="U26" s="12"/>
+      <c r="V26" s="12"/>
+      <c r="W26" s="12"/>
+      <c r="X26" s="12"/>
+      <c r="Y26" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="27" customHeight="1" spans="1:17">
+      <c r="Z26" s="18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AA26" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="1:27">
       <c r="A27" s="12">
         <v>23</v>
       </c>
@@ -25047,20 +25326,30 @@
       <c r="L27" s="12"/>
       <c r="M27" s="12"/>
       <c r="N27" s="12"/>
-      <c r="O27" s="18">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P27" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q27" s="20" t="str">
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="12"/>
+      <c r="S27" s="12"/>
+      <c r="T27" s="12"/>
+      <c r="U27" s="12"/>
+      <c r="V27" s="12"/>
+      <c r="W27" s="12"/>
+      <c r="X27" s="12"/>
+      <c r="Y27" s="18">
         <f t="shared" si="3"/>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="28" customHeight="1" spans="1:17">
+        <v>1</v>
+      </c>
+      <c r="Z27" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA27" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="1:27">
       <c r="A28" s="12">
         <v>24</v>
       </c>
@@ -25090,20 +25379,30 @@
       <c r="L28" s="12"/>
       <c r="M28" s="12"/>
       <c r="N28" s="12"/>
-      <c r="O28" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P28" s="18">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q28" s="20">
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="12"/>
+      <c r="S28" s="12"/>
+      <c r="T28" s="12"/>
+      <c r="U28" s="12"/>
+      <c r="V28" s="12"/>
+      <c r="W28" s="12"/>
+      <c r="X28" s="12"/>
+      <c r="Y28" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="29" customHeight="1" spans="1:17">
+      <c r="Z28" s="18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AA28" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="1:27">
       <c r="A29" s="12">
         <v>25</v>
       </c>
@@ -25133,20 +25432,30 @@
       <c r="L29" s="12"/>
       <c r="M29" s="12"/>
       <c r="N29" s="12"/>
-      <c r="O29" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P29" s="18">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q29" s="20">
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="12"/>
+      <c r="S29" s="12"/>
+      <c r="T29" s="12"/>
+      <c r="U29" s="12"/>
+      <c r="V29" s="12"/>
+      <c r="W29" s="12"/>
+      <c r="X29" s="12"/>
+      <c r="Y29" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="30" customHeight="1" spans="1:17">
+      <c r="Z29" s="18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AA29" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="1:27">
       <c r="A30" s="12">
         <v>26</v>
       </c>
@@ -25178,20 +25487,30 @@
       <c r="L30" s="12"/>
       <c r="M30" s="12"/>
       <c r="N30" s="12"/>
-      <c r="O30" s="18">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P30" s="18">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q30" s="20">
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="12"/>
+      <c r="S30" s="12"/>
+      <c r="T30" s="12"/>
+      <c r="U30" s="12"/>
+      <c r="V30" s="12"/>
+      <c r="W30" s="12"/>
+      <c r="X30" s="12"/>
+      <c r="Y30" s="18">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="31" customHeight="1" spans="1:17">
+      <c r="Z30" s="18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AA30" s="20">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="1:27">
       <c r="A31" s="12">
         <v>27</v>
       </c>
@@ -25219,22 +25538,34 @@
       <c r="J31" s="12"/>
       <c r="K31" s="12"/>
       <c r="L31" s="12"/>
-      <c r="M31" s="12"/>
+      <c r="M31" s="12">
+        <v>1</v>
+      </c>
       <c r="N31" s="12"/>
-      <c r="O31" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P31" s="18">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q31" s="20">
+      <c r="O31" s="12"/>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="12"/>
+      <c r="R31" s="12"/>
+      <c r="S31" s="12"/>
+      <c r="T31" s="12"/>
+      <c r="U31" s="12"/>
+      <c r="V31" s="12"/>
+      <c r="W31" s="12"/>
+      <c r="X31" s="12"/>
+      <c r="Y31" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" customHeight="1" spans="1:17">
+        <v>1</v>
+      </c>
+      <c r="Z31" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA31" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="1:27">
       <c r="A32" s="12">
         <v>28</v>
       </c>
@@ -25264,20 +25595,30 @@
       <c r="L32" s="12"/>
       <c r="M32" s="12"/>
       <c r="N32" s="12"/>
-      <c r="O32" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P32" s="18">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q32" s="20">
+      <c r="O32" s="12"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="12"/>
+      <c r="R32" s="12"/>
+      <c r="S32" s="12"/>
+      <c r="T32" s="12"/>
+      <c r="U32" s="12"/>
+      <c r="V32" s="12"/>
+      <c r="W32" s="12"/>
+      <c r="X32" s="12"/>
+      <c r="Y32" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="33" customHeight="1" spans="1:17">
+      <c r="Z32" s="18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AA32" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="1:27">
       <c r="A33" s="12">
         <v>29</v>
       </c>
@@ -25309,20 +25650,30 @@
       </c>
       <c r="M33" s="12"/>
       <c r="N33" s="12"/>
-      <c r="O33" s="18">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P33" s="18">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q33" s="20">
+      <c r="O33" s="12"/>
+      <c r="P33" s="12"/>
+      <c r="Q33" s="12"/>
+      <c r="R33" s="12"/>
+      <c r="S33" s="12"/>
+      <c r="T33" s="12"/>
+      <c r="U33" s="12"/>
+      <c r="V33" s="12"/>
+      <c r="W33" s="12"/>
+      <c r="X33" s="12"/>
+      <c r="Y33" s="18">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="34" customHeight="1" spans="1:17">
+      <c r="Z33" s="18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AA33" s="20">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="1:27">
       <c r="A34" s="12">
         <v>30</v>
       </c>
@@ -25352,20 +25703,30 @@
       <c r="L34" s="12"/>
       <c r="M34" s="12"/>
       <c r="N34" s="12"/>
-      <c r="O34" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P34" s="18">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q34" s="20">
+      <c r="O34" s="12"/>
+      <c r="P34" s="12"/>
+      <c r="Q34" s="12"/>
+      <c r="R34" s="12"/>
+      <c r="S34" s="12"/>
+      <c r="T34" s="12"/>
+      <c r="U34" s="12"/>
+      <c r="V34" s="12"/>
+      <c r="W34" s="12"/>
+      <c r="X34" s="12"/>
+      <c r="Y34" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="35" customHeight="1" spans="1:17">
+      <c r="Z34" s="18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AA34" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="1:27">
       <c r="A35" s="12">
         <v>31</v>
       </c>
@@ -25395,20 +25756,30 @@
       <c r="L35" s="12"/>
       <c r="M35" s="12"/>
       <c r="N35" s="12"/>
-      <c r="O35" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P35" s="18">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q35" s="20">
+      <c r="O35" s="12"/>
+      <c r="P35" s="12"/>
+      <c r="Q35" s="12"/>
+      <c r="R35" s="12"/>
+      <c r="S35" s="12"/>
+      <c r="T35" s="12"/>
+      <c r="U35" s="12"/>
+      <c r="V35" s="12"/>
+      <c r="W35" s="12"/>
+      <c r="X35" s="12"/>
+      <c r="Y35" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="36" customHeight="1" spans="1:17">
+      <c r="Z35" s="18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AA35" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="1:27">
       <c r="A36" s="12">
         <v>32</v>
       </c>
@@ -25438,20 +25809,30 @@
       <c r="L36" s="12"/>
       <c r="M36" s="12"/>
       <c r="N36" s="12"/>
-      <c r="O36" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P36" s="18">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q36" s="20">
+      <c r="O36" s="12"/>
+      <c r="P36" s="12"/>
+      <c r="Q36" s="12"/>
+      <c r="R36" s="12"/>
+      <c r="S36" s="12"/>
+      <c r="T36" s="12"/>
+      <c r="U36" s="12"/>
+      <c r="V36" s="12"/>
+      <c r="W36" s="12"/>
+      <c r="X36" s="12"/>
+      <c r="Y36" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="37" customHeight="1" spans="1:17">
+      <c r="Z36" s="18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AA36" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="1:27">
       <c r="A37" s="12">
         <v>33</v>
       </c>
@@ -25481,20 +25862,30 @@
       <c r="L37" s="12"/>
       <c r="M37" s="12"/>
       <c r="N37" s="12"/>
-      <c r="O37" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P37" s="18">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q37" s="20">
+      <c r="O37" s="12"/>
+      <c r="P37" s="12"/>
+      <c r="Q37" s="12"/>
+      <c r="R37" s="12"/>
+      <c r="S37" s="12"/>
+      <c r="T37" s="12"/>
+      <c r="U37" s="12"/>
+      <c r="V37" s="12"/>
+      <c r="W37" s="12"/>
+      <c r="X37" s="12"/>
+      <c r="Y37" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="38" customHeight="1" spans="1:17">
+      <c r="Z37" s="18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AA37" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="1:27">
       <c r="A38" s="12">
         <v>34</v>
       </c>
@@ -25524,20 +25915,30 @@
       <c r="L38" s="12"/>
       <c r="M38" s="12"/>
       <c r="N38" s="12"/>
-      <c r="O38" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P38" s="18">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q38" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" customHeight="1" spans="1:17">
+      <c r="O38" s="12"/>
+      <c r="P38" s="12"/>
+      <c r="Q38" s="12"/>
+      <c r="R38" s="12"/>
+      <c r="S38" s="12"/>
+      <c r="T38" s="12"/>
+      <c r="U38" s="12"/>
+      <c r="V38" s="12"/>
+      <c r="W38" s="12"/>
+      <c r="X38" s="12"/>
+      <c r="Y38" s="18">
+        <f t="shared" ref="Y38:Y69" si="4">SUM(I38:X38)</f>
+        <v>0</v>
+      </c>
+      <c r="Z38" s="18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AA38" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="1:27">
       <c r="A39" s="12">
         <v>35</v>
       </c>
@@ -25567,20 +25968,30 @@
       <c r="L39" s="12"/>
       <c r="M39" s="12"/>
       <c r="N39" s="12"/>
-      <c r="O39" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P39" s="18">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q39" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" customHeight="1" spans="1:17">
+      <c r="O39" s="12"/>
+      <c r="P39" s="12"/>
+      <c r="Q39" s="12"/>
+      <c r="R39" s="12"/>
+      <c r="S39" s="12"/>
+      <c r="T39" s="12"/>
+      <c r="U39" s="12"/>
+      <c r="V39" s="12"/>
+      <c r="W39" s="12"/>
+      <c r="X39" s="12"/>
+      <c r="Y39" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z39" s="18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AA39" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="1:27">
       <c r="A40" s="12">
         <v>36</v>
       </c>
@@ -25610,20 +26021,30 @@
       <c r="L40" s="12"/>
       <c r="M40" s="12"/>
       <c r="N40" s="12"/>
-      <c r="O40" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P40" s="18">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q40" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" customHeight="1" spans="1:17">
+      <c r="O40" s="12"/>
+      <c r="P40" s="12"/>
+      <c r="Q40" s="12"/>
+      <c r="R40" s="12"/>
+      <c r="S40" s="12"/>
+      <c r="T40" s="12"/>
+      <c r="U40" s="12"/>
+      <c r="V40" s="12"/>
+      <c r="W40" s="12"/>
+      <c r="X40" s="12"/>
+      <c r="Y40" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z40" s="18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AA40" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="1:27">
       <c r="A41" s="12">
         <v>37</v>
       </c>
@@ -25653,20 +26074,30 @@
       <c r="L41" s="12"/>
       <c r="M41" s="12"/>
       <c r="N41" s="12"/>
-      <c r="O41" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P41" s="18">
-        <f t="shared" si="2"/>
+      <c r="O41" s="12"/>
+      <c r="P41" s="12"/>
+      <c r="Q41" s="12"/>
+      <c r="R41" s="12"/>
+      <c r="S41" s="12"/>
+      <c r="T41" s="12"/>
+      <c r="U41" s="12"/>
+      <c r="V41" s="12"/>
+      <c r="W41" s="12"/>
+      <c r="X41" s="12"/>
+      <c r="Y41" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z41" s="18">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="Q41" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" customHeight="1" spans="1:17">
+      <c r="AA41" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="1:27">
       <c r="A42" s="12">
         <v>38</v>
       </c>
@@ -25696,20 +26127,30 @@
       <c r="L42" s="12"/>
       <c r="M42" s="12"/>
       <c r="N42" s="12"/>
-      <c r="O42" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P42" s="18">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q42" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" customHeight="1" spans="1:17">
+      <c r="O42" s="12"/>
+      <c r="P42" s="12"/>
+      <c r="Q42" s="12"/>
+      <c r="R42" s="12"/>
+      <c r="S42" s="12"/>
+      <c r="T42" s="12"/>
+      <c r="U42" s="12"/>
+      <c r="V42" s="12"/>
+      <c r="W42" s="12"/>
+      <c r="X42" s="12"/>
+      <c r="Y42" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z42" s="18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AA42" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="1:27">
       <c r="A43" s="12">
         <v>39</v>
       </c>
@@ -25739,20 +26180,30 @@
       <c r="L43" s="12"/>
       <c r="M43" s="12"/>
       <c r="N43" s="12"/>
-      <c r="O43" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P43" s="18">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q43" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" customHeight="1" spans="1:17">
+      <c r="O43" s="12"/>
+      <c r="P43" s="12"/>
+      <c r="Q43" s="12"/>
+      <c r="R43" s="12"/>
+      <c r="S43" s="12"/>
+      <c r="T43" s="12"/>
+      <c r="U43" s="12"/>
+      <c r="V43" s="12"/>
+      <c r="W43" s="12"/>
+      <c r="X43" s="12"/>
+      <c r="Y43" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z43" s="18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AA43" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="1:27">
       <c r="A44" s="12">
         <v>40</v>
       </c>
@@ -25782,20 +26233,30 @@
       <c r="L44" s="12"/>
       <c r="M44" s="12"/>
       <c r="N44" s="12"/>
-      <c r="O44" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P44" s="18">
-        <f t="shared" si="2"/>
+      <c r="O44" s="12"/>
+      <c r="P44" s="12"/>
+      <c r="Q44" s="12"/>
+      <c r="R44" s="12"/>
+      <c r="S44" s="12"/>
+      <c r="T44" s="12"/>
+      <c r="U44" s="12"/>
+      <c r="V44" s="12"/>
+      <c r="W44" s="12"/>
+      <c r="X44" s="12"/>
+      <c r="Y44" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z44" s="18">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="Q44" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" customHeight="1" spans="1:17">
+      <c r="AA44" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="1:27">
       <c r="A45" s="12">
         <v>41</v>
       </c>
@@ -25825,20 +26286,30 @@
       <c r="L45" s="12"/>
       <c r="M45" s="12"/>
       <c r="N45" s="12"/>
-      <c r="O45" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P45" s="18">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q45" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" customHeight="1" spans="1:17">
+      <c r="O45" s="12"/>
+      <c r="P45" s="12"/>
+      <c r="Q45" s="12"/>
+      <c r="R45" s="12"/>
+      <c r="S45" s="12"/>
+      <c r="T45" s="12"/>
+      <c r="U45" s="12"/>
+      <c r="V45" s="12"/>
+      <c r="W45" s="12"/>
+      <c r="X45" s="12"/>
+      <c r="Y45" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z45" s="18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AA45" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="1:27">
       <c r="A46" s="12">
         <v>42</v>
       </c>
@@ -25868,20 +26339,30 @@
       <c r="L46" s="12"/>
       <c r="M46" s="12"/>
       <c r="N46" s="12"/>
-      <c r="O46" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P46" s="18">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q46" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" customHeight="1" spans="1:17">
+      <c r="O46" s="12"/>
+      <c r="P46" s="12"/>
+      <c r="Q46" s="12"/>
+      <c r="R46" s="12"/>
+      <c r="S46" s="12"/>
+      <c r="T46" s="12"/>
+      <c r="U46" s="12"/>
+      <c r="V46" s="12"/>
+      <c r="W46" s="12"/>
+      <c r="X46" s="12"/>
+      <c r="Y46" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z46" s="18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AA46" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" spans="1:27">
       <c r="A47" s="12">
         <v>43</v>
       </c>
@@ -25911,20 +26392,30 @@
       <c r="L47" s="12"/>
       <c r="M47" s="12"/>
       <c r="N47" s="12"/>
-      <c r="O47" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P47" s="18">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q47" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" customHeight="1" spans="1:17">
+      <c r="O47" s="12"/>
+      <c r="P47" s="12"/>
+      <c r="Q47" s="12"/>
+      <c r="R47" s="12"/>
+      <c r="S47" s="12"/>
+      <c r="T47" s="12"/>
+      <c r="U47" s="12"/>
+      <c r="V47" s="12"/>
+      <c r="W47" s="12"/>
+      <c r="X47" s="12"/>
+      <c r="Y47" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z47" s="18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AA47" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="1:27">
       <c r="A48" s="12">
         <v>44</v>
       </c>
@@ -25954,20 +26445,30 @@
       <c r="L48" s="12"/>
       <c r="M48" s="12"/>
       <c r="N48" s="12"/>
-      <c r="O48" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P48" s="18">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q48" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" customHeight="1" spans="1:17">
+      <c r="O48" s="12"/>
+      <c r="P48" s="12"/>
+      <c r="Q48" s="12"/>
+      <c r="R48" s="12"/>
+      <c r="S48" s="12"/>
+      <c r="T48" s="12"/>
+      <c r="U48" s="12"/>
+      <c r="V48" s="12"/>
+      <c r="W48" s="12"/>
+      <c r="X48" s="12"/>
+      <c r="Y48" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z48" s="18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AA48" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" spans="1:27">
       <c r="A49" s="12">
         <v>45</v>
       </c>
@@ -25988,7 +26489,7 @@
         <v>223.9</v>
       </c>
       <c r="H49" s="12">
-        <f t="shared" ref="H49:H83" si="4">G49*C49</f>
+        <f t="shared" ref="H49:H83" si="5">G49*C49</f>
         <v>447.8</v>
       </c>
       <c r="I49" s="12"/>
@@ -25997,20 +26498,30 @@
       <c r="L49" s="12"/>
       <c r="M49" s="12"/>
       <c r="N49" s="12"/>
-      <c r="O49" s="18">
-        <f t="shared" ref="O49:O83" si="5">SUM(I49:N49)</f>
-        <v>0</v>
-      </c>
-      <c r="P49" s="18">
-        <f t="shared" ref="P49:P83" si="6">C49-O49</f>
+      <c r="O49" s="12"/>
+      <c r="P49" s="12"/>
+      <c r="Q49" s="12"/>
+      <c r="R49" s="12"/>
+      <c r="S49" s="12"/>
+      <c r="T49" s="12"/>
+      <c r="U49" s="12"/>
+      <c r="V49" s="12"/>
+      <c r="W49" s="12"/>
+      <c r="X49" s="12"/>
+      <c r="Y49" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z49" s="18">
+        <f t="shared" ref="Z49:Z83" si="6">C49-Y49</f>
         <v>2</v>
       </c>
-      <c r="Q49" s="20">
-        <f t="shared" ref="Q49:Q83" si="7">IF(SUM(I49:N49)=C49,"完成",SUM(I49:N49))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" customHeight="1" spans="1:17">
+      <c r="AA49" s="20">
+        <f>IF(SUM(I49:N49)=C49,"完成",SUM(I49:N49))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="1:27">
       <c r="A50" s="12">
         <v>46</v>
       </c>
@@ -26031,7 +26542,7 @@
         <v>224</v>
       </c>
       <c r="H50" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>448</v>
       </c>
       <c r="I50" s="12"/>
@@ -26040,20 +26551,30 @@
       <c r="L50" s="12"/>
       <c r="M50" s="12"/>
       <c r="N50" s="12"/>
-      <c r="O50" s="18">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P50" s="18">
+      <c r="O50" s="12"/>
+      <c r="P50" s="12"/>
+      <c r="Q50" s="12"/>
+      <c r="R50" s="12"/>
+      <c r="S50" s="12"/>
+      <c r="T50" s="12"/>
+      <c r="U50" s="12"/>
+      <c r="V50" s="12"/>
+      <c r="W50" s="12"/>
+      <c r="X50" s="12"/>
+      <c r="Y50" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z50" s="18">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="Q50" s="20">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" customHeight="1" spans="1:17">
+      <c r="AA50" s="20">
+        <f t="shared" ref="AA49:AA83" si="7">IF(SUM(I50:N50)=C50,"完成",SUM(I50:N50))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="1:27">
       <c r="A51" s="12">
         <v>47</v>
       </c>
@@ -26074,7 +26595,7 @@
         <v>10</v>
       </c>
       <c r="H51" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>40</v>
       </c>
       <c r="I51" s="12"/>
@@ -26083,20 +26604,30 @@
       <c r="L51" s="12"/>
       <c r="M51" s="12"/>
       <c r="N51" s="12"/>
-      <c r="O51" s="18">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P51" s="18">
+      <c r="O51" s="12"/>
+      <c r="P51" s="12"/>
+      <c r="Q51" s="12"/>
+      <c r="R51" s="12"/>
+      <c r="S51" s="12"/>
+      <c r="T51" s="12"/>
+      <c r="U51" s="12"/>
+      <c r="V51" s="12"/>
+      <c r="W51" s="12"/>
+      <c r="X51" s="12"/>
+      <c r="Y51" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z51" s="18">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="Q51" s="20">
+      <c r="AA51" s="20">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="52" customHeight="1" spans="1:17">
+    <row r="52" customHeight="1" spans="1:27">
       <c r="A52" s="12">
         <v>48</v>
       </c>
@@ -26117,29 +26648,41 @@
         <v>5965.9</v>
       </c>
       <c r="H52" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5965.9</v>
       </c>
       <c r="I52" s="12"/>
       <c r="J52" s="12"/>
       <c r="K52" s="12"/>
       <c r="L52" s="12"/>
-      <c r="M52" s="12"/>
+      <c r="M52" s="12">
+        <v>1</v>
+      </c>
       <c r="N52" s="12"/>
-      <c r="O52" s="18">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P52" s="18">
+      <c r="O52" s="12"/>
+      <c r="P52" s="12"/>
+      <c r="Q52" s="12"/>
+      <c r="R52" s="12"/>
+      <c r="S52" s="12"/>
+      <c r="T52" s="12"/>
+      <c r="U52" s="12"/>
+      <c r="V52" s="12"/>
+      <c r="W52" s="12"/>
+      <c r="X52" s="12"/>
+      <c r="Y52" s="18">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Z52" s="18">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="Q52" s="20">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="20" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" customHeight="1" spans="1:17">
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" spans="1:27">
       <c r="A53" s="12">
         <v>49</v>
       </c>
@@ -26160,29 +26703,41 @@
         <v>5965.9</v>
       </c>
       <c r="H53" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5965.9</v>
       </c>
       <c r="I53" s="12"/>
       <c r="J53" s="12"/>
       <c r="K53" s="12"/>
       <c r="L53" s="12"/>
-      <c r="M53" s="12"/>
+      <c r="M53" s="12">
+        <v>1</v>
+      </c>
       <c r="N53" s="12"/>
-      <c r="O53" s="18">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P53" s="18">
+      <c r="O53" s="12"/>
+      <c r="P53" s="12"/>
+      <c r="Q53" s="12"/>
+      <c r="R53" s="12"/>
+      <c r="S53" s="12"/>
+      <c r="T53" s="12"/>
+      <c r="U53" s="12"/>
+      <c r="V53" s="12"/>
+      <c r="W53" s="12"/>
+      <c r="X53" s="12"/>
+      <c r="Y53" s="18">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Z53" s="18">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="Q53" s="20">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="20" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" customHeight="1" spans="1:17">
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="54" customHeight="1" spans="1:27">
       <c r="A54" s="12">
         <v>50</v>
       </c>
@@ -26203,7 +26758,7 @@
         <v>8795.8</v>
       </c>
       <c r="H54" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>35183.2</v>
       </c>
       <c r="I54" s="12"/>
@@ -26212,22 +26767,34 @@
         <v>2</v>
       </c>
       <c r="L54" s="12"/>
-      <c r="M54" s="12"/>
+      <c r="M54" s="12">
+        <v>1</v>
+      </c>
       <c r="N54" s="12"/>
-      <c r="O54" s="18">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="P54" s="18">
+      <c r="O54" s="12"/>
+      <c r="P54" s="12"/>
+      <c r="Q54" s="12"/>
+      <c r="R54" s="12"/>
+      <c r="S54" s="12"/>
+      <c r="T54" s="12"/>
+      <c r="U54" s="12"/>
+      <c r="V54" s="12"/>
+      <c r="W54" s="12"/>
+      <c r="X54" s="12"/>
+      <c r="Y54" s="18">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="Z54" s="18">
         <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="Q54" s="20">
+        <v>1</v>
+      </c>
+      <c r="AA54" s="20">
         <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" customHeight="1" spans="1:17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" customHeight="1" spans="1:27">
       <c r="A55" s="12">
         <v>51</v>
       </c>
@@ -26248,7 +26815,7 @@
         <v>9303.8</v>
       </c>
       <c r="H55" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9303.8</v>
       </c>
       <c r="I55" s="12"/>
@@ -26259,20 +26826,30 @@
       </c>
       <c r="M55" s="12"/>
       <c r="N55" s="12"/>
-      <c r="O55" s="18">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="P55" s="18">
+      <c r="O55" s="12"/>
+      <c r="P55" s="12"/>
+      <c r="Q55" s="12"/>
+      <c r="R55" s="12"/>
+      <c r="S55" s="12"/>
+      <c r="T55" s="12"/>
+      <c r="U55" s="12"/>
+      <c r="V55" s="12"/>
+      <c r="W55" s="12"/>
+      <c r="X55" s="12"/>
+      <c r="Y55" s="18">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Z55" s="18">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q55" s="20" t="str">
+      <c r="AA55" s="20" t="str">
         <f t="shared" si="7"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="56" customHeight="1" spans="1:17">
+    <row r="56" customHeight="1" spans="1:27">
       <c r="A56" s="12">
         <v>52</v>
       </c>
@@ -26293,7 +26870,7 @@
         <v>9303.8</v>
       </c>
       <c r="H56" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9303.8</v>
       </c>
       <c r="I56" s="12"/>
@@ -26302,20 +26879,30 @@
       <c r="L56" s="12"/>
       <c r="M56" s="12"/>
       <c r="N56" s="12"/>
-      <c r="O56" s="18">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P56" s="18">
+      <c r="O56" s="12"/>
+      <c r="P56" s="12"/>
+      <c r="Q56" s="12"/>
+      <c r="R56" s="12"/>
+      <c r="S56" s="12"/>
+      <c r="T56" s="12"/>
+      <c r="U56" s="12"/>
+      <c r="V56" s="12"/>
+      <c r="W56" s="12"/>
+      <c r="X56" s="12"/>
+      <c r="Y56" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z56" s="18">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="Q56" s="20">
+      <c r="AA56" s="20">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="57" customHeight="1" spans="1:17">
+    <row r="57" customHeight="1" spans="1:27">
       <c r="A57" s="12">
         <v>53</v>
       </c>
@@ -26336,7 +26923,7 @@
         <v>23893.2</v>
       </c>
       <c r="H57" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>191145.6</v>
       </c>
       <c r="I57" s="12">
@@ -26347,20 +26934,30 @@
       <c r="L57" s="12"/>
       <c r="M57" s="12"/>
       <c r="N57" s="12"/>
-      <c r="O57" s="18">
-        <f t="shared" si="5"/>
+      <c r="O57" s="12"/>
+      <c r="P57" s="12"/>
+      <c r="Q57" s="12"/>
+      <c r="R57" s="12"/>
+      <c r="S57" s="12"/>
+      <c r="T57" s="12"/>
+      <c r="U57" s="12"/>
+      <c r="V57" s="12"/>
+      <c r="W57" s="12"/>
+      <c r="X57" s="12"/>
+      <c r="Y57" s="18">
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="P57" s="18">
+      <c r="Z57" s="18">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="Q57" s="20">
+      <c r="AA57" s="20">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
-    <row r="58" customHeight="1" spans="1:17">
+    <row r="58" customHeight="1" spans="1:27">
       <c r="A58" s="12">
         <v>54</v>
       </c>
@@ -26381,7 +26978,7 @@
         <v>6692.8</v>
       </c>
       <c r="H58" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6692.8</v>
       </c>
       <c r="I58" s="12"/>
@@ -26390,20 +26987,30 @@
       <c r="L58" s="12"/>
       <c r="M58" s="12"/>
       <c r="N58" s="12"/>
-      <c r="O58" s="18">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P58" s="18">
+      <c r="O58" s="12"/>
+      <c r="P58" s="12"/>
+      <c r="Q58" s="12"/>
+      <c r="R58" s="12"/>
+      <c r="S58" s="12"/>
+      <c r="T58" s="12"/>
+      <c r="U58" s="12"/>
+      <c r="V58" s="12"/>
+      <c r="W58" s="12"/>
+      <c r="X58" s="12"/>
+      <c r="Y58" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z58" s="18">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="Q58" s="20">
+      <c r="AA58" s="20">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="59" customHeight="1" spans="1:17">
+    <row r="59" customHeight="1" spans="1:27">
       <c r="A59" s="12">
         <v>55</v>
       </c>
@@ -26424,7 +27031,7 @@
         <v>6692.8</v>
       </c>
       <c r="H59" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6692.8</v>
       </c>
       <c r="I59" s="12"/>
@@ -26433,20 +27040,30 @@
       <c r="L59" s="12"/>
       <c r="M59" s="12"/>
       <c r="N59" s="12"/>
-      <c r="O59" s="18">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P59" s="18">
+      <c r="O59" s="12"/>
+      <c r="P59" s="12"/>
+      <c r="Q59" s="12"/>
+      <c r="R59" s="12"/>
+      <c r="S59" s="12"/>
+      <c r="T59" s="12"/>
+      <c r="U59" s="12"/>
+      <c r="V59" s="12"/>
+      <c r="W59" s="12"/>
+      <c r="X59" s="12"/>
+      <c r="Y59" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z59" s="18">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="Q59" s="20">
+      <c r="AA59" s="20">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="60" customHeight="1" spans="1:17">
+    <row r="60" customHeight="1" spans="1:27">
       <c r="A60" s="12">
         <v>56</v>
       </c>
@@ -26467,7 +27084,7 @@
         <v>6267.2</v>
       </c>
       <c r="H60" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6267.2</v>
       </c>
       <c r="I60" s="12"/>
@@ -26476,20 +27093,30 @@
       <c r="L60" s="12"/>
       <c r="M60" s="12"/>
       <c r="N60" s="12"/>
-      <c r="O60" s="18">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P60" s="18">
+      <c r="O60" s="12"/>
+      <c r="P60" s="12"/>
+      <c r="Q60" s="12"/>
+      <c r="R60" s="12"/>
+      <c r="S60" s="12"/>
+      <c r="T60" s="12"/>
+      <c r="U60" s="12"/>
+      <c r="V60" s="12"/>
+      <c r="W60" s="12"/>
+      <c r="X60" s="12"/>
+      <c r="Y60" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z60" s="18">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="Q60" s="20">
+      <c r="AA60" s="20">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="61" customHeight="1" spans="1:17">
+    <row r="61" customHeight="1" spans="1:27">
       <c r="A61" s="12">
         <v>57</v>
       </c>
@@ -26510,7 +27137,7 @@
         <v>6267.2</v>
       </c>
       <c r="H61" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6267.2</v>
       </c>
       <c r="I61" s="12"/>
@@ -26519,20 +27146,30 @@
       <c r="L61" s="12"/>
       <c r="M61" s="12"/>
       <c r="N61" s="12"/>
-      <c r="O61" s="18">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P61" s="18">
+      <c r="O61" s="12"/>
+      <c r="P61" s="12"/>
+      <c r="Q61" s="12"/>
+      <c r="R61" s="12"/>
+      <c r="S61" s="12"/>
+      <c r="T61" s="12"/>
+      <c r="U61" s="12"/>
+      <c r="V61" s="12"/>
+      <c r="W61" s="12"/>
+      <c r="X61" s="12"/>
+      <c r="Y61" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z61" s="18">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="Q61" s="20">
+      <c r="AA61" s="20">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="62" customHeight="1" spans="1:17">
+    <row r="62" customHeight="1" spans="1:27">
       <c r="A62" s="12">
         <v>58</v>
       </c>
@@ -26553,7 +27190,7 @@
         <v>8795.8</v>
       </c>
       <c r="H62" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>87958</v>
       </c>
       <c r="I62" s="12"/>
@@ -26562,20 +27199,30 @@
       <c r="L62" s="12"/>
       <c r="M62" s="12"/>
       <c r="N62" s="12"/>
-      <c r="O62" s="18">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P62" s="18">
+      <c r="O62" s="12"/>
+      <c r="P62" s="12"/>
+      <c r="Q62" s="12"/>
+      <c r="R62" s="12"/>
+      <c r="S62" s="12"/>
+      <c r="T62" s="12"/>
+      <c r="U62" s="12"/>
+      <c r="V62" s="12"/>
+      <c r="W62" s="12"/>
+      <c r="X62" s="12"/>
+      <c r="Y62" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z62" s="18">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="Q62" s="20">
+      <c r="AA62" s="20">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="63" customHeight="1" spans="1:17">
+    <row r="63" customHeight="1" spans="1:27">
       <c r="A63" s="12">
         <v>59</v>
       </c>
@@ -26596,7 +27243,7 @@
         <v>8795.8</v>
       </c>
       <c r="H63" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8795.8</v>
       </c>
       <c r="I63" s="12"/>
@@ -26605,20 +27252,30 @@
       <c r="L63" s="12"/>
       <c r="M63" s="12"/>
       <c r="N63" s="12"/>
-      <c r="O63" s="18">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P63" s="18">
+      <c r="O63" s="12"/>
+      <c r="P63" s="12"/>
+      <c r="Q63" s="12"/>
+      <c r="R63" s="12"/>
+      <c r="S63" s="12"/>
+      <c r="T63" s="12"/>
+      <c r="U63" s="12"/>
+      <c r="V63" s="12"/>
+      <c r="W63" s="12"/>
+      <c r="X63" s="12"/>
+      <c r="Y63" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z63" s="18">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="Q63" s="20">
+      <c r="AA63" s="20">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="64" customHeight="1" spans="1:17">
+    <row r="64" customHeight="1" spans="1:27">
       <c r="A64" s="12">
         <v>60</v>
       </c>
@@ -26639,7 +27296,7 @@
         <v>8795.8</v>
       </c>
       <c r="H64" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8795.8</v>
       </c>
       <c r="I64" s="12"/>
@@ -26648,20 +27305,30 @@
       <c r="L64" s="12"/>
       <c r="M64" s="12"/>
       <c r="N64" s="12"/>
-      <c r="O64" s="18">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P64" s="18">
+      <c r="O64" s="12"/>
+      <c r="P64" s="12"/>
+      <c r="Q64" s="12"/>
+      <c r="R64" s="12"/>
+      <c r="S64" s="12"/>
+      <c r="T64" s="12"/>
+      <c r="U64" s="12"/>
+      <c r="V64" s="12"/>
+      <c r="W64" s="12"/>
+      <c r="X64" s="12"/>
+      <c r="Y64" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z64" s="18">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="Q64" s="20">
+      <c r="AA64" s="20">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="65" customHeight="1" spans="1:17">
+    <row r="65" customHeight="1" spans="1:27">
       <c r="A65" s="12">
         <v>61</v>
       </c>
@@ -26682,7 +27349,7 @@
         <v>6267.2</v>
       </c>
       <c r="H65" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6267.2</v>
       </c>
       <c r="I65" s="12"/>
@@ -26691,20 +27358,30 @@
       <c r="L65" s="12"/>
       <c r="M65" s="12"/>
       <c r="N65" s="12"/>
-      <c r="O65" s="18">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P65" s="18">
+      <c r="O65" s="12"/>
+      <c r="P65" s="12"/>
+      <c r="Q65" s="12"/>
+      <c r="R65" s="12"/>
+      <c r="S65" s="12"/>
+      <c r="T65" s="12"/>
+      <c r="U65" s="12"/>
+      <c r="V65" s="12"/>
+      <c r="W65" s="12"/>
+      <c r="X65" s="12"/>
+      <c r="Y65" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z65" s="18">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="Q65" s="20">
+      <c r="AA65" s="20">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="66" customHeight="1" spans="1:17">
+    <row r="66" customHeight="1" spans="1:27">
       <c r="A66" s="12">
         <v>62</v>
       </c>
@@ -26725,7 +27402,7 @@
         <v>6267.2</v>
       </c>
       <c r="H66" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6267.2</v>
       </c>
       <c r="I66" s="12"/>
@@ -26734,20 +27411,30 @@
       <c r="L66" s="12"/>
       <c r="M66" s="12"/>
       <c r="N66" s="12"/>
-      <c r="O66" s="18">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P66" s="18">
+      <c r="O66" s="12"/>
+      <c r="P66" s="12"/>
+      <c r="Q66" s="12"/>
+      <c r="R66" s="12"/>
+      <c r="S66" s="12"/>
+      <c r="T66" s="12"/>
+      <c r="U66" s="12"/>
+      <c r="V66" s="12"/>
+      <c r="W66" s="12"/>
+      <c r="X66" s="12"/>
+      <c r="Y66" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z66" s="18">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="Q66" s="20">
+      <c r="AA66" s="20">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="67" customHeight="1" spans="1:17">
+    <row r="67" customHeight="1" spans="1:27">
       <c r="A67" s="12">
         <v>63</v>
       </c>
@@ -26768,7 +27455,7 @@
         <v>9579.2</v>
       </c>
       <c r="H67" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9579.2</v>
       </c>
       <c r="I67" s="12"/>
@@ -26777,20 +27464,30 @@
       <c r="L67" s="12"/>
       <c r="M67" s="12"/>
       <c r="N67" s="12"/>
-      <c r="O67" s="18">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P67" s="18">
+      <c r="O67" s="12"/>
+      <c r="P67" s="12"/>
+      <c r="Q67" s="12"/>
+      <c r="R67" s="12"/>
+      <c r="S67" s="12"/>
+      <c r="T67" s="12"/>
+      <c r="U67" s="12"/>
+      <c r="V67" s="12"/>
+      <c r="W67" s="12"/>
+      <c r="X67" s="12"/>
+      <c r="Y67" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z67" s="18">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="Q67" s="20">
+      <c r="AA67" s="20">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="68" customHeight="1" spans="1:17">
+    <row r="68" customHeight="1" spans="1:27">
       <c r="A68" s="12">
         <v>64</v>
       </c>
@@ -26811,7 +27508,7 @@
         <v>9579.2</v>
       </c>
       <c r="H68" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9579.2</v>
       </c>
       <c r="I68" s="12"/>
@@ -26820,20 +27517,30 @@
       <c r="L68" s="12"/>
       <c r="M68" s="12"/>
       <c r="N68" s="12"/>
-      <c r="O68" s="18">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P68" s="18">
+      <c r="O68" s="12"/>
+      <c r="P68" s="12"/>
+      <c r="Q68" s="12"/>
+      <c r="R68" s="12"/>
+      <c r="S68" s="12"/>
+      <c r="T68" s="12"/>
+      <c r="U68" s="12"/>
+      <c r="V68" s="12"/>
+      <c r="W68" s="12"/>
+      <c r="X68" s="12"/>
+      <c r="Y68" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z68" s="18">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="Q68" s="20">
+      <c r="AA68" s="20">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="69" customHeight="1" spans="1:17">
+    <row r="69" customHeight="1" spans="1:27">
       <c r="A69" s="12">
         <v>65</v>
       </c>
@@ -26854,7 +27561,7 @@
         <v>9303.8</v>
       </c>
       <c r="H69" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9303.8</v>
       </c>
       <c r="I69" s="12"/>
@@ -26863,20 +27570,30 @@
       <c r="L69" s="12"/>
       <c r="M69" s="12"/>
       <c r="N69" s="12"/>
-      <c r="O69" s="18">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P69" s="18">
+      <c r="O69" s="12"/>
+      <c r="P69" s="12"/>
+      <c r="Q69" s="12"/>
+      <c r="R69" s="12"/>
+      <c r="S69" s="12"/>
+      <c r="T69" s="12"/>
+      <c r="U69" s="12"/>
+      <c r="V69" s="12"/>
+      <c r="W69" s="12"/>
+      <c r="X69" s="12"/>
+      <c r="Y69" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z69" s="18">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="Q69" s="20">
+      <c r="AA69" s="20">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="70" customHeight="1" spans="1:17">
+    <row r="70" customHeight="1" spans="1:27">
       <c r="A70" s="12">
         <v>66</v>
       </c>
@@ -26897,7 +27614,7 @@
         <v>9303.8</v>
       </c>
       <c r="H70" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9303.8</v>
       </c>
       <c r="I70" s="12"/>
@@ -26906,20 +27623,30 @@
       <c r="L70" s="12"/>
       <c r="M70" s="12"/>
       <c r="N70" s="12"/>
-      <c r="O70" s="18">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P70" s="18">
+      <c r="O70" s="12"/>
+      <c r="P70" s="12"/>
+      <c r="Q70" s="12"/>
+      <c r="R70" s="12"/>
+      <c r="S70" s="12"/>
+      <c r="T70" s="12"/>
+      <c r="U70" s="12"/>
+      <c r="V70" s="12"/>
+      <c r="W70" s="12"/>
+      <c r="X70" s="12"/>
+      <c r="Y70" s="18">
+        <f>SUM(I70:X70)</f>
+        <v>0</v>
+      </c>
+      <c r="Z70" s="18">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="Q70" s="20">
+      <c r="AA70" s="20">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="71" customHeight="1" spans="1:17">
+    <row r="71" customHeight="1" spans="1:27">
       <c r="A71" s="12">
         <v>67</v>
       </c>
@@ -26940,7 +27667,7 @@
         <v>23893.2</v>
       </c>
       <c r="H71" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>23893.2</v>
       </c>
       <c r="I71" s="12"/>
@@ -26949,20 +27676,30 @@
       <c r="L71" s="12"/>
       <c r="M71" s="12"/>
       <c r="N71" s="12"/>
-      <c r="O71" s="18">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P71" s="18">
+      <c r="O71" s="12"/>
+      <c r="P71" s="12"/>
+      <c r="Q71" s="12"/>
+      <c r="R71" s="12"/>
+      <c r="S71" s="12"/>
+      <c r="T71" s="12"/>
+      <c r="U71" s="12"/>
+      <c r="V71" s="12"/>
+      <c r="W71" s="12"/>
+      <c r="X71" s="12"/>
+      <c r="Y71" s="18">
+        <f>SUM(I71:X71)</f>
+        <v>0</v>
+      </c>
+      <c r="Z71" s="18">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="Q71" s="20">
+      <c r="AA71" s="20">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="72" customHeight="1" spans="1:17">
+    <row r="72" customHeight="1" spans="1:27">
       <c r="A72" s="12">
         <v>68</v>
       </c>
@@ -26983,7 +27720,7 @@
         <v>23893.2</v>
       </c>
       <c r="H72" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>23893.2</v>
       </c>
       <c r="I72" s="12"/>
@@ -26992,20 +27729,30 @@
       <c r="L72" s="12"/>
       <c r="M72" s="12"/>
       <c r="N72" s="12"/>
-      <c r="O72" s="18">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P72" s="18">
+      <c r="O72" s="12"/>
+      <c r="P72" s="12"/>
+      <c r="Q72" s="12"/>
+      <c r="R72" s="12"/>
+      <c r="S72" s="12"/>
+      <c r="T72" s="12"/>
+      <c r="U72" s="12"/>
+      <c r="V72" s="12"/>
+      <c r="W72" s="12"/>
+      <c r="X72" s="12"/>
+      <c r="Y72" s="18">
+        <f>SUM(I72:X72)</f>
+        <v>0</v>
+      </c>
+      <c r="Z72" s="18">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="Q72" s="20">
+      <c r="AA72" s="20">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="73" customHeight="1" spans="1:17">
+    <row r="73" customHeight="1" spans="1:27">
       <c r="A73" s="12">
         <v>69</v>
       </c>
@@ -27026,7 +27773,7 @@
         <v>9303.8</v>
       </c>
       <c r="H73" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9303.8</v>
       </c>
       <c r="I73" s="12"/>
@@ -27035,20 +27782,30 @@
       <c r="L73" s="12"/>
       <c r="M73" s="12"/>
       <c r="N73" s="12"/>
-      <c r="O73" s="18">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P73" s="18">
+      <c r="O73" s="12"/>
+      <c r="P73" s="12"/>
+      <c r="Q73" s="12"/>
+      <c r="R73" s="12"/>
+      <c r="S73" s="12"/>
+      <c r="T73" s="12"/>
+      <c r="U73" s="12"/>
+      <c r="V73" s="12"/>
+      <c r="W73" s="12"/>
+      <c r="X73" s="12"/>
+      <c r="Y73" s="18">
+        <f>SUM(I73:X73)</f>
+        <v>0</v>
+      </c>
+      <c r="Z73" s="18">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="Q73" s="20">
+      <c r="AA73" s="20">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="74" customHeight="1" spans="1:17">
+    <row r="74" customHeight="1" spans="1:27">
       <c r="A74" s="12">
         <v>70</v>
       </c>
@@ -27069,7 +27826,7 @@
         <v>9303.8</v>
       </c>
       <c r="H74" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9303.8</v>
       </c>
       <c r="I74" s="12"/>
@@ -27078,20 +27835,30 @@
       <c r="L74" s="12"/>
       <c r="M74" s="12"/>
       <c r="N74" s="12"/>
-      <c r="O74" s="18">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P74" s="18">
+      <c r="O74" s="12"/>
+      <c r="P74" s="12"/>
+      <c r="Q74" s="12"/>
+      <c r="R74" s="12"/>
+      <c r="S74" s="12"/>
+      <c r="T74" s="12"/>
+      <c r="U74" s="12"/>
+      <c r="V74" s="12"/>
+      <c r="W74" s="12"/>
+      <c r="X74" s="12"/>
+      <c r="Y74" s="18">
+        <f>SUM(I74:X74)</f>
+        <v>0</v>
+      </c>
+      <c r="Z74" s="18">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="Q74" s="20">
+      <c r="AA74" s="20">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="75" customHeight="1" spans="1:17">
+    <row r="75" customHeight="1" spans="1:27">
       <c r="A75" s="12">
         <v>71</v>
       </c>
@@ -27112,7 +27879,7 @@
         <v>9240.2</v>
       </c>
       <c r="H75" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9240.2</v>
       </c>
       <c r="I75" s="12"/>
@@ -27121,20 +27888,30 @@
       <c r="L75" s="12"/>
       <c r="M75" s="12"/>
       <c r="N75" s="12"/>
-      <c r="O75" s="18">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P75" s="18">
+      <c r="O75" s="12"/>
+      <c r="P75" s="12"/>
+      <c r="Q75" s="12"/>
+      <c r="R75" s="12"/>
+      <c r="S75" s="12"/>
+      <c r="T75" s="12"/>
+      <c r="U75" s="12"/>
+      <c r="V75" s="12"/>
+      <c r="W75" s="12"/>
+      <c r="X75" s="12"/>
+      <c r="Y75" s="18">
+        <f>SUM(I75:X75)</f>
+        <v>0</v>
+      </c>
+      <c r="Z75" s="18">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="Q75" s="20">
+      <c r="AA75" s="20">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="76" customHeight="1" spans="1:17">
+    <row r="76" customHeight="1" spans="1:27">
       <c r="A76" s="12">
         <v>72</v>
       </c>
@@ -27155,7 +27932,7 @@
         <v>9240.2</v>
       </c>
       <c r="H76" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9240.2</v>
       </c>
       <c r="I76" s="12"/>
@@ -27164,20 +27941,30 @@
       <c r="L76" s="12"/>
       <c r="M76" s="12"/>
       <c r="N76" s="12"/>
-      <c r="O76" s="18">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P76" s="18">
+      <c r="O76" s="12"/>
+      <c r="P76" s="12"/>
+      <c r="Q76" s="12"/>
+      <c r="R76" s="12"/>
+      <c r="S76" s="12"/>
+      <c r="T76" s="12"/>
+      <c r="U76" s="12"/>
+      <c r="V76" s="12"/>
+      <c r="W76" s="12"/>
+      <c r="X76" s="12"/>
+      <c r="Y76" s="18">
+        <f>SUM(I76:X76)</f>
+        <v>0</v>
+      </c>
+      <c r="Z76" s="18">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="Q76" s="20">
+      <c r="AA76" s="20">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="77" customHeight="1" spans="1:17">
+    <row r="77" customHeight="1" spans="1:27">
       <c r="A77" s="12">
         <v>73</v>
       </c>
@@ -27198,7 +27985,7 @@
         <v>15.4</v>
       </c>
       <c r="H77" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>369.6</v>
       </c>
       <c r="I77" s="12"/>
@@ -27207,20 +27994,30 @@
       <c r="L77" s="12"/>
       <c r="M77" s="12"/>
       <c r="N77" s="12"/>
-      <c r="O77" s="18">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P77" s="18">
+      <c r="O77" s="12"/>
+      <c r="P77" s="12"/>
+      <c r="Q77" s="12"/>
+      <c r="R77" s="12"/>
+      <c r="S77" s="12"/>
+      <c r="T77" s="12"/>
+      <c r="U77" s="12"/>
+      <c r="V77" s="12"/>
+      <c r="W77" s="12"/>
+      <c r="X77" s="12"/>
+      <c r="Y77" s="18">
+        <f>SUM(I77:X77)</f>
+        <v>0</v>
+      </c>
+      <c r="Z77" s="18">
         <f t="shared" si="6"/>
         <v>24</v>
       </c>
-      <c r="Q77" s="20">
+      <c r="AA77" s="20">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="78" customHeight="1" spans="1:17">
+    <row r="78" customHeight="1" spans="1:27">
       <c r="A78" s="12">
         <v>74</v>
       </c>
@@ -27241,7 +28038,7 @@
         <v>18.5</v>
       </c>
       <c r="H78" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>259</v>
       </c>
       <c r="I78" s="12"/>
@@ -27250,20 +28047,30 @@
       <c r="L78" s="12"/>
       <c r="M78" s="12"/>
       <c r="N78" s="12"/>
-      <c r="O78" s="18">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P78" s="18">
+      <c r="O78" s="12"/>
+      <c r="P78" s="12"/>
+      <c r="Q78" s="12"/>
+      <c r="R78" s="12"/>
+      <c r="S78" s="12"/>
+      <c r="T78" s="12"/>
+      <c r="U78" s="12"/>
+      <c r="V78" s="12"/>
+      <c r="W78" s="12"/>
+      <c r="X78" s="12"/>
+      <c r="Y78" s="18">
+        <f>SUM(I78:X78)</f>
+        <v>0</v>
+      </c>
+      <c r="Z78" s="18">
         <f t="shared" si="6"/>
         <v>14</v>
       </c>
-      <c r="Q78" s="20">
+      <c r="AA78" s="20">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="79" customHeight="1" spans="1:17">
+    <row r="79" customHeight="1" spans="1:27">
       <c r="A79" s="12">
         <v>75</v>
       </c>
@@ -27284,7 +28091,7 @@
         <v>28.3</v>
       </c>
       <c r="H79" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>792.4</v>
       </c>
       <c r="I79" s="12"/>
@@ -27293,20 +28100,30 @@
       <c r="L79" s="12"/>
       <c r="M79" s="12"/>
       <c r="N79" s="12"/>
-      <c r="O79" s="18">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P79" s="18">
+      <c r="O79" s="12"/>
+      <c r="P79" s="12"/>
+      <c r="Q79" s="12"/>
+      <c r="R79" s="12"/>
+      <c r="S79" s="12"/>
+      <c r="T79" s="12"/>
+      <c r="U79" s="12"/>
+      <c r="V79" s="12"/>
+      <c r="W79" s="12"/>
+      <c r="X79" s="12"/>
+      <c r="Y79" s="18">
+        <f>SUM(I79:X79)</f>
+        <v>0</v>
+      </c>
+      <c r="Z79" s="18">
         <f t="shared" si="6"/>
         <v>28</v>
       </c>
-      <c r="Q79" s="20">
+      <c r="AA79" s="20">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="80" customHeight="1" spans="1:17">
+    <row r="80" customHeight="1" spans="1:27">
       <c r="A80" s="12">
         <v>76</v>
       </c>
@@ -27327,7 +28144,7 @@
         <v>25.9</v>
       </c>
       <c r="H80" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>725.2</v>
       </c>
       <c r="I80" s="12"/>
@@ -27336,20 +28153,30 @@
       <c r="L80" s="12"/>
       <c r="M80" s="12"/>
       <c r="N80" s="12"/>
-      <c r="O80" s="18">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P80" s="18">
+      <c r="O80" s="12"/>
+      <c r="P80" s="12"/>
+      <c r="Q80" s="12"/>
+      <c r="R80" s="12"/>
+      <c r="S80" s="12"/>
+      <c r="T80" s="12"/>
+      <c r="U80" s="12"/>
+      <c r="V80" s="12"/>
+      <c r="W80" s="12"/>
+      <c r="X80" s="12"/>
+      <c r="Y80" s="18">
+        <f>SUM(I80:X80)</f>
+        <v>0</v>
+      </c>
+      <c r="Z80" s="18">
         <f t="shared" si="6"/>
         <v>28</v>
       </c>
-      <c r="Q80" s="20">
+      <c r="AA80" s="20">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="81" customHeight="1" spans="1:17">
+    <row r="81" customHeight="1" spans="1:27">
       <c r="A81" s="12">
         <v>77</v>
       </c>
@@ -27370,7 +28197,7 @@
         <v>28.8</v>
       </c>
       <c r="H81" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1497.6</v>
       </c>
       <c r="I81" s="12"/>
@@ -27379,20 +28206,30 @@
       <c r="L81" s="12"/>
       <c r="M81" s="12"/>
       <c r="N81" s="12"/>
-      <c r="O81" s="18">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P81" s="18">
+      <c r="O81" s="12"/>
+      <c r="P81" s="12"/>
+      <c r="Q81" s="12"/>
+      <c r="R81" s="12"/>
+      <c r="S81" s="12"/>
+      <c r="T81" s="12"/>
+      <c r="U81" s="12"/>
+      <c r="V81" s="12"/>
+      <c r="W81" s="12"/>
+      <c r="X81" s="12"/>
+      <c r="Y81" s="18">
+        <f>SUM(I81:X81)</f>
+        <v>0</v>
+      </c>
+      <c r="Z81" s="18">
         <f t="shared" si="6"/>
         <v>52</v>
       </c>
-      <c r="Q81" s="20">
+      <c r="AA81" s="20">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="82" customHeight="1" spans="1:17">
+    <row r="82" customHeight="1" spans="1:27">
       <c r="A82" s="12">
         <v>78</v>
       </c>
@@ -27413,7 +28250,7 @@
         <v>35.3</v>
       </c>
       <c r="H82" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>282.4</v>
       </c>
       <c r="I82" s="12"/>
@@ -27422,20 +28259,30 @@
       <c r="L82" s="12"/>
       <c r="M82" s="12"/>
       <c r="N82" s="12"/>
-      <c r="O82" s="18">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P82" s="18">
+      <c r="O82" s="12"/>
+      <c r="P82" s="12"/>
+      <c r="Q82" s="12"/>
+      <c r="R82" s="12"/>
+      <c r="S82" s="12"/>
+      <c r="T82" s="12"/>
+      <c r="U82" s="12"/>
+      <c r="V82" s="12"/>
+      <c r="W82" s="12"/>
+      <c r="X82" s="12"/>
+      <c r="Y82" s="18">
+        <f>SUM(I82:X82)</f>
+        <v>0</v>
+      </c>
+      <c r="Z82" s="18">
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="Q82" s="20">
+      <c r="AA82" s="20">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="83" customHeight="1" spans="1:17">
+    <row r="83" customHeight="1" spans="1:27">
       <c r="A83" s="12">
         <v>79</v>
       </c>
@@ -27456,7 +28303,7 @@
         <v>31.8</v>
       </c>
       <c r="H83" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>254.4</v>
       </c>
       <c r="I83" s="12"/>
@@ -27465,30 +28312,40 @@
       <c r="L83" s="12"/>
       <c r="M83" s="12"/>
       <c r="N83" s="12"/>
-      <c r="O83" s="18">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P83" s="18">
+      <c r="O83" s="12"/>
+      <c r="P83" s="12"/>
+      <c r="Q83" s="12"/>
+      <c r="R83" s="12"/>
+      <c r="S83" s="12"/>
+      <c r="T83" s="12"/>
+      <c r="U83" s="12"/>
+      <c r="V83" s="12"/>
+      <c r="W83" s="12"/>
+      <c r="X83" s="12"/>
+      <c r="Y83" s="18">
+        <f>SUM(I83:X83)</f>
+        <v>0</v>
+      </c>
+      <c r="Z83" s="18">
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="Q83" s="20">
+      <c r="AA83" s="20">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:R83">
-    <sortState ref="A4:R83">
+  <autoFilter ref="A4:AB83">
+    <sortState ref="A4:AB83">
       <sortCondition ref="I4:I75"/>
     </sortState>
     <extLst/>
   </autoFilter>
   <mergeCells count="12">
-    <mergeCell ref="B1:Q1"/>
+    <mergeCell ref="B1:AA1"/>
     <mergeCell ref="A2:D2"/>
-    <mergeCell ref="I3:P3"/>
+    <mergeCell ref="I3:Z3"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
@@ -27497,7 +28354,7 @@
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="H3:H4"/>
-    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="AA3:AA4"/>
   </mergeCells>
   <pageMargins left="0.39" right="0.27" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="600" verticalDpi="600"/>

--- a/拼装统计.xlsx
+++ b/拼装统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30048" windowHeight="13740" activeTab="4"/>
+    <workbookView windowWidth="30048" windowHeight="13740" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="义乌奥晶办公室食堂（完成)" sheetId="22" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="福州地铁" sheetId="12" r:id="rId3"/>
     <sheet name="广东华丰" sheetId="21" r:id="rId4"/>
     <sheet name="大东海" sheetId="20" r:id="rId5"/>
-    <sheet name="模板 (8)" sheetId="19" r:id="rId6"/>
+    <sheet name="诸暨煤矿机械2#厂房TS" sheetId="19" r:id="rId6"/>
     <sheet name="模板 (7)" sheetId="18" r:id="rId7"/>
     <sheet name="模板 (6)" sheetId="17" r:id="rId8"/>
     <sheet name="模板 (4)" sheetId="15" r:id="rId9"/>
@@ -26,7 +26,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">福州地铁!$A$4:$R$75</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">广东华丰!$A$4:$AE$166</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">大东海!$A$4:$AB$83</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'模板 (8)'!$A$4:$R$75</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'诸暨煤矿机械2#厂房TS'!$A$4:$AB$75</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'模板 (7)'!$A$4:$R$75</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'模板 (6)'!$A$4:$R$75</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'模板 (4)'!$A$4:$R$75</definedName>
@@ -40,7 +40,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="8">'模板 (4)'!$A$2:$H$29</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'模板 (6)'!$A$2:$H$29</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'模板 (7)'!$A$2:$H$29</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'模板 (8)'!$A$2:$H$29</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'诸暨煤矿机械2#厂房TS'!$A$2:$H$29</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">大东海!$A$2:$H$29</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">广东华丰!$A$2:$H$29</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'义乌奥晶办公室食堂（完成)'!$A$2:$H$29</definedName>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="420">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1277,6 +1277,39 @@
   </si>
   <si>
     <t>PL30*540</t>
+  </si>
+  <si>
+    <t>工程名称：诸暨煤矿机械2#厂房TS</t>
+  </si>
+  <si>
+    <t>GZ2-1</t>
+  </si>
+  <si>
+    <t>HI450-8-12*300</t>
+  </si>
+  <si>
+    <t>GZ2-2</t>
+  </si>
+  <si>
+    <t>GZ2-3</t>
+  </si>
+  <si>
+    <t>GZ2-4</t>
+  </si>
+  <si>
+    <t>GZ2-5</t>
+  </si>
+  <si>
+    <t>GZ2-6</t>
+  </si>
+  <si>
+    <t>GZ2-7</t>
+  </si>
+  <si>
+    <t>GZ2-8</t>
+  </si>
+  <si>
+    <t>GZ2-9</t>
   </si>
 </sst>
 </file>
@@ -1284,15 +1317,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="9">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="178" formatCode="0.000_);[Red]\(0.000\)"/>
-    <numFmt numFmtId="179" formatCode="0.00_ "/>
-    <numFmt numFmtId="180" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="179" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="180" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -1342,6 +1375,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1349,47 +1390,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1403,30 +1405,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1441,7 +1420,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1449,14 +1451,6 @@
     <font>
       <b/>
       <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1473,9 +1467,33 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1483,6 +1501,21 @@
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1513,7 +1546,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1525,13 +1564,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1543,43 +1600,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1591,13 +1618,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1615,25 +1642,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1645,49 +1666,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1758,26 +1791,49 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1797,17 +1853,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1829,26 +1879,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1860,10 +1893,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1872,143 +1905,143 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2075,7 +2108,7 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2090,13 +2123,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2111,7 +2141,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2589,7 +2619,7 @@
       <c r="G5" s="13">
         <v>2493.1</v>
       </c>
-      <c r="H5" s="34">
+      <c r="H5" s="33">
         <f>G5*C5</f>
         <v>2493.1</v>
       </c>
@@ -2630,7 +2660,7 @@
       <c r="G6" s="13">
         <v>2496</v>
       </c>
-      <c r="H6" s="34">
+      <c r="H6" s="33">
         <f t="shared" ref="H6:H37" si="2">G6*C6</f>
         <v>2496</v>
       </c>
@@ -2671,7 +2701,7 @@
       <c r="G7" s="13">
         <v>2483.1</v>
       </c>
-      <c r="H7" s="34">
+      <c r="H7" s="33">
         <f t="shared" si="2"/>
         <v>9932.4</v>
       </c>
@@ -2714,7 +2744,7 @@
       <c r="G8" s="13">
         <v>2486</v>
       </c>
-      <c r="H8" s="34">
+      <c r="H8" s="33">
         <f t="shared" si="2"/>
         <v>9944</v>
       </c>
@@ -2755,7 +2785,7 @@
       <c r="G9" s="12">
         <v>2496</v>
       </c>
-      <c r="H9" s="34">
+      <c r="H9" s="33">
         <f t="shared" si="2"/>
         <v>2496</v>
       </c>
@@ -2796,7 +2826,7 @@
       <c r="G10" s="12">
         <v>2493.1</v>
       </c>
-      <c r="H10" s="34">
+      <c r="H10" s="33">
         <f t="shared" si="2"/>
         <v>2493.1</v>
       </c>
@@ -2837,7 +2867,7 @@
       <c r="G11" s="12">
         <v>1277.7</v>
       </c>
-      <c r="H11" s="34">
+      <c r="H11" s="33">
         <f t="shared" si="2"/>
         <v>1277.7</v>
       </c>
@@ -2878,7 +2908,7 @@
       <c r="G12" s="12">
         <v>1479.6</v>
       </c>
-      <c r="H12" s="34">
+      <c r="H12" s="33">
         <f t="shared" si="2"/>
         <v>1479.6</v>
       </c>
@@ -2919,7 +2949,7 @@
       <c r="G13" s="12">
         <v>1476.1</v>
       </c>
-      <c r="H13" s="34">
+      <c r="H13" s="33">
         <f t="shared" si="2"/>
         <v>1476.1</v>
       </c>
@@ -2960,7 +2990,7 @@
       <c r="G14" s="13">
         <v>113.1</v>
       </c>
-      <c r="H14" s="34">
+      <c r="H14" s="33">
         <f t="shared" si="2"/>
         <v>113.1</v>
       </c>
@@ -3001,7 +3031,7 @@
       <c r="G15" s="13">
         <v>113.1</v>
       </c>
-      <c r="H15" s="34">
+      <c r="H15" s="33">
         <f t="shared" si="2"/>
         <v>226.2</v>
       </c>
@@ -3042,7 +3072,7 @@
       <c r="G16" s="13">
         <v>89.5</v>
       </c>
-      <c r="H16" s="34">
+      <c r="H16" s="33">
         <f t="shared" si="2"/>
         <v>179</v>
       </c>
@@ -3083,7 +3113,7 @@
       <c r="G17" s="13">
         <v>61.5</v>
       </c>
-      <c r="H17" s="34">
+      <c r="H17" s="33">
         <f t="shared" si="2"/>
         <v>123</v>
       </c>
@@ -3124,7 +3154,7 @@
       <c r="G18" s="13">
         <v>105.4</v>
       </c>
-      <c r="H18" s="34">
+      <c r="H18" s="33">
         <f t="shared" si="2"/>
         <v>210.8</v>
       </c>
@@ -3165,7 +3195,7 @@
       <c r="G19" s="13">
         <v>113.1</v>
       </c>
-      <c r="H19" s="34">
+      <c r="H19" s="33">
         <f t="shared" si="2"/>
         <v>113.1</v>
       </c>
@@ -3200,7 +3230,7 @@
       <c r="E20" s="12"/>
       <c r="F20" s="13"/>
       <c r="G20" s="13"/>
-      <c r="H20" s="34">
+      <c r="H20" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3233,7 +3263,7 @@
       <c r="E21" s="12"/>
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
-      <c r="H21" s="34">
+      <c r="H21" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3266,7 +3296,7 @@
       <c r="E22" s="12"/>
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
-      <c r="H22" s="34">
+      <c r="H22" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3300,7 +3330,7 @@
       <c r="E23" s="12"/>
       <c r="F23" s="13"/>
       <c r="G23" s="13"/>
-      <c r="H23" s="34">
+      <c r="H23" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3333,7 +3363,7 @@
       <c r="E24" s="12"/>
       <c r="F24" s="13"/>
       <c r="G24" s="13"/>
-      <c r="H24" s="34">
+      <c r="H24" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3366,7 +3396,7 @@
       <c r="E25" s="12"/>
       <c r="F25" s="13"/>
       <c r="G25" s="13"/>
-      <c r="H25" s="34">
+      <c r="H25" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3399,7 +3429,7 @@
       <c r="E26" s="12"/>
       <c r="F26" s="13"/>
       <c r="G26" s="13"/>
-      <c r="H26" s="34">
+      <c r="H26" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3432,7 +3462,7 @@
       <c r="E27" s="12"/>
       <c r="F27" s="13"/>
       <c r="G27" s="13"/>
-      <c r="H27" s="34">
+      <c r="H27" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3465,7 +3495,7 @@
       <c r="E28" s="12"/>
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
-      <c r="H28" s="34">
+      <c r="H28" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3498,7 +3528,7 @@
       <c r="E29" s="12"/>
       <c r="F29" s="13"/>
       <c r="G29" s="13"/>
-      <c r="H29" s="34">
+      <c r="H29" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3531,7 +3561,7 @@
       <c r="E30" s="12"/>
       <c r="F30" s="13"/>
       <c r="G30" s="13"/>
-      <c r="H30" s="34">
+      <c r="H30" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3564,7 +3594,7 @@
       <c r="E31" s="12"/>
       <c r="F31" s="13"/>
       <c r="G31" s="13"/>
-      <c r="H31" s="34">
+      <c r="H31" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3597,7 +3627,7 @@
       <c r="E32" s="12"/>
       <c r="F32" s="13"/>
       <c r="G32" s="13"/>
-      <c r="H32" s="34">
+      <c r="H32" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3630,7 +3660,7 @@
       <c r="E33" s="12"/>
       <c r="F33" s="13"/>
       <c r="G33" s="13"/>
-      <c r="H33" s="34">
+      <c r="H33" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3663,7 +3693,7 @@
       <c r="E34" s="12"/>
       <c r="F34" s="13"/>
       <c r="G34" s="13"/>
-      <c r="H34" s="34">
+      <c r="H34" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3696,7 +3726,7 @@
       <c r="E35" s="12"/>
       <c r="F35" s="13"/>
       <c r="G35" s="13"/>
-      <c r="H35" s="34">
+      <c r="H35" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3729,7 +3759,7 @@
       <c r="E36" s="12"/>
       <c r="F36" s="13"/>
       <c r="G36" s="13"/>
-      <c r="H36" s="34">
+      <c r="H36" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3762,7 +3792,7 @@
       <c r="E37" s="12"/>
       <c r="F37" s="13"/>
       <c r="G37" s="13"/>
-      <c r="H37" s="34">
+      <c r="H37" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3795,7 +3825,7 @@
       <c r="E38" s="12"/>
       <c r="F38" s="13"/>
       <c r="G38" s="13"/>
-      <c r="H38" s="34">
+      <c r="H38" s="33">
         <f t="shared" ref="H38:H67" si="4">G38*C38</f>
         <v>0</v>
       </c>
@@ -3828,7 +3858,7 @@
       <c r="E39" s="12"/>
       <c r="F39" s="13"/>
       <c r="G39" s="13"/>
-      <c r="H39" s="34">
+      <c r="H39" s="33">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -3861,7 +3891,7 @@
       <c r="E40" s="12"/>
       <c r="F40" s="13"/>
       <c r="G40" s="13"/>
-      <c r="H40" s="34">
+      <c r="H40" s="33">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -3894,7 +3924,7 @@
       <c r="E41" s="12"/>
       <c r="F41" s="13"/>
       <c r="G41" s="13"/>
-      <c r="H41" s="34">
+      <c r="H41" s="33">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -3927,7 +3957,7 @@
       <c r="E42" s="12"/>
       <c r="F42" s="13"/>
       <c r="G42" s="13"/>
-      <c r="H42" s="34">
+      <c r="H42" s="33">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -3960,7 +3990,7 @@
       <c r="E43" s="12"/>
       <c r="F43" s="13"/>
       <c r="G43" s="13"/>
-      <c r="H43" s="34">
+      <c r="H43" s="33">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -3993,7 +4023,7 @@
       <c r="E44" s="12"/>
       <c r="F44" s="13"/>
       <c r="G44" s="13"/>
-      <c r="H44" s="34">
+      <c r="H44" s="33">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4026,7 +4056,7 @@
       <c r="E45" s="12"/>
       <c r="F45" s="13"/>
       <c r="G45" s="13"/>
-      <c r="H45" s="34">
+      <c r="H45" s="33">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4059,7 +4089,7 @@
       <c r="E46" s="12"/>
       <c r="F46" s="13"/>
       <c r="G46" s="13"/>
-      <c r="H46" s="34">
+      <c r="H46" s="33">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4092,7 +4122,7 @@
       <c r="E47" s="12"/>
       <c r="F47" s="13"/>
       <c r="G47" s="13"/>
-      <c r="H47" s="34">
+      <c r="H47" s="33">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4125,7 +4155,7 @@
       <c r="E48" s="12"/>
       <c r="F48" s="13"/>
       <c r="G48" s="13"/>
-      <c r="H48" s="34">
+      <c r="H48" s="33">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4158,7 +4188,7 @@
       <c r="E49" s="12"/>
       <c r="F49" s="13"/>
       <c r="G49" s="13"/>
-      <c r="H49" s="34">
+      <c r="H49" s="33">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4191,7 +4221,7 @@
       <c r="E50" s="12"/>
       <c r="F50" s="13"/>
       <c r="G50" s="13"/>
-      <c r="H50" s="34">
+      <c r="H50" s="33">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4224,7 +4254,7 @@
       <c r="E51" s="12"/>
       <c r="F51" s="13"/>
       <c r="G51" s="13"/>
-      <c r="H51" s="34">
+      <c r="H51" s="33">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4257,7 +4287,7 @@
       <c r="E52" s="12"/>
       <c r="F52" s="13"/>
       <c r="G52" s="13"/>
-      <c r="H52" s="34">
+      <c r="H52" s="33">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4290,7 +4320,7 @@
       <c r="E53" s="12"/>
       <c r="F53" s="13"/>
       <c r="G53" s="13"/>
-      <c r="H53" s="34">
+      <c r="H53" s="33">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4323,7 +4353,7 @@
       <c r="E54" s="12"/>
       <c r="F54" s="13"/>
       <c r="G54" s="13"/>
-      <c r="H54" s="34">
+      <c r="H54" s="33">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4356,7 +4386,7 @@
       <c r="E55" s="12"/>
       <c r="F55" s="13"/>
       <c r="G55" s="13"/>
-      <c r="H55" s="34">
+      <c r="H55" s="33">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4389,7 +4419,7 @@
       <c r="E56" s="12"/>
       <c r="F56" s="13"/>
       <c r="G56" s="13"/>
-      <c r="H56" s="34">
+      <c r="H56" s="33">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4422,7 +4452,7 @@
       <c r="E57" s="12"/>
       <c r="F57" s="13"/>
       <c r="G57" s="13"/>
-      <c r="H57" s="34">
+      <c r="H57" s="33">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4455,7 +4485,7 @@
       <c r="E58" s="12"/>
       <c r="F58" s="13"/>
       <c r="G58" s="13"/>
-      <c r="H58" s="34">
+      <c r="H58" s="33">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4488,7 +4518,7 @@
       <c r="E59" s="12"/>
       <c r="F59" s="13"/>
       <c r="G59" s="13"/>
-      <c r="H59" s="34">
+      <c r="H59" s="33">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4521,7 +4551,7 @@
       <c r="E60" s="12"/>
       <c r="F60" s="13"/>
       <c r="G60" s="13"/>
-      <c r="H60" s="34">
+      <c r="H60" s="33">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4554,7 +4584,7 @@
       <c r="E61" s="12"/>
       <c r="F61" s="13"/>
       <c r="G61" s="13"/>
-      <c r="H61" s="34">
+      <c r="H61" s="33">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4587,7 +4617,7 @@
       <c r="E62" s="12"/>
       <c r="F62" s="13"/>
       <c r="G62" s="13"/>
-      <c r="H62" s="34">
+      <c r="H62" s="33">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4620,7 +4650,7 @@
       <c r="E63" s="12"/>
       <c r="F63" s="13"/>
       <c r="G63" s="13"/>
-      <c r="H63" s="34">
+      <c r="H63" s="33">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4653,7 +4683,7 @@
       <c r="E64" s="12"/>
       <c r="F64" s="13"/>
       <c r="G64" s="13"/>
-      <c r="H64" s="34">
+      <c r="H64" s="33">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4686,7 +4716,7 @@
       <c r="E65" s="12"/>
       <c r="F65" s="13"/>
       <c r="G65" s="13"/>
-      <c r="H65" s="34">
+      <c r="H65" s="33">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4719,7 +4749,7 @@
       <c r="E66" s="12"/>
       <c r="F66" s="13"/>
       <c r="G66" s="13"/>
-      <c r="H66" s="34">
+      <c r="H66" s="33">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4752,7 +4782,7 @@
       <c r="E67" s="12"/>
       <c r="F67" s="13"/>
       <c r="G67" s="13"/>
-      <c r="H67" s="34">
+      <c r="H67" s="33">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -11040,799 +11070,799 @@
   </cols>
   <sheetData>
     <row r="1" ht="14" customHeight="1" spans="1:7">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
     </row>
     <row r="2" ht="14" customHeight="1" spans="1:7">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="F2" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="31" t="s">
+      <c r="G2" s="30" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" ht="14" customHeight="1" spans="1:7">
-      <c r="A3" s="31">
-        <v>1</v>
-      </c>
-      <c r="B3" s="31" t="s">
+      <c r="A3" s="30">
+        <v>1</v>
+      </c>
+      <c r="B3" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="31">
+      <c r="D3" s="30">
         <v>12868.71</v>
       </c>
-      <c r="E3" s="31" t="s">
+      <c r="E3" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="31" t="s">
+      <c r="F3" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="31"/>
+      <c r="G3" s="30"/>
     </row>
     <row r="4" ht="14" customHeight="1" spans="1:7">
-      <c r="A4" s="31">
+      <c r="A4" s="30">
         <v>2</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="31">
+      <c r="D4" s="30">
         <v>12017.64</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="31" t="s">
+      <c r="F4" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="31"/>
+      <c r="G4" s="30"/>
     </row>
     <row r="5" ht="14" customHeight="1" spans="1:7">
-      <c r="A5" s="31">
+      <c r="A5" s="30">
         <v>3</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="31">
+      <c r="D5" s="30">
         <v>396</v>
       </c>
-      <c r="E5" s="31" t="s">
+      <c r="E5" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="31" t="s">
+      <c r="F5" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="31"/>
+      <c r="G5" s="30"/>
     </row>
     <row r="6" ht="14" customHeight="1" spans="1:7">
-      <c r="A6" s="31">
+      <c r="A6" s="30">
         <v>4</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="31">
+      <c r="D6" s="30">
         <v>7374.54</v>
       </c>
-      <c r="E6" s="31" t="s">
+      <c r="E6" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="31" t="s">
+      <c r="F6" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="G6" s="31"/>
+      <c r="G6" s="30"/>
     </row>
     <row r="7" ht="14" customHeight="1" spans="1:7">
-      <c r="A7" s="31">
+      <c r="A7" s="30">
         <v>5</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="31">
+      <c r="D7" s="30">
         <v>3673.98</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="E7" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="31" t="s">
+      <c r="F7" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="G7" s="31"/>
+      <c r="G7" s="30"/>
     </row>
     <row r="8" ht="14" customHeight="1" spans="1:7">
-      <c r="A8" s="31">
+      <c r="A8" s="30">
         <v>6</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="31">
+      <c r="D8" s="30">
         <v>31158.1</v>
       </c>
-      <c r="E8" s="31" t="s">
+      <c r="E8" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="31" t="s">
+      <c r="F8" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="31"/>
+      <c r="G8" s="30"/>
     </row>
     <row r="9" ht="14" customHeight="1" spans="1:7">
-      <c r="A9" s="31">
+      <c r="A9" s="30">
         <v>7</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="31">
+      <c r="D9" s="30">
         <v>12321</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="E9" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="31" t="s">
+      <c r="F9" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="G9" s="31"/>
+      <c r="G9" s="30"/>
     </row>
     <row r="10" ht="14" customHeight="1" spans="1:7">
-      <c r="A10" s="31">
+      <c r="A10" s="30">
         <v>8</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="31">
+      <c r="D10" s="30">
         <v>17141.6</v>
       </c>
-      <c r="E10" s="31" t="s">
+      <c r="E10" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="31" t="s">
+      <c r="F10" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="G10" s="31"/>
+      <c r="G10" s="30"/>
     </row>
     <row r="11" ht="14" customHeight="1" spans="1:7">
-      <c r="A11" s="31">
+      <c r="A11" s="30">
         <v>9</v>
       </c>
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="31">
+      <c r="D11" s="30">
         <v>8925</v>
       </c>
-      <c r="E11" s="31" t="s">
+      <c r="E11" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="31" t="s">
+      <c r="F11" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="G11" s="31"/>
+      <c r="G11" s="30"/>
     </row>
     <row r="12" ht="14" customHeight="1" spans="1:7">
-      <c r="A12" s="31">
+      <c r="A12" s="30">
         <v>10</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="31">
+      <c r="D12" s="30">
         <v>15689</v>
       </c>
-      <c r="E12" s="31" t="s">
+      <c r="E12" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="31" t="s">
+      <c r="F12" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="G12" s="31"/>
+      <c r="G12" s="30"/>
     </row>
     <row r="13" ht="14" customHeight="1" spans="1:7">
-      <c r="A13" s="31">
+      <c r="A13" s="30">
         <v>11</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="31">
+      <c r="D13" s="30">
         <v>14961.3</v>
       </c>
-      <c r="E13" s="31" t="s">
+      <c r="E13" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="31" t="s">
+      <c r="F13" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="G13" s="31"/>
+      <c r="G13" s="30"/>
     </row>
     <row r="14" ht="14" customHeight="1" spans="1:7">
-      <c r="A14" s="31">
+      <c r="A14" s="30">
         <v>12</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="31">
+      <c r="D14" s="30">
         <v>24245.7</v>
       </c>
-      <c r="E14" s="31" t="s">
+      <c r="E14" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="31" t="s">
+      <c r="F14" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="G14" s="31"/>
+      <c r="G14" s="30"/>
     </row>
     <row r="15" ht="14" customHeight="1" spans="1:7">
-      <c r="A15" s="31">
+      <c r="A15" s="30">
         <v>13</v>
       </c>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="31" t="s">
+      <c r="C15" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="31">
+      <c r="D15" s="30">
         <v>10067.1</v>
       </c>
-      <c r="E15" s="31" t="s">
+      <c r="E15" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="31" t="s">
+      <c r="F15" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="G15" s="31"/>
+      <c r="G15" s="30"/>
     </row>
     <row r="16" ht="14" customHeight="1" spans="1:7">
-      <c r="A16" s="31">
+      <c r="A16" s="30">
         <v>14</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="31" t="s">
+      <c r="C16" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="31">
+      <c r="D16" s="30">
         <v>15689.9</v>
       </c>
-      <c r="E16" s="31" t="s">
+      <c r="E16" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="31" t="s">
+      <c r="F16" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="G16" s="31"/>
+      <c r="G16" s="30"/>
     </row>
     <row r="17" ht="14" customHeight="1" spans="1:7">
-      <c r="A17" s="31">
+      <c r="A17" s="30">
         <v>15</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="31" t="s">
+      <c r="C17" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="31">
+      <c r="D17" s="30">
         <v>24041</v>
       </c>
-      <c r="E17" s="31" t="s">
+      <c r="E17" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="F17" s="31" t="s">
+      <c r="F17" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="G17" s="31"/>
+      <c r="G17" s="30"/>
     </row>
     <row r="18" ht="14" customHeight="1" spans="1:7">
-      <c r="A18" s="31">
+      <c r="A18" s="30">
         <v>16</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="31" t="s">
+      <c r="C18" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="31">
+      <c r="D18" s="30">
         <v>7137.49</v>
       </c>
-      <c r="E18" s="31" t="s">
+      <c r="E18" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="F18" s="31" t="s">
+      <c r="F18" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="G18" s="31"/>
+      <c r="G18" s="30"/>
     </row>
     <row r="19" ht="14" customHeight="1" spans="1:7">
-      <c r="A19" s="31">
+      <c r="A19" s="30">
         <v>17</v>
       </c>
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="31">
+      <c r="D19" s="30">
         <v>10685.5</v>
       </c>
-      <c r="E19" s="31" t="s">
+      <c r="E19" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="F19" s="31" t="s">
+      <c r="F19" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="G19" s="31"/>
+      <c r="G19" s="30"/>
     </row>
     <row r="20" ht="14" customHeight="1" spans="1:7">
-      <c r="A20" s="31">
+      <c r="A20" s="30">
         <v>18</v>
       </c>
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="31" t="s">
+      <c r="C20" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="31">
+      <c r="D20" s="30">
         <v>7078.8</v>
       </c>
-      <c r="E20" s="31" t="s">
+      <c r="E20" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="F20" s="31" t="s">
+      <c r="F20" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="G20" s="31"/>
+      <c r="G20" s="30"/>
     </row>
     <row r="21" ht="14" customHeight="1" spans="1:7">
-      <c r="A21" s="31">
+      <c r="A21" s="30">
         <v>19</v>
       </c>
-      <c r="B21" s="31" t="s">
+      <c r="B21" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="31" t="s">
+      <c r="C21" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="31">
+      <c r="D21" s="30">
         <v>17382</v>
       </c>
-      <c r="E21" s="31" t="s">
+      <c r="E21" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="F21" s="31" t="s">
+      <c r="F21" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="G21" s="31"/>
+      <c r="G21" s="30"/>
     </row>
     <row r="22" ht="14" customHeight="1" spans="1:7">
-      <c r="A22" s="31">
+      <c r="A22" s="30">
         <v>20</v>
       </c>
-      <c r="B22" s="31" t="s">
+      <c r="B22" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="31" t="s">
+      <c r="C22" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="31">
+      <c r="D22" s="30">
         <v>15673.7</v>
       </c>
-      <c r="E22" s="31" t="s">
+      <c r="E22" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="F22" s="31" t="s">
+      <c r="F22" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="G22" s="31"/>
+      <c r="G22" s="30"/>
     </row>
     <row r="23" ht="14" customHeight="1" spans="1:7">
-      <c r="A23" s="31">
+      <c r="A23" s="30">
         <v>21</v>
       </c>
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="31" t="s">
+      <c r="C23" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="31">
+      <c r="D23" s="30">
         <v>7814</v>
       </c>
-      <c r="E23" s="31" t="s">
+      <c r="E23" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="F23" s="31" t="s">
+      <c r="F23" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="G23" s="31"/>
+      <c r="G23" s="30"/>
     </row>
     <row r="24" ht="14" customHeight="1" spans="1:7">
-      <c r="A24" s="31">
+      <c r="A24" s="30">
         <v>22</v>
       </c>
-      <c r="B24" s="31" t="s">
+      <c r="B24" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="31" t="s">
+      <c r="C24" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="D24" s="31">
+      <c r="D24" s="30">
         <v>7392</v>
       </c>
-      <c r="E24" s="31" t="s">
+      <c r="E24" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="F24" s="31" t="s">
+      <c r="F24" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="G24" s="31"/>
+      <c r="G24" s="30"/>
     </row>
     <row r="25" ht="14" customHeight="1" spans="1:7">
-      <c r="A25" s="31">
+      <c r="A25" s="30">
         <v>23</v>
       </c>
-      <c r="B25" s="31" t="s">
+      <c r="B25" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="31" t="s">
+      <c r="C25" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="31">
+      <c r="D25" s="30">
         <v>91853</v>
       </c>
-      <c r="E25" s="31" t="s">
+      <c r="E25" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="F25" s="31" t="s">
+      <c r="F25" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="G25" s="31"/>
+      <c r="G25" s="30"/>
     </row>
     <row r="26" ht="14" customHeight="1" spans="1:7">
-      <c r="A26" s="31">
+      <c r="A26" s="30">
         <v>24</v>
       </c>
-      <c r="B26" s="31" t="s">
+      <c r="B26" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="31" t="s">
+      <c r="C26" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="D26" s="31">
-        <v>1</v>
-      </c>
-      <c r="E26" s="31" t="s">
+      <c r="D26" s="30">
+        <v>1</v>
+      </c>
+      <c r="E26" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="F26" s="31" t="s">
+      <c r="F26" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="G26" s="31"/>
+      <c r="G26" s="30"/>
     </row>
     <row r="27" ht="14" customHeight="1" spans="1:7">
-      <c r="A27" s="31">
+      <c r="A27" s="30">
         <v>25</v>
       </c>
-      <c r="B27" s="31" t="s">
+      <c r="B27" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="31" t="s">
+      <c r="C27" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="D27" s="31">
+      <c r="D27" s="30">
         <v>9797.5</v>
       </c>
-      <c r="E27" s="31" t="s">
+      <c r="E27" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="F27" s="31" t="s">
+      <c r="F27" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="G27" s="31"/>
+      <c r="G27" s="30"/>
     </row>
     <row r="28" ht="14" customHeight="1" spans="1:7">
-      <c r="A28" s="31">
+      <c r="A28" s="30">
         <v>26</v>
       </c>
-      <c r="B28" s="31" t="s">
+      <c r="B28" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="31" t="s">
+      <c r="C28" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="D28" s="31">
+      <c r="D28" s="30">
         <v>9932.5</v>
       </c>
-      <c r="E28" s="31" t="s">
+      <c r="E28" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="F28" s="31" t="s">
+      <c r="F28" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="G28" s="31"/>
+      <c r="G28" s="30"/>
     </row>
     <row r="29" ht="14" customHeight="1" spans="1:7">
-      <c r="A29" s="31">
+      <c r="A29" s="30">
         <v>27</v>
       </c>
-      <c r="B29" s="31" t="s">
+      <c r="B29" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="31" t="s">
+      <c r="C29" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="D29" s="31">
-        <v>1</v>
-      </c>
-      <c r="E29" s="31" t="s">
+      <c r="D29" s="30">
+        <v>1</v>
+      </c>
+      <c r="E29" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="F29" s="31" t="s">
+      <c r="F29" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="G29" s="31"/>
+      <c r="G29" s="30"/>
     </row>
     <row r="30" ht="14" customHeight="1" spans="1:7">
-      <c r="A30" s="31">
+      <c r="A30" s="30">
         <v>28</v>
       </c>
-      <c r="B30" s="31" t="s">
+      <c r="B30" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="31" t="s">
+      <c r="C30" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="D30" s="31">
+      <c r="D30" s="30">
         <v>9209.6</v>
       </c>
-      <c r="E30" s="31" t="s">
+      <c r="E30" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="F30" s="31" t="s">
+      <c r="F30" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="G30" s="31"/>
+      <c r="G30" s="30"/>
     </row>
     <row r="31" ht="14" customHeight="1" spans="1:7">
-      <c r="A31" s="31">
+      <c r="A31" s="30">
         <v>29</v>
       </c>
-      <c r="B31" s="31" t="s">
+      <c r="B31" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="31" t="s">
+      <c r="C31" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="D31" s="31">
+      <c r="D31" s="30">
         <v>965.2</v>
       </c>
-      <c r="E31" s="31" t="s">
+      <c r="E31" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="F31" s="32" t="s">
+      <c r="F31" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="G31" s="31"/>
+      <c r="G31" s="30"/>
     </row>
     <row r="32" ht="14" customHeight="1" spans="1:7">
-      <c r="A32" s="31">
+      <c r="A32" s="30">
         <v>30</v>
       </c>
-      <c r="B32" s="31" t="s">
+      <c r="B32" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="C32" s="31" t="s">
+      <c r="C32" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="D32" s="31">
+      <c r="D32" s="30">
         <v>26686.9</v>
       </c>
-      <c r="E32" s="31" t="s">
+      <c r="E32" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="F32" s="33"/>
-      <c r="G32" s="31"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="30"/>
     </row>
     <row r="33" ht="14" customHeight="1" spans="1:7">
-      <c r="A33" s="31">
+      <c r="A33" s="30">
         <v>31</v>
       </c>
-      <c r="B33" s="31" t="s">
+      <c r="B33" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="C33" s="31" t="s">
+      <c r="C33" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="D33" s="31">
+      <c r="D33" s="30">
         <v>17829</v>
       </c>
-      <c r="E33" s="31" t="s">
+      <c r="E33" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="F33" s="31" t="s">
+      <c r="F33" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="G33" s="31"/>
+      <c r="G33" s="30"/>
     </row>
     <row r="34" ht="14" customHeight="1" spans="1:7">
-      <c r="A34" s="31">
+      <c r="A34" s="30">
         <v>32</v>
       </c>
-      <c r="B34" s="31" t="s">
+      <c r="B34" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31">
+      <c r="C34" s="30"/>
+      <c r="D34" s="30">
         <v>10110.294</v>
       </c>
-      <c r="E34" s="31" t="s">
+      <c r="E34" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="F34" s="31" t="s">
+      <c r="F34" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="G34" s="31"/>
+      <c r="G34" s="30"/>
     </row>
     <row r="35" ht="14" customHeight="1" spans="1:7">
-      <c r="A35" s="31">
+      <c r="A35" s="30">
         <v>33</v>
       </c>
-      <c r="B35" s="31" t="s">
+      <c r="B35" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="C35" s="31" t="s">
+      <c r="C35" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="D35" s="31">
+      <c r="D35" s="30">
         <v>4781.4</v>
       </c>
-      <c r="E35" s="31" t="s">
+      <c r="E35" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="F35" s="31" t="s">
+      <c r="F35" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="G35" s="31"/>
+      <c r="G35" s="30"/>
     </row>
     <row r="36" ht="14" customHeight="1" spans="1:7">
-      <c r="A36" s="31">
+      <c r="A36" s="30">
         <v>34</v>
       </c>
-      <c r="B36" s="31" t="s">
+      <c r="B36" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="C36" s="31" t="s">
+      <c r="C36" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="D36" s="31">
+      <c r="D36" s="30">
         <v>19422</v>
       </c>
-      <c r="E36" s="31" t="s">
+      <c r="E36" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="F36" s="31" t="s">
+      <c r="F36" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="G36" s="31"/>
+      <c r="G36" s="30"/>
     </row>
     <row r="37" ht="14" customHeight="1" spans="1:7">
-      <c r="A37" s="31">
+      <c r="A37" s="30">
         <v>35</v>
       </c>
-      <c r="B37" s="31" t="s">
+      <c r="B37" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="C37" s="31" t="s">
+      <c r="C37" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="D37" s="31">
+      <c r="D37" s="30">
         <v>8976.6</v>
       </c>
-      <c r="E37" s="31" t="s">
+      <c r="E37" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="F37" s="31" t="s">
+      <c r="F37" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="G37" s="31"/>
+      <c r="G37" s="30"/>
     </row>
     <row r="38" ht="14" customHeight="1" spans="1:7">
-      <c r="A38" s="31">
+      <c r="A38" s="30">
         <v>36</v>
       </c>
-      <c r="B38" s="31" t="s">
+      <c r="B38" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="C38" s="31" t="s">
+      <c r="C38" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="D38" s="31">
+      <c r="D38" s="30">
         <v>12691.9</v>
       </c>
-      <c r="E38" s="31" t="s">
+      <c r="E38" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="F38" s="31" t="s">
+      <c r="F38" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="G38" s="31"/>
+      <c r="G38" s="30"/>
     </row>
     <row r="39" ht="14" customHeight="1" spans="1:7">
-      <c r="A39" s="31"/>
-      <c r="B39" s="31"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="31"/>
+      <c r="A39" s="30"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="30"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:G38">
@@ -11850,14 +11880,14 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:R72"/>
+  <dimension ref="A1:R75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="8" ySplit="4" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J50" sqref="J50"/>
+      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>
@@ -13672,7 +13702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" hidden="1" customHeight="1" spans="1:17">
+    <row r="44" customHeight="1" spans="1:17">
       <c r="A44" s="12">
         <v>40</v>
       </c>
@@ -13696,7 +13726,9 @@
         <f t="shared" si="0"/>
         <v>3587.505</v>
       </c>
-      <c r="I44" s="17"/>
+      <c r="I44" s="17">
+        <v>1</v>
+      </c>
       <c r="J44" s="12"/>
       <c r="K44" s="12"/>
       <c r="L44" s="12"/>
@@ -13704,15 +13736,15 @@
       <c r="N44" s="12"/>
       <c r="O44" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P44" s="18">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="Q44" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="Q44" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>完成</v>
       </c>
     </row>
     <row r="45" hidden="1" customHeight="1" spans="1:17">
@@ -13957,7 +13989,7 @@
         <v>15072.164</v>
       </c>
       <c r="I50" s="17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J50" s="12"/>
       <c r="K50" s="12"/>
@@ -13966,15 +13998,15 @@
       <c r="N50" s="12"/>
       <c r="O50" s="18">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P50" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q50" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>完成</v>
+        <v>1</v>
+      </c>
+      <c r="Q50" s="20">
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
     </row>
     <row r="51" hidden="1" customHeight="1" spans="1:17">
@@ -14712,26 +14744,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" customHeight="1" spans="9:10">
+    <row r="68" hidden="1" customHeight="1" spans="9:10">
       <c r="I68" s="22"/>
       <c r="J68" s="22"/>
     </row>
-    <row r="70" customHeight="1" spans="10:10">
+    <row r="69" hidden="1" customHeight="1"/>
+    <row r="70" hidden="1" customHeight="1" spans="10:10">
       <c r="J70" s="22"/>
     </row>
-    <row r="71" customHeight="1" spans="11:11">
+    <row r="71" hidden="1" customHeight="1" spans="11:11">
       <c r="K71" s="22"/>
     </row>
-    <row r="72" customHeight="1" spans="12:12">
+    <row r="72" hidden="1" customHeight="1" spans="12:12">
       <c r="L72" s="22"/>
     </row>
+    <row r="73" hidden="1" customHeight="1"/>
+    <row r="74" hidden="1" customHeight="1"/>
+    <row r="75" hidden="1" customHeight="1"/>
   </sheetData>
   <autoFilter ref="A4:R75">
-    <filterColumn colId="16">
-      <filters blank="1">
-        <filter val="完成"/>
+    <filterColumn colId="8">
+      <filters>
         <filter val="1"/>
         <filter val="2"/>
+        <filter val="3"/>
+        <filter val="4"/>
+        <filter val="5"/>
       </filters>
     </filterColumn>
     <sortState ref="A4:R75">
@@ -14765,11 +14803,11 @@
   <dimension ref="A1:AE166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="8" ySplit="4" topLeftCell="L79" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="4" topLeftCell="L35" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C50" sqref="C50"/>
+      <selection pane="bottomRight" activeCell="X38" sqref="X38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>
@@ -14939,35 +14977,39 @@
       <c r="N4" s="12">
         <v>1.23</v>
       </c>
-      <c r="O4" s="28">
+      <c r="O4" s="25">
         <v>1.23</v>
       </c>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="28"/>
-      <c r="R4" s="28"/>
-      <c r="S4" s="28">
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="25">
         <v>1.26</v>
       </c>
-      <c r="T4" s="28">
+      <c r="T4" s="25">
         <v>1.27</v>
       </c>
-      <c r="U4" s="28">
+      <c r="U4" s="25">
         <v>1.28</v>
       </c>
-      <c r="V4" s="28">
+      <c r="V4" s="25">
         <v>1.29</v>
       </c>
-      <c r="W4" s="29">
+      <c r="W4" s="28">
         <v>1.3</v>
       </c>
-      <c r="X4" s="28">
+      <c r="X4" s="25">
         <v>1.31</v>
       </c>
-      <c r="Y4" s="28">
+      <c r="Y4" s="25">
         <v>2.1</v>
       </c>
-      <c r="Z4" s="28"/>
-      <c r="AA4" s="28"/>
+      <c r="Z4" s="25">
+        <v>2.2</v>
+      </c>
+      <c r="AA4" s="25">
+        <v>2.3</v>
+      </c>
       <c r="AB4" s="16" t="s">
         <v>12</v>
       </c>
@@ -17866,7 +17908,9 @@
       <c r="O56" s="12"/>
       <c r="P56" s="12"/>
       <c r="Q56" s="12"/>
-      <c r="R56" s="12"/>
+      <c r="R56" s="12">
+        <v>4</v>
+      </c>
       <c r="S56" s="12"/>
       <c r="T56" s="12"/>
       <c r="U56" s="12"/>
@@ -17878,15 +17922,15 @@
       <c r="AA56" s="12"/>
       <c r="AB56" s="18">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AC56" s="18">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="AD56" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD56" s="20" t="str">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="1:30">
@@ -17922,7 +17966,7 @@
       <c r="Q57" s="12"/>
       <c r="R57" s="12"/>
       <c r="S57" s="12"/>
-      <c r="T57" s="30"/>
+      <c r="T57" s="29"/>
       <c r="U57" s="12"/>
       <c r="V57" s="12"/>
       <c r="W57" s="12"/>
@@ -17976,9 +18020,11 @@
       <c r="O58" s="12"/>
       <c r="P58" s="12"/>
       <c r="Q58" s="12"/>
-      <c r="R58" s="12"/>
+      <c r="R58" s="12">
+        <v>1</v>
+      </c>
       <c r="S58" s="12"/>
-      <c r="T58" s="30"/>
+      <c r="T58" s="29"/>
       <c r="U58" s="12"/>
       <c r="V58" s="12"/>
       <c r="W58" s="12"/>
@@ -17988,15 +18034,15 @@
       <c r="AA58" s="12"/>
       <c r="AB58" s="18">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC58" s="18">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AD58" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD58" s="20" t="str">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="59" customHeight="1" spans="1:30">
@@ -18030,7 +18076,9 @@
       <c r="O59" s="12"/>
       <c r="P59" s="12"/>
       <c r="Q59" s="12"/>
-      <c r="R59" s="12"/>
+      <c r="R59" s="12">
+        <v>1</v>
+      </c>
       <c r="S59" s="12"/>
       <c r="T59" s="12"/>
       <c r="U59" s="12"/>
@@ -18042,15 +18090,15 @@
       <c r="AA59" s="12"/>
       <c r="AB59" s="18">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC59" s="18">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AD59" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD59" s="20" t="str">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="60" customHeight="1" spans="1:30">
@@ -18092,19 +18140,21 @@
       <c r="W60" s="12"/>
       <c r="X60" s="12"/>
       <c r="Y60" s="12"/>
-      <c r="Z60" s="12"/>
+      <c r="Z60" s="12">
+        <v>1</v>
+      </c>
       <c r="AA60" s="12"/>
       <c r="AB60" s="18">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC60" s="18">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AD60" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD60" s="20" t="str">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="61" customHeight="1" spans="1:30">
@@ -18418,7 +18468,9 @@
       <c r="O66" s="12"/>
       <c r="P66" s="12"/>
       <c r="Q66" s="12"/>
-      <c r="R66" s="12"/>
+      <c r="R66" s="12">
+        <v>4</v>
+      </c>
       <c r="S66" s="12"/>
       <c r="T66" s="12"/>
       <c r="U66" s="12"/>
@@ -18430,15 +18482,15 @@
       <c r="AA66" s="12"/>
       <c r="AB66" s="18">
         <f t="shared" ref="AB66:AB75" si="13">SUM(I66:AA66)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AC66" s="18">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="AD66" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD66" s="20" t="str">
         <f t="shared" ref="AD66:AD75" si="14">IF(SUM(I66:AA66)=C66,"完成",SUM(I66:AA66))</f>
-        <v>0</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="67" customHeight="1" spans="1:30">
@@ -18704,19 +18756,21 @@
       <c r="W71" s="12"/>
       <c r="X71" s="12"/>
       <c r="Y71" s="12"/>
-      <c r="Z71" s="12"/>
+      <c r="Z71" s="12">
+        <v>4</v>
+      </c>
       <c r="AA71" s="12"/>
       <c r="AB71" s="18">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AC71" s="18">
         <f t="shared" si="15"/>
-        <v>4</v>
-      </c>
-      <c r="AD71" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="20" t="str">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="72" customHeight="1" spans="1:30">
@@ -18758,19 +18812,21 @@
       <c r="W72" s="12"/>
       <c r="X72" s="12"/>
       <c r="Y72" s="12"/>
-      <c r="Z72" s="12"/>
+      <c r="Z72" s="12">
+        <v>1</v>
+      </c>
       <c r="AA72" s="12"/>
       <c r="AB72" s="18">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC72" s="18">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AD72" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD72" s="20" t="str">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="73" customHeight="1" spans="1:30">
@@ -18812,19 +18868,21 @@
       <c r="W73" s="12"/>
       <c r="X73" s="12"/>
       <c r="Y73" s="12"/>
-      <c r="Z73" s="12"/>
+      <c r="Z73" s="12">
+        <v>1</v>
+      </c>
       <c r="AA73" s="12"/>
       <c r="AB73" s="18">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC73" s="18">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AD73" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="20" t="str">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="74" customHeight="1" spans="1:30">
@@ -18866,19 +18924,21 @@
       <c r="W74" s="12"/>
       <c r="X74" s="12"/>
       <c r="Y74" s="12"/>
-      <c r="Z74" s="12"/>
+      <c r="Z74" s="12">
+        <v>1</v>
+      </c>
       <c r="AA74" s="12"/>
       <c r="AB74" s="18">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC74" s="18">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AD74" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="20" t="str">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="75" customHeight="1" spans="1:30">
@@ -18920,19 +18980,21 @@
       <c r="W75" s="12"/>
       <c r="X75" s="12"/>
       <c r="Y75" s="12"/>
-      <c r="Z75" s="12"/>
+      <c r="Z75" s="12">
+        <v>1</v>
+      </c>
       <c r="AA75" s="12"/>
       <c r="AB75" s="18">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC75" s="18">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AD75" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="20" t="str">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="76" customHeight="1" spans="1:30">
@@ -19533,20 +19595,22 @@
       <c r="V86" s="12"/>
       <c r="W86" s="12"/>
       <c r="X86" s="12"/>
-      <c r="Y86" s="12"/>
+      <c r="Y86" s="12">
+        <v>2</v>
+      </c>
       <c r="Z86" s="12"/>
       <c r="AA86" s="12"/>
       <c r="AB86" s="18">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC86" s="18">
         <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="AD86" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD86" s="20" t="str">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="87" customHeight="1" spans="1:30">
@@ -19587,20 +19651,22 @@
       <c r="V87" s="12"/>
       <c r="W87" s="12"/>
       <c r="X87" s="12"/>
-      <c r="Y87" s="12"/>
+      <c r="Y87" s="12">
+        <v>1</v>
+      </c>
       <c r="Z87" s="12"/>
       <c r="AA87" s="12"/>
       <c r="AB87" s="18">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC87" s="18">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AD87" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD87" s="20" t="str">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="88" customHeight="1" spans="1:30">
@@ -19642,19 +19708,21 @@
       <c r="W88" s="12"/>
       <c r="X88" s="12"/>
       <c r="Y88" s="12"/>
-      <c r="Z88" s="12"/>
+      <c r="Z88" s="12">
+        <v>1</v>
+      </c>
       <c r="AA88" s="12"/>
       <c r="AB88" s="18">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC88" s="18">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AD88" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD88" s="20" t="str">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="89" customHeight="1" spans="1:30">
@@ -19696,19 +19764,21 @@
       <c r="W89" s="12"/>
       <c r="X89" s="12"/>
       <c r="Y89" s="12"/>
-      <c r="Z89" s="12"/>
+      <c r="Z89" s="12">
+        <v>1</v>
+      </c>
       <c r="AA89" s="12"/>
       <c r="AB89" s="18">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC89" s="18">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AD89" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD89" s="20" t="str">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="90" customHeight="1" spans="1:30">
@@ -19750,19 +19820,21 @@
       <c r="W90" s="12"/>
       <c r="X90" s="12"/>
       <c r="Y90" s="12"/>
-      <c r="Z90" s="12"/>
+      <c r="Z90" s="12">
+        <v>1</v>
+      </c>
       <c r="AA90" s="12"/>
       <c r="AB90" s="18">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC90" s="18">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AD90" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD90" s="20" t="str">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="91" customHeight="1" spans="1:30">
@@ -19805,18 +19877,20 @@
       <c r="X91" s="12"/>
       <c r="Y91" s="12"/>
       <c r="Z91" s="12"/>
-      <c r="AA91" s="12"/>
+      <c r="AA91" s="12">
+        <v>1</v>
+      </c>
       <c r="AB91" s="18">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC91" s="18">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AD91" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD91" s="20" t="str">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="92" customHeight="1" spans="1:30">
@@ -19911,7 +19985,9 @@
         <v>3</v>
       </c>
       <c r="T93" s="12"/>
-      <c r="U93" s="12"/>
+      <c r="U93" s="12">
+        <v>4</v>
+      </c>
       <c r="V93" s="12"/>
       <c r="W93" s="12"/>
       <c r="X93" s="12"/>
@@ -19920,15 +19996,15 @@
       <c r="AA93" s="12"/>
       <c r="AB93" s="18">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AC93" s="18">
         <f t="shared" si="19"/>
-        <v>4</v>
-      </c>
-      <c r="AD93" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD93" s="20" t="str">
         <f t="shared" si="18"/>
-        <v>3</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="94" customHeight="1" spans="1:30">
@@ -20363,20 +20439,22 @@
       <c r="V101" s="12"/>
       <c r="W101" s="12"/>
       <c r="X101" s="12"/>
-      <c r="Y101" s="12"/>
+      <c r="Y101" s="12">
+        <v>15</v>
+      </c>
       <c r="Z101" s="12"/>
       <c r="AA101" s="12"/>
       <c r="AB101" s="18">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AC101" s="18">
         <f t="shared" si="19"/>
-        <v>15</v>
-      </c>
-      <c r="AD101" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD101" s="20" t="str">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="102" customHeight="1" spans="1:30">
@@ -20417,20 +20495,22 @@
       <c r="V102" s="12"/>
       <c r="W102" s="12"/>
       <c r="X102" s="12"/>
-      <c r="Y102" s="12"/>
+      <c r="Y102" s="12">
+        <v>4</v>
+      </c>
       <c r="Z102" s="12"/>
       <c r="AA102" s="12"/>
       <c r="AB102" s="18">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AC102" s="18">
         <f t="shared" si="19"/>
-        <v>4</v>
-      </c>
-      <c r="AD102" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD102" s="20" t="str">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="103" customHeight="1" spans="1:30">
@@ -20471,20 +20551,22 @@
       <c r="V103" s="12"/>
       <c r="W103" s="12"/>
       <c r="X103" s="12"/>
-      <c r="Y103" s="12"/>
+      <c r="Y103" s="12">
+        <v>2</v>
+      </c>
       <c r="Z103" s="12"/>
       <c r="AA103" s="12"/>
       <c r="AB103" s="18">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC103" s="18">
         <f t="shared" si="19"/>
-        <v>2</v>
-      </c>
-      <c r="AD103" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD103" s="20" t="str">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="104" customHeight="1" spans="1:30">
@@ -20525,20 +20607,22 @@
       <c r="V104" s="12"/>
       <c r="W104" s="12"/>
       <c r="X104" s="12"/>
-      <c r="Y104" s="12"/>
+      <c r="Y104" s="12">
+        <v>4</v>
+      </c>
       <c r="Z104" s="12"/>
       <c r="AA104" s="12"/>
       <c r="AB104" s="18">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AC104" s="18">
         <f t="shared" si="19"/>
-        <v>4</v>
-      </c>
-      <c r="AD104" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD104" s="20" t="str">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="105" customHeight="1" spans="1:30">
@@ -20579,20 +20663,22 @@
       <c r="V105" s="12"/>
       <c r="W105" s="12"/>
       <c r="X105" s="12"/>
-      <c r="Y105" s="12"/>
+      <c r="Y105" s="12">
+        <v>1</v>
+      </c>
       <c r="Z105" s="12"/>
       <c r="AA105" s="12"/>
       <c r="AB105" s="18">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC105" s="18">
         <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="AD105" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD105" s="20" t="str">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="106" customHeight="1" spans="1:30">
@@ -20959,20 +21045,22 @@
       <c r="V112" s="12"/>
       <c r="W112" s="12"/>
       <c r="X112" s="12"/>
-      <c r="Y112" s="12"/>
+      <c r="Y112" s="12">
+        <v>3</v>
+      </c>
       <c r="Z112" s="12"/>
       <c r="AA112" s="12"/>
       <c r="AB112" s="18">
         <f t="shared" si="21"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AC112" s="18">
         <f t="shared" si="19"/>
-        <v>3</v>
-      </c>
-      <c r="AD112" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD112" s="20" t="str">
         <f t="shared" si="22"/>
-        <v>10</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="113" customHeight="1" spans="1:30">
@@ -21069,20 +21157,22 @@
       <c r="V114" s="12"/>
       <c r="W114" s="12"/>
       <c r="X114" s="12"/>
-      <c r="Y114" s="12"/>
+      <c r="Y114" s="12">
+        <v>6</v>
+      </c>
       <c r="Z114" s="12"/>
       <c r="AA114" s="12"/>
       <c r="AB114" s="18">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AC114" s="18">
         <f t="shared" si="19"/>
-        <v>6</v>
-      </c>
-      <c r="AD114" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD114" s="20" t="str">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="115" customHeight="1" spans="1:30">
@@ -21347,20 +21437,22 @@
       <c r="V119" s="12"/>
       <c r="W119" s="12"/>
       <c r="X119" s="12"/>
-      <c r="Y119" s="12"/>
+      <c r="Y119" s="12">
+        <v>1</v>
+      </c>
       <c r="Z119" s="12"/>
       <c r="AA119" s="12"/>
       <c r="AB119" s="18">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC119" s="18">
         <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="AD119" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD119" s="20" t="str">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="120" customHeight="1" spans="1:30">
@@ -21401,20 +21493,22 @@
       <c r="V120" s="12"/>
       <c r="W120" s="12"/>
       <c r="X120" s="12"/>
-      <c r="Y120" s="12"/>
+      <c r="Y120" s="12">
+        <v>1</v>
+      </c>
       <c r="Z120" s="12"/>
       <c r="AA120" s="12"/>
       <c r="AB120" s="18">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC120" s="18">
         <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="AD120" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD120" s="20" t="str">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="121" customHeight="1" spans="1:30">
@@ -21457,20 +21551,22 @@
       <c r="V121" s="12"/>
       <c r="W121" s="12"/>
       <c r="X121" s="12"/>
-      <c r="Y121" s="12"/>
+      <c r="Y121" s="12">
+        <v>20</v>
+      </c>
       <c r="Z121" s="12"/>
       <c r="AA121" s="12"/>
       <c r="AB121" s="18">
         <f t="shared" si="21"/>
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="AC121" s="18">
         <f t="shared" si="19"/>
-        <v>20</v>
-      </c>
-      <c r="AD121" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD121" s="20" t="str">
         <f t="shared" si="22"/>
-        <v>25</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="122" customHeight="1" spans="1:30">
@@ -21567,20 +21663,22 @@
       <c r="V123" s="12"/>
       <c r="W123" s="12"/>
       <c r="X123" s="12"/>
-      <c r="Y123" s="12"/>
+      <c r="Y123" s="12">
+        <v>6</v>
+      </c>
       <c r="Z123" s="12"/>
       <c r="AA123" s="12"/>
       <c r="AB123" s="18">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AC123" s="18">
         <f t="shared" si="19"/>
-        <v>6</v>
-      </c>
-      <c r="AD123" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD123" s="20" t="str">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="124" customHeight="1" spans="1:30">
@@ -21677,20 +21775,22 @@
       <c r="V125" s="12"/>
       <c r="W125" s="12"/>
       <c r="X125" s="12"/>
-      <c r="Y125" s="12"/>
+      <c r="Y125" s="12">
+        <v>8</v>
+      </c>
       <c r="Z125" s="12"/>
       <c r="AA125" s="12"/>
       <c r="AB125" s="18">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC125" s="18">
         <f t="shared" si="23"/>
-        <v>8</v>
-      </c>
-      <c r="AD125" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD125" s="20" t="str">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="126" customHeight="1" spans="1:30">
@@ -21787,20 +21887,22 @@
       <c r="V127" s="12"/>
       <c r="W127" s="12"/>
       <c r="X127" s="12"/>
-      <c r="Y127" s="12"/>
+      <c r="Y127" s="12">
+        <v>4</v>
+      </c>
       <c r="Z127" s="12"/>
       <c r="AA127" s="12"/>
       <c r="AB127" s="18">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AC127" s="18">
         <f t="shared" si="23"/>
-        <v>4</v>
-      </c>
-      <c r="AD127" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD127" s="20" t="str">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="128" customHeight="1" spans="1:30">
@@ -21841,20 +21943,22 @@
       <c r="V128" s="12"/>
       <c r="W128" s="12"/>
       <c r="X128" s="12"/>
-      <c r="Y128" s="12"/>
+      <c r="Y128" s="12">
+        <v>8</v>
+      </c>
       <c r="Z128" s="12"/>
       <c r="AA128" s="12"/>
       <c r="AB128" s="18">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC128" s="18">
         <f t="shared" si="23"/>
-        <v>8</v>
-      </c>
-      <c r="AD128" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD128" s="20" t="str">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="129" customHeight="1" spans="1:30">
@@ -21895,20 +21999,22 @@
       <c r="V129" s="12"/>
       <c r="W129" s="12"/>
       <c r="X129" s="12"/>
-      <c r="Y129" s="12"/>
+      <c r="Y129" s="12">
+        <v>4</v>
+      </c>
       <c r="Z129" s="12"/>
       <c r="AA129" s="12"/>
       <c r="AB129" s="18">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AC129" s="18">
         <f t="shared" si="23"/>
-        <v>4</v>
-      </c>
-      <c r="AD129" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD129" s="20" t="str">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="130" customHeight="1" spans="1:30">
@@ -21949,20 +22055,22 @@
       <c r="V130" s="12"/>
       <c r="W130" s="12"/>
       <c r="X130" s="12"/>
-      <c r="Y130" s="12"/>
+      <c r="Y130" s="12">
+        <v>1</v>
+      </c>
       <c r="Z130" s="12"/>
       <c r="AA130" s="12"/>
       <c r="AB130" s="18">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC130" s="18">
         <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-      <c r="AD130" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD130" s="20" t="str">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="131" customHeight="1" spans="1:30">
@@ -22003,20 +22111,22 @@
       <c r="V131" s="12"/>
       <c r="W131" s="12"/>
       <c r="X131" s="12"/>
-      <c r="Y131" s="12"/>
+      <c r="Y131" s="12">
+        <v>1</v>
+      </c>
       <c r="Z131" s="12"/>
       <c r="AA131" s="12"/>
       <c r="AB131" s="18">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC131" s="18">
         <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-      <c r="AD131" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD131" s="20" t="str">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="132" customHeight="1" spans="1:30">
@@ -22057,20 +22167,22 @@
       <c r="V132" s="12"/>
       <c r="W132" s="12"/>
       <c r="X132" s="12"/>
-      <c r="Y132" s="12"/>
+      <c r="Y132" s="12">
+        <v>1</v>
+      </c>
       <c r="Z132" s="12"/>
       <c r="AA132" s="12"/>
       <c r="AB132" s="18">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC132" s="18">
         <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-      <c r="AD132" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD132" s="20" t="str">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="133" customHeight="1" spans="1:30">
@@ -22111,20 +22223,22 @@
       <c r="V133" s="12"/>
       <c r="W133" s="12"/>
       <c r="X133" s="12"/>
-      <c r="Y133" s="12"/>
+      <c r="Y133" s="12">
+        <v>1</v>
+      </c>
       <c r="Z133" s="12"/>
       <c r="AA133" s="12"/>
       <c r="AB133" s="18">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC133" s="18">
         <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-      <c r="AD133" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD133" s="20" t="str">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="134" customHeight="1" spans="1:30">
@@ -22165,20 +22279,22 @@
       <c r="V134" s="12"/>
       <c r="W134" s="12"/>
       <c r="X134" s="12"/>
-      <c r="Y134" s="12"/>
+      <c r="Y134" s="12">
+        <v>1</v>
+      </c>
       <c r="Z134" s="12"/>
       <c r="AA134" s="12"/>
       <c r="AB134" s="18">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC134" s="18">
         <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-      <c r="AD134" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD134" s="20" t="str">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="135" customHeight="1" spans="1:30">
@@ -22219,20 +22335,22 @@
       <c r="V135" s="12"/>
       <c r="W135" s="12"/>
       <c r="X135" s="12"/>
-      <c r="Y135" s="12"/>
+      <c r="Y135" s="12">
+        <v>1</v>
+      </c>
       <c r="Z135" s="12"/>
       <c r="AA135" s="12"/>
       <c r="AB135" s="18">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC135" s="18">
         <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-      <c r="AD135" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD135" s="20" t="str">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="136" customHeight="1" spans="1:30">
@@ -22273,20 +22391,22 @@
       <c r="V136" s="12"/>
       <c r="W136" s="12"/>
       <c r="X136" s="12"/>
-      <c r="Y136" s="12"/>
+      <c r="Y136" s="12">
+        <v>1</v>
+      </c>
       <c r="Z136" s="12"/>
       <c r="AA136" s="12"/>
       <c r="AB136" s="18">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC136" s="18">
         <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-      <c r="AD136" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD136" s="20" t="str">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="137" customHeight="1" spans="1:30">
@@ -22327,20 +22447,22 @@
       <c r="V137" s="12"/>
       <c r="W137" s="12"/>
       <c r="X137" s="12"/>
-      <c r="Y137" s="12"/>
+      <c r="Y137" s="12">
+        <v>1</v>
+      </c>
       <c r="Z137" s="12"/>
       <c r="AA137" s="12"/>
       <c r="AB137" s="18">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC137" s="18">
         <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-      <c r="AD137" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD137" s="20" t="str">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="138" customHeight="1" spans="1:30">
@@ -22381,20 +22503,22 @@
       <c r="V138" s="12"/>
       <c r="W138" s="12"/>
       <c r="X138" s="12"/>
-      <c r="Y138" s="12"/>
+      <c r="Y138" s="12">
+        <v>1</v>
+      </c>
       <c r="Z138" s="12"/>
       <c r="AA138" s="12"/>
       <c r="AB138" s="18">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC138" s="18">
         <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-      <c r="AD138" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD138" s="20" t="str">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="139" customHeight="1" spans="1:30">
@@ -22435,20 +22559,22 @@
       <c r="V139" s="12"/>
       <c r="W139" s="12"/>
       <c r="X139" s="12"/>
-      <c r="Y139" s="12"/>
+      <c r="Y139" s="12">
+        <v>1</v>
+      </c>
       <c r="Z139" s="12"/>
       <c r="AA139" s="12"/>
       <c r="AB139" s="18">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC139" s="18">
         <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-      <c r="AD139" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD139" s="20" t="str">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="140" customHeight="1" spans="1:30">
@@ -22489,20 +22615,22 @@
       <c r="V140" s="12"/>
       <c r="W140" s="12"/>
       <c r="X140" s="12"/>
-      <c r="Y140" s="12"/>
+      <c r="Y140" s="12">
+        <v>1</v>
+      </c>
       <c r="Z140" s="12"/>
       <c r="AA140" s="12"/>
       <c r="AB140" s="18">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC140" s="18">
         <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-      <c r="AD140" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD140" s="20" t="str">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="141" customHeight="1" spans="1:30">
@@ -22543,20 +22671,22 @@
       <c r="V141" s="12"/>
       <c r="W141" s="12"/>
       <c r="X141" s="12"/>
-      <c r="Y141" s="12"/>
+      <c r="Y141" s="12">
+        <v>1</v>
+      </c>
       <c r="Z141" s="12"/>
       <c r="AA141" s="12"/>
       <c r="AB141" s="18">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC141" s="18">
         <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-      <c r="AD141" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD141" s="20" t="str">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="142" customHeight="1" spans="1:30">
@@ -22597,20 +22727,22 @@
       <c r="V142" s="12"/>
       <c r="W142" s="12"/>
       <c r="X142" s="12"/>
-      <c r="Y142" s="12"/>
+      <c r="Y142" s="12">
+        <v>1</v>
+      </c>
       <c r="Z142" s="12"/>
       <c r="AA142" s="12"/>
       <c r="AB142" s="18">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC142" s="18">
         <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-      <c r="AD142" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD142" s="20" t="str">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="143" customHeight="1" spans="1:30">
@@ -22651,20 +22783,22 @@
       <c r="V143" s="12"/>
       <c r="W143" s="12"/>
       <c r="X143" s="12"/>
-      <c r="Y143" s="12"/>
+      <c r="Y143" s="12">
+        <v>1</v>
+      </c>
       <c r="Z143" s="12"/>
       <c r="AA143" s="12"/>
       <c r="AB143" s="18">
         <f t="shared" ref="AB143:AB166" si="25">SUM(I143:AA143)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC143" s="18">
         <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-      <c r="AD143" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD143" s="20" t="str">
         <f t="shared" ref="AD143:AD166" si="26">IF(SUM(I143:AA143)=C143,"完成",SUM(I143:AA143))</f>
-        <v>0</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="144" customHeight="1" spans="1:30">
@@ -22705,20 +22839,22 @@
       <c r="V144" s="12"/>
       <c r="W144" s="12"/>
       <c r="X144" s="12"/>
-      <c r="Y144" s="12"/>
+      <c r="Y144" s="12">
+        <v>1</v>
+      </c>
       <c r="Z144" s="12"/>
       <c r="AA144" s="12"/>
       <c r="AB144" s="18">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC144" s="18">
         <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-      <c r="AD144" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD144" s="20" t="str">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="145" customHeight="1" spans="1:30">
@@ -22759,20 +22895,22 @@
       <c r="V145" s="12"/>
       <c r="W145" s="12"/>
       <c r="X145" s="12"/>
-      <c r="Y145" s="12"/>
+      <c r="Y145" s="12">
+        <v>1</v>
+      </c>
       <c r="Z145" s="12"/>
       <c r="AA145" s="12"/>
       <c r="AB145" s="18">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC145" s="18">
         <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-      <c r="AD145" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD145" s="20" t="str">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="146" customHeight="1" spans="1:30">
@@ -22813,20 +22951,22 @@
       <c r="V146" s="12"/>
       <c r="W146" s="12"/>
       <c r="X146" s="12"/>
-      <c r="Y146" s="12"/>
+      <c r="Y146" s="12">
+        <v>6</v>
+      </c>
       <c r="Z146" s="12"/>
       <c r="AA146" s="12"/>
       <c r="AB146" s="18">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AC146" s="18">
         <f t="shared" si="23"/>
-        <v>6</v>
-      </c>
-      <c r="AD146" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD146" s="20" t="str">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="147" customHeight="1" spans="1:30">
@@ -22867,20 +23007,22 @@
       <c r="V147" s="12"/>
       <c r="W147" s="12"/>
       <c r="X147" s="12"/>
-      <c r="Y147" s="12"/>
+      <c r="Y147" s="12">
+        <v>12</v>
+      </c>
       <c r="Z147" s="12"/>
       <c r="AA147" s="12"/>
       <c r="AB147" s="18">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AC147" s="18">
         <f t="shared" si="23"/>
-        <v>12</v>
-      </c>
-      <c r="AD147" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD147" s="20" t="str">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="148" customHeight="1" spans="1:30">
@@ -22921,20 +23063,22 @@
       <c r="V148" s="12"/>
       <c r="W148" s="12"/>
       <c r="X148" s="12"/>
-      <c r="Y148" s="12"/>
+      <c r="Y148" s="12">
+        <v>6</v>
+      </c>
       <c r="Z148" s="12"/>
       <c r="AA148" s="12"/>
       <c r="AB148" s="18">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AC148" s="18">
         <f t="shared" si="23"/>
-        <v>6</v>
-      </c>
-      <c r="AD148" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD148" s="20" t="str">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="149" customHeight="1" spans="1:30">
@@ -22975,20 +23119,22 @@
       <c r="V149" s="12"/>
       <c r="W149" s="12"/>
       <c r="X149" s="12"/>
-      <c r="Y149" s="12"/>
+      <c r="Y149" s="12">
+        <v>12</v>
+      </c>
       <c r="Z149" s="12"/>
       <c r="AA149" s="12"/>
       <c r="AB149" s="18">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AC149" s="18">
         <f t="shared" si="23"/>
-        <v>12</v>
-      </c>
-      <c r="AD149" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD149" s="20" t="str">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="150" customHeight="1" spans="1:30">
@@ -23029,20 +23175,22 @@
       <c r="V150" s="12"/>
       <c r="W150" s="12"/>
       <c r="X150" s="12"/>
-      <c r="Y150" s="12"/>
+      <c r="Y150" s="12">
+        <v>2</v>
+      </c>
       <c r="Z150" s="12"/>
       <c r="AA150" s="12"/>
       <c r="AB150" s="18">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC150" s="18">
         <f t="shared" si="23"/>
-        <v>2</v>
-      </c>
-      <c r="AD150" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD150" s="20" t="str">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="151" customHeight="1" spans="1:30">
@@ -23083,20 +23231,22 @@
       <c r="V151" s="12"/>
       <c r="W151" s="12"/>
       <c r="X151" s="12"/>
-      <c r="Y151" s="12"/>
+      <c r="Y151" s="12">
+        <v>2</v>
+      </c>
       <c r="Z151" s="12"/>
       <c r="AA151" s="12"/>
       <c r="AB151" s="18">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC151" s="18">
         <f t="shared" si="23"/>
-        <v>2</v>
-      </c>
-      <c r="AD151" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD151" s="20" t="str">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="152" customHeight="1" spans="1:30">
@@ -23137,20 +23287,22 @@
       <c r="V152" s="12"/>
       <c r="W152" s="12"/>
       <c r="X152" s="12"/>
-      <c r="Y152" s="12"/>
+      <c r="Y152" s="12">
+        <v>2</v>
+      </c>
       <c r="Z152" s="12"/>
       <c r="AA152" s="12"/>
       <c r="AB152" s="18">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC152" s="18">
         <f t="shared" si="23"/>
-        <v>2</v>
-      </c>
-      <c r="AD152" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD152" s="20" t="str">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="153" customHeight="1" spans="1:30">
@@ -23191,20 +23343,22 @@
       <c r="V153" s="12"/>
       <c r="W153" s="12"/>
       <c r="X153" s="12"/>
-      <c r="Y153" s="12"/>
+      <c r="Y153" s="12">
+        <v>2</v>
+      </c>
       <c r="Z153" s="12"/>
       <c r="AA153" s="12"/>
       <c r="AB153" s="18">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC153" s="18">
         <f t="shared" si="23"/>
-        <v>2</v>
-      </c>
-      <c r="AD153" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD153" s="20" t="str">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="154" customHeight="1" spans="1:30">
@@ -23245,20 +23399,22 @@
       <c r="V154" s="12"/>
       <c r="W154" s="12"/>
       <c r="X154" s="12"/>
-      <c r="Y154" s="12"/>
+      <c r="Y154" s="12">
+        <v>2</v>
+      </c>
       <c r="Z154" s="12"/>
       <c r="AA154" s="12"/>
       <c r="AB154" s="18">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC154" s="18">
         <f t="shared" si="23"/>
-        <v>2</v>
-      </c>
-      <c r="AD154" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD154" s="20" t="str">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="155" customHeight="1" spans="1:30">
@@ -23299,20 +23455,22 @@
       <c r="V155" s="12"/>
       <c r="W155" s="12"/>
       <c r="X155" s="12"/>
-      <c r="Y155" s="12"/>
+      <c r="Y155" s="12">
+        <v>2</v>
+      </c>
       <c r="Z155" s="12"/>
       <c r="AA155" s="12"/>
       <c r="AB155" s="18">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC155" s="18">
         <f t="shared" si="23"/>
-        <v>2</v>
-      </c>
-      <c r="AD155" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD155" s="20" t="str">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="156" customHeight="1" spans="1:30">
@@ -23941,12 +24099,12 @@
   <sheetPr/>
   <dimension ref="A1:AB83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="4" topLeftCell="J5" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="8" ySplit="4" topLeftCell="I49" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Y6" sqref="Y6"/>
+      <selection pane="bottomRight" activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>
@@ -24104,7 +24262,9 @@
       <c r="M4" s="12">
         <v>2.1</v>
       </c>
-      <c r="N4" s="12"/>
+      <c r="N4" s="12">
+        <v>2.2</v>
+      </c>
       <c r="O4" s="25"/>
       <c r="P4" s="25"/>
       <c r="Q4" s="25"/>
@@ -25926,7 +26086,7 @@
       <c r="W38" s="12"/>
       <c r="X38" s="12"/>
       <c r="Y38" s="18">
-        <f t="shared" ref="Y38:Y69" si="4">SUM(I38:X38)</f>
+        <f t="shared" ref="Y38:Y83" si="4">SUM(I38:X38)</f>
         <v>0</v>
       </c>
       <c r="Z38" s="18">
@@ -26517,7 +26677,7 @@
         <v>2</v>
       </c>
       <c r="AA49" s="20">
-        <f>IF(SUM(I49:N49)=C49,"完成",SUM(I49:N49))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -26770,7 +26930,9 @@
       <c r="M54" s="12">
         <v>1</v>
       </c>
-      <c r="N54" s="12"/>
+      <c r="N54" s="12">
+        <v>1</v>
+      </c>
       <c r="O54" s="12"/>
       <c r="P54" s="12"/>
       <c r="Q54" s="12"/>
@@ -26783,15 +26945,15 @@
       <c r="X54" s="12"/>
       <c r="Y54" s="18">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z54" s="18">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="AA54" s="20">
+        <v>0</v>
+      </c>
+      <c r="AA54" s="20" t="str">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="1:27">
@@ -26878,7 +27040,9 @@
       <c r="K56" s="12"/>
       <c r="L56" s="12"/>
       <c r="M56" s="12"/>
-      <c r="N56" s="12"/>
+      <c r="N56" s="12">
+        <v>1</v>
+      </c>
       <c r="O56" s="12"/>
       <c r="P56" s="12"/>
       <c r="Q56" s="12"/>
@@ -26891,15 +27055,15 @@
       <c r="X56" s="12"/>
       <c r="Y56" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z56" s="18">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="AA56" s="20">
+        <v>0</v>
+      </c>
+      <c r="AA56" s="20" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="1:27">
@@ -27634,7 +27798,7 @@
       <c r="W70" s="12"/>
       <c r="X70" s="12"/>
       <c r="Y70" s="18">
-        <f>SUM(I70:X70)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Z70" s="18">
@@ -27687,7 +27851,7 @@
       <c r="W71" s="12"/>
       <c r="X71" s="12"/>
       <c r="Y71" s="18">
-        <f>SUM(I71:X71)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Z71" s="18">
@@ -27740,7 +27904,7 @@
       <c r="W72" s="12"/>
       <c r="X72" s="12"/>
       <c r="Y72" s="18">
-        <f>SUM(I72:X72)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Z72" s="18">
@@ -27793,7 +27957,7 @@
       <c r="W73" s="12"/>
       <c r="X73" s="12"/>
       <c r="Y73" s="18">
-        <f>SUM(I73:X73)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Z73" s="18">
@@ -27846,7 +28010,7 @@
       <c r="W74" s="12"/>
       <c r="X74" s="12"/>
       <c r="Y74" s="18">
-        <f>SUM(I74:X74)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Z74" s="18">
@@ -27899,7 +28063,7 @@
       <c r="W75" s="12"/>
       <c r="X75" s="12"/>
       <c r="Y75" s="18">
-        <f>SUM(I75:X75)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Z75" s="18">
@@ -27952,7 +28116,7 @@
       <c r="W76" s="12"/>
       <c r="X76" s="12"/>
       <c r="Y76" s="18">
-        <f>SUM(I76:X76)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Z76" s="18">
@@ -28005,7 +28169,7 @@
       <c r="W77" s="12"/>
       <c r="X77" s="12"/>
       <c r="Y77" s="18">
-        <f>SUM(I77:X77)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Z77" s="18">
@@ -28058,7 +28222,7 @@
       <c r="W78" s="12"/>
       <c r="X78" s="12"/>
       <c r="Y78" s="18">
-        <f>SUM(I78:X78)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Z78" s="18">
@@ -28111,7 +28275,7 @@
       <c r="W79" s="12"/>
       <c r="X79" s="12"/>
       <c r="Y79" s="18">
-        <f>SUM(I79:X79)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Z79" s="18">
@@ -28164,7 +28328,7 @@
       <c r="W80" s="12"/>
       <c r="X80" s="12"/>
       <c r="Y80" s="18">
-        <f>SUM(I80:X80)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Z80" s="18">
@@ -28217,7 +28381,7 @@
       <c r="W81" s="12"/>
       <c r="X81" s="12"/>
       <c r="Y81" s="18">
-        <f>SUM(I81:X81)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Z81" s="18">
@@ -28270,7 +28434,7 @@
       <c r="W82" s="12"/>
       <c r="X82" s="12"/>
       <c r="Y82" s="18">
-        <f>SUM(I82:X82)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Z82" s="18">
@@ -28323,7 +28487,7 @@
       <c r="W83" s="12"/>
       <c r="X83" s="12"/>
       <c r="Y83" s="18">
-        <f>SUM(I83:X83)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Z83" s="18">
@@ -28365,14 +28529,14 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R72"/>
+  <dimension ref="A1:AB72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="8" ySplit="4" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F19" sqref="F19"/>
+      <selection pane="bottomRight" activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>
@@ -28387,16 +28551,16 @@
     <col min="9" max="9" width="12.25" style="4" customWidth="1" outlineLevel="1"/>
     <col min="10" max="10" width="10" style="4" customWidth="1" outlineLevel="1"/>
     <col min="11" max="11" width="9.62962962962963" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="13" width="8.75" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="6.62962962962963" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="12.5" style="4" customWidth="1"/>
-    <col min="16" max="16" width="9.62962962962963" style="4" customWidth="1"/>
-    <col min="17" max="17" width="20" style="3" customWidth="1"/>
-    <col min="18" max="18" width="12.75" style="5" customWidth="1"/>
-    <col min="19" max="16360" width="9" style="5"/>
+    <col min="12" max="23" width="8.75" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="24" max="24" width="6.62962962962963" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="25" max="25" width="12.5" style="4" customWidth="1"/>
+    <col min="26" max="26" width="9.62962962962963" style="4" customWidth="1"/>
+    <col min="27" max="27" width="20" style="3" customWidth="1"/>
+    <col min="28" max="28" width="12.75" style="5" customWidth="1"/>
+    <col min="29" max="16370" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" ht="26.1" customHeight="1" spans="2:17">
+    <row r="1" ht="26.1" customHeight="1" spans="2:27">
       <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
@@ -28415,10 +28579,20 @@
       <c r="O1" s="6"/>
       <c r="P1" s="6"/>
       <c r="Q1" s="6"/>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="24.75" customHeight="1" spans="1:17">
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
+      <c r="AA1" s="6"/>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="24.75" customHeight="1" spans="1:27">
       <c r="A2" s="3" t="s">
-        <v>1</v>
+        <v>409</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -28436,8 +28610,18 @@
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
-    </row>
-    <row r="3" s="2" customFormat="1" ht="26.25" customHeight="1" spans="1:17">
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+    </row>
+    <row r="3" s="2" customFormat="1" ht="26.25" customHeight="1" spans="1:27">
       <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
@@ -28472,11 +28656,21 @@
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
       <c r="P3" s="15"/>
-      <c r="Q3" s="8" t="s">
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="15"/>
+      <c r="W3" s="15"/>
+      <c r="X3" s="15"/>
+      <c r="Y3" s="15"/>
+      <c r="Z3" s="15"/>
+      <c r="AA3" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" ht="26.25" customHeight="1" spans="1:17">
+    <row r="4" s="2" customFormat="1" ht="26.25" customHeight="1" spans="1:27">
       <c r="A4" s="10"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -28491,285 +28685,484 @@
       <c r="L4" s="12"/>
       <c r="M4" s="12"/>
       <c r="N4" s="12"/>
-      <c r="O4" s="16" t="s">
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="P4" s="16" t="s">
+      <c r="Z4" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="Q4" s="8"/>
-    </row>
-    <row r="5" customHeight="1" spans="1:17">
+      <c r="AA4" s="8"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:27">
       <c r="A5" s="12">
         <v>1</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
+      <c r="B5" s="13" t="s">
+        <v>410</v>
+      </c>
+      <c r="C5" s="13">
+        <v>44</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>411</v>
+      </c>
       <c r="E5" s="14"/>
       <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="12"/>
+      <c r="G5" s="13">
+        <v>1104.9</v>
+      </c>
+      <c r="H5" s="12">
+        <f>G5*C5</f>
+        <v>48615.6</v>
+      </c>
       <c r="I5" s="17"/>
       <c r="J5" s="12"/>
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
       <c r="M5" s="12"/>
       <c r="N5" s="12"/>
-      <c r="O5" s="18">
-        <f t="shared" ref="O5:O67" si="0">SUM(I5:N5)</f>
-        <v>0</v>
-      </c>
-      <c r="P5" s="18">
-        <f t="shared" ref="P5:P67" si="1">C5-O5</f>
-        <v>0</v>
-      </c>
-      <c r="Q5" s="20" t="str">
-        <f t="shared" ref="Q5:Q67" si="2">IF(SUM(I5:N5)=C5,"完成",SUM(I5:N5))</f>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="6" customHeight="1" spans="1:17">
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="18">
+        <f>SUM(I5:X5)</f>
+        <v>0</v>
+      </c>
+      <c r="Z5" s="18">
+        <f>C5-Y5</f>
+        <v>44</v>
+      </c>
+      <c r="AA5" s="20">
+        <f>IF(SUM(I5:X5)=C5,"完成",SUM(I5:X5))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:27">
       <c r="A6" s="12">
         <v>2</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
+      <c r="B6" s="13" t="s">
+        <v>412</v>
+      </c>
+      <c r="C6" s="13">
+        <v>1</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>411</v>
+      </c>
       <c r="E6" s="14"/>
       <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="12"/>
+      <c r="G6" s="13">
+        <v>1101.6</v>
+      </c>
+      <c r="H6" s="12">
+        <f t="shared" ref="H6:H13" si="0">G6*C6</f>
+        <v>1101.6</v>
+      </c>
       <c r="I6" s="17"/>
       <c r="J6" s="12"/>
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
-      <c r="O6" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P6" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q6" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="7" customHeight="1" spans="1:17">
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="18">
+        <f t="shared" ref="Y5:Y67" si="1">SUM(I6:X6)</f>
+        <v>0</v>
+      </c>
+      <c r="Z6" s="18">
+        <f t="shared" ref="Z5:Z67" si="2">C6-Y6</f>
+        <v>1</v>
+      </c>
+      <c r="AA6" s="20">
+        <f t="shared" ref="AA5:AA67" si="3">IF(SUM(I6:X6)=C6,"完成",SUM(I6:X6))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:27">
       <c r="A7" s="12">
         <v>3</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
+      <c r="B7" s="13" t="s">
+        <v>413</v>
+      </c>
+      <c r="C7" s="13">
+        <v>1</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>411</v>
+      </c>
       <c r="E7" s="14"/>
       <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="12"/>
+      <c r="G7" s="13">
+        <v>1098.3</v>
+      </c>
+      <c r="H7" s="12">
+        <f t="shared" si="0"/>
+        <v>1098.3</v>
+      </c>
       <c r="I7" s="17"/>
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
       <c r="M7" s="12"/>
       <c r="N7" s="12"/>
-      <c r="O7" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P7" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q7" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="8" customHeight="1" spans="1:17">
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="12"/>
+      <c r="Y7" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z7" s="18">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AA7" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:27">
       <c r="A8" s="12">
         <v>4</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
+      <c r="B8" s="13" t="s">
+        <v>414</v>
+      </c>
+      <c r="C8" s="13">
+        <v>1</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>411</v>
+      </c>
       <c r="E8" s="14"/>
       <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="12"/>
+      <c r="G8" s="13">
+        <v>1095.8</v>
+      </c>
+      <c r="H8" s="12">
+        <f t="shared" si="0"/>
+        <v>1095.8</v>
+      </c>
       <c r="I8" s="17"/>
       <c r="J8" s="12"/>
       <c r="K8" s="12"/>
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
       <c r="N8" s="12"/>
-      <c r="O8" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P8" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q8" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="9" customHeight="1" spans="1:17">
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="12"/>
+      <c r="X8" s="12"/>
+      <c r="Y8" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z8" s="18">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AA8" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:27">
       <c r="A9" s="12">
         <v>5</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
+      <c r="B9" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="C9" s="13">
+        <v>1</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>411</v>
+      </c>
       <c r="E9" s="12"/>
       <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="12"/>
+      <c r="G9" s="13">
+        <v>1097.5</v>
+      </c>
+      <c r="H9" s="12">
+        <f t="shared" si="0"/>
+        <v>1097.5</v>
+      </c>
       <c r="I9" s="17"/>
       <c r="J9" s="12"/>
       <c r="K9" s="12"/>
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
       <c r="N9" s="12"/>
-      <c r="O9" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P9" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q9" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="10" customHeight="1" spans="1:17">
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="12"/>
+      <c r="X9" s="12"/>
+      <c r="Y9" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z9" s="18">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AA9" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:27">
       <c r="A10" s="12">
         <v>6</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
+      <c r="B10" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="C10" s="13">
+        <v>1</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>411</v>
+      </c>
       <c r="E10" s="12"/>
       <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="12"/>
+      <c r="G10" s="13">
+        <v>1094.9</v>
+      </c>
+      <c r="H10" s="12">
+        <f t="shared" si="0"/>
+        <v>1094.9</v>
+      </c>
       <c r="I10" s="17"/>
       <c r="J10" s="12"/>
       <c r="K10" s="12"/>
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
       <c r="N10" s="12"/>
-      <c r="O10" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P10" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q10" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" spans="1:17">
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="12"/>
+      <c r="W10" s="12"/>
+      <c r="X10" s="12"/>
+      <c r="Y10" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z10" s="18">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AA10" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:27">
       <c r="A11" s="12">
         <v>7</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
+      <c r="B11" s="13" t="s">
+        <v>417</v>
+      </c>
+      <c r="C11" s="13">
+        <v>2</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>411</v>
+      </c>
       <c r="E11" s="12"/>
       <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="12"/>
+      <c r="G11" s="13">
+        <v>1094.9</v>
+      </c>
+      <c r="H11" s="12">
+        <f t="shared" si="0"/>
+        <v>2189.8</v>
+      </c>
       <c r="I11" s="17"/>
       <c r="J11" s="12"/>
       <c r="K11" s="12"/>
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
       <c r="N11" s="12"/>
-      <c r="O11" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P11" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q11" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="12" customHeight="1" spans="1:17">
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="12"/>
+      <c r="W11" s="12"/>
+      <c r="X11" s="12"/>
+      <c r="Y11" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z11" s="18">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AA11" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:27">
       <c r="A12" s="12">
         <v>8</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
+      <c r="B12" s="13" t="s">
+        <v>418</v>
+      </c>
+      <c r="C12" s="13">
+        <v>2</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>411</v>
+      </c>
       <c r="E12" s="12"/>
       <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="12"/>
+      <c r="G12" s="13">
+        <v>1095.8</v>
+      </c>
+      <c r="H12" s="12">
+        <f t="shared" si="0"/>
+        <v>2191.6</v>
+      </c>
       <c r="I12" s="17"/>
       <c r="J12" s="12"/>
       <c r="K12" s="12"/>
       <c r="L12" s="12"/>
       <c r="M12" s="12"/>
       <c r="N12" s="12"/>
-      <c r="O12" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P12" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="13" customHeight="1" spans="1:17">
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z12" s="18">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AA12" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:27">
       <c r="A13" s="12">
         <v>9</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
+      <c r="B13" s="13" t="s">
+        <v>419</v>
+      </c>
+      <c r="C13" s="13">
+        <v>1</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>411</v>
+      </c>
       <c r="E13" s="12"/>
       <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="12"/>
+      <c r="G13" s="13">
+        <v>1098.3</v>
+      </c>
+      <c r="H13" s="12">
+        <f t="shared" si="0"/>
+        <v>1098.3</v>
+      </c>
       <c r="I13" s="17"/>
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
       <c r="N13" s="12"/>
-      <c r="O13" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P13" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q13" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="14" customHeight="1" spans="1:17">
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="12"/>
+      <c r="W13" s="12"/>
+      <c r="X13" s="12"/>
+      <c r="Y13" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z13" s="18">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AA13" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:27">
       <c r="A14" s="12">
         <v>10</v>
       </c>
@@ -28786,20 +29179,30 @@
       <c r="L14" s="12"/>
       <c r="M14" s="12"/>
       <c r="N14" s="12"/>
-      <c r="O14" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P14" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="15" customHeight="1" spans="1:17">
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="12"/>
+      <c r="W14" s="12"/>
+      <c r="X14" s="12"/>
+      <c r="Y14" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z14" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA14" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:27">
       <c r="A15" s="12">
         <v>11</v>
       </c>
@@ -28816,20 +29219,30 @@
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
       <c r="N15" s="12"/>
-      <c r="O15" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P15" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q15" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="16" customHeight="1" spans="1:17">
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="12"/>
+      <c r="W15" s="12"/>
+      <c r="X15" s="12"/>
+      <c r="Y15" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z15" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA15" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:27">
       <c r="A16" s="12">
         <v>12</v>
       </c>
@@ -28846,20 +29259,30 @@
       <c r="L16" s="12"/>
       <c r="M16" s="12"/>
       <c r="N16" s="12"/>
-      <c r="O16" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P16" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q16" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="17" customHeight="1" spans="1:17">
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="12"/>
+      <c r="Y16" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z16" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA16" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="1:27">
       <c r="A17" s="12">
         <v>13</v>
       </c>
@@ -28876,20 +29299,30 @@
       <c r="L17" s="12"/>
       <c r="M17" s="12"/>
       <c r="N17" s="12"/>
-      <c r="O17" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P17" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q17" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="18" customHeight="1" spans="1:17">
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="12"/>
+      <c r="V17" s="12"/>
+      <c r="W17" s="12"/>
+      <c r="X17" s="12"/>
+      <c r="Y17" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z17" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA17" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="1:27">
       <c r="A18" s="12">
         <v>14</v>
       </c>
@@ -28906,20 +29339,30 @@
       <c r="L18" s="12"/>
       <c r="M18" s="12"/>
       <c r="N18" s="12"/>
-      <c r="O18" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P18" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q18" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="19" customHeight="1" spans="1:17">
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="12"/>
+      <c r="W18" s="12"/>
+      <c r="X18" s="12"/>
+      <c r="Y18" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z18" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA18" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="1:27">
       <c r="A19" s="12">
         <v>15</v>
       </c>
@@ -28936,20 +29379,30 @@
       <c r="L19" s="12"/>
       <c r="M19" s="12"/>
       <c r="N19" s="12"/>
-      <c r="O19" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P19" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q19" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="20" customHeight="1" spans="1:17">
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="12"/>
+      <c r="U19" s="12"/>
+      <c r="V19" s="12"/>
+      <c r="W19" s="12"/>
+      <c r="X19" s="12"/>
+      <c r="Y19" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z19" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA19" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="1:27">
       <c r="A20" s="12">
         <v>16</v>
       </c>
@@ -28966,20 +29419,30 @@
       <c r="L20" s="12"/>
       <c r="M20" s="12"/>
       <c r="N20" s="12"/>
-      <c r="O20" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P20" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q20" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="21" customHeight="1" spans="1:17">
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="12"/>
+      <c r="V20" s="12"/>
+      <c r="W20" s="12"/>
+      <c r="X20" s="12"/>
+      <c r="Y20" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z20" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA20" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="1:27">
       <c r="A21" s="12">
         <v>17</v>
       </c>
@@ -28996,20 +29459,30 @@
       <c r="L21" s="12"/>
       <c r="M21" s="12"/>
       <c r="N21" s="12"/>
-      <c r="O21" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P21" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q21" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="22" customHeight="1" spans="1:18">
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="12"/>
+      <c r="U21" s="12"/>
+      <c r="V21" s="12"/>
+      <c r="W21" s="12"/>
+      <c r="X21" s="12"/>
+      <c r="Y21" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z21" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA21" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="1:28">
       <c r="A22" s="12">
         <v>18</v>
       </c>
@@ -29026,21 +29499,31 @@
       <c r="L22" s="12"/>
       <c r="M22" s="12"/>
       <c r="N22" s="12"/>
-      <c r="O22" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P22" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q22" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>完成</v>
-      </c>
-      <c r="R22" s="21"/>
-    </row>
-    <row r="23" customHeight="1" spans="1:17">
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="12"/>
+      <c r="U22" s="12"/>
+      <c r="V22" s="12"/>
+      <c r="W22" s="12"/>
+      <c r="X22" s="12"/>
+      <c r="Y22" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z22" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA22" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>完成</v>
+      </c>
+      <c r="AB22" s="21"/>
+    </row>
+    <row r="23" customHeight="1" spans="1:27">
       <c r="A23" s="12">
         <v>19</v>
       </c>
@@ -29057,20 +29540,30 @@
       <c r="L23" s="12"/>
       <c r="M23" s="12"/>
       <c r="N23" s="12"/>
-      <c r="O23" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P23" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q23" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="24" customHeight="1" spans="1:17">
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="12"/>
+      <c r="S23" s="12"/>
+      <c r="T23" s="12"/>
+      <c r="U23" s="12"/>
+      <c r="V23" s="12"/>
+      <c r="W23" s="12"/>
+      <c r="X23" s="12"/>
+      <c r="Y23" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z23" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA23" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="1:27">
       <c r="A24" s="12">
         <v>20</v>
       </c>
@@ -29087,20 +29580,30 @@
       <c r="L24" s="12"/>
       <c r="M24" s="12"/>
       <c r="N24" s="12"/>
-      <c r="O24" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P24" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q24" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="25" customHeight="1" spans="1:17">
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12"/>
+      <c r="S24" s="12"/>
+      <c r="T24" s="12"/>
+      <c r="U24" s="12"/>
+      <c r="V24" s="12"/>
+      <c r="W24" s="12"/>
+      <c r="X24" s="12"/>
+      <c r="Y24" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z24" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA24" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="1:27">
       <c r="A25" s="12">
         <v>21</v>
       </c>
@@ -29117,20 +29620,30 @@
       <c r="L25" s="12"/>
       <c r="M25" s="12"/>
       <c r="N25" s="12"/>
-      <c r="O25" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P25" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q25" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="26" customHeight="1" spans="1:17">
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
+      <c r="S25" s="12"/>
+      <c r="T25" s="12"/>
+      <c r="U25" s="12"/>
+      <c r="V25" s="12"/>
+      <c r="W25" s="12"/>
+      <c r="X25" s="12"/>
+      <c r="Y25" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z25" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA25" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="1:27">
       <c r="A26" s="12">
         <v>22</v>
       </c>
@@ -29147,20 +29660,30 @@
       <c r="L26" s="12"/>
       <c r="M26" s="12"/>
       <c r="N26" s="12"/>
-      <c r="O26" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P26" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q26" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="27" customHeight="1" spans="1:17">
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="12"/>
+      <c r="S26" s="12"/>
+      <c r="T26" s="12"/>
+      <c r="U26" s="12"/>
+      <c r="V26" s="12"/>
+      <c r="W26" s="12"/>
+      <c r="X26" s="12"/>
+      <c r="Y26" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z26" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA26" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="1:27">
       <c r="A27" s="12">
         <v>23</v>
       </c>
@@ -29177,20 +29700,30 @@
       <c r="L27" s="12"/>
       <c r="M27" s="12"/>
       <c r="N27" s="12"/>
-      <c r="O27" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P27" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q27" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="28" customHeight="1" spans="1:17">
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="12"/>
+      <c r="S27" s="12"/>
+      <c r="T27" s="12"/>
+      <c r="U27" s="12"/>
+      <c r="V27" s="12"/>
+      <c r="W27" s="12"/>
+      <c r="X27" s="12"/>
+      <c r="Y27" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z27" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA27" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="1:27">
       <c r="A28" s="12">
         <v>24</v>
       </c>
@@ -29207,20 +29740,30 @@
       <c r="L28" s="12"/>
       <c r="M28" s="12"/>
       <c r="N28" s="12"/>
-      <c r="O28" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P28" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q28" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="29" customHeight="1" spans="1:17">
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="12"/>
+      <c r="S28" s="12"/>
+      <c r="T28" s="12"/>
+      <c r="U28" s="12"/>
+      <c r="V28" s="12"/>
+      <c r="W28" s="12"/>
+      <c r="X28" s="12"/>
+      <c r="Y28" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z28" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA28" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="1:27">
       <c r="A29" s="12">
         <v>25</v>
       </c>
@@ -29237,20 +29780,30 @@
       <c r="L29" s="12"/>
       <c r="M29" s="12"/>
       <c r="N29" s="12"/>
-      <c r="O29" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P29" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q29" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="30" customHeight="1" spans="1:17">
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="12"/>
+      <c r="S29" s="12"/>
+      <c r="T29" s="12"/>
+      <c r="U29" s="12"/>
+      <c r="V29" s="12"/>
+      <c r="W29" s="12"/>
+      <c r="X29" s="12"/>
+      <c r="Y29" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z29" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA29" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="1:27">
       <c r="A30" s="12">
         <v>26</v>
       </c>
@@ -29267,20 +29820,30 @@
       <c r="L30" s="12"/>
       <c r="M30" s="12"/>
       <c r="N30" s="12"/>
-      <c r="O30" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P30" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q30" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="31" customHeight="1" spans="1:17">
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="12"/>
+      <c r="S30" s="12"/>
+      <c r="T30" s="12"/>
+      <c r="U30" s="12"/>
+      <c r="V30" s="12"/>
+      <c r="W30" s="12"/>
+      <c r="X30" s="12"/>
+      <c r="Y30" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z30" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA30" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="1:27">
       <c r="A31" s="12">
         <v>27</v>
       </c>
@@ -29297,20 +29860,30 @@
       <c r="L31" s="12"/>
       <c r="M31" s="12"/>
       <c r="N31" s="12"/>
-      <c r="O31" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P31" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q31" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="32" customHeight="1" spans="1:17">
+      <c r="O31" s="12"/>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="12"/>
+      <c r="R31" s="12"/>
+      <c r="S31" s="12"/>
+      <c r="T31" s="12"/>
+      <c r="U31" s="12"/>
+      <c r="V31" s="12"/>
+      <c r="W31" s="12"/>
+      <c r="X31" s="12"/>
+      <c r="Y31" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z31" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA31" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="1:27">
       <c r="A32" s="12">
         <v>28</v>
       </c>
@@ -29327,20 +29900,30 @@
       <c r="L32" s="12"/>
       <c r="M32" s="12"/>
       <c r="N32" s="12"/>
-      <c r="O32" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P32" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q32" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="33" customHeight="1" spans="1:17">
+      <c r="O32" s="12"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="12"/>
+      <c r="R32" s="12"/>
+      <c r="S32" s="12"/>
+      <c r="T32" s="12"/>
+      <c r="U32" s="12"/>
+      <c r="V32" s="12"/>
+      <c r="W32" s="12"/>
+      <c r="X32" s="12"/>
+      <c r="Y32" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z32" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA32" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="1:27">
       <c r="A33" s="12">
         <v>29</v>
       </c>
@@ -29357,20 +29940,30 @@
       <c r="L33" s="12"/>
       <c r="M33" s="12"/>
       <c r="N33" s="12"/>
-      <c r="O33" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P33" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q33" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="34" customHeight="1" spans="1:17">
+      <c r="O33" s="12"/>
+      <c r="P33" s="12"/>
+      <c r="Q33" s="12"/>
+      <c r="R33" s="12"/>
+      <c r="S33" s="12"/>
+      <c r="T33" s="12"/>
+      <c r="U33" s="12"/>
+      <c r="V33" s="12"/>
+      <c r="W33" s="12"/>
+      <c r="X33" s="12"/>
+      <c r="Y33" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z33" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA33" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="1:27">
       <c r="A34" s="12">
         <v>30</v>
       </c>
@@ -29387,20 +29980,30 @@
       <c r="L34" s="12"/>
       <c r="M34" s="12"/>
       <c r="N34" s="12"/>
-      <c r="O34" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P34" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q34" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="35" customHeight="1" spans="1:17">
+      <c r="O34" s="12"/>
+      <c r="P34" s="12"/>
+      <c r="Q34" s="12"/>
+      <c r="R34" s="12"/>
+      <c r="S34" s="12"/>
+      <c r="T34" s="12"/>
+      <c r="U34" s="12"/>
+      <c r="V34" s="12"/>
+      <c r="W34" s="12"/>
+      <c r="X34" s="12"/>
+      <c r="Y34" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z34" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA34" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="1:27">
       <c r="A35" s="12">
         <v>31</v>
       </c>
@@ -29417,20 +30020,30 @@
       <c r="L35" s="12"/>
       <c r="M35" s="12"/>
       <c r="N35" s="12"/>
-      <c r="O35" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P35" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q35" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="36" customHeight="1" spans="1:17">
+      <c r="O35" s="12"/>
+      <c r="P35" s="12"/>
+      <c r="Q35" s="12"/>
+      <c r="R35" s="12"/>
+      <c r="S35" s="12"/>
+      <c r="T35" s="12"/>
+      <c r="U35" s="12"/>
+      <c r="V35" s="12"/>
+      <c r="W35" s="12"/>
+      <c r="X35" s="12"/>
+      <c r="Y35" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z35" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA35" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="1:27">
       <c r="A36" s="12">
         <v>32</v>
       </c>
@@ -29447,20 +30060,30 @@
       <c r="L36" s="12"/>
       <c r="M36" s="12"/>
       <c r="N36" s="12"/>
-      <c r="O36" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P36" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q36" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="37" customHeight="1" spans="1:17">
+      <c r="O36" s="12"/>
+      <c r="P36" s="12"/>
+      <c r="Q36" s="12"/>
+      <c r="R36" s="12"/>
+      <c r="S36" s="12"/>
+      <c r="T36" s="12"/>
+      <c r="U36" s="12"/>
+      <c r="V36" s="12"/>
+      <c r="W36" s="12"/>
+      <c r="X36" s="12"/>
+      <c r="Y36" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z36" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA36" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="1:27">
       <c r="A37" s="12">
         <v>33</v>
       </c>
@@ -29477,20 +30100,30 @@
       <c r="L37" s="12"/>
       <c r="M37" s="12"/>
       <c r="N37" s="12"/>
-      <c r="O37" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P37" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q37" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="38" customHeight="1" spans="1:17">
+      <c r="O37" s="12"/>
+      <c r="P37" s="12"/>
+      <c r="Q37" s="12"/>
+      <c r="R37" s="12"/>
+      <c r="S37" s="12"/>
+      <c r="T37" s="12"/>
+      <c r="U37" s="12"/>
+      <c r="V37" s="12"/>
+      <c r="W37" s="12"/>
+      <c r="X37" s="12"/>
+      <c r="Y37" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z37" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA37" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="1:27">
       <c r="A38" s="12">
         <v>34</v>
       </c>
@@ -29507,20 +30140,30 @@
       <c r="L38" s="12"/>
       <c r="M38" s="12"/>
       <c r="N38" s="12"/>
-      <c r="O38" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P38" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q38" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="39" customHeight="1" spans="1:17">
+      <c r="O38" s="12"/>
+      <c r="P38" s="12"/>
+      <c r="Q38" s="12"/>
+      <c r="R38" s="12"/>
+      <c r="S38" s="12"/>
+      <c r="T38" s="12"/>
+      <c r="U38" s="12"/>
+      <c r="V38" s="12"/>
+      <c r="W38" s="12"/>
+      <c r="X38" s="12"/>
+      <c r="Y38" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z38" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA38" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="1:27">
       <c r="A39" s="12">
         <v>35</v>
       </c>
@@ -29537,20 +30180,30 @@
       <c r="L39" s="12"/>
       <c r="M39" s="12"/>
       <c r="N39" s="12"/>
-      <c r="O39" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P39" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q39" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="40" customHeight="1" spans="1:17">
+      <c r="O39" s="12"/>
+      <c r="P39" s="12"/>
+      <c r="Q39" s="12"/>
+      <c r="R39" s="12"/>
+      <c r="S39" s="12"/>
+      <c r="T39" s="12"/>
+      <c r="U39" s="12"/>
+      <c r="V39" s="12"/>
+      <c r="W39" s="12"/>
+      <c r="X39" s="12"/>
+      <c r="Y39" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z39" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA39" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="1:27">
       <c r="A40" s="12">
         <v>36</v>
       </c>
@@ -29567,20 +30220,30 @@
       <c r="L40" s="12"/>
       <c r="M40" s="12"/>
       <c r="N40" s="12"/>
-      <c r="O40" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P40" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q40" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="41" customHeight="1" spans="1:17">
+      <c r="O40" s="12"/>
+      <c r="P40" s="12"/>
+      <c r="Q40" s="12"/>
+      <c r="R40" s="12"/>
+      <c r="S40" s="12"/>
+      <c r="T40" s="12"/>
+      <c r="U40" s="12"/>
+      <c r="V40" s="12"/>
+      <c r="W40" s="12"/>
+      <c r="X40" s="12"/>
+      <c r="Y40" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z40" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA40" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="1:27">
       <c r="A41" s="12">
         <v>37</v>
       </c>
@@ -29597,20 +30260,30 @@
       <c r="L41" s="12"/>
       <c r="M41" s="12"/>
       <c r="N41" s="12"/>
-      <c r="O41" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P41" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q41" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="42" customHeight="1" spans="1:17">
+      <c r="O41" s="12"/>
+      <c r="P41" s="12"/>
+      <c r="Q41" s="12"/>
+      <c r="R41" s="12"/>
+      <c r="S41" s="12"/>
+      <c r="T41" s="12"/>
+      <c r="U41" s="12"/>
+      <c r="V41" s="12"/>
+      <c r="W41" s="12"/>
+      <c r="X41" s="12"/>
+      <c r="Y41" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z41" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA41" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="1:27">
       <c r="A42" s="12">
         <v>38</v>
       </c>
@@ -29627,20 +30300,30 @@
       <c r="L42" s="12"/>
       <c r="M42" s="12"/>
       <c r="N42" s="12"/>
-      <c r="O42" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P42" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q42" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="43" customHeight="1" spans="1:17">
+      <c r="O42" s="12"/>
+      <c r="P42" s="12"/>
+      <c r="Q42" s="12"/>
+      <c r="R42" s="12"/>
+      <c r="S42" s="12"/>
+      <c r="T42" s="12"/>
+      <c r="U42" s="12"/>
+      <c r="V42" s="12"/>
+      <c r="W42" s="12"/>
+      <c r="X42" s="12"/>
+      <c r="Y42" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z42" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA42" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="1:27">
       <c r="A43" s="12">
         <v>39</v>
       </c>
@@ -29657,20 +30340,30 @@
       <c r="L43" s="12"/>
       <c r="M43" s="12"/>
       <c r="N43" s="12"/>
-      <c r="O43" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P43" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q43" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="44" customHeight="1" spans="1:17">
+      <c r="O43" s="12"/>
+      <c r="P43" s="12"/>
+      <c r="Q43" s="12"/>
+      <c r="R43" s="12"/>
+      <c r="S43" s="12"/>
+      <c r="T43" s="12"/>
+      <c r="U43" s="12"/>
+      <c r="V43" s="12"/>
+      <c r="W43" s="12"/>
+      <c r="X43" s="12"/>
+      <c r="Y43" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z43" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA43" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="1:27">
       <c r="A44" s="12">
         <v>40</v>
       </c>
@@ -29687,20 +30380,30 @@
       <c r="L44" s="12"/>
       <c r="M44" s="12"/>
       <c r="N44" s="12"/>
-      <c r="O44" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P44" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q44" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="45" customHeight="1" spans="1:17">
+      <c r="O44" s="12"/>
+      <c r="P44" s="12"/>
+      <c r="Q44" s="12"/>
+      <c r="R44" s="12"/>
+      <c r="S44" s="12"/>
+      <c r="T44" s="12"/>
+      <c r="U44" s="12"/>
+      <c r="V44" s="12"/>
+      <c r="W44" s="12"/>
+      <c r="X44" s="12"/>
+      <c r="Y44" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z44" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA44" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="1:27">
       <c r="A45" s="12">
         <v>41</v>
       </c>
@@ -29717,20 +30420,30 @@
       <c r="L45" s="12"/>
       <c r="M45" s="12"/>
       <c r="N45" s="12"/>
-      <c r="O45" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P45" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q45" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="46" customHeight="1" spans="1:17">
+      <c r="O45" s="12"/>
+      <c r="P45" s="12"/>
+      <c r="Q45" s="12"/>
+      <c r="R45" s="12"/>
+      <c r="S45" s="12"/>
+      <c r="T45" s="12"/>
+      <c r="U45" s="12"/>
+      <c r="V45" s="12"/>
+      <c r="W45" s="12"/>
+      <c r="X45" s="12"/>
+      <c r="Y45" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z45" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA45" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="1:27">
       <c r="A46" s="12">
         <v>42</v>
       </c>
@@ -29747,20 +30460,30 @@
       <c r="L46" s="12"/>
       <c r="M46" s="12"/>
       <c r="N46" s="12"/>
-      <c r="O46" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P46" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q46" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="47" customHeight="1" spans="1:17">
+      <c r="O46" s="12"/>
+      <c r="P46" s="12"/>
+      <c r="Q46" s="12"/>
+      <c r="R46" s="12"/>
+      <c r="S46" s="12"/>
+      <c r="T46" s="12"/>
+      <c r="U46" s="12"/>
+      <c r="V46" s="12"/>
+      <c r="W46" s="12"/>
+      <c r="X46" s="12"/>
+      <c r="Y46" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z46" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA46" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" spans="1:27">
       <c r="A47" s="12">
         <v>43</v>
       </c>
@@ -29777,20 +30500,30 @@
       <c r="L47" s="12"/>
       <c r="M47" s="12"/>
       <c r="N47" s="12"/>
-      <c r="O47" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P47" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q47" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="48" customHeight="1" spans="1:17">
+      <c r="O47" s="12"/>
+      <c r="P47" s="12"/>
+      <c r="Q47" s="12"/>
+      <c r="R47" s="12"/>
+      <c r="S47" s="12"/>
+      <c r="T47" s="12"/>
+      <c r="U47" s="12"/>
+      <c r="V47" s="12"/>
+      <c r="W47" s="12"/>
+      <c r="X47" s="12"/>
+      <c r="Y47" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z47" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA47" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="1:27">
       <c r="A48" s="12">
         <v>44</v>
       </c>
@@ -29807,20 +30540,30 @@
       <c r="L48" s="12"/>
       <c r="M48" s="12"/>
       <c r="N48" s="12"/>
-      <c r="O48" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P48" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q48" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="49" customHeight="1" spans="1:17">
+      <c r="O48" s="12"/>
+      <c r="P48" s="12"/>
+      <c r="Q48" s="12"/>
+      <c r="R48" s="12"/>
+      <c r="S48" s="12"/>
+      <c r="T48" s="12"/>
+      <c r="U48" s="12"/>
+      <c r="V48" s="12"/>
+      <c r="W48" s="12"/>
+      <c r="X48" s="12"/>
+      <c r="Y48" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z48" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA48" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" spans="1:27">
       <c r="A49" s="12">
         <v>45</v>
       </c>
@@ -29837,20 +30580,30 @@
       <c r="L49" s="12"/>
       <c r="M49" s="12"/>
       <c r="N49" s="12"/>
-      <c r="O49" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P49" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q49" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="50" customHeight="1" spans="1:17">
+      <c r="O49" s="12"/>
+      <c r="P49" s="12"/>
+      <c r="Q49" s="12"/>
+      <c r="R49" s="12"/>
+      <c r="S49" s="12"/>
+      <c r="T49" s="12"/>
+      <c r="U49" s="12"/>
+      <c r="V49" s="12"/>
+      <c r="W49" s="12"/>
+      <c r="X49" s="12"/>
+      <c r="Y49" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z49" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA49" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="1:27">
       <c r="A50" s="12">
         <v>46</v>
       </c>
@@ -29867,20 +30620,30 @@
       <c r="L50" s="12"/>
       <c r="M50" s="12"/>
       <c r="N50" s="12"/>
-      <c r="O50" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P50" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q50" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="51" customHeight="1" spans="1:17">
+      <c r="O50" s="12"/>
+      <c r="P50" s="12"/>
+      <c r="Q50" s="12"/>
+      <c r="R50" s="12"/>
+      <c r="S50" s="12"/>
+      <c r="T50" s="12"/>
+      <c r="U50" s="12"/>
+      <c r="V50" s="12"/>
+      <c r="W50" s="12"/>
+      <c r="X50" s="12"/>
+      <c r="Y50" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z50" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA50" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="1:27">
       <c r="A51" s="12">
         <v>47</v>
       </c>
@@ -29897,20 +30660,30 @@
       <c r="L51" s="12"/>
       <c r="M51" s="12"/>
       <c r="N51" s="12"/>
-      <c r="O51" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P51" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q51" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="52" customHeight="1" spans="1:17">
+      <c r="O51" s="12"/>
+      <c r="P51" s="12"/>
+      <c r="Q51" s="12"/>
+      <c r="R51" s="12"/>
+      <c r="S51" s="12"/>
+      <c r="T51" s="12"/>
+      <c r="U51" s="12"/>
+      <c r="V51" s="12"/>
+      <c r="W51" s="12"/>
+      <c r="X51" s="12"/>
+      <c r="Y51" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z51" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA51" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="1:27">
       <c r="A52" s="12">
         <v>48</v>
       </c>
@@ -29927,20 +30700,30 @@
       <c r="L52" s="12"/>
       <c r="M52" s="12"/>
       <c r="N52" s="12"/>
-      <c r="O52" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P52" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q52" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="53" customHeight="1" spans="1:17">
+      <c r="O52" s="12"/>
+      <c r="P52" s="12"/>
+      <c r="Q52" s="12"/>
+      <c r="R52" s="12"/>
+      <c r="S52" s="12"/>
+      <c r="T52" s="12"/>
+      <c r="U52" s="12"/>
+      <c r="V52" s="12"/>
+      <c r="W52" s="12"/>
+      <c r="X52" s="12"/>
+      <c r="Y52" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z52" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA52" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" spans="1:27">
       <c r="A53" s="12">
         <v>49</v>
       </c>
@@ -29957,20 +30740,30 @@
       <c r="L53" s="12"/>
       <c r="M53" s="12"/>
       <c r="N53" s="12"/>
-      <c r="O53" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P53" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q53" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="54" customHeight="1" spans="1:17">
+      <c r="O53" s="12"/>
+      <c r="P53" s="12"/>
+      <c r="Q53" s="12"/>
+      <c r="R53" s="12"/>
+      <c r="S53" s="12"/>
+      <c r="T53" s="12"/>
+      <c r="U53" s="12"/>
+      <c r="V53" s="12"/>
+      <c r="W53" s="12"/>
+      <c r="X53" s="12"/>
+      <c r="Y53" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z53" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA53" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="54" customHeight="1" spans="1:27">
       <c r="A54" s="12">
         <v>50</v>
       </c>
@@ -29987,20 +30780,30 @@
       <c r="L54" s="12"/>
       <c r="M54" s="12"/>
       <c r="N54" s="12"/>
-      <c r="O54" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P54" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q54" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="55" customHeight="1" spans="1:17">
+      <c r="O54" s="12"/>
+      <c r="P54" s="12"/>
+      <c r="Q54" s="12"/>
+      <c r="R54" s="12"/>
+      <c r="S54" s="12"/>
+      <c r="T54" s="12"/>
+      <c r="U54" s="12"/>
+      <c r="V54" s="12"/>
+      <c r="W54" s="12"/>
+      <c r="X54" s="12"/>
+      <c r="Y54" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z54" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA54" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="55" customHeight="1" spans="1:27">
       <c r="A55" s="12">
         <v>51</v>
       </c>
@@ -30017,20 +30820,30 @@
       <c r="L55" s="12"/>
       <c r="M55" s="12"/>
       <c r="N55" s="12"/>
-      <c r="O55" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P55" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q55" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="56" customHeight="1" spans="1:17">
+      <c r="O55" s="12"/>
+      <c r="P55" s="12"/>
+      <c r="Q55" s="12"/>
+      <c r="R55" s="12"/>
+      <c r="S55" s="12"/>
+      <c r="T55" s="12"/>
+      <c r="U55" s="12"/>
+      <c r="V55" s="12"/>
+      <c r="W55" s="12"/>
+      <c r="X55" s="12"/>
+      <c r="Y55" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z55" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA55" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="56" customHeight="1" spans="1:27">
       <c r="A56" s="12">
         <v>52</v>
       </c>
@@ -30047,20 +30860,30 @@
       <c r="L56" s="12"/>
       <c r="M56" s="12"/>
       <c r="N56" s="12"/>
-      <c r="O56" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P56" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q56" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="57" customHeight="1" spans="1:17">
+      <c r="O56" s="12"/>
+      <c r="P56" s="12"/>
+      <c r="Q56" s="12"/>
+      <c r="R56" s="12"/>
+      <c r="S56" s="12"/>
+      <c r="T56" s="12"/>
+      <c r="U56" s="12"/>
+      <c r="V56" s="12"/>
+      <c r="W56" s="12"/>
+      <c r="X56" s="12"/>
+      <c r="Y56" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z56" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA56" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="57" customHeight="1" spans="1:27">
       <c r="A57" s="12">
         <v>53</v>
       </c>
@@ -30077,20 +30900,30 @@
       <c r="L57" s="12"/>
       <c r="M57" s="12"/>
       <c r="N57" s="12"/>
-      <c r="O57" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P57" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q57" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="58" customHeight="1" spans="1:17">
+      <c r="O57" s="12"/>
+      <c r="P57" s="12"/>
+      <c r="Q57" s="12"/>
+      <c r="R57" s="12"/>
+      <c r="S57" s="12"/>
+      <c r="T57" s="12"/>
+      <c r="U57" s="12"/>
+      <c r="V57" s="12"/>
+      <c r="W57" s="12"/>
+      <c r="X57" s="12"/>
+      <c r="Y57" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z57" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA57" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="58" customHeight="1" spans="1:27">
       <c r="A58" s="12">
         <v>54</v>
       </c>
@@ -30107,20 +30940,30 @@
       <c r="L58" s="12"/>
       <c r="M58" s="12"/>
       <c r="N58" s="12"/>
-      <c r="O58" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P58" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q58" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="59" customHeight="1" spans="1:17">
+      <c r="O58" s="12"/>
+      <c r="P58" s="12"/>
+      <c r="Q58" s="12"/>
+      <c r="R58" s="12"/>
+      <c r="S58" s="12"/>
+      <c r="T58" s="12"/>
+      <c r="U58" s="12"/>
+      <c r="V58" s="12"/>
+      <c r="W58" s="12"/>
+      <c r="X58" s="12"/>
+      <c r="Y58" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z58" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA58" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="59" customHeight="1" spans="1:27">
       <c r="A59" s="12">
         <v>55</v>
       </c>
@@ -30137,20 +30980,30 @@
       <c r="L59" s="12"/>
       <c r="M59" s="12"/>
       <c r="N59" s="12"/>
-      <c r="O59" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P59" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q59" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="60" customHeight="1" spans="1:17">
+      <c r="O59" s="12"/>
+      <c r="P59" s="12"/>
+      <c r="Q59" s="12"/>
+      <c r="R59" s="12"/>
+      <c r="S59" s="12"/>
+      <c r="T59" s="12"/>
+      <c r="U59" s="12"/>
+      <c r="V59" s="12"/>
+      <c r="W59" s="12"/>
+      <c r="X59" s="12"/>
+      <c r="Y59" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z59" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA59" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="60" customHeight="1" spans="1:27">
       <c r="A60" s="12">
         <v>56</v>
       </c>
@@ -30167,20 +31020,30 @@
       <c r="L60" s="12"/>
       <c r="M60" s="12"/>
       <c r="N60" s="12"/>
-      <c r="O60" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P60" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q60" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="61" customHeight="1" spans="1:17">
+      <c r="O60" s="12"/>
+      <c r="P60" s="12"/>
+      <c r="Q60" s="12"/>
+      <c r="R60" s="12"/>
+      <c r="S60" s="12"/>
+      <c r="T60" s="12"/>
+      <c r="U60" s="12"/>
+      <c r="V60" s="12"/>
+      <c r="W60" s="12"/>
+      <c r="X60" s="12"/>
+      <c r="Y60" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z60" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA60" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="61" customHeight="1" spans="1:27">
       <c r="A61" s="12">
         <v>57</v>
       </c>
@@ -30197,20 +31060,30 @@
       <c r="L61" s="12"/>
       <c r="M61" s="12"/>
       <c r="N61" s="12"/>
-      <c r="O61" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P61" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q61" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="62" customHeight="1" spans="1:17">
+      <c r="O61" s="12"/>
+      <c r="P61" s="12"/>
+      <c r="Q61" s="12"/>
+      <c r="R61" s="12"/>
+      <c r="S61" s="12"/>
+      <c r="T61" s="12"/>
+      <c r="U61" s="12"/>
+      <c r="V61" s="12"/>
+      <c r="W61" s="12"/>
+      <c r="X61" s="12"/>
+      <c r="Y61" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z61" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA61" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="62" customHeight="1" spans="1:27">
       <c r="A62" s="12">
         <v>58</v>
       </c>
@@ -30227,20 +31100,30 @@
       <c r="L62" s="12"/>
       <c r="M62" s="12"/>
       <c r="N62" s="12"/>
-      <c r="O62" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P62" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q62" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="63" customHeight="1" spans="1:17">
+      <c r="O62" s="12"/>
+      <c r="P62" s="12"/>
+      <c r="Q62" s="12"/>
+      <c r="R62" s="12"/>
+      <c r="S62" s="12"/>
+      <c r="T62" s="12"/>
+      <c r="U62" s="12"/>
+      <c r="V62" s="12"/>
+      <c r="W62" s="12"/>
+      <c r="X62" s="12"/>
+      <c r="Y62" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z62" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA62" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="63" customHeight="1" spans="1:27">
       <c r="A63" s="12">
         <v>59</v>
       </c>
@@ -30257,20 +31140,30 @@
       <c r="L63" s="12"/>
       <c r="M63" s="12"/>
       <c r="N63" s="12"/>
-      <c r="O63" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P63" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q63" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="64" customHeight="1" spans="1:17">
+      <c r="O63" s="12"/>
+      <c r="P63" s="12"/>
+      <c r="Q63" s="12"/>
+      <c r="R63" s="12"/>
+      <c r="S63" s="12"/>
+      <c r="T63" s="12"/>
+      <c r="U63" s="12"/>
+      <c r="V63" s="12"/>
+      <c r="W63" s="12"/>
+      <c r="X63" s="12"/>
+      <c r="Y63" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z63" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA63" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="64" customHeight="1" spans="1:27">
       <c r="A64" s="12">
         <v>60</v>
       </c>
@@ -30287,20 +31180,30 @@
       <c r="L64" s="12"/>
       <c r="M64" s="12"/>
       <c r="N64" s="12"/>
-      <c r="O64" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P64" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q64" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="65" customHeight="1" spans="1:17">
+      <c r="O64" s="12"/>
+      <c r="P64" s="12"/>
+      <c r="Q64" s="12"/>
+      <c r="R64" s="12"/>
+      <c r="S64" s="12"/>
+      <c r="T64" s="12"/>
+      <c r="U64" s="12"/>
+      <c r="V64" s="12"/>
+      <c r="W64" s="12"/>
+      <c r="X64" s="12"/>
+      <c r="Y64" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z64" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA64" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="65" customHeight="1" spans="1:27">
       <c r="A65" s="12">
         <v>61</v>
       </c>
@@ -30317,20 +31220,30 @@
       <c r="L65" s="12"/>
       <c r="M65" s="12"/>
       <c r="N65" s="12"/>
-      <c r="O65" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P65" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q65" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="66" customHeight="1" spans="1:17">
+      <c r="O65" s="12"/>
+      <c r="P65" s="12"/>
+      <c r="Q65" s="12"/>
+      <c r="R65" s="12"/>
+      <c r="S65" s="12"/>
+      <c r="T65" s="12"/>
+      <c r="U65" s="12"/>
+      <c r="V65" s="12"/>
+      <c r="W65" s="12"/>
+      <c r="X65" s="12"/>
+      <c r="Y65" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z65" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA65" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="66" customHeight="1" spans="1:27">
       <c r="A66" s="12">
         <v>62</v>
       </c>
@@ -30347,20 +31260,30 @@
       <c r="L66" s="12"/>
       <c r="M66" s="12"/>
       <c r="N66" s="12"/>
-      <c r="O66" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P66" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q66" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="67" customHeight="1" spans="1:17">
+      <c r="O66" s="12"/>
+      <c r="P66" s="12"/>
+      <c r="Q66" s="12"/>
+      <c r="R66" s="12"/>
+      <c r="S66" s="12"/>
+      <c r="T66" s="12"/>
+      <c r="U66" s="12"/>
+      <c r="V66" s="12"/>
+      <c r="W66" s="12"/>
+      <c r="X66" s="12"/>
+      <c r="Y66" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z66" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA66" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="67" customHeight="1" spans="1:27">
       <c r="A67" s="12">
         <v>63</v>
       </c>
@@ -30377,16 +31300,26 @@
       <c r="L67" s="12"/>
       <c r="M67" s="12"/>
       <c r="N67" s="12"/>
-      <c r="O67" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P67" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q67" s="20" t="str">
-        <f t="shared" si="2"/>
+      <c r="O67" s="12"/>
+      <c r="P67" s="12"/>
+      <c r="Q67" s="12"/>
+      <c r="R67" s="12"/>
+      <c r="S67" s="12"/>
+      <c r="T67" s="12"/>
+      <c r="U67" s="12"/>
+      <c r="V67" s="12"/>
+      <c r="W67" s="12"/>
+      <c r="X67" s="12"/>
+      <c r="Y67" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z67" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA67" s="20" t="str">
+        <f t="shared" si="3"/>
         <v>完成</v>
       </c>
     </row>
@@ -30400,20 +31333,30 @@
     <row r="71" customHeight="1" spans="11:11">
       <c r="K71" s="22"/>
     </row>
-    <row r="72" customHeight="1" spans="12:12">
+    <row r="72" customHeight="1" spans="12:22">
       <c r="L72" s="22"/>
+      <c r="M72" s="22"/>
+      <c r="N72" s="22"/>
+      <c r="O72" s="22"/>
+      <c r="P72" s="22"/>
+      <c r="Q72" s="22"/>
+      <c r="R72" s="22"/>
+      <c r="S72" s="22"/>
+      <c r="T72" s="22"/>
+      <c r="U72" s="22"/>
+      <c r="V72" s="22"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:R75">
-    <sortState ref="A4:R75">
+  <autoFilter ref="A4:AB75">
+    <sortState ref="A4:AB75">
       <sortCondition ref="I4:I75"/>
     </sortState>
     <extLst/>
   </autoFilter>
   <mergeCells count="12">
-    <mergeCell ref="B1:Q1"/>
+    <mergeCell ref="B1:AA1"/>
     <mergeCell ref="A2:D2"/>
-    <mergeCell ref="I3:P3"/>
+    <mergeCell ref="I3:Z3"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
@@ -30422,7 +31365,7 @@
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="H3:H4"/>
-    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="AA3:AA4"/>
   </mergeCells>
   <pageMargins left="0.39" right="0.27" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="600" verticalDpi="600"/>

--- a/拼装统计.xlsx
+++ b/拼装统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30048" windowHeight="13740" activeTab="4"/>
+    <workbookView windowWidth="30048" windowHeight="13740" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="义乌奥晶办公室食堂（完成)" sheetId="22" r:id="rId1"/>
@@ -1863,15 +1863,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="9">
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="177" formatCode="0.000_);[Red]\(0.000\)"/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="0.0_);[Red]\(0.0\)"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="178" formatCode="0.000_);[Red]\(0.000\)"/>
-    <numFmt numFmtId="179" formatCode="0.0_);[Red]\(0.0\)"/>
-    <numFmt numFmtId="180" formatCode="0.00_ "/>
+    <numFmt numFmtId="180" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -1922,28 +1922,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1957,8 +1966,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1966,14 +1984,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1989,23 +1999,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2019,25 +2013,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2051,17 +2030,38 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2092,31 +2092,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2128,7 +2110,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2140,19 +2176,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2170,37 +2212,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2212,61 +2242,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2336,6 +2336,32 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -2373,50 +2399,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2431,6 +2413,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2439,10 +2439,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2451,136 +2451,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2600,7 +2600,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2615,13 +2615,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2633,25 +2633,25 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2672,13 +2672,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -15349,11 +15349,11 @@
   <dimension ref="A1:AE166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="8" ySplit="4" topLeftCell="L35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="4" topLeftCell="L5" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H84" sqref="H84"/>
+      <selection pane="bottomRight" activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>
@@ -24645,12 +24645,12 @@
   <sheetPr/>
   <dimension ref="A1:AB223"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="8" ySplit="4" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C100" sqref="C84:C100"/>
+      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>
@@ -24659,7 +24659,7 @@
     <col min="2" max="2" width="11.6296296296296" style="3" customWidth="1"/>
     <col min="3" max="3" width="7.75" style="3" customWidth="1"/>
     <col min="4" max="4" width="25.9907407407407" style="3" customWidth="1"/>
-    <col min="5" max="5" width="5.75" style="3"/>
+    <col min="5" max="5" width="17.5555555555556" style="3" customWidth="1"/>
     <col min="6" max="6" width="16.5" style="3" customWidth="1"/>
     <col min="7" max="8" width="16.5" style="4" customWidth="1"/>
     <col min="9" max="9" width="12.25" style="4" customWidth="1" outlineLevel="1"/>
@@ -24811,7 +24811,9 @@
       <c r="N4" s="12">
         <v>2.2</v>
       </c>
-      <c r="O4" s="25"/>
+      <c r="O4" s="25">
+        <v>2.7</v>
+      </c>
       <c r="P4" s="25"/>
       <c r="Q4" s="25"/>
       <c r="R4" s="25"/>
@@ -27909,7 +27911,9 @@
       <c r="L62" s="12"/>
       <c r="M62" s="12"/>
       <c r="N62" s="12"/>
-      <c r="O62" s="12"/>
+      <c r="O62" s="12">
+        <v>4</v>
+      </c>
       <c r="P62" s="12"/>
       <c r="Q62" s="12"/>
       <c r="R62" s="12"/>
@@ -27921,11 +27925,11 @@
       <c r="X62" s="12"/>
       <c r="Y62" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z62" s="18">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AA62" s="20">
         <f t="shared" si="7"/>
@@ -36777,12 +36781,12 @@
   <sheetPr/>
   <dimension ref="A1:AB72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="8" ySplit="4" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H84" sqref="H84"/>
+      <selection pane="bottomRight" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>
@@ -36928,8 +36932,12 @@
       <c r="I4" s="12">
         <v>2.5</v>
       </c>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
+      <c r="J4" s="12">
+        <v>2.6</v>
+      </c>
+      <c r="K4" s="12">
+        <v>2.7</v>
+      </c>
       <c r="L4" s="12"/>
       <c r="M4" s="12"/>
       <c r="N4" s="12"/>
@@ -36976,8 +36984,12 @@
       <c r="I5" s="17">
         <v>14</v>
       </c>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
+      <c r="J5" s="12">
+        <v>14</v>
+      </c>
+      <c r="K5" s="12">
+        <v>12</v>
+      </c>
       <c r="L5" s="12"/>
       <c r="M5" s="12"/>
       <c r="N5" s="12"/>
@@ -36993,15 +37005,15 @@
       <c r="X5" s="12"/>
       <c r="Y5" s="18">
         <f>SUM(I5:X5)</f>
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="Z5" s="18">
         <f>C5-Y5</f>
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="AA5" s="20">
         <f>IF(SUM(I5:X5)=C5,"完成",SUM(I5:X5))</f>
-        <v>14</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:27">
